--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1759">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">16.9247817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8509845733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9961357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8669853210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.590235710144</t>
+    <t xml:space="preserve">16.850980758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9961338043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931861877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116340637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8669843673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5902338027954</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466815948486</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">15.2335348129272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9407825469971</t>
+    <t xml:space="preserve">15.9407835006714</t>
   </si>
   <si>
     <t xml:space="preserve">16.1006832122803</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">15.8731307983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9063320159912</t>
+    <t xml:space="preserve">16.9063358306885</t>
   </si>
   <si>
     <t xml:space="preserve">16.9309329986572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5274810791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.533634185791</t>
+    <t xml:space="preserve">17.5274848937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5336322784424</t>
   </si>
   <si>
     <t xml:space="preserve">17.1154327392578</t>
@@ -98,22 +98,22 @@
     <t xml:space="preserve">17.7119827270508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6504821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.342981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6849308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4512348175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9899845123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.360237121582</t>
+    <t xml:space="preserve">17.6504802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3429832458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6849327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4512310028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9899826049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3602333068848</t>
   </si>
   <si>
     <t xml:space="preserve">14.4032850265503</t>
@@ -122,34 +122,34 @@
     <t xml:space="preserve">15.1105346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1412868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2027854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9838342666626</t>
+    <t xml:space="preserve">15.1412858963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2027835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9838333129883</t>
   </si>
   <si>
     <t xml:space="preserve">15.8792819976807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7808818817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6947822570801</t>
+    <t xml:space="preserve">15.7808828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.694785118103</t>
   </si>
   <si>
     <t xml:space="preserve">15.762433052063</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9739837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696846008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2113857269287</t>
+    <t xml:space="preserve">16.9739799499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4696826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2113838195801</t>
   </si>
   <si>
     <t xml:space="preserve">16.7218341827393</t>
@@ -161,37 +161,37 @@
     <t xml:space="preserve">16.5434818267822</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0416278839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8079299926758</t>
+    <t xml:space="preserve">17.041633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.807933807373</t>
   </si>
   <si>
     <t xml:space="preserve">16.4819831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8854322433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0084323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5779323577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9284820556641</t>
+    <t xml:space="preserve">15.8854331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0084342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5779314041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.928484916687</t>
   </si>
   <si>
     <t xml:space="preserve">16.1867828369141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6972332000732</t>
+    <t xml:space="preserve">16.6972312927246</t>
   </si>
   <si>
     <t xml:space="preserve">16.912483215332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5951328277588</t>
+    <t xml:space="preserve">17.5951309204102</t>
   </si>
   <si>
     <t xml:space="preserve">17.8534317016602</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">17.6996822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5582313537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7242832183838</t>
+    <t xml:space="preserve">17.5582294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7242794036865</t>
   </si>
   <si>
     <t xml:space="preserve">17.7495498657227</t>
@@ -212,19 +212,19 @@
     <t xml:space="preserve">18.1285419464111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3875198364258</t>
+    <t xml:space="preserve">18.3875217437744</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527439117432</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4274044036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0148429870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1557922363281</t>
+    <t xml:space="preserve">17.4274024963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0148448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1557903289795</t>
   </si>
   <si>
     <t xml:space="preserve">17.2442207336426</t>
@@ -233,25 +233,25 @@
     <t xml:space="preserve">17.3579177856445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4716167449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1936893463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8020668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9662952423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.757848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6504669189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9157619476318</t>
+    <t xml:space="preserve">17.4716186523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1936912536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8020629882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9662933349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7578468322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6504650115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9157600402832</t>
   </si>
   <si>
     <t xml:space="preserve">16.448335647583</t>
@@ -263,46 +263,46 @@
     <t xml:space="preserve">16.044075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0819721221924</t>
+    <t xml:space="preserve">16.0819759368896</t>
   </si>
   <si>
     <t xml:space="preserve">16.1704063415527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.006175994873</t>
+    <t xml:space="preserve">16.0061740875244</t>
   </si>
   <si>
     <t xml:space="preserve">15.7787799835205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5261144638062</t>
+    <t xml:space="preserve">15.5261163711548</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5766487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0018434524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544332504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4144010543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1175231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2754373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0354089736938</t>
+    <t xml:space="preserve">15.5766506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334224700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0018424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544322967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.414400100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1175222396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2754364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0354061126709</t>
   </si>
   <si>
     <t xml:space="preserve">13.7258958816528</t>
@@ -314,31 +314,31 @@
     <t xml:space="preserve">13.953293800354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5806131362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8332767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9619607925415</t>
+    <t xml:space="preserve">13.5806150436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8332786560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9619636535645</t>
   </si>
   <si>
     <t xml:space="preserve">15.3492527008057</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1597576141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9134130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0271081924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796960830688</t>
+    <t xml:space="preserve">15.1597566604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9134120941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0271091461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796970367432</t>
   </si>
   <si>
     <t xml:space="preserve">14.5912647247314</t>
@@ -347,25 +347,25 @@
     <t xml:space="preserve">14.6923313140869</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4649343490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2564859390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0543584823608</t>
+    <t xml:space="preserve">14.4649314880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2564878463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0543565750122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8016939163208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226999282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.258469581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1068706512451</t>
+    <t xml:space="preserve">13.422700881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2584705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1068716049194</t>
   </si>
   <si>
     <t xml:space="preserve">12.7657785415649</t>
@@ -374,37 +374,37 @@
     <t xml:space="preserve">13.4479675292969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9153928756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8522262573242</t>
+    <t xml:space="preserve">13.9153938293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8522272109985</t>
   </si>
   <si>
     <t xml:space="preserve">14.2817535400391</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3279514312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1929521560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877035140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3508653640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645662307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.477198600769</t>
+    <t xml:space="preserve">13.3279523849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1929540634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3508682250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645643234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4771995544434</t>
   </si>
   <si>
     <t xml:space="preserve">11.496148109436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9276571273804</t>
+    <t xml:space="preserve">10.9276580810547</t>
   </si>
   <si>
     <t xml:space="preserve">10.5360298156738</t>
@@ -413,55 +413,55 @@
     <t xml:space="preserve">10.5233964920044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7002630233765</t>
+    <t xml:space="preserve">10.7002620697021</t>
   </si>
   <si>
     <t xml:space="preserve">10.7381610870361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9067249298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4057331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.633129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562664031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6647119522095</t>
+    <t xml:space="preserve">11.9067239761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4057350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6331310272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562654495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6647109985352</t>
   </si>
   <si>
     <t xml:space="preserve">12.380467414856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6457643508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3488836288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467542648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446239471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6603775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0962228775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857908248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5573320388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7341957092285</t>
+    <t xml:space="preserve">12.6457633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3488826751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446229934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603784561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0962238311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857917785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5573310852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7341928482056</t>
   </si>
   <si>
     <t xml:space="preserve">12.2225532531738</t>
@@ -470,34 +470,34 @@
     <t xml:space="preserve">12.2541351318359</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7594614028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.911060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5383815765381</t>
+    <t xml:space="preserve">12.7594623565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9110593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5383806228638</t>
   </si>
   <si>
     <t xml:space="preserve">12.816309928894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7089290618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5952310562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5194311141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4120483398438</t>
+    <t xml:space="preserve">12.7089309692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5952301025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5194301605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4120492935181</t>
   </si>
   <si>
     <t xml:space="preserve">12.0835886001587</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0709562301636</t>
+    <t xml:space="preserve">12.0709552764893</t>
   </si>
   <si>
     <t xml:space="preserve">12.140438079834</t>
@@ -506,85 +506,85 @@
     <t xml:space="preserve">12.1278057098389</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2036046981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0646390914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0583229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2288694381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3236179351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3046684265137</t>
+    <t xml:space="preserve">12.2036008834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0646371841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0583219528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.22887134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3236169815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.304669380188</t>
   </si>
   <si>
     <t xml:space="preserve">12.5699634552002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0121259689331</t>
+    <t xml:space="preserve">13.0121240615845</t>
   </si>
   <si>
     <t xml:space="preserve">13.5427150726318</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311464309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1510896682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8605289459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489574432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8352603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8542108535767</t>
+    <t xml:space="preserve">13.6311473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1510877609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8605279922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489583969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.835259437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8542098999023</t>
   </si>
   <si>
     <t xml:space="preserve">12.7278776168823</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9426422119141</t>
+    <t xml:space="preserve">12.9426403045654</t>
   </si>
   <si>
     <t xml:space="preserve">13.2647867202759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.22057056427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8226261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6583948135376</t>
+    <t xml:space="preserve">13.2205696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8226251602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6583957672119</t>
   </si>
   <si>
     <t xml:space="preserve">12.6394472122192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6773462295532</t>
+    <t xml:space="preserve">12.6773443222046</t>
   </si>
   <si>
     <t xml:space="preserve">12.8731575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9300098419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2268886566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.643780708313</t>
+    <t xml:space="preserve">12.9300079345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2268867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6437797546387</t>
   </si>
   <si>
     <t xml:space="preserve">14.7744455337524</t>
@@ -593,28 +593,28 @@
     <t xml:space="preserve">15.0650081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0965929031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2481889724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3429365158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5892810821533</t>
+    <t xml:space="preserve">15.0965909957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2481870651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3429384231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.589282989502</t>
   </si>
   <si>
     <t xml:space="preserve">15.8040447235107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9051094055176</t>
+    <t xml:space="preserve">15.9051122665405</t>
   </si>
   <si>
     <t xml:space="preserve">16.3662204742432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546527862549</t>
+    <t xml:space="preserve">16.4546508789062</t>
   </si>
   <si>
     <t xml:space="preserve">16.6125640869141</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">16.7452125549316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6441478729248</t>
+    <t xml:space="preserve">16.6441497802734</t>
   </si>
   <si>
     <t xml:space="preserve">16.4357032775879</t>
@@ -632,25 +632,25 @@
     <t xml:space="preserve">16.1830387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2019882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9556436538696</t>
+    <t xml:space="preserve">16.2019901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9556446075439</t>
   </si>
   <si>
     <t xml:space="preserve">16.0503902435303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9935426712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8166770935059</t>
+    <t xml:space="preserve">15.9935436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8166809082031</t>
   </si>
   <si>
     <t xml:space="preserve">15.4755849838257</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4629526138306</t>
+    <t xml:space="preserve">15.4629535675049</t>
   </si>
   <si>
     <t xml:space="preserve">15.0081596374512</t>
@@ -659,64 +659,64 @@
     <t xml:space="preserve">15.0523738861084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9449939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4965152740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0227737426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5281009674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.78076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618141174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5513820648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6966648101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6082334518433</t>
+    <t xml:space="preserve">14.9449911117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881425857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512334823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270372390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4965181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0227746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5280981063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807645797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618112564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102132797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5513849258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.696665763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6082324981689</t>
   </si>
   <si>
     <t xml:space="preserve">15.7914123535156</t>
   </si>
   <si>
-    <t xml:space="preserve">16.429386138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1514549255371</t>
+    <t xml:space="preserve">16.4293842315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1514587402344</t>
   </si>
   <si>
     <t xml:space="preserve">15.8229961395264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.91774559021</t>
+    <t xml:space="preserve">15.917742729187</t>
   </si>
   <si>
     <t xml:space="preserve">16.2588386535645</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4230690002441</t>
+    <t xml:space="preserve">16.4230670928955</t>
   </si>
   <si>
     <t xml:space="preserve">16.7388973236084</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">17.1368408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0420932769775</t>
+    <t xml:space="preserve">17.0420913696289</t>
   </si>
   <si>
     <t xml:space="preserve">16.9915599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8652305603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3156852722168</t>
+    <t xml:space="preserve">16.8652286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3156890869141</t>
   </si>
   <si>
     <t xml:space="preserve">16.4862365722656</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">16.6757316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5367660522461</t>
+    <t xml:space="preserve">16.5367679595947</t>
   </si>
   <si>
     <t xml:space="preserve">16.5936164855957</t>
@@ -755,19 +755,19 @@
     <t xml:space="preserve">16.5746688842773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3093700408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1072444915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9809103012085</t>
+    <t xml:space="preserve">16.3093719482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1072425842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9809093475342</t>
   </si>
   <si>
     <t xml:space="preserve">15.6524477005005</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9745931625366</t>
+    <t xml:space="preserve">15.9745941162109</t>
   </si>
   <si>
     <t xml:space="preserve">15.8545770645142</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">15.8293113708496</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5493984222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2335720062256</t>
+    <t xml:space="preserve">16.5494003295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.233570098877</t>
   </si>
   <si>
     <t xml:space="preserve">16.1198749542236</t>
@@ -788,34 +788,34 @@
     <t xml:space="preserve">16.3599033355713</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9283924102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4337177276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4210834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6358509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1538066864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6464996337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7917804718018</t>
+    <t xml:space="preserve">16.9283962249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4337215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.421085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6358528137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1538047790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6465015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7917823791504</t>
   </si>
   <si>
     <t xml:space="preserve">18.2927722930908</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2675018310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6863822937012</t>
+    <t xml:space="preserve">18.267505645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6863842010498</t>
   </si>
   <si>
     <t xml:space="preserve">18.5707015991211</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">18.6338672637939</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0760250091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2276248931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3476409912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7601985931396</t>
+    <t xml:space="preserve">19.0760269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2276268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3476390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.760196685791</t>
   </si>
   <si>
     <t xml:space="preserve">18.8802127838135</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">19.4550189971924</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7013683319092</t>
+    <t xml:space="preserve">19.7013664245605</t>
   </si>
   <si>
     <t xml:space="preserve">20.6046371459961</t>
@@ -851,19 +851,19 @@
     <t xml:space="preserve">21.5015888214111</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7921466827393</t>
+    <t xml:space="preserve">21.7921485900879</t>
   </si>
   <si>
     <t xml:space="preserve">21.987964630127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0301971435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5690879821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9291324615479</t>
+    <t xml:space="preserve">23.0301952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5690860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9291286468506</t>
   </si>
   <si>
     <t xml:space="preserve">22.8028011322021</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">22.7396354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7080535888672</t>
+    <t xml:space="preserve">22.7080516815186</t>
   </si>
   <si>
     <t xml:space="preserve">22.3480091094971</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">22.613302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6954212188721</t>
+    <t xml:space="preserve">22.6954193115234</t>
   </si>
   <si>
     <t xml:space="preserve">22.9164962768555</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">22.8975505828857</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6638355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2133731842041</t>
+    <t xml:space="preserve">22.6638374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2133750915527</t>
   </si>
   <si>
     <t xml:space="preserve">23.548152923584</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">23.3586540222168</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2891731262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1186256408691</t>
+    <t xml:space="preserve">23.289176940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1186275482178</t>
   </si>
   <si>
     <t xml:space="preserve">23.0491466522217</t>
@@ -914,28 +914,28 @@
     <t xml:space="preserve">23.434455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7376537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4407730102539</t>
+    <t xml:space="preserve">23.7376499176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4407749176025</t>
   </si>
   <si>
     <t xml:space="preserve">24.4893226623535</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3440437316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1734924316406</t>
+    <t xml:space="preserve">24.3440418243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1734962463379</t>
   </si>
   <si>
     <t xml:space="preserve">24.4451065063477</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0135936737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2200012207031</t>
+    <t xml:space="preserve">25.0135955810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2199993133545</t>
   </si>
   <si>
     <t xml:space="preserve">24.8329944610596</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">24.6265888214111</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6074676513672</t>
+    <t xml:space="preserve">23.6074657440186</t>
   </si>
   <si>
     <t xml:space="preserve">22.4980487823486</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">23.2075634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8915061950684</t>
+    <t xml:space="preserve">22.8915100097656</t>
   </si>
   <si>
     <t xml:space="preserve">22.6915512084961</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">22.7560520172119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6399478912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2209224700928</t>
+    <t xml:space="preserve">22.639949798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2209205627441</t>
   </si>
   <si>
     <t xml:space="preserve">20.4404563903809</t>
@@ -974,46 +974,46 @@
     <t xml:space="preserve">21.4918270111084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9562397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5238456726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5109481811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5754489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4464492797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2916450500488</t>
+    <t xml:space="preserve">21.9562358856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5238475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.510950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5754528045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4464473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2916469573975</t>
   </si>
   <si>
     <t xml:space="preserve">22.3303413391113</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7691822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5627784729004</t>
+    <t xml:space="preserve">21.7691841125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.562780380249</t>
   </si>
   <si>
     <t xml:space="preserve">21.8659362792969</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2658443450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0594387054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1884422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8205528259277</t>
+    <t xml:space="preserve">22.2658424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0594367980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.188440322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8205547332764</t>
   </si>
   <si>
     <t xml:space="preserve">22.7625064849854</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">22.3819446563721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6012496948242</t>
+    <t xml:space="preserve">22.6012516021729</t>
   </si>
   <si>
     <t xml:space="preserve">22.5496482849121</t>
@@ -1040,25 +1040,25 @@
     <t xml:space="preserve">22.046537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9949378967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5302963256836</t>
+    <t xml:space="preserve">21.9949359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5302982330322</t>
   </si>
   <si>
     <t xml:space="preserve">22.7302551269531</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7044525146484</t>
+    <t xml:space="preserve">22.7044506072998</t>
   </si>
   <si>
     <t xml:space="preserve">22.9431056976318</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0205059051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1043567657471</t>
+    <t xml:space="preserve">23.0205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1043586730957</t>
   </si>
   <si>
     <t xml:space="preserve">23.0140590667725</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">23.2204647064209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3752689361572</t>
+    <t xml:space="preserve">23.3752670288086</t>
   </si>
   <si>
     <t xml:space="preserve">23.4139652252197</t>
@@ -1076,31 +1076,31 @@
     <t xml:space="preserve">23.7042198181152</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9170761108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7880744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622756958008</t>
+    <t xml:space="preserve">23.9170780181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7880764007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622699737549</t>
   </si>
   <si>
     <t xml:space="preserve">23.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0138263702393</t>
+    <t xml:space="preserve">24.0138244628906</t>
   </si>
   <si>
     <t xml:space="preserve">24.2847347259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9299774169922</t>
+    <t xml:space="preserve">23.9299755096436</t>
   </si>
   <si>
     <t xml:space="preserve">24.7039928436279</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1877517700195</t>
+    <t xml:space="preserve">25.1877536773682</t>
   </si>
   <si>
     <t xml:space="preserve">24.8974952697754</t>
@@ -1109,25 +1109,25 @@
     <t xml:space="preserve">25.2587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0264987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6070117950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.832763671875</t>
+    <t xml:space="preserve">25.0264949798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6070098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8327617645264</t>
   </si>
   <si>
     <t xml:space="preserve">26.1423683166504</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4003734588623</t>
+    <t xml:space="preserve">26.4003772735596</t>
   </si>
   <si>
     <t xml:space="preserve">26.6906318664551</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2520217895508</t>
+    <t xml:space="preserve">26.2520236968994</t>
   </si>
   <si>
     <t xml:space="preserve">26.5035800933838</t>
@@ -1136,76 +1136,76 @@
     <t xml:space="preserve">26.4455242156982</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9166145324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5680770874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.780933380127</t>
+    <t xml:space="preserve">25.8908157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9166164398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.568078994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7809314727783</t>
   </si>
   <si>
     <t xml:space="preserve">26.7293319702148</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2326755523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4326248168945</t>
+    <t xml:space="preserve">26.2326698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4326267242432</t>
   </si>
   <si>
     <t xml:space="preserve">26.213321685791</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1939716339111</t>
+    <t xml:space="preserve">26.1939697265625</t>
   </si>
   <si>
     <t xml:space="preserve">26.3616752624512</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1617183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9940166473389</t>
+    <t xml:space="preserve">26.1617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9940147399902</t>
   </si>
   <si>
     <t xml:space="preserve">25.4199542999268</t>
   </si>
   <si>
-    <t xml:space="preserve">26.071418762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2842693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5745315551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9808883666992</t>
+    <t xml:space="preserve">26.0714168548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2842712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5745277404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9808921813965</t>
   </si>
   <si>
     <t xml:space="preserve">26.768030166626</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4842262268066</t>
+    <t xml:space="preserve">26.4842281341553</t>
   </si>
   <si>
     <t xml:space="preserve">27.2066383361816</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1743927001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.935733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1614933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5678520202637</t>
+    <t xml:space="preserve">27.1743907928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9357376098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.161491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5678482055664</t>
   </si>
   <si>
     <t xml:space="preserve">28.2709121704102</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">28.2773609161377</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7675724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352252960205</t>
+    <t xml:space="preserve">28.7675704956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352310180664</t>
   </si>
   <si>
     <t xml:space="preserve">29.0126781463623</t>
@@ -1226,22 +1226,22 @@
     <t xml:space="preserve">29.2384357452393</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7353229522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2513313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4964351654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8382892608643</t>
+    <t xml:space="preserve">28.7353172302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513332366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4964389801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8382911682129</t>
   </si>
   <si>
     <t xml:space="preserve">30.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8638610839844</t>
+    <t xml:space="preserve">30.863862991333</t>
   </si>
   <si>
     <t xml:space="preserve">31.0186653137207</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">29.5802879333496</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5155601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3411712646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023773193359</t>
+    <t xml:space="preserve">30.5155620574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3411674499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023811340332</t>
   </si>
   <si>
     <t xml:space="preserve">31.7733287811279</t>
@@ -1265,76 +1265,76 @@
     <t xml:space="preserve">31.5153255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8509635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6125431060791</t>
+    <t xml:space="preserve">30.8509616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6125392913818</t>
   </si>
   <si>
     <t xml:space="preserve">29.1739273071289</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9286022186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2964820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2833518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865528106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4252548217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6187591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.147668838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3156051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.354305267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1930503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.244649887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7802467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4899864196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9288234710693</t>
+    <t xml:space="preserve">29.9286003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2964839935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2833557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865604400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4252529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6187629699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1476745605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3156032562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3543090820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1930522918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2446460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7802429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4899845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.928825378418</t>
   </si>
   <si>
     <t xml:space="preserve">28.5224704742432</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0518379211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2778244018555</t>
+    <t xml:space="preserve">27.0518360137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2778205871582</t>
   </si>
   <si>
     <t xml:space="preserve">25.2393531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1038990020752</t>
+    <t xml:space="preserve">25.1038970947266</t>
   </si>
   <si>
     <t xml:space="preserve">25.9553184509277</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9813480377197</t>
+    <t xml:space="preserve">24.9813461303711</t>
   </si>
   <si>
     <t xml:space="preserve">24.9942474365234</t>
@@ -1343,49 +1343,49 @@
     <t xml:space="preserve">24.5427379608154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1750793457031</t>
+    <t xml:space="preserve">24.1750774383545</t>
   </si>
   <si>
     <t xml:space="preserve">24.9361953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6394901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8652420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0651969909668</t>
+    <t xml:space="preserve">24.6394920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8652458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0651988983154</t>
   </si>
   <si>
     <t xml:space="preserve">24.4524364471436</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6977729797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6655216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8977241516113</t>
+    <t xml:space="preserve">23.6977710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6655235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.89772605896</t>
   </si>
   <si>
     <t xml:space="preserve">24.0009250640869</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5881175994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9882583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5365180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589752197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7104434967041</t>
+    <t xml:space="preserve">23.5881195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9882564544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5365200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589809417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104415893555</t>
   </si>
   <si>
     <t xml:space="preserve">23.3043155670166</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">23.2140140533447</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1559619903564</t>
+    <t xml:space="preserve">23.1559638977051</t>
   </si>
   <si>
     <t xml:space="preserve">23.8783740997314</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9684467315674</t>
+    <t xml:space="preserve">24.968448638916</t>
   </si>
   <si>
     <t xml:space="preserve">26.2971725463867</t>
@@ -1409,49 +1409,49 @@
     <t xml:space="preserve">25.3425540924072</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6715068817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1230201721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1359214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7876129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8650131225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5749893188477</t>
+    <t xml:space="preserve">25.6715087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1230182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1359195709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7876148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8650150299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5749912261963</t>
   </si>
   <si>
     <t xml:space="preserve">25.3232040405273</t>
   </si>
   <si>
-    <t xml:space="preserve">25.46510887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.142599105835</t>
+    <t xml:space="preserve">25.4651050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1426029205322</t>
   </si>
   <si>
     <t xml:space="preserve">25.3490028381348</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2458019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0522994995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7684917449951</t>
+    <t xml:space="preserve">25.2458000183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0522975921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7684936523438</t>
   </si>
   <si>
     <t xml:space="preserve">24.7426948547363</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4975852966309</t>
+    <t xml:space="preserve">24.4975872039795</t>
   </si>
   <si>
     <t xml:space="preserve">25.2329006195068</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">23.388162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6079273223877</t>
+    <t xml:space="preserve">21.607931137085</t>
   </si>
   <si>
     <t xml:space="preserve">21.3628253936768</t>
@@ -1484,34 +1484,34 @@
     <t xml:space="preserve">23.2720623016357</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0011558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5042686462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4913692474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4526653289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.401065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5300693511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1430606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8721561431885</t>
+    <t xml:space="preserve">23.0011577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5042667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4913673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4526672363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4010639190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5300674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1430625915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8721523284912</t>
   </si>
   <si>
     <t xml:space="preserve">22.7431507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0078392028809</t>
+    <t xml:space="preserve">22.0078372955322</t>
   </si>
   <si>
     <t xml:space="preserve">21.2596225738525</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">20.9113140106201</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2854251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.001615524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9887180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0723400115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9820404052734</t>
+    <t xml:space="preserve">21.2854232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0016174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9887199401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0723419189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9820384979248</t>
   </si>
   <si>
     <t xml:space="preserve">20.7178115844727</t>
@@ -1541,34 +1541,34 @@
     <t xml:space="preserve">20.1760025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3695068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3757247924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1822204589844</t>
+    <t xml:space="preserve">20.3695049285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3757228851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.182222366333</t>
   </si>
   <si>
     <t xml:space="preserve">20.8855152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1502017974854</t>
+    <t xml:space="preserve">20.1501998901367</t>
   </si>
   <si>
     <t xml:space="preserve">19.092378616333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.563009262085</t>
+    <t xml:space="preserve">20.5630054473877</t>
   </si>
   <si>
     <t xml:space="preserve">19.7502937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5888118743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0274181365967</t>
+    <t xml:space="preserve">20.5888080596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0274200439453</t>
   </si>
   <si>
     <t xml:space="preserve">21.1951217651367</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">21.3499240875244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1626396179199</t>
+    <t xml:space="preserve">22.1626377105713</t>
   </si>
   <si>
     <t xml:space="preserve">21.6982307434082</t>
@@ -1604,43 +1604,43 @@
     <t xml:space="preserve">20.9955425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0753765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7539386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668216705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2861423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4724159240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.725212097168</t>
+    <t xml:space="preserve">21.0753746032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7539367675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668197631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2861442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4724140167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7252159118652</t>
   </si>
   <si>
     <t xml:space="preserve">22.405891418457</t>
   </si>
   <si>
-    <t xml:space="preserve">22.020040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4878349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6075801849365</t>
+    <t xml:space="preserve">22.0200386047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4878330230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3813953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6075839996338</t>
   </si>
   <si>
     <t xml:space="preserve">21.6874122619629</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8491878509521</t>
+    <t xml:space="preserve">20.8491859436035</t>
   </si>
   <si>
     <t xml:space="preserve">20.1573181152344</t>
@@ -1661,25 +1661,25 @@
     <t xml:space="preserve">18.1615447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1636562347412</t>
+    <t xml:space="preserve">17.1636581420898</t>
   </si>
   <si>
     <t xml:space="preserve">15.58034324646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1699953079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5271215438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6468677520752</t>
+    <t xml:space="preserve">14.1699962615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5271224975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6468687057495</t>
   </si>
   <si>
     <t xml:space="preserve">16.9640789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0306053161621</t>
+    <t xml:space="preserve">17.0306034088135</t>
   </si>
   <si>
     <t xml:space="preserve">16.5117053985596</t>
@@ -1688,13 +1688,13 @@
     <t xml:space="preserve">16.6580619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.312126159668</t>
+    <t xml:space="preserve">16.3121280670166</t>
   </si>
   <si>
     <t xml:space="preserve">16.1657695770264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8177242279053</t>
+    <t xml:space="preserve">16.8177223205566</t>
   </si>
   <si>
     <t xml:space="preserve">17.7623901367188</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">18.2546825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2280693054199</t>
+    <t xml:space="preserve">18.2280673980713</t>
   </si>
   <si>
     <t xml:space="preserve">17.6825580596924</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">18.4675636291504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9598541259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4010353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5873107910156</t>
+    <t xml:space="preserve">18.9598522186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4010391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.587308883667</t>
   </si>
   <si>
     <t xml:space="preserve">18.2812900543213</t>
@@ -1733,16 +1733,16 @@
     <t xml:space="preserve">17.123743057251</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1503524780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2035713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1769599914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3632335662842</t>
+    <t xml:space="preserve">17.1503505706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2035751342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1769618988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3632354736328</t>
   </si>
   <si>
     <t xml:space="preserve">17.6426429748535</t>
@@ -1754,22 +1754,22 @@
     <t xml:space="preserve">18.2413749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8954391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4962844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5894260406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.403148651123</t>
+    <t xml:space="preserve">17.8954429626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4962863922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5894222259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4031505584717</t>
   </si>
   <si>
     <t xml:space="preserve">18.3345108032227</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6272239685059</t>
+    <t xml:space="preserve">18.6272258758545</t>
   </si>
   <si>
     <t xml:space="preserve">17.9087467193604</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">17.655948638916</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9220542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885807037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8289127349854</t>
+    <t xml:space="preserve">17.9220523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.828914642334</t>
   </si>
   <si>
     <t xml:space="preserve">16.897554397583</t>
@@ -1793,25 +1793,25 @@
     <t xml:space="preserve">17.097131729126</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0992450714111</t>
+    <t xml:space="preserve">16.0992431640625</t>
   </si>
   <si>
     <t xml:space="preserve">14.7022037506104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0481367111206</t>
+    <t xml:space="preserve">15.0481386184692</t>
   </si>
   <si>
     <t xml:space="preserve">15.0082216262817</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9949159622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6090679168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3429613113403</t>
+    <t xml:space="preserve">14.9949150085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6090669631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.342963218689</t>
   </si>
   <si>
     <t xml:space="preserve">13.7575368881226</t>
@@ -1823,61 +1823,61 @@
     <t xml:space="preserve">13.7309246063232</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6910104751587</t>
+    <t xml:space="preserve">13.691011428833</t>
   </si>
   <si>
     <t xml:space="preserve">14.5824556350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0635538101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2631330490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2099132537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3961820602417</t>
+    <t xml:space="preserve">14.0635528564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2631320953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2099113464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3961839675903</t>
   </si>
   <si>
     <t xml:space="preserve">13.5712633132935</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5180435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4781284332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0369453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215263366699</t>
+    <t xml:space="preserve">13.5180416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4781265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0369434356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159282684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215272903442</t>
   </si>
   <si>
     <t xml:space="preserve">14.8751707077026</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6888971328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2743244171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9283895492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0348329544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.648983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6755905151367</t>
+    <t xml:space="preserve">14.6888990402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2743263244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9283905029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0348320007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6489839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6755924224854</t>
   </si>
   <si>
     <t xml:space="preserve">14.8485584259033</t>
@@ -1886,16 +1886,16 @@
     <t xml:space="preserve">15.460597038269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8597497940063</t>
+    <t xml:space="preserve">15.8597526550293</t>
   </si>
   <si>
     <t xml:space="preserve">15.83314037323</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6867828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730564117432</t>
+    <t xml:space="preserve">15.6867837905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730554580688</t>
   </si>
   <si>
     <t xml:space="preserve">14.7288131713867</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">13.1721076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9791841506958</t>
+    <t xml:space="preserve">12.9791831970215</t>
   </si>
   <si>
     <t xml:space="preserve">11.3426494598389</t>
@@ -1925,16 +1925,16 @@
     <t xml:space="preserve">11.6420154571533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2561655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8503589630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3559541702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3293447494507</t>
+    <t xml:space="preserve">11.2561664581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8503580093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3559532165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.329345703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.5422267913818</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">10.8836221694946</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4844675064087</t>
+    <t xml:space="preserve">10.4844655990601</t>
   </si>
   <si>
     <t xml:space="preserve">9.60632610321045</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">9.04085731506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31361198425293</t>
+    <t xml:space="preserve">9.31361293792725</t>
   </si>
   <si>
     <t xml:space="preserve">9.34687519073486</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">9.86577606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96556377410889</t>
+    <t xml:space="preserve">9.9655647277832</t>
   </si>
   <si>
     <t xml:space="preserve">10.3381099700928</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">10.6441287994385</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2362079620361</t>
+    <t xml:space="preserve">11.2362070083618</t>
   </si>
   <si>
     <t xml:space="preserve">10.8703165054321</t>
@@ -1985,28 +1985,28 @@
     <t xml:space="preserve">10.0320911407471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1385326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.699462890625</t>
+    <t xml:space="preserve">10.1385316848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69946193695068</t>
   </si>
   <si>
     <t xml:space="preserve">10.038743019104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1717967987061</t>
+    <t xml:space="preserve">10.1717958450317</t>
   </si>
   <si>
     <t xml:space="preserve">10.2981939315796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.544340133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.431245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979825973511</t>
+    <t xml:space="preserve">10.5443410873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4312448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979835510254</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773910522461</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">12.2473993301392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9946031570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7529973983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4336729049683</t>
+    <t xml:space="preserve">11.9946022033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7529964447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4336719512939</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076965332031</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">11.9081182479858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3692588806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.808331489563</t>
+    <t xml:space="preserve">11.3692607879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8083305358887</t>
   </si>
   <si>
     <t xml:space="preserve">11.3093872070312</t>
@@ -2060,22 +2060,22 @@
     <t xml:space="preserve">12.2074851989746</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1010437011719</t>
+    <t xml:space="preserve">12.1010446548462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9413824081421</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4091758728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904853820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6574335098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3048467636108</t>
+    <t xml:space="preserve">11.4091739654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904844284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.657434463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3048477172852</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853109359741</t>
@@ -2084,13 +2084,13 @@
     <t xml:space="preserve">9.93895530700684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715845108032</t>
+    <t xml:space="preserve">10.2715835571289</t>
   </si>
   <si>
     <t xml:space="preserve">10.2782363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.936842918396</t>
+    <t xml:space="preserve">10.9368438720703</t>
   </si>
   <si>
     <t xml:space="preserve">11.4424381256104</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">11.6087532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6819305419922</t>
+    <t xml:space="preserve">11.6819295883179</t>
   </si>
   <si>
     <t xml:space="preserve">11.6353635787964</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">11.0233249664307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5842552185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.109808921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2495136260986</t>
+    <t xml:space="preserve">10.5842561721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1098098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2495145797729</t>
   </si>
   <si>
     <t xml:space="preserve">11.5089645385742</t>
@@ -2129,82 +2129,82 @@
     <t xml:space="preserve">11.4025230407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9834108352661</t>
+    <t xml:space="preserve">10.9834098815918</t>
   </si>
   <si>
     <t xml:space="preserve">10.9634523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4757013320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.582142829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1630306243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0299777984619</t>
+    <t xml:space="preserve">11.3027334213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4757022857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5821418762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.163031578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0299787521362</t>
   </si>
   <si>
     <t xml:space="preserve">11.136420249939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3759126663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0698928833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108655929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2008323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9038915634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2319831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5068502426147</t>
+    <t xml:space="preserve">11.3759117126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0698938369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6108646392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2008333206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9038925170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2319822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5068511962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.9613389968872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7684144973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.668625831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6220579147339</t>
+    <t xml:space="preserve">11.7684154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6686248779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6220569610596</t>
   </si>
   <si>
     <t xml:space="preserve">11.1164608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3825654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0278654098511</t>
+    <t xml:space="preserve">11.3825664520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0278644561768</t>
   </si>
   <si>
     <t xml:space="preserve">12.1343069076538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2207908630371</t>
+    <t xml:space="preserve">12.2207899093628</t>
   </si>
   <si>
     <t xml:space="preserve">12.6265964508057</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0677804946899</t>
+    <t xml:space="preserve">12.0677795410156</t>
   </si>
   <si>
     <t xml:space="preserve">10.4977712631226</t>
@@ -2222,49 +2222,49 @@
     <t xml:space="preserve">9.9921760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0453968048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81920719146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8724308013916</t>
+    <t xml:space="preserve">10.0453958511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8192081451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87242984771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.84581851959229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72607326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78594493865967</t>
+    <t xml:space="preserve">9.72607231140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78594589233398</t>
   </si>
   <si>
     <t xml:space="preserve">9.9788703918457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89903926849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1651411056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445514678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4245939254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4046363830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3248052597046</t>
+    <t xml:space="preserve">9.89904117584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1651430130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445505142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4245929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4046354293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3248062133789</t>
   </si>
   <si>
     <t xml:space="preserve">10.597559928894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6507816314697</t>
+    <t xml:space="preserve">10.6507806777954</t>
   </si>
   <si>
     <t xml:space="preserve">10.6840438842773</t>
@@ -2273,52 +2273,52 @@
     <t xml:space="preserve">10.8104429244995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2869567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9313507080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6184148788452</t>
+    <t xml:space="preserve">11.2869548797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9313497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6184158325195</t>
   </si>
   <si>
     <t xml:space="preserve">10.6966495513916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1347904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.949875831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60849189758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37379169464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10353183746338</t>
+    <t xml:space="preserve">10.1347894668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94987487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60849285125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37379264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10352993011475</t>
   </si>
   <si>
     <t xml:space="preserve">8.64835357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15331554412842</t>
+    <t xml:space="preserve">9.15331649780273</t>
   </si>
   <si>
     <t xml:space="preserve">9.21021366119385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14620304107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87594318389893</t>
+    <t xml:space="preserve">9.14620208740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87594223022461</t>
   </si>
   <si>
     <t xml:space="preserve">8.66257953643799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69813919067383</t>
+    <t xml:space="preserve">8.69814014434814</t>
   </si>
   <si>
     <t xml:space="preserve">8.60568141937256</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">8.32119655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49188804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34964370727539</t>
+    <t xml:space="preserve">8.49188709259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34964466094971</t>
   </si>
   <si>
     <t xml:space="preserve">8.29274845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25007629394531</t>
+    <t xml:space="preserve">8.25007438659668</t>
   </si>
   <si>
     <t xml:space="preserve">8.10783195495605</t>
@@ -2351,34 +2351,34 @@
     <t xml:space="preserve">8.0580472946167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96558904647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0153751373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27141284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98692560195923</t>
+    <t xml:space="preserve">7.96559000015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01537322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27141094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98692512512207</t>
   </si>
   <si>
     <t xml:space="preserve">8.02248668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97981357574463</t>
+    <t xml:space="preserve">7.97981405258179</t>
   </si>
   <si>
     <t xml:space="preserve">8.15761756896973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47766304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83327007293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62701892852783</t>
+    <t xml:space="preserve">8.47766399383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83327102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62701797485352</t>
   </si>
   <si>
     <t xml:space="preserve">8.47055053710938</t>
@@ -2399,16 +2399,16 @@
     <t xml:space="preserve">8.7905969619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99684810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57293128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51603507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56581878662109</t>
+    <t xml:space="preserve">8.99684906005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57293224334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51603412628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56581974029541</t>
   </si>
   <si>
     <t xml:space="preserve">9.6725025177002</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">9.43780136108398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43068885803223</t>
+    <t xml:space="preserve">9.43068981170654</t>
   </si>
   <si>
     <t xml:space="preserve">9.33823204040527</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">9.40935230255127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85030460357666</t>
+    <t xml:space="preserve">9.85030555725098</t>
   </si>
   <si>
     <t xml:space="preserve">9.83608055114746</t>
@@ -2435,19 +2435,19 @@
     <t xml:space="preserve">9.82896900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62271690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48758602142334</t>
+    <t xml:space="preserve">9.62271595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48758697509766</t>
   </si>
   <si>
     <t xml:space="preserve">9.70806217193604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71517467498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58004474639893</t>
+    <t xml:space="preserve">9.71517372131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58004379272461</t>
   </si>
   <si>
     <t xml:space="preserve">9.4662504196167</t>
@@ -2465,10 +2465,10 @@
     <t xml:space="preserve">9.39512825012207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92853832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80763053894043</t>
+    <t xml:space="preserve">9.92853927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80763149261475</t>
   </si>
   <si>
     <t xml:space="preserve">9.77207088470459</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">10.0352201461792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3311185836792</t>
+    <t xml:space="preserve">9.33111953735352</t>
   </si>
   <si>
     <t xml:space="preserve">8.91861534118652</t>
@@ -2489,52 +2489,52 @@
     <t xml:space="preserve">9.08930683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16754055023193</t>
+    <t xml:space="preserve">9.16753959655762</t>
   </si>
   <si>
     <t xml:space="preserve">9.27422142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20309925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11064338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06085777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41646385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64405345916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92142581939697</t>
+    <t xml:space="preserve">9.20310020446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11064147949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06085872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41646480560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64405250549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92142677307129</t>
   </si>
   <si>
     <t xml:space="preserve">10.042332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1419010162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979377746582</t>
+    <t xml:space="preserve">10.1419019699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979387283325</t>
   </si>
   <si>
     <t xml:space="preserve">10.3837156295776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4548358917236</t>
+    <t xml:space="preserve">10.4548368453979</t>
   </si>
   <si>
     <t xml:space="preserve">10.5117330551147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5401811599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6610870361328</t>
+    <t xml:space="preserve">10.5401821136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6610879898071</t>
   </si>
   <si>
     <t xml:space="preserve">10.9028997421265</t>
@@ -2543,49 +2543,49 @@
     <t xml:space="preserve">10.9100122451782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7037601470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8815641403198</t>
+    <t xml:space="preserve">10.703761100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8815650939941</t>
   </si>
   <si>
     <t xml:space="preserve">10.8957891464233</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6397514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330686569214</t>
+    <t xml:space="preserve">10.6397523880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330696105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.6326398849487</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8886766433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753129959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4690618515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2343606948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.262809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3766031265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0067720413208</t>
+    <t xml:space="preserve">10.8886775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4690608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2343597412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2628087997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3766021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0067710876465</t>
   </si>
   <si>
     <t xml:space="preserve">10.3054819107056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4761724472046</t>
+    <t xml:space="preserve">10.4761714935303</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677707672119</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">10.7108726501465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7393217086792</t>
+    <t xml:space="preserve">10.7393207550049</t>
   </si>
   <si>
     <t xml:space="preserve">10.8602275848389</t>
@@ -2603,37 +2603,37 @@
     <t xml:space="preserve">10.9455738067627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9953575134277</t>
+    <t xml:space="preserve">10.9953584671021</t>
   </si>
   <si>
     <t xml:space="preserve">10.9384613037109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7464323043823</t>
+    <t xml:space="preserve">10.746434211731</t>
   </si>
   <si>
     <t xml:space="preserve">10.8673391342163</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9811353683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2442836761475</t>
+    <t xml:space="preserve">10.9811344146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2442827224731</t>
   </si>
   <si>
     <t xml:space="preserve">10.3908271789551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8531169891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2087230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2585067749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5828542709351</t>
+    <t xml:space="preserve">10.8531160354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2087211608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2585077285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5828561782837</t>
   </si>
   <si>
     <t xml:space="preserve">10.3552656173706</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">10.1063413619995</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96409893035889</t>
+    <t xml:space="preserve">9.9640998840332</t>
   </si>
   <si>
     <t xml:space="preserve">9.98543548583984</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">9.63694000244141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72939968109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65827655792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47336292266846</t>
+    <t xml:space="preserve">9.72939872741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65827751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47336101531982</t>
   </si>
   <si>
     <t xml:space="preserve">9.42357730865479</t>
@@ -2690,34 +2690,34 @@
     <t xml:space="preserve">9.69383811950684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74362277984619</t>
+    <t xml:space="preserve">9.74362182617188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1703510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95698833465576</t>
+    <t xml:space="preserve">9.95698738098145</t>
   </si>
   <si>
     <t xml:space="preserve">10.0565567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1561260223389</t>
+    <t xml:space="preserve">10.1561269760132</t>
   </si>
   <si>
     <t xml:space="preserve">10.0707807540894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0494441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1916875839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99966049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82185745239258</t>
+    <t xml:space="preserve">10.049446105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.191686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99965953826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82185649871826</t>
   </si>
   <si>
     <t xml:space="preserve">10.1205654144287</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">10.5472946166992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5259571075439</t>
+    <t xml:space="preserve">10.5259580612183</t>
   </si>
   <si>
     <t xml:space="preserve">10.4619483947754</t>
@@ -2735,37 +2735,37 @@
     <t xml:space="preserve">10.483283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2556972503662</t>
+    <t xml:space="preserve">10.2556962966919</t>
   </si>
   <si>
     <t xml:space="preserve">10.2272472381592</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7179861068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4192752838135</t>
+    <t xml:space="preserve">10.7179851531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4192762374878</t>
   </si>
   <si>
     <t xml:space="preserve">10.1987991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5899686813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6681995391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7819929122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1447124481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.137601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0735912322998</t>
+    <t xml:space="preserve">10.5899667739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6682004928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7819948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1447134017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1376008987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0735921859741</t>
   </si>
   <si>
     <t xml:space="preserve">11.1518249511719</t>
@@ -2774,64 +2774,64 @@
     <t xml:space="preserve">11.0024709701538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1589374542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2841444015503</t>
+    <t xml:space="preserve">11.1589365005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2841453552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.5046215057373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77918434143066</t>
+    <t xml:space="preserve">9.77918338775635</t>
   </si>
   <si>
     <t xml:space="preserve">9.24577331542969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69102668762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56731033325195</t>
+    <t xml:space="preserve">8.69102764129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56731128692627</t>
   </si>
   <si>
     <t xml:space="preserve">7.27571201324463</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25437545776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734045028687</t>
+    <t xml:space="preserve">7.25437593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734092712402</t>
   </si>
   <si>
     <t xml:space="preserve">6.52893829345703</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17333173751831</t>
+    <t xml:space="preserve">6.17333221435547</t>
   </si>
   <si>
     <t xml:space="preserve">5.98841667175293</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00264072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98130416870117</t>
+    <t xml:space="preserve">6.00264024734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98130369186401</t>
   </si>
   <si>
     <t xml:space="preserve">6.32979822158813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12710285186768</t>
+    <t xml:space="preserve">6.12710237503052</t>
   </si>
   <si>
     <t xml:space="preserve">6.42225646972656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.454261302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57872295379639</t>
+    <t xml:space="preserve">6.45426082611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57872343063354</t>
   </si>
   <si>
     <t xml:space="preserve">6.49693441390991</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">6.2266731262207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36535882949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33335494995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26934576034546</t>
+    <t xml:space="preserve">6.36535835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33335447311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2693452835083</t>
   </si>
   <si>
     <t xml:space="preserve">6.35824728012085</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">6.56449890136719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53960657119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5716118812561</t>
+    <t xml:space="preserve">6.53960609436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57161140441895</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514444351196</t>
@@ -2879,43 +2879,43 @@
     <t xml:space="preserve">6.04531335830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92085075378418</t>
+    <t xml:space="preserve">5.92085123062134</t>
   </si>
   <si>
     <t xml:space="preserve">6.06664991378784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39380836486816</t>
+    <t xml:space="preserve">6.39380788803101</t>
   </si>
   <si>
     <t xml:space="preserve">6.52182674407959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34757947921753</t>
+    <t xml:space="preserve">6.34757900238037</t>
   </si>
   <si>
     <t xml:space="preserve">6.1164345741272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18044424057007</t>
+    <t xml:space="preserve">6.18044328689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.14132785797119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01686525344849</t>
+    <t xml:space="preserve">6.01686477661133</t>
   </si>
   <si>
     <t xml:space="preserve">6.11287879943848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02753353118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94574356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85684156417847</t>
+    <t xml:space="preserve">6.02753305435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94574308395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85684204101562</t>
   </si>
   <si>
     <t xml:space="preserve">5.74660396575928</t>
@@ -2927,10 +2927,10 @@
     <t xml:space="preserve">5.68970680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44078207015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29142713546753</t>
+    <t xml:space="preserve">5.44078254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29142808914185</t>
   </si>
   <si>
     <t xml:space="preserve">5.1776328086853</t>
@@ -2942,31 +2942,31 @@
     <t xml:space="preserve">5.47634267807007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69681882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86750984191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97063684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89951515197754</t>
+    <t xml:space="preserve">5.69681930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8675103187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97063636779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89951467514038</t>
   </si>
   <si>
     <t xml:space="preserve">5.93863201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29779386520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53604984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87743282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36817121505737</t>
+    <t xml:space="preserve">6.2977933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53605031967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87743234634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36817073822021</t>
   </si>
   <si>
     <t xml:space="preserve">6.91299343109131</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">6.69962930679321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24089622497559</t>
+    <t xml:space="preserve">6.24089670181274</t>
   </si>
   <si>
     <t xml:space="preserve">6.19466829299927</t>
@@ -2984,19 +2984,19 @@
     <t xml:space="preserve">6.36180353164673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46492958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40091991424561</t>
+    <t xml:space="preserve">6.46492910385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40092039108276</t>
   </si>
   <si>
     <t xml:space="preserve">6.30490636825562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14488363265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0879864692688</t>
+    <t xml:space="preserve">6.14488410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08798694610596</t>
   </si>
   <si>
     <t xml:space="preserve">5.93507528305054</t>
@@ -3005,19 +3005,19 @@
     <t xml:space="preserve">5.8461742401123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91018295288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04175710678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0808744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0630931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20889234542847</t>
+    <t xml:space="preserve">5.91018342971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04175758361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08087396621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06309366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20889186859131</t>
   </si>
   <si>
     <t xml:space="preserve">6.32624292373657</t>
@@ -3026,25 +3026,25 @@
     <t xml:space="preserve">6.45070457458496</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37958383560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48270988464355</t>
+    <t xml:space="preserve">6.37958431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4827094078064</t>
   </si>
   <si>
     <t xml:space="preserve">6.4613733291626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84898376464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98055839538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03745555877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81342363357544</t>
+    <t xml:space="preserve">6.8489842414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9805588722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03745651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8134241104126</t>
   </si>
   <si>
     <t xml:space="preserve">6.6640682220459</t>
@@ -3065,40 +3065,40 @@
     <t xml:space="preserve">6.38669586181641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39736461639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25156545639038</t>
+    <t xml:space="preserve">6.39736413955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25156497955322</t>
   </si>
   <si>
     <t xml:space="preserve">6.52538299560547</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50049066543579</t>
+    <t xml:space="preserve">6.50049018859863</t>
   </si>
   <si>
     <t xml:space="preserve">6.53249454498291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40447568893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37247133255005</t>
+    <t xml:space="preserve">6.40447664260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37247180938721</t>
   </si>
   <si>
     <t xml:space="preserve">6.48626613616943</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30846261978149</t>
+    <t xml:space="preserve">6.30846214294434</t>
   </si>
   <si>
     <t xml:space="preserve">6.32268714904785</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37602806091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20178079605103</t>
+    <t xml:space="preserve">6.37602758407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20178031921387</t>
   </si>
   <si>
     <t xml:space="preserve">6.14843988418579</t>
@@ -3107,10 +3107,10 @@
     <t xml:space="preserve">6.13777160644531</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27290153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27645778656006</t>
+    <t xml:space="preserve">6.27290201187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27645826339722</t>
   </si>
   <si>
     <t xml:space="preserve">6.23022937774658</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">6.26223421096802</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4684853553772</t>
+    <t xml:space="preserve">6.46848583221436</t>
   </si>
   <si>
     <t xml:space="preserve">6.38314008712769</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">6.28001356124878</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05598163604736</t>
+    <t xml:space="preserve">6.05598211288452</t>
   </si>
   <si>
     <t xml:space="preserve">5.92796325683594</t>
@@ -3137,19 +3137,19 @@
     <t xml:space="preserve">5.87106609344482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97419166564941</t>
+    <t xml:space="preserve">5.97419214248657</t>
   </si>
   <si>
     <t xml:space="preserve">5.83194923400879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84973001480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73238039016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73593521118164</t>
+    <t xml:space="preserve">5.84972953796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73237943649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7359356880188</t>
   </si>
   <si>
     <t xml:space="preserve">5.750159740448</t>
@@ -3158,19 +3158,19 @@
     <t xml:space="preserve">5.87462282180786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79283332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85328578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82839298248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73949146270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57946872711182</t>
+    <t xml:space="preserve">5.79283285140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85328483581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82839345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73949193954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57946825027466</t>
   </si>
   <si>
     <t xml:space="preserve">5.63280963897705</t>
@@ -3188,28 +3188,28 @@
     <t xml:space="preserve">5.7217116355896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54390811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49412250518799</t>
+    <t xml:space="preserve">5.5439076423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49412298202515</t>
   </si>
   <si>
     <t xml:space="preserve">5.41233396530151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498434066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30565166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95715713500977</t>
+    <t xml:space="preserve">5.29498338699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30565071105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95715665817261</t>
   </si>
   <si>
     <t xml:space="preserve">4.7971339225769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89670419692993</t>
+    <t xml:space="preserve">4.89670467376709</t>
   </si>
   <si>
     <t xml:space="preserve">5.04605865478516</t>
@@ -3221,10 +3221,10 @@
     <t xml:space="preserve">5.38744068145752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30920743942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27009057998657</t>
+    <t xml:space="preserve">5.30920791625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27009105682373</t>
   </si>
   <si>
     <t xml:space="preserve">5.65059041976929</t>
@@ -3233,25 +3233,25 @@
     <t xml:space="preserve">5.66125822067261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78216505050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75727224349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22311687469482</t>
+    <t xml:space="preserve">5.78216457366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75727272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22311735153198</t>
   </si>
   <si>
     <t xml:space="preserve">6.42581224441528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44359350204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68184995651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60717248916626</t>
+    <t xml:space="preserve">6.44359397888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68185043334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6071720123291</t>
   </si>
   <si>
     <t xml:space="preserve">6.57516717910767</t>
@@ -3260,22 +3260,22 @@
     <t xml:space="preserve">6.5858359336853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49337720870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79208707809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92721796035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94855451583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97700309753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83831548690796</t>
+    <t xml:space="preserve">6.49337768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79208755493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92721748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94855403900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97700357437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83831596374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.80986785888672</t>
@@ -3284,25 +3284,25 @@
     <t xml:space="preserve">6.74230241775513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66051244735718</t>
+    <t xml:space="preserve">6.66051292419434</t>
   </si>
   <si>
     <t xml:space="preserve">6.71385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64273262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6391773223877</t>
+    <t xml:space="preserve">6.71029758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64273309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63917684555054</t>
   </si>
   <si>
     <t xml:space="preserve">6.67118072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47559785842896</t>
+    <t xml:space="preserve">6.4755973815918</t>
   </si>
   <si>
     <t xml:space="preserve">6.54671812057495</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">6.58227920532227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62495231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61072826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56805562973022</t>
+    <t xml:space="preserve">6.62495183944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61072778701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56805515289307</t>
   </si>
   <si>
     <t xml:space="preserve">6.30134963989258</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">6.31201839447021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21244812011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1093225479126</t>
+    <t xml:space="preserve">6.21244859695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10932207107544</t>
   </si>
   <si>
     <t xml:space="preserve">5.90307092666626</t>
@@ -3341,49 +3341,49 @@
     <t xml:space="preserve">6.01330947875977</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95641136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29423809051514</t>
+    <t xml:space="preserve">5.95641231536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29423856735229</t>
   </si>
   <si>
     <t xml:space="preserve">6.67829370498657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88454532623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03390026092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43217897415161</t>
+    <t xml:space="preserve">6.88454484939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03389978408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43217945098877</t>
   </si>
   <si>
     <t xml:space="preserve">7.33972120285034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42506694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33261013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24015283584595</t>
+    <t xml:space="preserve">7.42506742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3326096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3254976272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24015235900879</t>
   </si>
   <si>
     <t xml:space="preserve">7.3041615486145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36105823516846</t>
+    <t xml:space="preserve">7.36105918884277</t>
   </si>
   <si>
     <t xml:space="preserve">7.58864593505859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48196458816528</t>
+    <t xml:space="preserve">7.48196506500244</t>
   </si>
   <si>
     <t xml:space="preserve">7.66688013076782</t>
@@ -3392,25 +3392,25 @@
     <t xml:space="preserve">7.51752424240112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53886127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46062755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93002939224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90869235992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847606658936</t>
+    <t xml:space="preserve">7.5388617515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46062707901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93002891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90869283676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847749710083</t>
   </si>
   <si>
     <t xml:space="preserve">8.16473007202148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22873783111572</t>
+    <t xml:space="preserve">8.22873878479004</t>
   </si>
   <si>
     <t xml:space="preserve">8.12916851043701</t>
@@ -3419,43 +3419,43 @@
     <t xml:space="preserve">8.15050506591797</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88024377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91580486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97270154953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08649444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1007194519043</t>
+    <t xml:space="preserve">7.88024234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91580390930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97270202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0864953994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10072135925293</t>
   </si>
   <si>
     <t xml:space="preserve">8.00115013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05093479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07938289642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8660192489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24296379089355</t>
+    <t xml:space="preserve">8.05093383789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07938385009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86602020263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24296283721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.17895317077637</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13628101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09360790252686</t>
+    <t xml:space="preserve">8.13627910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09360885620117</t>
   </si>
   <si>
     <t xml:space="preserve">7.78778648376465</t>
@@ -3467,79 +3467,79 @@
     <t xml:space="preserve">8.20740222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26429843902588</t>
+    <t xml:space="preserve">8.2642993927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.21451377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18606662750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22162628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27852344512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74792575836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46343803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92572784423828</t>
+    <t xml:space="preserve">8.18606567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2216272354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27852439880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74792385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46343898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92572689056396</t>
   </si>
   <si>
     <t xml:space="preserve">9.28133392333984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30978202819824</t>
+    <t xml:space="preserve">9.30978298187256</t>
   </si>
   <si>
     <t xml:space="preserve">9.23866081237793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08219432830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00396156311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85460662841797</t>
+    <t xml:space="preserve">9.08219528198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00396060943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85460567474365</t>
   </si>
   <si>
     <t xml:space="preserve">9.04663372039795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13909244537354</t>
+    <t xml:space="preserve">9.13909149169922</t>
   </si>
   <si>
     <t xml:space="preserve">9.18176364898682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2599983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21732521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35245513916016</t>
+    <t xml:space="preserve">9.25999736785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21732425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35245609283447</t>
   </si>
   <si>
     <t xml:space="preserve">8.96128940582275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91431427001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79340839385986</t>
+    <t xml:space="preserve">9.91431331634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79340934753418</t>
   </si>
   <si>
     <t xml:space="preserve">9.5089225769043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45202541351318</t>
+    <t xml:space="preserve">9.4520263671875</t>
   </si>
   <si>
     <t xml:space="preserve">9.35956764221191</t>
@@ -3548,25 +3548,25 @@
     <t xml:space="preserve">9.11775493621826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66538906097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05374526977539</t>
+    <t xml:space="preserve">9.66539001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05374622344971</t>
   </si>
   <si>
     <t xml:space="preserve">9.18887710571289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85741710662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87875366210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88586521148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97832298278809</t>
+    <t xml:space="preserve">9.8574161529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87875270843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88586616516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97832202911377</t>
   </si>
   <si>
     <t xml:space="preserve">9.90009021759033</t>
@@ -3575,10 +3575,10 @@
     <t xml:space="preserve">9.89297676086426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97121238708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1134538650513</t>
+    <t xml:space="preserve">9.97121143341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.113452911377</t>
   </si>
   <si>
     <t xml:space="preserve">10.412163734436</t>
@@ -3587,16 +3587,16 @@
     <t xml:space="preserve">10.3623781204224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.312593460083</t>
+    <t xml:space="preserve">10.3125925064087</t>
   </si>
   <si>
     <t xml:space="preserve">10.3268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.40505027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1276788711548</t>
+    <t xml:space="preserve">10.4050512313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1276779174805</t>
   </si>
   <si>
     <t xml:space="preserve">10.2983684539795</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">10.4406118392944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4263868331909</t>
+    <t xml:space="preserve">10.4263877868652</t>
   </si>
   <si>
     <t xml:space="preserve">10.5188455581665</t>
@@ -3620,19 +3620,19 @@
     <t xml:space="preserve">11.0949287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3580760955811</t>
+    <t xml:space="preserve">11.3580770492554</t>
   </si>
   <si>
     <t xml:space="preserve">11.4434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4860954284668</t>
+    <t xml:space="preserve">11.4860944747925</t>
   </si>
   <si>
     <t xml:space="preserve">11.2656192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8345899581909</t>
+    <t xml:space="preserve">11.8345890045166</t>
   </si>
   <si>
     <t xml:space="preserve">11.9057111740112</t>
@@ -3641,16 +3641,16 @@
     <t xml:space="preserve">12.225757598877</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6141128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0621767044067</t>
+    <t xml:space="preserve">11.6141138076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0621776580811</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496744155884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.891487121582</t>
+    <t xml:space="preserve">11.8914861679077</t>
   </si>
   <si>
     <t xml:space="preserve">11.7421321868896</t>
@@ -3665,19 +3665,19 @@
     <t xml:space="preserve">11.7492456436157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1048517227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0977401733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3790826797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3486661911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965894699097</t>
+    <t xml:space="preserve">12.104850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0977392196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3790817260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3486671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965885162354</t>
   </si>
   <si>
     <t xml:space="preserve">11.9988880157471</t>
@@ -3689,7 +3689,7 @@
     <t xml:space="preserve">12.2117967605591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1433610916138</t>
+    <t xml:space="preserve">12.1433620452881</t>
   </si>
   <si>
     <t xml:space="preserve">12.1585693359375</t>
@@ -3698,16 +3698,16 @@
     <t xml:space="preserve">12.3106479644775</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4323091506958</t>
+    <t xml:space="preserve">12.4323081970215</t>
   </si>
   <si>
     <t xml:space="preserve">12.6528196334839</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7288579940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7516708374023</t>
+    <t xml:space="preserve">12.7288589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7516717910767</t>
   </si>
   <si>
     <t xml:space="preserve">12.8505210876465</t>
@@ -3719,43 +3719,43 @@
     <t xml:space="preserve">12.6224050521851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8809375762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8581247329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7896900177002</t>
+    <t xml:space="preserve">12.8809385299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8581256866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7896890640259</t>
   </si>
   <si>
     <t xml:space="preserve">12.6908397674561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3866872787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2498168945312</t>
+    <t xml:space="preserve">12.3866853713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2498159408569</t>
   </si>
   <si>
     <t xml:space="preserve">11.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0369071960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6034889221191</t>
+    <t xml:space="preserve">12.0369081497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6034879684448</t>
   </si>
   <si>
     <t xml:space="preserve">11.5578651428223</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5426568984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9647645950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1092367172241</t>
+    <t xml:space="preserve">11.5426578521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9647636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1092376708984</t>
   </si>
   <si>
     <t xml:space="preserve">11.2232942581177</t>
@@ -3770,19 +3770,19 @@
     <t xml:space="preserve">11.504638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9228506088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0901336669922</t>
+    <t xml:space="preserve">11.9228496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0901346206665</t>
   </si>
   <si>
     <t xml:space="preserve">11.9608697891235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0597200393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0064926147461</t>
+    <t xml:space="preserve">12.0597190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0064916610718</t>
   </si>
   <si>
     <t xml:space="preserve">11.9000377655029</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">12.1509647369385</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1357583999634</t>
+    <t xml:space="preserve">12.1357574462891</t>
   </si>
   <si>
     <t xml:space="preserve">12.9265594482422</t>
@@ -3806,37 +3806,37 @@
     <t xml:space="preserve">12.9797859191895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2991485595703</t>
+    <t xml:space="preserve">13.299147605896</t>
   </si>
   <si>
     <t xml:space="preserve">13.451226234436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3599786758423</t>
+    <t xml:space="preserve">13.359977722168</t>
   </si>
   <si>
     <t xml:space="preserve">13.1318645477295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3295640945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2839393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4816417694092</t>
+    <t xml:space="preserve">13.3295650482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2839403152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4816408157349</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565294265747</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7173614501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.861834526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0291194915771</t>
+    <t xml:space="preserve">13.717360496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8618335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0291204452515</t>
   </si>
   <si>
     <t xml:space="preserve">13.5576801300049</t>
@@ -3848,25 +3848,25 @@
     <t xml:space="preserve">13.9530811309814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8238153457642</t>
+    <t xml:space="preserve">13.8238143920898</t>
   </si>
   <si>
     <t xml:space="preserve">13.033013343811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4664325714111</t>
+    <t xml:space="preserve">13.4664316177368</t>
   </si>
   <si>
     <t xml:space="preserve">13.5880966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6109056472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4892454147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4208097457886</t>
+    <t xml:space="preserve">13.6109046936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4892444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4208106994629</t>
   </si>
   <si>
     <t xml:space="preserve">13.8998537063599</t>
@@ -3875,19 +3875,19 @@
     <t xml:space="preserve">13.7249641418457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6261138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0063076019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5994071960449</t>
+    <t xml:space="preserve">13.6261148452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0063056945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5994081497192</t>
   </si>
   <si>
     <t xml:space="preserve">15.6031179428101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7399873733521</t>
+    <t xml:space="preserve">15.7399892807007</t>
   </si>
   <si>
     <t xml:space="preserve">16.4243335723877</t>
@@ -3899,13 +3899,13 @@
     <t xml:space="preserve">16.2266330718994</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2722549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3597936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9796009063721</t>
+    <t xml:space="preserve">16.2722587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3597946166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9795999526978</t>
   </si>
   <si>
     <t xml:space="preserve">13.9454774856567</t>
@@ -3914,37 +3914,37 @@
     <t xml:space="preserve">14.6678438186646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4017086029053</t>
+    <t xml:space="preserve">14.4017095565796</t>
   </si>
   <si>
     <t xml:space="preserve">13.5652837753296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8314180374146</t>
+    <t xml:space="preserve">13.8314189910889</t>
   </si>
   <si>
     <t xml:space="preserve">13.5804920196533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3714771270752</t>
+    <t xml:space="preserve">12.3714780807495</t>
   </si>
   <si>
     <t xml:space="preserve">11.8316040039062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341640472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1281547546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5007438659668</t>
+    <t xml:space="preserve">12.9341630935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1281538009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5007448196411</t>
   </si>
   <si>
     <t xml:space="preserve">13.0482215881348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3827905654907</t>
+    <t xml:space="preserve">13.382791519165</t>
   </si>
   <si>
     <t xml:space="preserve">14.0823469161987</t>
@@ -3959,22 +3959,22 @@
     <t xml:space="preserve">14.3636875152588</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2952527999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1735916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.33327293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3712921142578</t>
+    <t xml:space="preserve">14.2952537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1735906600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3332719802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3712930679321</t>
   </si>
   <si>
     <t xml:space="preserve">14.1964044570923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3180665969849</t>
+    <t xml:space="preserve">14.3180656433105</t>
   </si>
   <si>
     <t xml:space="preserve">13.4968490600586</t>
@@ -3986,13 +3986,13 @@
     <t xml:space="preserve">13.7401714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7933969497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4740352630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8086071014404</t>
+    <t xml:space="preserve">13.7933979034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4740362167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8086061477661</t>
   </si>
   <si>
     <t xml:space="preserve">13.1470727920532</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">12.4779319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7364625930786</t>
+    <t xml:space="preserve">12.7364635467529</t>
   </si>
   <si>
     <t xml:space="preserve">13.2231092453003</t>
@@ -4016,7 +4016,7 @@
     <t xml:space="preserve">13.5272645950317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2383184432983</t>
+    <t xml:space="preserve">13.238317489624</t>
   </si>
   <si>
     <t xml:space="preserve">13.8334798812866</t>
@@ -4037,13 +4037,13 @@
     <t xml:space="preserve">14.018461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6565389633179</t>
+    <t xml:space="preserve">13.6565380096436</t>
   </si>
   <si>
     <t xml:space="preserve">13.6324110031128</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6082830429077</t>
+    <t xml:space="preserve">13.6082820892334</t>
   </si>
   <si>
     <t xml:space="preserve">13.5761108398438</t>
@@ -4055,10 +4055,10 @@
     <t xml:space="preserve">13.3509159088135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.173975944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166078567505</t>
+    <t xml:space="preserve">13.1739749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9166088104248</t>
   </si>
   <si>
     <t xml:space="preserve">12.1445074081421</t>
@@ -4088,7 +4088,7 @@
     <t xml:space="preserve">11.5493459701538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2598075866699</t>
+    <t xml:space="preserve">11.2598085403442</t>
   </si>
   <si>
     <t xml:space="preserve">11.5413036346436</t>
@@ -4100,19 +4100,19 @@
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276372909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8657140731812</t>
+    <t xml:space="preserve">11.2276382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8657150268555</t>
   </si>
   <si>
     <t xml:space="preserve">10.7289886474609</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6726903915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2383823394775</t>
+    <t xml:space="preserve">10.6726894378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2383813858032</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579561233521</t>
@@ -4121,7 +4121,7 @@
     <t xml:space="preserve">10.3751087188721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.664647102356</t>
+    <t xml:space="preserve">10.6646480560303</t>
   </si>
   <si>
     <t xml:space="preserve">10.350980758667</t>
@@ -4139,19 +4139,19 @@
     <t xml:space="preserve">9.70756340026855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86841773986816</t>
+    <t xml:space="preserve">9.86841869354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.1257848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1659984588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016569137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1820840835571</t>
+    <t xml:space="preserve">10.165997505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1820831298828</t>
   </si>
   <si>
     <t xml:space="preserve">10.4877071380615</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">10.3027248382568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3348960876465</t>
+    <t xml:space="preserve">10.3348951339722</t>
   </si>
   <si>
     <t xml:space="preserve">10.535964012146</t>
@@ -4178,34 +4178,34 @@
     <t xml:space="preserve">10.946141242981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0185270309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9783124923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6968183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.415322303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5279216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.78528881073</t>
+    <t xml:space="preserve">11.0185260772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9783115386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968173980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153232574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5279207229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7852878570557</t>
   </si>
   <si>
     <t xml:space="preserve">10.9702711105347</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4394512176514</t>
+    <t xml:space="preserve">10.4394502639771</t>
   </si>
   <si>
     <t xml:space="preserve">10.0131864547729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1418695449829</t>
+    <t xml:space="preserve">10.1418704986572</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177415847778</t>
@@ -4214,13 +4214,13 @@
     <t xml:space="preserve">9.97297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69952011108398</t>
+    <t xml:space="preserve">9.6995210647583</t>
   </si>
   <si>
     <t xml:space="preserve">9.62713623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69147682189941</t>
+    <t xml:space="preserve">9.69147777557373</t>
   </si>
   <si>
     <t xml:space="preserve">9.61104965209961</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">9.92471694946289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614423751831</t>
+    <t xml:space="preserve">10.0614433288574</t>
   </si>
   <si>
     <t xml:space="preserve">9.83624649047852</t>
@@ -4280,7 +4280,7 @@
     <t xml:space="preserve">8.94350528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65396690368652</t>
+    <t xml:space="preserve">8.65396785736084</t>
   </si>
   <si>
     <t xml:space="preserve">9.15261554718018</t>
@@ -4289,7 +4289,7 @@
     <t xml:space="preserve">9.25717067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16065788269043</t>
+    <t xml:space="preserve">9.16065883636475</t>
   </si>
   <si>
     <t xml:space="preserve">9.06414604187012</t>
@@ -4298,7 +4298,7 @@
     <t xml:space="preserve">8.95959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87916278839111</t>
+    <t xml:space="preserve">8.8791618347168</t>
   </si>
   <si>
     <t xml:space="preserve">8.97567558288574</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">8.85503578186035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11240100860596</t>
+    <t xml:space="preserve">9.11240196228027</t>
   </si>
   <si>
     <t xml:space="preserve">9.0882740020752</t>
@@ -4325,16 +4325,16 @@
     <t xml:space="preserve">9.32955551147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41802501678467</t>
+    <t xml:space="preserve">9.41802597045898</t>
   </si>
   <si>
     <t xml:space="preserve">9.58692264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77190399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81211853027344</t>
+    <t xml:space="preserve">9.77190494537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81211757659912</t>
   </si>
   <si>
     <t xml:space="preserve">10.5198783874512</t>
@@ -4346,10 +4346,10 @@
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506982803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1954669952393</t>
+    <t xml:space="preserve">11.0506963729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1954660415649</t>
   </si>
   <si>
     <t xml:space="preserve">11.1632957458496</t>
@@ -4358,7 +4358,10 @@
     <t xml:space="preserve">11.1230812072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0024404525757</t>
+    <t xml:space="preserve">11.00244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3643636703491</t>
   </si>
   <si>
     <t xml:space="preserve">11.3643646240234</t>
@@ -5283,6 +5286,9 @@
   </si>
   <si>
     <t xml:space="preserve">20.0400009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7900009155273</t>
   </si>
 </sst>
 </file>
@@ -51220,7 +51226,7 @@
         <v>13.1300001144409</v>
       </c>
       <c r="G1754" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51246,7 +51252,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1755" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51272,7 +51278,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1756" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51298,7 +51304,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1757" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51324,7 +51330,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1758" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51350,7 +51356,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51376,7 +51382,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1760" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51402,7 +51408,7 @@
         <v>13.1300001144409</v>
       </c>
       <c r="G1761" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51428,7 +51434,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1762" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51454,7 +51460,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1763" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51480,7 +51486,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1764" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51506,7 +51512,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1765" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51532,7 +51538,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G1766" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51558,7 +51564,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1767" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51584,7 +51590,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G1768" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51610,7 +51616,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G1769" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51636,7 +51642,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G1770" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51662,7 +51668,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1771" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51688,7 +51694,7 @@
         <v>12.710000038147</v>
       </c>
       <c r="G1772" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51714,7 +51720,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1773" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51740,7 +51746,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G1774" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51766,7 +51772,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1775" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51792,7 +51798,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1776" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51818,7 +51824,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1777" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51844,7 +51850,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1778" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51870,7 +51876,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1779" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51896,7 +51902,7 @@
         <v>13.1899995803833</v>
       </c>
       <c r="G1780" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51922,7 +51928,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51948,7 +51954,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1782" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51974,7 +51980,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1783" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -52000,7 +52006,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -52026,7 +52032,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1785" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52052,7 +52058,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1786" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52078,7 +52084,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1787" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52104,7 +52110,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1788" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52130,7 +52136,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52156,7 +52162,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1790" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52182,7 +52188,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1791" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52208,7 +52214,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52234,7 +52240,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1793" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52260,7 +52266,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1794" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52286,7 +52292,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1795" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52312,7 +52318,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52338,7 +52344,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1797" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52364,7 +52370,7 @@
         <v>14.5</v>
       </c>
       <c r="G1798" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52390,7 +52396,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1799" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52416,7 +52422,7 @@
         <v>14.25</v>
       </c>
       <c r="G1800" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52442,7 +52448,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52468,7 +52474,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1802" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52494,7 +52500,7 @@
         <v>15.0299997329712</v>
       </c>
       <c r="G1803" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52520,7 +52526,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1804" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52546,7 +52552,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1805" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52572,7 +52578,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52598,7 +52604,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1807" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52624,7 +52630,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1808" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52650,7 +52656,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1809" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52676,7 +52682,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1810" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52702,7 +52708,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1811" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52728,7 +52734,7 @@
         <v>16.1700000762939</v>
       </c>
       <c r="G1812" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52754,7 +52760,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G1813" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52780,7 +52786,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1814" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52806,7 +52812,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G1815" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52832,7 +52838,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1816" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52858,7 +52864,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1817" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52884,7 +52890,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52910,7 +52916,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G1819" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52936,7 +52942,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1820" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52962,7 +52968,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G1821" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52988,7 +52994,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G1822" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -53014,7 +53020,7 @@
         <v>15.5900001525879</v>
       </c>
       <c r="G1823" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53040,7 +53046,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1824" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53066,7 +53072,7 @@
         <v>15.6300001144409</v>
       </c>
       <c r="G1825" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53092,7 +53098,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53118,7 +53124,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1827" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53144,7 +53150,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53170,7 +53176,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1829" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53196,7 +53202,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1830" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53222,7 +53228,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1831" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53248,7 +53254,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1832" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53274,7 +53280,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53300,7 +53306,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1834" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53326,7 +53332,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1835" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53352,7 +53358,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53378,7 +53384,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53404,7 +53410,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1838" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53430,7 +53436,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1839" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53456,7 +53462,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53482,7 +53488,7 @@
         <v>14.0100002288818</v>
       </c>
       <c r="G1841" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53508,7 +53514,7 @@
         <v>13.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53534,7 +53540,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1843" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53560,7 +53566,7 @@
         <v>13.6099996566772</v>
       </c>
       <c r="G1844" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53586,7 +53592,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1845" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53612,7 +53618,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G1846" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53638,7 +53644,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1847" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53664,7 +53670,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G1848" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53690,7 +53696,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1849" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53716,7 +53722,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53742,7 +53748,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53768,7 +53774,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1852" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53794,7 +53800,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1853" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53820,7 +53826,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53846,7 +53852,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1855" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53872,7 +53878,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1856" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53898,7 +53904,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1857" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53924,7 +53930,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G1858" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53950,7 +53956,7 @@
         <v>15.0100002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53976,7 +53982,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1860" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54002,7 +54008,7 @@
         <v>15.4099998474121</v>
       </c>
       <c r="G1861" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54028,7 +54034,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1862" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54054,7 +54060,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1863" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54080,7 +54086,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1864" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54106,7 +54112,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1865" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54132,7 +54138,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1866" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54158,7 +54164,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1867" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54184,7 +54190,7 @@
         <v>14.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54210,7 +54216,7 @@
         <v>15</v>
       </c>
       <c r="G1869" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54236,7 +54242,7 @@
         <v>15.0299997329712</v>
       </c>
       <c r="G1870" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54262,7 +54268,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1871" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54288,7 +54294,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1872" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54314,7 +54320,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1873" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54340,7 +54346,7 @@
         <v>14.3900003433228</v>
       </c>
       <c r="G1874" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54366,7 +54372,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1875" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54392,7 +54398,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1876" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54418,7 +54424,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G1877" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54444,7 +54450,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54470,7 +54476,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1879" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54496,7 +54502,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1880" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54522,7 +54528,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1881" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54548,7 +54554,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54574,7 +54580,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54600,7 +54606,7 @@
         <v>14.5900001525879</v>
       </c>
       <c r="G1884" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54626,7 +54632,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1885" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54652,7 +54658,7 @@
         <v>14.210000038147</v>
       </c>
       <c r="G1886" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54678,7 +54684,7 @@
         <v>14</v>
       </c>
       <c r="G1887" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54704,7 +54710,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1888" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54730,7 +54736,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1889" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54756,7 +54762,7 @@
         <v>14.25</v>
       </c>
       <c r="G1890" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54782,7 +54788,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54808,7 +54814,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1892" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54834,7 +54840,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1893" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54860,7 +54866,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1894" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54886,7 +54892,7 @@
         <v>14.0699996948242</v>
       </c>
       <c r="G1895" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54912,7 +54918,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54938,7 +54944,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1897" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54964,7 +54970,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1898" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54990,7 +54996,7 @@
         <v>14.1099996566772</v>
       </c>
       <c r="G1899" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55016,7 +55022,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1900" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55042,7 +55048,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1901" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55068,7 +55074,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55094,7 +55100,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1903" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55120,7 +55126,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1904" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55146,7 +55152,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55172,7 +55178,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1906" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55198,7 +55204,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55224,7 +55230,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1908" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55250,7 +55256,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1909" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55276,7 +55282,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1910" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55302,7 +55308,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1911" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55328,7 +55334,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55354,7 +55360,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1913" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55380,7 +55386,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1914" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55406,7 +55412,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55432,7 +55438,7 @@
         <v>14.75</v>
       </c>
       <c r="G1916" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55458,7 +55464,7 @@
         <v>14.75</v>
       </c>
       <c r="G1917" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55484,7 +55490,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1918" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55510,7 +55516,7 @@
         <v>15.039999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55536,7 +55542,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1920" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55562,7 +55568,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1921" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55588,7 +55594,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55614,7 +55620,7 @@
         <v>15.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55640,7 +55646,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1924" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55666,7 +55672,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1925" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55692,7 +55698,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55718,7 +55724,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1927" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55744,7 +55750,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1928" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55770,7 +55776,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G1929" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55796,7 +55802,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1930" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55822,7 +55828,7 @@
         <v>15.75</v>
       </c>
       <c r="G1931" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55848,7 +55854,7 @@
         <v>15.4899997711182</v>
       </c>
       <c r="G1932" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55874,7 +55880,7 @@
         <v>15.5900001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55900,7 +55906,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1934" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55926,7 +55932,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1935" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55952,7 +55958,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55978,7 +55984,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1937" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56004,7 +56010,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1938" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56030,7 +56036,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56056,7 +56062,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1940" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56082,7 +56088,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G1941" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56108,7 +56114,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1942" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56134,7 +56140,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1943" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56160,7 +56166,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56186,7 +56192,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1945" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56212,7 +56218,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56238,7 +56244,7 @@
         <v>15.9700002670288</v>
       </c>
       <c r="G1947" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56264,7 +56270,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1948" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56290,7 +56296,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1949" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56316,7 +56322,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1950" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56342,7 +56348,7 @@
         <v>16.2700004577637</v>
       </c>
       <c r="G1951" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56368,7 +56374,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1952" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56394,7 +56400,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1953" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56420,7 +56426,7 @@
         <v>16.0300006866455</v>
       </c>
       <c r="G1954" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56446,7 +56452,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1955" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56472,7 +56478,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G1956" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56498,7 +56504,7 @@
         <v>15.5299997329712</v>
       </c>
       <c r="G1957" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56524,7 +56530,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1958" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56550,7 +56556,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1959" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56576,7 +56582,7 @@
         <v>15.7299995422363</v>
       </c>
       <c r="G1960" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56602,7 +56608,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G1961" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56628,7 +56634,7 @@
         <v>15.7299995422363</v>
       </c>
       <c r="G1962" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56654,7 +56660,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56680,7 +56686,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1964" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56706,7 +56712,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1965" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56732,7 +56738,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G1966" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56758,7 +56764,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G1967" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56784,7 +56790,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1968" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56810,7 +56816,7 @@
         <v>16.0900001525879</v>
       </c>
       <c r="G1969" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56836,7 +56842,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1970" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56862,7 +56868,7 @@
         <v>16.1100006103516</v>
       </c>
       <c r="G1971" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56888,7 +56894,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1972" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56914,7 +56920,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="G1973" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56940,7 +56946,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1974" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56966,7 +56972,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56992,7 +56998,7 @@
         <v>15.9899997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57018,7 +57024,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1977" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57044,7 +57050,7 @@
         <v>16.25</v>
       </c>
       <c r="G1978" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57070,7 +57076,7 @@
         <v>16.0900001525879</v>
       </c>
       <c r="G1979" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57096,7 +57102,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57122,7 +57128,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1981" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57148,7 +57154,7 @@
         <v>16.6700000762939</v>
       </c>
       <c r="G1982" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57174,7 +57180,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1983" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57200,7 +57206,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57226,7 +57232,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1985" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57252,7 +57258,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1986" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57278,7 +57284,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1987" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57304,7 +57310,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57330,7 +57336,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1989" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57356,7 +57362,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1990" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57382,7 +57388,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57408,7 +57414,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1992" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57434,7 +57440,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1993" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57460,7 +57466,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G1994" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57486,7 +57492,7 @@
         <v>16.1299991607666</v>
       </c>
       <c r="G1995" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57512,7 +57518,7 @@
         <v>16.3299999237061</v>
       </c>
       <c r="G1996" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57538,7 +57544,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1997" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57564,7 +57570,7 @@
         <v>16.7299995422363</v>
       </c>
       <c r="G1998" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57590,7 +57596,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1999" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57616,7 +57622,7 @@
         <v>16.6299991607666</v>
       </c>
       <c r="G2000" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57642,7 +57648,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57668,7 +57674,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2002" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57694,7 +57700,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2003" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57720,7 +57726,7 @@
         <v>17.2299995422363</v>
       </c>
       <c r="G2004" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57746,7 +57752,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G2005" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57772,7 +57778,7 @@
         <v>17</v>
       </c>
       <c r="G2006" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57798,7 +57804,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2007" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57824,7 +57830,7 @@
         <v>17.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57850,7 +57856,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G2009" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57876,7 +57882,7 @@
         <v>15.6099996566772</v>
       </c>
       <c r="G2010" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57902,7 +57908,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2011" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57928,7 +57934,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G2012" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57954,7 +57960,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57980,7 +57986,7 @@
         <v>15.5100002288818</v>
       </c>
       <c r="G2014" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58006,7 +58012,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58032,7 +58038,7 @@
         <v>15.75</v>
       </c>
       <c r="G2016" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58058,7 +58064,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58084,7 +58090,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G2018" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58110,7 +58116,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G2019" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58136,7 +58142,7 @@
         <v>15.75</v>
       </c>
       <c r="G2020" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58162,7 +58168,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G2021" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58188,7 +58194,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G2022" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58214,7 +58220,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2023" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58240,7 +58246,7 @@
         <v>16.25</v>
       </c>
       <c r="G2024" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58266,7 +58272,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2025" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58292,7 +58298,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G2026" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58318,7 +58324,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G2027" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58344,7 +58350,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G2028" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58370,7 +58376,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58396,7 +58402,7 @@
         <v>15.789999961853</v>
       </c>
       <c r="G2030" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58422,7 +58428,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58448,7 +58454,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2032" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58474,7 +58480,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2033" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58500,7 +58506,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G2034" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58526,7 +58532,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2035" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58552,7 +58558,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58578,7 +58584,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G2037" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58604,7 +58610,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G2038" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58630,7 +58636,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2039" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58656,7 +58662,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G2040" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58682,7 +58688,7 @@
         <v>16.4899997711182</v>
       </c>
       <c r="G2041" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58708,7 +58714,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G2042" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58734,7 +58740,7 @@
         <v>16.1100006103516</v>
       </c>
       <c r="G2043" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58760,7 +58766,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2044" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58786,7 +58792,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G2045" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58812,7 +58818,7 @@
         <v>15.6099996566772</v>
       </c>
       <c r="G2046" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58838,7 +58844,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G2047" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58864,7 +58870,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G2048" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58890,7 +58896,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G2049" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58916,7 +58922,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G2050" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58942,7 +58948,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G2051" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58968,7 +58974,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G2052" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58994,7 +59000,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59020,7 +59026,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2054" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59046,7 +59052,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G2055" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59072,7 +59078,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2056" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59098,7 +59104,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G2057" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59124,7 +59130,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2058" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59150,7 +59156,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G2059" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59176,7 +59182,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G2060" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59202,7 +59208,7 @@
         <v>16.1499996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59228,7 +59234,7 @@
         <v>16.1700000762939</v>
       </c>
       <c r="G2062" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59254,7 +59260,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59280,7 +59286,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2064" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59306,7 +59312,7 @@
         <v>16.2900009155273</v>
       </c>
       <c r="G2065" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59332,7 +59338,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G2066" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59358,7 +59364,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G2067" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59384,7 +59390,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2068" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59410,7 +59416,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G2069" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59436,7 +59442,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59462,7 +59468,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G2071" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59488,7 +59494,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2072" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59514,7 +59520,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G2073" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59540,7 +59546,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2074" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59566,7 +59572,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G2075" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59592,7 +59598,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G2076" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59618,7 +59624,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G2077" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59644,7 +59650,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59670,7 +59676,7 @@
         <v>16.8099994659424</v>
       </c>
       <c r="G2079" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59696,7 +59702,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G2080" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59722,7 +59728,7 @@
         <v>16.9099998474121</v>
       </c>
       <c r="G2081" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59748,7 +59754,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G2082" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59774,7 +59780,7 @@
         <v>17.1299991607666</v>
       </c>
       <c r="G2083" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59800,7 +59806,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G2084" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59826,7 +59832,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G2085" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59852,7 +59858,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G2086" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59878,7 +59884,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G2087" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59904,7 +59910,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G2088" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59930,7 +59936,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59956,7 +59962,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G2090" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59982,7 +59988,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G2091" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60008,7 +60014,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G2092" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60034,7 +60040,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G2093" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60060,7 +60066,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2094" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60086,7 +60092,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2095" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60112,7 +60118,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60138,7 +60144,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2097" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60164,7 +60170,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2098" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60190,7 +60196,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60216,7 +60222,7 @@
         <v>18.0900001525879</v>
       </c>
       <c r="G2100" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60242,7 +60248,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2101" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60268,7 +60274,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G2102" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60294,7 +60300,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G2103" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60320,7 +60326,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60346,7 +60352,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60372,7 +60378,7 @@
         <v>19.8899993896484</v>
       </c>
       <c r="G2106" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60398,7 +60404,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60424,7 +60430,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G2108" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60450,7 +60456,7 @@
         <v>19.5200004577637</v>
       </c>
       <c r="G2109" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60476,7 +60482,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60502,7 +60508,7 @@
         <v>19.7700004577637</v>
       </c>
       <c r="G2111" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60528,7 +60534,7 @@
         <v>20.0200004577637</v>
       </c>
       <c r="G2112" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60554,7 +60560,7 @@
         <v>20.3600006103516</v>
       </c>
       <c r="G2113" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60580,7 +60586,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60606,7 +60612,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60632,7 +60638,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60658,7 +60664,7 @@
         <v>20.4799995422363</v>
       </c>
       <c r="G2117" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60684,7 +60690,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2118" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60710,7 +60716,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G2119" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60736,7 +60742,7 @@
         <v>20.9400005340576</v>
       </c>
       <c r="G2120" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60762,7 +60768,7 @@
         <v>21.1599998474121</v>
       </c>
       <c r="G2121" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60788,7 +60794,7 @@
         <v>21.0799999237061</v>
       </c>
       <c r="G2122" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60814,7 +60820,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G2123" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60840,7 +60846,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G2124" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60866,7 +60872,7 @@
         <v>21.5200004577637</v>
       </c>
       <c r="G2125" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60892,7 +60898,7 @@
         <v>20.6399993896484</v>
       </c>
       <c r="G2126" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60918,7 +60924,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2127" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60944,7 +60950,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2128" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60970,7 +60976,7 @@
         <v>20.7800006866455</v>
       </c>
       <c r="G2129" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60996,7 +61002,7 @@
         <v>20.4200000762939</v>
       </c>
       <c r="G2130" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61022,7 +61028,7 @@
         <v>20.7800006866455</v>
       </c>
       <c r="G2131" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61048,7 +61054,7 @@
         <v>20.6800003051758</v>
       </c>
       <c r="G2132" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61074,7 +61080,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2133" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61100,7 +61106,7 @@
         <v>19.6299991607666</v>
       </c>
       <c r="G2134" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61126,7 +61132,7 @@
         <v>19.3299999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61152,7 +61158,7 @@
         <v>19.2700004577637</v>
       </c>
       <c r="G2136" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61178,7 +61184,7 @@
         <v>19.5</v>
       </c>
       <c r="G2137" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61204,7 +61210,7 @@
         <v>19.5200004577637</v>
       </c>
       <c r="G2138" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61230,7 +61236,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2139" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61256,7 +61262,7 @@
         <v>19.1299991607666</v>
       </c>
       <c r="G2140" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61282,7 +61288,7 @@
         <v>19.9099998474121</v>
       </c>
       <c r="G2141" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61308,7 +61314,7 @@
         <v>20.1800003051758</v>
       </c>
       <c r="G2142" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61316,7 +61322,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6494791667</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>115078</v>
@@ -61334,9 +61340,35 @@
         <v>20.0400009155273</v>
       </c>
       <c r="G2143" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6493865741</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>102105</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>20.0599994659424</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>19.6000003814697</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>20.0599994659424</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>19.7900009155273</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1762">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">17.306079864502</t>
+    <t xml:space="preserve">17.3060817718506</t>
   </si>
   <si>
     <t xml:space="preserve">IF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9247817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.850980758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9961318969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116321563721</t>
+    <t xml:space="preserve">16.924783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8509845733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9961338043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931833267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116302490234</t>
   </si>
   <si>
     <t xml:space="preserve">15.866982460022</t>
@@ -65,37 +65,37 @@
     <t xml:space="preserve">15.5902338027954</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3466815948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2335319519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1006813049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8731336593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9063320159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9309349060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5274791717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.533634185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1154308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7119827270508</t>
+    <t xml:space="preserve">16.3466854095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2335357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407835006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1006832122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8731317520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9063358306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9309329986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5274829864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5336303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1154327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7119789123535</t>
   </si>
   <si>
     <t xml:space="preserve">17.6504821777344</t>
@@ -113,94 +113,94 @@
     <t xml:space="preserve">15.9899826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.360237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4032869338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1105346679688</t>
+    <t xml:space="preserve">14.3602342605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4032850265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1105327606201</t>
   </si>
   <si>
     <t xml:space="preserve">15.141284942627</t>
   </si>
   <si>
-    <t xml:space="preserve">15.202784538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9838333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8792867660522</t>
+    <t xml:space="preserve">15.2027835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.983832359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.879280090332</t>
   </si>
   <si>
     <t xml:space="preserve">15.7808847427368</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6947841644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624349594116</t>
+    <t xml:space="preserve">15.6947822570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7624320983887</t>
   </si>
   <si>
     <t xml:space="preserve">16.9739818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4696807861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2113838195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7218322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6049842834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5434799194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0416316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8079319000244</t>
+    <t xml:space="preserve">16.4696826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2113819122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7218341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.60498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5434818267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0416297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.807933807373</t>
   </si>
   <si>
     <t xml:space="preserve">16.4819831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8854341506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.008430480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5779342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9284830093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1867828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6972332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.912483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5951290130615</t>
+    <t xml:space="preserve">15.8854331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0084342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5779361724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9284839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1867809295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6972312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9124813079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5951328277588</t>
   </si>
   <si>
     <t xml:space="preserve">17.8534317016602</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6996803283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5582294464111</t>
+    <t xml:space="preserve">17.6996822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5582332611084</t>
   </si>
   <si>
     <t xml:space="preserve">17.7242813110352</t>
@@ -212,271 +212,271 @@
     <t xml:space="preserve">18.1285419464111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3875217437744</t>
+    <t xml:space="preserve">18.3875198364258</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527420043945</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4274024963379</t>
+    <t xml:space="preserve">17.4274005889893</t>
   </si>
   <si>
     <t xml:space="preserve">18.0148448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1557903289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2442226409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3579196929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4716205596924</t>
+    <t xml:space="preserve">17.1557865142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2442245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3579235076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4716167449951</t>
   </si>
   <si>
     <t xml:space="preserve">17.1936893463135</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8020648956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9662952423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.757848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6504669189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9157600402832</t>
+    <t xml:space="preserve">16.8020629882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9662933349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7578468322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6504650115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9157619476318</t>
   </si>
   <si>
     <t xml:space="preserve">16.448335647583</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3283195495605</t>
+    <t xml:space="preserve">16.3283214569092</t>
   </si>
   <si>
     <t xml:space="preserve">16.044075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.081974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1704082489014</t>
+    <t xml:space="preserve">16.0819759368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1704063415527</t>
   </si>
   <si>
     <t xml:space="preserve">16.006175994873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7787799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5261163711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229194641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0018396377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544322967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4144020080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1175231933594</t>
+    <t xml:space="preserve">15.7787780761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5261154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229204177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766477584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334234237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0018434524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544303894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4144010543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1175222396851</t>
   </si>
   <si>
     <t xml:space="preserve">14.2754373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0354089736938</t>
+    <t xml:space="preserve">14.0354070663452</t>
   </si>
   <si>
     <t xml:space="preserve">13.7258958816528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8964424133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9532947540283</t>
+    <t xml:space="preserve">13.8964443206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9532928466797</t>
   </si>
   <si>
     <t xml:space="preserve">13.5806140899658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8332767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249040603638</t>
+    <t xml:space="preserve">13.8332757949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249050140381</t>
   </si>
   <si>
     <t xml:space="preserve">15.9619607925415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3492527008057</t>
+    <t xml:space="preserve">15.3492517471313</t>
   </si>
   <si>
     <t xml:space="preserve">15.1597566604614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9134101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0271091461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796979904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5912666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6923294067383</t>
+    <t xml:space="preserve">14.9134082794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0271081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796970367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5912647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6923313140869</t>
   </si>
   <si>
     <t xml:space="preserve">14.4649333953857</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2564859390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0543575286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8016958236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4226980209351</t>
+    <t xml:space="preserve">14.2564878463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0543584823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8016929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4226999282837</t>
   </si>
   <si>
     <t xml:space="preserve">13.258469581604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7657766342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4479684829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9153938293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8522272109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2817516326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.327953338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1929540634155</t>
+    <t xml:space="preserve">13.1068716049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7657747268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4479675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9153919219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8522262573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2817554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3279523849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1929521560669</t>
   </si>
   <si>
     <t xml:space="preserve">11.2877025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3508672714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4771995544434</t>
+    <t xml:space="preserve">11.350866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645671844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.477198600769</t>
   </si>
   <si>
     <t xml:space="preserve">11.496148109436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9276571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5360298156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5233964920044</t>
+    <t xml:space="preserve">10.9276561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5360307693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5233974456787</t>
   </si>
   <si>
     <t xml:space="preserve">10.7002611160278</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7381610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9067258834839</t>
+    <t xml:space="preserve">10.7381601333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9067249298096</t>
   </si>
   <si>
     <t xml:space="preserve">12.4057331085205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6331300735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562673568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6647138595581</t>
+    <t xml:space="preserve">12.633129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562664031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6647109985352</t>
   </si>
   <si>
     <t xml:space="preserve">12.380467414856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6457633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3488845825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467552185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446239471436</t>
+    <t xml:space="preserve">12.6457643508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3488855361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467514038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446229934692</t>
   </si>
   <si>
     <t xml:space="preserve">11.66037940979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0962228775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857927322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5573320388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7341947555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2225542068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541360855103</t>
+    <t xml:space="preserve">12.0962209701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857936859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5573301315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7341957092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2225532531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541370391846</t>
   </si>
   <si>
     <t xml:space="preserve">12.7594614028931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9110584259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5383825302124</t>
+    <t xml:space="preserve">12.911057472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5383815765381</t>
   </si>
   <si>
     <t xml:space="preserve">12.8163118362427</t>
@@ -488,106 +488,106 @@
     <t xml:space="preserve">12.5952310562134</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5194311141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4120512008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0835876464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0709571838379</t>
+    <t xml:space="preserve">12.5194292068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4120492935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0835886001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0709562301636</t>
   </si>
   <si>
     <t xml:space="preserve">12.1404371261597</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1278066635132</t>
+    <t xml:space="preserve">12.1278047561646</t>
   </si>
   <si>
     <t xml:space="preserve">12.2036037445068</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0646390914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0583209991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2288703918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.323618888855</t>
+    <t xml:space="preserve">12.0646409988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0583219528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.22887134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3236198425293</t>
   </si>
   <si>
     <t xml:space="preserve">12.3046684265137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5699634552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0121221542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5427169799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6311454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1510887145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8605251312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489603042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.835259437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8542098999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7278776168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9426422119141</t>
+    <t xml:space="preserve">12.5699653625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0121240615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5427141189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6311483383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.151086807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8605270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8352584838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8542108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.727876663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9426431655884</t>
   </si>
   <si>
     <t xml:space="preserve">13.2647867202759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2205686569214</t>
+    <t xml:space="preserve">13.22057056427</t>
   </si>
   <si>
     <t xml:space="preserve">12.8226270675659</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6583967208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6394472122192</t>
+    <t xml:space="preserve">12.6583976745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6394481658936</t>
   </si>
   <si>
     <t xml:space="preserve">12.6773462295532</t>
   </si>
   <si>
-    <t xml:space="preserve">12.873158454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9300079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2268886566162</t>
+    <t xml:space="preserve">12.8731594085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9300088882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2268867492676</t>
   </si>
   <si>
     <t xml:space="preserve">13.643780708313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7744445800781</t>
+    <t xml:space="preserve">14.7744436264038</t>
   </si>
   <si>
     <t xml:space="preserve">15.0650081634521</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">15.2481870651245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3429346084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5892839431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8040466308594</t>
+    <t xml:space="preserve">15.3429393768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5892810821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8040447235107</t>
   </si>
   <si>
     <t xml:space="preserve">15.9051103591919</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">16.3662185668945</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546508789062</t>
+    <t xml:space="preserve">16.4546489715576</t>
   </si>
   <si>
     <t xml:space="preserve">16.6125659942627</t>
@@ -623,37 +623,37 @@
     <t xml:space="preserve">16.7452144622803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6441478729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4356994628906</t>
+    <t xml:space="preserve">16.6441516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4357032775879</t>
   </si>
   <si>
     <t xml:space="preserve">16.1830406188965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2019882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9556446075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0503902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9935426712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8166780471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4755840301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4629526138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0081605911255</t>
+    <t xml:space="preserve">16.2019901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.955641746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0503921508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9935417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8166799545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4755821228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4629545211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0081586837769</t>
   </si>
   <si>
     <t xml:space="preserve">15.0523748397827</t>
@@ -662,88 +662,88 @@
     <t xml:space="preserve">14.9449939727783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8881435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512344360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270324707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4965162277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0227766036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5280990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.78076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618131637573</t>
+    <t xml:space="preserve">14.888144493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512353897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270353317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4965190887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0227746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5281000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807626724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618141174316</t>
   </si>
   <si>
     <t xml:space="preserve">14.6102142333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.551383972168</t>
+    <t xml:space="preserve">15.5513849258423</t>
   </si>
   <si>
     <t xml:space="preserve">15.6966667175293</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6082286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7914123535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.429386138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1514568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8229961395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.917742729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588367462158</t>
+    <t xml:space="preserve">15.6082334518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7914133071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4293880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1514587402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8229951858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9177417755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588386535645</t>
   </si>
   <si>
     <t xml:space="preserve">16.4230690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7388973236084</t>
+    <t xml:space="preserve">16.7388954162598</t>
   </si>
   <si>
     <t xml:space="preserve">17.1368408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0420932769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9915580749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8652267456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3156871795654</t>
+    <t xml:space="preserve">17.0420913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9915599822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8652305603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3156890869141</t>
   </si>
   <si>
     <t xml:space="preserve">16.486234664917</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8210105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6757297515869</t>
+    <t xml:space="preserve">16.8210124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6757316589355</t>
   </si>
   <si>
     <t xml:space="preserve">16.5367679595947</t>
@@ -752,37 +752,37 @@
     <t xml:space="preserve">16.5936183929443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5746688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3093738555908</t>
+    <t xml:space="preserve">16.5746669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3093681335449</t>
   </si>
   <si>
     <t xml:space="preserve">16.1072425842285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9809083938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524486541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9745941162109</t>
+    <t xml:space="preserve">15.9809103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524505615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9745922088623</t>
   </si>
   <si>
     <t xml:space="preserve">15.8545789718628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8293123245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5494022369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2335758209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1198749542236</t>
+    <t xml:space="preserve">15.8293113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5494003295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2335739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.119873046875</t>
   </si>
   <si>
     <t xml:space="preserve">16.3599033355713</t>
@@ -794,67 +794,67 @@
     <t xml:space="preserve">17.4337196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4210891723633</t>
+    <t xml:space="preserve">17.4210834503174</t>
   </si>
   <si>
     <t xml:space="preserve">17.6358489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1538066864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6464996337891</t>
+    <t xml:space="preserve">18.15380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6465015411377</t>
   </si>
   <si>
     <t xml:space="preserve">18.7917804718018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2927722930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2675075531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6863803863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5706996917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6338672637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0760250091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2276248931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3476390838623</t>
+    <t xml:space="preserve">18.2927703857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2675018310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6863822937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6338653564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0760269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2276229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3476371765137</t>
   </si>
   <si>
     <t xml:space="preserve">18.7601985931396</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8802127838135</t>
+    <t xml:space="preserve">18.8802146911621</t>
   </si>
   <si>
     <t xml:space="preserve">19.455020904541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7013683319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6046333312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5015869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7921504974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9879608154297</t>
+    <t xml:space="preserve">19.7013702392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6046352386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5015888214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7921485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.987964630127</t>
   </si>
   <si>
     <t xml:space="preserve">23.0301952362061</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">22.5690879821777</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9291305541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8028011322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.739631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7080497741699</t>
+    <t xml:space="preserve">22.9291343688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8027954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7396335601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7080516815186</t>
   </si>
   <si>
     <t xml:space="preserve">22.3480072021484</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">22.613302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6954212188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9164981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8975486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6638374328613</t>
+    <t xml:space="preserve">22.6954193115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9164943695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8975524902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6638355255127</t>
   </si>
   <si>
     <t xml:space="preserve">23.2133769989014</t>
@@ -902,142 +902,142 @@
     <t xml:space="preserve">23.3586559295654</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2891731262207</t>
+    <t xml:space="preserve">23.2891750335693</t>
   </si>
   <si>
     <t xml:space="preserve">23.1186275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0491485595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4344520568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7376537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4407711029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4893245697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3440437316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1734943389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4451084136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0135974884033</t>
+    <t xml:space="preserve">23.0491428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.434455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7376499176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4407749176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4893226623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3440418243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1734962463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4451065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0135955810547</t>
   </si>
   <si>
     <t xml:space="preserve">25.2200031280518</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8329944610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6265869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6074695587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4980487823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2075634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8915061950684</t>
+    <t xml:space="preserve">24.8329925537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6265907287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6074676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2075614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8915042877197</t>
   </si>
   <si>
     <t xml:space="preserve">22.6915493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7560520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.639949798584</t>
+    <t xml:space="preserve">22.7560539245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6399478912354</t>
   </si>
   <si>
     <t xml:space="preserve">21.2209224700928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4404563903809</t>
+    <t xml:space="preserve">20.4404582977295</t>
   </si>
   <si>
     <t xml:space="preserve">21.4918270111084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9562358856201</t>
+    <t xml:space="preserve">21.9562377929688</t>
   </si>
   <si>
     <t xml:space="preserve">22.5238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">22.510950088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5754470825195</t>
+    <t xml:space="preserve">22.5109481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5754489898682</t>
   </si>
   <si>
     <t xml:space="preserve">22.4464454650879</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2916431427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3303451538086</t>
+    <t xml:space="preserve">22.2916450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3303413391113</t>
   </si>
   <si>
     <t xml:space="preserve">21.7691841125488</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5627784729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8659381866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2658405303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0594387054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1884422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8205547332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7625045776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3819427490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6012516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5496463775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7689514160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4786968231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1561889648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0465412139893</t>
+    <t xml:space="preserve">21.562780380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8659343719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2658424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.059440612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1884441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8205528259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7625064849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3819446563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6012535095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5496482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7689533233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4786949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1561908721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0465393066406</t>
   </si>
   <si>
     <t xml:space="preserve">21.9949359893799</t>
@@ -1046,22 +1046,22 @@
     <t xml:space="preserve">22.5302982330322</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7302551269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7044525146484</t>
+    <t xml:space="preserve">22.7302532196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7044544219971</t>
   </si>
   <si>
     <t xml:space="preserve">22.9431056976318</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0205097198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1043586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0140571594238</t>
+    <t xml:space="preserve">23.0205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1043605804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0140609741211</t>
   </si>
   <si>
     <t xml:space="preserve">23.2204608917236</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">23.37526512146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4139652252197</t>
+    <t xml:space="preserve">23.4139671325684</t>
   </si>
   <si>
     <t xml:space="preserve">23.7042217254639</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9170780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7880725860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622718811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8009757995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0138282775879</t>
+    <t xml:space="preserve">23.9170742034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7880764007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8009738922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0138263702393</t>
   </si>
   <si>
     <t xml:space="preserve">24.2847347259521</t>
@@ -1097,10 +1097,10 @@
     <t xml:space="preserve">23.9299755096436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7039909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1877517700195</t>
+    <t xml:space="preserve">24.7039890289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1877498626709</t>
   </si>
   <si>
     <t xml:space="preserve">24.8974933624268</t>
@@ -1109,40 +1109,40 @@
     <t xml:space="preserve">25.2587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">25.026496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6070117950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8327598571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1423683166504</t>
+    <t xml:space="preserve">25.0264987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6070079803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8327617645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.142370223999</t>
   </si>
   <si>
     <t xml:space="preserve">26.4003753662109</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6906299591064</t>
+    <t xml:space="preserve">26.6906318664551</t>
   </si>
   <si>
     <t xml:space="preserve">26.2520236968994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5035762786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4455299377441</t>
+    <t xml:space="preserve">26.5035781860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4455280303955</t>
   </si>
   <si>
     <t xml:space="preserve">25.8908157348633</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9166145324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5680770874023</t>
+    <t xml:space="preserve">25.9166126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.568078994751</t>
   </si>
   <si>
     <t xml:space="preserve">26.7809314727783</t>
@@ -1151,22 +1151,22 @@
     <t xml:space="preserve">26.7293319702148</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2326698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4326267242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.213321685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1939716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3616714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1617221832275</t>
+    <t xml:space="preserve">26.2326717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4326286315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2133197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1939697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3616733551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1617183685303</t>
   </si>
   <si>
     <t xml:space="preserve">25.9940147399902</t>
@@ -1175,34 +1175,34 @@
     <t xml:space="preserve">25.4199562072754</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0714168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2842750549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5745258331299</t>
+    <t xml:space="preserve">26.0714130401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2842769622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5745296478271</t>
   </si>
   <si>
     <t xml:space="preserve">26.9808864593506</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7680320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4842300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2066383361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1743907928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9357357025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.161491394043</t>
+    <t xml:space="preserve">26.768030166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4842319488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2066459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.174388885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9357376098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1614894866943</t>
   </si>
   <si>
     <t xml:space="preserve">27.5678482055664</t>
@@ -1214,58 +1214,58 @@
     <t xml:space="preserve">28.2773590087891</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7675685882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352310180664</t>
+    <t xml:space="preserve">28.7675724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352272033691</t>
   </si>
   <si>
     <t xml:space="preserve">29.0126781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2384338378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7353172302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2513275146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4964389801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8382949829102</t>
+    <t xml:space="preserve">29.238431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7353191375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513294219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4964370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8382930755615</t>
   </si>
   <si>
     <t xml:space="preserve">30.522008895874</t>
   </si>
   <si>
-    <t xml:space="preserve">30.863862991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.018669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5802936553955</t>
+    <t xml:space="preserve">30.8638648986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0186672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5802898406982</t>
   </si>
   <si>
     <t xml:space="preserve">30.5155563354492</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3411750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7733306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5153274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8509693145752</t>
+    <t xml:space="preserve">31.3411731719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023830413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7733287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.515323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8509654998779</t>
   </si>
   <si>
     <t xml:space="preserve">29.6125411987305</t>
@@ -1274,58 +1274,58 @@
     <t xml:space="preserve">29.1739273071289</t>
   </si>
   <si>
-    <t xml:space="preserve">29.928596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2964820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.283353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865585327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4252548217773</t>
+    <t xml:space="preserve">29.9285945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2964782714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2833518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865547180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4252490997314</t>
   </si>
   <si>
     <t xml:space="preserve">30.6187629699707</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1476669311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.315601348877</t>
+    <t xml:space="preserve">31.1476650238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3156051635742</t>
   </si>
   <si>
     <t xml:space="preserve">30.3543033599854</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1930541992188</t>
+    <t xml:space="preserve">30.1930522918701</t>
   </si>
   <si>
     <t xml:space="preserve">30.2446517944336</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7802410125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4899864196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.928825378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0518360137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2778263092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2393569946289</t>
+    <t xml:space="preserve">29.7802391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4899883270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9288196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224685668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0518417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2778244018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2393531799316</t>
   </si>
   <si>
     <t xml:space="preserve">25.1038951873779</t>
@@ -1337,37 +1337,37 @@
     <t xml:space="preserve">24.9813480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9942455291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5427379608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1750812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9361953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6394882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8652458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0652008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4524383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6977710723877</t>
+    <t xml:space="preserve">24.9942493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5427360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1750831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9361972808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6394920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8652439117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0651969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4524345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6977729797363</t>
   </si>
   <si>
     <t xml:space="preserve">23.6655197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8977241516113</t>
+    <t xml:space="preserve">23.8977222442627</t>
   </si>
   <si>
     <t xml:space="preserve">24.0009250640869</t>
@@ -1376,85 +1376,85 @@
     <t xml:space="preserve">23.5881175994873</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9882583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5365200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589790344238</t>
+    <t xml:space="preserve">22.9882564544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5365161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589809417725</t>
   </si>
   <si>
     <t xml:space="preserve">24.7104415893555</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3043155670166</t>
+    <t xml:space="preserve">23.304313659668</t>
   </si>
   <si>
     <t xml:space="preserve">23.2140121459961</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1559581756592</t>
+    <t xml:space="preserve">23.1559619903564</t>
   </si>
   <si>
     <t xml:space="preserve">23.8783760070801</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9684448242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2971725463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3425540924072</t>
+    <t xml:space="preserve">24.9684505462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.297176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425559997559</t>
   </si>
   <si>
     <t xml:space="preserve">25.6715106964111</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1230201721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1359195709229</t>
+    <t xml:space="preserve">26.1230182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1359176635742</t>
   </si>
   <si>
     <t xml:space="preserve">25.7876129150391</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8650150299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5749855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3232021331787</t>
+    <t xml:space="preserve">25.8650093078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5749893188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3232040405273</t>
   </si>
   <si>
     <t xml:space="preserve">25.4651069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1425971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.349006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2458019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0522975921631</t>
+    <t xml:space="preserve">25.142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3490028381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2458000183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0522994995117</t>
   </si>
   <si>
     <t xml:space="preserve">24.7684936523438</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7426910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4975872039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2329025268555</t>
+    <t xml:space="preserve">24.7426929473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4975910186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2329044342041</t>
   </si>
   <si>
     <t xml:space="preserve">24.691089630127</t>
@@ -1463,61 +1463,61 @@
     <t xml:space="preserve">24.2782821655273</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3365669250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8076515197754</t>
+    <t xml:space="preserve">23.3365650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.807653427124</t>
   </si>
   <si>
     <t xml:space="preserve">23.3881645202637</t>
   </si>
   <si>
-    <t xml:space="preserve">21.607931137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3628253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8463554382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2720642089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0011558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.504264831543</t>
+    <t xml:space="preserve">21.6079292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3628234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8463516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.272066116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0011577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5042667388916</t>
   </si>
   <si>
     <t xml:space="preserve">23.4913673400879</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4526691436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.401065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.530065536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1430625915527</t>
+    <t xml:space="preserve">23.4526653289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4010639190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5300674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1430606842041</t>
   </si>
   <si>
     <t xml:space="preserve">22.8721542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7431526184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0078411102295</t>
+    <t xml:space="preserve">22.7431488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0078372955322</t>
   </si>
   <si>
     <t xml:space="preserve">21.2596225738525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9113140106201</t>
+    <t xml:space="preserve">20.9113178253174</t>
   </si>
   <si>
     <t xml:space="preserve">21.28542137146</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">20.9887180328369</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0723419189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9820404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.717809677124</t>
+    <t xml:space="preserve">22.0723400115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9820384979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7178115844727</t>
   </si>
   <si>
     <t xml:space="preserve">20.1760025024414</t>
@@ -1544,154 +1544,154 @@
     <t xml:space="preserve">20.3695049285889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3757247924805</t>
+    <t xml:space="preserve">21.3757266998291</t>
   </si>
   <si>
     <t xml:space="preserve">21.182222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8855152130127</t>
+    <t xml:space="preserve">20.8855171203613</t>
   </si>
   <si>
     <t xml:space="preserve">20.1502017974854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0923805236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.563009262085</t>
+    <t xml:space="preserve">19.092378616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5630073547363</t>
   </si>
   <si>
     <t xml:space="preserve">19.7502956390381</t>
   </si>
   <si>
-    <t xml:space="preserve">20.588809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.027416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.195125579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3499240875244</t>
+    <t xml:space="preserve">20.5888118743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0274200439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1951217651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.349925994873</t>
   </si>
   <si>
     <t xml:space="preserve">22.1626415252686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6982326507568</t>
+    <t xml:space="preserve">21.6982307434082</t>
   </si>
   <si>
     <t xml:space="preserve">21.5305271148682</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7885341644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6595306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2749538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.288257598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0487632751465</t>
+    <t xml:space="preserve">21.7885303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6595325469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2749519348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2882556915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0487651824951</t>
   </si>
   <si>
     <t xml:space="preserve">20.9955425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0753746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7539367675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668216705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2861423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4724159240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7252140045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4058895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.020040512085</t>
+    <t xml:space="preserve">21.0753726959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7539386749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668197631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2861442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4724140167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7252178192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.405891418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0200424194336</t>
   </si>
   <si>
     <t xml:space="preserve">21.4878349304199</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3813934326172</t>
+    <t xml:space="preserve">21.3813953399658</t>
   </si>
   <si>
     <t xml:space="preserve">21.6075801849365</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6874103546143</t>
+    <t xml:space="preserve">21.6874122619629</t>
   </si>
   <si>
     <t xml:space="preserve">20.8491859436035</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1573181152344</t>
+    <t xml:space="preserve">20.1573162078857</t>
   </si>
   <si>
     <t xml:space="preserve">19.1461277008057</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7868843078613</t>
+    <t xml:space="preserve">18.78688621521</t>
   </si>
   <si>
     <t xml:space="preserve">18.9465484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5607013702393</t>
+    <t xml:space="preserve">18.560697555542</t>
   </si>
   <si>
     <t xml:space="preserve">18.1615428924561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1636581420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5803422927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.169994354248</t>
+    <t xml:space="preserve">17.1636562347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.58034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1699953079224</t>
   </si>
   <si>
     <t xml:space="preserve">15.5271224975586</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6468706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9640808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0306072235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5117053985596</t>
+    <t xml:space="preserve">15.6468687057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9640789031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0306034088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5117034912109</t>
   </si>
   <si>
     <t xml:space="preserve">16.6580619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.312126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1657676696777</t>
+    <t xml:space="preserve">16.3121280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.165771484375</t>
   </si>
   <si>
     <t xml:space="preserve">16.8177242279053</t>
@@ -1700,22 +1700,22 @@
     <t xml:space="preserve">17.7623901367188</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2546787261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2280712127686</t>
+    <t xml:space="preserve">18.2546825408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2280693054199</t>
   </si>
   <si>
     <t xml:space="preserve">17.682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4675617218018</t>
+    <t xml:space="preserve">18.4675636291504</t>
   </si>
   <si>
     <t xml:space="preserve">18.9598541259766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4010372161865</t>
+    <t xml:space="preserve">18.4010353088379</t>
   </si>
   <si>
     <t xml:space="preserve">18.5873107910156</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">18.2812919616699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5628128051758</t>
+    <t xml:space="preserve">17.5628108978271</t>
   </si>
   <si>
     <t xml:space="preserve">17.0039939880371</t>
@@ -1736,43 +1736,43 @@
     <t xml:space="preserve">17.1503524780273</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2035751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1769618988037</t>
+    <t xml:space="preserve">17.2035732269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1769638061523</t>
   </si>
   <si>
     <t xml:space="preserve">17.3632335662842</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6426429748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0417957305908</t>
+    <t xml:space="preserve">17.6426448822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0417995452881</t>
   </si>
   <si>
     <t xml:space="preserve">18.2413749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8954391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4962863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5894241333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.403148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3345108032227</t>
+    <t xml:space="preserve">17.8954410552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4962844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5894222259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4031505584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3345127105713</t>
   </si>
   <si>
     <t xml:space="preserve">18.6272258758545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9087467193604</t>
+    <t xml:space="preserve">17.9087448120117</t>
   </si>
   <si>
     <t xml:space="preserve">17.6559467315674</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">17.9220523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885787963867</t>
+    <t xml:space="preserve">17.9885768890381</t>
   </si>
   <si>
     <t xml:space="preserve">17.828914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.897554397583</t>
+    <t xml:space="preserve">16.8975524902344</t>
   </si>
   <si>
     <t xml:space="preserve">17.097131729126</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0992450714111</t>
+    <t xml:space="preserve">16.0992469787598</t>
   </si>
   <si>
     <t xml:space="preserve">14.7022018432617</t>
@@ -1802,67 +1802,67 @@
     <t xml:space="preserve">15.0481376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0082197189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949150085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6090660095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3429622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7575387954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6111793518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7309246063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6910104751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5824565887451</t>
+    <t xml:space="preserve">15.0082216262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949178695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6090650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.342963218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7575359344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6111764907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7309236526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6910095214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5824556350708</t>
   </si>
   <si>
     <t xml:space="preserve">14.0635547637939</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2631311416626</t>
+    <t xml:space="preserve">14.2631320953369</t>
   </si>
   <si>
     <t xml:space="preserve">14.2099132537842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.396183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5712633132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5180425643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4781284332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0369434356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215272903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.875171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6888971328735</t>
+    <t xml:space="preserve">14.3961839675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5712642669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5180416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4781274795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0369453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159311294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215253829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8751697540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6888952255249</t>
   </si>
   <si>
     <t xml:space="preserve">15.2743244171143</t>
@@ -1871,37 +1871,37 @@
     <t xml:space="preserve">14.9283905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348320007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6489820480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6755933761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.848557472229</t>
+    <t xml:space="preserve">15.0348310470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.675591468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8485584259033</t>
   </si>
   <si>
     <t xml:space="preserve">15.460597038269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8597526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8331432342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867837905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730573654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7288131713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9060049057007</t>
+    <t xml:space="preserve">15.8597497940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8331413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730592727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.728814125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.906005859375</t>
   </si>
   <si>
     <t xml:space="preserve">11.948034286499</t>
@@ -1916,22 +1916,22 @@
     <t xml:space="preserve">13.1721086502075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9791841506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3426494598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.642017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2561674118042</t>
+    <t xml:space="preserve">12.9791851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3426485061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.642014503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2561655044556</t>
   </si>
   <si>
     <t xml:space="preserve">10.8503580093384</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559541702271</t>
+    <t xml:space="preserve">11.3559532165527</t>
   </si>
   <si>
     <t xml:space="preserve">11.3293447494507</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">11.5422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9102306365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8836212158203</t>
+    <t xml:space="preserve">10.910231590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8836221694946</t>
   </si>
   <si>
     <t xml:space="preserve">10.4844665527344</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">9.60632610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21382331848145</t>
+    <t xml:space="preserve">9.21382427215576</t>
   </si>
   <si>
     <t xml:space="preserve">9.04085731506348</t>
@@ -1964,31 +1964,31 @@
     <t xml:space="preserve">9.34687519073486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96556568145752</t>
+    <t xml:space="preserve">9.86577606201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9655647277832</t>
   </si>
   <si>
     <t xml:space="preserve">10.3381099700928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6441287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2362079620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8703165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0320920944214</t>
+    <t xml:space="preserve">10.6441278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2362070083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8703155517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0320901870728</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385316848755</t>
   </si>
   <si>
-    <t xml:space="preserve">9.699462890625</t>
+    <t xml:space="preserve">9.69946193695068</t>
   </si>
   <si>
     <t xml:space="preserve">10.0387439727783</t>
@@ -1997,25 +1997,25 @@
     <t xml:space="preserve">10.1717958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2981958389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5443391799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.431245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979825973511</t>
+    <t xml:space="preserve">10.2981939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5443410873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4312467575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979835510254</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.570951461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5243816375732</t>
+    <t xml:space="preserve">10.5709495544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5243825912476</t>
   </si>
   <si>
     <t xml:space="preserve">11.9214239120483</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">12.2473993301392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9946031570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7529964447021</t>
+    <t xml:space="preserve">11.9946041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7529983520508</t>
   </si>
   <si>
     <t xml:space="preserve">12.4336729049683</t>
@@ -2036,46 +2036,46 @@
     <t xml:space="preserve">12.1076965332031</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0611267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5621843338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9081192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3692607879639</t>
+    <t xml:space="preserve">12.0611276626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.562183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9081172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3692598342896</t>
   </si>
   <si>
     <t xml:space="preserve">11.80832862854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3093872070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7018890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2074851989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1010427474976</t>
+    <t xml:space="preserve">11.3093862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7018880844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2074842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1010446548462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9413824081421</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4091739654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904844284058</t>
+    <t xml:space="preserve">11.4091758728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904853820801</t>
   </si>
   <si>
     <t xml:space="preserve">10.657434463501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3048477172852</t>
+    <t xml:space="preserve">10.3048467636108</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853118896484</t>
@@ -2090,52 +2090,52 @@
     <t xml:space="preserve">10.2782363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.936842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4424390792847</t>
+    <t xml:space="preserve">10.9368419647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.442440032959</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.60875415802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6819305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6353645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6021013259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.023325920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5842542648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1098108291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2495136260986</t>
+    <t xml:space="preserve">11.6087532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6819295883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6353626251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6021003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0233249664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5842552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1098098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2495126724243</t>
   </si>
   <si>
     <t xml:space="preserve">11.5089635848999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4025220870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9834108352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9634532928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.302734375</t>
+    <t xml:space="preserve">11.4025230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9834098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9634523391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3027334213257</t>
   </si>
   <si>
     <t xml:space="preserve">11.475700378418</t>
@@ -2159,19 +2159,19 @@
     <t xml:space="preserve">11.0698928833008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6108646392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2008333206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9038925170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2319822311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5068521499634</t>
+    <t xml:space="preserve">10.6108655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.200834274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9038934707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2319803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5068492889404</t>
   </si>
   <si>
     <t xml:space="preserve">11.9613389968872</t>
@@ -2180,28 +2180,28 @@
     <t xml:space="preserve">11.7684144973755</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6686267852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6220579147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1164608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825645446777</t>
+    <t xml:space="preserve">11.668625831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6220569610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1164627075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825654983521</t>
   </si>
   <si>
     <t xml:space="preserve">12.0278663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1343050003052</t>
+    <t xml:space="preserve">12.1343059539795</t>
   </si>
   <si>
     <t xml:space="preserve">12.2207908630371</t>
   </si>
   <si>
-    <t xml:space="preserve">12.62659740448</t>
+    <t xml:space="preserve">12.6265964508057</t>
   </si>
   <si>
     <t xml:space="preserve">12.0677795410156</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">10.4977712631226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.291543006897</t>
+    <t xml:space="preserve">10.2915420532227</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451854705811</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">9.9921760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0453958511353</t>
+    <t xml:space="preserve">10.0453968048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.81920909881592</t>
@@ -2231,25 +2231,25 @@
     <t xml:space="preserve">9.87242889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84582042694092</t>
+    <t xml:space="preserve">9.8458194732666</t>
   </si>
   <si>
     <t xml:space="preserve">9.72607231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78594589233398</t>
+    <t xml:space="preserve">9.78594493865967</t>
   </si>
   <si>
     <t xml:space="preserve">9.9788703918457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89903926849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1651430130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445524215698</t>
+    <t xml:space="preserve">9.89904022216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1651420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445505142212</t>
   </si>
   <si>
     <t xml:space="preserve">10.4245929718018</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">10.3248052597046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975618362427</t>
+    <t xml:space="preserve">10.5975608825684</t>
   </si>
   <si>
     <t xml:space="preserve">10.6507816314697</t>
@@ -2270,40 +2270,40 @@
     <t xml:space="preserve">10.6840438842773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8104438781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2869558334351</t>
+    <t xml:space="preserve">10.8104429244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2869567871094</t>
   </si>
   <si>
     <t xml:space="preserve">10.9313497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6184158325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6966485977173</t>
+    <t xml:space="preserve">10.6184148788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6966495513916</t>
   </si>
   <si>
     <t xml:space="preserve">10.1347904205322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94987487792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60849189758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37379264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10353183746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64835357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15331649780273</t>
+    <t xml:space="preserve">9.94987392425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60849285125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37379169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10352993011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64835453033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15331554412842</t>
   </si>
   <si>
     <t xml:space="preserve">9.21021270751953</t>
@@ -2318,16 +2318,16 @@
     <t xml:space="preserve">8.66257953643799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69813919067383</t>
+    <t xml:space="preserve">8.69813823699951</t>
   </si>
   <si>
     <t xml:space="preserve">8.60568237304688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32119655609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49188709259033</t>
+    <t xml:space="preserve">8.32119560241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49188613891602</t>
   </si>
   <si>
     <t xml:space="preserve">8.34964466094971</t>
@@ -2336,46 +2336,46 @@
     <t xml:space="preserve">8.29274749755859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25007438659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10783100128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04382419586182</t>
+    <t xml:space="preserve">8.250075340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10783290863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0438232421875</t>
   </si>
   <si>
     <t xml:space="preserve">8.42787837982178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0580472946167</t>
+    <t xml:space="preserve">8.05804634094238</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01537418365479</t>
+    <t xml:space="preserve">8.0153751373291</t>
   </si>
   <si>
     <t xml:space="preserve">8.27141189575195</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98692607879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02248573303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97981357574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15761756896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47766304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83327102661133</t>
+    <t xml:space="preserve">7.98692512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02248668670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97981405258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15761661529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47766208648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8332691192627</t>
   </si>
   <si>
     <t xml:space="preserve">8.62701797485352</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">8.54167175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57723236083984</t>
+    <t xml:space="preserve">8.57723426818848</t>
   </si>
   <si>
     <t xml:space="preserve">8.44210243225098</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">8.7905969619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99684810638428</t>
+    <t xml:space="preserve">8.99684906005859</t>
   </si>
   <si>
     <t xml:space="preserve">9.57293128967285</t>
@@ -2420,34 +2420,34 @@
     <t xml:space="preserve">9.43068981170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33823108673096</t>
+    <t xml:space="preserve">9.33823204040527</t>
   </si>
   <si>
     <t xml:space="preserve">9.40935134887695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85030460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83608150482178</t>
+    <t xml:space="preserve">9.85030555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83607959747314</t>
   </si>
   <si>
     <t xml:space="preserve">9.8289680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62271595001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48758602142334</t>
+    <t xml:space="preserve">9.62271690368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48758697509766</t>
   </si>
   <si>
     <t xml:space="preserve">9.70806121826172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71517372131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58004474639893</t>
+    <t xml:space="preserve">9.71517467498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58004379272461</t>
   </si>
   <si>
     <t xml:space="preserve">9.46625137329102</t>
@@ -2462,22 +2462,22 @@
     <t xml:space="preserve">9.12486743927002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39512920379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92853927612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80763149261475</t>
+    <t xml:space="preserve">9.39512825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92853832244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80763244628906</t>
   </si>
   <si>
     <t xml:space="preserve">9.77207183837891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0352182388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3311185836792</t>
+    <t xml:space="preserve">10.0352210998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33111953735352</t>
   </si>
   <si>
     <t xml:space="preserve">8.91861534118652</t>
@@ -2492,25 +2492,25 @@
     <t xml:space="preserve">9.16754055023193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27422142028809</t>
+    <t xml:space="preserve">9.2742223739624</t>
   </si>
   <si>
     <t xml:space="preserve">9.20310115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11064338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06085872650146</t>
+    <t xml:space="preserve">9.11064434051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06085681915283</t>
   </si>
   <si>
     <t xml:space="preserve">9.41646385192871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64405250549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92142677307129</t>
+    <t xml:space="preserve">9.64405345916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92142581939697</t>
   </si>
   <si>
     <t xml:space="preserve">10.0423316955566</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">10.141902923584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3979377746582</t>
+    <t xml:space="preserve">10.3979387283325</t>
   </si>
   <si>
     <t xml:space="preserve">10.3837156295776</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">10.5117330551147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5401811599731</t>
+    <t xml:space="preserve">10.5401821136475</t>
   </si>
   <si>
     <t xml:space="preserve">10.6610889434814</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9028997421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9100131988525</t>
+    <t xml:space="preserve">10.9029006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9100122451782</t>
   </si>
   <si>
     <t xml:space="preserve">10.703761100769</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">10.895788192749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6397523880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6326389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8886775970459</t>
+    <t xml:space="preserve">10.6397504806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330686569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6326398849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8886766433716</t>
   </si>
   <si>
     <t xml:space="preserve">10.6753120422363</t>
@@ -2573,22 +2573,22 @@
     <t xml:space="preserve">10.2343606948853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628078460693</t>
+    <t xml:space="preserve">10.2628087997437</t>
   </si>
   <si>
     <t xml:space="preserve">10.3766031265259</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0067710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3054809570312</t>
+    <t xml:space="preserve">10.0067720413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3054819107056</t>
   </si>
   <si>
     <t xml:space="preserve">10.4761724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7677698135376</t>
+    <t xml:space="preserve">10.7677707672119</t>
   </si>
   <si>
     <t xml:space="preserve">10.7108726501465</t>
@@ -2600,19 +2600,19 @@
     <t xml:space="preserve">10.8602275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9455738067627</t>
+    <t xml:space="preserve">10.9455728530884</t>
   </si>
   <si>
     <t xml:space="preserve">10.9953575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9384613037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7464323043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8673400878906</t>
+    <t xml:space="preserve">10.9384622573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7464332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8673391342163</t>
   </si>
   <si>
     <t xml:space="preserve">10.9811344146729</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">10.8104419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8531160354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2087230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2585077285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5828542709351</t>
+    <t xml:space="preserve">10.8531150817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.208722114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2585067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5828552246094</t>
   </si>
   <si>
     <t xml:space="preserve">10.3552656173706</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">9.96409893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98543453216553</t>
+    <t xml:space="preserve">9.98543548583984</t>
   </si>
   <si>
     <t xml:space="preserve">9.87164115905762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94276237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81474494934082</t>
+    <t xml:space="preserve">9.94276142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81474304199219</t>
   </si>
   <si>
     <t xml:space="preserve">9.63694000244141</t>
@@ -2672,25 +2672,25 @@
     <t xml:space="preserve">9.72939777374268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65827751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47336196899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42357730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54448413848877</t>
+    <t xml:space="preserve">9.65827655792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47336101531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42357635498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54448223114014</t>
   </si>
   <si>
     <t xml:space="preserve">9.75073528289795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75784683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69383907318115</t>
+    <t xml:space="preserve">9.75784778594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69383716583252</t>
   </si>
   <si>
     <t xml:space="preserve">9.74362277984619</t>
@@ -2699,94 +2699,94 @@
     <t xml:space="preserve">10.1703510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95698642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565567016602</t>
+    <t xml:space="preserve">9.95698738098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565576553345</t>
   </si>
   <si>
     <t xml:space="preserve">10.1561269760132</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0707807540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0494451522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191686630249</t>
+    <t xml:space="preserve">10.0707817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0494441986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1916875839233</t>
   </si>
   <si>
     <t xml:space="preserve">9.99965953826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82185649871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1205644607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5472946166992</t>
+    <t xml:space="preserve">9.82185745239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1205654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5472936630249</t>
   </si>
   <si>
     <t xml:space="preserve">10.5259580612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4619483947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.483283996582</t>
+    <t xml:space="preserve">10.4619474411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4832849502563</t>
   </si>
   <si>
     <t xml:space="preserve">10.2556972503662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2272481918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7179841995239</t>
+    <t xml:space="preserve">10.2272472381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7179861068726</t>
   </si>
   <si>
     <t xml:space="preserve">10.4192743301392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1988000869751</t>
+    <t xml:space="preserve">10.1987991333008</t>
   </si>
   <si>
     <t xml:space="preserve">10.5899667739868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6681995391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7819938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1447134017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1376008987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0735912322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1518249511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0024719238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1589374542236</t>
+    <t xml:space="preserve">10.6682004928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7819948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1447124481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.137601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0735921859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1518259048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0024709701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1589365005493</t>
   </si>
   <si>
     <t xml:space="preserve">10.2841444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5046215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77918434143066</t>
+    <t xml:space="preserve">10.504620552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77918338775635</t>
   </si>
   <si>
     <t xml:space="preserve">9.24577331542969</t>
@@ -2795,25 +2795,25 @@
     <t xml:space="preserve">8.69102764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56731033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27571201324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25437545776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734140396118</t>
+    <t xml:space="preserve">7.56730985641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27571105957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25437641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734092712402</t>
   </si>
   <si>
     <t xml:space="preserve">6.52893877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17333173751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98841619491577</t>
+    <t xml:space="preserve">6.17333221435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98841667175293</t>
   </si>
   <si>
     <t xml:space="preserve">6.00264024734497</t>
@@ -2828,112 +2828,112 @@
     <t xml:space="preserve">6.12710285186768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42225646972656</t>
+    <t xml:space="preserve">6.42225551605225</t>
   </si>
   <si>
     <t xml:space="preserve">6.454261302948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5787239074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49693393707275</t>
+    <t xml:space="preserve">6.57872343063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49693441390991</t>
   </si>
   <si>
     <t xml:space="preserve">6.22667360305786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36535930633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33335447311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2693452835083</t>
+    <t xml:space="preserve">6.36535882949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33335399627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26934480667114</t>
   </si>
   <si>
     <t xml:space="preserve">6.35824728012085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41870069503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56449842453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53960704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57161140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514492034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28357028961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34402275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35113573074341</t>
+    <t xml:space="preserve">6.41869974136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5644998550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53960657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57161092758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514444351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28356981277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34402370452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35113525390625</t>
   </si>
   <si>
     <t xml:space="preserve">6.04531335830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92085075378418</t>
+    <t xml:space="preserve">5.92085123062134</t>
   </si>
   <si>
     <t xml:space="preserve">6.06664943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39380741119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52182674407959</t>
+    <t xml:space="preserve">6.39380788803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52182722091675</t>
   </si>
   <si>
     <t xml:space="preserve">6.34757900238037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11643505096436</t>
+    <t xml:space="preserve">6.11643552780151</t>
   </si>
   <si>
     <t xml:space="preserve">6.18044328689575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14132738113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01686525344849</t>
+    <t xml:space="preserve">6.14132785797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01686477661133</t>
   </si>
   <si>
     <t xml:space="preserve">6.11287832260132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02753305435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94574308395386</t>
+    <t xml:space="preserve">6.02753353118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94574356079102</t>
   </si>
   <si>
     <t xml:space="preserve">5.85684204101562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74660348892212</t>
+    <t xml:space="preserve">5.74660396575928</t>
   </si>
   <si>
     <t xml:space="preserve">5.71104288101196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68970680236816</t>
+    <t xml:space="preserve">5.68970632553101</t>
   </si>
   <si>
     <t xml:space="preserve">5.44078207015991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29142713546753</t>
+    <t xml:space="preserve">5.29142761230469</t>
   </si>
   <si>
     <t xml:space="preserve">5.1776328086853</t>
@@ -2942,37 +2942,37 @@
     <t xml:space="preserve">5.19185781478882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47634267807007</t>
+    <t xml:space="preserve">5.47634315490723</t>
   </si>
   <si>
     <t xml:space="preserve">5.69681930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8675103187561</t>
+    <t xml:space="preserve">5.86750984191895</t>
   </si>
   <si>
     <t xml:space="preserve">5.97063636779785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89951515197754</t>
+    <t xml:space="preserve">5.89951467514038</t>
   </si>
   <si>
     <t xml:space="preserve">5.93863201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29779386520386</t>
+    <t xml:space="preserve">6.2977933883667</t>
   </si>
   <si>
     <t xml:space="preserve">6.53605079650879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87743377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36817026138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91299390792847</t>
+    <t xml:space="preserve">6.87743282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36817073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91299486160278</t>
   </si>
   <si>
     <t xml:space="preserve">6.69962930679321</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">6.24089670181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19466876983643</t>
+    <t xml:space="preserve">6.19466829299927</t>
   </si>
   <si>
     <t xml:space="preserve">6.36180353164673</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">6.46492910385132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40091991424561</t>
+    <t xml:space="preserve">6.40091943740845</t>
   </si>
   <si>
     <t xml:space="preserve">6.30490636825562</t>
@@ -3005,22 +3005,22 @@
     <t xml:space="preserve">5.93507528305054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8461742401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9101824760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04175758361816</t>
+    <t xml:space="preserve">5.84617376327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91018295288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04175710678101</t>
   </si>
   <si>
     <t xml:space="preserve">6.0808744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06309413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20889186859131</t>
+    <t xml:space="preserve">6.0630931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20889234542847</t>
   </si>
   <si>
     <t xml:space="preserve">6.32624292373657</t>
@@ -3029,40 +3029,40 @@
     <t xml:space="preserve">6.45070457458496</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37958478927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48270893096924</t>
+    <t xml:space="preserve">6.37958383560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48270988464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.4613733291626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84898519515991</t>
+    <t xml:space="preserve">6.84898471832275</t>
   </si>
   <si>
     <t xml:space="preserve">6.9805588722229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03745651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8134241104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66406869888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50760126113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35469198226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16621971130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16266298294067</t>
+    <t xml:space="preserve">7.03745746612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81342363357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66406965255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50760173797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35469150543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16622018814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16266393661499</t>
   </si>
   <si>
     <t xml:space="preserve">6.38669586181641</t>
@@ -3071,10 +3071,10 @@
     <t xml:space="preserve">6.39736413955688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25156497955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52538251876831</t>
+    <t xml:space="preserve">6.25156593322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52538204193115</t>
   </si>
   <si>
     <t xml:space="preserve">6.50049018859863</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">6.53249502182007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40447616577148</t>
+    <t xml:space="preserve">6.40447664260864</t>
   </si>
   <si>
     <t xml:space="preserve">6.37247180938721</t>
@@ -3092,37 +3092,37 @@
     <t xml:space="preserve">6.48626565933228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30846261978149</t>
+    <t xml:space="preserve">6.30846214294434</t>
   </si>
   <si>
     <t xml:space="preserve">6.32268667221069</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37602853775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20178079605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14844036102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13777160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27290153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2764573097229</t>
+    <t xml:space="preserve">6.37602758407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20178031921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14843940734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13777112960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27290201187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27645778656006</t>
   </si>
   <si>
     <t xml:space="preserve">6.23022937774658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26223373413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46848487854004</t>
+    <t xml:space="preserve">6.26223421096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46848583221436</t>
   </si>
   <si>
     <t xml:space="preserve">6.38314008712769</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">5.92796325683594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106657028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97419166564941</t>
+    <t xml:space="preserve">5.87106609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97419214248657</t>
   </si>
   <si>
     <t xml:space="preserve">5.83194923400879</t>
@@ -3152,10 +3152,10 @@
     <t xml:space="preserve">5.73237991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73593521118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75015926361084</t>
+    <t xml:space="preserve">5.7359356880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75016021728516</t>
   </si>
   <si>
     <t xml:space="preserve">5.8746223449707</t>
@@ -3167,13 +3167,13 @@
     <t xml:space="preserve">5.85328531265259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82839298248291</t>
+    <t xml:space="preserve">5.82839345932007</t>
   </si>
   <si>
     <t xml:space="preserve">5.73949146270752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57946872711182</t>
+    <t xml:space="preserve">5.57946825027466</t>
   </si>
   <si>
     <t xml:space="preserve">5.63280916213989</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">5.58302450180054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57591247558594</t>
+    <t xml:space="preserve">5.5759129524231</t>
   </si>
   <si>
     <t xml:space="preserve">5.61858558654785</t>
@@ -3209,79 +3209,79 @@
     <t xml:space="preserve">4.95715713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7971339225769</t>
+    <t xml:space="preserve">4.79713344573975</t>
   </si>
   <si>
     <t xml:space="preserve">4.89670419692993</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04605865478516</t>
+    <t xml:space="preserve">5.04605913162231</t>
   </si>
   <si>
     <t xml:space="preserve">5.25942277908325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38744115829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30920791625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27009057998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65059041976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66125869750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78216505050659</t>
+    <t xml:space="preserve">5.38744068145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30920743942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27009105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65058994293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66125822067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78216457366943</t>
   </si>
   <si>
     <t xml:space="preserve">5.7572717666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22311735153198</t>
+    <t xml:space="preserve">6.22311639785767</t>
   </si>
   <si>
     <t xml:space="preserve">6.42581272125244</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44359350204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68184995651245</t>
+    <t xml:space="preserve">6.44359254837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68184947967529</t>
   </si>
   <si>
     <t xml:space="preserve">6.60717248916626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57516717910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5858359336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49337816238403</t>
+    <t xml:space="preserve">6.57516670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58583545684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49337768554688</t>
   </si>
   <si>
     <t xml:space="preserve">6.79208755493164</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92721891403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94855451583862</t>
+    <t xml:space="preserve">6.92721796035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94855499267578</t>
   </si>
   <si>
     <t xml:space="preserve">6.97700309753418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83831691741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80986785888672</t>
+    <t xml:space="preserve">6.8383150100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80986738204956</t>
   </si>
   <si>
     <t xml:space="preserve">6.74230241775513</t>
@@ -3290,10 +3290,10 @@
     <t xml:space="preserve">6.66051244735718</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71385288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71029758453369</t>
+    <t xml:space="preserve">6.71385335922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71029901504517</t>
   </si>
   <si>
     <t xml:space="preserve">6.64273262023926</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">6.67118120193481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4755973815918</t>
+    <t xml:space="preserve">6.47559690475464</t>
   </si>
   <si>
     <t xml:space="preserve">6.54671812057495</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">6.62495183944702</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61072826385498</t>
+    <t xml:space="preserve">6.61072778701782</t>
   </si>
   <si>
     <t xml:space="preserve">6.56805467605591</t>
@@ -3329,19 +3329,19 @@
     <t xml:space="preserve">6.30135011672974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31201839447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21244859695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1093225479126</t>
+    <t xml:space="preserve">6.31201791763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21244812011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10932302474976</t>
   </si>
   <si>
     <t xml:space="preserve">5.90307092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01330900192261</t>
+    <t xml:space="preserve">6.01330852508545</t>
   </si>
   <si>
     <t xml:space="preserve">5.95641183853149</t>
@@ -3353,79 +3353,79 @@
     <t xml:space="preserve">6.67829370498657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88454532623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03390026092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43217945098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3397216796875</t>
+    <t xml:space="preserve">6.88454580307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03389930725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43217992782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33972072601318</t>
   </si>
   <si>
     <t xml:space="preserve">7.42506742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33261060714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549715042114</t>
+    <t xml:space="preserve">7.33261013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3254976272583</t>
   </si>
   <si>
     <t xml:space="preserve">7.24015235900879</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3041615486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36105966567993</t>
+    <t xml:space="preserve">7.30416202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36105823516846</t>
   </si>
   <si>
     <t xml:space="preserve">7.58864641189575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48196411132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66687917709351</t>
+    <t xml:space="preserve">7.48196506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66687965393066</t>
   </si>
   <si>
     <t xml:space="preserve">7.51752519607544</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53886222839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46062707901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93002843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90869331359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847702026367</t>
+    <t xml:space="preserve">7.5388617515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46062755584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93002891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90869188308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847654342651</t>
   </si>
   <si>
     <t xml:space="preserve">8.16472911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22873878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12916851043701</t>
+    <t xml:space="preserve">8.22873783111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12916946411133</t>
   </si>
   <si>
     <t xml:space="preserve">8.15050506591797</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88024377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91580533981323</t>
+    <t xml:space="preserve">7.8802433013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91580486297607</t>
   </si>
   <si>
     <t xml:space="preserve">7.97270154953003</t>
@@ -3434,16 +3434,16 @@
     <t xml:space="preserve">8.08649635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10072040557861</t>
+    <t xml:space="preserve">8.1007194519043</t>
   </si>
   <si>
     <t xml:space="preserve">8.0011510848999</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05093479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07938385009766</t>
+    <t xml:space="preserve">8.05093574523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07938289642334</t>
   </si>
   <si>
     <t xml:space="preserve">7.8660192489624</t>
@@ -3452,16 +3452,16 @@
     <t xml:space="preserve">8.24296283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17895317077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13628101348877</t>
+    <t xml:space="preserve">8.17895412445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13628005981445</t>
   </si>
   <si>
     <t xml:space="preserve">8.09360790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78778553009033</t>
+    <t xml:space="preserve">7.78778600692749</t>
   </si>
   <si>
     <t xml:space="preserve">7.99403810501099</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">8.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26429843902588</t>
+    <t xml:space="preserve">8.2642993927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.21451377868652</t>
@@ -3479,16 +3479,16 @@
     <t xml:space="preserve">8.18606567382812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22162628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27852439880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74792385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46343994140625</t>
+    <t xml:space="preserve">8.2216272354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27852249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7479248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46343898773193</t>
   </si>
   <si>
     <t xml:space="preserve">8.92572784423828</t>
@@ -3500,13 +3500,13 @@
     <t xml:space="preserve">9.30978298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23866271972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08219528198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00396060943604</t>
+    <t xml:space="preserve">9.23865985870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08219432830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00395965576172</t>
   </si>
   <si>
     <t xml:space="preserve">8.85460662841797</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">9.04663372039795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13909244537354</t>
+    <t xml:space="preserve">9.13909149169922</t>
   </si>
   <si>
     <t xml:space="preserve">9.18176460266113</t>
@@ -3524,13 +3524,13 @@
     <t xml:space="preserve">9.2599983215332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21732616424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35245513916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96128845214844</t>
+    <t xml:space="preserve">9.21732521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35245418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96128749847412</t>
   </si>
   <si>
     <t xml:space="preserve">9.91431427001953</t>
@@ -3539,31 +3539,31 @@
     <t xml:space="preserve">9.79340839385986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50892353057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45202541351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3595666885376</t>
+    <t xml:space="preserve">9.5089225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4520263671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35956764221191</t>
   </si>
   <si>
     <t xml:space="preserve">9.11775398254395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66538906097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05374526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887710571289</t>
+    <t xml:space="preserve">9.66539001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05374622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887615203857</t>
   </si>
   <si>
     <t xml:space="preserve">9.85741710662842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87875366210938</t>
+    <t xml:space="preserve">9.87875270843506</t>
   </si>
   <si>
     <t xml:space="preserve">9.88586521148682</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">9.97832298278809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90009021759033</t>
+    <t xml:space="preserve">9.90008926391602</t>
   </si>
   <si>
     <t xml:space="preserve">9.89297771453857</t>
@@ -3584,10 +3584,10 @@
     <t xml:space="preserve">10.1134538650513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.412163734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362377166748</t>
+    <t xml:space="preserve">10.4121646881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3623790740967</t>
   </si>
   <si>
     <t xml:space="preserve">10.3125944137573</t>
@@ -3596,16 +3596,16 @@
     <t xml:space="preserve">10.3268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4050512313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1276769638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2983703613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406108856201</t>
+    <t xml:space="preserve">10.40505027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1276779174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2983684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406118392944</t>
   </si>
   <si>
     <t xml:space="preserve">10.4263877868652</t>
@@ -3614,28 +3614,28 @@
     <t xml:space="preserve">10.5188455581665</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7891063690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0451431274414</t>
+    <t xml:space="preserve">10.7891073226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0451421737671</t>
   </si>
   <si>
     <t xml:space="preserve">11.0949287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3580770492554</t>
+    <t xml:space="preserve">11.3580780029297</t>
   </si>
   <si>
     <t xml:space="preserve">11.4434223175049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4860963821411</t>
+    <t xml:space="preserve">11.4860954284668</t>
   </si>
   <si>
     <t xml:space="preserve">11.2656183242798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8345899581909</t>
+    <t xml:space="preserve">11.8345890045166</t>
   </si>
   <si>
     <t xml:space="preserve">11.9057102203369</t>
@@ -3647,28 +3647,28 @@
     <t xml:space="preserve">11.6141138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0621776580811</t>
+    <t xml:space="preserve">12.0621786117554</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496744155884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8914861679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.742133140564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.720796585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8985986709595</t>
+    <t xml:space="preserve">11.891487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7421321868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7207956314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8985996246338</t>
   </si>
   <si>
     <t xml:space="preserve">11.7492446899414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1048526763916</t>
+    <t xml:space="preserve">12.1048517227173</t>
   </si>
   <si>
     <t xml:space="preserve">12.0977392196655</t>
@@ -3680,49 +3680,49 @@
     <t xml:space="preserve">12.3486661911011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965894699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9988880157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1053438186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2117958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1433629989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1585702896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3106460571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4323091506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6528196334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288579940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7516708374023</t>
+    <t xml:space="preserve">12.1965885162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9988889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1053419113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2117967605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1433620452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1585693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3106479644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4323081970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528186798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7516717910767</t>
   </si>
   <si>
     <t xml:space="preserve">12.8505210876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8125009536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6224050521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8809366226196</t>
+    <t xml:space="preserve">12.8125019073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6224060058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8809356689453</t>
   </si>
   <si>
     <t xml:space="preserve">12.8581247329712</t>
@@ -3734,25 +3734,25 @@
     <t xml:space="preserve">12.6908397674561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3866853713989</t>
+    <t xml:space="preserve">12.3866863250732</t>
   </si>
   <si>
     <t xml:space="preserve">12.2498159408569</t>
   </si>
   <si>
-    <t xml:space="preserve">11.907642364502</t>
+    <t xml:space="preserve">11.9076433181763</t>
   </si>
   <si>
     <t xml:space="preserve">12.0369081497192</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6034879684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5578641891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5426578521729</t>
+    <t xml:space="preserve">11.6034889221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5578651428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5426568984985</t>
   </si>
   <si>
     <t xml:space="preserve">10.9647645950317</t>
@@ -3770,19 +3770,19 @@
     <t xml:space="preserve">11.5958843231201</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5046367645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9228496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0901346206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9608697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597200393677</t>
+    <t xml:space="preserve">11.504638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9228506088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0901355743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9608688354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.059718132019</t>
   </si>
   <si>
     <t xml:space="preserve">12.0064926147461</t>
@@ -3797,25 +3797,25 @@
     <t xml:space="preserve">11.8087921142578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1509656906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1357574462891</t>
+    <t xml:space="preserve">12.1509647369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1357583999634</t>
   </si>
   <si>
     <t xml:space="preserve">12.9265594482422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9797859191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2991495132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4512252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3599786758423</t>
+    <t xml:space="preserve">12.9797849655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.299147605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.451226234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3599805831909</t>
   </si>
   <si>
     <t xml:space="preserve">13.1318645477295</t>
@@ -3824,13 +3824,13 @@
     <t xml:space="preserve">13.3295640945435</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2839403152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4816417694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.656530380249</t>
+    <t xml:space="preserve">13.2839412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4816398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6565294265747</t>
   </si>
   <si>
     <t xml:space="preserve">13.7173614501953</t>
@@ -3842,31 +3842,31 @@
     <t xml:space="preserve">14.0291194915771</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5576791763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.512056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9530811309814</t>
+    <t xml:space="preserve">13.5576801300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5120573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9530792236328</t>
   </si>
   <si>
     <t xml:space="preserve">13.8238134384155</t>
   </si>
   <si>
-    <t xml:space="preserve">13.033013343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4664325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5880966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6109066009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4892454147339</t>
+    <t xml:space="preserve">13.0330142974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4664335250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5880937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6109056472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4892444610596</t>
   </si>
   <si>
     <t xml:space="preserve">13.4208097457886</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">13.6261148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0063076019287</t>
+    <t xml:space="preserve">14.0063066482544</t>
   </si>
   <si>
     <t xml:space="preserve">14.5994081497192</t>
@@ -3890,16 +3890,16 @@
     <t xml:space="preserve">15.6031179428101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7399892807007</t>
+    <t xml:space="preserve">15.7399873733521</t>
   </si>
   <si>
     <t xml:space="preserve">16.4243354797363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4851665496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2266330718994</t>
+    <t xml:space="preserve">16.485164642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.226634979248</t>
   </si>
   <si>
     <t xml:space="preserve">16.2722568511963</t>
@@ -3908,13 +3908,13 @@
     <t xml:space="preserve">15.3597936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9795999526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9454774856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6678428649902</t>
+    <t xml:space="preserve">14.9796009063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9454755783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6678438186646</t>
   </si>
   <si>
     <t xml:space="preserve">14.4017086029053</t>
@@ -3923,16 +3923,16 @@
     <t xml:space="preserve">13.5652837753296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8314180374146</t>
+    <t xml:space="preserve">13.8314189910889</t>
   </si>
   <si>
     <t xml:space="preserve">13.5804920196533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3714771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8316030502319</t>
+    <t xml:space="preserve">12.3714780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8316040039062</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341630935669</t>
@@ -3941,130 +3941,130 @@
     <t xml:space="preserve">12.1281538009644</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5007448196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0482206344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3827905654907</t>
+    <t xml:space="preserve">12.5007438659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0482215881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.382791519165</t>
   </si>
   <si>
     <t xml:space="preserve">14.0823459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9834957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0139112472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3636894226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2952547073364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1735906600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3332719802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3712930679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964044570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3180665969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4968481063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9074573516846</t>
+    <t xml:space="preserve">13.9834966659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0139093399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3636875152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2952537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1735916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3332738876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3712911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3180656433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.49684715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9074583053589</t>
   </si>
   <si>
     <t xml:space="preserve">13.7401723861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7933979034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4740371704102</t>
+    <t xml:space="preserve">13.793399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4740362167358</t>
   </si>
   <si>
     <t xml:space="preserve">13.8086071014404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1470727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915449142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.477931022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7364625930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2231092453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5272645950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.238317489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8334798812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8495635986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691383361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0425882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9380331039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0184621810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6565380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6324110031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.608283996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5761108398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.584153175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3509149551392</t>
+    <t xml:space="preserve">13.1470718383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4779319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7364635467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2231101989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5272655487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2383165359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.833477973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8495645523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0425901412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9380340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.018461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6565389633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6324100494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6082830429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5761098861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5841522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3509159088135</t>
   </si>
   <si>
     <t xml:space="preserve">13.1739749908447</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9166078567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1445074081421</t>
+    <t xml:space="preserve">12.9166088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1445083618164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5252180099487</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">11.6458587646484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.056037902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5010900497437</t>
+    <t xml:space="preserve">12.0560369491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.501091003418</t>
   </si>
   <si>
     <t xml:space="preserve">11.4850034713745</t>
@@ -4085,10 +4085,10 @@
     <t xml:space="preserve">11.7423715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5573892593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5493459701538</t>
+    <t xml:space="preserve">11.5573883056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5493469238281</t>
   </si>
   <si>
     <t xml:space="preserve">11.2598075866699</t>
@@ -4097,55 +4097,55 @@
     <t xml:space="preserve">11.5413036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4689197540283</t>
+    <t xml:space="preserve">11.468918800354</t>
   </si>
   <si>
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276372909546</t>
+    <t xml:space="preserve">11.2276382446289</t>
   </si>
   <si>
     <t xml:space="preserve">10.8657150268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7289876937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6726903915405</t>
+    <t xml:space="preserve">10.7289896011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6726894378662</t>
   </si>
   <si>
     <t xml:space="preserve">10.2383823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1579561233521</t>
+    <t xml:space="preserve">10.1579551696777</t>
   </si>
   <si>
     <t xml:space="preserve">10.3751087188721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6646461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.350980758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4072790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96492958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48236751556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70756340026855</t>
+    <t xml:space="preserve">10.664647102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3509798049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4072799682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96493053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48236656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70756244659424</t>
   </si>
   <si>
     <t xml:space="preserve">9.86841773986816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1257839202881</t>
+    <t xml:space="preserve">10.1257848739624</t>
   </si>
   <si>
     <t xml:space="preserve">10.1659984588623</t>
@@ -4154,22 +4154,22 @@
     <t xml:space="preserve">10.1016569137573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1820831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4877071380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.133828163147</t>
+    <t xml:space="preserve">10.1820840835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4877061843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1338272094727</t>
   </si>
   <si>
     <t xml:space="preserve">10.3027248382568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3348960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.535964012146</t>
+    <t xml:space="preserve">10.3348951339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5359630584717</t>
   </si>
   <si>
     <t xml:space="preserve">10.6485614776611</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">10.5118350982666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.946141242981</t>
+    <t xml:space="preserve">10.9461421966553</t>
   </si>
   <si>
     <t xml:space="preserve">11.0185260772705</t>
@@ -4187,22 +4187,22 @@
     <t xml:space="preserve">10.9783134460449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153213500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5279216766357</t>
+    <t xml:space="preserve">10.6968173980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.415322303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5279207229614</t>
   </si>
   <si>
     <t xml:space="preserve">10.7852878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9702711105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4394512176514</t>
+    <t xml:space="preserve">10.9702701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4394502639771</t>
   </si>
   <si>
     <t xml:space="preserve">10.0131864547729</t>
@@ -4217,10 +4217,10 @@
     <t xml:space="preserve">9.97297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69952011108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62713623046875</t>
+    <t xml:space="preserve">9.6995210647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62713718414307</t>
   </si>
   <si>
     <t xml:space="preserve">9.69147777557373</t>
@@ -4229,25 +4229,25 @@
     <t xml:space="preserve">9.61104965209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36172676086426</t>
+    <t xml:space="preserve">9.36172580718994</t>
   </si>
   <si>
     <t xml:space="preserve">9.5547513961792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28934192657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24108505249023</t>
+    <t xml:space="preserve">9.28934097290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24108409881592</t>
   </si>
   <si>
     <t xml:space="preserve">9.1043586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18478584289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39389801025391</t>
+    <t xml:space="preserve">9.18478679656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39389705657959</t>
   </si>
   <si>
     <t xml:space="preserve">9.91667366027832</t>
@@ -4259,7 +4259,7 @@
     <t xml:space="preserve">10.0614433288574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83624649047852</t>
+    <t xml:space="preserve">9.8362455368042</t>
   </si>
   <si>
     <t xml:space="preserve">9.77994728088379</t>
@@ -4268,10 +4268,10 @@
     <t xml:space="preserve">9.45019626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49845218658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17674350738525</t>
+    <t xml:space="preserve">9.49845314025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17674446105957</t>
   </si>
   <si>
     <t xml:space="preserve">9.19282913208008</t>
@@ -4280,7 +4280,7 @@
     <t xml:space="preserve">9.04001712799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94350528717041</t>
+    <t xml:space="preserve">8.94350433349609</t>
   </si>
   <si>
     <t xml:space="preserve">8.65396690368652</t>
@@ -4289,13 +4289,13 @@
     <t xml:space="preserve">9.15261554718018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25717067718506</t>
+    <t xml:space="preserve">9.25717163085938</t>
   </si>
   <si>
     <t xml:space="preserve">9.16065788269043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06414604187012</t>
+    <t xml:space="preserve">9.0641450881958</t>
   </si>
   <si>
     <t xml:space="preserve">8.95959091186523</t>
@@ -4307,7 +4307,7 @@
     <t xml:space="preserve">8.97567558288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84699153900146</t>
+    <t xml:space="preserve">8.84699249267578</t>
   </si>
   <si>
     <t xml:space="preserve">8.85503578186035</t>
@@ -4316,13 +4316,13 @@
     <t xml:space="preserve">9.11240100860596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0882740020752</t>
+    <t xml:space="preserve">9.08827304840088</t>
   </si>
   <si>
     <t xml:space="preserve">9.12848854064941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22500133514404</t>
+    <t xml:space="preserve">9.22500038146973</t>
   </si>
   <si>
     <t xml:space="preserve">9.32955551147461</t>
@@ -4334,13 +4334,13 @@
     <t xml:space="preserve">9.58692169189453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77190399169922</t>
+    <t xml:space="preserve">9.77190494537354</t>
   </si>
   <si>
     <t xml:space="preserve">9.81211853027344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5198783874512</t>
+    <t xml:space="preserve">10.5198774337769</t>
   </si>
   <si>
     <t xml:space="preserve">10.479663848877</t>
@@ -4349,7 +4349,7 @@
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506973266602</t>
+    <t xml:space="preserve">11.0506982803345</t>
   </si>
   <si>
     <t xml:space="preserve">11.1954660415649</t>
@@ -4361,13 +4361,13 @@
     <t xml:space="preserve">11.1230812072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0024404525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3643646240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3037776947021</t>
+    <t xml:space="preserve">11.0024423599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3643636703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3037767410278</t>
   </si>
   <si>
     <t xml:space="preserve">11.3383979797363</t>
@@ -4379,13 +4379,13 @@
     <t xml:space="preserve">11.3903293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3816747665405</t>
+    <t xml:space="preserve">11.3816728591919</t>
   </si>
   <si>
     <t xml:space="preserve">11.4249496459961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.277811050415</t>
+    <t xml:space="preserve">11.2778100967407</t>
   </si>
   <si>
     <t xml:space="preserve">11.2951211929321</t>
@@ -4394,16 +4394,16 @@
     <t xml:space="preserve">11.2172241210938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0441188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.853702545166</t>
+    <t xml:space="preserve">11.0441198348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8537034988403</t>
   </si>
   <si>
     <t xml:space="preserve">10.8710136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.052773475647</t>
+    <t xml:space="preserve">11.0527744293213</t>
   </si>
   <si>
     <t xml:space="preserve">10.9575653076172</t>
@@ -4412,25 +4412,25 @@
     <t xml:space="preserve">11.1739473342896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1999130249023</t>
+    <t xml:space="preserve">11.1999139785767</t>
   </si>
   <si>
     <t xml:space="preserve">11.0008420944214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0960493087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5720891952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3730192184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941921234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4162940979004</t>
+    <t xml:space="preserve">11.0960502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5720901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3730182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4162950515747</t>
   </si>
   <si>
     <t xml:space="preserve">11.5115032196045</t>
@@ -4439,7 +4439,7 @@
     <t xml:space="preserve">11.5201587677002</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6326761245728</t>
+    <t xml:space="preserve">11.6326770782471</t>
   </si>
   <si>
     <t xml:space="preserve">11.8144369125366</t>
@@ -4448,13 +4448,13 @@
     <t xml:space="preserve">12.1000604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1346817016602</t>
+    <t xml:space="preserve">12.1346826553345</t>
   </si>
   <si>
     <t xml:space="preserve">12.1433372497559</t>
   </si>
   <si>
-    <t xml:space="preserve">12.316442489624</t>
+    <t xml:space="preserve">12.3164415359497</t>
   </si>
   <si>
     <t xml:space="preserve">12.3424081802368</t>
@@ -4475,10 +4475,10 @@
     <t xml:space="preserve">12.4376163482666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077878952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5501356124878</t>
+    <t xml:space="preserve">12.3077869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5501346588135</t>
   </si>
   <si>
     <t xml:space="preserve">12.5328245162964</t>
@@ -4487,7 +4487,7 @@
     <t xml:space="preserve">12.3337535858154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5674467086792</t>
+    <t xml:space="preserve">12.5674457550049</t>
   </si>
   <si>
     <t xml:space="preserve">12.6193771362305</t>
@@ -4502,28 +4502,28 @@
     <t xml:space="preserve">13.3810396194458</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6060771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5368356704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6406984329224</t>
+    <t xml:space="preserve">13.6060781478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5368347167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.640697479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.7705268859863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7618713378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9955635070801</t>
+    <t xml:space="preserve">13.7618722915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9955644607544</t>
   </si>
   <si>
     <t xml:space="preserve">14.1167373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0907726287842</t>
+    <t xml:space="preserve">14.0907716751099</t>
   </si>
   <si>
     <t xml:space="preserve">13.7878379821777</t>
@@ -4532,19 +4532,19 @@
     <t xml:space="preserve">13.6233882904053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.194634437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0042190551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7532176971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4675931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3117980957031</t>
+    <t xml:space="preserve">14.1946353912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0042200088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7532167434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4675941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3117990493774</t>
   </si>
   <si>
     <t xml:space="preserve">13.493558883667</t>
@@ -4553,10 +4553,10 @@
     <t xml:space="preserve">13.4502820968628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5281791687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.554144859314</t>
+    <t xml:space="preserve">13.5281801223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5541458129883</t>
   </si>
   <si>
     <t xml:space="preserve">13.1040716171265</t>
@@ -4571,34 +4571,34 @@
     <t xml:space="preserve">12.2212343215942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2385454177856</t>
+    <t xml:space="preserve">12.23854637146</t>
   </si>
   <si>
     <t xml:space="preserve">12.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1260261535645</t>
+    <t xml:space="preserve">12.1260271072388</t>
   </si>
   <si>
     <t xml:space="preserve">11.8836793899536</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9269561767578</t>
+    <t xml:space="preserve">11.9269552230835</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798156738281</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9442672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.091404914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0827503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9961977005005</t>
+    <t xml:space="preserve">11.9442663192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0914058685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0827512741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9961967468262</t>
   </si>
   <si>
     <t xml:space="preserve">12.1606483459473</t>
@@ -4607,34 +4607,34 @@
     <t xml:space="preserve">12.2904767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.740550994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6713075637817</t>
+    <t xml:space="preserve">12.7405500411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6713094711304</t>
   </si>
   <si>
     <t xml:space="preserve">12.9482765197754</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0607948303223</t>
+    <t xml:space="preserve">13.0607957839966</t>
   </si>
   <si>
     <t xml:space="preserve">12.9915533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1906251907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3377628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1560039520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0867614746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1733150482178</t>
+    <t xml:space="preserve">13.1906232833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3377637863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1560029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0867605209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1733140945435</t>
   </si>
   <si>
     <t xml:space="preserve">12.7232398986816</t>
@@ -4643,10 +4643,10 @@
     <t xml:space="preserve">12.7578601837158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9828977584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1213817596436</t>
+    <t xml:space="preserve">12.9828987121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1213827133179</t>
   </si>
   <si>
     <t xml:space="preserve">12.454927444458</t>
@@ -4655,13 +4655,13 @@
     <t xml:space="preserve">12.4895486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4635820388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0999460220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287494659424</t>
+    <t xml:space="preserve">12.4635810852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0999450683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287504196167</t>
   </si>
   <si>
     <t xml:space="preserve">12.8240633010864</t>
@@ -4682,22 +4682,22 @@
     <t xml:space="preserve">12.4591875076294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.654974937439</t>
+    <t xml:space="preserve">12.6549739837646</t>
   </si>
   <si>
     <t xml:space="preserve">12.7973651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816730499268</t>
+    <t xml:space="preserve">12.6816720962524</t>
   </si>
   <si>
     <t xml:space="preserve">12.7528676986694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.743968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6905717849731</t>
+    <t xml:space="preserve">12.7439680099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6905727386475</t>
   </si>
   <si>
     <t xml:space="preserve">12.583779335022</t>
@@ -4715,13 +4715,13 @@
     <t xml:space="preserve">12.5570802688599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512583732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5036849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.726170539856</t>
+    <t xml:space="preserve">12.5125846862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5036840438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7261695861816</t>
   </si>
   <si>
     <t xml:space="preserve">12.5303821563721</t>
@@ -4751,13 +4751,13 @@
     <t xml:space="preserve">13.0020513534546</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1355428695679</t>
+    <t xml:space="preserve">13.1355438232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.9931526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266441345215</t>
+    <t xml:space="preserve">13.1266431808472</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957315444946</t>
@@ -4766,10 +4766,10 @@
     <t xml:space="preserve">13.384726524353</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4737205505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6606092453003</t>
+    <t xml:space="preserve">13.4737215042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.660608291626</t>
   </si>
   <si>
     <t xml:space="preserve">13.6161117553711</t>
@@ -4787,7 +4787,7 @@
     <t xml:space="preserve">13.6517095565796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8652954101562</t>
+    <t xml:space="preserve">13.8652944564819</t>
   </si>
   <si>
     <t xml:space="preserve">14.1767749786377</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">14.4348573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1233787536621</t>
+    <t xml:space="preserve">14.1233777999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2479705810547</t>
@@ -4826,10 +4826,10 @@
     <t xml:space="preserve">14.3992605209351</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5149526596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945734024048</t>
+    <t xml:space="preserve">14.5149517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945743560791</t>
   </si>
   <si>
     <t xml:space="preserve">14.1322774887085</t>
@@ -4844,10 +4844,10 @@
     <t xml:space="preserve">14.3458652496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3814611434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882555007935</t>
+    <t xml:space="preserve">14.381462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882545471191</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793558120728</t>
@@ -4859,7 +4859,7 @@
     <t xml:space="preserve">14.2212715148926</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9453907012939</t>
+    <t xml:space="preserve">13.9453897476196</t>
   </si>
   <si>
     <t xml:space="preserve">13.8207979202271</t>
@@ -4880,10 +4880,10 @@
     <t xml:space="preserve">13.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9364900588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0699815750122</t>
+    <t xml:space="preserve">13.9364910125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0699825286865</t>
   </si>
   <si>
     <t xml:space="preserve">14.1589756011963</t>
@@ -4904,19 +4904,19 @@
     <t xml:space="preserve">14.4615564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6662425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421262741089</t>
+    <t xml:space="preserve">14.6662435531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421253204346</t>
   </si>
   <si>
     <t xml:space="preserve">14.8353319168091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6128463745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6484441757202</t>
+    <t xml:space="preserve">14.612847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6484432220459</t>
   </si>
   <si>
     <t xml:space="preserve">14.6306457519531</t>
@@ -4934,25 +4934,25 @@
     <t xml:space="preserve">13.6962070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1856746673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3547620773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887281417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7552366256714</t>
+    <t xml:space="preserve">14.1856737136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3547630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5327520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7552375793457</t>
   </si>
   <si>
     <t xml:space="preserve">14.7997331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.951024055481</t>
+    <t xml:space="preserve">14.9510231018066</t>
   </si>
   <si>
     <t xml:space="preserve">15.4137935638428</t>
@@ -4964,13 +4964,13 @@
     <t xml:space="preserve">15.3336992263794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1913080215454</t>
+    <t xml:space="preserve">15.1913089752197</t>
   </si>
   <si>
     <t xml:space="preserve">15.1290130615234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3514976501465</t>
+    <t xml:space="preserve">15.3514995574951</t>
   </si>
   <si>
     <t xml:space="preserve">15.2654151916504</t>
@@ -5295,6 +5295,9 @@
   </si>
   <si>
     <t xml:space="preserve">20.0200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.75</t>
   </si>
 </sst>
 </file>
@@ -61458,7 +61461,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6494328704</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>135153</v>
@@ -61479,6 +61482,32 @@
         <v>1760</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.649375</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>102462</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>19.8799991607666</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>19.3799991607666</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>19.5200004577637</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -38,154 +38,154 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3060817718506</t>
+    <t xml:space="preserve">17.306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">IF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.924783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8509845733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9961338043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931833267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116302490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.866982460022</t>
+    <t xml:space="preserve">16.9247817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8509826660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9961318969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8669815063477</t>
   </si>
   <si>
     <t xml:space="preserve">15.5902338027954</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3466854095459</t>
+    <t xml:space="preserve">16.3466835021973</t>
   </si>
   <si>
     <t xml:space="preserve">15.2335357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9407835006714</t>
+    <t xml:space="preserve">15.9407844543457</t>
   </si>
   <si>
     <t xml:space="preserve">16.1006832122803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8731317520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9063358306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9309329986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5274829864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5336303710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1154327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7119789123535</t>
+    <t xml:space="preserve">15.8731327056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9063339233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9309310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5274810791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5336322784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1154308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7119808197021</t>
   </si>
   <si>
     <t xml:space="preserve">17.6504821777344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.342981338501</t>
+    <t xml:space="preserve">17.3429832458496</t>
   </si>
   <si>
     <t xml:space="preserve">16.6849327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4512348175049</t>
+    <t xml:space="preserve">16.4512329101562</t>
   </si>
   <si>
     <t xml:space="preserve">15.9899826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3602342605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4032850265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1105327606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.141284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.983832359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.879280090332</t>
+    <t xml:space="preserve">14.3602333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4032869338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1105337142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1412839889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.202784538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9838314056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8792839050293</t>
   </si>
   <si>
     <t xml:space="preserve">15.7808847427368</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6947822570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624320983887</t>
+    <t xml:space="preserve">15.694785118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.762433052063</t>
   </si>
   <si>
     <t xml:space="preserve">16.9739818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4696826934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2113819122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7218341827393</t>
+    <t xml:space="preserve">16.4696846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2113838195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7218322753906</t>
   </si>
   <si>
     <t xml:space="preserve">16.60498046875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5434818267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0416297912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.807933807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4819831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8854331970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0084342956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5779361724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9284839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1867809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6972312927246</t>
+    <t xml:space="preserve">16.5434837341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.041633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8079319000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4819812774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8854341506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0084323883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5779333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9284820556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1867847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6972351074219</t>
   </si>
   <si>
     <t xml:space="preserve">16.9124813079834</t>
@@ -194,49 +194,49 @@
     <t xml:space="preserve">17.5951328277588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8534317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6996822357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5582332611084</t>
+    <t xml:space="preserve">17.8534336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5582313537598</t>
   </si>
   <si>
     <t xml:space="preserve">17.7242813110352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.749547958374</t>
+    <t xml:space="preserve">17.7495460510254</t>
   </si>
   <si>
     <t xml:space="preserve">18.1285419464111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3875198364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0527420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4274005889893</t>
+    <t xml:space="preserve">18.3875217437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0527458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4274024963379</t>
   </si>
   <si>
     <t xml:space="preserve">18.0148448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1557865142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2442245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3579235076904</t>
+    <t xml:space="preserve">17.1557922363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2442207336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3579196929932</t>
   </si>
   <si>
     <t xml:space="preserve">17.4716167449951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1936893463135</t>
+    <t xml:space="preserve">17.1936874389648</t>
   </si>
   <si>
     <t xml:space="preserve">16.8020629882812</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">16.9662933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7578468322754</t>
+    <t xml:space="preserve">16.757848739624</t>
   </si>
   <si>
     <t xml:space="preserve">16.6504650115967</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">16.448335647583</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3283214569092</t>
+    <t xml:space="preserve">16.3283195495605</t>
   </si>
   <si>
     <t xml:space="preserve">16.044075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0819759368896</t>
+    <t xml:space="preserve">16.081974029541</t>
   </si>
   <si>
     <t xml:space="preserve">16.1704063415527</t>
@@ -272,115 +272,115 @@
     <t xml:space="preserve">16.006175994873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7787780761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5261154174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229204177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766477584839</t>
+    <t xml:space="preserve">15.7787799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5261182785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.22292137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766496658325</t>
   </si>
   <si>
     <t xml:space="preserve">15.0334234237671</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0018434524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544303894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4144010543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1175222396851</t>
+    <t xml:space="preserve">15.0018424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.414400100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1175231933594</t>
   </si>
   <si>
     <t xml:space="preserve">14.2754373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0354070663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7258958816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8964443206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9532928466797</t>
+    <t xml:space="preserve">14.0354089736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7258968353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8964433670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9532918930054</t>
   </si>
   <si>
     <t xml:space="preserve">13.5806140899658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8332757949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9619607925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3492517471313</t>
+    <t xml:space="preserve">13.8332786560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249031066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9619617462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.34925365448</t>
   </si>
   <si>
     <t xml:space="preserve">15.1597566604614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9134082794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0271081924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5912647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6923313140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649333953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2564878463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0543584823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8016929626465</t>
+    <t xml:space="preserve">14.9134111404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0271100997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796960830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5912666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6923294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.464937210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2564868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0543575286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8016948699951</t>
   </si>
   <si>
     <t xml:space="preserve">13.4226999282837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.258469581604</t>
+    <t xml:space="preserve">13.2584705352783</t>
   </si>
   <si>
     <t xml:space="preserve">13.1068716049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7657747268677</t>
+    <t xml:space="preserve">12.7657785415649</t>
   </si>
   <si>
     <t xml:space="preserve">13.4479675292969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9153919219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8522262573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2817554473877</t>
+    <t xml:space="preserve">13.91539478302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8522281646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2817525863647</t>
   </si>
   <si>
     <t xml:space="preserve">13.3279523849487</t>
@@ -389,22 +389,22 @@
     <t xml:space="preserve">11.1929521560669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2877025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.350866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645671844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.477198600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.496148109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9276561737061</t>
+    <t xml:space="preserve">11.2877016067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3508653640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645662307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4771995544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4961490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9276552200317</t>
   </si>
   <si>
     <t xml:space="preserve">10.5360307693481</t>
@@ -413,163 +413,163 @@
     <t xml:space="preserve">10.5233974456787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7002611160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7381601333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9067249298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4057331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.633129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562664031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6647109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.380467414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6457643508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3488855361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467514038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446229934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.66037940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0962209701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857936859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5573301315308</t>
+    <t xml:space="preserve">10.7002601623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7381610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9067258834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4057340621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.633131980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562644958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6647129058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3804655075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6457624435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3488845825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446220397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603803634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0962228775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857927322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5573310852051</t>
   </si>
   <si>
     <t xml:space="preserve">12.7341957092285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2225532531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541370391846</t>
+    <t xml:space="preserve">12.2225522994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541351318359</t>
   </si>
   <si>
     <t xml:space="preserve">12.7594614028931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.911057472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5383815765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8163118362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.708930015564</t>
+    <t xml:space="preserve">12.9110593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5383825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8163108825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.708927154541</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952310562134</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5194292068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4120492935181</t>
+    <t xml:space="preserve">12.5194311141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4120483398438</t>
   </si>
   <si>
     <t xml:space="preserve">12.0835886001587</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0709562301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1404371261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278047561646</t>
+    <t xml:space="preserve">12.0709571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1404390335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278076171875</t>
   </si>
   <si>
     <t xml:space="preserve">12.2036037445068</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0646409988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0583219528198</t>
+    <t xml:space="preserve">12.0646381378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0583238601685</t>
   </si>
   <si>
     <t xml:space="preserve">12.22887134552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3236198425293</t>
+    <t xml:space="preserve">12.3236179351807</t>
   </si>
   <si>
     <t xml:space="preserve">12.3046684265137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5699653625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0121240615845</t>
+    <t xml:space="preserve">12.5699644088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0121259689331</t>
   </si>
   <si>
     <t xml:space="preserve">13.5427141189575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311483383179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.151086807251</t>
+    <t xml:space="preserve">13.6311473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1510877609253</t>
   </si>
   <si>
     <t xml:space="preserve">12.8605270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9489593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8352584838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8542108535767</t>
+    <t xml:space="preserve">12.9489583969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.835262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8542098999023</t>
   </si>
   <si>
     <t xml:space="preserve">12.727876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9426431655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2647867202759</t>
+    <t xml:space="preserve">12.9426412582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2647857666016</t>
   </si>
   <si>
     <t xml:space="preserve">13.22057056427</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8226270675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6583976745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6394481658936</t>
+    <t xml:space="preserve">12.8226280212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6583957672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6394472122192</t>
   </si>
   <si>
     <t xml:space="preserve">12.6773462295532</t>
@@ -581,31 +581,31 @@
     <t xml:space="preserve">12.9300088882446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2268867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.643780708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7744436264038</t>
+    <t xml:space="preserve">13.2268896102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6437816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7744445800781</t>
   </si>
   <si>
     <t xml:space="preserve">15.0650081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0965900421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2481870651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3429393768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5892810821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8040447235107</t>
+    <t xml:space="preserve">15.0965909957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2481889724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3429384231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.589282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8040475845337</t>
   </si>
   <si>
     <t xml:space="preserve">15.9051103591919</t>
@@ -614,61 +614,61 @@
     <t xml:space="preserve">16.3662185668945</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546489715576</t>
+    <t xml:space="preserve">16.4546508789062</t>
   </si>
   <si>
     <t xml:space="preserve">16.6125659942627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7452144622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6441516876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4357032775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1830406188965</t>
+    <t xml:space="preserve">16.7452163696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6441478729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4357013702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1830387115479</t>
   </si>
   <si>
     <t xml:space="preserve">16.2019901275635</t>
   </si>
   <si>
-    <t xml:space="preserve">15.955641746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0503921508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9935417175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8166799545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4755821228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4629545211792</t>
+    <t xml:space="preserve">15.9556446075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0503902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9935426712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8166809082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4755849838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4629516601562</t>
   </si>
   <si>
     <t xml:space="preserve">15.0081586837769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0523748397827</t>
+    <t xml:space="preserve">15.052375793457</t>
   </si>
   <si>
     <t xml:space="preserve">14.9449939727783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.888144493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512353897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270353317261</t>
+    <t xml:space="preserve">14.8881435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512334823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270343780518</t>
   </si>
   <si>
     <t xml:space="preserve">14.4965190887451</t>
@@ -677,181 +677,181 @@
     <t xml:space="preserve">14.0227746963501</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5281000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618141174316</t>
+    <t xml:space="preserve">14.5280990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807607650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.761812210083</t>
   </si>
   <si>
     <t xml:space="preserve">14.6102142333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5513849258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6966667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6082334518433</t>
+    <t xml:space="preserve">15.551383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6966648101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6082315444946</t>
   </si>
   <si>
     <t xml:space="preserve">15.7914133071899</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1514587402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8229951858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9177417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588386535645</t>
+    <t xml:space="preserve">16.4293842315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1514568328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8229961395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9177436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588405609131</t>
   </si>
   <si>
     <t xml:space="preserve">16.4230690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7388954162598</t>
+    <t xml:space="preserve">16.7388973236084</t>
   </si>
   <si>
     <t xml:space="preserve">17.1368408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0420913696289</t>
+    <t xml:space="preserve">17.0420932769775</t>
   </si>
   <si>
     <t xml:space="preserve">16.9915599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8652305603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3156890869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.486234664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8210124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6757316589355</t>
+    <t xml:space="preserve">16.8652286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3156871795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4862365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8210105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6757335662842</t>
   </si>
   <si>
     <t xml:space="preserve">16.5367679595947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5936183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5746669769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3093681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1072425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9809103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524505615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8545789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8293113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5494003295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2335739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.119873046875</t>
+    <t xml:space="preserve">16.5936164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5746650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3093719482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1072406768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9809064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8545808792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8293132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5494022369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2335720062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1198749542236</t>
   </si>
   <si>
     <t xml:space="preserve">16.3599033355713</t>
   </si>
   <si>
-    <t xml:space="preserve">16.928394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4337196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4210834503174</t>
+    <t xml:space="preserve">16.9283924102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4337177276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4210872650146</t>
   </si>
   <si>
     <t xml:space="preserve">17.6358489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.15380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6465015411377</t>
+    <t xml:space="preserve">18.1538105010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6464996337891</t>
   </si>
   <si>
     <t xml:space="preserve">18.7917804718018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2927703857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2675018310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6863822937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707035064697</t>
+    <t xml:space="preserve">18.2927722930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.267505645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6863842010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707015991211</t>
   </si>
   <si>
     <t xml:space="preserve">18.6338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0760269165039</t>
+    <t xml:space="preserve">19.0760288238525</t>
   </si>
   <si>
     <t xml:space="preserve">19.2276229858398</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3476371765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7601985931396</t>
+    <t xml:space="preserve">19.3476390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.760196685791</t>
   </si>
   <si>
     <t xml:space="preserve">18.8802146911621</t>
   </si>
   <si>
-    <t xml:space="preserve">19.455020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7013702392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6046352386475</t>
+    <t xml:space="preserve">19.4550189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7013683319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6046333312988</t>
   </si>
   <si>
     <t xml:space="preserve">21.5015888214111</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7921485900879</t>
+    <t xml:space="preserve">21.7921504974365</t>
   </si>
   <si>
     <t xml:space="preserve">21.987964630127</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">22.5690879821777</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9291343688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8027954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7396335601807</t>
+    <t xml:space="preserve">22.9291324615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8027992248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7396354675293</t>
   </si>
   <si>
     <t xml:space="preserve">22.7080516815186</t>
@@ -884,103 +884,103 @@
     <t xml:space="preserve">22.6954193115234</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9164943695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8975524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6638355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2133769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5481510162354</t>
+    <t xml:space="preserve">22.9164962768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8975505828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6638374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2133731842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5481548309326</t>
   </si>
   <si>
     <t xml:space="preserve">23.3586559295654</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2891750335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1186275482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0491428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.434455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7376499176025</t>
+    <t xml:space="preserve">23.289176940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1186256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0491485595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4344539642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7376537322998</t>
   </si>
   <si>
     <t xml:space="preserve">23.4407749176025</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4893226623535</t>
+    <t xml:space="preserve">24.4893207550049</t>
   </si>
   <si>
     <t xml:space="preserve">24.3440418243408</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1734962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4451065063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0135955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2200031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8329925537109</t>
+    <t xml:space="preserve">24.1734943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.445104598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0135974884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2199993133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8329944610596</t>
   </si>
   <si>
     <t xml:space="preserve">24.6265907287598</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6074676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.498046875</t>
+    <t xml:space="preserve">23.6074714660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4980506896973</t>
   </si>
   <si>
     <t xml:space="preserve">23.2075614929199</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8915042877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6915493011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7560539245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6399478912354</t>
+    <t xml:space="preserve">22.891508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6915512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7560520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.639949798584</t>
   </si>
   <si>
     <t xml:space="preserve">21.2209224700928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4404582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4918270111084</t>
+    <t xml:space="preserve">20.4404563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.491828918457</t>
   </si>
   <si>
     <t xml:space="preserve">21.9562377929688</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5238456726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5109481811523</t>
+    <t xml:space="preserve">22.5238475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">22.5754489898682</t>
@@ -992,37 +992,37 @@
     <t xml:space="preserve">22.2916450500488</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3303413391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7691841125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.562780380249</t>
+    <t xml:space="preserve">22.33034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7691822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5627784729004</t>
   </si>
   <si>
     <t xml:space="preserve">21.8659343719482</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2658424377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.059440612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1884441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8205528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7625064849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3819446563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6012535095215</t>
+    <t xml:space="preserve">22.2658443450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0594387054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1884422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8205547332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7625007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3819427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6012496948242</t>
   </si>
   <si>
     <t xml:space="preserve">22.5496482849121</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">22.7689533233643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4786949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1561908721924</t>
+    <t xml:space="preserve">22.4786930084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1561889648438</t>
   </si>
   <si>
     <t xml:space="preserve">22.0465393066406</t>
@@ -1043,31 +1043,31 @@
     <t xml:space="preserve">21.9949359893799</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5302982330322</t>
+    <t xml:space="preserve">22.5302963256836</t>
   </si>
   <si>
     <t xml:space="preserve">22.7302532196045</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7044544219971</t>
+    <t xml:space="preserve">22.7044525146484</t>
   </si>
   <si>
     <t xml:space="preserve">22.9431056976318</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0205078125</t>
+    <t xml:space="preserve">23.0205097198486</t>
   </si>
   <si>
     <t xml:space="preserve">23.1043605804443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0140609741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2204608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.37526512146</t>
+    <t xml:space="preserve">23.0140571594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2204627990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3752670288086</t>
   </si>
   <si>
     <t xml:space="preserve">23.4139671325684</t>
@@ -1076,49 +1076,49 @@
     <t xml:space="preserve">23.7042217254639</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9170742034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7880764007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8009738922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0138263702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2847347259521</t>
+    <t xml:space="preserve">23.9170780181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7880725860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622718811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8009757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0138282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2847328186035</t>
   </si>
   <si>
     <t xml:space="preserve">23.9299755096436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7039890289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1877498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8974933624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2587013244629</t>
+    <t xml:space="preserve">24.7039909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1877536773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8974914550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2587051391602</t>
   </si>
   <si>
     <t xml:space="preserve">25.0264987945557</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6070079803467</t>
+    <t xml:space="preserve">25.6070098876953</t>
   </si>
   <si>
     <t xml:space="preserve">25.8327617645264</t>
   </si>
   <si>
-    <t xml:space="preserve">26.142370223999</t>
+    <t xml:space="preserve">26.1423721313477</t>
   </si>
   <si>
     <t xml:space="preserve">26.4003753662109</t>
@@ -1130,55 +1130,55 @@
     <t xml:space="preserve">26.2520236968994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5035781860352</t>
+    <t xml:space="preserve">26.5035724639893</t>
   </si>
   <si>
     <t xml:space="preserve">26.4455280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8908157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9166126251221</t>
+    <t xml:space="preserve">25.8908176422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9166164398193</t>
   </si>
   <si>
     <t xml:space="preserve">26.568078994751</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7809314727783</t>
+    <t xml:space="preserve">26.7809352874756</t>
   </si>
   <si>
     <t xml:space="preserve">26.7293319702148</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2326717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4326286315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2133197784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1939697265625</t>
+    <t xml:space="preserve">26.2326698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4326267242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2133235931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1939735412598</t>
   </si>
   <si>
     <t xml:space="preserve">26.3616733551025</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1617183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9940147399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4199562072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0714130401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2842769622803</t>
+    <t xml:space="preserve">26.1617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9940166473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4199542999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0714168548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2842750549316</t>
   </si>
   <si>
     <t xml:space="preserve">26.5745296478271</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">26.9808864593506</t>
   </si>
   <si>
-    <t xml:space="preserve">26.768030166626</t>
+    <t xml:space="preserve">26.7680339813232</t>
   </si>
   <si>
     <t xml:space="preserve">26.4842319488525</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2066459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.174388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9357376098633</t>
+    <t xml:space="preserve">27.2066402435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1743927001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9357357025146</t>
   </si>
   <si>
     <t xml:space="preserve">27.1614894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5678482055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2709140777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2773590087891</t>
+    <t xml:space="preserve">27.5678520202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2709178924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2773609161377</t>
   </si>
   <si>
     <t xml:space="preserve">28.7675724029541</t>
@@ -1220,169 +1220,169 @@
     <t xml:space="preserve">29.1352272033691</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0126781463623</t>
+    <t xml:space="preserve">29.0126762390137</t>
   </si>
   <si>
     <t xml:space="preserve">29.238431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7353191375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2513294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4964370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8382930755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.522008895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8638648986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0186672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5802898406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5155563354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3411731719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023830413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7733287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.515323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8509654998779</t>
+    <t xml:space="preserve">28.7353172302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513332366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4964389801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8382892608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5220031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.863862991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0186634063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5802879333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5155582427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3411712646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023849487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7733325958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5153274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8509616851807</t>
   </si>
   <si>
     <t xml:space="preserve">29.6125411987305</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1739273071289</t>
+    <t xml:space="preserve">29.1739311218262</t>
   </si>
   <si>
     <t xml:space="preserve">29.9285945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2964782714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2833518981934</t>
+    <t xml:space="preserve">29.296480178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.283353805542</t>
   </si>
   <si>
     <t xml:space="preserve">30.3865547180176</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4252490997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6187629699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1476650238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3156051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3543033599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1930522918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2446517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7802391052246</t>
+    <t xml:space="preserve">30.4252529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.147668838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3156032562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.354305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1930541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.244649887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7802410125732</t>
   </si>
   <si>
     <t xml:space="preserve">29.4899883270264</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9288196563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0518417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2778244018555</t>
+    <t xml:space="preserve">28.9288272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224704742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0518379211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2778224945068</t>
   </si>
   <si>
     <t xml:space="preserve">25.2393531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1038951873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9553184509277</t>
+    <t xml:space="preserve">25.1038990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9553203582764</t>
   </si>
   <si>
     <t xml:space="preserve">24.9813480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9942493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5427360534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1750831604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9361972808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6394920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8652439117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0651969909668</t>
+    <t xml:space="preserve">24.9942455291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5427379608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1750812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9361953735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6394863128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8652420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0651988983154</t>
   </si>
   <si>
     <t xml:space="preserve">24.4524345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6977729797363</t>
+    <t xml:space="preserve">23.6977710723877</t>
   </si>
   <si>
     <t xml:space="preserve">23.6655197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8977222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0009250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5881175994873</t>
+    <t xml:space="preserve">23.89772605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0009288787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5881214141846</t>
   </si>
   <si>
     <t xml:space="preserve">22.9882564544678</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5365161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589809417725</t>
+    <t xml:space="preserve">23.5365200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589771270752</t>
   </si>
   <si>
     <t xml:space="preserve">24.7104415893555</t>
@@ -1391,22 +1391,22 @@
     <t xml:space="preserve">23.304313659668</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2140121459961</t>
+    <t xml:space="preserve">23.2140159606934</t>
   </si>
   <si>
     <t xml:space="preserve">23.1559619903564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8783760070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9684505462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.297176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3425559997559</t>
+    <t xml:space="preserve">23.8783740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9684467315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2971744537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425579071045</t>
   </si>
   <si>
     <t xml:space="preserve">25.6715106964111</t>
@@ -1415,31 +1415,31 @@
     <t xml:space="preserve">26.1230182647705</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1359176635742</t>
+    <t xml:space="preserve">26.1359233856201</t>
   </si>
   <si>
     <t xml:space="preserve">25.7876129150391</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8650093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5749893188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3232040405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4651069641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.142599105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3490028381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2458000183105</t>
+    <t xml:space="preserve">25.8650131225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5749855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3232002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4651031494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1425971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.349006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2458038330078</t>
   </si>
   <si>
     <t xml:space="preserve">25.0522994995117</t>
@@ -1451,22 +1451,22 @@
     <t xml:space="preserve">24.7426929473877</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4975910186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2329044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.691089630127</t>
+    <t xml:space="preserve">24.4975872039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2329006195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6910915374756</t>
   </si>
   <si>
     <t xml:space="preserve">24.2782821655273</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3365650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.807653427124</t>
+    <t xml:space="preserve">23.3365631103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8076553344727</t>
   </si>
   <si>
     <t xml:space="preserve">23.3881645202637</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">21.3628234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8463516235352</t>
+    <t xml:space="preserve">22.8463535308838</t>
   </si>
   <si>
     <t xml:space="preserve">23.272066116333</t>
@@ -1490,34 +1490,34 @@
     <t xml:space="preserve">23.5042667388916</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4913673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4526653289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4010639190674</t>
+    <t xml:space="preserve">23.4913635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4526672363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.401065826416</t>
   </si>
   <si>
     <t xml:space="preserve">23.5300674438477</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1430606842041</t>
+    <t xml:space="preserve">23.1430625915527</t>
   </si>
   <si>
     <t xml:space="preserve">22.8721542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7431488037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0078372955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2596225738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9113178253174</t>
+    <t xml:space="preserve">22.7431507110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0078353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2596244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9113159179688</t>
   </si>
   <si>
     <t xml:space="preserve">21.28542137146</t>
@@ -1529,10 +1529,10 @@
     <t xml:space="preserve">20.9887180328369</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0723400115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9820384979248</t>
+    <t xml:space="preserve">22.0723419189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9820365905762</t>
   </si>
   <si>
     <t xml:space="preserve">20.7178115844727</t>
@@ -1541,52 +1541,52 @@
     <t xml:space="preserve">20.1760025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3695049285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3757266998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.182222366333</t>
+    <t xml:space="preserve">20.3695030212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3757247924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1822242736816</t>
   </si>
   <si>
     <t xml:space="preserve">20.8855171203613</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1502017974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.092378616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5630073547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7502956390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5888118743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0274200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1951217651367</t>
+    <t xml:space="preserve">20.1501998901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0923805236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5630111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7502937316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5888080596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.027416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1951236724854</t>
   </si>
   <si>
     <t xml:space="preserve">21.349925994873</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1626415252686</t>
+    <t xml:space="preserve">22.1626396179199</t>
   </si>
   <si>
     <t xml:space="preserve">21.6982307434082</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5305271148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7885303497314</t>
+    <t xml:space="preserve">21.5305290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7885322570801</t>
   </si>
   <si>
     <t xml:space="preserve">21.6595325469971</t>
@@ -1595,64 +1595,64 @@
     <t xml:space="preserve">21.2749519348145</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2882556915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0487651824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9955425262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0753726959229</t>
+    <t xml:space="preserve">21.288257598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0487632751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9955444335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0753746032715</t>
   </si>
   <si>
     <t xml:space="preserve">21.7539386749268</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9668197631836</t>
+    <t xml:space="preserve">21.9668216705322</t>
   </si>
   <si>
     <t xml:space="preserve">22.2861442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4724140167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7252178192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.405891418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0200424194336</t>
+    <t xml:space="preserve">22.4724159240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7252159118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4058895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.020040512085</t>
   </si>
   <si>
     <t xml:space="preserve">21.4878349304199</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3813953399658</t>
+    <t xml:space="preserve">21.3813896179199</t>
   </si>
   <si>
     <t xml:space="preserve">21.6075801849365</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6874122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8491859436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1573162078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1461277008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.78688621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9465484619141</t>
+    <t xml:space="preserve">21.6874103546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8491878509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1573181152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.146125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7868843078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9465465545654</t>
   </si>
   <si>
     <t xml:space="preserve">18.560697555542</t>
@@ -1661,37 +1661,37 @@
     <t xml:space="preserve">18.1615428924561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1636562347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.58034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1699953079224</t>
+    <t xml:space="preserve">17.1636581420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5803422927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1699962615967</t>
   </si>
   <si>
     <t xml:space="preserve">15.5271224975586</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6468687057495</t>
+    <t xml:space="preserve">15.6468706130981</t>
   </si>
   <si>
     <t xml:space="preserve">16.9640789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0306034088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5117034912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6580619812012</t>
+    <t xml:space="preserve">17.0306072235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5117053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6580600738525</t>
   </si>
   <si>
     <t xml:space="preserve">16.3121280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.165771484375</t>
+    <t xml:space="preserve">16.1657695770264</t>
   </si>
   <si>
     <t xml:space="preserve">16.8177242279053</t>
@@ -1703,10 +1703,10 @@
     <t xml:space="preserve">18.2546825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2280693054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.682559967041</t>
+    <t xml:space="preserve">18.2280673980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6825561523438</t>
   </si>
   <si>
     <t xml:space="preserve">18.4675636291504</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">18.9598541259766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4010353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5873107910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2812919616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5628108978271</t>
+    <t xml:space="preserve">18.4010372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5873126983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2812900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5628128051758</t>
   </si>
   <si>
     <t xml:space="preserve">17.0039939880371</t>
@@ -1733,19 +1733,19 @@
     <t xml:space="preserve">17.1237411499023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1503524780273</t>
+    <t xml:space="preserve">17.150354385376</t>
   </si>
   <si>
     <t xml:space="preserve">17.2035732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1769638061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3632335662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6426448822021</t>
+    <t xml:space="preserve">17.1769618988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3632354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6426410675049</t>
   </si>
   <si>
     <t xml:space="preserve">18.0417995452881</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">18.2413749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8954410552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4962844848633</t>
+    <t xml:space="preserve">17.8954391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4962863922119</t>
   </si>
   <si>
     <t xml:space="preserve">17.5894222259521</t>
@@ -1769,43 +1769,43 @@
     <t xml:space="preserve">18.3345127105713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6272258758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9087448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6559467315674</t>
+    <t xml:space="preserve">18.6272239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9087467193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6559505462646</t>
   </si>
   <si>
     <t xml:space="preserve">17.9220523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.828914642334</t>
+    <t xml:space="preserve">17.9885787963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8289165496826</t>
   </si>
   <si>
     <t xml:space="preserve">16.8975524902344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.097131729126</t>
+    <t xml:space="preserve">17.0971336364746</t>
   </si>
   <si>
     <t xml:space="preserve">16.0992469787598</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7022018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0481376647949</t>
+    <t xml:space="preserve">14.702202796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0481367111206</t>
   </si>
   <si>
     <t xml:space="preserve">15.0082216262817</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9949178695679</t>
+    <t xml:space="preserve">14.9949150085449</t>
   </si>
   <si>
     <t xml:space="preserve">14.6090650558472</t>
@@ -1817,34 +1817,34 @@
     <t xml:space="preserve">13.7575359344482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6111764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7309236526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6910095214844</t>
+    <t xml:space="preserve">13.6111793518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7309255599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6910085678101</t>
   </si>
   <si>
     <t xml:space="preserve">14.5824556350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0635547637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2631320953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2099132537842</t>
+    <t xml:space="preserve">14.0635557174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2631311416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2099123001099</t>
   </si>
   <si>
     <t xml:space="preserve">14.3961839675903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5712642669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5180416107178</t>
+    <t xml:space="preserve">13.5712633132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5180435180664</t>
   </si>
   <si>
     <t xml:space="preserve">13.4781274795532</t>
@@ -1853,85 +1853,85 @@
     <t xml:space="preserve">14.0369453430176</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5159311294556</t>
+    <t xml:space="preserve">14.5159292221069</t>
   </si>
   <si>
     <t xml:space="preserve">15.0215253829956</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8751697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6888952255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2743244171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9283905029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0348310470581</t>
+    <t xml:space="preserve">14.8751707077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6888971328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2743234634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.928391456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0348320007324</t>
   </si>
   <si>
     <t xml:space="preserve">14.648983001709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.675591468811</t>
+    <t xml:space="preserve">14.6755924224854</t>
   </si>
   <si>
     <t xml:space="preserve">14.8485584259033</t>
   </si>
   <si>
-    <t xml:space="preserve">15.460597038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8597497940063</t>
+    <t xml:space="preserve">15.4605941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8597507476807</t>
   </si>
   <si>
     <t xml:space="preserve">15.8331413269043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6867847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730592727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.728814125061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.906005859375</t>
+    <t xml:space="preserve">15.686785697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730564117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7288103103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9060049057007</t>
   </si>
   <si>
     <t xml:space="preserve">11.948034286499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.427020072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7663021087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1721086502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9791851043701</t>
+    <t xml:space="preserve">12.4270191192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663011550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721076965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9791831970215</t>
   </si>
   <si>
     <t xml:space="preserve">11.3426485061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.642014503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2561655044556</t>
+    <t xml:space="preserve">11.6420164108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2561664581299</t>
   </si>
   <si>
     <t xml:space="preserve">10.8503580093384</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559532165527</t>
+    <t xml:space="preserve">11.3559541702271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3293447494507</t>
@@ -1940,16 +1940,16 @@
     <t xml:space="preserve">11.5422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.910231590271</t>
+    <t xml:space="preserve">10.9102306365967</t>
   </si>
   <si>
     <t xml:space="preserve">10.8836221694946</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4844665527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60632610321045</t>
+    <t xml:space="preserve">10.4844655990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60632514953613</t>
   </si>
   <si>
     <t xml:space="preserve">9.21382427215576</t>
@@ -1958,37 +1958,37 @@
     <t xml:space="preserve">9.04085731506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31361293792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34687519073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86577606201172</t>
+    <t xml:space="preserve">9.31361198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34687614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86577701568604</t>
   </si>
   <si>
     <t xml:space="preserve">9.9655647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3381099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6441278457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2362070083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8703155517578</t>
+    <t xml:space="preserve">10.3381090164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6441287994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2362079620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8703165054321</t>
   </si>
   <si>
     <t xml:space="preserve">10.0320901870728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1385316848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69946193695068</t>
+    <t xml:space="preserve">10.1385326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.699462890625</t>
   </si>
   <si>
     <t xml:space="preserve">10.0387439727783</t>
@@ -2000,37 +2000,37 @@
     <t xml:space="preserve">10.2981939315796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5443410873413</t>
+    <t xml:space="preserve">10.5443391799927</t>
   </si>
   <si>
     <t xml:space="preserve">10.4312467575073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3979835510254</t>
+    <t xml:space="preserve">10.3979825973511</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5709495544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5243825912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9214239120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2473993301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9946041107178</t>
+    <t xml:space="preserve">10.5709505081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5243816375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9214248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474002838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9946022033691</t>
   </si>
   <si>
     <t xml:space="preserve">12.7529983520508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4336729049683</t>
+    <t xml:space="preserve">12.4336719512939</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076965332031</t>
@@ -2039,16 +2039,16 @@
     <t xml:space="preserve">12.0611276626587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.562183380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9081172943115</t>
+    <t xml:space="preserve">11.5621843338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9081182479858</t>
   </si>
   <si>
     <t xml:space="preserve">11.3692598342896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.80832862854</t>
+    <t xml:space="preserve">11.8083295822144</t>
   </si>
   <si>
     <t xml:space="preserve">11.3093862533569</t>
@@ -2057,79 +2057,79 @@
     <t xml:space="preserve">11.7018880844116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2074842453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1010446548462</t>
+    <t xml:space="preserve">12.2074861526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1010427474976</t>
   </si>
   <si>
     <t xml:space="preserve">11.9413824081421</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4091758728027</t>
+    <t xml:space="preserve">11.4091739654541</t>
   </si>
   <si>
     <t xml:space="preserve">10.7904853820801</t>
   </si>
   <si>
-    <t xml:space="preserve">10.657434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3048467636108</t>
+    <t xml:space="preserve">10.6574335098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3048458099365</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853118896484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93895530700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715845108032</t>
+    <t xml:space="preserve">9.93895435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715826034546</t>
   </si>
   <si>
     <t xml:space="preserve">10.2782363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9368419647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.442440032959</t>
+    <t xml:space="preserve">10.936842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4424381256104</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6087532043457</t>
+    <t xml:space="preserve">11.60875415802</t>
   </si>
   <si>
     <t xml:space="preserve">11.6819295883179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6353626251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6021003723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0233249664307</t>
+    <t xml:space="preserve">11.6353635787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6021013259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.023325920105</t>
   </si>
   <si>
     <t xml:space="preserve">10.5842552185059</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1098098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2495126724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5089635848999</t>
+    <t xml:space="preserve">11.1098108291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2495136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5089645385742</t>
   </si>
   <si>
     <t xml:space="preserve">11.4025230407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9834098815918</t>
+    <t xml:space="preserve">10.9834108352661</t>
   </si>
   <si>
     <t xml:space="preserve">10.9634523391724</t>
@@ -2138,13 +2138,13 @@
     <t xml:space="preserve">11.3027334213257</t>
   </si>
   <si>
-    <t xml:space="preserve">11.475700378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.582142829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1630306243896</t>
+    <t xml:space="preserve">11.4757013320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5821418762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1630296707153</t>
   </si>
   <si>
     <t xml:space="preserve">11.0299777984619</t>
@@ -2159,40 +2159,40 @@
     <t xml:space="preserve">11.0698928833008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6108655929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.200834274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9038934707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2319803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5068492889404</t>
+    <t xml:space="preserve">10.6108636856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2008323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9038915634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2319812774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5068511962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.9613389968872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7684144973755</t>
+    <t xml:space="preserve">11.7684154510498</t>
   </si>
   <si>
     <t xml:space="preserve">11.668625831604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6220569610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1164627075195</t>
+    <t xml:space="preserve">11.6220579147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1164617538452</t>
   </si>
   <si>
     <t xml:space="preserve">11.3825654983521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0278663635254</t>
+    <t xml:space="preserve">12.0278654098511</t>
   </si>
   <si>
     <t xml:space="preserve">12.1343059539795</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">12.2207908630371</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6265964508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0677795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4977712631226</t>
+    <t xml:space="preserve">12.6265983581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0677814483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4977722167969</t>
   </si>
   <si>
     <t xml:space="preserve">10.2915420532227</t>
@@ -2216,28 +2216,28 @@
     <t xml:space="preserve">10.1451854705811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187854766846</t>
+    <t xml:space="preserve">10.0187873840332</t>
   </si>
   <si>
     <t xml:space="preserve">9.9921760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0453968048096</t>
+    <t xml:space="preserve">10.0453958511353</t>
   </si>
   <si>
     <t xml:space="preserve">9.81920909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87242889404297</t>
+    <t xml:space="preserve">9.87242984771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.8458194732666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72607231140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78594493865967</t>
+    <t xml:space="preserve">9.72607135772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78594589233398</t>
   </si>
   <si>
     <t xml:space="preserve">9.9788703918457</t>
@@ -2249,10 +2249,10 @@
     <t xml:space="preserve">10.1651420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4445505142212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4245929718018</t>
+    <t xml:space="preserve">10.4445514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4245939254761</t>
   </si>
   <si>
     <t xml:space="preserve">10.4046354293823</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">10.3248052597046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975608825684</t>
+    <t xml:space="preserve">10.5975618362427</t>
   </si>
   <si>
     <t xml:space="preserve">10.6507816314697</t>
@@ -2270,19 +2270,19 @@
     <t xml:space="preserve">10.6840438842773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8104429244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2869567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9313497543335</t>
+    <t xml:space="preserve">10.8104438781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2869558334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9313488006592</t>
   </si>
   <si>
     <t xml:space="preserve">10.6184148788452</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6966495513916</t>
+    <t xml:space="preserve">10.6966485977173</t>
   </si>
   <si>
     <t xml:space="preserve">10.1347904205322</t>
@@ -2294,13 +2294,13 @@
     <t xml:space="preserve">9.60849285125732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37379169464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10352993011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64835453033447</t>
+    <t xml:space="preserve">9.37379264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10353183746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64835357666016</t>
   </si>
   <si>
     <t xml:space="preserve">9.15331554412842</t>
@@ -2312,34 +2312,34 @@
     <t xml:space="preserve">9.14620399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87594318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66257953643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69813823699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60568237304688</t>
+    <t xml:space="preserve">8.87594223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66257858276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69813919067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60568332672119</t>
   </si>
   <si>
     <t xml:space="preserve">8.32119560241699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49188613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34964466094971</t>
+    <t xml:space="preserve">8.49188709259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34964370727539</t>
   </si>
   <si>
     <t xml:space="preserve">8.29274749755859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.250075340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10783290863037</t>
+    <t xml:space="preserve">8.25007629394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10783195495605</t>
   </si>
   <si>
     <t xml:space="preserve">8.0438232421875</t>
@@ -2348,19 +2348,19 @@
     <t xml:space="preserve">8.42787837982178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05804634094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0153751373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27141189575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98692512512207</t>
+    <t xml:space="preserve">8.0580472946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558904647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01537418365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27141094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98692560195923</t>
   </si>
   <si>
     <t xml:space="preserve">8.02248668670654</t>
@@ -2369,13 +2369,13 @@
     <t xml:space="preserve">7.97981405258179</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15761661529541</t>
+    <t xml:space="preserve">8.15761852264404</t>
   </si>
   <si>
     <t xml:space="preserve">8.47766208648682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8332691192627</t>
+    <t xml:space="preserve">8.83327007293701</t>
   </si>
   <si>
     <t xml:space="preserve">8.62701797485352</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">8.30697250366211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54167175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57723426818848</t>
+    <t xml:space="preserve">8.541672706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57723331451416</t>
   </si>
   <si>
     <t xml:space="preserve">8.44210243225098</t>
@@ -2399,82 +2399,82 @@
     <t xml:space="preserve">8.7905969619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99684906005859</t>
+    <t xml:space="preserve">8.99684810638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.57293128967285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51603507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56581974029541</t>
+    <t xml:space="preserve">9.51603412628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56581878662109</t>
   </si>
   <si>
     <t xml:space="preserve">9.67250156402588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43780040740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43068981170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33823204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40935134887695</t>
+    <t xml:space="preserve">9.43780136108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43068885803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33823108673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40935230255127</t>
   </si>
   <si>
     <t xml:space="preserve">9.85030555725098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83607959747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8289680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62271690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48758697509766</t>
+    <t xml:space="preserve">9.83608055114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82896900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62271595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48758602142334</t>
   </si>
   <si>
     <t xml:space="preserve">9.70806121826172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71517467498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58004379272461</t>
+    <t xml:space="preserve">9.71517562866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58004474639893</t>
   </si>
   <si>
     <t xml:space="preserve">9.46625137329102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53025817871094</t>
+    <t xml:space="preserve">9.53025913238525</t>
   </si>
   <si>
     <t xml:space="preserve">9.22443771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12486743927002</t>
+    <t xml:space="preserve">9.1248664855957</t>
   </si>
   <si>
     <t xml:space="preserve">9.39512825012207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92853832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80763244628906</t>
+    <t xml:space="preserve">9.92853736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80763149261475</t>
   </si>
   <si>
     <t xml:space="preserve">9.77207183837891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0352210998535</t>
+    <t xml:space="preserve">10.0352191925049</t>
   </si>
   <si>
     <t xml:space="preserve">9.33111953735352</t>
@@ -2492,19 +2492,19 @@
     <t xml:space="preserve">9.16754055023193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2742223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20310115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11064434051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06085681915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41646385192871</t>
+    <t xml:space="preserve">9.27422142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20309925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11064338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06085872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41646480560303</t>
   </si>
   <si>
     <t xml:space="preserve">9.64405345916748</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">10.0423316955566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.141902923584</t>
+    <t xml:space="preserve">10.1419038772583</t>
   </si>
   <si>
     <t xml:space="preserve">10.3979387283325</t>
@@ -2528,49 +2528,49 @@
     <t xml:space="preserve">10.4548358917236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5117330551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5401821136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6610889434814</t>
+    <t xml:space="preserve">10.5117321014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5401811599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6610879898071</t>
   </si>
   <si>
     <t xml:space="preserve">10.9029006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9100122451782</t>
+    <t xml:space="preserve">10.9100141525269</t>
   </si>
   <si>
     <t xml:space="preserve">10.703761100769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8815641403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.895788192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6397504806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330686569214</t>
+    <t xml:space="preserve">10.8815650939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8957872390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6397514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330696105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.6326398849487</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8886766433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753120422363</t>
+    <t xml:space="preserve">10.8886756896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753129959106</t>
   </si>
   <si>
     <t xml:space="preserve">10.4690608978271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343606948853</t>
+    <t xml:space="preserve">10.2343597412109</t>
   </si>
   <si>
     <t xml:space="preserve">10.2628087997437</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">10.0067720413208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3054819107056</t>
+    <t xml:space="preserve">10.3054809570312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4761724472046</t>
@@ -2591,31 +2591,31 @@
     <t xml:space="preserve">10.7677707672119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7108726501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7393217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8602275848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9455728530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9953575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9384622573853</t>
+    <t xml:space="preserve">10.7108736038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7393207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8602285385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.945574760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9953584671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9384613037109</t>
   </si>
   <si>
     <t xml:space="preserve">10.7464332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8673391342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9811344146729</t>
+    <t xml:space="preserve">10.8673400878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9811334609985</t>
   </si>
   <si>
     <t xml:space="preserve">11.2442836761475</t>
@@ -2627,19 +2627,19 @@
     <t xml:space="preserve">10.8104419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8531150817871</t>
+    <t xml:space="preserve">10.8531169891357</t>
   </si>
   <si>
     <t xml:space="preserve">11.208722114563</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2585067749023</t>
+    <t xml:space="preserve">11.2585077285767</t>
   </si>
   <si>
     <t xml:space="preserve">10.5828552246094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3552656173706</t>
+    <t xml:space="preserve">10.3552665710449</t>
   </si>
   <si>
     <t xml:space="preserve">10.2770328521729</t>
@@ -2648,28 +2648,28 @@
     <t xml:space="preserve">10.1632385253906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1063423156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96409893035889</t>
+    <t xml:space="preserve">10.1063413619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9640998840332</t>
   </si>
   <si>
     <t xml:space="preserve">9.98543548583984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87164115905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94276142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81474304199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63694000244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72939777374268</t>
+    <t xml:space="preserve">9.87164211273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94276237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8147439956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63694190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72939872741699</t>
   </si>
   <si>
     <t xml:space="preserve">9.65827655792236</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">9.42357635498047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54448223114014</t>
+    <t xml:space="preserve">9.54448318481445</t>
   </si>
   <si>
     <t xml:space="preserve">9.75073528289795</t>
@@ -2690,58 +2690,58 @@
     <t xml:space="preserve">9.75784778594971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69383716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74362277984619</t>
+    <t xml:space="preserve">9.69383811950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74362182617188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1703510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95698738098145</t>
+    <t xml:space="preserve">9.95698642730713</t>
   </si>
   <si>
     <t xml:space="preserve">10.0565576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1561269760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0707817077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0494441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1916875839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99965953826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82185745239258</t>
+    <t xml:space="preserve">10.1561260223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0707807540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0494451522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.191686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99966049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82185649871826</t>
   </si>
   <si>
     <t xml:space="preserve">10.1205654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5472936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5259580612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4619474411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4832849502563</t>
+    <t xml:space="preserve">10.5472946166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5259590148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4619483947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.483283996582</t>
   </si>
   <si>
     <t xml:space="preserve">10.2556972503662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2272472381592</t>
+    <t xml:space="preserve">10.2272491455078</t>
   </si>
   <si>
     <t xml:space="preserve">10.7179861068726</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">10.6682004928589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7819948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1447124481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.137601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0735921859741</t>
+    <t xml:space="preserve">10.7819938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1447134017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1376008987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0735912322998</t>
   </si>
   <si>
     <t xml:space="preserve">11.1518259048462</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.2841444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.504620552063</t>
+    <t xml:space="preserve">10.5046215057373</t>
   </si>
   <si>
     <t xml:space="preserve">9.77918338775635</t>
@@ -2795,25 +2795,25 @@
     <t xml:space="preserve">8.69102764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56730985641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27571105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25437641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734092712402</t>
+    <t xml:space="preserve">7.56731033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27571249008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25437593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734140396118</t>
   </si>
   <si>
     <t xml:space="preserve">6.52893877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17333221435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98841667175293</t>
+    <t xml:space="preserve">6.17333173751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98841619491577</t>
   </si>
   <si>
     <t xml:space="preserve">6.00264024734497</t>
@@ -2822,13 +2822,13 @@
     <t xml:space="preserve">5.98130369186401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32979822158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12710285186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42225551605225</t>
+    <t xml:space="preserve">6.32979869842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12710332870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42225646972656</t>
   </si>
   <si>
     <t xml:space="preserve">6.454261302948</t>
@@ -2849,31 +2849,31 @@
     <t xml:space="preserve">6.33335399627686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26934480667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35824728012085</t>
+    <t xml:space="preserve">6.2693452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35824775695801</t>
   </si>
   <si>
     <t xml:space="preserve">6.41869974136353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5644998550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53960657119751</t>
+    <t xml:space="preserve">6.56449890136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53960704803467</t>
   </si>
   <si>
     <t xml:space="preserve">6.57161092758179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41514444351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28356981277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34402370452881</t>
+    <t xml:space="preserve">6.41514492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28357028961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34402322769165</t>
   </si>
   <si>
     <t xml:space="preserve">6.35113525390625</t>
@@ -2882,61 +2882,61 @@
     <t xml:space="preserve">6.04531335830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92085123062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06664943695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39380788803101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52182722091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34757900238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11643552780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18044328689575</t>
+    <t xml:space="preserve">5.92085075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06664991378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39380741119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52182626724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34757947921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11643505096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18044376373291</t>
   </si>
   <si>
     <t xml:space="preserve">6.14132785797119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01686477661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11287832260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02753353118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94574356079102</t>
+    <t xml:space="preserve">6.01686573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11287879943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02753305435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94574308395386</t>
   </si>
   <si>
     <t xml:space="preserve">5.85684204101562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74660396575928</t>
+    <t xml:space="preserve">5.74660444259644</t>
   </si>
   <si>
     <t xml:space="preserve">5.71104288101196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68970632553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44078207015991</t>
+    <t xml:space="preserve">5.68970680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44078254699707</t>
   </si>
   <si>
     <t xml:space="preserve">5.29142761230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1776328086853</t>
+    <t xml:space="preserve">5.17763328552246</t>
   </si>
   <si>
     <t xml:space="preserve">5.19185781478882</t>
@@ -2954,25 +2954,25 @@
     <t xml:space="preserve">5.97063636779785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89951467514038</t>
+    <t xml:space="preserve">5.8995156288147</t>
   </si>
   <si>
     <t xml:space="preserve">5.93863201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2977933883667</t>
+    <t xml:space="preserve">6.29779434204102</t>
   </si>
   <si>
     <t xml:space="preserve">6.53605079650879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87743282318115</t>
+    <t xml:space="preserve">6.87743377685547</t>
   </si>
   <si>
     <t xml:space="preserve">7.36817073822021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91299486160278</t>
+    <t xml:space="preserve">6.91299438476562</t>
   </si>
   <si>
     <t xml:space="preserve">6.69962930679321</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">6.24089670181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19466829299927</t>
+    <t xml:space="preserve">6.19466876983643</t>
   </si>
   <si>
     <t xml:space="preserve">6.36180353164673</t>
@@ -2990,25 +2990,25 @@
     <t xml:space="preserve">6.46492910385132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40091943740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30490636825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14488410949707</t>
+    <t xml:space="preserve">6.40092039108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30490684509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14488363265991</t>
   </si>
   <si>
     <t xml:space="preserve">6.0879864692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93507528305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84617376327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91018295288086</t>
+    <t xml:space="preserve">5.9350757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8461742401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9101824760437</t>
   </si>
   <si>
     <t xml:space="preserve">6.04175710678101</t>
@@ -3020,97 +3020,97 @@
     <t xml:space="preserve">6.0630931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20889234542847</t>
+    <t xml:space="preserve">6.20889282226562</t>
   </si>
   <si>
     <t xml:space="preserve">6.32624292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45070457458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37958383560181</t>
+    <t xml:space="preserve">6.45070505142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37958478927612</t>
   </si>
   <si>
     <t xml:space="preserve">6.48270988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4613733291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84898471832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9805588722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03745746612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81342363357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66406965255737</t>
+    <t xml:space="preserve">6.46137428283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84898519515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98055934906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03745603561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81342315673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66406917572021</t>
   </si>
   <si>
     <t xml:space="preserve">6.50760173797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35469150543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16622018814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16266393661499</t>
+    <t xml:space="preserve">6.35469102859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16621971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16266345977783</t>
   </si>
   <si>
     <t xml:space="preserve">6.38669586181641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39736413955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25156593322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52538204193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50049018859863</t>
+    <t xml:space="preserve">6.39736318588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25156497955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52538299560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50048971176147</t>
   </si>
   <si>
     <t xml:space="preserve">6.53249502182007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40447664260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37247180938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48626565933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30846214294434</t>
+    <t xml:space="preserve">6.40447616577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37247228622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48626518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30846261978149</t>
   </si>
   <si>
     <t xml:space="preserve">6.32268667221069</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37602758407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20178031921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14843940734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13777112960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27290201187134</t>
+    <t xml:space="preserve">6.37602806091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20178079605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14843988418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13777160644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27290105819702</t>
   </si>
   <si>
     <t xml:space="preserve">6.27645778656006</t>
@@ -3122,22 +3122,22 @@
     <t xml:space="preserve">6.26223421096802</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46848583221436</t>
+    <t xml:space="preserve">6.46848487854004</t>
   </si>
   <si>
     <t xml:space="preserve">6.38314008712769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28001356124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05598211288452</t>
+    <t xml:space="preserve">6.28001403808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05598163604736</t>
   </si>
   <si>
     <t xml:space="preserve">5.92796325683594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106609344482</t>
+    <t xml:space="preserve">5.87106657028198</t>
   </si>
   <si>
     <t xml:space="preserve">5.97419214248657</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">5.83194923400879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84973049163818</t>
+    <t xml:space="preserve">5.84972953796387</t>
   </si>
   <si>
     <t xml:space="preserve">5.73237991333008</t>
@@ -3155,28 +3155,28 @@
     <t xml:space="preserve">5.7359356880188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75016021728516</t>
+    <t xml:space="preserve">5.750159740448</t>
   </si>
   <si>
     <t xml:space="preserve">5.8746223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79283285140991</t>
+    <t xml:space="preserve">5.79283237457275</t>
   </si>
   <si>
     <t xml:space="preserve">5.85328531265259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82839345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73949146270752</t>
+    <t xml:space="preserve">5.82839298248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73949193954468</t>
   </si>
   <si>
     <t xml:space="preserve">5.57946825027466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63280916213989</t>
+    <t xml:space="preserve">5.63280963897705</t>
   </si>
   <si>
     <t xml:space="preserve">5.58302450180054</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">5.61858558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72171115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54390811920166</t>
+    <t xml:space="preserve">5.72171211242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54390859603882</t>
   </si>
   <si>
     <t xml:space="preserve">5.49412298202515</t>
@@ -3209,28 +3209,28 @@
     <t xml:space="preserve">4.95715713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79713344573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89670419692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04605913162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25942277908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38744068145752</t>
+    <t xml:space="preserve">4.7971339225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89670372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04605865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25942230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38744115829468</t>
   </si>
   <si>
     <t xml:space="preserve">5.30920743942261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27009105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65058994293213</t>
+    <t xml:space="preserve">5.27009057998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65059041976929</t>
   </si>
   <si>
     <t xml:space="preserve">5.66125822067261</t>
@@ -3242,28 +3242,28 @@
     <t xml:space="preserve">5.7572717666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22311639785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42581272125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44359254837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68184947967529</t>
+    <t xml:space="preserve">6.22311687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42581176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44359350204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68184995651245</t>
   </si>
   <si>
     <t xml:space="preserve">6.60717248916626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57516670227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58583545684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49337768554688</t>
+    <t xml:space="preserve">6.57516765594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5858359336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49337816238403</t>
   </si>
   <si>
     <t xml:space="preserve">6.79208755493164</t>
@@ -3272,28 +3272,28 @@
     <t xml:space="preserve">6.92721796035767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94855499267578</t>
+    <t xml:space="preserve">6.94855451583862</t>
   </si>
   <si>
     <t xml:space="preserve">6.97700309753418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8383150100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80986738204956</t>
+    <t xml:space="preserve">6.83831596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80986785888672</t>
   </si>
   <si>
     <t xml:space="preserve">6.74230241775513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66051244735718</t>
+    <t xml:space="preserve">6.66051292419434</t>
   </si>
   <si>
     <t xml:space="preserve">6.71385335922241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029901504517</t>
+    <t xml:space="preserve">6.71029853820801</t>
   </si>
   <si>
     <t xml:space="preserve">6.64273262023926</t>
@@ -3302,28 +3302,28 @@
     <t xml:space="preserve">6.63917684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67118120193481</t>
+    <t xml:space="preserve">6.67118167877197</t>
   </si>
   <si>
     <t xml:space="preserve">6.47559690475464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54671812057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58939170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58228015899658</t>
+    <t xml:space="preserve">6.54671859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58939218521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58227968215942</t>
   </si>
   <si>
     <t xml:space="preserve">6.62495183944702</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61072778701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56805467605591</t>
+    <t xml:space="preserve">6.61072874069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56805515289307</t>
   </si>
   <si>
     <t xml:space="preserve">6.30135011672974</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">6.31201791763306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21244812011719</t>
+    <t xml:space="preserve">6.21244859695435</t>
   </si>
   <si>
     <t xml:space="preserve">6.10932302474976</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">5.90307092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01330852508545</t>
+    <t xml:space="preserve">6.01330900192261</t>
   </si>
   <si>
     <t xml:space="preserve">5.95641183853149</t>
@@ -3350,31 +3350,31 @@
     <t xml:space="preserve">6.29423856735229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67829370498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88454580307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03389930725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43217992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33972072601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42506742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33261013031006</t>
+    <t xml:space="preserve">6.67829322814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88454484939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03390026092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43217849731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33972120285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42506647109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3326096534729</t>
   </si>
   <si>
     <t xml:space="preserve">7.3254976272583</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24015235900879</t>
+    <t xml:space="preserve">7.24015140533447</t>
   </si>
   <si>
     <t xml:space="preserve">7.30416202545166</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">7.36105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58864641189575</t>
+    <t xml:space="preserve">7.58864593505859</t>
   </si>
   <si>
     <t xml:space="preserve">7.48196506500244</t>
@@ -3392,28 +3392,28 @@
     <t xml:space="preserve">7.66687965393066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51752519607544</t>
+    <t xml:space="preserve">7.5175256729126</t>
   </si>
   <si>
     <t xml:space="preserve">7.5388617515564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46062755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93002891540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90869188308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847654342651</t>
+    <t xml:space="preserve">7.46062803268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93002843856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90869331359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847702026367</t>
   </si>
   <si>
     <t xml:space="preserve">8.16472911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22873783111572</t>
+    <t xml:space="preserve">8.22873878479004</t>
   </si>
   <si>
     <t xml:space="preserve">8.12916946411133</t>
@@ -3422,58 +3422,58 @@
     <t xml:space="preserve">8.15050506591797</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8802433013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91580486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97270154953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08649635314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1007194519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0011510848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093574523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07938289642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8660192489624</t>
+    <t xml:space="preserve">7.88024377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91580438613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97270107269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0864953994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10072040557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00115013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093383789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07938385009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86602067947388</t>
   </si>
   <si>
     <t xml:space="preserve">8.24296283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17895412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13628005981445</t>
+    <t xml:space="preserve">8.17895317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13628101348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.09360790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78778600692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99403810501099</t>
+    <t xml:space="preserve">7.78778553009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99403858184814</t>
   </si>
   <si>
     <t xml:space="preserve">8.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2642993927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21451377868652</t>
+    <t xml:space="preserve">8.26429843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21451473236084</t>
   </si>
   <si>
     <t xml:space="preserve">8.18606567382812</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">8.2216272354126</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27852249145508</t>
+    <t xml:space="preserve">8.27852344512939</t>
   </si>
   <si>
     <t xml:space="preserve">8.7479248046875</t>
@@ -3491,22 +3491,22 @@
     <t xml:space="preserve">8.46343898773193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92572784423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28133392333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30978298187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23865985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08219432830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00395965576172</t>
+    <t xml:space="preserve">8.9257287979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28133487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30978393554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23866081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08219528198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00396060943604</t>
   </si>
   <si>
     <t xml:space="preserve">8.85460662841797</t>
@@ -3515,10 +3515,10 @@
     <t xml:space="preserve">9.04663372039795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13909149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18176460266113</t>
+    <t xml:space="preserve">9.13909244537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18176364898682</t>
   </si>
   <si>
     <t xml:space="preserve">9.2599983215332</t>
@@ -3527,25 +3527,25 @@
     <t xml:space="preserve">9.21732521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35245418548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96128749847412</t>
+    <t xml:space="preserve">9.35245513916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96128845214844</t>
   </si>
   <si>
     <t xml:space="preserve">9.91431427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79340839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5089225769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4520263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35956764221191</t>
+    <t xml:space="preserve">9.79340744018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50892162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45202541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3595666885376</t>
   </si>
   <si>
     <t xml:space="preserve">9.11775398254395</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">9.66539001464844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05374622344971</t>
+    <t xml:space="preserve">9.05374526977539</t>
   </si>
   <si>
     <t xml:space="preserve">9.18887615203857</t>
@@ -3569,16 +3569,16 @@
     <t xml:space="preserve">9.88586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97832298278809</t>
+    <t xml:space="preserve">9.97832202911377</t>
   </si>
   <si>
     <t xml:space="preserve">9.90008926391602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89297771453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97121238708496</t>
+    <t xml:space="preserve">9.89297676086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97121143341064</t>
   </si>
   <si>
     <t xml:space="preserve">10.1134538650513</t>
@@ -3587,31 +3587,31 @@
     <t xml:space="preserve">10.4121646881104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3623790740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3125944137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3268184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.40505027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1276779174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2983684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406118392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4263877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5188455581665</t>
+    <t xml:space="preserve">10.3623781204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.312593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3268194198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4050521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1276769638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2983694076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4263868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5188446044922</t>
   </si>
   <si>
     <t xml:space="preserve">10.7891073226929</t>
@@ -3620,49 +3620,49 @@
     <t xml:space="preserve">11.0451421737671</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0949287414551</t>
+    <t xml:space="preserve">11.0949277877808</t>
   </si>
   <si>
     <t xml:space="preserve">11.3580780029297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4434223175049</t>
+    <t xml:space="preserve">11.4434242248535</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2656183242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8345890045166</t>
+    <t xml:space="preserve">11.2656192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8345899581909</t>
   </si>
   <si>
     <t xml:space="preserve">11.9057102203369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2257566452026</t>
+    <t xml:space="preserve">12.225757598877</t>
   </si>
   <si>
     <t xml:space="preserve">11.6141138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0621786117554</t>
+    <t xml:space="preserve">12.0621776580811</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496744155884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.891487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7421321868896</t>
+    <t xml:space="preserve">11.8914861679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.742133140564</t>
   </si>
   <si>
     <t xml:space="preserve">11.7207956314087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8985996246338</t>
+    <t xml:space="preserve">11.8985986709595</t>
   </si>
   <si>
     <t xml:space="preserve">11.7492446899414</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">12.1048517227173</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0977392196655</t>
+    <t xml:space="preserve">12.0977401733398</t>
   </si>
   <si>
     <t xml:space="preserve">12.3790817260742</t>
@@ -3680,19 +3680,19 @@
     <t xml:space="preserve">12.3486661911011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965885162354</t>
+    <t xml:space="preserve">12.196590423584</t>
   </si>
   <si>
     <t xml:space="preserve">11.9988889694214</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1053419113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2117967605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1433620452881</t>
+    <t xml:space="preserve">12.1053428649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2117958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1433629989624</t>
   </si>
   <si>
     <t xml:space="preserve">12.1585693359375</t>
@@ -3701,46 +3701,46 @@
     <t xml:space="preserve">12.3106479644775</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4323081970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6528186798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7516717910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8505210876465</t>
+    <t xml:space="preserve">12.4323091506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528196334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288579940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7516708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8505201339722</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125019073486</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6224060058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8809356689453</t>
+    <t xml:space="preserve">12.6224050521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8809366226196</t>
   </si>
   <si>
     <t xml:space="preserve">12.8581247329712</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7896890640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6908397674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3866863250732</t>
+    <t xml:space="preserve">12.7896900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6908407211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3866853713989</t>
   </si>
   <si>
     <t xml:space="preserve">12.2498159408569</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9076433181763</t>
+    <t xml:space="preserve">11.9076414108276</t>
   </si>
   <si>
     <t xml:space="preserve">12.0369081497192</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">11.5578651428223</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5426568984985</t>
+    <t xml:space="preserve">11.5426588058472</t>
   </si>
   <si>
     <t xml:space="preserve">10.9647645950317</t>
@@ -3764,7 +3764,7 @@
     <t xml:space="preserve">11.223295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7479610443115</t>
+    <t xml:space="preserve">11.7479600906372</t>
   </si>
   <si>
     <t xml:space="preserve">11.5958843231201</t>
@@ -3776,22 +3776,22 @@
     <t xml:space="preserve">11.9228506088257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0901355743408</t>
+    <t xml:space="preserve">12.0901346206665</t>
   </si>
   <si>
     <t xml:space="preserve">11.9608688354492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.059718132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0064926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9000377655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6186962127686</t>
+    <t xml:space="preserve">12.0597190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0064916610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9000387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6186952590942</t>
   </si>
   <si>
     <t xml:space="preserve">11.8087921142578</t>
@@ -3800,34 +3800,34 @@
     <t xml:space="preserve">12.1509647369385</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1357583999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9265594482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9797849655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.299147605896</t>
+    <t xml:space="preserve">12.1357574462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9265584945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9797859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2991485595703</t>
   </si>
   <si>
     <t xml:space="preserve">13.451226234436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3599805831909</t>
+    <t xml:space="preserve">13.3599786758423</t>
   </si>
   <si>
     <t xml:space="preserve">13.1318645477295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3295640945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2839412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4816398620605</t>
+    <t xml:space="preserve">13.3295631408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2839403152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4816417694092</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565294265747</t>
@@ -3836,46 +3836,46 @@
     <t xml:space="preserve">13.7173614501953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8618326187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0291194915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5576801300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5120573043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9530792236328</t>
+    <t xml:space="preserve">13.8618335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0291185379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5576791763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.512056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9530811309814</t>
   </si>
   <si>
     <t xml:space="preserve">13.8238134384155</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0330142974854</t>
+    <t xml:space="preserve">13.033013343811</t>
   </si>
   <si>
     <t xml:space="preserve">13.4664335250854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5880937576294</t>
+    <t xml:space="preserve">13.588095664978</t>
   </si>
   <si>
     <t xml:space="preserve">13.6109056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4892444610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4208097457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8998537063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7249641418457</t>
+    <t xml:space="preserve">13.4892463684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4208106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8998527526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7249631881714</t>
   </si>
   <si>
     <t xml:space="preserve">13.6261148452759</t>
@@ -3884,13 +3884,13 @@
     <t xml:space="preserve">14.0063066482544</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5994081497192</t>
+    <t xml:space="preserve">14.5994110107422</t>
   </si>
   <si>
     <t xml:space="preserve">15.6031179428101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7399873733521</t>
+    <t xml:space="preserve">15.7399883270264</t>
   </si>
   <si>
     <t xml:space="preserve">16.4243354797363</t>
@@ -3899,19 +3899,19 @@
     <t xml:space="preserve">16.485164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.226634979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2722568511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3597936630249</t>
+    <t xml:space="preserve">16.2266330718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2722587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3597955703735</t>
   </si>
   <si>
     <t xml:space="preserve">14.9796009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9454755783081</t>
+    <t xml:space="preserve">13.9454765319824</t>
   </si>
   <si>
     <t xml:space="preserve">14.6678438186646</t>
@@ -3920,46 +3920,46 @@
     <t xml:space="preserve">14.4017086029053</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5652837753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8314189910889</t>
+    <t xml:space="preserve">13.5652828216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8314180374146</t>
   </si>
   <si>
     <t xml:space="preserve">13.5804920196533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3714780807495</t>
+    <t xml:space="preserve">12.3714771270752</t>
   </si>
   <si>
     <t xml:space="preserve">11.8316040039062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341630935669</t>
+    <t xml:space="preserve">12.9341640472412</t>
   </si>
   <si>
     <t xml:space="preserve">12.1281538009644</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5007438659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0482215881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.382791519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0823459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9834966659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0139093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3636875152588</t>
+    <t xml:space="preserve">12.5007429122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0482206344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3827905654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.082347869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9834957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0139102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3636865615845</t>
   </si>
   <si>
     <t xml:space="preserve">14.2952537536621</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">14.1735916137695</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332738876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3712911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964025497437</t>
+    <t xml:space="preserve">14.33327293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3712930679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964044570923</t>
   </si>
   <si>
     <t xml:space="preserve">14.3180656433105</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">13.9074583053589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7401723861694</t>
+    <t xml:space="preserve">13.7401714324951</t>
   </si>
   <si>
     <t xml:space="preserve">13.793399810791</t>
@@ -3995,16 +3995,16 @@
     <t xml:space="preserve">13.4740362167358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8086071014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1470718383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090526580811</t>
+    <t xml:space="preserve">13.8086061477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470727920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915449142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090517044067</t>
   </si>
   <si>
     <t xml:space="preserve">12.4779319763184</t>
@@ -4013,25 +4013,25 @@
     <t xml:space="preserve">12.7364635467529</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2231101989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5272655487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2383165359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.833477973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8495645523071</t>
+    <t xml:space="preserve">13.2231092453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5272645950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.238317489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8334798812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8495635986328</t>
   </si>
   <si>
     <t xml:space="preserve">13.7691373825073</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0425901412964</t>
+    <t xml:space="preserve">14.0425891876221</t>
   </si>
   <si>
     <t xml:space="preserve">13.9380340576172</t>
@@ -4043,31 +4043,31 @@
     <t xml:space="preserve">13.6565389633179</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6324100494385</t>
+    <t xml:space="preserve">13.6324110031128</t>
   </si>
   <si>
     <t xml:space="preserve">13.6082830429077</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5761098861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5841522216797</t>
+    <t xml:space="preserve">13.5761108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5841541290283</t>
   </si>
   <si>
     <t xml:space="preserve">13.3509159088135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1739749908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1445083618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5252180099487</t>
+    <t xml:space="preserve">13.173975944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9166078567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1445074081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5252170562744</t>
   </si>
   <si>
     <t xml:space="preserve">11.6458587646484</t>
@@ -4076,19 +4076,19 @@
     <t xml:space="preserve">12.0560369491577</t>
   </si>
   <si>
-    <t xml:space="preserve">11.501091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4850034713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7423715591431</t>
+    <t xml:space="preserve">11.5010900497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4850044250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7423725128174</t>
   </si>
   <si>
     <t xml:space="preserve">11.5573883056641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5493469238281</t>
+    <t xml:space="preserve">11.5493459701538</t>
   </si>
   <si>
     <t xml:space="preserve">11.2598075866699</t>
@@ -4097,22 +4097,22 @@
     <t xml:space="preserve">11.5413036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.468918800354</t>
+    <t xml:space="preserve">11.4689197540283</t>
   </si>
   <si>
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276382446289</t>
+    <t xml:space="preserve">11.2276372909546</t>
   </si>
   <si>
     <t xml:space="preserve">10.8657150268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7289896011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6726894378662</t>
+    <t xml:space="preserve">10.7289886474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6726903915405</t>
   </si>
   <si>
     <t xml:space="preserve">10.2383823394775</t>
@@ -4121,22 +4121,22 @@
     <t xml:space="preserve">10.1579551696777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3751087188721</t>
+    <t xml:space="preserve">10.3751096725464</t>
   </si>
   <si>
     <t xml:space="preserve">10.664647102356</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3509798049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4072799682617</t>
+    <t xml:space="preserve">10.350980758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4072790145874</t>
   </si>
   <si>
     <t xml:space="preserve">9.96493053436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48236656188965</t>
+    <t xml:space="preserve">9.48236751556396</t>
   </si>
   <si>
     <t xml:space="preserve">9.70756244659424</t>
@@ -4145,10 +4145,10 @@
     <t xml:space="preserve">9.86841773986816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1257848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1659984588623</t>
+    <t xml:space="preserve">10.1257839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1659994125366</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016569137573</t>
@@ -4169,7 +4169,7 @@
     <t xml:space="preserve">10.3348951339722</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5359630584717</t>
+    <t xml:space="preserve">10.535964012146</t>
   </si>
   <si>
     <t xml:space="preserve">10.6485614776611</t>
@@ -4193,7 +4193,7 @@
     <t xml:space="preserve">10.415322303772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5279207229614</t>
+    <t xml:space="preserve">10.5279216766357</t>
   </si>
   <si>
     <t xml:space="preserve">10.7852878570557</t>
@@ -4202,10 +4202,10 @@
     <t xml:space="preserve">10.9702701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4394502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0131864547729</t>
+    <t xml:space="preserve">10.4394512176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0131874084473</t>
   </si>
   <si>
     <t xml:space="preserve">10.1418695449829</t>
@@ -4220,13 +4220,13 @@
     <t xml:space="preserve">9.6995210647583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62713718414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69147777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61104965209961</t>
+    <t xml:space="preserve">9.62713623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69147682189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61105060577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.36172580718994</t>
@@ -4235,22 +4235,22 @@
     <t xml:space="preserve">9.5547513961792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28934097290039</t>
+    <t xml:space="preserve">9.28934192657471</t>
   </si>
   <si>
     <t xml:space="preserve">9.24108409881592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1043586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18478679656982</t>
+    <t xml:space="preserve">9.10435771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18478584289551</t>
   </si>
   <si>
     <t xml:space="preserve">9.39389705657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91667366027832</t>
+    <t xml:space="preserve">9.91667461395264</t>
   </si>
   <si>
     <t xml:space="preserve">9.92471694946289</t>
@@ -4259,7 +4259,7 @@
     <t xml:space="preserve">10.0614433288574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8362455368042</t>
+    <t xml:space="preserve">9.83624744415283</t>
   </si>
   <si>
     <t xml:space="preserve">9.77994728088379</t>
@@ -4268,7 +4268,7 @@
     <t xml:space="preserve">9.45019626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49845314025879</t>
+    <t xml:space="preserve">9.49845218658447</t>
   </si>
   <si>
     <t xml:space="preserve">9.17674446105957</t>
@@ -4277,10 +4277,10 @@
     <t xml:space="preserve">9.19282913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04001712799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94350433349609</t>
+    <t xml:space="preserve">9.04001808166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94350528717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.65396690368652</t>
@@ -4289,7 +4289,7 @@
     <t xml:space="preserve">9.15261554718018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25717163085938</t>
+    <t xml:space="preserve">9.25717067718506</t>
   </si>
   <si>
     <t xml:space="preserve">9.16065788269043</t>
@@ -4310,10 +4310,10 @@
     <t xml:space="preserve">8.84699249267578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85503578186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11240100860596</t>
+    <t xml:space="preserve">8.85503482818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11240196228027</t>
   </si>
   <si>
     <t xml:space="preserve">9.08827304840088</t>
@@ -4331,10 +4331,10 @@
     <t xml:space="preserve">9.41802501678467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58692169189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77190494537354</t>
+    <t xml:space="preserve">9.58692264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77190399169922</t>
   </si>
   <si>
     <t xml:space="preserve">9.81211853027344</t>
@@ -4349,7 +4349,7 @@
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506982803345</t>
+    <t xml:space="preserve">11.0506973266602</t>
   </si>
   <si>
     <t xml:space="preserve">11.1954660415649</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">11.1230812072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0024423599243</t>
+    <t xml:space="preserve">11.00244140625</t>
   </si>
   <si>
     <t xml:space="preserve">11.3643636703491</t>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1765">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">16.9247817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8509826660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9961318969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931833267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116340637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8669853210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5902318954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3466835021973</t>
+    <t xml:space="preserve">16.850980758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9961338043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8669815063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5902338027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3466815948486</t>
   </si>
   <si>
     <t xml:space="preserve">15.2335357666016</t>
@@ -74,145 +74,145 @@
     <t xml:space="preserve">15.9407844543457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1006832122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8731298446655</t>
+    <t xml:space="preserve">16.1006851196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8731327056885</t>
   </si>
   <si>
     <t xml:space="preserve">16.9063320159912</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9309310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5274791717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5336322784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1154327392578</t>
+    <t xml:space="preserve">16.9309329986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5274829864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5336303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1154308319092</t>
   </si>
   <si>
     <t xml:space="preserve">17.7119808197021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6504821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.342981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6849346160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4512329101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9899835586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3602323532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4032869338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1105356216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1412839889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9838314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.879282951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7808818817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6947841644287</t>
+    <t xml:space="preserve">17.650484085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3429832458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6849327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4512348175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9899845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3602342605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4032850265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1105327606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1412858963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.202784538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9838352203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8792839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7808828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6947832107544</t>
   </si>
   <si>
     <t xml:space="preserve">15.7624349594116</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9739818572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696826934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2113819122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7218322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6049823760986</t>
+    <t xml:space="preserve">16.9739837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4696846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2113838195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7218341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.60498046875</t>
   </si>
   <si>
     <t xml:space="preserve">16.5434818267822</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0416316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8079319000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4819831848145</t>
+    <t xml:space="preserve">17.0416297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8079299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4819812774658</t>
   </si>
   <si>
     <t xml:space="preserve">15.8854331970215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0084362030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5779342651367</t>
+    <t xml:space="preserve">16.0084342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5779314041138</t>
   </si>
   <si>
     <t xml:space="preserve">15.9284820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1867828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6972312927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.912483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5951328277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8534297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6996803283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5582294464111</t>
+    <t xml:space="preserve">16.1867847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6972332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9124813079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5951309204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8534317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5582313537598</t>
   </si>
   <si>
     <t xml:space="preserve">17.7242794036865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7495460510254</t>
+    <t xml:space="preserve">17.749547958374</t>
   </si>
   <si>
     <t xml:space="preserve">18.1285438537598</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3875198364258</t>
+    <t xml:space="preserve">18.3875217437744</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527439117432</t>
@@ -224,115 +224,115 @@
     <t xml:space="preserve">18.0148448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1557884216309</t>
+    <t xml:space="preserve">17.1557903289795</t>
   </si>
   <si>
     <t xml:space="preserve">17.2442226409912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3579216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4716167449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1936874389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8020648956299</t>
+    <t xml:space="preserve">17.3579196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4716186523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1936893463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8020629882812</t>
   </si>
   <si>
     <t xml:space="preserve">16.9662933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7578468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6504669189453</t>
+    <t xml:space="preserve">16.757848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6504650115967</t>
   </si>
   <si>
     <t xml:space="preserve">16.9157619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4483337402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3283195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.044075012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.081974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0061779022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7787818908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5261154174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334253311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0018434524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544313430786</t>
+    <t xml:space="preserve">16.448335647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3283214569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0440731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0819721221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1704082489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0061740875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7787780761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5261163711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.22292137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766477584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.001841545105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544322967529</t>
   </si>
   <si>
     <t xml:space="preserve">14.4144010543823</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1175222396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2754373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0354070663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7258949279785</t>
+    <t xml:space="preserve">14.117525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2754383087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0354051589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7258968353271</t>
   </si>
   <si>
     <t xml:space="preserve">13.8964443206787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9532928466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5806150436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8332777023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9619626998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3492527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1597557067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9134111404419</t>
+    <t xml:space="preserve">13.9532899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5806131362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8332767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249040603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9619598388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.34925365448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1597585678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9134120941162</t>
   </si>
   <si>
     <t xml:space="preserve">15.0271081924438</t>
@@ -341,25 +341,25 @@
     <t xml:space="preserve">14.6796989440918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5912656784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.692328453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649333953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2564868927002</t>
+    <t xml:space="preserve">14.5912666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6923294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649305343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2564859390259</t>
   </si>
   <si>
     <t xml:space="preserve">14.0543584823608</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8016939163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.422700881958</t>
+    <t xml:space="preserve">13.8016958236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4226999282837</t>
   </si>
   <si>
     <t xml:space="preserve">13.258469581604</t>
@@ -368,43 +368,43 @@
     <t xml:space="preserve">13.1068716049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7657766342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4479694366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9153957366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8522262573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.281756401062</t>
+    <t xml:space="preserve">12.7657785415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4479675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9153919219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8522281646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2817554473877</t>
   </si>
   <si>
     <t xml:space="preserve">13.3279523849487</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1929521560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877016067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3508682250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645662307739</t>
+    <t xml:space="preserve">11.1929512023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877035140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.350866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645652770996</t>
   </si>
   <si>
     <t xml:space="preserve">11.4771995544434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4961490631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9276571273804</t>
+    <t xml:space="preserve">11.496148109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9276580810547</t>
   </si>
   <si>
     <t xml:space="preserve">10.5360307693481</t>
@@ -413,61 +413,61 @@
     <t xml:space="preserve">10.5233974456787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7002620697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7381601333618</t>
+    <t xml:space="preserve">10.7002611160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7381620407104</t>
   </si>
   <si>
     <t xml:space="preserve">11.9067249298096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4057321548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.633131980896</t>
+    <t xml:space="preserve">12.4057331085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.633129119873</t>
   </si>
   <si>
     <t xml:space="preserve">12.4562644958496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6647138595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3804683685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6457624435425</t>
+    <t xml:space="preserve">12.6647129058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.380467414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6457633972168</t>
   </si>
   <si>
     <t xml:space="preserve">12.3488845825195</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1467533111572</t>
+    <t xml:space="preserve">12.1467542648315</t>
   </si>
   <si>
     <t xml:space="preserve">11.9446239471436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.66037940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0962219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857946395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5573301315308</t>
+    <t xml:space="preserve">11.6603803634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0962228775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857908248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5573320388794</t>
   </si>
   <si>
     <t xml:space="preserve">12.7341957092285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2225542068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541370391846</t>
+    <t xml:space="preserve">12.2225522994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541360855103</t>
   </si>
   <si>
     <t xml:space="preserve">12.7594614028931</t>
@@ -476,115 +476,115 @@
     <t xml:space="preserve">12.9110593795776</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5383815765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.816312789917</t>
+    <t xml:space="preserve">12.5383825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8163108825684</t>
   </si>
   <si>
     <t xml:space="preserve">12.7089281082153</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5952310562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5194311141968</t>
+    <t xml:space="preserve">12.5952301025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5194301605225</t>
   </si>
   <si>
     <t xml:space="preserve">12.4120502471924</t>
   </si>
   <si>
-    <t xml:space="preserve">12.083589553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0709571838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.140438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278047561646</t>
+    <t xml:space="preserve">12.0835866928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0709562301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1404390335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278057098389</t>
   </si>
   <si>
     <t xml:space="preserve">12.2036027908325</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0646381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0583229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.22887134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3236179351807</t>
+    <t xml:space="preserve">12.064640045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0583219528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2288703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.323618888855</t>
   </si>
   <si>
     <t xml:space="preserve">12.304669380188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5699653625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0121231079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5427150726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6311492919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1510877609253</t>
+    <t xml:space="preserve">12.5699625015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0121259689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5427179336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6311454772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.151086807251</t>
   </si>
   <si>
     <t xml:space="preserve">12.8605270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.948956489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.835259437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8542098999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7278776168823</t>
+    <t xml:space="preserve">12.9489593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8352603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.854208946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.727876663208</t>
   </si>
   <si>
     <t xml:space="preserve">12.9426422119141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2647857666016</t>
+    <t xml:space="preserve">13.2647876739502</t>
   </si>
   <si>
     <t xml:space="preserve">13.2205715179443</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8226270675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6583976745605</t>
+    <t xml:space="preserve">12.8226251602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6583986282349</t>
   </si>
   <si>
     <t xml:space="preserve">12.6394462585449</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6773462295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.873158454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9300098419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2268857955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6437797546387</t>
+    <t xml:space="preserve">12.6773452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8731594085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9300088882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2268867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6437826156616</t>
   </si>
   <si>
     <t xml:space="preserve">14.7744455337524</t>
@@ -593,31 +593,31 @@
     <t xml:space="preserve">15.0650081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0965919494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2481861114502</t>
+    <t xml:space="preserve">15.0965890884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2481870651245</t>
   </si>
   <si>
     <t xml:space="preserve">15.3429365158081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5892820358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8040466308594</t>
+    <t xml:space="preserve">15.589282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8040475845337</t>
   </si>
   <si>
     <t xml:space="preserve">15.9051122665405</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3662166595459</t>
+    <t xml:space="preserve">16.3662185668945</t>
   </si>
   <si>
     <t xml:space="preserve">16.4546508789062</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6125640869141</t>
+    <t xml:space="preserve">16.6125659942627</t>
   </si>
   <si>
     <t xml:space="preserve">16.7452144622803</t>
@@ -626,25 +626,25 @@
     <t xml:space="preserve">16.6441478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4357051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1830406188965</t>
+    <t xml:space="preserve">16.4357032775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1830425262451</t>
   </si>
   <si>
     <t xml:space="preserve">16.2019901275635</t>
   </si>
   <si>
-    <t xml:space="preserve">15.955641746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0503902435303</t>
+    <t xml:space="preserve">15.9556427001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0503883361816</t>
   </si>
   <si>
     <t xml:space="preserve">15.9935426712036</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8166799545288</t>
+    <t xml:space="preserve">15.8166809082031</t>
   </si>
   <si>
     <t xml:space="preserve">15.4755830764771</t>
@@ -653,79 +653,79 @@
     <t xml:space="preserve">15.4629497528076</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0081577301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0523748397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.944993019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.888144493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512344360352</t>
+    <t xml:space="preserve">15.0081586837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0523738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9449901580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512363433838</t>
   </si>
   <si>
     <t xml:space="preserve">14.4270334243774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4965190887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0227746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5280990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807607650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.761812210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102132797241</t>
+    <t xml:space="preserve">14.4965181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0227756500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5280981063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618141174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102142333984</t>
   </si>
   <si>
     <t xml:space="preserve">15.5513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.696662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6082324981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7914113998413</t>
+    <t xml:space="preserve">15.6966667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6082315444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7914123535156</t>
   </si>
   <si>
     <t xml:space="preserve">16.429386138916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1514587402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8229951858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.91774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588367462158</t>
+    <t xml:space="preserve">16.1514568328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8229961395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9177474975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588386535645</t>
   </si>
   <si>
     <t xml:space="preserve">16.4230690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.738899230957</t>
+    <t xml:space="preserve">16.7388954162598</t>
   </si>
   <si>
     <t xml:space="preserve">17.1368427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0420913696289</t>
+    <t xml:space="preserve">17.0420932769775</t>
   </si>
   <si>
     <t xml:space="preserve">16.9915599822998</t>
@@ -734,22 +734,22 @@
     <t xml:space="preserve">16.8652305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3156871795654</t>
+    <t xml:space="preserve">16.3156852722168</t>
   </si>
   <si>
     <t xml:space="preserve">16.486234664917</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8210124969482</t>
+    <t xml:space="preserve">16.8210105895996</t>
   </si>
   <si>
     <t xml:space="preserve">16.6757316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5367660522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5936145782471</t>
+    <t xml:space="preserve">16.5367698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5936164855957</t>
   </si>
   <si>
     <t xml:space="preserve">16.5746669769287</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">16.3093719482422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1072387695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9809074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524496078491</t>
+    <t xml:space="preserve">16.1072425842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9809103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524486541748</t>
   </si>
   <si>
     <t xml:space="preserve">15.9745922088623</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8545799255371</t>
+    <t xml:space="preserve">15.8545789718628</t>
   </si>
   <si>
     <t xml:space="preserve">15.8293113708496</t>
@@ -779,49 +779,49 @@
     <t xml:space="preserve">16.5494022369385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2335739135742</t>
+    <t xml:space="preserve">16.233570098877</t>
   </si>
   <si>
     <t xml:space="preserve">16.1198768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3599033355713</t>
+    <t xml:space="preserve">16.3599014282227</t>
   </si>
   <si>
     <t xml:space="preserve">16.9283924102783</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4337158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4210872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6358509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.15380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6464996337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7917804718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2927742004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2675075531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6863822937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6338672637939</t>
+    <t xml:space="preserve">17.4337215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.421085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6358489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1538066864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6465034484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7917785644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2927703857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.267505645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6863842010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5706996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6338653564453</t>
   </si>
   <si>
     <t xml:space="preserve">19.0760288238525</t>
@@ -830,46 +830,46 @@
     <t xml:space="preserve">19.2276229858398</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3476371765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7601985931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8802127838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.455020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7013683319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6046352386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5015888214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7921504974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.987964630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0301933288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5690841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9291324615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8027973175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7396335601807</t>
+    <t xml:space="preserve">19.3476390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7602005004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8802108764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4550189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7013645172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6046333312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5015869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7921524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9879627227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0301971435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5690879821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9291305541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8027992248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7396354675293</t>
   </si>
   <si>
     <t xml:space="preserve">22.7080497741699</t>
@@ -878,124 +878,124 @@
     <t xml:space="preserve">22.3480072021484</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6133060455322</t>
+    <t xml:space="preserve">22.6133003234863</t>
   </si>
   <si>
     <t xml:space="preserve">22.6954174041748</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9164981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8975505828857</t>
+    <t xml:space="preserve">22.9164943695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8975486755371</t>
   </si>
   <si>
     <t xml:space="preserve">22.6638374328613</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2133769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.548152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3586578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.289176940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1186256408691</t>
+    <t xml:space="preserve">23.2133750915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5481567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3586597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2891731262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1186275482178</t>
   </si>
   <si>
     <t xml:space="preserve">23.049144744873</t>
   </si>
   <si>
-    <t xml:space="preserve">23.434455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7376499176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4407730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4893207550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3440399169922</t>
+    <t xml:space="preserve">23.4344520568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7376537322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4407768249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4893226623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3440437316895</t>
   </si>
   <si>
     <t xml:space="preserve">24.1734943389893</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4451084136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0135955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2200050354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8329925537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6265869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6074657440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2075595855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8915061950684</t>
+    <t xml:space="preserve">24.445104598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0135974884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2200012207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8329963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6265907287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6074695587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4980487823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2075634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8915042877197</t>
   </si>
   <si>
     <t xml:space="preserve">22.6915531158447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7560539245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6399517059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2209224700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4404582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.491828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9562397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5238475799561</t>
+    <t xml:space="preserve">22.7560520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6399478912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2209243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4404563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4918270111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9562377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5238456726074</t>
   </si>
   <si>
     <t xml:space="preserve">22.510950088501</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5754489898682</t>
+    <t xml:space="preserve">22.5754470825195</t>
   </si>
   <si>
     <t xml:space="preserve">22.4464454650879</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2916431427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.33034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7691822052002</t>
+    <t xml:space="preserve">22.2916450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3303394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7691841125488</t>
   </si>
   <si>
     <t xml:space="preserve">21.5627784729004</t>
@@ -1004,202 +1004,202 @@
     <t xml:space="preserve">21.8659362792969</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2658386230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.059440612793</t>
+    <t xml:space="preserve">22.2658443450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0594387054443</t>
   </si>
   <si>
     <t xml:space="preserve">22.188440322876</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8205528259277</t>
+    <t xml:space="preserve">22.8205547332764</t>
   </si>
   <si>
     <t xml:space="preserve">22.7625045776367</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3819446563721</t>
+    <t xml:space="preserve">22.3819465637207</t>
   </si>
   <si>
     <t xml:space="preserve">22.6012496948242</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5496463775635</t>
+    <t xml:space="preserve">22.5496501922607</t>
   </si>
   <si>
     <t xml:space="preserve">22.7689514160156</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4786968231201</t>
+    <t xml:space="preserve">22.4786987304688</t>
   </si>
   <si>
     <t xml:space="preserve">22.1561908721924</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0465393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9949359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5303001403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7302513122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7044525146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9431056976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0205097198486</t>
+    <t xml:space="preserve">22.046537399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9949378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5303020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7302532196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7044506072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9431037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0205078125</t>
   </si>
   <si>
     <t xml:space="preserve">23.1043586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0140590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2204608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3752632141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4139671325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7042217254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9170742034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7880744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622699737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8009757995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0138244628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2847347259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9299736022949</t>
+    <t xml:space="preserve">23.0140552520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2204627990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.37526512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4139652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7042198181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9170761108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7880764007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622718811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8009738922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0138263702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2847328186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9299716949463</t>
   </si>
   <si>
     <t xml:space="preserve">24.7039909362793</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1877498626709</t>
+    <t xml:space="preserve">25.1877479553223</t>
   </si>
   <si>
     <t xml:space="preserve">24.8974952697754</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2587013244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.026496887207</t>
+    <t xml:space="preserve">25.2587032318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0264987945557</t>
   </si>
   <si>
     <t xml:space="preserve">25.6070098876953</t>
   </si>
   <si>
-    <t xml:space="preserve">25.832763671875</t>
+    <t xml:space="preserve">25.8327655792236</t>
   </si>
   <si>
     <t xml:space="preserve">26.1423721313477</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4003753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6906337738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2520275115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5035743713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4455242156982</t>
+    <t xml:space="preserve">26.4003734588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6906318664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2520198822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5035781860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4455261230469</t>
   </si>
   <si>
     <t xml:space="preserve">25.8908138275146</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9166145324707</t>
+    <t xml:space="preserve">25.9166202545166</t>
   </si>
   <si>
     <t xml:space="preserve">26.5680770874023</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7809295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7293319702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2326698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4326229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2133197784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1939716339111</t>
+    <t xml:space="preserve">26.7809314727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7293300628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2326736450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4326267242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.213321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1939735412598</t>
   </si>
   <si>
     <t xml:space="preserve">26.3616752624512</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1617221832275</t>
+    <t xml:space="preserve">26.1617183685303</t>
   </si>
   <si>
     <t xml:space="preserve">25.9940147399902</t>
   </si>
   <si>
-    <t xml:space="preserve">25.419958114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0714149475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2842712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5745315551758</t>
+    <t xml:space="preserve">25.4199562072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0714206695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2842750549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5745334625244</t>
   </si>
   <si>
     <t xml:space="preserve">26.9808883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7680320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4842281341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2066402435303</t>
+    <t xml:space="preserve">26.768030166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.484224319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2066421508789</t>
   </si>
   <si>
     <t xml:space="preserve">27.1743907928467</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9357357025146</t>
+    <t xml:space="preserve">26.9357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">27.1614894866943</t>
@@ -1211,40 +1211,40 @@
     <t xml:space="preserve">28.2709140777588</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2773666381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7675704956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352272033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0126762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2384300231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7353229522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.251335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4964370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8382930755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5220069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.863862991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.018669128418</t>
+    <t xml:space="preserve">28.277364730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7675743103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352310180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0126724243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.238431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7353210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513294219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4964351654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8382911682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5220031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8638591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0186710357666</t>
   </si>
   <si>
     <t xml:space="preserve">29.5802898406982</t>
@@ -1253,58 +1253,58 @@
     <t xml:space="preserve">30.5155582427979</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3411750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023792266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7733345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.515323638916</t>
+    <t xml:space="preserve">31.3411712646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023849487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7733325958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5153274536133</t>
   </si>
   <si>
     <t xml:space="preserve">30.8509654998779</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6125335693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1739292144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9285945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2964782714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2833518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865566253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4252529144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6187610626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.147668838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.315601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3543033599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1930484771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2446537017822</t>
+    <t xml:space="preserve">29.6125373840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1739273071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9285984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2964820861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.283353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865585327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.425256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1476726531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3156032562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.354305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1930561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2446460723877</t>
   </si>
   <si>
     <t xml:space="preserve">29.7802410125732</t>
@@ -1313,34 +1313,34 @@
     <t xml:space="preserve">29.4899883270264</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9288234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0518398284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2778224945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.239351272583</t>
+    <t xml:space="preserve">28.928825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224704742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0518379211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2778244018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2393531799316</t>
   </si>
   <si>
     <t xml:space="preserve">25.1038990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9553165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9813461303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9942474365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5427379608154</t>
+    <t xml:space="preserve">25.9553146362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9813480377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9942455291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5427398681641</t>
   </si>
   <si>
     <t xml:space="preserve">24.1750793457031</t>
@@ -1349,64 +1349,64 @@
     <t xml:space="preserve">24.9361953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6394901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8652420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0651988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4524383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6977729797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6655178070068</t>
+    <t xml:space="preserve">24.6394920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8652439117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0652008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4524364471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6977710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6655216217041</t>
   </si>
   <si>
     <t xml:space="preserve">23.89772605896</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0009231567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5881156921387</t>
+    <t xml:space="preserve">24.0009269714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5881175994873</t>
   </si>
   <si>
     <t xml:space="preserve">22.9882583618164</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5365161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7104434967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3043155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2140102386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1559638977051</t>
+    <t xml:space="preserve">23.5365180969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589752197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104415893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.304313659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2140140533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1559600830078</t>
   </si>
   <si>
     <t xml:space="preserve">23.8783760070801</t>
   </si>
   <si>
-    <t xml:space="preserve">24.968448638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2971725463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3425521850586</t>
+    <t xml:space="preserve">24.9684429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.297176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425579071045</t>
   </si>
   <si>
     <t xml:space="preserve">25.6715068817139</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">26.1230182647705</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1359195709229</t>
+    <t xml:space="preserve">26.1359233856201</t>
   </si>
   <si>
     <t xml:space="preserve">25.7876129150391</t>
@@ -1424,31 +1424,31 @@
     <t xml:space="preserve">25.8650131225586</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5749893188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.323205947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4651069641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1426010131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3490028381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2458000183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0522975921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7684917449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7426910400391</t>
+    <t xml:space="preserve">24.5749931335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3232040405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4651050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1425971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3490047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2458019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0522994995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7684955596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7426891326904</t>
   </si>
   <si>
     <t xml:space="preserve">24.4975872039795</t>
@@ -1457,19 +1457,19 @@
     <t xml:space="preserve">25.2329025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6910915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2782859802246</t>
+    <t xml:space="preserve">24.691089630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.278284072876</t>
   </si>
   <si>
     <t xml:space="preserve">23.3365650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8076515197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.388162612915</t>
+    <t xml:space="preserve">22.8076553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3881645202637</t>
   </si>
   <si>
     <t xml:space="preserve">21.6079292297363</t>
@@ -1478,58 +1478,58 @@
     <t xml:space="preserve">21.3628234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8463535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2720623016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0011577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5042667388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4913673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4526672363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.401065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5300674438477</t>
+    <t xml:space="preserve">22.8463554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2720642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0011596679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5042686462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4913654327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4526691436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4010639190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5300693511963</t>
   </si>
   <si>
     <t xml:space="preserve">23.1430625915527</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8721561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7431488037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0078353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2596244812012</t>
+    <t xml:space="preserve">22.8721542358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7431526184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0078372955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2596225738525</t>
   </si>
   <si>
     <t xml:space="preserve">20.9113159179688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2854232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0016193389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9887199401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0723419189453</t>
+    <t xml:space="preserve">21.28542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.001615524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9887180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0723400115967</t>
   </si>
   <si>
     <t xml:space="preserve">21.9820384979248</t>
@@ -1547,46 +1547,46 @@
     <t xml:space="preserve">21.3757247924805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.182222366333</t>
+    <t xml:space="preserve">21.1822242736816</t>
   </si>
   <si>
     <t xml:space="preserve">20.8855152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">20.150203704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0923805236816</t>
+    <t xml:space="preserve">20.1501998901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0923824310303</t>
   </si>
   <si>
     <t xml:space="preserve">20.5630073547363</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7502918243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5888118743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0274200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1951217651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.349925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1626396179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6982307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5305290222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7885322570801</t>
+    <t xml:space="preserve">19.7502937316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5888080596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0274181365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1951236724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3499240875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1626415252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6982345581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5305271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7885341644287</t>
   </si>
   <si>
     <t xml:space="preserve">21.6595306396484</t>
@@ -1598,37 +1598,37 @@
     <t xml:space="preserve">21.288257598877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0487632751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9955444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0753765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7539386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668197631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2861423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4724140167236</t>
+    <t xml:space="preserve">21.0487613677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9955425262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0753746032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7539405822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668216705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2861442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4724178314209</t>
   </si>
   <si>
     <t xml:space="preserve">22.7252159118652</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4058933258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0200386047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4878349304199</t>
+    <t xml:space="preserve">22.405891418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.020040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4878330230713</t>
   </si>
   <si>
     <t xml:space="preserve">21.3813934326172</t>
@@ -1643,70 +1643,70 @@
     <t xml:space="preserve">20.8491878509521</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1573181152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.146125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7868881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9465484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5606994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1615447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1636543273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5803442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1699934005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5271215438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6468696594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9640789031982</t>
+    <t xml:space="preserve">20.1573162078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1461277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.78688621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9465503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5606956481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1615428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1636562347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5803422927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1699962615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5271224975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6468706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9640808105469</t>
   </si>
   <si>
     <t xml:space="preserve">17.0306053161621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5117053985596</t>
+    <t xml:space="preserve">16.5117034912109</t>
   </si>
   <si>
     <t xml:space="preserve">16.6580619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3121242523193</t>
+    <t xml:space="preserve">16.3121280670166</t>
   </si>
   <si>
     <t xml:space="preserve">16.1657695770264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.817720413208</t>
+    <t xml:space="preserve">16.8177223205566</t>
   </si>
   <si>
     <t xml:space="preserve">17.7623920440674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2546806335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2280693054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6825580596924</t>
+    <t xml:space="preserve">18.2546825408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2280673980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6825561523438</t>
   </si>
   <si>
     <t xml:space="preserve">18.4675636291504</t>
@@ -1718,31 +1718,31 @@
     <t xml:space="preserve">18.4010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5873107910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2812881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5628128051758</t>
+    <t xml:space="preserve">18.5873126983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2812900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5628108978271</t>
   </si>
   <si>
     <t xml:space="preserve">17.0039939880371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.123743057251</t>
+    <t xml:space="preserve">17.1237411499023</t>
   </si>
   <si>
     <t xml:space="preserve">17.150354385376</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2035751342773</t>
+    <t xml:space="preserve">17.2035732269287</t>
   </si>
   <si>
     <t xml:space="preserve">17.1769638061523</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3632354736328</t>
+    <t xml:space="preserve">17.3632335662842</t>
   </si>
   <si>
     <t xml:space="preserve">17.6426429748535</t>
@@ -1757,163 +1757,163 @@
     <t xml:space="preserve">17.8954410552979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4962844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5894222259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4031505584717</t>
+    <t xml:space="preserve">17.4962863922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5894260406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.403148651123</t>
   </si>
   <si>
     <t xml:space="preserve">18.3345127105713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6272239685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9087448120117</t>
+    <t xml:space="preserve">18.6272258758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9087467193604</t>
   </si>
   <si>
     <t xml:space="preserve">17.6559505462646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9220542907715</t>
+    <t xml:space="preserve">17.9220523834229</t>
   </si>
   <si>
     <t xml:space="preserve">17.9885768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8289184570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.897554397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0971298217773</t>
+    <t xml:space="preserve">17.828914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8975524902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.097131729126</t>
   </si>
   <si>
     <t xml:space="preserve">16.0992450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7022018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0481395721436</t>
+    <t xml:space="preserve">14.702202796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0481367111206</t>
   </si>
   <si>
     <t xml:space="preserve">15.0082216262817</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9949150085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6090669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3429622650146</t>
+    <t xml:space="preserve">14.9949169158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6090650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.342963218689</t>
   </si>
   <si>
     <t xml:space="preserve">13.7575359344482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6111764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7309265136719</t>
+    <t xml:space="preserve">13.611177444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7309255599976</t>
   </si>
   <si>
     <t xml:space="preserve">13.6910085678101</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5824556350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0635547637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2631320953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2099113464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.396183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5712642669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5180425643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4781265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0369434356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159292221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215272903442</t>
+    <t xml:space="preserve">14.5824565887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0635538101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2631340026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2099142074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3961839675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5712614059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5180435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4781293869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0369453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159311294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215263366699</t>
   </si>
   <si>
     <t xml:space="preserve">14.8751707077026</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6888990402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2743244171143</t>
+    <t xml:space="preserve">14.6888971328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2743234634399</t>
   </si>
   <si>
     <t xml:space="preserve">14.928391456604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348320007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6489820480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.675591468811</t>
+    <t xml:space="preserve">15.0348339080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6755924224854</t>
   </si>
   <si>
     <t xml:space="preserve">14.8485584259033</t>
   </si>
   <si>
-    <t xml:space="preserve">15.460599899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.859751701355</t>
+    <t xml:space="preserve">15.4605979919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8597507476807</t>
   </si>
   <si>
     <t xml:space="preserve">15.8331413269043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.686785697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730592727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7288131713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9060049057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9480323791504</t>
+    <t xml:space="preserve">15.6867847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730583190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7288103103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.906005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.948034286499</t>
   </si>
   <si>
     <t xml:space="preserve">12.427020072937</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7663021087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1721096038818</t>
+    <t xml:space="preserve">12.766300201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721086502075</t>
   </si>
   <si>
     <t xml:space="preserve">12.9791841506958</t>
@@ -1922,34 +1922,34 @@
     <t xml:space="preserve">11.3426494598389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.642014503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2561655044556</t>
+    <t xml:space="preserve">11.6420154571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2561664581299</t>
   </si>
   <si>
     <t xml:space="preserve">10.8503580093384</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559532165527</t>
+    <t xml:space="preserve">11.3559541702271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3293447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5422267913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.910231590271</t>
+    <t xml:space="preserve">11.5422277450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9102306365967</t>
   </si>
   <si>
     <t xml:space="preserve">10.8836221694946</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4844655990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60632514953613</t>
+    <t xml:space="preserve">10.4844665527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">9.21382427215576</t>
@@ -1958,13 +1958,13 @@
     <t xml:space="preserve">9.04085731506348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31361198425293</t>
+    <t xml:space="preserve">9.31361293792725</t>
   </si>
   <si>
     <t xml:space="preserve">9.34687614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86577701568604</t>
+    <t xml:space="preserve">9.86577606201172</t>
   </si>
   <si>
     <t xml:space="preserve">9.9655647277832</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">10.6441287994385</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2362070083618</t>
+    <t xml:space="preserve">11.2362089157104</t>
   </si>
   <si>
     <t xml:space="preserve">10.8703165054321</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0320911407471</t>
+    <t xml:space="preserve">10.0320901870728</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385316848755</t>
@@ -1994,43 +1994,43 @@
     <t xml:space="preserve">10.0387439727783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1717948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2981939315796</t>
+    <t xml:space="preserve">10.1717958450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2981948852539</t>
   </si>
   <si>
     <t xml:space="preserve">10.544340133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4312467575073</t>
+    <t xml:space="preserve">10.431245803833</t>
   </si>
   <si>
     <t xml:space="preserve">10.3979835510254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773910522461</t>
+    <t xml:space="preserve">10.6773900985718</t>
   </si>
   <si>
     <t xml:space="preserve">10.5709505081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243816375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.921422958374</t>
+    <t xml:space="preserve">10.5243806838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9214248657227</t>
   </si>
   <si>
     <t xml:space="preserve">12.2474012374878</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9946012496948</t>
+    <t xml:space="preserve">11.9946031570435</t>
   </si>
   <si>
     <t xml:space="preserve">12.7529983520508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4336738586426</t>
+    <t xml:space="preserve">12.4336729049683</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076955795288</t>
@@ -2039,40 +2039,40 @@
     <t xml:space="preserve">12.0611276626587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5621843338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9081201553345</t>
+    <t xml:space="preserve">11.562183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9081182479858</t>
   </si>
   <si>
     <t xml:space="preserve">11.3692598342896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.80832862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3093852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7018899917603</t>
+    <t xml:space="preserve">11.8083305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3093862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7018890380859</t>
   </si>
   <si>
     <t xml:space="preserve">12.2074851989746</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1010456085205</t>
+    <t xml:space="preserve">12.1010427474976</t>
   </si>
   <si>
     <t xml:space="preserve">11.9413824081421</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4091758728027</t>
+    <t xml:space="preserve">11.4091749191284</t>
   </si>
   <si>
     <t xml:space="preserve">10.7904844284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6574354171753</t>
+    <t xml:space="preserve">10.6574335098267</t>
   </si>
   <si>
     <t xml:space="preserve">10.3048458099365</t>
@@ -2081,25 +2081,25 @@
     <t xml:space="preserve">10.0853118896484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93895435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715835571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2782354354858</t>
+    <t xml:space="preserve">9.93895530700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715826034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2782363891602</t>
   </si>
   <si>
     <t xml:space="preserve">10.9368419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4424381256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8815078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.60875415802</t>
+    <t xml:space="preserve">11.442437171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8815088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6087532043457</t>
   </si>
   <si>
     <t xml:space="preserve">11.6819305419922</t>
@@ -2108,61 +2108,61 @@
     <t xml:space="preserve">11.6353626251221</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6020984649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0233249664307</t>
+    <t xml:space="preserve">11.6021013259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.023325920105</t>
   </si>
   <si>
     <t xml:space="preserve">10.5842552185059</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1098098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2495145797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5089626312256</t>
+    <t xml:space="preserve">11.1098108291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.24951171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5089645385742</t>
   </si>
   <si>
     <t xml:space="preserve">11.4025220870972</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9834098815918</t>
+    <t xml:space="preserve">10.9834108352661</t>
   </si>
   <si>
     <t xml:space="preserve">10.9634523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.475700378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.582142829895</t>
+    <t xml:space="preserve">11.3027334213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4757022857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5821409225464</t>
   </si>
   <si>
     <t xml:space="preserve">11.1630306243896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0299768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1364192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759126663208</t>
+    <t xml:space="preserve">11.0299777984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1364183425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759117126465</t>
   </si>
   <si>
     <t xml:space="preserve">11.0698938369751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6108655929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2008323669434</t>
+    <t xml:space="preserve">10.6108646392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.200834274292</t>
   </si>
   <si>
     <t xml:space="preserve">13.9038934707642</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">13.2319812774658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5068511962891</t>
+    <t xml:space="preserve">12.5068502426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.9613389968872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7684164047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.668625831604</t>
+    <t xml:space="preserve">11.7684144973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6686267852783</t>
   </si>
   <si>
     <t xml:space="preserve">11.6220579147339</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">11.3825654983521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0278644561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1343059539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2207918167114</t>
+    <t xml:space="preserve">12.0278654098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1343069076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2207908630371</t>
   </si>
   <si>
     <t xml:space="preserve">12.62659740448</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">12.0677804946899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4977722167969</t>
+    <t xml:space="preserve">10.4977712631226</t>
   </si>
   <si>
     <t xml:space="preserve">10.2915420532227</t>
@@ -2222,31 +2222,31 @@
     <t xml:space="preserve">9.9921760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0453968048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81920909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87242889404297</t>
+    <t xml:space="preserve">10.0453977584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81921005249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87242984771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.84581851959229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72607231140137</t>
+    <t xml:space="preserve">9.72607135772705</t>
   </si>
   <si>
     <t xml:space="preserve">9.78594589233398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97887134552002</t>
+    <t xml:space="preserve">9.9788703918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.89904022216797</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1651430130005</t>
+    <t xml:space="preserve">10.1651420593262</t>
   </si>
   <si>
     <t xml:space="preserve">10.4445514678955</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">10.4245939254761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4046363830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3248043060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975608825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6507806777954</t>
+    <t xml:space="preserve">10.4046354293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3248052597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975618362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6507816314697</t>
   </si>
   <si>
     <t xml:space="preserve">10.6840438842773</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">10.8104429244995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2869558334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9313497543335</t>
+    <t xml:space="preserve">11.2869548797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9313488006592</t>
   </si>
   <si>
     <t xml:space="preserve">10.6184148788452</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">10.1347904205322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94987487792969</t>
+    <t xml:space="preserve">9.94987392425537</t>
   </si>
   <si>
     <t xml:space="preserve">9.60849285125732</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">9.15331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21021366119385</t>
+    <t xml:space="preserve">9.21021270751953</t>
   </si>
   <si>
     <t xml:space="preserve">9.14620304107666</t>
@@ -2315,31 +2315,31 @@
     <t xml:space="preserve">8.87594223022461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66257762908936</t>
+    <t xml:space="preserve">8.66257953643799</t>
   </si>
   <si>
     <t xml:space="preserve">8.69813919067383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60568141937256</t>
+    <t xml:space="preserve">8.60568237304688</t>
   </si>
   <si>
     <t xml:space="preserve">8.32119560241699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49188709259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34964561462402</t>
+    <t xml:space="preserve">8.49188804626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34964466094971</t>
   </si>
   <si>
     <t xml:space="preserve">8.29274749755859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25007438659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10783290863037</t>
+    <t xml:space="preserve">8.250075340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10783195495605</t>
   </si>
   <si>
     <t xml:space="preserve">8.0438232421875</t>
@@ -2360,25 +2360,25 @@
     <t xml:space="preserve">8.27141094207764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98692464828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02248859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9798150062561</t>
+    <t xml:space="preserve">7.98692560195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02248668670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97981405258179</t>
   </si>
   <si>
     <t xml:space="preserve">8.15761756896973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47766304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83327007293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6270170211792</t>
+    <t xml:space="preserve">8.47766208648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8332691192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62701797485352</t>
   </si>
   <si>
     <t xml:space="preserve">8.47055149078369</t>
@@ -2390,25 +2390,25 @@
     <t xml:space="preserve">8.54167175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57723236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44210338592529</t>
+    <t xml:space="preserve">8.57723331451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44210243225098</t>
   </si>
   <si>
     <t xml:space="preserve">8.7905969619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99684810638428</t>
+    <t xml:space="preserve">8.99684906005859</t>
   </si>
   <si>
     <t xml:space="preserve">9.57293128967285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51603412628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56581878662109</t>
+    <t xml:space="preserve">9.51603507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56581974029541</t>
   </si>
   <si>
     <t xml:space="preserve">9.67250156402588</t>
@@ -2417,16 +2417,16 @@
     <t xml:space="preserve">9.43780136108398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43068885803223</t>
+    <t xml:space="preserve">9.43068981170654</t>
   </si>
   <si>
     <t xml:space="preserve">9.33823108673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40935325622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85030460357666</t>
+    <t xml:space="preserve">9.40935230255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85030555725098</t>
   </si>
   <si>
     <t xml:space="preserve">9.83608055114746</t>
@@ -2435,13 +2435,13 @@
     <t xml:space="preserve">9.8289680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62271690368652</t>
+    <t xml:space="preserve">9.62271595001221</t>
   </si>
   <si>
     <t xml:space="preserve">9.48758602142334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70806312561035</t>
+    <t xml:space="preserve">9.70806121826172</t>
   </si>
   <si>
     <t xml:space="preserve">9.71517372131348</t>
@@ -2453,52 +2453,52 @@
     <t xml:space="preserve">9.4662504196167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53025913238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22443866729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1248664855957</t>
+    <t xml:space="preserve">9.53025817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22443771362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12486743927002</t>
   </si>
   <si>
     <t xml:space="preserve">9.39512825012207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92853832244873</t>
+    <t xml:space="preserve">9.92853736877441</t>
   </si>
   <si>
     <t xml:space="preserve">9.80763149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77207088470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0352210998535</t>
+    <t xml:space="preserve">9.77207183837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0352201461792</t>
   </si>
   <si>
     <t xml:space="preserve">9.33111953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91861534118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65546703338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08930587768555</t>
+    <t xml:space="preserve">8.91861438751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08930683135986</t>
   </si>
   <si>
     <t xml:space="preserve">9.16754055023193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2742223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20310115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1106424331665</t>
+    <t xml:space="preserve">9.27422142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20310020446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11064434051514</t>
   </si>
   <si>
     <t xml:space="preserve">9.06085777282715</t>
@@ -2510,13 +2510,13 @@
     <t xml:space="preserve">9.64405345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92142581939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0423336029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1419019699097</t>
+    <t xml:space="preserve">9.92142486572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.042332649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1419038772583</t>
   </si>
   <si>
     <t xml:space="preserve">10.3979387283325</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">10.3837146759033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4548368453979</t>
+    <t xml:space="preserve">10.4548358917236</t>
   </si>
   <si>
     <t xml:space="preserve">10.5117330551147</t>
@@ -2534,19 +2534,19 @@
     <t xml:space="preserve">10.5401821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6610870361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9028997421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9100141525269</t>
+    <t xml:space="preserve">10.6610879898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9100131988525</t>
   </si>
   <si>
     <t xml:space="preserve">10.703761100769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8815650939941</t>
+    <t xml:space="preserve">10.8815641403198</t>
   </si>
   <si>
     <t xml:space="preserve">10.895788192749</t>
@@ -2558,13 +2558,13 @@
     <t xml:space="preserve">10.5330696105957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6326389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8886775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753120422363</t>
+    <t xml:space="preserve">10.6326398849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8886756896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753129959106</t>
   </si>
   <si>
     <t xml:space="preserve">10.4690608978271</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">10.2343606948853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628078460693</t>
+    <t xml:space="preserve">10.2628087997437</t>
   </si>
   <si>
     <t xml:space="preserve">10.3766021728516</t>
@@ -2582,22 +2582,22 @@
     <t xml:space="preserve">10.0067720413208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3054800033569</t>
+    <t xml:space="preserve">10.3054809570312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4761724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7677698135376</t>
+    <t xml:space="preserve">10.7677717208862</t>
   </si>
   <si>
     <t xml:space="preserve">10.7108726501465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7393217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8602275848389</t>
+    <t xml:space="preserve">10.7393226623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8602285385132</t>
   </si>
   <si>
     <t xml:space="preserve">10.9455738067627</t>
@@ -2612,31 +2612,31 @@
     <t xml:space="preserve">10.7464332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8673410415649</t>
+    <t xml:space="preserve">10.8673400878906</t>
   </si>
   <si>
     <t xml:space="preserve">10.9811334609985</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2442836761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3908262252808</t>
+    <t xml:space="preserve">11.2442827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3908271789551</t>
   </si>
   <si>
     <t xml:space="preserve">10.8531160354614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.208722114563</t>
+    <t xml:space="preserve">11.2087230682373</t>
   </si>
   <si>
     <t xml:space="preserve">11.2585077285767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5828561782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3552665710449</t>
+    <t xml:space="preserve">10.5828552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3552656173706</t>
   </si>
   <si>
     <t xml:space="preserve">10.2770328521729</t>
@@ -2645,76 +2645,76 @@
     <t xml:space="preserve">10.1632385253906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1063423156738</t>
+    <t xml:space="preserve">10.1063413619995</t>
   </si>
   <si>
     <t xml:space="preserve">9.96409893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98543548583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87164115905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94276142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8147439956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63694095611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72939872741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65827751159668</t>
+    <t xml:space="preserve">9.98543453216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87164211273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94276237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81474494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63694190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72939968109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65827655792236</t>
   </si>
   <si>
     <t xml:space="preserve">9.47336101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42357730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54448223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75073623657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75784683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69383907318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74362277984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1703519821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95698642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565576553345</t>
+    <t xml:space="preserve">9.42357635498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54448318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75073432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75784778594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69383811950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74362182617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1703510284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95698738098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565567016602</t>
   </si>
   <si>
     <t xml:space="preserve">10.1561260223389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0707817077637</t>
+    <t xml:space="preserve">10.0707807540894</t>
   </si>
   <si>
     <t xml:space="preserve">10.0494451522827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1916875839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99965953826904</t>
+    <t xml:space="preserve">10.191686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99966049194336</t>
   </si>
   <si>
     <t xml:space="preserve">9.82185745239258</t>
@@ -2726,25 +2726,25 @@
     <t xml:space="preserve">10.5472936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5259571075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4619493484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4832849502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2556972503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2272472381592</t>
+    <t xml:space="preserve">10.5259580612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4619483947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.483283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2556962966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2272491455078</t>
   </si>
   <si>
     <t xml:space="preserve">10.7179851531982</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4192762374878</t>
+    <t xml:space="preserve">10.4192743301392</t>
   </si>
   <si>
     <t xml:space="preserve">10.1987991333008</t>
@@ -2756,25 +2756,25 @@
     <t xml:space="preserve">10.6682004928589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7819938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1447114944458</t>
+    <t xml:space="preserve">10.7819948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1447134017944</t>
   </si>
   <si>
     <t xml:space="preserve">11.137601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0735912322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1518259048462</t>
+    <t xml:space="preserve">11.0735921859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1518249511719</t>
   </si>
   <si>
     <t xml:space="preserve">11.0024709701538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1589365005493</t>
+    <t xml:space="preserve">11.1589374542236</t>
   </si>
   <si>
     <t xml:space="preserve">10.2841444015503</t>
@@ -2783,28 +2783,28 @@
     <t xml:space="preserve">10.5046215057373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77918434143066</t>
+    <t xml:space="preserve">9.77918243408203</t>
   </si>
   <si>
     <t xml:space="preserve">9.24577331542969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69102668762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56731081008911</t>
+    <t xml:space="preserve">8.69102764129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56731033325195</t>
   </si>
   <si>
     <t xml:space="preserve">7.27571153640747</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25437688827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734140396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52893877029419</t>
+    <t xml:space="preserve">7.25437498092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734188079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52893829345703</t>
   </si>
   <si>
     <t xml:space="preserve">6.17333221435547</t>
@@ -2816,79 +2816,79 @@
     <t xml:space="preserve">6.00264024734497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98130369186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32979822158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12710285186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4222559928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45426177978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57872343063354</t>
+    <t xml:space="preserve">5.98130464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32979917526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12710332870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42225694656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.454261302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57872295379639</t>
   </si>
   <si>
     <t xml:space="preserve">6.49693441390991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2266731262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36535978317261</t>
+    <t xml:space="preserve">6.22667360305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36535882949829</t>
   </si>
   <si>
     <t xml:space="preserve">6.33335447311401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26934480667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35824728012085</t>
+    <t xml:space="preserve">6.26934576034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35824680328369</t>
   </si>
   <si>
     <t xml:space="preserve">6.41870021820068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56449842453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53960704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57161092758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4151439666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28357028961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34402322769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35113477706909</t>
+    <t xml:space="preserve">6.5644998550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53960752487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57161140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28356981277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34402227401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35113525390625</t>
   </si>
   <si>
     <t xml:space="preserve">6.04531335830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92085123062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06664943695068</t>
+    <t xml:space="preserve">5.92085075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06664991378784</t>
   </si>
   <si>
     <t xml:space="preserve">6.39380741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52182626724243</t>
+    <t xml:space="preserve">6.52182722091675</t>
   </si>
   <si>
     <t xml:space="preserve">6.34757947921753</t>
@@ -2900,10 +2900,10 @@
     <t xml:space="preserve">6.18044328689575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14132785797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01686477661133</t>
+    <t xml:space="preserve">6.14132690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01686525344849</t>
   </si>
   <si>
     <t xml:space="preserve">6.11287879943848</t>
@@ -2912,34 +2912,34 @@
     <t xml:space="preserve">6.02753353118896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94574356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85684204101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74660348892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71104335784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68970727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44078254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29142808914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17763328552246</t>
+    <t xml:space="preserve">5.94574308395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85684156417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74660396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71104288101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68970680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44078207015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29142761230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1776328086853</t>
   </si>
   <si>
     <t xml:space="preserve">5.19185733795166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47634315490723</t>
+    <t xml:space="preserve">5.47634267807007</t>
   </si>
   <si>
     <t xml:space="preserve">5.69681930541992</t>
@@ -2948,22 +2948,22 @@
     <t xml:space="preserve">5.86750984191895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97063636779785</t>
+    <t xml:space="preserve">5.97063589096069</t>
   </si>
   <si>
     <t xml:space="preserve">5.89951515197754</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93863105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29779386520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53605031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87743330001831</t>
+    <t xml:space="preserve">5.93863201141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29779434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53604984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87743377685547</t>
   </si>
   <si>
     <t xml:space="preserve">7.3681697845459</t>
@@ -2972,28 +2972,28 @@
     <t xml:space="preserve">6.91299390792847</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69962930679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2408971786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19466829299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36180353164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46492910385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40091943740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30490684509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14488315582275</t>
+    <t xml:space="preserve">6.69963026046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24089622497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19466924667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36180400848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46493005752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40092039108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30490636825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14488363265991</t>
   </si>
   <si>
     <t xml:space="preserve">6.0879864692688</t>
@@ -3005,76 +3005,76 @@
     <t xml:space="preserve">5.84617376327515</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9101824760437</t>
+    <t xml:space="preserve">5.91018295288086</t>
   </si>
   <si>
     <t xml:space="preserve">6.04175710678101</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0808744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0630931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20889234542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32624340057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45070552825928</t>
+    <t xml:space="preserve">6.08087396621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06309366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20889186859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32624292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45070457458496</t>
   </si>
   <si>
     <t xml:space="preserve">6.37958431243896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4827094078064</t>
+    <t xml:space="preserve">6.48270988464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.4613733291626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8489842414856</t>
+    <t xml:space="preserve">6.84898376464844</t>
   </si>
   <si>
     <t xml:space="preserve">6.98055934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03745698928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81342363357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66406965255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50760126113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35469102859497</t>
+    <t xml:space="preserve">7.03745651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81342315673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66406869888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50760173797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35469198226929</t>
   </si>
   <si>
     <t xml:space="preserve">6.16621971130371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16266393661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38669538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39736318588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25156545639038</t>
+    <t xml:space="preserve">6.16266345977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38669586181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39736461639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25156497955322</t>
   </si>
   <si>
     <t xml:space="preserve">6.52538251876831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50049066543579</t>
+    <t xml:space="preserve">6.50049018859863</t>
   </si>
   <si>
     <t xml:space="preserve">6.53249502182007</t>
@@ -3083,13 +3083,13 @@
     <t xml:space="preserve">6.40447664260864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37247133255005</t>
+    <t xml:space="preserve">6.37247228622437</t>
   </si>
   <si>
     <t xml:space="preserve">6.48626565933228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30846214294434</t>
+    <t xml:space="preserve">6.30846166610718</t>
   </si>
   <si>
     <t xml:space="preserve">6.32268667221069</t>
@@ -3098,19 +3098,19 @@
     <t xml:space="preserve">6.37602758407593</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20177984237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14843988418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.137770652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27290201187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27645778656006</t>
+    <t xml:space="preserve">6.20178079605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14843940734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13777112960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27290153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2764573097229</t>
   </si>
   <si>
     <t xml:space="preserve">6.23022890090942</t>
@@ -3119,37 +3119,37 @@
     <t xml:space="preserve">6.26223373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46848678588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38314008712769</t>
+    <t xml:space="preserve">6.46848487854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38313961029053</t>
   </si>
   <si>
     <t xml:space="preserve">6.28001356124878</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05598211288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9279637336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87106609344482</t>
+    <t xml:space="preserve">6.05598163604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92796325683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87106657028198</t>
   </si>
   <si>
     <t xml:space="preserve">5.97419166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83194971084595</t>
+    <t xml:space="preserve">5.83194923400879</t>
   </si>
   <si>
     <t xml:space="preserve">5.84973001480103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73238039016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73593521118164</t>
+    <t xml:space="preserve">5.73237991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73593616485596</t>
   </si>
   <si>
     <t xml:space="preserve">5.75016021728516</t>
@@ -3167,22 +3167,22 @@
     <t xml:space="preserve">5.82839298248291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73949193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57946825027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63281011581421</t>
+    <t xml:space="preserve">5.73949146270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57946872711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63280963897705</t>
   </si>
   <si>
     <t xml:space="preserve">5.58302450180054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5759129524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61858558654785</t>
+    <t xml:space="preserve">5.57591247558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61858606338501</t>
   </si>
   <si>
     <t xml:space="preserve">5.7217116355896</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">5.49412298202515</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41233396530151</t>
+    <t xml:space="preserve">5.41233348846436</t>
   </si>
   <si>
     <t xml:space="preserve">5.29498338699341</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">5.30565166473389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95715665817261</t>
+    <t xml:space="preserve">4.95715713500977</t>
   </si>
   <si>
     <t xml:space="preserve">4.7971339225769</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">4.89670419692993</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04605865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25942277908325</t>
+    <t xml:space="preserve">5.04605913162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25942230224609</t>
   </si>
   <si>
     <t xml:space="preserve">5.38744068145752</t>
@@ -3236,82 +3236,82 @@
     <t xml:space="preserve">5.78216457366943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75727224349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22311687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4258131980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44359254837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68185043334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6071720123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57516717910767</t>
+    <t xml:space="preserve">5.7572717666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22311639785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42581176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44359302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68184995651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60717248916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57516765594482</t>
   </si>
   <si>
     <t xml:space="preserve">6.58583545684814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49337816238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79208755493164</t>
+    <t xml:space="preserve">6.49337768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79208850860596</t>
   </si>
   <si>
     <t xml:space="preserve">6.92721796035767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94855499267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97700309753418</t>
+    <t xml:space="preserve">6.94855403900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97700357437134</t>
   </si>
   <si>
     <t xml:space="preserve">6.83831596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80986738204956</t>
+    <t xml:space="preserve">6.80986833572388</t>
   </si>
   <si>
     <t xml:space="preserve">6.74230241775513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66051244735718</t>
+    <t xml:space="preserve">6.66051292419434</t>
   </si>
   <si>
     <t xml:space="preserve">6.71385335922241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029901504517</t>
+    <t xml:space="preserve">6.71029853820801</t>
   </si>
   <si>
     <t xml:space="preserve">6.64273309707642</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63917636871338</t>
+    <t xml:space="preserve">6.63917684555054</t>
   </si>
   <si>
     <t xml:space="preserve">6.67118120193481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4755973815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54671907424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58939218521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58227968215942</t>
+    <t xml:space="preserve">6.47559690475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54671955108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58939170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58228015899658</t>
   </si>
   <si>
     <t xml:space="preserve">6.62495231628418</t>
@@ -3323,73 +3323,73 @@
     <t xml:space="preserve">6.56805467605591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30135011672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31201791763306</t>
+    <t xml:space="preserve">6.30134916305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31201887130737</t>
   </si>
   <si>
     <t xml:space="preserve">6.21244859695435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1093225479126</t>
+    <t xml:space="preserve">6.10932302474976</t>
   </si>
   <si>
     <t xml:space="preserve">5.90307092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01330900192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95641136169434</t>
+    <t xml:space="preserve">6.01330804824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95641183853149</t>
   </si>
   <si>
     <t xml:space="preserve">6.29423856735229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67829322814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88454580307007</t>
+    <t xml:space="preserve">6.67829275131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88454532623291</t>
   </si>
   <si>
     <t xml:space="preserve">7.03389978408813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43217897415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3397216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42506694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33260917663574</t>
+    <t xml:space="preserve">7.43217945098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33972120285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42506742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33261060714722</t>
   </si>
   <si>
     <t xml:space="preserve">7.32549858093262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24015188217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3041615486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3610577583313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58864641189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48196458816528</t>
+    <t xml:space="preserve">7.24015235900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30416202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36105823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58864593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48196506500244</t>
   </si>
   <si>
     <t xml:space="preserve">7.66687965393066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51752519607544</t>
+    <t xml:space="preserve">7.51752471923828</t>
   </si>
   <si>
     <t xml:space="preserve">7.5388617515564</t>
@@ -3398,85 +3398,85 @@
     <t xml:space="preserve">7.46062803268433</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93002843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90869188308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847749710083</t>
+    <t xml:space="preserve">7.93002939224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90869235992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847702026367</t>
   </si>
   <si>
     <t xml:space="preserve">8.16472911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22873878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12916851043701</t>
+    <t xml:space="preserve">8.22873783111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12916946411133</t>
   </si>
   <si>
     <t xml:space="preserve">8.15050506591797</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88024377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91580533981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97270154953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0864953994751</t>
+    <t xml:space="preserve">7.88024282455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91580438613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97270202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08649444580078</t>
   </si>
   <si>
     <t xml:space="preserve">8.10072040557861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0011510848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093574523926</t>
+    <t xml:space="preserve">8.00114917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093383789062</t>
   </si>
   <si>
     <t xml:space="preserve">8.07938385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86601972579956</t>
+    <t xml:space="preserve">7.86602067947388</t>
   </si>
   <si>
     <t xml:space="preserve">8.24296283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17895412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13628101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09360885620117</t>
+    <t xml:space="preserve">8.17895317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13628005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09360790252686</t>
   </si>
   <si>
     <t xml:space="preserve">7.78778553009033</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99403715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20740222930908</t>
+    <t xml:space="preserve">7.99403858184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20740127563477</t>
   </si>
   <si>
     <t xml:space="preserve">8.26430034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21451377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18606662750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2216272354126</t>
+    <t xml:space="preserve">8.21451473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18606472015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22162628173828</t>
   </si>
   <si>
     <t xml:space="preserve">8.27852344512939</t>
@@ -3488,25 +3488,25 @@
     <t xml:space="preserve">8.46343898773193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92572784423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28133487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30978298187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23866176605225</t>
+    <t xml:space="preserve">8.9257287979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28133392333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30978393554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23865985870361</t>
   </si>
   <si>
     <t xml:space="preserve">9.08219432830811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00395965576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85460662841797</t>
+    <t xml:space="preserve">9.00396060943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85460567474365</t>
   </si>
   <si>
     <t xml:space="preserve">9.04663372039795</t>
@@ -3518,7 +3518,7 @@
     <t xml:space="preserve">9.18176460266113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25999736785889</t>
+    <t xml:space="preserve">9.2599983215332</t>
   </si>
   <si>
     <t xml:space="preserve">9.21732425689697</t>
@@ -3527,94 +3527,94 @@
     <t xml:space="preserve">9.35245513916016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96128749847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91431331634521</t>
+    <t xml:space="preserve">8.96128940582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91431427001953</t>
   </si>
   <si>
     <t xml:space="preserve">9.79340839385986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5089225769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4520263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35956764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11775493621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66539096832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05374526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8574161529541</t>
+    <t xml:space="preserve">9.50892162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45202541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35956859588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11775398254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66539001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05374431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887615203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85741710662842</t>
   </si>
   <si>
     <t xml:space="preserve">9.87875366210938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88586521148682</t>
+    <t xml:space="preserve">9.8858642578125</t>
   </si>
   <si>
     <t xml:space="preserve">9.97832298278809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90008926391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89297676086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97121047973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1134548187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.412163734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.312593460083</t>
+    <t xml:space="preserve">9.90009021759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89297771453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97121143341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1134538650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4121646881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3623790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3125944137573</t>
   </si>
   <si>
     <t xml:space="preserve">10.3268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.40505027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1276788711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2983694076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406127929688</t>
+    <t xml:space="preserve">10.4050521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1276779174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2983684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406118392944</t>
   </si>
   <si>
     <t xml:space="preserve">10.4263877868652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5188455581665</t>
+    <t xml:space="preserve">10.5188446044922</t>
   </si>
   <si>
     <t xml:space="preserve">10.7891063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0451431274414</t>
+    <t xml:space="preserve">11.0451421737671</t>
   </si>
   <si>
     <t xml:space="preserve">11.0949296951294</t>
@@ -3626,10 +3626,10 @@
     <t xml:space="preserve">11.4434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4860954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2656202316284</t>
+    <t xml:space="preserve">11.4860944747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2656192779541</t>
   </si>
   <si>
     <t xml:space="preserve">11.8345899581909</t>
@@ -3644,19 +3644,19 @@
     <t xml:space="preserve">11.6141138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0621786117554</t>
+    <t xml:space="preserve">12.0621795654297</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496744155884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.891487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7421321868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.720796585083</t>
+    <t xml:space="preserve">11.8914861679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.742133140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7207956314087</t>
   </si>
   <si>
     <t xml:space="preserve">11.8985986709595</t>
@@ -3665,55 +3665,55 @@
     <t xml:space="preserve">11.7492446899414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1048526763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0977392196655</t>
+    <t xml:space="preserve">12.104850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0977411270142</t>
   </si>
   <si>
     <t xml:space="preserve">12.3790817260742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3486652374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965885162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9988880157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1053419113159</t>
+    <t xml:space="preserve">12.3486661911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.196590423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9988889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1053428649902</t>
   </si>
   <si>
     <t xml:space="preserve">12.2117967605591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1433610916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1585702896118</t>
+    <t xml:space="preserve">12.1433629989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1585693359375</t>
   </si>
   <si>
     <t xml:space="preserve">12.3106479644775</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4323091506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6528196334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288589477539</t>
+    <t xml:space="preserve">12.4323081970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288579940796</t>
   </si>
   <si>
     <t xml:space="preserve">12.7516717910767</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8505210876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8125028610229</t>
+    <t xml:space="preserve">12.8505220413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8125009536743</t>
   </si>
   <si>
     <t xml:space="preserve">12.6224050521851</t>
@@ -3722,10 +3722,10 @@
     <t xml:space="preserve">12.8809366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8581247329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7896890640259</t>
+    <t xml:space="preserve">12.8581228256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7896900177002</t>
   </si>
   <si>
     <t xml:space="preserve">12.6908397674561</t>
@@ -3734,25 +3734,25 @@
     <t xml:space="preserve">12.3866853713989</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2498168945312</t>
+    <t xml:space="preserve">12.2498159408569</t>
   </si>
   <si>
     <t xml:space="preserve">11.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0369081497192</t>
+    <t xml:space="preserve">12.0369071960449</t>
   </si>
   <si>
     <t xml:space="preserve">11.6034889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578651428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5426559448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9647636413574</t>
+    <t xml:space="preserve">11.5578660964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5426568984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9647645950317</t>
   </si>
   <si>
     <t xml:space="preserve">11.1092367172241</t>
@@ -3761,25 +3761,25 @@
     <t xml:space="preserve">11.2232961654663</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7479610443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5958833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5046377182007</t>
+    <t xml:space="preserve">11.7479600906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5958843231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.504638671875</t>
   </si>
   <si>
     <t xml:space="preserve">11.9228496551514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0901346206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9608688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.059718132019</t>
+    <t xml:space="preserve">12.0901336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9608678817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597190856934</t>
   </si>
   <si>
     <t xml:space="preserve">12.0064926147461</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">11.9000387191772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6186962127686</t>
+    <t xml:space="preserve">11.6186952590942</t>
   </si>
   <si>
     <t xml:space="preserve">11.8087921142578</t>
@@ -3797,25 +3797,25 @@
     <t xml:space="preserve">12.1509656906128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1357583999634</t>
+    <t xml:space="preserve">12.1357574462891</t>
   </si>
   <si>
     <t xml:space="preserve">12.9265584945679</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9797849655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.299147605896</t>
+    <t xml:space="preserve">12.9797868728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2991485595703</t>
   </si>
   <si>
     <t xml:space="preserve">13.451226234436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3599796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1318645477295</t>
+    <t xml:space="preserve">13.3599786758423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1318626403809</t>
   </si>
   <si>
     <t xml:space="preserve">13.3295640945435</t>
@@ -3824,67 +3824,67 @@
     <t xml:space="preserve">13.2839403152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4816408157349</t>
+    <t xml:space="preserve">13.4816398620605</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565294265747</t>
   </si>
   <si>
-    <t xml:space="preserve">13.717360496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8618326187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0291204452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5576791763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5120582580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9530801773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8238134384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0330142974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4664325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5880937576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6109066009521</t>
+    <t xml:space="preserve">13.7173624038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.861834526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0291194915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5576801300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5120573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9530811309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8238153457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0330123901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4664335250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5880966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6109056472778</t>
   </si>
   <si>
     <t xml:space="preserve">13.4892444610596</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4208087921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8998546600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7249641418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6261138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0063056945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5994100570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6031169891357</t>
+    <t xml:space="preserve">13.4208106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8998537063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7249631881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6261148452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0063076019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5994091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6031179428101</t>
   </si>
   <si>
     <t xml:space="preserve">15.7399864196777</t>
@@ -3896,55 +3896,55 @@
     <t xml:space="preserve">16.485164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.226634979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2722568511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3597946166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9796018600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9454765319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6678419113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4017086029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5652837753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8314199447632</t>
+    <t xml:space="preserve">16.2266330718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2722587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3597955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9796009063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9454774856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6678438186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4017066955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.565281867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8314180374146</t>
   </si>
   <si>
     <t xml:space="preserve">13.580491065979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3714790344238</t>
+    <t xml:space="preserve">12.3714780807495</t>
   </si>
   <si>
     <t xml:space="preserve">11.8316040039062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341621398926</t>
+    <t xml:space="preserve">12.9341640472412</t>
   </si>
   <si>
     <t xml:space="preserve">12.1281538009644</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5007438659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0482215881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.382791519165</t>
+    <t xml:space="preserve">12.5007429122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0482206344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3827896118164</t>
   </si>
   <si>
     <t xml:space="preserve">14.0823459625244</t>
@@ -3956,7 +3956,7 @@
     <t xml:space="preserve">14.0139102935791</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3636884689331</t>
+    <t xml:space="preserve">14.3636865615845</t>
   </si>
   <si>
     <t xml:space="preserve">14.2952537536621</t>
@@ -3968,28 +3968,28 @@
     <t xml:space="preserve">14.33327293396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3712921142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964025497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3180656433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.49684715271</t>
+    <t xml:space="preserve">14.3712911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964044570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3180637359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4968490600586</t>
   </si>
   <si>
     <t xml:space="preserve">13.9074573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7401733398438</t>
+    <t xml:space="preserve">13.7401704788208</t>
   </si>
   <si>
     <t xml:space="preserve">13.7933988571167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4740371704102</t>
+    <t xml:space="preserve">13.4740352630615</t>
   </si>
   <si>
     <t xml:space="preserve">13.8086061477661</t>
@@ -3998,40 +3998,40 @@
     <t xml:space="preserve">13.1470718383789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2915439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090517044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.477931022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7364625930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2231092453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5272645950317</t>
+    <t xml:space="preserve">13.2915449142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4779319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7364635467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.223108291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5272636413574</t>
   </si>
   <si>
     <t xml:space="preserve">13.238317489624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8334789276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8495635986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691373825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0425891876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9380350112915</t>
+    <t xml:space="preserve">13.833477973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8495626449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691383361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0425882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9380340576172</t>
   </si>
   <si>
     <t xml:space="preserve">14.018461227417</t>
@@ -4040,31 +4040,31 @@
     <t xml:space="preserve">13.6565380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6324100494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6082830429077</t>
+    <t xml:space="preserve">13.6324119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6082820892334</t>
   </si>
   <si>
     <t xml:space="preserve">13.5761108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.584153175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3509159088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1739740371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166078567505</t>
+    <t xml:space="preserve">13.5841541290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3509149551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.173975944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9166088104248</t>
   </si>
   <si>
     <t xml:space="preserve">12.1445083618164</t>
   </si>
   <si>
-    <t xml:space="preserve">11.525218963623</t>
+    <t xml:space="preserve">11.5252170562744</t>
   </si>
   <si>
     <t xml:space="preserve">11.6458578109741</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">11.7423715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5573892593384</t>
+    <t xml:space="preserve">11.5573883056641</t>
   </si>
   <si>
     <t xml:space="preserve">11.5493459701538</t>
@@ -4094,31 +4094,31 @@
     <t xml:space="preserve">11.5413036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.468918800354</t>
+    <t xml:space="preserve">11.4689197540283</t>
   </si>
   <si>
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8657140731812</t>
+    <t xml:space="preserve">11.2276372909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8657150268555</t>
   </si>
   <si>
     <t xml:space="preserve">10.7289886474609</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6726894378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2383832931519</t>
+    <t xml:space="preserve">10.6726903915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2383813858032</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579551696777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3751087188721</t>
+    <t xml:space="preserve">10.3751096725464</t>
   </si>
   <si>
     <t xml:space="preserve">10.664647102356</t>
@@ -4133,16 +4133,16 @@
     <t xml:space="preserve">9.96493053436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48236656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70756244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841869354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1257848739624</t>
+    <t xml:space="preserve">9.48236751556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70756340026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1257839202881</t>
   </si>
   <si>
     <t xml:space="preserve">10.1659984588623</t>
@@ -4151,19 +4151,19 @@
     <t xml:space="preserve">10.1016569137573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1820831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4877071380615</t>
+    <t xml:space="preserve">10.1820840835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4877061843872</t>
   </si>
   <si>
     <t xml:space="preserve">10.1338272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3027238845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3348960876465</t>
+    <t xml:space="preserve">10.3027257919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3348951339722</t>
   </si>
   <si>
     <t xml:space="preserve">10.535964012146</t>
@@ -4175,13 +4175,13 @@
     <t xml:space="preserve">10.5118350982666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.946141242981</t>
+    <t xml:space="preserve">10.9461421966553</t>
   </si>
   <si>
     <t xml:space="preserve">11.0185260772705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9783124923706</t>
+    <t xml:space="preserve">10.9783134460449</t>
   </si>
   <si>
     <t xml:space="preserve">10.6968173980713</t>
@@ -4190,10 +4190,10 @@
     <t xml:space="preserve">10.415322303772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5279197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7852869033813</t>
+    <t xml:space="preserve">10.5279216766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7852878570557</t>
   </si>
   <si>
     <t xml:space="preserve">10.9702701568604</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">10.1418695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177415847778</t>
+    <t xml:space="preserve">10.1177425384521</t>
   </si>
   <si>
     <t xml:space="preserve">9.97297286987305</t>
@@ -4223,25 +4223,25 @@
     <t xml:space="preserve">9.69147777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61105060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36172676086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5547513961792</t>
+    <t xml:space="preserve">9.61104965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36172580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55475234985352</t>
   </si>
   <si>
     <t xml:space="preserve">9.28934192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24108409881592</t>
+    <t xml:space="preserve">9.24108505249023</t>
   </si>
   <si>
     <t xml:space="preserve">9.1043586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18478584289551</t>
+    <t xml:space="preserve">9.18478679656982</t>
   </si>
   <si>
     <t xml:space="preserve">9.39389705657959</t>
@@ -4253,10 +4253,10 @@
     <t xml:space="preserve">9.92471694946289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614423751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8362455368042</t>
+    <t xml:space="preserve">10.0614433288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83624649047852</t>
   </si>
   <si>
     <t xml:space="preserve">9.77994728088379</t>
@@ -4268,7 +4268,7 @@
     <t xml:space="preserve">9.49845314025879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17674350738525</t>
+    <t xml:space="preserve">9.17674446105957</t>
   </si>
   <si>
     <t xml:space="preserve">9.19282913208008</t>
@@ -4277,10 +4277,10 @@
     <t xml:space="preserve">9.04001712799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94350337982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65396785736084</t>
+    <t xml:space="preserve">8.94350433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65396690368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.15261554718018</t>
@@ -4289,7 +4289,7 @@
     <t xml:space="preserve">9.25717067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16065883636475</t>
+    <t xml:space="preserve">9.16065788269043</t>
   </si>
   <si>
     <t xml:space="preserve">9.06414604187012</t>
@@ -4301,28 +4301,28 @@
     <t xml:space="preserve">8.87916374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97567653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8469934463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85503482818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11240100860596</t>
+    <t xml:space="preserve">8.97567558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84699153900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85503578186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11240196228027</t>
   </si>
   <si>
     <t xml:space="preserve">9.0882740020752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1284875869751</t>
+    <t xml:space="preserve">9.12848854064941</t>
   </si>
   <si>
     <t xml:space="preserve">9.22500038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32955646514893</t>
+    <t xml:space="preserve">9.32955551147461</t>
   </si>
   <si>
     <t xml:space="preserve">9.41802501678467</t>
@@ -4331,22 +4331,22 @@
     <t xml:space="preserve">9.58692169189453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77190494537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81211948394775</t>
+    <t xml:space="preserve">9.77190399169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81211853027344</t>
   </si>
   <si>
     <t xml:space="preserve">10.5198774337769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.479663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8255004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0506973266602</t>
+    <t xml:space="preserve">10.4796648025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8255014419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0506982803345</t>
   </si>
   <si>
     <t xml:space="preserve">11.1954660415649</t>
@@ -4355,10 +4355,10 @@
     <t xml:space="preserve">11.1632947921753</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1230812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.00244140625</t>
+    <t xml:space="preserve">11.1230821609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0024423599243</t>
   </si>
   <si>
     <t xml:space="preserve">11.3643636703491</t>
@@ -4367,7 +4367,7 @@
     <t xml:space="preserve">11.3037767410278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3383979797363</t>
+    <t xml:space="preserve">11.3383989334106</t>
   </si>
   <si>
     <t xml:space="preserve">11.3557081222534</t>
@@ -4379,10 +4379,10 @@
     <t xml:space="preserve">11.3816738128662</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4249505996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2778100967407</t>
+    <t xml:space="preserve">11.4249496459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.277811050415</t>
   </si>
   <si>
     <t xml:space="preserve">11.2951211929321</t>
@@ -4394,7 +4394,7 @@
     <t xml:space="preserve">11.0441188812256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8537034988403</t>
+    <t xml:space="preserve">10.853702545166</t>
   </si>
   <si>
     <t xml:space="preserve">10.8710136413574</t>
@@ -4409,31 +4409,31 @@
     <t xml:space="preserve">11.1739473342896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1999139785767</t>
+    <t xml:space="preserve">11.1999130249023</t>
   </si>
   <si>
     <t xml:space="preserve">11.0008420944214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0960502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5720901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3730192184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941921234131</t>
+    <t xml:space="preserve">11.0960493087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5720891952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3730182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941930770874</t>
   </si>
   <si>
     <t xml:space="preserve">11.4162950515747</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5115022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5201587677002</t>
+    <t xml:space="preserve">11.5115032196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5201578140259</t>
   </si>
   <si>
     <t xml:space="preserve">11.6326761245728</t>
@@ -4445,28 +4445,28 @@
     <t xml:space="preserve">12.1000604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1346826553345</t>
+    <t xml:space="preserve">12.1346817016602</t>
   </si>
   <si>
     <t xml:space="preserve">12.1433372497559</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3164415359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3424081802368</t>
+    <t xml:space="preserve">12.316442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3424091339111</t>
   </si>
   <si>
     <t xml:space="preserve">12.4116506576538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4982023239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4722366333008</t>
+    <t xml:space="preserve">12.4982032775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808921813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4722375869751</t>
   </si>
   <si>
     <t xml:space="preserve">12.4376163482666</t>
@@ -4475,13 +4475,13 @@
     <t xml:space="preserve">12.3077869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5501346588135</t>
+    <t xml:space="preserve">12.5501356124878</t>
   </si>
   <si>
     <t xml:space="preserve">12.5328235626221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3337526321411</t>
+    <t xml:space="preserve">12.3337535858154</t>
   </si>
   <si>
     <t xml:space="preserve">12.5674457550049</t>
@@ -4490,13 +4490,13 @@
     <t xml:space="preserve">12.6193771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0088624954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2858333587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3810396194458</t>
+    <t xml:space="preserve">13.0088634490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2858324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3810405731201</t>
   </si>
   <si>
     <t xml:space="preserve">13.6060781478882</t>
@@ -4505,13 +4505,13 @@
     <t xml:space="preserve">13.5368347167969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6406984329224</t>
+    <t xml:space="preserve">13.640697479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.7705268859863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7618722915649</t>
+    <t xml:space="preserve">13.7618713378906</t>
   </si>
   <si>
     <t xml:space="preserve">13.9955644607544</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">14.1167373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0907726287842</t>
+    <t xml:space="preserve">14.0907716751099</t>
   </si>
   <si>
     <t xml:space="preserve">13.7878379821777</t>
@@ -4547,13 +4547,13 @@
     <t xml:space="preserve">13.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4502820968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5281791687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.554144859314</t>
+    <t xml:space="preserve">13.4502830505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5281801223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5541458129883</t>
   </si>
   <si>
     <t xml:space="preserve">13.1040725708008</t>
@@ -4568,7 +4568,7 @@
     <t xml:space="preserve">12.2212352752686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.23854637146</t>
+    <t xml:space="preserve">12.2385454177856</t>
   </si>
   <si>
     <t xml:space="preserve">12.2039241790771</t>
@@ -4586,34 +4586,34 @@
     <t xml:space="preserve">11.7798156738281</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9442663192749</t>
+    <t xml:space="preserve">11.9442672729492</t>
   </si>
   <si>
     <t xml:space="preserve">12.0914058685303</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0827512741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9961967468262</t>
+    <t xml:space="preserve">12.0827503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9961977005005</t>
   </si>
   <si>
     <t xml:space="preserve">12.1606483459473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2904767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.740550994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6713085174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9482765197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0607948303223</t>
+    <t xml:space="preserve">12.2904758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7405500411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6713094711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9482774734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0607957839966</t>
   </si>
   <si>
     <t xml:space="preserve">12.9915533065796</t>
@@ -4625,10 +4625,10 @@
     <t xml:space="preserve">13.3377637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1560029983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0867614746094</t>
+    <t xml:space="preserve">13.1560039520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0867605209351</t>
   </si>
   <si>
     <t xml:space="preserve">13.1733140945435</t>
@@ -4637,10 +4637,10 @@
     <t xml:space="preserve">12.7232398986816</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7578611373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9828987121582</t>
+    <t xml:space="preserve">12.7578601837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9828977584839</t>
   </si>
   <si>
     <t xml:space="preserve">13.1213827133179</t>
@@ -4649,16 +4649,16 @@
     <t xml:space="preserve">12.454927444458</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4895477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4635820388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0999460220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287494659424</t>
+    <t xml:space="preserve">12.4895486831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4635810852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0999450683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287504196167</t>
   </si>
   <si>
     <t xml:space="preserve">12.8240633010864</t>
@@ -4679,22 +4679,22 @@
     <t xml:space="preserve">12.4591875076294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.654974937439</t>
+    <t xml:space="preserve">12.6549739837646</t>
   </si>
   <si>
     <t xml:space="preserve">12.7973651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816730499268</t>
+    <t xml:space="preserve">12.6816720962524</t>
   </si>
   <si>
     <t xml:space="preserve">12.7528676986694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.743968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6905717849731</t>
+    <t xml:space="preserve">12.7439680099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6905727386475</t>
   </si>
   <si>
     <t xml:space="preserve">12.583779335022</t>
@@ -4712,13 +4712,13 @@
     <t xml:space="preserve">12.5570802688599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512583732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5036849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.726170539856</t>
+    <t xml:space="preserve">12.5125846862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5036840438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7261695861816</t>
   </si>
   <si>
     <t xml:space="preserve">12.5303821563721</t>
@@ -4748,13 +4748,13 @@
     <t xml:space="preserve">13.0020513534546</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1355428695679</t>
+    <t xml:space="preserve">13.1355438232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.9931526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266441345215</t>
+    <t xml:space="preserve">13.1266431808472</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957315444946</t>
@@ -4763,10 +4763,10 @@
     <t xml:space="preserve">13.384726524353</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4737205505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6606092453003</t>
+    <t xml:space="preserve">13.4737215042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.660608291626</t>
   </si>
   <si>
     <t xml:space="preserve">13.6161117553711</t>
@@ -4784,7 +4784,7 @@
     <t xml:space="preserve">13.6517095565796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8652954101562</t>
+    <t xml:space="preserve">13.8652944564819</t>
   </si>
   <si>
     <t xml:space="preserve">14.1767749786377</t>
@@ -4808,7 +4808,7 @@
     <t xml:space="preserve">14.4348573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1233787536621</t>
+    <t xml:space="preserve">14.1233777999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2479705810547</t>
@@ -4823,10 +4823,10 @@
     <t xml:space="preserve">14.3992605209351</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5149526596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945734024048</t>
+    <t xml:space="preserve">14.5149517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945743560791</t>
   </si>
   <si>
     <t xml:space="preserve">14.1322774887085</t>
@@ -4841,10 +4841,10 @@
     <t xml:space="preserve">14.3458652496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3814611434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882555007935</t>
+    <t xml:space="preserve">14.381462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882545471191</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793558120728</t>
@@ -4856,7 +4856,7 @@
     <t xml:space="preserve">14.2212715148926</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9453907012939</t>
+    <t xml:space="preserve">13.9453897476196</t>
   </si>
   <si>
     <t xml:space="preserve">13.8207979202271</t>
@@ -4877,10 +4877,10 @@
     <t xml:space="preserve">13.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9364900588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0699815750122</t>
+    <t xml:space="preserve">13.9364910125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0699825286865</t>
   </si>
   <si>
     <t xml:space="preserve">14.1589756011963</t>
@@ -4901,19 +4901,19 @@
     <t xml:space="preserve">14.4615564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6662425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421262741089</t>
+    <t xml:space="preserve">14.6662435531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421253204346</t>
   </si>
   <si>
     <t xml:space="preserve">14.8353319168091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6128463745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6484441757202</t>
+    <t xml:space="preserve">14.612847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6484432220459</t>
   </si>
   <si>
     <t xml:space="preserve">14.6306457519531</t>
@@ -4931,25 +4931,25 @@
     <t xml:space="preserve">13.6962070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1856746673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3547620773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887281417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7552366256714</t>
+    <t xml:space="preserve">14.1856737136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3547630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5327520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7552375793457</t>
   </si>
   <si>
     <t xml:space="preserve">14.7997331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.951024055481</t>
+    <t xml:space="preserve">14.9510231018066</t>
   </si>
   <si>
     <t xml:space="preserve">15.4137935638428</t>
@@ -4961,13 +4961,13 @@
     <t xml:space="preserve">15.3336992263794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1913080215454</t>
+    <t xml:space="preserve">15.1913089752197</t>
   </si>
   <si>
     <t xml:space="preserve">15.1290130615234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3514976501465</t>
+    <t xml:space="preserve">15.3514995574951</t>
   </si>
   <si>
     <t xml:space="preserve">15.2654151916504</t>
@@ -5304,6 +5304,9 @@
   </si>
   <si>
     <t xml:space="preserve">18.9300003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3500003814697</t>
   </si>
 </sst>
 </file>
@@ -61571,7 +61574,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6493402778</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>293120</v>
@@ -61592,6 +61595,32 @@
         <v>1763</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.649537037</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>123974</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>19.5100002288818</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>19.0900001525879</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>19.1000003814697</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>19.3500003814697</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="1767">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">17.306079864502</t>
+    <t xml:space="preserve">17.3060817718506</t>
   </si>
   <si>
     <t xml:space="preserve">IF.MI</t>
@@ -50,43 +50,43 @@
     <t xml:space="preserve">16.850980758667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9961338043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8669815063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5902338027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3466815948486</t>
+    <t xml:space="preserve">15.9961318969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116340637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.866979598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5902318954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3466835021973</t>
   </si>
   <si>
     <t xml:space="preserve">15.2335357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9407844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1006851196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8731327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9063320159912</t>
+    <t xml:space="preserve">15.9407825469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1006832122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8731346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9063358306885</t>
   </si>
   <si>
     <t xml:space="preserve">16.9309329986572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5274829864502</t>
+    <t xml:space="preserve">17.5274810791016</t>
   </si>
   <si>
     <t xml:space="preserve">17.5336303710938</t>
@@ -98,37 +98,37 @@
     <t xml:space="preserve">17.7119808197021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.650484085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3429832458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6849327087402</t>
+    <t xml:space="preserve">17.6504802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.342981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6849308013916</t>
   </si>
   <si>
     <t xml:space="preserve">16.4512348175049</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9899845123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3602342605591</t>
+    <t xml:space="preserve">15.9899826049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.360237121582</t>
   </si>
   <si>
     <t xml:space="preserve">14.4032850265503</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1105327606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1412858963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.202784538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9838352203369</t>
+    <t xml:space="preserve">15.1105346679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1412839889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2027807235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9838333129883</t>
   </si>
   <si>
     <t xml:space="preserve">15.8792839050293</t>
@@ -137,79 +137,79 @@
     <t xml:space="preserve">15.7808828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6947832107544</t>
+    <t xml:space="preserve">15.694785118103</t>
   </si>
   <si>
     <t xml:space="preserve">15.7624349594116</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9739837646484</t>
+    <t xml:space="preserve">16.9739799499512</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2113838195801</t>
+    <t xml:space="preserve">16.2113819122314</t>
   </si>
   <si>
     <t xml:space="preserve">16.7218341827393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.60498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5434818267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0416297912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8079299926758</t>
+    <t xml:space="preserve">16.6049823760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5434799194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0416355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8079319000244</t>
   </si>
   <si>
     <t xml:space="preserve">16.4819812774658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8854331970215</t>
+    <t xml:space="preserve">15.8854312896729</t>
   </si>
   <si>
     <t xml:space="preserve">16.0084342956543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5779314041138</t>
+    <t xml:space="preserve">15.5779294967651</t>
   </si>
   <si>
     <t xml:space="preserve">15.9284820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1867847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6972332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9124813079834</t>
+    <t xml:space="preserve">16.1867828369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6972312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.912483215332</t>
   </si>
   <si>
     <t xml:space="preserve">17.5951309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8534317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6996841430664</t>
+    <t xml:space="preserve">17.8534336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996822357178</t>
   </si>
   <si>
     <t xml:space="preserve">17.5582313537598</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7242794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.749547958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1285438537598</t>
+    <t xml:space="preserve">17.7242813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7495460510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1285419464111</t>
   </si>
   <si>
     <t xml:space="preserve">18.3875217437744</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">17.1557903289795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2442226409912</t>
+    <t xml:space="preserve">17.2442207336426</t>
   </si>
   <si>
     <t xml:space="preserve">17.3579196929932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4716186523438</t>
+    <t xml:space="preserve">17.4716167449951</t>
   </si>
   <si>
     <t xml:space="preserve">17.1936893463135</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">16.757848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6504650115967</t>
+    <t xml:space="preserve">16.650463104248</t>
   </si>
   <si>
     <t xml:space="preserve">16.9157619476318</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">16.448335647583</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3283214569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0440731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0819721221924</t>
+    <t xml:space="preserve">16.3283195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0440769195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.081974029541</t>
   </si>
   <si>
     <t xml:space="preserve">16.1704082489014</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">16.0061740875244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7787780761719</t>
+    <t xml:space="preserve">15.7787799835205</t>
   </si>
   <si>
     <t xml:space="preserve">15.5261163711548</t>
@@ -284,37 +284,37 @@
     <t xml:space="preserve">15.5766477584839</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0334243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.001841545105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544322967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4144010543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.117525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2754383087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0354051589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7258968353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8964443206787</t>
+    <t xml:space="preserve">15.0334234237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0018424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544313430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4143981933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1175241470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2754364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0354080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7258977890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8964433670044</t>
   </si>
   <si>
     <t xml:space="preserve">13.9532899856567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5806131362915</t>
+    <t xml:space="preserve">13.5806150436401</t>
   </si>
   <si>
     <t xml:space="preserve">13.8332767486572</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">15.34925365448</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1597585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9134120941162</t>
+    <t xml:space="preserve">15.1597547531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9134101867676</t>
   </si>
   <si>
     <t xml:space="preserve">15.0271081924438</t>
@@ -344,52 +344,52 @@
     <t xml:space="preserve">14.5912666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6923294067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649305343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2564859390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0543584823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8016958236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4226999282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.258469581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1068716049194</t>
+    <t xml:space="preserve">14.6923303604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649353027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2564868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0543575286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8016929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4227018356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2584686279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1068706512451</t>
   </si>
   <si>
     <t xml:space="preserve">12.7657785415649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4479675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9153919219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8522281646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2817554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3279523849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1929512023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877035140991</t>
+    <t xml:space="preserve">13.4479665756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9153938293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8522272109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2817535400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.327953338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1929531097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877006530762</t>
   </si>
   <si>
     <t xml:space="preserve">11.350866317749</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">11.4771995544434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.496148109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9276580810547</t>
+    <t xml:space="preserve">11.4961490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9276571273804</t>
   </si>
   <si>
     <t xml:space="preserve">10.5360307693481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5233974456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7002611160278</t>
+    <t xml:space="preserve">10.5233964920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7002601623535</t>
   </si>
   <si>
     <t xml:space="preserve">10.7381620407104</t>
@@ -425,88 +425,88 @@
     <t xml:space="preserve">12.4057331085205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.633129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562644958496</t>
+    <t xml:space="preserve">12.6331300735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562664031982</t>
   </si>
   <si>
     <t xml:space="preserve">12.6647129058838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.380467414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6457633972168</t>
+    <t xml:space="preserve">12.3804664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6457643508911</t>
   </si>
   <si>
     <t xml:space="preserve">12.3488845825195</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1467542648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446239471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6603803634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0962228775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857908248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5573320388794</t>
+    <t xml:space="preserve">12.1467533111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446249008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.66037940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0962209701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857927322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5573310852051</t>
   </si>
   <si>
     <t xml:space="preserve">12.7341957092285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2225522994995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541360855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7594614028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9110593795776</t>
+    <t xml:space="preserve">12.2225551605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541379928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7594633102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9110584259033</t>
   </si>
   <si>
     <t xml:space="preserve">12.5383825302124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8163108825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7089281082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5952301025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5194301605225</t>
+    <t xml:space="preserve">12.816309928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7089262008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5952310562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5194311141968</t>
   </si>
   <si>
     <t xml:space="preserve">12.4120502471924</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0835866928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0709562301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1404390335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278057098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2036027908325</t>
+    <t xml:space="preserve">12.0835876464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0709571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1404371261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2036046981812</t>
   </si>
   <si>
     <t xml:space="preserve">12.064640045166</t>
@@ -524,19 +524,19 @@
     <t xml:space="preserve">12.304669380188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5699625015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0121259689331</t>
+    <t xml:space="preserve">12.5699634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0121240615845</t>
   </si>
   <si>
     <t xml:space="preserve">13.5427179336548</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.151086807251</t>
+    <t xml:space="preserve">13.6311473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1510896682739</t>
   </si>
   <si>
     <t xml:space="preserve">12.8605270385742</t>
@@ -545,64 +545,64 @@
     <t xml:space="preserve">12.9489593505859</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8352603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.854208946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.727876663208</t>
+    <t xml:space="preserve">12.835259437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8542108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.727879524231</t>
   </si>
   <si>
     <t xml:space="preserve">12.9426422119141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2647876739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2205715179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8226251602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6583986282349</t>
+    <t xml:space="preserve">13.2647867202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.22057056427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8226261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6583957672119</t>
   </si>
   <si>
     <t xml:space="preserve">12.6394462585449</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6773452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8731594085693</t>
+    <t xml:space="preserve">12.6773462295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.873158454895</t>
   </si>
   <si>
     <t xml:space="preserve">12.9300088882446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2268867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6437826156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7744455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0650081634521</t>
+    <t xml:space="preserve">13.2268877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6437816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7744464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0650100708008</t>
   </si>
   <si>
     <t xml:space="preserve">15.0965890884399</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2481870651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3429365158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.589282989502</t>
+    <t xml:space="preserve">15.2481908798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3429384231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5892810821533</t>
   </si>
   <si>
     <t xml:space="preserve">15.8040475845337</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">15.9051122665405</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3662185668945</t>
+    <t xml:space="preserve">16.3662204742432</t>
   </si>
   <si>
     <t xml:space="preserve">16.4546508789062</t>
@@ -620,34 +620,34 @@
     <t xml:space="preserve">16.6125659942627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7452144622803</t>
+    <t xml:space="preserve">16.7452125549316</t>
   </si>
   <si>
     <t xml:space="preserve">16.6441478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4357032775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1830425262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2019901275635</t>
+    <t xml:space="preserve">16.4357013702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1830406188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2019882202148</t>
   </si>
   <si>
     <t xml:space="preserve">15.9556427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0503883361816</t>
+    <t xml:space="preserve">16.0503921508789</t>
   </si>
   <si>
     <t xml:space="preserve">15.9935426712036</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8166809082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4755830764771</t>
+    <t xml:space="preserve">15.8166790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4755849838257</t>
   </si>
   <si>
     <t xml:space="preserve">15.4629497528076</t>
@@ -656,43 +656,43 @@
     <t xml:space="preserve">15.0081586837769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0523738861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9449901580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270334243774</t>
+    <t xml:space="preserve">15.052375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.944993019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.888144493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512344360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270362854004</t>
   </si>
   <si>
     <t xml:space="preserve">14.4965181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0227756500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5280981063843</t>
+    <t xml:space="preserve">14.0227746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5280990600586</t>
   </si>
   <si>
     <t xml:space="preserve">14.7807598114014</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7618141174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102142333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5513858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6966667175293</t>
+    <t xml:space="preserve">14.7618131637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5513877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6966648101807</t>
   </si>
   <si>
     <t xml:space="preserve">15.6082315444946</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">15.7914123535156</t>
   </si>
   <si>
-    <t xml:space="preserve">16.429386138916</t>
+    <t xml:space="preserve">16.4293842315674</t>
   </si>
   <si>
     <t xml:space="preserve">16.1514568328857</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">15.8229961395264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9177474975586</t>
+    <t xml:space="preserve">15.9177436828613</t>
   </si>
   <si>
     <t xml:space="preserve">16.2588386535645</t>
@@ -719,121 +719,121 @@
     <t xml:space="preserve">16.4230690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7388954162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1368427276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0420932769775</t>
+    <t xml:space="preserve">16.7388973236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1368408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0420951843262</t>
   </si>
   <si>
     <t xml:space="preserve">16.9915599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8652305603027</t>
+    <t xml:space="preserve">16.8652286529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3156852722168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.486234664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8210105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6757316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5367698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5936164855957</t>
+    <t xml:space="preserve">16.4862384796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8210144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6757297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5367679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5936145782471</t>
   </si>
   <si>
     <t xml:space="preserve">16.5746669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3093719482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1072425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9809103012085</t>
+    <t xml:space="preserve">16.3093700408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1072406768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9809083938599</t>
   </si>
   <si>
     <t xml:space="preserve">15.6524486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8545789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8293113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5494022369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.233570098877</t>
+    <t xml:space="preserve">15.9745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8545770645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8293132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5494003295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2335739135742</t>
   </si>
   <si>
     <t xml:space="preserve">16.1198768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3599014282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9283924102783</t>
+    <t xml:space="preserve">16.3599052429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.928394317627</t>
   </si>
   <si>
     <t xml:space="preserve">17.4337215423584</t>
   </si>
   <si>
-    <t xml:space="preserve">17.421085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6358489990234</t>
+    <t xml:space="preserve">17.4210872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6358509063721</t>
   </si>
   <si>
     <t xml:space="preserve">18.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6465034484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7917785644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2927703857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.267505645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6863842010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5706996917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6338653564453</t>
+    <t xml:space="preserve">18.6465015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7917804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2927742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2675037384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6863822937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707015991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6338672637939</t>
   </si>
   <si>
     <t xml:space="preserve">19.0760288238525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2276229858398</t>
+    <t xml:space="preserve">19.2276248931885</t>
   </si>
   <si>
     <t xml:space="preserve">19.3476390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7602005004883</t>
+    <t xml:space="preserve">18.7601985931396</t>
   </si>
   <si>
     <t xml:space="preserve">18.8802108764648</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">19.4550189971924</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7013645172119</t>
+    <t xml:space="preserve">19.7013664245605</t>
   </si>
   <si>
     <t xml:space="preserve">20.6046333312988</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">21.5015869140625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7921524047852</t>
+    <t xml:space="preserve">21.7921485900879</t>
   </si>
   <si>
     <t xml:space="preserve">21.9879627227783</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0301971435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5690879821777</t>
+    <t xml:space="preserve">23.0301952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5690860748291</t>
   </si>
   <si>
     <t xml:space="preserve">22.9291305541992</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">22.7396354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7080497741699</t>
+    <t xml:space="preserve">22.7080516815186</t>
   </si>
   <si>
     <t xml:space="preserve">22.3480072021484</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">22.9164943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8975486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6638374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2133750915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5481567382812</t>
+    <t xml:space="preserve">22.8975505828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6638355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.21337890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.548152923584</t>
   </si>
   <si>
     <t xml:space="preserve">23.3586597442627</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2891731262207</t>
+    <t xml:space="preserve">23.2891750335693</t>
   </si>
   <si>
     <t xml:space="preserve">23.1186275482178</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">23.049144744873</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4344520568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7376537322998</t>
+    <t xml:space="preserve">23.4344539642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7376518249512</t>
   </si>
   <si>
     <t xml:space="preserve">23.4407768249512</t>
@@ -923,22 +923,22 @@
     <t xml:space="preserve">24.4893226623535</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3440437316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1734943389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.445104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0135974884033</t>
+    <t xml:space="preserve">24.3440418243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1734962463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4451103210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.013599395752</t>
   </si>
   <si>
     <t xml:space="preserve">25.2200012207031</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8329963684082</t>
+    <t xml:space="preserve">24.8329944610596</t>
   </si>
   <si>
     <t xml:space="preserve">24.6265907287598</t>
@@ -950,19 +950,19 @@
     <t xml:space="preserve">22.4980487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2075634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8915042877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6915531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7560520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6399478912354</t>
+    <t xml:space="preserve">23.2075614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.891508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6915550231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7560539245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6399517059326</t>
   </si>
   <si>
     <t xml:space="preserve">21.2209243774414</t>
@@ -971,97 +971,97 @@
     <t xml:space="preserve">20.4404563903809</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4918270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9562377929688</t>
+    <t xml:space="preserve">21.4918251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9562358856201</t>
   </si>
   <si>
     <t xml:space="preserve">22.5238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">22.510950088501</t>
+    <t xml:space="preserve">22.5109481811523</t>
   </si>
   <si>
     <t xml:space="preserve">22.5754470825195</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4464454650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2916450500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3303394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7691841125488</t>
+    <t xml:space="preserve">22.4464492797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2916431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3303451538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7691822052002</t>
   </si>
   <si>
     <t xml:space="preserve">21.5627784729004</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8659362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2658443450928</t>
+    <t xml:space="preserve">21.8659343719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2658424377441</t>
   </si>
   <si>
     <t xml:space="preserve">22.0594387054443</t>
   </si>
   <si>
-    <t xml:space="preserve">22.188440322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8205547332764</t>
+    <t xml:space="preserve">22.1884422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8205528259277</t>
   </si>
   <si>
     <t xml:space="preserve">22.7625045776367</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3819465637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6012496948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5496501922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7689514160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4786987304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1561908721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.046537399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9949378967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5303020477295</t>
+    <t xml:space="preserve">22.3819484710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6012516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5496482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.768949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4786968231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1561870574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0465393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9949359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5302982330322</t>
   </si>
   <si>
     <t xml:space="preserve">22.7302532196045</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7044506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9431037902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0205078125</t>
+    <t xml:space="preserve">22.7044544219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9431056976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0205059051514</t>
   </si>
   <si>
     <t xml:space="preserve">23.1043586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0140552520752</t>
+    <t xml:space="preserve">23.0140590667725</t>
   </si>
   <si>
     <t xml:space="preserve">23.2204627990723</t>
@@ -1073,28 +1073,28 @@
     <t xml:space="preserve">23.4139652252197</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7042198181152</t>
+    <t xml:space="preserve">23.7042217254639</t>
   </si>
   <si>
     <t xml:space="preserve">23.9170761108398</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7880764007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622718811035</t>
+    <t xml:space="preserve">23.7880725860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622737884521</t>
   </si>
   <si>
     <t xml:space="preserve">23.8009738922119</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0138263702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2847328186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9299716949463</t>
+    <t xml:space="preserve">24.0138282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2847347259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9299736022949</t>
   </si>
   <si>
     <t xml:space="preserve">24.7039909362793</t>
@@ -1103,73 +1103,73 @@
     <t xml:space="preserve">25.1877479553223</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8974952697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2587032318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0264987945557</t>
+    <t xml:space="preserve">24.8974933624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2587013244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0265007019043</t>
   </si>
   <si>
     <t xml:space="preserve">25.6070098876953</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8327655792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1423721313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4003734588623</t>
+    <t xml:space="preserve">25.832763671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.142370223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4003753662109</t>
   </si>
   <si>
     <t xml:space="preserve">26.6906318664551</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2520198822021</t>
+    <t xml:space="preserve">26.252025604248</t>
   </si>
   <si>
     <t xml:space="preserve">26.5035781860352</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4455261230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9166202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5680770874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7809314727783</t>
+    <t xml:space="preserve">26.4455280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8908157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9166126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5680828094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7809295654297</t>
   </si>
   <si>
     <t xml:space="preserve">26.7293300628662</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2326736450195</t>
+    <t xml:space="preserve">26.2326698303223</t>
   </si>
   <si>
     <t xml:space="preserve">26.4326267242432</t>
   </si>
   <si>
-    <t xml:space="preserve">26.213321685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1939735412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3616752624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1617183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9940147399902</t>
+    <t xml:space="preserve">26.2133197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1939716339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3616714477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1617202758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9940204620361</t>
   </si>
   <si>
     <t xml:space="preserve">25.4199562072754</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">26.2842750549316</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5745334625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9808883666992</t>
+    <t xml:space="preserve">26.5745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9808864593506</t>
   </si>
   <si>
     <t xml:space="preserve">26.768030166626</t>
@@ -1193,58 +1193,58 @@
     <t xml:space="preserve">26.484224319458</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2066421508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1743907928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9357376098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1614894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5678520202637</t>
+    <t xml:space="preserve">27.2066440582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.174388885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.935733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1614875793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5678462982178</t>
   </si>
   <si>
     <t xml:space="preserve">28.2709140777588</t>
   </si>
   <si>
-    <t xml:space="preserve">28.277364730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7675743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0126724243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.238431930542</t>
+    <t xml:space="preserve">28.2773628234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7675685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.012674331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2384300231934</t>
   </si>
   <si>
     <t xml:space="preserve">28.7353210449219</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2513294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4964351654053</t>
+    <t xml:space="preserve">29.2513313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4964370727539</t>
   </si>
   <si>
     <t xml:space="preserve">29.8382911682129</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5220031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8638591766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0186710357666</t>
+    <t xml:space="preserve">30.522008895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.863862991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0186672210693</t>
   </si>
   <si>
     <t xml:space="preserve">29.5802898406982</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">30.5155582427979</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3411712646484</t>
+    <t xml:space="preserve">31.3411750793457</t>
   </si>
   <si>
     <t xml:space="preserve">31.7023849487305</t>
@@ -1265,34 +1265,34 @@
     <t xml:space="preserve">31.5153274536133</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8509654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6125373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1739273071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9285984039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2964820861816</t>
+    <t xml:space="preserve">30.8509616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6125411987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1739311218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.928596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.296480178833</t>
   </si>
   <si>
     <t xml:space="preserve">30.283353805542</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3865585327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.425256729126</t>
+    <t xml:space="preserve">30.3865547180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4252529144287</t>
   </si>
   <si>
     <t xml:space="preserve">30.6187591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1476726531982</t>
+    <t xml:space="preserve">31.147668838501</t>
   </si>
   <si>
     <t xml:space="preserve">30.3156032562256</t>
@@ -1301,52 +1301,52 @@
     <t xml:space="preserve">30.354305267334</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1930561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2446460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7802410125732</t>
+    <t xml:space="preserve">30.1930522918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2446537017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7802429199219</t>
   </si>
   <si>
     <t xml:space="preserve">29.4899883270264</t>
   </si>
   <si>
-    <t xml:space="preserve">28.928825378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224704742432</t>
+    <t xml:space="preserve">28.9288272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224685668945</t>
   </si>
   <si>
     <t xml:space="preserve">27.0518379211426</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2778244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2393531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1038990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9553146362305</t>
+    <t xml:space="preserve">26.2778263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.239351272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1039009094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9553127288818</t>
   </si>
   <si>
     <t xml:space="preserve">24.9813480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9942455291748</t>
+    <t xml:space="preserve">24.9942474365234</t>
   </si>
   <si>
     <t xml:space="preserve">24.5427398681641</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1750793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9361953735352</t>
+    <t xml:space="preserve">24.1750831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9361972808838</t>
   </si>
   <si>
     <t xml:space="preserve">24.6394920349121</t>
@@ -1355,19 +1355,19 @@
     <t xml:space="preserve">24.8652439117432</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0652008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4524364471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6977710723877</t>
+    <t xml:space="preserve">25.0651988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4524345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6977729797363</t>
   </si>
   <si>
     <t xml:space="preserve">23.6655216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.89772605896</t>
+    <t xml:space="preserve">23.8977241516113</t>
   </si>
   <si>
     <t xml:space="preserve">24.0009269714355</t>
@@ -1376,61 +1376,61 @@
     <t xml:space="preserve">23.5881175994873</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9882583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5365180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589752197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7104415893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.304313659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2140140533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1559600830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8783760070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9684429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.297176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3425579071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6715068817139</t>
+    <t xml:space="preserve">22.9882564544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5365200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104396820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3043117523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2140121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1559619903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8783740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9684467315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2971687316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6715106964111</t>
   </si>
   <si>
     <t xml:space="preserve">26.1230182647705</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1359233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7876129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8650131225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5749931335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3232040405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4651050567627</t>
+    <t xml:space="preserve">26.1359214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7876148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8650150299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.574987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3232021331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4651031494141</t>
   </si>
   <si>
     <t xml:space="preserve">25.1425971984863</t>
@@ -1442,43 +1442,43 @@
     <t xml:space="preserve">25.2458019256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0522994995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7684955596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7426891326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4975872039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2329025268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.691089630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.278284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3365650177002</t>
+    <t xml:space="preserve">25.0522956848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7684917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7426910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4975852966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2329044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6910915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2782821655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3365612030029</t>
   </si>
   <si>
     <t xml:space="preserve">22.8076553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3881645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6079292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3628234863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8463554382324</t>
+    <t xml:space="preserve">23.3881664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.607931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3628253936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8463516235352</t>
   </si>
   <si>
     <t xml:space="preserve">23.2720642089844</t>
@@ -1487,13 +1487,13 @@
     <t xml:space="preserve">23.0011596679688</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5042686462402</t>
+    <t xml:space="preserve">23.5042667388916</t>
   </si>
   <si>
     <t xml:space="preserve">23.4913654327393</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4526691436768</t>
+    <t xml:space="preserve">23.4526672363281</t>
   </si>
   <si>
     <t xml:space="preserve">23.4010639190674</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">23.5300693511963</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1430625915527</t>
+    <t xml:space="preserve">23.1430606842041</t>
   </si>
   <si>
     <t xml:space="preserve">22.8721542358398</t>
@@ -1511,19 +1511,19 @@
     <t xml:space="preserve">22.7431526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0078372955322</t>
+    <t xml:space="preserve">22.0078353881836</t>
   </si>
   <si>
     <t xml:space="preserve">21.2596225738525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9113159179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.28542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.001615524292</t>
+    <t xml:space="preserve">20.9113140106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2854232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0016174316406</t>
   </si>
   <si>
     <t xml:space="preserve">20.9887180328369</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">20.1760025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3695049285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3757247924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1822242736816</t>
+    <t xml:space="preserve">20.3695030212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3757266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.182222366333</t>
   </si>
   <si>
     <t xml:space="preserve">20.8855152130127</t>
@@ -1556,22 +1556,22 @@
     <t xml:space="preserve">20.1501998901367</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0923824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5630073547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7502937316895</t>
+    <t xml:space="preserve">19.0923805236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.563009262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7502918243408</t>
   </si>
   <si>
     <t xml:space="preserve">20.5888080596924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0274181365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1951236724854</t>
+    <t xml:space="preserve">21.027416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1951217651367</t>
   </si>
   <si>
     <t xml:space="preserve">21.3499240875244</t>
@@ -1580,49 +1580,49 @@
     <t xml:space="preserve">22.1626415252686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6982345581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5305271148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7885341644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6595306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2749519348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.288257598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0487613677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9955425262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0753746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7539405822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668216705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2861442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4724178314209</t>
+    <t xml:space="preserve">21.6982326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5305290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7885322570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6595325469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2749500274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2882556915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0487632751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9955444335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0753726959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7539386749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668197631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2861461639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4724159240723</t>
   </si>
   <si>
     <t xml:space="preserve">22.7252159118652</t>
   </si>
   <si>
-    <t xml:space="preserve">22.405891418457</t>
+    <t xml:space="preserve">22.4058895111084</t>
   </si>
   <si>
     <t xml:space="preserve">22.020040512085</t>
@@ -1631,19 +1631,19 @@
     <t xml:space="preserve">21.4878330230713</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6075801849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6874122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8491878509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1573162078857</t>
+    <t xml:space="preserve">21.3813915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6075820922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6874103546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8491859436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1573181152344</t>
   </si>
   <si>
     <t xml:space="preserve">19.1461277008057</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">18.9465503692627</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5606956481934</t>
+    <t xml:space="preserve">18.560697555542</t>
   </si>
   <si>
     <t xml:space="preserve">18.1615428924561</t>
@@ -1667,22 +1667,22 @@
     <t xml:space="preserve">15.5803422927856</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1699962615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5271224975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6468706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9640808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0306053161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5117034912109</t>
+    <t xml:space="preserve">14.169997215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5271263122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6468687057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9640789031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0306072235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5117053985596</t>
   </si>
   <si>
     <t xml:space="preserve">16.6580619812012</t>
@@ -1691,34 +1691,34 @@
     <t xml:space="preserve">16.3121280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1657695770264</t>
+    <t xml:space="preserve">16.165771484375</t>
   </si>
   <si>
     <t xml:space="preserve">16.8177223205566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7623920440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2546825408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2280673980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6825561523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4675636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9598541259766</t>
+    <t xml:space="preserve">17.7623901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2546806335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2280693054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6825580596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4675617218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9598522186279</t>
   </si>
   <si>
     <t xml:space="preserve">18.4010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5873126983643</t>
+    <t xml:space="preserve">18.587308883667</t>
   </si>
   <si>
     <t xml:space="preserve">18.2812900543213</t>
@@ -1733,22 +1733,22 @@
     <t xml:space="preserve">17.1237411499023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.150354385376</t>
+    <t xml:space="preserve">17.1503524780273</t>
   </si>
   <si>
     <t xml:space="preserve">17.2035732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1769638061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3632335662842</t>
+    <t xml:space="preserve">17.1769618988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3632354736328</t>
   </si>
   <si>
     <t xml:space="preserve">17.6426429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0417995452881</t>
+    <t xml:space="preserve">18.0417976379395</t>
   </si>
   <si>
     <t xml:space="preserve">18.2413749694824</t>
@@ -1757,37 +1757,37 @@
     <t xml:space="preserve">17.8954410552979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4962863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5894260406494</t>
+    <t xml:space="preserve">17.4962844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5894241333008</t>
   </si>
   <si>
     <t xml:space="preserve">17.403148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3345127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6272258758545</t>
+    <t xml:space="preserve">18.3345108032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6272239685059</t>
   </si>
   <si>
     <t xml:space="preserve">17.9087467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6559505462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9220523834229</t>
+    <t xml:space="preserve">17.655948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9220504760742</t>
   </si>
   <si>
     <t xml:space="preserve">17.9885768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.828914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8975524902344</t>
+    <t xml:space="preserve">17.8289165496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.897554397583</t>
   </si>
   <si>
     <t xml:space="preserve">17.097131729126</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">16.0992450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">14.702202796936</t>
+    <t xml:space="preserve">14.7022018432617</t>
   </si>
   <si>
     <t xml:space="preserve">15.0481367111206</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0082216262817</t>
+    <t xml:space="preserve">15.0082225799561</t>
   </si>
   <si>
     <t xml:space="preserve">14.9949169158936</t>
@@ -1811,58 +1811,58 @@
     <t xml:space="preserve">14.6090650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">14.342963218689</t>
+    <t xml:space="preserve">14.3429622650146</t>
   </si>
   <si>
     <t xml:space="preserve">13.7575359344482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.611177444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7309255599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6910085678101</t>
+    <t xml:space="preserve">13.6111783981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7309265136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.691011428833</t>
   </si>
   <si>
     <t xml:space="preserve">14.5824565887451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0635538101196</t>
+    <t xml:space="preserve">14.0635547637939</t>
   </si>
   <si>
     <t xml:space="preserve">14.2631340026855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2099142074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3961839675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5712614059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5180435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4781293869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0369453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159311294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215263366699</t>
+    <t xml:space="preserve">14.2099113464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.396183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5712633132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5180416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4781284332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0369462966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159301757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215253829956</t>
   </si>
   <si>
     <t xml:space="preserve">14.8751707077026</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6888971328735</t>
+    <t xml:space="preserve">14.6888980865479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2743234634399</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">14.928391456604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348339080811</t>
+    <t xml:space="preserve">15.0348310470581</t>
   </si>
   <si>
     <t xml:space="preserve">14.648983001709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6755924224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8485584259033</t>
+    <t xml:space="preserve">14.6755905151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8485593795776</t>
   </si>
   <si>
     <t xml:space="preserve">15.4605979919434</t>
@@ -1889,37 +1889,37 @@
     <t xml:space="preserve">15.8597507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8331413269043</t>
+    <t xml:space="preserve">15.8331394195557</t>
   </si>
   <si>
     <t xml:space="preserve">15.6867847442627</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8730583190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7288103103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.906005859375</t>
+    <t xml:space="preserve">15.8730564117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7288122177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9060077667236</t>
   </si>
   <si>
     <t xml:space="preserve">11.948034286499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.427020072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.766300201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1721086502075</t>
+    <t xml:space="preserve">12.4270210266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663021087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721096038818</t>
   </si>
   <si>
     <t xml:space="preserve">12.9791841506958</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3426494598389</t>
+    <t xml:space="preserve">11.3426485061646</t>
   </si>
   <si>
     <t xml:space="preserve">11.6420154571533</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">11.5422277450562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9102306365967</t>
+    <t xml:space="preserve">10.910231590271</t>
   </si>
   <si>
     <t xml:space="preserve">10.8836221694946</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4844665527344</t>
+    <t xml:space="preserve">10.4844675064087</t>
   </si>
   <si>
     <t xml:space="preserve">9.60632610321045</t>
@@ -1955,16 +1955,16 @@
     <t xml:space="preserve">9.21382427215576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04085731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31361293792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34687614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86577606201172</t>
+    <t xml:space="preserve">9.04085636138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31361198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34687519073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86577796936035</t>
   </si>
   <si>
     <t xml:space="preserve">9.9655647277832</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">10.3381099700928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6441287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2362089157104</t>
+    <t xml:space="preserve">10.6441278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2362079620361</t>
   </si>
   <si>
     <t xml:space="preserve">10.8703165054321</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">10.1385316848755</t>
   </si>
   <si>
-    <t xml:space="preserve">9.699462890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0387439727783</t>
+    <t xml:space="preserve">9.69946193695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.038743019104</t>
   </si>
   <si>
     <t xml:space="preserve">10.1717958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2981948852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.544340133667</t>
+    <t xml:space="preserve">10.2981939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5443391799927</t>
   </si>
   <si>
     <t xml:space="preserve">10.431245803833</t>
@@ -2009,37 +2009,37 @@
     <t xml:space="preserve">10.3979835510254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773900985718</t>
+    <t xml:space="preserve">10.6773910522461</t>
   </si>
   <si>
     <t xml:space="preserve">10.5709505081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243806838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9214248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474012374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9946031570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7529983520508</t>
+    <t xml:space="preserve">10.5243816375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.921422958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474002838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9946041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7529973983765</t>
   </si>
   <si>
     <t xml:space="preserve">12.4336729049683</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1076955795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0611276626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.562183380127</t>
+    <t xml:space="preserve">12.1076965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.061128616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5621843338013</t>
   </si>
   <si>
     <t xml:space="preserve">11.9081182479858</t>
@@ -2051,52 +2051,52 @@
     <t xml:space="preserve">11.8083305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3093862533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7018890380859</t>
+    <t xml:space="preserve">11.3093872070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7018899917603</t>
   </si>
   <si>
     <t xml:space="preserve">12.2074851989746</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1010427474976</t>
+    <t xml:space="preserve">12.1010446548462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9413824081421</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4091749191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904844284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6574335098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3048458099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0853118896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93895530700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715826034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2782363891602</t>
+    <t xml:space="preserve">11.4091758728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904853820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6574354171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3048467636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0853109359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93895435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715835571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2782354354858</t>
   </si>
   <si>
     <t xml:space="preserve">10.9368419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">11.442437171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8815088272095</t>
+    <t xml:space="preserve">11.4424381256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8815078735352</t>
   </si>
   <si>
     <t xml:space="preserve">11.6087532043457</t>
@@ -2120,31 +2120,31 @@
     <t xml:space="preserve">11.1098108291626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.24951171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5089645385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4025220870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9834108352661</t>
+    <t xml:space="preserve">11.2495136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5089635848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4025230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9834098815918</t>
   </si>
   <si>
     <t xml:space="preserve">10.9634523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3027334213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4757022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5821409225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1630306243896</t>
+    <t xml:space="preserve">11.302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.475700378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5821418762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1630296707153</t>
   </si>
   <si>
     <t xml:space="preserve">11.0299777984619</t>
@@ -2156,43 +2156,43 @@
     <t xml:space="preserve">11.3759117126465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0698938369751</t>
+    <t xml:space="preserve">11.0698928833008</t>
   </si>
   <si>
     <t xml:space="preserve">10.6108646392822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.200834274292</t>
+    <t xml:space="preserve">12.2008323669434</t>
   </si>
   <si>
     <t xml:space="preserve">13.9038934707642</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2319812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5068502426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9613389968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7684144973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6686267852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6220579147339</t>
+    <t xml:space="preserve">13.2319803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5068492889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9613399505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7684135437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.668625831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6220569610596</t>
   </si>
   <si>
     <t xml:space="preserve">11.1164617538452</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3825654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0278654098511</t>
+    <t xml:space="preserve">11.3825664520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0278673171997</t>
   </si>
   <si>
     <t xml:space="preserve">12.1343069076538</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">12.62659740448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0677804946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4977712631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2915420532227</t>
+    <t xml:space="preserve">12.0677795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4977722167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.291543006897</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451854705811</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">9.9921760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0453977584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81921005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87242984771729</t>
+    <t xml:space="preserve">10.0453968048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81920909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8724308013916</t>
   </si>
   <si>
     <t xml:space="preserve">9.84581851959229</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">9.78594589233398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9788703918457</t>
+    <t xml:space="preserve">9.97886943817139</t>
   </si>
   <si>
     <t xml:space="preserve">9.89904022216797</t>
@@ -2252,16 +2252,16 @@
     <t xml:space="preserve">10.4445514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4245939254761</t>
+    <t xml:space="preserve">10.4245929718018</t>
   </si>
   <si>
     <t xml:space="preserve">10.4046354293823</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3248052597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975618362427</t>
+    <t xml:space="preserve">10.3248043060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975608825684</t>
   </si>
   <si>
     <t xml:space="preserve">10.6507816314697</t>
@@ -2282,13 +2282,13 @@
     <t xml:space="preserve">10.6184148788452</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6966485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1347904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94987392425537</t>
+    <t xml:space="preserve">10.6966495513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1347894668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.949875831604</t>
   </si>
   <si>
     <t xml:space="preserve">9.60849285125732</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">9.10353088378906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64835357666016</t>
+    <t xml:space="preserve">8.64835453033447</t>
   </si>
   <si>
     <t xml:space="preserve">9.15331554412842</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">9.21021270751953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14620304107666</t>
+    <t xml:space="preserve">9.14620399475098</t>
   </si>
   <si>
     <t xml:space="preserve">8.87594223022461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66257953643799</t>
+    <t xml:space="preserve">8.66257762908936</t>
   </si>
   <si>
     <t xml:space="preserve">8.69813919067383</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">8.32119560241699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49188804626465</t>
+    <t xml:space="preserve">8.4918851852417</t>
   </si>
   <si>
     <t xml:space="preserve">8.34964466094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29274749755859</t>
+    <t xml:space="preserve">8.29274845123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.250075340271</t>
@@ -2342,13 +2342,13 @@
     <t xml:space="preserve">8.10783195495605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0438232421875</t>
+    <t xml:space="preserve">8.04382419586182</t>
   </si>
   <si>
     <t xml:space="preserve">8.42787933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0580472946167</t>
+    <t xml:space="preserve">8.05804824829102</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558904647827</t>
@@ -2357,31 +2357,31 @@
     <t xml:space="preserve">8.0153751373291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27141094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98692560195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02248668670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97981405258179</t>
+    <t xml:space="preserve">8.27140998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9869270324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02248573303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97981309890747</t>
   </si>
   <si>
     <t xml:space="preserve">8.15761756896973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47766208648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8332691192627</t>
+    <t xml:space="preserve">8.47766304016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83327007293701</t>
   </si>
   <si>
     <t xml:space="preserve">8.62701797485352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47055149078369</t>
+    <t xml:space="preserve">8.47055053710938</t>
   </si>
   <si>
     <t xml:space="preserve">8.30697250366211</t>
@@ -2390,16 +2390,16 @@
     <t xml:space="preserve">8.54167175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57723331451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44210243225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7905969619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99684906005859</t>
+    <t xml:space="preserve">8.57723236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44210147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79059600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99684810638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.57293128967285</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">9.43780136108398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43068981170654</t>
+    <t xml:space="preserve">9.43068885803223</t>
   </si>
   <si>
     <t xml:space="preserve">9.33823108673096</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">9.85030555725098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83608055114746</t>
+    <t xml:space="preserve">9.83608150482178</t>
   </si>
   <si>
     <t xml:space="preserve">9.8289680480957</t>
@@ -2447,16 +2447,16 @@
     <t xml:space="preserve">9.71517372131348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58004474639893</t>
+    <t xml:space="preserve">9.58004379272461</t>
   </si>
   <si>
     <t xml:space="preserve">9.4662504196167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53025817871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22443771362305</t>
+    <t xml:space="preserve">9.53025913238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22443866729736</t>
   </si>
   <si>
     <t xml:space="preserve">9.12486743927002</t>
@@ -2465,61 +2465,61 @@
     <t xml:space="preserve">9.39512825012207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92853736877441</t>
+    <t xml:space="preserve">9.92853832244873</t>
   </si>
   <si>
     <t xml:space="preserve">9.80763149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77207183837891</t>
+    <t xml:space="preserve">9.77207088470459</t>
   </si>
   <si>
     <t xml:space="preserve">10.0352201461792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33111953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91861438751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65546607971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08930683135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16754055023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27422142028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20310020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11064434051514</t>
+    <t xml:space="preserve">9.3311185836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91861629486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65546703338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08930587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16753959655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2742223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20309925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11064338684082</t>
   </si>
   <si>
     <t xml:space="preserve">9.06085777282715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41646385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64405345916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92142486572266</t>
+    <t xml:space="preserve">9.41646480560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64405250549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92142677307129</t>
   </si>
   <si>
     <t xml:space="preserve">10.042332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1419038772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979387283325</t>
+    <t xml:space="preserve">10.141902923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979396820068</t>
   </si>
   <si>
     <t xml:space="preserve">10.3837146759033</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">10.5401821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6610879898071</t>
+    <t xml:space="preserve">10.6610870361328</t>
   </si>
   <si>
     <t xml:space="preserve">10.9029006958008</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">10.9100131988525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.703761100769</t>
+    <t xml:space="preserve">10.7037601470947</t>
   </si>
   <si>
     <t xml:space="preserve">10.8815641403198</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">10.6326398849487</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8886756896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753129959106</t>
+    <t xml:space="preserve">10.8886766433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753120422363</t>
   </si>
   <si>
     <t xml:space="preserve">10.4690608978271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343606948853</t>
+    <t xml:space="preserve">10.2343597412109</t>
   </si>
   <si>
     <t xml:space="preserve">10.2628087997437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3766021728516</t>
+    <t xml:space="preserve">10.3766040802002</t>
   </si>
   <si>
     <t xml:space="preserve">10.0067720413208</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">10.3054809570312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4761724472046</t>
+    <t xml:space="preserve">10.4761734008789</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677717208862</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">10.7108726501465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7393226623535</t>
+    <t xml:space="preserve">10.7393217086792</t>
   </si>
   <si>
     <t xml:space="preserve">10.8602285385132</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">10.9455738067627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9953584671021</t>
+    <t xml:space="preserve">10.9953575134277</t>
   </si>
   <si>
     <t xml:space="preserve">10.9384613037109</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">10.7464332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8673400878906</t>
+    <t xml:space="preserve">10.8673410415649</t>
   </si>
   <si>
     <t xml:space="preserve">10.9811334609985</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">10.3908271789551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8531160354614</t>
+    <t xml:space="preserve">10.8531169891357</t>
   </si>
   <si>
     <t xml:space="preserve">11.2087230682373</t>
@@ -2651,40 +2651,40 @@
     <t xml:space="preserve">9.96409893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98543453216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87164211273193</t>
+    <t xml:space="preserve">9.98543548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87164115905762</t>
   </si>
   <si>
     <t xml:space="preserve">9.94276237487793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81474494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63694190979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72939968109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65827655792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47336101531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42357635498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54448318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75073432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75784778594971</t>
+    <t xml:space="preserve">9.8147439956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63694095611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72939872741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65827751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47336006164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42357540130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54448413848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75073528289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75784683227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.69383811950684</t>
@@ -2699,16 +2699,16 @@
     <t xml:space="preserve">9.95698738098145</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0565567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1561260223389</t>
+    <t xml:space="preserve">10.0565576553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1561269760132</t>
   </si>
   <si>
     <t xml:space="preserve">10.0707807540894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0494451522827</t>
+    <t xml:space="preserve">10.0494441986084</t>
   </si>
   <si>
     <t xml:space="preserve">10.191686630249</t>
@@ -2723,34 +2723,34 @@
     <t xml:space="preserve">10.1205654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5472936630249</t>
+    <t xml:space="preserve">10.5472955703735</t>
   </si>
   <si>
     <t xml:space="preserve">10.5259580612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4619483947754</t>
+    <t xml:space="preserve">10.4619493484497</t>
   </si>
   <si>
     <t xml:space="preserve">10.483283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2556962966919</t>
+    <t xml:space="preserve">10.2556972503662</t>
   </si>
   <si>
     <t xml:space="preserve">10.2272491455078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7179851531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4192743301392</t>
+    <t xml:space="preserve">10.7179861068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4192752838135</t>
   </si>
   <si>
     <t xml:space="preserve">10.1987991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5899667739868</t>
+    <t xml:space="preserve">10.5899677276611</t>
   </si>
   <si>
     <t xml:space="preserve">10.6682004928589</t>
@@ -2783,22 +2783,22 @@
     <t xml:space="preserve">10.5046215057373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77918243408203</t>
+    <t xml:space="preserve">9.77918434143066</t>
   </si>
   <si>
     <t xml:space="preserve">9.24577331542969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69102764129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56731033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27571153640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25437498092651</t>
+    <t xml:space="preserve">8.69102668762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56731128692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2757134437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25437545776367</t>
   </si>
   <si>
     <t xml:space="preserve">6.23734188079834</t>
@@ -2810,34 +2810,34 @@
     <t xml:space="preserve">6.17333221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98841667175293</t>
+    <t xml:space="preserve">5.98841619491577</t>
   </si>
   <si>
     <t xml:space="preserve">6.00264024734497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98130464553833</t>
+    <t xml:space="preserve">5.98130416870117</t>
   </si>
   <si>
     <t xml:space="preserve">6.32979917526245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12710332870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42225694656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.454261302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57872295379639</t>
+    <t xml:space="preserve">6.12710285186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42225646972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45426082611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57872343063354</t>
   </si>
   <si>
     <t xml:space="preserve">6.49693441390991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22667360305786</t>
+    <t xml:space="preserve">6.22667264938354</t>
   </si>
   <si>
     <t xml:space="preserve">6.36535882949829</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">6.33335447311401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26934576034546</t>
+    <t xml:space="preserve">6.2693452835083</t>
   </si>
   <si>
     <t xml:space="preserve">6.35824680328369</t>
@@ -2855,49 +2855,49 @@
     <t xml:space="preserve">6.41870021820068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5644998550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53960752487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57161140441895</t>
+    <t xml:space="preserve">6.56449890136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53960657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57161092758179</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514492034912</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28356981277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34402227401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35113525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04531335830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92085075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06664991378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39380741119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52182722091675</t>
+    <t xml:space="preserve">6.2835693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34402370452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35113477706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04531383514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92085123062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06664943695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39380788803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52182579040527</t>
   </si>
   <si>
     <t xml:space="preserve">6.34757947921753</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1164345741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18044328689575</t>
+    <t xml:space="preserve">6.11643409729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18044376373291</t>
   </si>
   <si>
     <t xml:space="preserve">6.14132690429688</t>
@@ -2906,19 +2906,19 @@
     <t xml:space="preserve">6.01686525344849</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11287879943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02753353118896</t>
+    <t xml:space="preserve">6.11287927627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02753305435181</t>
   </si>
   <si>
     <t xml:space="preserve">5.94574308395386</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85684156417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74660396575928</t>
+    <t xml:space="preserve">5.85684204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74660444259644</t>
   </si>
   <si>
     <t xml:space="preserve">5.71104288101196</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">5.47634267807007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69681930541992</t>
+    <t xml:space="preserve">5.69681978225708</t>
   </si>
   <si>
     <t xml:space="preserve">5.86750984191895</t>
@@ -2951,43 +2951,43 @@
     <t xml:space="preserve">5.97063589096069</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89951515197754</t>
+    <t xml:space="preserve">5.8995156288147</t>
   </si>
   <si>
     <t xml:space="preserve">5.93863201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29779434204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53604984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87743377685547</t>
+    <t xml:space="preserve">6.2977933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53605031967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87743282318115</t>
   </si>
   <si>
     <t xml:space="preserve">7.3681697845459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91299390792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69963026046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24089622497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19466924667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36180400848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46493005752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40092039108276</t>
+    <t xml:space="preserve">6.91299343109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69962978363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2408971786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19466876983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36180257797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46492958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40091991424561</t>
   </si>
   <si>
     <t xml:space="preserve">6.30490636825562</t>
@@ -2999,22 +2999,22 @@
     <t xml:space="preserve">6.0879864692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93507528305054</t>
+    <t xml:space="preserve">5.9350757598877</t>
   </si>
   <si>
     <t xml:space="preserve">5.84617376327515</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91018295288086</t>
+    <t xml:space="preserve">5.91018342971802</t>
   </si>
   <si>
     <t xml:space="preserve">6.04175710678101</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08087396621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06309366226196</t>
+    <t xml:space="preserve">6.0808744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0630931854248</t>
   </si>
   <si>
     <t xml:space="preserve">6.20889186859131</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">6.32624292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45070457458496</t>
+    <t xml:space="preserve">6.4507040977478</t>
   </si>
   <si>
     <t xml:space="preserve">6.37958431243896</t>
@@ -3032,28 +3032,28 @@
     <t xml:space="preserve">6.48270988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4613733291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84898376464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98055934906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03745651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81342315673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66406869888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50760173797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35469198226929</t>
+    <t xml:space="preserve">6.46137285232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8489842414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98055839538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03745698928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8134241104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66406917572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50760221481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35469102859497</t>
   </si>
   <si>
     <t xml:space="preserve">6.16621971130371</t>
@@ -3062,16 +3062,16 @@
     <t xml:space="preserve">6.16266345977783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38669586181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39736461639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25156497955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52538251876831</t>
+    <t xml:space="preserve">6.38669538497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39736413955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25156545639038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52538299560547</t>
   </si>
   <si>
     <t xml:space="preserve">6.50049018859863</t>
@@ -3086,46 +3086,46 @@
     <t xml:space="preserve">6.37247228622437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48626565933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30846166610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32268667221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37602758407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20178079605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14843940734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13777112960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27290153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2764573097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23022890090942</t>
+    <t xml:space="preserve">6.48626518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30846214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32268714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37602710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20177984237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14843988418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.137770652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27290201187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27645683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23022937774658</t>
   </si>
   <si>
     <t xml:space="preserve">6.26223373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46848487854004</t>
+    <t xml:space="preserve">6.4684853553772</t>
   </si>
   <si>
     <t xml:space="preserve">6.38313961029053</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28001356124878</t>
+    <t xml:space="preserve">6.28001403808594</t>
   </si>
   <si>
     <t xml:space="preserve">6.05598163604736</t>
@@ -3134,25 +3134,25 @@
     <t xml:space="preserve">5.92796325683594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106657028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97419166564941</t>
+    <t xml:space="preserve">5.87106609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97419261932373</t>
   </si>
   <si>
     <t xml:space="preserve">5.83194923400879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84973001480103</t>
+    <t xml:space="preserve">5.84973049163818</t>
   </si>
   <si>
     <t xml:space="preserve">5.73237991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73593616485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75016021728516</t>
+    <t xml:space="preserve">5.73593521118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.750159740448</t>
   </si>
   <si>
     <t xml:space="preserve">5.8746223449707</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">5.82839298248291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73949146270752</t>
+    <t xml:space="preserve">5.73949193954468</t>
   </si>
   <si>
     <t xml:space="preserve">5.57946872711182</t>
@@ -3182,40 +3182,40 @@
     <t xml:space="preserve">5.57591247558594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61858606338501</t>
+    <t xml:space="preserve">5.61858558654785</t>
   </si>
   <si>
     <t xml:space="preserve">5.7217116355896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54390811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49412298202515</t>
+    <t xml:space="preserve">5.54390859603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4941234588623</t>
   </si>
   <si>
     <t xml:space="preserve">5.41233348846436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498338699341</t>
+    <t xml:space="preserve">5.29498386383057</t>
   </si>
   <si>
     <t xml:space="preserve">5.30565166473389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95715713500977</t>
+    <t xml:space="preserve">4.95715665817261</t>
   </si>
   <si>
     <t xml:space="preserve">4.7971339225769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89670419692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04605913162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25942230224609</t>
+    <t xml:space="preserve">4.89670372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04605865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25942277908325</t>
   </si>
   <si>
     <t xml:space="preserve">5.38744068145752</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">5.27009105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65059041976929</t>
+    <t xml:space="preserve">5.65058946609497</t>
   </si>
   <si>
     <t xml:space="preserve">5.66125869750977</t>
@@ -3242,16 +3242,16 @@
     <t xml:space="preserve">6.22311639785767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42581176757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44359302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68184995651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60717248916626</t>
+    <t xml:space="preserve">6.42581272125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44359254837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68184900283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60717153549194</t>
   </si>
   <si>
     <t xml:space="preserve">6.57516765594482</t>
@@ -3263,31 +3263,31 @@
     <t xml:space="preserve">6.49337768554688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79208850860596</t>
+    <t xml:space="preserve">6.79208707809448</t>
   </si>
   <si>
     <t xml:space="preserve">6.92721796035767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94855403900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97700357437134</t>
+    <t xml:space="preserve">6.94855451583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97700309753418</t>
   </si>
   <si>
     <t xml:space="preserve">6.83831596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80986833572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74230241775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66051292419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71385335922241</t>
+    <t xml:space="preserve">6.80986785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74230194091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66051340103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71385383605957</t>
   </si>
   <si>
     <t xml:space="preserve">6.71029853820801</t>
@@ -3296,37 +3296,37 @@
     <t xml:space="preserve">6.64273309707642</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63917684555054</t>
+    <t xml:space="preserve">6.63917636871338</t>
   </si>
   <si>
     <t xml:space="preserve">6.67118120193481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47559690475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54671955108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58939170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58228015899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62495231628418</t>
+    <t xml:space="preserve">6.47559785842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54671859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58939123153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58227968215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62495183944702</t>
   </si>
   <si>
     <t xml:space="preserve">6.61072778701782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56805467605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30134916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31201887130737</t>
+    <t xml:space="preserve">6.56805515289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30134963989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31201791763306</t>
   </si>
   <si>
     <t xml:space="preserve">6.21244859695435</t>
@@ -3335,76 +3335,76 @@
     <t xml:space="preserve">6.10932302474976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90307092666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01330804824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95641183853149</t>
+    <t xml:space="preserve">5.9030704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01330852508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95641136169434</t>
   </si>
   <si>
     <t xml:space="preserve">6.29423856735229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67829275131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88454532623291</t>
+    <t xml:space="preserve">6.67829370498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88454580307007</t>
   </si>
   <si>
     <t xml:space="preserve">7.03389978408813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43217945098877</t>
+    <t xml:space="preserve">7.43217992782593</t>
   </si>
   <si>
     <t xml:space="preserve">7.33972120285034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42506742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33261060714722</t>
+    <t xml:space="preserve">7.42506647109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33261013031006</t>
   </si>
   <si>
     <t xml:space="preserve">7.32549858093262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24015235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30416202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36105823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58864593505859</t>
+    <t xml:space="preserve">7.24015188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3041615486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36105871200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58864688873291</t>
   </si>
   <si>
     <t xml:space="preserve">7.48196506500244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66687965393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51752471923828</t>
+    <t xml:space="preserve">7.66688060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51752614974976</t>
   </si>
   <si>
     <t xml:space="preserve">7.5388617515564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46062803268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93002939224243</t>
+    <t xml:space="preserve">7.46062755584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9300274848938</t>
   </si>
   <si>
     <t xml:space="preserve">7.90869235992432</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95847702026367</t>
+    <t xml:space="preserve">7.95847797393799</t>
   </si>
   <si>
     <t xml:space="preserve">8.16472911834717</t>
@@ -3413,10 +3413,10 @@
     <t xml:space="preserve">8.22873783111572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12916946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15050506591797</t>
+    <t xml:space="preserve">8.12916851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15050411224365</t>
   </si>
   <si>
     <t xml:space="preserve">7.88024282455444</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">7.97270202636719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08649444580078</t>
+    <t xml:space="preserve">8.0864953994751</t>
   </si>
   <si>
     <t xml:space="preserve">8.10072040557861</t>
@@ -3443,13 +3443,13 @@
     <t xml:space="preserve">8.07938385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86602067947388</t>
+    <t xml:space="preserve">7.86601972579956</t>
   </si>
   <si>
     <t xml:space="preserve">8.24296283721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17895317077637</t>
+    <t xml:space="preserve">8.17895412445068</t>
   </si>
   <si>
     <t xml:space="preserve">8.13628005981445</t>
@@ -3458,16 +3458,16 @@
     <t xml:space="preserve">8.09360790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78778553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99403858184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20740127563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26430034637451</t>
+    <t xml:space="preserve">7.78778648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99403762817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2074031829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2642993927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.21451473236084</t>
@@ -3476,31 +3476,31 @@
     <t xml:space="preserve">8.18606472015381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22162628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27852344512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74792385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46343898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9257287979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28133392333984</t>
+    <t xml:space="preserve">8.22162532806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27852439880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7479248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46343803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92572784423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28133487701416</t>
   </si>
   <si>
     <t xml:space="preserve">9.30978393554688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23865985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08219432830811</t>
+    <t xml:space="preserve">9.23866176605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08219337463379</t>
   </si>
   <si>
     <t xml:space="preserve">9.00396060943604</t>
@@ -3512,13 +3512,13 @@
     <t xml:space="preserve">9.04663372039795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13909149169922</t>
+    <t xml:space="preserve">9.13909244537354</t>
   </si>
   <si>
     <t xml:space="preserve">9.18176460266113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2599983215332</t>
+    <t xml:space="preserve">9.25999736785889</t>
   </si>
   <si>
     <t xml:space="preserve">9.21732425689697</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">9.35245513916016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96128940582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91431427001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79340839385986</t>
+    <t xml:space="preserve">8.96128845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91431331634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79340744018555</t>
   </si>
   <si>
     <t xml:space="preserve">9.50892162322998</t>
@@ -3542,7 +3542,7 @@
     <t xml:space="preserve">9.45202541351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35956859588623</t>
+    <t xml:space="preserve">9.35956764221191</t>
   </si>
   <si>
     <t xml:space="preserve">9.11775398254395</t>
@@ -3551,10 +3551,10 @@
     <t xml:space="preserve">9.66539001464844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05374431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887615203857</t>
+    <t xml:space="preserve">9.05374622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887710571289</t>
   </si>
   <si>
     <t xml:space="preserve">9.85741710662842</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">9.87875366210938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8858642578125</t>
+    <t xml:space="preserve">9.88586521148682</t>
   </si>
   <si>
     <t xml:space="preserve">9.97832298278809</t>
@@ -3572,34 +3572,34 @@
     <t xml:space="preserve">9.90009021759033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89297771453857</t>
+    <t xml:space="preserve">9.89297676086426</t>
   </si>
   <si>
     <t xml:space="preserve">9.97121143341064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1134538650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4121646881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3623790740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3125944137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3268184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4050521850586</t>
+    <t xml:space="preserve">10.113452911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4121627807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3623781204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.312593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3268175125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40505027771</t>
   </si>
   <si>
     <t xml:space="preserve">10.1276779174805</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2983684539795</t>
+    <t xml:space="preserve">10.2983694076538</t>
   </si>
   <si>
     <t xml:space="preserve">10.4406118392944</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">10.4263877868652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5188446044922</t>
+    <t xml:space="preserve">10.5188455581665</t>
   </si>
   <si>
     <t xml:space="preserve">10.7891063690186</t>
@@ -3617,16 +3617,16 @@
     <t xml:space="preserve">11.0451421737671</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0949296951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3580770492554</t>
+    <t xml:space="preserve">11.0949277877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3580780029297</t>
   </si>
   <si>
     <t xml:space="preserve">11.4434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4860944747925</t>
+    <t xml:space="preserve">11.4860954284668</t>
   </si>
   <si>
     <t xml:space="preserve">11.2656192779541</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">11.8345899581909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9057102203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.225757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6141138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0621795654297</t>
+    <t xml:space="preserve">11.9057111740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257585525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6141147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0621776580811</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496744155884</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">11.8914861679077</t>
   </si>
   <si>
-    <t xml:space="preserve">11.742133140564</t>
+    <t xml:space="preserve">11.7421321868896</t>
   </si>
   <si>
     <t xml:space="preserve">11.7207956314087</t>
@@ -3665,22 +3665,22 @@
     <t xml:space="preserve">11.7492446899414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.104850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0977411270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3790817260742</t>
+    <t xml:space="preserve">12.1048517227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0977392196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3790807723999</t>
   </si>
   <si>
     <t xml:space="preserve">12.3486661911011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.196590423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9988889694214</t>
+    <t xml:space="preserve">12.1965894699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9988880157471</t>
   </si>
   <si>
     <t xml:space="preserve">12.1053428649902</t>
@@ -3689,31 +3689,31 @@
     <t xml:space="preserve">12.2117967605591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1433629989624</t>
+    <t xml:space="preserve">12.1433620452881</t>
   </si>
   <si>
     <t xml:space="preserve">12.1585693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3106479644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4323081970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6528205871582</t>
+    <t xml:space="preserve">12.3106470108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4323091506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528196334839</t>
   </si>
   <si>
     <t xml:space="preserve">12.7288579940796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7516717910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8505220413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8125009536743</t>
+    <t xml:space="preserve">12.7516708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8505201339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8125019073486</t>
   </si>
   <si>
     <t xml:space="preserve">12.6224050521851</t>
@@ -3722,16 +3722,16 @@
     <t xml:space="preserve">12.8809366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8581228256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7896900177002</t>
+    <t xml:space="preserve">12.8581247329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7896909713745</t>
   </si>
   <si>
     <t xml:space="preserve">12.6908397674561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3866853713989</t>
+    <t xml:space="preserve">12.3866863250732</t>
   </si>
   <si>
     <t xml:space="preserve">12.2498159408569</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">12.0369071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6034889221191</t>
+    <t xml:space="preserve">11.6034879684448</t>
   </si>
   <si>
     <t xml:space="preserve">11.5578660964966</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">11.5426568984985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9647645950317</t>
+    <t xml:space="preserve">10.9647636413574</t>
   </si>
   <si>
     <t xml:space="preserve">11.1092367172241</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">11.504638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9228496551514</t>
+    <t xml:space="preserve">11.9228506088257</t>
   </si>
   <si>
     <t xml:space="preserve">12.0901336669922</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">11.9608678817749</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0597190856934</t>
+    <t xml:space="preserve">12.0597200393677</t>
   </si>
   <si>
     <t xml:space="preserve">12.0064926147461</t>
@@ -3797,13 +3797,13 @@
     <t xml:space="preserve">12.1509656906128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1357574462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9265584945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9797868728638</t>
+    <t xml:space="preserve">12.1357583999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9265594482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9797859191895</t>
   </si>
   <si>
     <t xml:space="preserve">13.2991485595703</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">13.1318626403809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3295640945435</t>
+    <t xml:space="preserve">13.3295650482178</t>
   </si>
   <si>
     <t xml:space="preserve">13.2839403152466</t>
@@ -3827,7 +3827,7 @@
     <t xml:space="preserve">13.4816398620605</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6565294265747</t>
+    <t xml:space="preserve">13.6565284729004</t>
   </si>
   <si>
     <t xml:space="preserve">13.7173624038696</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">14.0291194915771</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5576801300049</t>
+    <t xml:space="preserve">13.5576791763306</t>
   </si>
   <si>
     <t xml:space="preserve">13.5120573043823</t>
@@ -3848,13 +3848,13 @@
     <t xml:space="preserve">13.9530811309814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8238153457642</t>
+    <t xml:space="preserve">13.8238162994385</t>
   </si>
   <si>
     <t xml:space="preserve">13.0330123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4664335250854</t>
+    <t xml:space="preserve">13.4664344787598</t>
   </si>
   <si>
     <t xml:space="preserve">13.5880966186523</t>
@@ -3872,7 +3872,7 @@
     <t xml:space="preserve">13.8998537063599</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7249631881714</t>
+    <t xml:space="preserve">13.7249641418457</t>
   </si>
   <si>
     <t xml:space="preserve">13.6261148452759</t>
@@ -3881,13 +3881,13 @@
     <t xml:space="preserve">14.0063076019287</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5994091033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6031179428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7399864196777</t>
+    <t xml:space="preserve">14.5994081497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6031160354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7399883270264</t>
   </si>
   <si>
     <t xml:space="preserve">16.4243354797363</t>
@@ -3896,28 +3896,28 @@
     <t xml:space="preserve">16.485164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2266330718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2722587585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3597955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9796009063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9454774856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6678438186646</t>
+    <t xml:space="preserve">16.2266311645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2722568511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3597936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9796028137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9454765319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6678428649902</t>
   </si>
   <si>
     <t xml:space="preserve">14.4017066955566</t>
   </si>
   <si>
-    <t xml:space="preserve">13.565281867981</t>
+    <t xml:space="preserve">13.5652828216553</t>
   </si>
   <si>
     <t xml:space="preserve">13.8314180374146</t>
@@ -3929,52 +3929,52 @@
     <t xml:space="preserve">12.3714780807495</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8316040039062</t>
+    <t xml:space="preserve">11.8316030502319</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341640472412</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1281538009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5007429122925</t>
+    <t xml:space="preserve">12.1281547546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5007438659668</t>
   </si>
   <si>
     <t xml:space="preserve">13.0482206344604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3827896118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0823459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9834957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0139102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3636865615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2952537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1735916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.33327293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3712911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964044570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3180637359619</t>
+    <t xml:space="preserve">13.3827905654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0823469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.983494758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0139112472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3636875152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2952527999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1735935211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3332738876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3712921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3180656433105</t>
   </si>
   <si>
     <t xml:space="preserve">13.4968490600586</t>
@@ -3983,46 +3983,46 @@
     <t xml:space="preserve">13.9074573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7401704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7933988571167</t>
+    <t xml:space="preserve">13.7401714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7933979034424</t>
   </si>
   <si>
     <t xml:space="preserve">13.4740352630615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8086061477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1470718383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915449142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4779319763184</t>
+    <t xml:space="preserve">13.8086080551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470727920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915458679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090517044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.477931022644</t>
   </si>
   <si>
     <t xml:space="preserve">12.7364635467529</t>
   </si>
   <si>
-    <t xml:space="preserve">13.223108291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5272636413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.238317489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.833477973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8495626449585</t>
+    <t xml:space="preserve">13.2231092453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5272645950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2383184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8334789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8495635986328</t>
   </si>
   <si>
     <t xml:space="preserve">13.7691383361816</t>
@@ -4031,10 +4031,10 @@
     <t xml:space="preserve">14.0425882339478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9380340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.018461227417</t>
+    <t xml:space="preserve">13.9380331039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0184602737427</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565380096436</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">13.6324119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6082820892334</t>
+    <t xml:space="preserve">13.6082830429077</t>
   </si>
   <si>
     <t xml:space="preserve">13.5761108398438</t>
@@ -4055,7 +4055,7 @@
     <t xml:space="preserve">13.3509149551392</t>
   </si>
   <si>
-    <t xml:space="preserve">13.173975944519</t>
+    <t xml:space="preserve">13.1739749908447</t>
   </si>
   <si>
     <t xml:space="preserve">12.9166088104248</t>
@@ -4064,16 +4064,16 @@
     <t xml:space="preserve">12.1445083618164</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252170562744</t>
+    <t xml:space="preserve">11.5252180099487</t>
   </si>
   <si>
     <t xml:space="preserve">11.6458578109741</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0560369491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5010900497437</t>
+    <t xml:space="preserve">12.056037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5010890960693</t>
   </si>
   <si>
     <t xml:space="preserve">11.4850034713745</t>
@@ -4100,22 +4100,22 @@
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276372909546</t>
+    <t xml:space="preserve">11.2276382446289</t>
   </si>
   <si>
     <t xml:space="preserve">10.8657150268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7289886474609</t>
+    <t xml:space="preserve">10.7289876937866</t>
   </si>
   <si>
     <t xml:space="preserve">10.6726903915405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2383813858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1579551696777</t>
+    <t xml:space="preserve">10.2383823394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1579561233521</t>
   </si>
   <si>
     <t xml:space="preserve">10.3751096725464</t>
@@ -4127,13 +4127,13 @@
     <t xml:space="preserve">10.350980758667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4072799682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96493053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48236751556396</t>
+    <t xml:space="preserve">10.4072790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96492958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48236656188965</t>
   </si>
   <si>
     <t xml:space="preserve">9.70756340026855</t>
@@ -4148,16 +4148,16 @@
     <t xml:space="preserve">10.1659984588623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016569137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1820840835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4877061843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1338272094727</t>
+    <t xml:space="preserve">10.101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1820831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4877071380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.133828163147</t>
   </si>
   <si>
     <t xml:space="preserve">10.3027257919312</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">10.5118350982666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9461421966553</t>
+    <t xml:space="preserve">10.946141242981</t>
   </si>
   <si>
     <t xml:space="preserve">11.0185260772705</t>
@@ -4184,13 +4184,13 @@
     <t xml:space="preserve">10.9783134460449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968173980713</t>
+    <t xml:space="preserve">10.6968183517456</t>
   </si>
   <si>
     <t xml:space="preserve">10.415322303772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5279216766357</t>
+    <t xml:space="preserve">10.5279207229614</t>
   </si>
   <si>
     <t xml:space="preserve">10.7852878570557</t>
@@ -4199,22 +4199,22 @@
     <t xml:space="preserve">10.9702701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4394502639771</t>
+    <t xml:space="preserve">10.4394512176514</t>
   </si>
   <si>
     <t xml:space="preserve">10.0131864547729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1418695449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177425384521</t>
+    <t xml:space="preserve">10.1418704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177415847778</t>
   </si>
   <si>
     <t xml:space="preserve">9.97297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6995210647583</t>
+    <t xml:space="preserve">9.69952011108398</t>
   </si>
   <si>
     <t xml:space="preserve">9.62713718414307</t>
@@ -4223,10 +4223,10 @@
     <t xml:space="preserve">9.69147777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61104965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36172580718994</t>
+    <t xml:space="preserve">9.61105060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36172771453857</t>
   </si>
   <si>
     <t xml:space="preserve">9.55475234985352</t>
@@ -4241,13 +4241,13 @@
     <t xml:space="preserve">9.1043586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18478679656982</t>
+    <t xml:space="preserve">9.18478584289551</t>
   </si>
   <si>
     <t xml:space="preserve">9.39389705657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91667366027832</t>
+    <t xml:space="preserve">9.91667461395264</t>
   </si>
   <si>
     <t xml:space="preserve">9.92471694946289</t>
@@ -4265,13 +4265,13 @@
     <t xml:space="preserve">9.45019626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49845314025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17674446105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19282913208008</t>
+    <t xml:space="preserve">9.49845218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17674350738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19282817840576</t>
   </si>
   <si>
     <t xml:space="preserve">9.04001712799072</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">8.65396690368652</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15261554718018</t>
+    <t xml:space="preserve">9.15261650085449</t>
   </si>
   <si>
     <t xml:space="preserve">9.25717067718506</t>
@@ -4319,10 +4319,10 @@
     <t xml:space="preserve">9.12848854064941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22500038146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32955551147461</t>
+    <t xml:space="preserve">9.22500133514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32955455780029</t>
   </si>
   <si>
     <t xml:space="preserve">9.41802501678467</t>
@@ -4340,30 +4340,33 @@
     <t xml:space="preserve">10.5198774337769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4796648025513</t>
+    <t xml:space="preserve">10.479663848877</t>
   </si>
   <si>
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506982803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1954660415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1632947921753</t>
+    <t xml:space="preserve">11.0506973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1954650878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1632957458496</t>
   </si>
   <si>
     <t xml:space="preserve">11.1230821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0024423599243</t>
+    <t xml:space="preserve">11.00244140625</t>
   </si>
   <si>
     <t xml:space="preserve">11.3643636703491</t>
   </si>
   <si>
+    <t xml:space="preserve">11.3643646240234</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.3037767410278</t>
   </si>
   <si>
@@ -4388,16 +4391,16 @@
     <t xml:space="preserve">11.2951211929321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2172241210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0441188812256</t>
+    <t xml:space="preserve">11.2172231674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0441179275513</t>
   </si>
   <si>
     <t xml:space="preserve">10.853702545166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8710136413574</t>
+    <t xml:space="preserve">10.8710126876831</t>
   </si>
   <si>
     <t xml:space="preserve">11.0527744293213</t>
@@ -4421,13 +4424,13 @@
     <t xml:space="preserve">11.5720891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3730182647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4162950515747</t>
+    <t xml:space="preserve">11.3730192184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4162940979004</t>
   </si>
   <si>
     <t xml:space="preserve">11.5115032196045</t>
@@ -4442,7 +4445,7 @@
     <t xml:space="preserve">11.8144369125366</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1000604629517</t>
+    <t xml:space="preserve">12.1000595092773</t>
   </si>
   <si>
     <t xml:space="preserve">12.1346817016602</t>
@@ -4481,7 +4484,7 @@
     <t xml:space="preserve">12.5328235626221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3337535858154</t>
+    <t xml:space="preserve">12.3337526321411</t>
   </si>
   <si>
     <t xml:space="preserve">12.5674457550049</t>
@@ -4493,7 +4496,7 @@
     <t xml:space="preserve">13.0088634490967</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2858324050903</t>
+    <t xml:space="preserve">13.285831451416</t>
   </si>
   <si>
     <t xml:space="preserve">13.3810405731201</t>
@@ -4505,7 +4508,7 @@
     <t xml:space="preserve">13.5368347167969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.640697479248</t>
+    <t xml:space="preserve">13.6406984329224</t>
   </si>
   <si>
     <t xml:space="preserve">13.7705268859863</t>
@@ -4514,10 +4517,10 @@
     <t xml:space="preserve">13.7618713378906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9955644607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1167373657227</t>
+    <t xml:space="preserve">13.9955635070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1167364120483</t>
   </si>
   <si>
     <t xml:space="preserve">14.0907716751099</t>
@@ -4526,28 +4529,28 @@
     <t xml:space="preserve">13.7878379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6233882904053</t>
+    <t xml:space="preserve">13.623387336731</t>
   </si>
   <si>
     <t xml:space="preserve">14.194634437561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0042200088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7532167434692</t>
+    <t xml:space="preserve">14.0042190551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7532176971436</t>
   </si>
   <si>
     <t xml:space="preserve">13.4675931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3117980957031</t>
+    <t xml:space="preserve">13.3117971420288</t>
   </si>
   <si>
     <t xml:space="preserve">13.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4502830505371</t>
+    <t xml:space="preserve">13.4502820968628</t>
   </si>
   <si>
     <t xml:space="preserve">13.5281801223755</t>
@@ -4565,7 +4568,7 @@
     <t xml:space="preserve">12.8184480667114</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212352752686</t>
+    <t xml:space="preserve">12.2212343215942</t>
   </si>
   <si>
     <t xml:space="preserve">12.2385454177856</t>
@@ -4595,19 +4598,19 @@
     <t xml:space="preserve">12.0827503204346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9961977005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1606483459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2904758453369</t>
+    <t xml:space="preserve">11.9961986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1606473922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2904767990112</t>
   </si>
   <si>
     <t xml:space="preserve">12.7405500411987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6713094711304</t>
+    <t xml:space="preserve">12.6713085174561</t>
   </si>
   <si>
     <t xml:space="preserve">12.9482774734497</t>
@@ -4619,19 +4622,19 @@
     <t xml:space="preserve">12.9915533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1906232833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3377637863159</t>
+    <t xml:space="preserve">13.1906242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3377628326416</t>
   </si>
   <si>
     <t xml:space="preserve">13.1560039520264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0867605209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1733140945435</t>
+    <t xml:space="preserve">13.0867614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1733150482178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7232398986816</t>
@@ -4652,7 +4655,7 @@
     <t xml:space="preserve">12.4895486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4635810852051</t>
+    <t xml:space="preserve">12.4635820388794</t>
   </si>
   <si>
     <t xml:space="preserve">13.0999450683594</t>
@@ -5307,6 +5310,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.3500003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3899993896484</t>
   </si>
 </sst>
 </file>
@@ -51244,7 +51250,7 @@
         <v>13.1300001144409</v>
       </c>
       <c r="G1754" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51270,7 +51276,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1755" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51296,7 +51302,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1756" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51322,7 +51328,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1757" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51348,7 +51354,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1758" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51374,7 +51380,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51400,7 +51406,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1760" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51426,7 +51432,7 @@
         <v>13.1300001144409</v>
       </c>
       <c r="G1761" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51452,7 +51458,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1762" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51478,7 +51484,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1763" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51504,7 +51510,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1764" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51530,7 +51536,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1765" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51556,7 +51562,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G1766" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51582,7 +51588,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1767" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51608,7 +51614,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G1768" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51634,7 +51640,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G1769" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51660,7 +51666,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G1770" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51686,7 +51692,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1771" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51712,7 +51718,7 @@
         <v>12.710000038147</v>
       </c>
       <c r="G1772" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51738,7 +51744,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1773" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51764,7 +51770,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G1774" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51790,7 +51796,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1775" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51816,7 +51822,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1776" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51842,7 +51848,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1777" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51868,7 +51874,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1778" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51894,7 +51900,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1779" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51920,7 +51926,7 @@
         <v>13.1899995803833</v>
       </c>
       <c r="G1780" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51946,7 +51952,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51972,7 +51978,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1782" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51998,7 +52004,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1783" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -52024,7 +52030,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -52050,7 +52056,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1785" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52076,7 +52082,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1786" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52102,7 +52108,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1787" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52128,7 +52134,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1788" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52154,7 +52160,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52180,7 +52186,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1790" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52206,7 +52212,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1791" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52232,7 +52238,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52258,7 +52264,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1793" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52284,7 +52290,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1794" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52310,7 +52316,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1795" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52336,7 +52342,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52362,7 +52368,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1797" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52388,7 +52394,7 @@
         <v>14.5</v>
       </c>
       <c r="G1798" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52414,7 +52420,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1799" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52440,7 +52446,7 @@
         <v>14.25</v>
       </c>
       <c r="G1800" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52466,7 +52472,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52492,7 +52498,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1802" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52518,7 +52524,7 @@
         <v>15.0299997329712</v>
       </c>
       <c r="G1803" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52544,7 +52550,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1804" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52570,7 +52576,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1805" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52596,7 +52602,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52622,7 +52628,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1807" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52648,7 +52654,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1808" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52674,7 +52680,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1809" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52700,7 +52706,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1810" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52726,7 +52732,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1811" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52752,7 +52758,7 @@
         <v>16.1700000762939</v>
       </c>
       <c r="G1812" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52778,7 +52784,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G1813" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52804,7 +52810,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1814" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52830,7 +52836,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G1815" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52856,7 +52862,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1816" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52882,7 +52888,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1817" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52908,7 +52914,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52934,7 +52940,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G1819" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52960,7 +52966,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1820" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52986,7 +52992,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G1821" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -53012,7 +53018,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G1822" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -53038,7 +53044,7 @@
         <v>15.5900001525879</v>
       </c>
       <c r="G1823" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53064,7 +53070,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1824" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53090,7 +53096,7 @@
         <v>15.6300001144409</v>
       </c>
       <c r="G1825" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53116,7 +53122,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53142,7 +53148,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1827" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53168,7 +53174,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53194,7 +53200,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1829" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53220,7 +53226,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1830" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53246,7 +53252,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1831" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53272,7 +53278,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1832" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53298,7 +53304,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53324,7 +53330,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1834" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53350,7 +53356,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1835" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53376,7 +53382,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53402,7 +53408,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53428,7 +53434,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1838" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53454,7 +53460,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1839" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53480,7 +53486,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53506,7 +53512,7 @@
         <v>14.0100002288818</v>
       </c>
       <c r="G1841" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53532,7 +53538,7 @@
         <v>13.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53558,7 +53564,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1843" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53584,7 +53590,7 @@
         <v>13.6099996566772</v>
       </c>
       <c r="G1844" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53610,7 +53616,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1845" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53636,7 +53642,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G1846" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53662,7 +53668,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1847" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53688,7 +53694,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G1848" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53714,7 +53720,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1849" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53740,7 +53746,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53766,7 +53772,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53792,7 +53798,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1852" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53818,7 +53824,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1853" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53844,7 +53850,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53870,7 +53876,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1855" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53896,7 +53902,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1856" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53922,7 +53928,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1857" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53948,7 +53954,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G1858" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53974,7 +53980,7 @@
         <v>15.0100002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -54000,7 +54006,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1860" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54026,7 +54032,7 @@
         <v>15.4099998474121</v>
       </c>
       <c r="G1861" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54052,7 +54058,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1862" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54078,7 +54084,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1863" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54104,7 +54110,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1864" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54130,7 +54136,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1865" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54156,7 +54162,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1866" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54182,7 +54188,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1867" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54208,7 +54214,7 @@
         <v>14.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54234,7 +54240,7 @@
         <v>15</v>
       </c>
       <c r="G1869" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54260,7 +54266,7 @@
         <v>15.0299997329712</v>
       </c>
       <c r="G1870" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54286,7 +54292,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1871" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54312,7 +54318,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1872" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54338,7 +54344,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1873" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54364,7 +54370,7 @@
         <v>14.3900003433228</v>
       </c>
       <c r="G1874" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54390,7 +54396,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1875" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54416,7 +54422,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1876" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54442,7 +54448,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G1877" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54468,7 +54474,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54494,7 +54500,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1879" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54520,7 +54526,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1880" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54546,7 +54552,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1881" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54572,7 +54578,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54598,7 +54604,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54624,7 +54630,7 @@
         <v>14.5900001525879</v>
       </c>
       <c r="G1884" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54650,7 +54656,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1885" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54676,7 +54682,7 @@
         <v>14.210000038147</v>
       </c>
       <c r="G1886" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54702,7 +54708,7 @@
         <v>14</v>
       </c>
       <c r="G1887" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54728,7 +54734,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1888" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54754,7 +54760,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1889" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54780,7 +54786,7 @@
         <v>14.25</v>
       </c>
       <c r="G1890" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54806,7 +54812,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54832,7 +54838,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1892" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54858,7 +54864,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1893" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54884,7 +54890,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1894" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54910,7 +54916,7 @@
         <v>14.0699996948242</v>
       </c>
       <c r="G1895" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54936,7 +54942,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54962,7 +54968,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1897" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54988,7 +54994,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1898" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -55014,7 +55020,7 @@
         <v>14.1099996566772</v>
       </c>
       <c r="G1899" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55040,7 +55046,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1900" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55066,7 +55072,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1901" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55092,7 +55098,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55118,7 +55124,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1903" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55144,7 +55150,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1904" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55170,7 +55176,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55196,7 +55202,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1906" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55222,7 +55228,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55248,7 +55254,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1908" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55274,7 +55280,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1909" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55300,7 +55306,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1910" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55326,7 +55332,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1911" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55352,7 +55358,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55378,7 +55384,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1913" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55404,7 +55410,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1914" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55430,7 +55436,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55456,7 +55462,7 @@
         <v>14.75</v>
       </c>
       <c r="G1916" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55482,7 +55488,7 @@
         <v>14.75</v>
       </c>
       <c r="G1917" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55508,7 +55514,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1918" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55534,7 +55540,7 @@
         <v>15.039999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55560,7 +55566,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1920" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55586,7 +55592,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1921" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55612,7 +55618,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55638,7 +55644,7 @@
         <v>15.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55664,7 +55670,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1924" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55690,7 +55696,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1925" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55716,7 +55722,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55742,7 +55748,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1927" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55768,7 +55774,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1928" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55794,7 +55800,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G1929" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55820,7 +55826,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1930" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55846,7 +55852,7 @@
         <v>15.75</v>
       </c>
       <c r="G1931" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55872,7 +55878,7 @@
         <v>15.4899997711182</v>
       </c>
       <c r="G1932" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55898,7 +55904,7 @@
         <v>15.5900001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55924,7 +55930,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1934" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55950,7 +55956,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1935" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55976,7 +55982,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56002,7 +56008,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1937" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56028,7 +56034,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1938" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56054,7 +56060,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56080,7 +56086,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1940" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56106,7 +56112,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G1941" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56132,7 +56138,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1942" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56158,7 +56164,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1943" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56184,7 +56190,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56210,7 +56216,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1945" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56236,7 +56242,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56262,7 +56268,7 @@
         <v>15.9700002670288</v>
       </c>
       <c r="G1947" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56288,7 +56294,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1948" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56314,7 +56320,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1949" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56340,7 +56346,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1950" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56366,7 +56372,7 @@
         <v>16.2700004577637</v>
       </c>
       <c r="G1951" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56392,7 +56398,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1952" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56418,7 +56424,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1953" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56444,7 +56450,7 @@
         <v>16.0300006866455</v>
       </c>
       <c r="G1954" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56470,7 +56476,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1955" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56496,7 +56502,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G1956" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56522,7 +56528,7 @@
         <v>15.5299997329712</v>
       </c>
       <c r="G1957" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56548,7 +56554,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1958" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56574,7 +56580,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1959" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56600,7 +56606,7 @@
         <v>15.7299995422363</v>
       </c>
       <c r="G1960" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56626,7 +56632,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G1961" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56652,7 +56658,7 @@
         <v>15.7299995422363</v>
       </c>
       <c r="G1962" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56678,7 +56684,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56704,7 +56710,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1964" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56730,7 +56736,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1965" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56756,7 +56762,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G1966" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56782,7 +56788,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G1967" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56808,7 +56814,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1968" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56834,7 +56840,7 @@
         <v>16.0900001525879</v>
       </c>
       <c r="G1969" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56860,7 +56866,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1970" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56886,7 +56892,7 @@
         <v>16.1100006103516</v>
       </c>
       <c r="G1971" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56912,7 +56918,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1972" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56938,7 +56944,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="G1973" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56964,7 +56970,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1974" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56990,7 +56996,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57016,7 +57022,7 @@
         <v>15.9899997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57042,7 +57048,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1977" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57068,7 +57074,7 @@
         <v>16.25</v>
       </c>
       <c r="G1978" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57094,7 +57100,7 @@
         <v>16.0900001525879</v>
       </c>
       <c r="G1979" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57120,7 +57126,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57146,7 +57152,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1981" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57172,7 +57178,7 @@
         <v>16.6700000762939</v>
       </c>
       <c r="G1982" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57198,7 +57204,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1983" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57224,7 +57230,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57250,7 +57256,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1985" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57276,7 +57282,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1986" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57302,7 +57308,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1987" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57328,7 +57334,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57354,7 +57360,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1989" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57380,7 +57386,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1990" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57406,7 +57412,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57432,7 +57438,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1992" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57458,7 +57464,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1993" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57484,7 +57490,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G1994" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57510,7 +57516,7 @@
         <v>16.1299991607666</v>
       </c>
       <c r="G1995" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57536,7 +57542,7 @@
         <v>16.3299999237061</v>
       </c>
       <c r="G1996" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57562,7 +57568,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1997" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57588,7 +57594,7 @@
         <v>16.7299995422363</v>
       </c>
       <c r="G1998" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57614,7 +57620,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1999" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57640,7 +57646,7 @@
         <v>16.6299991607666</v>
       </c>
       <c r="G2000" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57666,7 +57672,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57692,7 +57698,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2002" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57718,7 +57724,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2003" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57744,7 +57750,7 @@
         <v>17.2299995422363</v>
       </c>
       <c r="G2004" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57770,7 +57776,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G2005" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57796,7 +57802,7 @@
         <v>17</v>
       </c>
       <c r="G2006" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57822,7 +57828,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2007" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57848,7 +57854,7 @@
         <v>17.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57874,7 +57880,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G2009" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57900,7 +57906,7 @@
         <v>15.6099996566772</v>
       </c>
       <c r="G2010" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57926,7 +57932,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2011" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57952,7 +57958,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G2012" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57978,7 +57984,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58004,7 +58010,7 @@
         <v>15.5100002288818</v>
       </c>
       <c r="G2014" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58030,7 +58036,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58056,7 +58062,7 @@
         <v>15.75</v>
       </c>
       <c r="G2016" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58082,7 +58088,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58108,7 +58114,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G2018" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58134,7 +58140,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G2019" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58160,7 +58166,7 @@
         <v>15.75</v>
       </c>
       <c r="G2020" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58186,7 +58192,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G2021" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58212,7 +58218,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G2022" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58238,7 +58244,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2023" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58264,7 +58270,7 @@
         <v>16.25</v>
       </c>
       <c r="G2024" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58290,7 +58296,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2025" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58316,7 +58322,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G2026" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58342,7 +58348,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G2027" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58368,7 +58374,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G2028" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58394,7 +58400,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58420,7 +58426,7 @@
         <v>15.789999961853</v>
       </c>
       <c r="G2030" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58446,7 +58452,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58472,7 +58478,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2032" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58498,7 +58504,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2033" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58524,7 +58530,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G2034" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58550,7 +58556,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2035" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58576,7 +58582,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58602,7 +58608,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G2037" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58628,7 +58634,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G2038" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58654,7 +58660,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2039" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58680,7 +58686,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G2040" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58706,7 +58712,7 @@
         <v>16.4899997711182</v>
       </c>
       <c r="G2041" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58732,7 +58738,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G2042" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58758,7 +58764,7 @@
         <v>16.1100006103516</v>
       </c>
       <c r="G2043" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58784,7 +58790,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2044" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58810,7 +58816,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G2045" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58836,7 +58842,7 @@
         <v>15.6099996566772</v>
       </c>
       <c r="G2046" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58862,7 +58868,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G2047" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58888,7 +58894,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G2048" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58914,7 +58920,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G2049" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58940,7 +58946,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G2050" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58966,7 +58972,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G2051" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58992,7 +58998,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G2052" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59018,7 +59024,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59044,7 +59050,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2054" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59070,7 +59076,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G2055" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59096,7 +59102,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2056" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59122,7 +59128,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G2057" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59148,7 +59154,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2058" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59174,7 +59180,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G2059" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59200,7 +59206,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G2060" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59226,7 +59232,7 @@
         <v>16.1499996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59252,7 +59258,7 @@
         <v>16.1700000762939</v>
       </c>
       <c r="G2062" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59278,7 +59284,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59304,7 +59310,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2064" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59330,7 +59336,7 @@
         <v>16.2900009155273</v>
       </c>
       <c r="G2065" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59356,7 +59362,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G2066" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59382,7 +59388,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G2067" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59408,7 +59414,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2068" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59434,7 +59440,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G2069" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59460,7 +59466,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59486,7 +59492,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G2071" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59512,7 +59518,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2072" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59538,7 +59544,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G2073" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59564,7 +59570,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2074" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59590,7 +59596,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G2075" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59616,7 +59622,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G2076" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59642,7 +59648,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G2077" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59668,7 +59674,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59694,7 +59700,7 @@
         <v>16.8099994659424</v>
       </c>
       <c r="G2079" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59720,7 +59726,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G2080" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59746,7 +59752,7 @@
         <v>16.9099998474121</v>
       </c>
       <c r="G2081" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59772,7 +59778,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G2082" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59798,7 +59804,7 @@
         <v>17.1299991607666</v>
       </c>
       <c r="G2083" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59824,7 +59830,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G2084" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59850,7 +59856,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G2085" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59876,7 +59882,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G2086" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59902,7 +59908,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G2087" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59928,7 +59934,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G2088" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59954,7 +59960,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59980,7 +59986,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G2090" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60006,7 +60012,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G2091" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60032,7 +60038,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G2092" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60058,7 +60064,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G2093" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60084,7 +60090,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2094" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60110,7 +60116,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2095" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60136,7 +60142,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60162,7 +60168,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2097" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60188,7 +60194,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2098" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60214,7 +60220,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60240,7 +60246,7 @@
         <v>18.0900001525879</v>
       </c>
       <c r="G2100" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60266,7 +60272,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2101" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60292,7 +60298,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G2102" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60318,7 +60324,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G2103" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60344,7 +60350,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60370,7 +60376,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60396,7 +60402,7 @@
         <v>19.8899993896484</v>
       </c>
       <c r="G2106" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60422,7 +60428,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60448,7 +60454,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G2108" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60474,7 +60480,7 @@
         <v>19.5200004577637</v>
       </c>
       <c r="G2109" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60500,7 +60506,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60526,7 +60532,7 @@
         <v>19.7700004577637</v>
       </c>
       <c r="G2111" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60552,7 +60558,7 @@
         <v>20.0200004577637</v>
       </c>
       <c r="G2112" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60578,7 +60584,7 @@
         <v>20.3600006103516</v>
       </c>
       <c r="G2113" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60604,7 +60610,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60630,7 +60636,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60656,7 +60662,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60682,7 +60688,7 @@
         <v>20.4799995422363</v>
       </c>
       <c r="G2117" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60708,7 +60714,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2118" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60734,7 +60740,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G2119" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60760,7 +60766,7 @@
         <v>20.9400005340576</v>
       </c>
       <c r="G2120" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60786,7 +60792,7 @@
         <v>21.1599998474121</v>
       </c>
       <c r="G2121" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60812,7 +60818,7 @@
         <v>21.0799999237061</v>
       </c>
       <c r="G2122" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60838,7 +60844,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G2123" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60864,7 +60870,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G2124" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60890,7 +60896,7 @@
         <v>21.5200004577637</v>
       </c>
       <c r="G2125" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60916,7 +60922,7 @@
         <v>20.6399993896484</v>
       </c>
       <c r="G2126" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60942,7 +60948,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2127" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60968,7 +60974,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2128" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60994,7 +61000,7 @@
         <v>20.7800006866455</v>
       </c>
       <c r="G2129" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61020,7 +61026,7 @@
         <v>20.4200000762939</v>
       </c>
       <c r="G2130" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61046,7 +61052,7 @@
         <v>20.7800006866455</v>
       </c>
       <c r="G2131" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61072,7 +61078,7 @@
         <v>20.6800003051758</v>
       </c>
       <c r="G2132" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61098,7 +61104,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2133" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61124,7 +61130,7 @@
         <v>19.6299991607666</v>
       </c>
       <c r="G2134" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61150,7 +61156,7 @@
         <v>19.3299999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61176,7 +61182,7 @@
         <v>19.2700004577637</v>
       </c>
       <c r="G2136" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61202,7 +61208,7 @@
         <v>19.5</v>
       </c>
       <c r="G2137" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61228,7 +61234,7 @@
         <v>19.5200004577637</v>
       </c>
       <c r="G2138" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61254,7 +61260,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2139" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61280,7 +61286,7 @@
         <v>19.1299991607666</v>
       </c>
       <c r="G2140" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61306,7 +61312,7 @@
         <v>19.9099998474121</v>
       </c>
       <c r="G2141" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61332,7 +61338,7 @@
         <v>20.1800003051758</v>
       </c>
       <c r="G2142" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61358,7 +61364,7 @@
         <v>20.0400009155273</v>
       </c>
       <c r="G2143" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61384,7 +61390,7 @@
         <v>19.7900009155273</v>
       </c>
       <c r="G2144" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61410,7 +61416,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61436,7 +61442,7 @@
         <v>20.0599994659424</v>
       </c>
       <c r="G2146" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61462,7 +61468,7 @@
         <v>20.1800003051758</v>
       </c>
       <c r="G2147" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61488,7 +61494,7 @@
         <v>20.0200004577637</v>
       </c>
       <c r="G2148" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61514,7 +61520,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2149" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61540,7 +61546,7 @@
         <v>19.75</v>
       </c>
       <c r="G2150" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61566,7 +61572,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G2151" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61592,7 +61598,7 @@
         <v>18.9300003051758</v>
       </c>
       <c r="G2152" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61600,7 +61606,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.649537037</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>123974</v>
@@ -61618,9 +61624,35 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6494675926</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>56328</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>19.5499992370605</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>19.3199996948242</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>19.4200000762939</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>19.3899993896484</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1770">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3060836791992</t>
+    <t xml:space="preserve">17.306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">IF.MI</t>
@@ -50,34 +50,34 @@
     <t xml:space="preserve">16.850980758667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9961347579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931861877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116321563721</t>
+    <t xml:space="preserve">15.9961338043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116340637207</t>
   </si>
   <si>
     <t xml:space="preserve">15.8669843673706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5902318954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3466815948486</t>
+    <t xml:space="preserve">15.5902338027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3466854095459</t>
   </si>
   <si>
     <t xml:space="preserve">15.2335338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9407835006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1006813049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8731327056885</t>
+    <t xml:space="preserve">15.9407844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1006832122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8731317520142</t>
   </si>
   <si>
     <t xml:space="preserve">16.9063320159912</t>
@@ -86,43 +86,43 @@
     <t xml:space="preserve">16.9309329986572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5274810791016</t>
+    <t xml:space="preserve">17.5274791717529</t>
   </si>
   <si>
     <t xml:space="preserve">17.5336303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1154327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7119808197021</t>
+    <t xml:space="preserve">17.1154289245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7119827270508</t>
   </si>
   <si>
     <t xml:space="preserve">17.6504802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">17.342981338501</t>
+    <t xml:space="preserve">17.3429851531982</t>
   </si>
   <si>
     <t xml:space="preserve">16.6849308013916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4512310028076</t>
+    <t xml:space="preserve">16.4512348175049</t>
   </si>
   <si>
     <t xml:space="preserve">15.9899826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3602323532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4032859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1105337142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1412868499756</t>
+    <t xml:space="preserve">14.3602361679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4032850265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1105365753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1412830352783</t>
   </si>
   <si>
     <t xml:space="preserve">15.202784538269</t>
@@ -131,19 +131,19 @@
     <t xml:space="preserve">15.9838314056396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8792839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7808847427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.694785118103</t>
+    <t xml:space="preserve">15.8792848587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7808790206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6947822570801</t>
   </si>
   <si>
     <t xml:space="preserve">15.762433052063</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9739837646484</t>
+    <t xml:space="preserve">16.9739799499512</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696846008301</t>
@@ -155,49 +155,49 @@
     <t xml:space="preserve">16.7218322753906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.60498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5434799194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0416316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.807933807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4819812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8854331970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0084362030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5779323577881</t>
+    <t xml:space="preserve">16.6049823760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5434837341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.041633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8079357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4819831848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8854322433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0084342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5779342651367</t>
   </si>
   <si>
     <t xml:space="preserve">15.9284830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1867809295654</t>
+    <t xml:space="preserve">16.1867828369141</t>
   </si>
   <si>
     <t xml:space="preserve">16.6972312927246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9124851226807</t>
+    <t xml:space="preserve">16.912483215332</t>
   </si>
   <si>
     <t xml:space="preserve">17.5951309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8534297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6996803283691</t>
+    <t xml:space="preserve">17.8534336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996822357178</t>
   </si>
   <si>
     <t xml:space="preserve">17.5582313537598</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">17.7242813110352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7495460510254</t>
+    <t xml:space="preserve">17.749547958374</t>
   </si>
   <si>
     <t xml:space="preserve">18.1285400390625</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">18.3875217437744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0527420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4274005889893</t>
+    <t xml:space="preserve">18.0527439117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4274024963379</t>
   </si>
   <si>
     <t xml:space="preserve">18.0148448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1557922363281</t>
+    <t xml:space="preserve">17.1557903289795</t>
   </si>
   <si>
     <t xml:space="preserve">17.2442226409912</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">17.3579196929932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.471622467041</t>
+    <t xml:space="preserve">17.4716186523438</t>
   </si>
   <si>
     <t xml:space="preserve">17.1936912536621</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">16.8020648956299</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9662933349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7578468322754</t>
+    <t xml:space="preserve">16.9662952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.757848739624</t>
   </si>
   <si>
     <t xml:space="preserve">16.6504669189453</t>
@@ -257,52 +257,52 @@
     <t xml:space="preserve">16.448335647583</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3283214569092</t>
+    <t xml:space="preserve">16.3283195495605</t>
   </si>
   <si>
     <t xml:space="preserve">16.044075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0819721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.006175994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7787780761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5261154174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.22292137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334224700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0018444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544313430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4144020080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1175241470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2754392623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0354051589966</t>
+    <t xml:space="preserve">16.081974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1704063415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0061740875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7787799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5261163711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229204177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766468048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.001841545105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544322967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4144010543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1175222396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2754364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0354061126709</t>
   </si>
   <si>
     <t xml:space="preserve">13.7258958816528</t>
@@ -311,46 +311,46 @@
     <t xml:space="preserve">13.8964433670044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.953293800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5806150436401</t>
+    <t xml:space="preserve">13.9532918930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5806140899658</t>
   </si>
   <si>
     <t xml:space="preserve">13.8332767486572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2249050140381</t>
+    <t xml:space="preserve">14.2249069213867</t>
   </si>
   <si>
     <t xml:space="preserve">15.9619607925415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.349250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1597576141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9134111404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0271120071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5912666320801</t>
+    <t xml:space="preserve">15.3492517471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1597566604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9134120941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0271091461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796960830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5912656784058</t>
   </si>
   <si>
     <t xml:space="preserve">14.6923313140869</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4649324417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2564878463745</t>
+    <t xml:space="preserve">14.4649343490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2564859390259</t>
   </si>
   <si>
     <t xml:space="preserve">14.0543575286865</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">13.8016948699951</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4227018356323</t>
+    <t xml:space="preserve">13.4226999282837</t>
   </si>
   <si>
     <t xml:space="preserve">13.258469581604</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">13.9153928756714</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8522281646729</t>
+    <t xml:space="preserve">13.8522262573242</t>
   </si>
   <si>
     <t xml:space="preserve">14.2817544937134</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">13.327953338623</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1929512023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877025604248</t>
+    <t xml:space="preserve">11.1929521560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877035140991</t>
   </si>
   <si>
     <t xml:space="preserve">11.3508672714233</t>
@@ -398,43 +398,43 @@
     <t xml:space="preserve">11.4645643234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.477198600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4961471557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9276580810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5360288619995</t>
+    <t xml:space="preserve">11.4771995544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.496148109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9276571273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5360307693481</t>
   </si>
   <si>
     <t xml:space="preserve">10.5233964920044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7002630233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7381591796875</t>
+    <t xml:space="preserve">10.7002611160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7381601333618</t>
   </si>
   <si>
     <t xml:space="preserve">11.9067249298096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4057331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6331300735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562664031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6647119522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3804693222046</t>
+    <t xml:space="preserve">12.4057340621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.633131980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562654495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6647129058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3804683685303</t>
   </si>
   <si>
     <t xml:space="preserve">12.6457614898682</t>
@@ -443,34 +443,34 @@
     <t xml:space="preserve">12.3488836288452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1467552185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446258544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.66037940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0962228775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857917785645</t>
+    <t xml:space="preserve">12.1467542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446249008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603775024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0962200164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857936859131</t>
   </si>
   <si>
     <t xml:space="preserve">12.5573310852051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7341957092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2225522994995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541370391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7594633102417</t>
+    <t xml:space="preserve">12.7341938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2225532531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541360855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7594623565674</t>
   </si>
   <si>
     <t xml:space="preserve">12.9110593795776</t>
@@ -482,46 +482,46 @@
     <t xml:space="preserve">12.8163118362427</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7089290618896</t>
+    <t xml:space="preserve">12.708930015564</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952310562134</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5194311141968</t>
+    <t xml:space="preserve">12.5194320678711</t>
   </si>
   <si>
     <t xml:space="preserve">12.4120512008667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0835886001587</t>
+    <t xml:space="preserve">12.0835905075073</t>
   </si>
   <si>
     <t xml:space="preserve">12.0709552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">12.140438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278057098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2036046981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0646390914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0583229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.22887134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3236198425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3046684265137</t>
+    <t xml:space="preserve">12.1404361724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278047561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2036037445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.064640045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0583238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2288684844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.323618888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3046674728394</t>
   </si>
   <si>
     <t xml:space="preserve">12.5699634552002</t>
@@ -530,127 +530,127 @@
     <t xml:space="preserve">13.0121240615845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5427160263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6311464309692</t>
+    <t xml:space="preserve">13.5427150726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6311483383179</t>
   </si>
   <si>
     <t xml:space="preserve">13.151086807251</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8605270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489574432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.835262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8542108535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7278776168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9426412582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2647867202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.22057056427</t>
+    <t xml:space="preserve">12.8605279922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489583969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8352603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.854208946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.727876663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9426422119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2647876739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2205715179443</t>
   </si>
   <si>
     <t xml:space="preserve">12.8226270675659</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6583967208862</t>
+    <t xml:space="preserve">12.6583948135376</t>
   </si>
   <si>
     <t xml:space="preserve">12.6394472122192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6773443222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8731594085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9300088882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2268867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6437797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7744464874268</t>
+    <t xml:space="preserve">12.6773452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.873158454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9300079345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2268886566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6437816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7744445800781</t>
   </si>
   <si>
     <t xml:space="preserve">15.0650081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0965938568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2481889724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3429384231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5892810821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8040475845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9051103591919</t>
+    <t xml:space="preserve">15.0965881347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2481870651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3429365158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5892820358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.804048538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9051122665405</t>
   </si>
   <si>
     <t xml:space="preserve">16.3662185668945</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546489715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125640869141</t>
+    <t xml:space="preserve">16.4546508789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125659942627</t>
   </si>
   <si>
     <t xml:space="preserve">16.7452144622803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6441497802734</t>
+    <t xml:space="preserve">16.6441478729248</t>
   </si>
   <si>
     <t xml:space="preserve">16.4357013702393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1830387115479</t>
+    <t xml:space="preserve">16.1830406188965</t>
   </si>
   <si>
     <t xml:space="preserve">16.2019882202148</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9556407928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0503921508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9935436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8166790008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4755821228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4629535675049</t>
+    <t xml:space="preserve">15.9556427001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0503902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9935426712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8166799545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4629507064819</t>
   </si>
   <si>
     <t xml:space="preserve">15.0081586837769</t>
@@ -659,79 +659,79 @@
     <t xml:space="preserve">15.0523748397827</t>
   </si>
   <si>
-    <t xml:space="preserve">14.944993019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512344360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270362854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4965181350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0227756500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5281000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807607650757</t>
+    <t xml:space="preserve">14.9449939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512353897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4965171813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0227746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5280990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807636260986</t>
   </si>
   <si>
     <t xml:space="preserve">14.7618131637573</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6102151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5513868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.696665763855</t>
+    <t xml:space="preserve">14.6102142333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5513858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.696662902832</t>
   </si>
   <si>
     <t xml:space="preserve">15.6082324981689</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7914133071899</t>
+    <t xml:space="preserve">15.7914123535156</t>
   </si>
   <si>
     <t xml:space="preserve">16.4293880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1514549255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8229970932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9177465438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588386535645</t>
+    <t xml:space="preserve">16.1514568328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.822998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.917742729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588367462158</t>
   </si>
   <si>
     <t xml:space="preserve">16.4230690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.738899230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1368389129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0420913696289</t>
+    <t xml:space="preserve">16.7388973236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1368427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0420932769775</t>
   </si>
   <si>
     <t xml:space="preserve">16.9915580749512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8652305603027</t>
+    <t xml:space="preserve">16.8652286529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3156871795654</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">16.486234664917</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8210105895996</t>
+    <t xml:space="preserve">16.8210124969482</t>
   </si>
   <si>
     <t xml:space="preserve">16.6757316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5367641448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5936164855957</t>
+    <t xml:space="preserve">16.5367698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5936183929443</t>
   </si>
   <si>
     <t xml:space="preserve">16.5746669769287</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">15.6524486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9745922088623</t>
+    <t xml:space="preserve">15.9745941162109</t>
   </si>
   <si>
     <t xml:space="preserve">15.8545789718628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8293113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5494022369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2335720062256</t>
+    <t xml:space="preserve">15.8293104171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5494041442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2335739135742</t>
   </si>
   <si>
     <t xml:space="preserve">16.1198749542236</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">16.3599033355713</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9283924102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4337215423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4210872650146</t>
+    <t xml:space="preserve">16.928394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4337196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.421085357666</t>
   </si>
   <si>
     <t xml:space="preserve">17.6358489990234</t>
@@ -803,40 +803,40 @@
     <t xml:space="preserve">18.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6464996337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7917823791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2927722930908</t>
+    <t xml:space="preserve">18.6465015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7917804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2927703857422</t>
   </si>
   <si>
     <t xml:space="preserve">18.2675075531006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6863822937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6338691711426</t>
+    <t xml:space="preserve">17.6863803863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5706996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6338653564453</t>
   </si>
   <si>
     <t xml:space="preserve">19.0760288238525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2276268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3476390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.760196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8802089691162</t>
+    <t xml:space="preserve">19.2276229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3476371765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7601985931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8802127838135</t>
   </si>
   <si>
     <t xml:space="preserve">19.4550189971924</t>
@@ -848,139 +848,139 @@
     <t xml:space="preserve">20.6046352386475</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5015888214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7921524047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9879627227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0301971435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5690898895264</t>
+    <t xml:space="preserve">21.5015869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7921485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.987964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0301952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5690841674805</t>
   </si>
   <si>
     <t xml:space="preserve">22.9291286468506</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8027973175049</t>
+    <t xml:space="preserve">22.8028011322021</t>
   </si>
   <si>
     <t xml:space="preserve">22.7396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7080516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3480091094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.613302230835</t>
+    <t xml:space="preserve">22.7080497741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3480072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6133041381836</t>
   </si>
   <si>
     <t xml:space="preserve">22.6954174041748</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9164943695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8975467681885</t>
+    <t xml:space="preserve">22.9164981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8975486755371</t>
   </si>
   <si>
     <t xml:space="preserve">22.6638355255127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2133750915527</t>
+    <t xml:space="preserve">23.2133769989014</t>
   </si>
   <si>
     <t xml:space="preserve">23.5481548309326</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3586559295654</t>
+    <t xml:space="preserve">23.3586578369141</t>
   </si>
   <si>
     <t xml:space="preserve">23.2891750335693</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1186256408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0491466522217</t>
+    <t xml:space="preserve">23.1186275482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.049144744873</t>
   </si>
   <si>
     <t xml:space="preserve">23.434455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7376518249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4407768249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4893264770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3440418243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1734924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.445104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0135974884033</t>
+    <t xml:space="preserve">23.7376556396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4407711029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4893207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3440437316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1734943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4451065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0135955810547</t>
   </si>
   <si>
     <t xml:space="preserve">25.2199993133545</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8329944610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6265888214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6074676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.498046875</t>
+    <t xml:space="preserve">24.8329963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6265907287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6074695587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4980449676514</t>
   </si>
   <si>
     <t xml:space="preserve">23.2075634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">22.891508102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6915531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7560539245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6399478912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.22092628479</t>
+    <t xml:space="preserve">22.8915061950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6915512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7560520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6399517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2209224700928</t>
   </si>
   <si>
     <t xml:space="preserve">20.4404563903809</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4918251037598</t>
+    <t xml:space="preserve">21.491828918457</t>
   </si>
   <si>
     <t xml:space="preserve">21.9562377929688</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5238475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5109519958496</t>
+    <t xml:space="preserve">22.5238494873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5109481811523</t>
   </si>
   <si>
     <t xml:space="preserve">22.5754508972168</t>
@@ -989,61 +989,61 @@
     <t xml:space="preserve">22.4464473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2916450500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3303394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7691822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.562780380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8659343719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2658443450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.059440612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.188440322876</t>
+    <t xml:space="preserve">22.2916431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.33034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7691841125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5627784729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8659381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2658424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0594387054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1884422302246</t>
   </si>
   <si>
     <t xml:space="preserve">22.8205547332764</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7625064849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3819465637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6012535095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5496482849121</t>
+    <t xml:space="preserve">22.7625026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3819446563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6012516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5496463775635</t>
   </si>
   <si>
     <t xml:space="preserve">22.7689533233643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4786968231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1561908721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0465393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9949398040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5303001403809</t>
+    <t xml:space="preserve">22.4786949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1561889648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0465412139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9949378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5302982330322</t>
   </si>
   <si>
     <t xml:space="preserve">22.7302532196045</t>
@@ -1058,61 +1058,61 @@
     <t xml:space="preserve">23.0205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1043586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0140552520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2204608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.37526512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4139614105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7042217254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9170799255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7880764007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622737884521</t>
+    <t xml:space="preserve">23.1043567657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0140571594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2204627990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3752670288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4139652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7042198181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9170761108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7880725860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622718811035</t>
   </si>
   <si>
     <t xml:space="preserve">23.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0138244628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2847385406494</t>
+    <t xml:space="preserve">24.0138263702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2847328186035</t>
   </si>
   <si>
     <t xml:space="preserve">23.9299755096436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7039909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1877536773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.897497177124</t>
+    <t xml:space="preserve">24.7039890289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1877479553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8974990844727</t>
   </si>
   <si>
     <t xml:space="preserve">25.2587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0264987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6070117950439</t>
+    <t xml:space="preserve">25.026496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.607006072998</t>
   </si>
   <si>
     <t xml:space="preserve">25.8327617645264</t>
@@ -1121,13 +1121,13 @@
     <t xml:space="preserve">26.142370223999</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4003791809082</t>
+    <t xml:space="preserve">26.4003734588623</t>
   </si>
   <si>
     <t xml:space="preserve">26.6906337738037</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2520236968994</t>
+    <t xml:space="preserve">26.2520198822021</t>
   </si>
   <si>
     <t xml:space="preserve">26.5035781860352</t>
@@ -1136,205 +1136,205 @@
     <t xml:space="preserve">26.4455242156982</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8908100128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9166164398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.568078994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.780933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7293319702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2326717376709</t>
+    <t xml:space="preserve">25.8908138275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.916618347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5680770874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7809314727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7293281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2326698303223</t>
   </si>
   <si>
     <t xml:space="preserve">26.4326248168945</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2133255004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1939735412598</t>
+    <t xml:space="preserve">26.213321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1939716339111</t>
   </si>
   <si>
     <t xml:space="preserve">26.3616752624512</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1617240905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9940166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4199542999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.071418762207</t>
+    <t xml:space="preserve">26.1617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9940185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4199562072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0714206695557</t>
   </si>
   <si>
     <t xml:space="preserve">26.284273147583</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5745296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9808864593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.768030166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4842281341553</t>
+    <t xml:space="preserve">26.5745277404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9808883666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7680320739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4842300415039</t>
   </si>
   <si>
     <t xml:space="preserve">27.2066421508789</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1743946075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.935733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1614933013916</t>
+    <t xml:space="preserve">27.1743907928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9357357025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1614875793457</t>
   </si>
   <si>
     <t xml:space="preserve">27.5678520202637</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2709140777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2773666381836</t>
+    <t xml:space="preserve">28.2709178924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2773628234863</t>
   </si>
   <si>
     <t xml:space="preserve">28.7675743103027</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1352310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0126800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2384338378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7353229522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2513275146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4964408874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8382930755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5220069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8638610839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0186653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5802898406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5155544281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3411712646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023792266846</t>
+    <t xml:space="preserve">29.1352272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0126762390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2384300231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7353191375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513294219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4964351654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8382949829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.522008895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8638591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.018669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.580286026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5155601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3411750793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023849487305</t>
   </si>
   <si>
     <t xml:space="preserve">31.7733306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5153255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8509693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6125411987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1739292144775</t>
+    <t xml:space="preserve">31.5153274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8509654998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6125373840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1739273071289</t>
   </si>
   <si>
     <t xml:space="preserve">29.928596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2964839935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.283353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865547180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4252529144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6187629699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.147668838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3156070709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3543090820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1930561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.244649887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7802448272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4899864196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9288272857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0518360137939</t>
+    <t xml:space="preserve">29.2964820861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2833499908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865585327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4252548217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1476707458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3156051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3543071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1930503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2446517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.780237197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4899826049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.928825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224647521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0518379211426</t>
   </si>
   <si>
     <t xml:space="preserve">26.2778244018555</t>
   </si>
   <si>
-    <t xml:space="preserve">25.239351272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1038990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9553184509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9813442230225</t>
+    <t xml:space="preserve">25.2393550872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1038951873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9553165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9813461303711</t>
   </si>
   <si>
     <t xml:space="preserve">24.9942474365234</t>
@@ -1343,31 +1343,31 @@
     <t xml:space="preserve">24.5427360534668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1750812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9361972808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6394901275635</t>
+    <t xml:space="preserve">24.1750831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9361934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6394920349121</t>
   </si>
   <si>
     <t xml:space="preserve">24.8652477264404</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0651969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4524326324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.697774887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6655216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.89772605896</t>
+    <t xml:space="preserve">25.0651988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4524383544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6977729797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6655178070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8977241516113</t>
   </si>
   <si>
     <t xml:space="preserve">24.0009250640869</t>
@@ -1376,22 +1376,22 @@
     <t xml:space="preserve">23.5881195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9882564544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5365180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589790344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7104415893555</t>
+    <t xml:space="preserve">22.9882583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5365200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589809417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104454040527</t>
   </si>
   <si>
     <t xml:space="preserve">23.3043155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2140140533447</t>
+    <t xml:space="preserve">23.2140121459961</t>
   </si>
   <si>
     <t xml:space="preserve">23.1559619903564</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">26.2971706390381</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3425559997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6715087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1230239868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1359176635742</t>
+    <t xml:space="preserve">25.3425540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6715106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1230182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1359214782715</t>
   </si>
   <si>
     <t xml:space="preserve">25.7876110076904</t>
@@ -1433,82 +1433,82 @@
     <t xml:space="preserve">25.4651069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1425971984863</t>
+    <t xml:space="preserve">25.142599105835</t>
   </si>
   <si>
     <t xml:space="preserve">25.3490047454834</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2458019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0522994995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7684936523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7426910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4975852966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2329044342041</t>
+    <t xml:space="preserve">25.2458000183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0522956848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7684898376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7426929473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4975891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2329025268555</t>
   </si>
   <si>
     <t xml:space="preserve">24.6910877227783</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2782859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3365669250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.807653427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3881645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6079273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3628234863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8463535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2720642089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0011577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5042667388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4913654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4526634216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4010620117188</t>
+    <t xml:space="preserve">24.2782821655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3365650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8076553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3881664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6079292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3628273010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8463516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.272066116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0011558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.504264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4913673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4526672363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4010639190674</t>
   </si>
   <si>
     <t xml:space="preserve">23.5300674438477</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1430606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8721561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7431545257568</t>
+    <t xml:space="preserve">23.1430587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8721542358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7431507110596</t>
   </si>
   <si>
     <t xml:space="preserve">22.0078372955322</t>
@@ -1517,31 +1517,31 @@
     <t xml:space="preserve">21.2596225738525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9113140106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2854251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0016174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9887161254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0723400115967</t>
+    <t xml:space="preserve">20.9113159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.28542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0016212463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9887180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.072338104248</t>
   </si>
   <si>
     <t xml:space="preserve">21.9820404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.717809677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3695030212402</t>
+    <t xml:space="preserve">20.7178115844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1760005950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3695068359375</t>
   </si>
   <si>
     <t xml:space="preserve">21.3757247924805</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">21.182222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8855152130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1501998901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.092378616333</t>
+    <t xml:space="preserve">20.8855171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1502017974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0923805236816</t>
   </si>
   <si>
     <t xml:space="preserve">20.5630073547363</t>
@@ -1568,37 +1568,37 @@
     <t xml:space="preserve">20.588809967041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0274143218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1951236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3499240875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1626396179199</t>
+    <t xml:space="preserve">21.027416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1951217651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3499221801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1626415252686</t>
   </si>
   <si>
     <t xml:space="preserve">21.6982326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5305290222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7885341644287</t>
+    <t xml:space="preserve">21.5305309295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7885360717773</t>
   </si>
   <si>
     <t xml:space="preserve">21.6595325469971</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2749519348145</t>
+    <t xml:space="preserve">21.2749538421631</t>
   </si>
   <si>
     <t xml:space="preserve">21.2882556915283</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0487651824951</t>
+    <t xml:space="preserve">21.0487632751465</t>
   </si>
   <si>
     <t xml:space="preserve">20.9955425262451</t>
@@ -1607,10 +1607,10 @@
     <t xml:space="preserve">21.0753746032715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7539405822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668197631836</t>
+    <t xml:space="preserve">21.7539367675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.966817855835</t>
   </si>
   <si>
     <t xml:space="preserve">22.2861423492432</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">22.4724159240723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7252140045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.405891418457</t>
+    <t xml:space="preserve">22.7252159118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4058895111084</t>
   </si>
   <si>
     <t xml:space="preserve">22.020040512085</t>
@@ -1631,13 +1631,13 @@
     <t xml:space="preserve">21.4878330230713</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3813915252686</t>
+    <t xml:space="preserve">21.3813934326172</t>
   </si>
   <si>
     <t xml:space="preserve">21.6075801849365</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6874103546143</t>
+    <t xml:space="preserve">21.6874122619629</t>
   </si>
   <si>
     <t xml:space="preserve">20.8491859436035</t>
@@ -1649,58 +1649,58 @@
     <t xml:space="preserve">19.146125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7868900299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9465484619141</t>
+    <t xml:space="preserve">18.78688621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9465465545654</t>
   </si>
   <si>
     <t xml:space="preserve">18.5606994628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1615447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1636581420898</t>
+    <t xml:space="preserve">18.1615428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1636562347412</t>
   </si>
   <si>
     <t xml:space="preserve">15.5803442001343</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1699962615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5271234512329</t>
+    <t xml:space="preserve">14.1699953079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.52712059021</t>
   </si>
   <si>
     <t xml:space="preserve">15.6468687057495</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9640808105469</t>
+    <t xml:space="preserve">16.9640789031982</t>
   </si>
   <si>
     <t xml:space="preserve">17.0306053161621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5117053985596</t>
+    <t xml:space="preserve">16.5117034912109</t>
   </si>
   <si>
     <t xml:space="preserve">16.6580638885498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3121242523193</t>
+    <t xml:space="preserve">16.3121280670166</t>
   </si>
   <si>
     <t xml:space="preserve">16.1657676696777</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8177242279053</t>
+    <t xml:space="preserve">16.8177223205566</t>
   </si>
   <si>
     <t xml:space="preserve">17.7623901367188</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2546825408936</t>
+    <t xml:space="preserve">18.2546787261963</t>
   </si>
   <si>
     <t xml:space="preserve">18.2280712127686</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">17.682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4675636291504</t>
+    <t xml:space="preserve">18.4675617218018</t>
   </si>
   <si>
     <t xml:space="preserve">18.9598541259766</t>
@@ -1721,28 +1721,28 @@
     <t xml:space="preserve">18.587308883667</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2812919616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5628108978271</t>
+    <t xml:space="preserve">18.2812900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5628128051758</t>
   </si>
   <si>
     <t xml:space="preserve">17.0039939880371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1237411499023</t>
+    <t xml:space="preserve">17.1237392425537</t>
   </si>
   <si>
     <t xml:space="preserve">17.1503524780273</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2035713195801</t>
+    <t xml:space="preserve">17.2035751342773</t>
   </si>
   <si>
     <t xml:space="preserve">17.1769618988037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3632373809814</t>
+    <t xml:space="preserve">17.3632354736328</t>
   </si>
   <si>
     <t xml:space="preserve">17.6426429748535</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">18.0417976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2413768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8954410552979</t>
+    <t xml:space="preserve">18.2413749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8954391479492</t>
   </si>
   <si>
     <t xml:space="preserve">17.4962844848633</t>
@@ -1772,73 +1772,73 @@
     <t xml:space="preserve">18.6272239685059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9087448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.655948638916</t>
+    <t xml:space="preserve">17.9087467193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6559467315674</t>
   </si>
   <si>
     <t xml:space="preserve">17.9220523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885787963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8289127349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8975524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0971336364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0992450714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7022037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0481367111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0082206726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949159622192</t>
+    <t xml:space="preserve">17.9885768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.828914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8975563049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.097131729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0992469787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7022018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0481376647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0082216262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949150085449</t>
   </si>
   <si>
     <t xml:space="preserve">14.6090660095215</t>
   </si>
   <si>
-    <t xml:space="preserve">14.342960357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7575368881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.611180305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7309246063232</t>
+    <t xml:space="preserve">14.3429641723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7575359344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6111783981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7309255599976</t>
   </si>
   <si>
     <t xml:space="preserve">13.6910104751587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5824556350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0635547637939</t>
+    <t xml:space="preserve">14.5824565887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0635538101196</t>
   </si>
   <si>
     <t xml:space="preserve">14.2631320953369</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2099113464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.396185874939</t>
+    <t xml:space="preserve">14.2099132537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3961820602417</t>
   </si>
   <si>
     <t xml:space="preserve">13.5712652206421</t>
@@ -1850,25 +1850,25 @@
     <t xml:space="preserve">13.4781284332275</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0369443893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215253829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8751707077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6888980865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2743263244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.928391456604</t>
+    <t xml:space="preserve">14.0369453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159311294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215272903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8751697540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6888971328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2743244171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9283905029297</t>
   </si>
   <si>
     <t xml:space="preserve">15.0348320007324</t>
@@ -1880,43 +1880,43 @@
     <t xml:space="preserve">14.6755933761597</t>
   </si>
   <si>
-    <t xml:space="preserve">14.848560333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4605951309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8597507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8331413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730564117432</t>
+    <t xml:space="preserve">14.8485593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4605979919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.859751701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8331432342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867837905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730573654175</t>
   </si>
   <si>
     <t xml:space="preserve">14.7288131713867</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9060068130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.948034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.427020072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7663011550903</t>
+    <t xml:space="preserve">12.9060049057007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9480333328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4270181655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663040161133</t>
   </si>
   <si>
     <t xml:space="preserve">13.1721076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9791841506958</t>
+    <t xml:space="preserve">12.9791860580444</t>
   </si>
   <si>
     <t xml:space="preserve">11.3426485061646</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">10.8503580093384</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559532165527</t>
+    <t xml:space="preserve">11.3559551239014</t>
   </si>
   <si>
     <t xml:space="preserve">11.3293447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5422277450562</t>
+    <t xml:space="preserve">11.5422267913818</t>
   </si>
   <si>
     <t xml:space="preserve">10.9102306365967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8836221694946</t>
+    <t xml:space="preserve">10.883620262146</t>
   </si>
   <si>
     <t xml:space="preserve">10.4844665527344</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">9.60632610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21382427215576</t>
+    <t xml:space="preserve">9.21382236480713</t>
   </si>
   <si>
     <t xml:space="preserve">9.04085731506348</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">9.86577606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9655647277832</t>
+    <t xml:space="preserve">9.96556568145752</t>
   </si>
   <si>
     <t xml:space="preserve">10.3381099700928</t>
@@ -1979,10 +1979,10 @@
     <t xml:space="preserve">11.2362079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8703165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0320920944214</t>
+    <t xml:space="preserve">10.8703174591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0320911407471</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385316848755</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">9.69946193695068</t>
   </si>
   <si>
-    <t xml:space="preserve">10.038743019104</t>
+    <t xml:space="preserve">10.0387439727783</t>
   </si>
   <si>
     <t xml:space="preserve">10.1717948913574</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">10.431245803833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3979835510254</t>
+    <t xml:space="preserve">10.3979825973511</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773910522461</t>
@@ -2015,91 +2015,91 @@
     <t xml:space="preserve">10.5709505081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243825912476</t>
+    <t xml:space="preserve">10.5243816375732</t>
   </si>
   <si>
     <t xml:space="preserve">11.9214239120483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2474012374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9946012496948</t>
+    <t xml:space="preserve">12.2474002838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9946041107178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7529964447021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4336738586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076955795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0611257553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.562183380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9081182479858</t>
+    <t xml:space="preserve">12.4336719512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0611276626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5621843338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9081201553345</t>
   </si>
   <si>
     <t xml:space="preserve">11.3692598342896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8083305358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3093862533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7018899917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2074861526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1010446548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9413833618164</t>
+    <t xml:space="preserve">11.8083295822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3093872070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7018880844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2074851989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1010437011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9413824081421</t>
   </si>
   <si>
     <t xml:space="preserve">11.4091749191284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7904834747314</t>
+    <t xml:space="preserve">10.7904844284058</t>
   </si>
   <si>
     <t xml:space="preserve">10.657434463501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3048477172852</t>
+    <t xml:space="preserve">10.3048467636108</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93895530700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715845108032</t>
+    <t xml:space="preserve">9.9389533996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715835571289</t>
   </si>
   <si>
     <t xml:space="preserve">10.2782363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.936842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4424381256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8815097808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6087532043457</t>
+    <t xml:space="preserve">10.9368419647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.442437171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8815088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6087522506714</t>
   </si>
   <si>
     <t xml:space="preserve">11.6819305419922</t>
@@ -2108,37 +2108,37 @@
     <t xml:space="preserve">11.6353635787964</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6021013259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0233249664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5842542648315</t>
+    <t xml:space="preserve">11.6021003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.023325920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5842552185059</t>
   </si>
   <si>
     <t xml:space="preserve">11.1098098754883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2495126724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5089645385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4025220870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9834098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9634532928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4757013320923</t>
+    <t xml:space="preserve">11.2495136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5089635848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4025230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9834089279175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9634523391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3027334213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.475700378418</t>
   </si>
   <si>
     <t xml:space="preserve">11.582142829895</t>
@@ -2150,34 +2150,34 @@
     <t xml:space="preserve">11.0299777984619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1364183425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759136199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0698928833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108665466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.200831413269</t>
+    <t xml:space="preserve">11.1364192962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759126663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0698919296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6108655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2008333206177</t>
   </si>
   <si>
     <t xml:space="preserve">13.9038915634155</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2319822311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5068521499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9613389968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7684144973755</t>
+    <t xml:space="preserve">13.2319812774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5068502426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9613399505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7684164047241</t>
   </si>
   <si>
     <t xml:space="preserve">11.668625831604</t>
@@ -2189,52 +2189,52 @@
     <t xml:space="preserve">11.1164608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3825654983521</t>
+    <t xml:space="preserve">11.3825645446777</t>
   </si>
   <si>
     <t xml:space="preserve">12.0278654098511</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1343069076538</t>
+    <t xml:space="preserve">12.1343059539795</t>
   </si>
   <si>
     <t xml:space="preserve">12.2207908630371</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6265964508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0677785873413</t>
+    <t xml:space="preserve">12.62659740448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0677795410156</t>
   </si>
   <si>
     <t xml:space="preserve">10.4977712631226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2915420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451845169067</t>
+    <t xml:space="preserve">10.291543006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451864242554</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187854766846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99217700958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0453968048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8192081451416</t>
+    <t xml:space="preserve">9.99217510223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0453977584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81920909881592</t>
   </si>
   <si>
     <t xml:space="preserve">9.87242889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84581851959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72607231140137</t>
+    <t xml:space="preserve">9.8458194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72607326507568</t>
   </si>
   <si>
     <t xml:space="preserve">9.78594589233398</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">9.9788703918457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89904022216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1651439666748</t>
+    <t xml:space="preserve">9.89903926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1651430130005</t>
   </si>
   <si>
     <t xml:space="preserve">10.4445514678955</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">10.4245929718018</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4046363830566</t>
+    <t xml:space="preserve">10.4046354293823</t>
   </si>
   <si>
     <t xml:space="preserve">10.3248052597046</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">10.6507816314697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.684042930603</t>
+    <t xml:space="preserve">10.6840438842773</t>
   </si>
   <si>
     <t xml:space="preserve">10.8104429244995</t>
@@ -2276,34 +2276,34 @@
     <t xml:space="preserve">11.2869558334351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9313488006592</t>
+    <t xml:space="preserve">10.9313497543335</t>
   </si>
   <si>
     <t xml:space="preserve">10.6184158325195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6966495513916</t>
+    <t xml:space="preserve">10.6966485977173</t>
   </si>
   <si>
     <t xml:space="preserve">10.1347904205322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94987392425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60849189758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3737907409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10353088378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64835357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15331554412842</t>
+    <t xml:space="preserve">9.94987487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60849285125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37379264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10353183746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64835453033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15331649780273</t>
   </si>
   <si>
     <t xml:space="preserve">9.21021270751953</t>
@@ -2315,10 +2315,10 @@
     <t xml:space="preserve">8.87594318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66257858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69813823699951</t>
+    <t xml:space="preserve">8.66257953643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69814014434814</t>
   </si>
   <si>
     <t xml:space="preserve">8.60568237304688</t>
@@ -2327,28 +2327,28 @@
     <t xml:space="preserve">8.32119560241699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49188804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34964561462402</t>
+    <t xml:space="preserve">8.49188709259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34964466094971</t>
   </si>
   <si>
     <t xml:space="preserve">8.29274749755859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.250075340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10783195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0438232421875</t>
+    <t xml:space="preserve">8.25007438659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10783100128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04382419586182</t>
   </si>
   <si>
     <t xml:space="preserve">8.42787837982178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05804634094238</t>
+    <t xml:space="preserve">8.05804824829102</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558952331543</t>
@@ -2357,40 +2357,40 @@
     <t xml:space="preserve">8.01537418365479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27141094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98692607879639</t>
+    <t xml:space="preserve">8.27141189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98692512512207</t>
   </si>
   <si>
     <t xml:space="preserve">8.02248668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97981405258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15761756896973</t>
+    <t xml:space="preserve">7.97981357574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15761661529541</t>
   </si>
   <si>
     <t xml:space="preserve">8.47766304016113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83327007293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62701797485352</t>
+    <t xml:space="preserve">8.83327102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6270170211792</t>
   </si>
   <si>
     <t xml:space="preserve">8.47055149078369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30697250366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.541672706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57723331451416</t>
+    <t xml:space="preserve">8.30697154998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54167175292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57723236083984</t>
   </si>
   <si>
     <t xml:space="preserve">8.44210243225098</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">9.67250156402588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43780136108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43068885803223</t>
+    <t xml:space="preserve">9.43780040740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43068981170654</t>
   </si>
   <si>
     <t xml:space="preserve">9.33823108673096</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">9.85030555725098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83608055114746</t>
+    <t xml:space="preserve">9.83608150482178</t>
   </si>
   <si>
     <t xml:space="preserve">9.8289680480957</t>
@@ -2438,34 +2438,34 @@
     <t xml:space="preserve">9.62271595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48758602142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70806312561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71517467498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58004379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4662504196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53025817871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22443675994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12486839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39512825012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92853832244873</t>
+    <t xml:space="preserve">9.48758697509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70806121826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71517372131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58004474639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46625137329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53025913238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22443771362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12486743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39512920379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92854022979736</t>
   </si>
   <si>
     <t xml:space="preserve">9.80763244628906</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">9.77207088470459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0352201461792</t>
+    <t xml:space="preserve">10.0352191925049</t>
   </si>
   <si>
     <t xml:space="preserve">9.33111953735352</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">8.91861534118652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65546703338623</t>
+    <t xml:space="preserve">8.65546607971191</t>
   </si>
   <si>
     <t xml:space="preserve">9.08930587768555</t>
@@ -2492,10 +2492,10 @@
     <t xml:space="preserve">9.16754055023193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27422142028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20310020446777</t>
+    <t xml:space="preserve">9.2742223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20310115814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.11064338684082</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">9.06085872650146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41646480560303</t>
+    <t xml:space="preserve">9.41646385192871</t>
   </si>
   <si>
     <t xml:space="preserve">9.64405250549316</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">10.042332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1419019699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979387283325</t>
+    <t xml:space="preserve">10.141902923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979377746582</t>
   </si>
   <si>
     <t xml:space="preserve">10.3837156295776</t>
@@ -2537,16 +2537,16 @@
     <t xml:space="preserve">10.6610889434814</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9029006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9100112915039</t>
+    <t xml:space="preserve">10.9028997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9100131988525</t>
   </si>
   <si>
     <t xml:space="preserve">10.703761100769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8815650939941</t>
+    <t xml:space="preserve">10.8815641403198</t>
   </si>
   <si>
     <t xml:space="preserve">10.895788192749</t>
@@ -2561,55 +2561,55 @@
     <t xml:space="preserve">10.6326389312744</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8886756896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753129959106</t>
+    <t xml:space="preserve">10.8886775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753120422363</t>
   </si>
   <si>
     <t xml:space="preserve">10.4690608978271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2628078460693</t>
+    <t xml:space="preserve">10.2343606948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2628087997437</t>
   </si>
   <si>
     <t xml:space="preserve">10.3766031265259</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0067720413208</t>
+    <t xml:space="preserve">10.0067710876465</t>
   </si>
   <si>
     <t xml:space="preserve">10.3054809570312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4761734008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677707672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7108736038208</t>
+    <t xml:space="preserve">10.4761724472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677688598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7108726501465</t>
   </si>
   <si>
     <t xml:space="preserve">10.7393217086792</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8602275848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9455728530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9953584671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9384603500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.746434211731</t>
+    <t xml:space="preserve">10.8602266311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9455738067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9953575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9384613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7464332580566</t>
   </si>
   <si>
     <t xml:space="preserve">10.8673400878906</t>
@@ -2621,73 +2621,73 @@
     <t xml:space="preserve">11.2442827224731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3908281326294</t>
+    <t xml:space="preserve">10.3908271789551</t>
   </si>
   <si>
     <t xml:space="preserve">10.8531160354614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.208722114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2585067749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5828552246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3552665710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2770328521729</t>
+    <t xml:space="preserve">11.2087230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2585077285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5828542709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3552656173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2770338058472</t>
   </si>
   <si>
     <t xml:space="preserve">10.1632385253906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1063423156738</t>
+    <t xml:space="preserve">10.1063432693481</t>
   </si>
   <si>
     <t xml:space="preserve">9.96409893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98543548583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87164211273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94276142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81474304199219</t>
+    <t xml:space="preserve">9.98543453216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87164115905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94276237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81474494934082</t>
   </si>
   <si>
     <t xml:space="preserve">9.63694095611572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72939968109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65827655792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47336101531982</t>
+    <t xml:space="preserve">9.72939872741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65827751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47336196899414</t>
   </si>
   <si>
     <t xml:space="preserve">9.42357730865479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54448318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75073623657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75784778594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69383716583252</t>
+    <t xml:space="preserve">9.54448413848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75073528289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75784683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69383811950684</t>
   </si>
   <si>
     <t xml:space="preserve">9.74362277984619</t>
@@ -2696,16 +2696,16 @@
     <t xml:space="preserve">10.1703510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95698642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565576553345</t>
+    <t xml:space="preserve">9.95698738098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565567016602</t>
   </si>
   <si>
     <t xml:space="preserve">10.1561269760132</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0707817077637</t>
+    <t xml:space="preserve">10.0707807540894</t>
   </si>
   <si>
     <t xml:space="preserve">10.0494451522827</t>
@@ -2714,49 +2714,49 @@
     <t xml:space="preserve">10.191686630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99965858459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82185745239258</t>
+    <t xml:space="preserve">9.99965953826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82185649871826</t>
   </si>
   <si>
     <t xml:space="preserve">10.1205654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5472936630249</t>
+    <t xml:space="preserve">10.5472946166992</t>
   </si>
   <si>
     <t xml:space="preserve">10.5259580612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4619493484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4832849502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2556972503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2272472381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7179851531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4192752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1988000869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5899658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6682004928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7819948196411</t>
+    <t xml:space="preserve">10.4619474411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.483283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2556962966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2272481918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7179841995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4192743301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1988010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5899667739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6681995391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7819929122925</t>
   </si>
   <si>
     <t xml:space="preserve">11.1447134017944</t>
@@ -2768,19 +2768,19 @@
     <t xml:space="preserve">11.0735912322998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1518259048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0024709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1589365005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.284143447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5046215057373</t>
+    <t xml:space="preserve">11.1518249511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0024719238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1589374542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2841444015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5046224594116</t>
   </si>
   <si>
     <t xml:space="preserve">9.77918338775635</t>
@@ -2792,22 +2792,22 @@
     <t xml:space="preserve">8.69102764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56731081008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27571249008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25437593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734092712402</t>
+    <t xml:space="preserve">7.56731033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27571201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25437641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734140396118</t>
   </si>
   <si>
     <t xml:space="preserve">6.52893877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17333221435547</t>
+    <t xml:space="preserve">6.17333173751831</t>
   </si>
   <si>
     <t xml:space="preserve">5.98841667175293</t>
@@ -2816,37 +2816,37 @@
     <t xml:space="preserve">6.00264024734497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98130464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32979822158813</t>
+    <t xml:space="preserve">5.98130416870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32979917526245</t>
   </si>
   <si>
     <t xml:space="preserve">6.12710285186768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4222559928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45426082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57872343063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4969334602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22667360305786</t>
+    <t xml:space="preserve">6.42225694656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45426034927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5787239074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49693393707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22667264938354</t>
   </si>
   <si>
     <t xml:space="preserve">6.36535882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33335399627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26934576034546</t>
+    <t xml:space="preserve">6.33335447311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2693452835083</t>
   </si>
   <si>
     <t xml:space="preserve">6.35824728012085</t>
@@ -2855,61 +2855,61 @@
     <t xml:space="preserve">6.41870021820068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56449937820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53960704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5716118812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514444351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28356981277466</t>
+    <t xml:space="preserve">6.56449890136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53960657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57161092758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28357028961182</t>
   </si>
   <si>
     <t xml:space="preserve">6.34402322769165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35113525390625</t>
+    <t xml:space="preserve">6.35113573074341</t>
   </si>
   <si>
     <t xml:space="preserve">6.04531335830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92085123062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.066650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39380836486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52182626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34757947921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1164345741272</t>
+    <t xml:space="preserve">5.92085075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06664943695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39380788803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52182674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34757900238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11643505096436</t>
   </si>
   <si>
     <t xml:space="preserve">6.18044376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14132833480835</t>
+    <t xml:space="preserve">6.14132738113403</t>
   </si>
   <si>
     <t xml:space="preserve">6.01686477661133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11287879943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02753305435181</t>
+    <t xml:space="preserve">6.11287832260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02753353118896</t>
   </si>
   <si>
     <t xml:space="preserve">5.94574308395386</t>
@@ -2924,67 +2924,67 @@
     <t xml:space="preserve">5.71104288101196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68970632553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44078254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29142761230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17763328552246</t>
+    <t xml:space="preserve">5.68970680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44078207015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29142713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1776328086853</t>
   </si>
   <si>
     <t xml:space="preserve">5.19185781478882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47634220123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69681978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8675103187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97063684463501</t>
+    <t xml:space="preserve">5.47634267807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69681930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86751079559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97063636779785</t>
   </si>
   <si>
     <t xml:space="preserve">5.89951467514038</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93863201141357</t>
+    <t xml:space="preserve">5.93863153457642</t>
   </si>
   <si>
     <t xml:space="preserve">6.2977933883667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53605031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87743330001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3681697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91299343109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69962978363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24089670181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19466781616211</t>
+    <t xml:space="preserve">6.53605079650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87743282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36817026138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91299390792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69962930679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24089765548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19466876983643</t>
   </si>
   <si>
     <t xml:space="preserve">6.36180353164673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46492910385132</t>
+    <t xml:space="preserve">6.46492958068848</t>
   </si>
   <si>
     <t xml:space="preserve">6.40091991424561</t>
@@ -2996,127 +2996,127 @@
     <t xml:space="preserve">6.14488363265991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08798599243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93507480621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84617471694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91018295288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04175710678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08087396621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06309366226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20889282226562</t>
+    <t xml:space="preserve">6.0879864692688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93507528305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84617376327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9101824760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04175758361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0808744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06309413909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20889186859131</t>
   </si>
   <si>
     <t xml:space="preserve">6.32624292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4507040977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37958335876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4827094078064</t>
+    <t xml:space="preserve">6.45070457458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37958383560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48270893096924</t>
   </si>
   <si>
     <t xml:space="preserve">6.46137285232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84898519515991</t>
+    <t xml:space="preserve">6.8489842414856</t>
   </si>
   <si>
     <t xml:space="preserve">6.9805588722229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03745603561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81342363357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66406917572021</t>
+    <t xml:space="preserve">7.03745651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8134241104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66406869888306</t>
   </si>
   <si>
     <t xml:space="preserve">6.50760126113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35469198226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16621971130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16266345977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38669586181641</t>
+    <t xml:space="preserve">6.35469150543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16622018814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16266298294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38669538497925</t>
   </si>
   <si>
     <t xml:space="preserve">6.39736461639404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25156545639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52538347244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50048971176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53249454498291</t>
+    <t xml:space="preserve">6.25156497955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52538251876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50049018859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53249502182007</t>
   </si>
   <si>
     <t xml:space="preserve">6.40447616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37247133255005</t>
+    <t xml:space="preserve">6.37247180938721</t>
   </si>
   <si>
     <t xml:space="preserve">6.48626565933228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30846214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32268667221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37602758407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20178079605103</t>
+    <t xml:space="preserve">6.30846261978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32268714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37602806091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20178031921387</t>
   </si>
   <si>
     <t xml:space="preserve">6.14843988418579</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13777160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27290201187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27645826339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23022985458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26223421096802</t>
+    <t xml:space="preserve">6.137770652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27290105819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27645683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23022937774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26223373413086</t>
   </si>
   <si>
     <t xml:space="preserve">6.4684853553772</t>
@@ -3134,34 +3134,34 @@
     <t xml:space="preserve">5.92796325683594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106609344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97419166564941</t>
+    <t xml:space="preserve">5.87106657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97419214248657</t>
   </si>
   <si>
     <t xml:space="preserve">5.83194923400879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84973001480103</t>
+    <t xml:space="preserve">5.84973049163818</t>
   </si>
   <si>
     <t xml:space="preserve">5.73237991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7359356880188</t>
+    <t xml:space="preserve">5.73593521118164</t>
   </si>
   <si>
     <t xml:space="preserve">5.75015926361084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8746223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79283237457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85328531265259</t>
+    <t xml:space="preserve">5.87462282180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79283285140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85328578948975</t>
   </si>
   <si>
     <t xml:space="preserve">5.82839345932007</t>
@@ -3170,55 +3170,55 @@
     <t xml:space="preserve">5.73949146270752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57946825027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63280916213989</t>
+    <t xml:space="preserve">5.57946872711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63280963897705</t>
   </si>
   <si>
     <t xml:space="preserve">5.58302450180054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5759129524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61858510971069</t>
+    <t xml:space="preserve">5.57591247558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61858558654785</t>
   </si>
   <si>
     <t xml:space="preserve">5.72171115875244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54390859603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4941234588623</t>
+    <t xml:space="preserve">5.5439076423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49412298202515</t>
   </si>
   <si>
     <t xml:space="preserve">5.41233396530151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30565118789673</t>
+    <t xml:space="preserve">5.29498338699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30565214157104</t>
   </si>
   <si>
     <t xml:space="preserve">4.95715713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7971339225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89670372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04605865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25942230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38744020462036</t>
+    <t xml:space="preserve">4.79713439941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89670419692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.046058177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25942325592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38744115829468</t>
   </si>
   <si>
     <t xml:space="preserve">5.30920791625977</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">5.65059041976929</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66125822067261</t>
+    <t xml:space="preserve">5.66125869750977</t>
   </si>
   <si>
     <t xml:space="preserve">5.78216457366943</t>
@@ -3239,19 +3239,19 @@
     <t xml:space="preserve">5.75727224349976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22311735153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42581224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44359350204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68184995651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60717248916626</t>
+    <t xml:space="preserve">6.22311687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42581272125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44359302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68184947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6071720123291</t>
   </si>
   <si>
     <t xml:space="preserve">6.57516717910767</t>
@@ -3260,61 +3260,61 @@
     <t xml:space="preserve">6.5858359336853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49337720870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79208707809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92721843719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94855451583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97700357437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83831644058228</t>
+    <t xml:space="preserve">6.49337768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7920880317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92721796035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94855546951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97700309753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83831596374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.80986785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74230194091797</t>
+    <t xml:space="preserve">6.74230241775513</t>
   </si>
   <si>
     <t xml:space="preserve">6.66051244735718</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71385335922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71029806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64273309707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6391773223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67118072509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47559690475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54671955108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58939218521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58227968215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62495183944702</t>
+    <t xml:space="preserve">6.71385383605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71029758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64273262023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63917684555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67118120193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4755973815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54671812057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58939170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58228015899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62495231628418</t>
   </si>
   <si>
     <t xml:space="preserve">6.61072826385498</t>
@@ -3323,25 +3323,25 @@
     <t xml:space="preserve">6.56805515289307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30135059356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31201934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21244859695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10932207107544</t>
+    <t xml:space="preserve">6.30134963989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31201839447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21244812011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10932302474976</t>
   </si>
   <si>
     <t xml:space="preserve">5.90307092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01330852508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95641136169434</t>
+    <t xml:space="preserve">6.01330900192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95641183853149</t>
   </si>
   <si>
     <t xml:space="preserve">6.29423856735229</t>
@@ -3350,25 +3350,25 @@
     <t xml:space="preserve">6.67829370498657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88454627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03389930725098</t>
+    <t xml:space="preserve">6.88454532623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03390026092529</t>
   </si>
   <si>
     <t xml:space="preserve">7.43217945098877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33972120285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42506694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3326096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549810409546</t>
+    <t xml:space="preserve">7.3397216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42506742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33261060714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32549715042114</t>
   </si>
   <si>
     <t xml:space="preserve">7.24015235900879</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">7.3041615486145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36105823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58864641189575</t>
+    <t xml:space="preserve">7.36105966567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58864736557007</t>
   </si>
   <si>
     <t xml:space="preserve">7.48196411132812</t>
@@ -3389,25 +3389,25 @@
     <t xml:space="preserve">7.66687917709351</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51752614974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5388617515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46062755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93002891540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90869283676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847654342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16473007202148</t>
+    <t xml:space="preserve">7.51752424240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53886222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46062707901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93002843856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90869235992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16472911834717</t>
   </si>
   <si>
     <t xml:space="preserve">8.22873783111572</t>
@@ -3419,88 +3419,88 @@
     <t xml:space="preserve">8.15050506591797</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8802433013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91580486297607</t>
+    <t xml:space="preserve">7.88024377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91580438613892</t>
   </si>
   <si>
     <t xml:space="preserve">7.97270154953003</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0864953994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10072040557861</t>
+    <t xml:space="preserve">8.08649635314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10072135925293</t>
   </si>
   <si>
     <t xml:space="preserve">8.00115013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05093383789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07938385009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86602020263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24296283721924</t>
+    <t xml:space="preserve">8.05093479156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07938289642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8660192489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24296188354492</t>
   </si>
   <si>
     <t xml:space="preserve">8.17895412445068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13628005981445</t>
+    <t xml:space="preserve">8.13628196716309</t>
   </si>
   <si>
     <t xml:space="preserve">8.09360790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78778600692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99403715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20740222930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2642993927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21451473236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18606662750244</t>
+    <t xml:space="preserve">7.78778553009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99403810501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20740127563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26429843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21451377868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18606567382812</t>
   </si>
   <si>
     <t xml:space="preserve">8.22162628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27852344512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7479248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46343803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92572689056396</t>
+    <t xml:space="preserve">8.27852439880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74792385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46343898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92572784423828</t>
   </si>
   <si>
     <t xml:space="preserve">9.28133392333984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30978298187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23866176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08219528198242</t>
+    <t xml:space="preserve">9.30978202819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23866271972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08219432830811</t>
   </si>
   <si>
     <t xml:space="preserve">9.00396060943604</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">8.85460662841797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04663372039795</t>
+    <t xml:space="preserve">9.04663467407227</t>
   </si>
   <si>
     <t xml:space="preserve">9.13909149169922</t>
@@ -3533,40 +3533,40 @@
     <t xml:space="preserve">9.91431427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79340744018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50892162322998</t>
+    <t xml:space="preserve">9.79340839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50892353057861</t>
   </si>
   <si>
     <t xml:space="preserve">9.45202541351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35956764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11775493621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66539001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05374431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887615203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8574161529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87875366210938</t>
+    <t xml:space="preserve">9.3595666885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11775398254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66538906097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05374526977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85741710662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87875461578369</t>
   </si>
   <si>
     <t xml:space="preserve">9.88586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97832202911377</t>
+    <t xml:space="preserve">9.97832298278809</t>
   </si>
   <si>
     <t xml:space="preserve">9.90008926391602</t>
@@ -3581,25 +3581,25 @@
     <t xml:space="preserve">10.1134538650513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4121646881104</t>
+    <t xml:space="preserve">10.412163734436</t>
   </si>
   <si>
     <t xml:space="preserve">10.3623781204224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.312593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3268175125122</t>
+    <t xml:space="preserve">10.3125944137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3268184661865</t>
   </si>
   <si>
     <t xml:space="preserve">10.4050512313843</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1276788711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2983694076538</t>
+    <t xml:space="preserve">10.1276769638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2983703613281</t>
   </si>
   <si>
     <t xml:space="preserve">10.4406118392944</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">10.4263877868652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5188446044922</t>
+    <t xml:space="preserve">10.5188465118408</t>
   </si>
   <si>
     <t xml:space="preserve">10.7891063690186</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">11.0451431274414</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0949277877808</t>
+    <t xml:space="preserve">11.0949287414551</t>
   </si>
   <si>
     <t xml:space="preserve">11.3580770492554</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">11.4434223175049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4860944747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2656183242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8345890045166</t>
+    <t xml:space="preserve">11.4860954284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2656192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8345899581909</t>
   </si>
   <si>
     <t xml:space="preserve">11.9057102203369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.225757598877</t>
+    <t xml:space="preserve">12.2257566452026</t>
   </si>
   <si>
     <t xml:space="preserve">11.6141138076782</t>
@@ -3647,34 +3647,34 @@
     <t xml:space="preserve">12.0621776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6496744155884</t>
+    <t xml:space="preserve">11.6496734619141</t>
   </si>
   <si>
     <t xml:space="preserve">11.8914861679077</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7421321868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7207956314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8985996246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7492446899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1048517227173</t>
+    <t xml:space="preserve">11.742133140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.720796585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8985986709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7492456436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1048526763916</t>
   </si>
   <si>
     <t xml:space="preserve">12.0977392196655</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3790817260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3486652374268</t>
+    <t xml:space="preserve">12.3790826797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3486661911011</t>
   </si>
   <si>
     <t xml:space="preserve">12.1965894699097</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">11.9988880157471</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1053428649902</t>
+    <t xml:space="preserve">12.1053438186646</t>
   </si>
   <si>
     <t xml:space="preserve">12.2117958068848</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">12.1585702896118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3106479644775</t>
+    <t xml:space="preserve">12.3106470108032</t>
   </si>
   <si>
     <t xml:space="preserve">12.4323091506958</t>
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">12.8505210876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8125019073486</t>
+    <t xml:space="preserve">12.8125009536743</t>
   </si>
   <si>
     <t xml:space="preserve">12.6224050521851</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">11.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0369071960449</t>
+    <t xml:space="preserve">12.0369081497192</t>
   </si>
   <si>
     <t xml:space="preserve">11.6034879684448</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">11.5426568984985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9647645950317</t>
+    <t xml:space="preserve">10.9647636413574</t>
   </si>
   <si>
     <t xml:space="preserve">11.1092367172241</t>
@@ -3761,37 +3761,37 @@
     <t xml:space="preserve">11.223295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7479619979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5958843231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.504638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9228506088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0901355743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9608688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.059718132019</t>
+    <t xml:space="preserve">11.7479610443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5958833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5046377182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9228496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0901346206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9608697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597200393677</t>
   </si>
   <si>
     <t xml:space="preserve">12.0064926147461</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9000387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6186952590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8087930679321</t>
+    <t xml:space="preserve">11.9000377655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6186962127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8087921142578</t>
   </si>
   <si>
     <t xml:space="preserve">12.1509656906128</t>
@@ -3809,55 +3809,55 @@
     <t xml:space="preserve">13.2991485595703</t>
   </si>
   <si>
-    <t xml:space="preserve">13.451226234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3599786758423</t>
+    <t xml:space="preserve">13.4512243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3599796295166</t>
   </si>
   <si>
     <t xml:space="preserve">13.1318645477295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3295669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2839412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4816408157349</t>
+    <t xml:space="preserve">13.3295640945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2839393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4816417694092</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565294265747</t>
   </si>
   <si>
-    <t xml:space="preserve">13.717360496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8618335723877</t>
+    <t xml:space="preserve">13.7173614501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8618326187134</t>
   </si>
   <si>
     <t xml:space="preserve">14.0291204452515</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5576791763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.512056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9530820846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8238134384155</t>
+    <t xml:space="preserve">13.5576782226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5120573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9530811309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8238143920898</t>
   </si>
   <si>
     <t xml:space="preserve">13.0330123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4664325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5880966186523</t>
+    <t xml:space="preserve">13.4664316177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.588095664978</t>
   </si>
   <si>
     <t xml:space="preserve">13.6109056472778</t>
@@ -3866,16 +3866,16 @@
     <t xml:space="preserve">13.4892454147339</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4208106994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8998517990112</t>
+    <t xml:space="preserve">13.4208087921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8998537063599</t>
   </si>
   <si>
     <t xml:space="preserve">13.7249631881714</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6261138916016</t>
+    <t xml:space="preserve">13.6261148452759</t>
   </si>
   <si>
     <t xml:space="preserve">14.0063076019287</t>
@@ -3884,40 +3884,40 @@
     <t xml:space="preserve">14.5994081497192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6031160354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7399873733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4243354797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.485164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2266330718994</t>
+    <t xml:space="preserve">15.6031179428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7399892807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4243335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4851665496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.226634979248</t>
   </si>
   <si>
     <t xml:space="preserve">16.2722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3597955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9796028137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9454755783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6678447723389</t>
+    <t xml:space="preserve">15.3597936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9795999526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9454774856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6678428649902</t>
   </si>
   <si>
     <t xml:space="preserve">14.4017086029053</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5652837753296</t>
+    <t xml:space="preserve">13.5652847290039</t>
   </si>
   <si>
     <t xml:space="preserve">13.8314189910889</t>
@@ -3938,28 +3938,28 @@
     <t xml:space="preserve">12.1281538009644</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5007448196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0482215881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.382791519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0823469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9834957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0139122009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3636875152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2952537536621</t>
+    <t xml:space="preserve">12.5007438659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0482206344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3827905654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0823459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.983494758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0139112472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3636894226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2952527999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.1735916137695</t>
@@ -3968,40 +3968,40 @@
     <t xml:space="preserve">14.3332738876343</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3712921142578</t>
+    <t xml:space="preserve">14.3712930679321</t>
   </si>
   <si>
     <t xml:space="preserve">14.1964044570923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3180656433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4968500137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9074563980103</t>
+    <t xml:space="preserve">14.3180646896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4968481063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9074573516846</t>
   </si>
   <si>
     <t xml:space="preserve">13.7401723861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7933969497681</t>
+    <t xml:space="preserve">13.7933979034424</t>
   </si>
   <si>
     <t xml:space="preserve">13.4740362167358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8086061477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1470727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090526580811</t>
+    <t xml:space="preserve">13.8086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470718383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915449142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090507507324</t>
   </si>
   <si>
     <t xml:space="preserve">12.4779319763184</t>
@@ -4010,58 +4010,58 @@
     <t xml:space="preserve">12.7364625930786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2231101989746</t>
+    <t xml:space="preserve">13.2231092453003</t>
   </si>
   <si>
     <t xml:space="preserve">13.5272645950317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.238317489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8334789276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8495635986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691373825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0425891876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9380350112915</t>
+    <t xml:space="preserve">13.2383184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8334798812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8495626449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691383361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0425882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9380331039429</t>
   </si>
   <si>
     <t xml:space="preserve">14.018461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6565389633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6324100494385</t>
+    <t xml:space="preserve">13.6565370559692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6324119567871</t>
   </si>
   <si>
     <t xml:space="preserve">13.6082830429077</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5761098861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.584153175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3509168624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1739749908447</t>
+    <t xml:space="preserve">13.5761108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5841522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3509149551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1739740371704</t>
   </si>
   <si>
     <t xml:space="preserve">12.9166078567505</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1445083618164</t>
+    <t xml:space="preserve">12.1445074081421</t>
   </si>
   <si>
     <t xml:space="preserve">11.5252180099487</t>
@@ -4070,13 +4070,13 @@
     <t xml:space="preserve">11.6458587646484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0560369491577</t>
+    <t xml:space="preserve">12.056037902832</t>
   </si>
   <si>
     <t xml:space="preserve">11.5010900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4850044250488</t>
+    <t xml:space="preserve">11.4850034713745</t>
   </si>
   <si>
     <t xml:space="preserve">11.7423715591431</t>
@@ -4085,28 +4085,28 @@
     <t xml:space="preserve">11.5573883056641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5493469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2598075866699</t>
+    <t xml:space="preserve">11.5493459701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2598085403442</t>
   </si>
   <si>
     <t xml:space="preserve">11.5413036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.468918800354</t>
+    <t xml:space="preserve">11.4689197540283</t>
   </si>
   <si>
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276372909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8657150268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7289896011353</t>
+    <t xml:space="preserve">11.2276382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8657159805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7289886474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.6726903915405</t>
@@ -4115,49 +4115,49 @@
     <t xml:space="preserve">10.2383823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1579551696777</t>
+    <t xml:space="preserve">10.1579561233521</t>
   </si>
   <si>
     <t xml:space="preserve">10.3751087188721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.664647102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3509798049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4072799682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96493053436279</t>
+    <t xml:space="preserve">10.6646461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350980758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4072790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96492958068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.48236656188965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70756244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841773986816</t>
+    <t xml:space="preserve">9.70756340026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841869354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.1257848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1659994125366</t>
+    <t xml:space="preserve">10.165997505188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016569137573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1820831298828</t>
+    <t xml:space="preserve">10.1820821762085</t>
   </si>
   <si>
     <t xml:space="preserve">10.4877071380615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1338272094727</t>
+    <t xml:space="preserve">10.133828163147</t>
   </si>
   <si>
     <t xml:space="preserve">10.3027248382568</t>
@@ -4175,16 +4175,16 @@
     <t xml:space="preserve">10.5118350982666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9461421966553</t>
+    <t xml:space="preserve">10.946141242981</t>
   </si>
   <si>
     <t xml:space="preserve">11.0185260772705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9783134460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.696816444397</t>
+    <t xml:space="preserve">10.9783124923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968173980713</t>
   </si>
   <si>
     <t xml:space="preserve">10.415322303772</t>
@@ -4193,19 +4193,19 @@
     <t xml:space="preserve">10.5279207229614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7852878570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9702701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4394512176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0131874084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418695449829</t>
+    <t xml:space="preserve">10.7852869033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9702711105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4394502639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0131864547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418704986572</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177415847778</t>
@@ -4214,19 +4214,19 @@
     <t xml:space="preserve">9.97297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6995210647583</t>
+    <t xml:space="preserve">9.69952011108398</t>
   </si>
   <si>
     <t xml:space="preserve">9.62713623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69147777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61104965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36172580718994</t>
+    <t xml:space="preserve">9.69147872924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61105060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36172676086426</t>
   </si>
   <si>
     <t xml:space="preserve">9.5547513961792</t>
@@ -4235,7 +4235,7 @@
     <t xml:space="preserve">9.28934192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24108409881592</t>
+    <t xml:space="preserve">9.24108505249023</t>
   </si>
   <si>
     <t xml:space="preserve">9.1043586730957</t>
@@ -4247,7 +4247,7 @@
     <t xml:space="preserve">9.39389705657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91667461395264</t>
+    <t xml:space="preserve">9.91667366027832</t>
   </si>
   <si>
     <t xml:space="preserve">9.92471694946289</t>
@@ -4256,19 +4256,19 @@
     <t xml:space="preserve">10.0614433288574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83624649047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77994728088379</t>
+    <t xml:space="preserve">9.83624744415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77994823455811</t>
   </si>
   <si>
     <t xml:space="preserve">9.45019626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49845314025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17674446105957</t>
+    <t xml:space="preserve">9.49845218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17674350738525</t>
   </si>
   <si>
     <t xml:space="preserve">9.19282913208008</t>
@@ -4280,7 +4280,7 @@
     <t xml:space="preserve">8.94350433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65396785736084</t>
+    <t xml:space="preserve">8.65396690368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.15261554718018</t>
@@ -4289,34 +4289,34 @@
     <t xml:space="preserve">9.25717067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16065788269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0641450881958</t>
+    <t xml:space="preserve">9.16065883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06414604187012</t>
   </si>
   <si>
     <t xml:space="preserve">8.95959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87916278839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97567558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84699249267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85503482818604</t>
+    <t xml:space="preserve">8.8791618347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97567653656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84699153900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85503578186035</t>
   </si>
   <si>
     <t xml:space="preserve">9.11240196228027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08827304840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1284875869751</t>
+    <t xml:space="preserve">9.0882740020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12848854064941</t>
   </si>
   <si>
     <t xml:space="preserve">9.22500038146973</t>
@@ -4328,16 +4328,16 @@
     <t xml:space="preserve">9.41802501678467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58692264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77190494537354</t>
+    <t xml:space="preserve">9.58692169189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77190399169922</t>
   </si>
   <si>
     <t xml:space="preserve">9.81211853027344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5198774337769</t>
+    <t xml:space="preserve">10.5198783874512</t>
   </si>
   <si>
     <t xml:space="preserve">10.479663848877</t>
@@ -4346,10 +4346,10 @@
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1954660415649</t>
+    <t xml:space="preserve">11.0506963729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1954650878906</t>
   </si>
   <si>
     <t xml:space="preserve">11.1632947921753</t>
@@ -4358,13 +4358,13 @@
     <t xml:space="preserve">11.1230812072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0024423599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3643636703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3037767410278</t>
+    <t xml:space="preserve">11.00244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3643646240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3037776947021</t>
   </si>
   <si>
     <t xml:space="preserve">11.3383979797363</t>
@@ -4376,13 +4376,13 @@
     <t xml:space="preserve">11.3903293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3816728591919</t>
+    <t xml:space="preserve">11.3816747665405</t>
   </si>
   <si>
     <t xml:space="preserve">11.4249496459961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2778100967407</t>
+    <t xml:space="preserve">11.277811050415</t>
   </si>
   <si>
     <t xml:space="preserve">11.2951211929321</t>
@@ -4391,16 +4391,16 @@
     <t xml:space="preserve">11.2172241210938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0441198348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8537034988403</t>
+    <t xml:space="preserve">11.0441188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.853702545166</t>
   </si>
   <si>
     <t xml:space="preserve">10.8710136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0527744293213</t>
+    <t xml:space="preserve">11.052773475647</t>
   </si>
   <si>
     <t xml:space="preserve">10.9575653076172</t>
@@ -4409,25 +4409,25 @@
     <t xml:space="preserve">11.1739473342896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1999139785767</t>
+    <t xml:space="preserve">11.1999130249023</t>
   </si>
   <si>
     <t xml:space="preserve">11.0008420944214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0960502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5720901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3730182647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4162950515747</t>
+    <t xml:space="preserve">11.0960493087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5720891952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3730192184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4162940979004</t>
   </si>
   <si>
     <t xml:space="preserve">11.5115032196045</t>
@@ -4436,7 +4436,7 @@
     <t xml:space="preserve">11.5201587677002</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6326770782471</t>
+    <t xml:space="preserve">11.6326761245728</t>
   </si>
   <si>
     <t xml:space="preserve">11.8144369125366</t>
@@ -4445,13 +4445,13 @@
     <t xml:space="preserve">12.1000604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1346826553345</t>
+    <t xml:space="preserve">12.1346817016602</t>
   </si>
   <si>
     <t xml:space="preserve">12.1433372497559</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3164415359497</t>
+    <t xml:space="preserve">12.316442489624</t>
   </si>
   <si>
     <t xml:space="preserve">12.3424081802368</t>
@@ -4472,10 +4472,10 @@
     <t xml:space="preserve">12.4376163482666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5501346588135</t>
+    <t xml:space="preserve">12.3077878952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5501356124878</t>
   </si>
   <si>
     <t xml:space="preserve">12.5328245162964</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">12.3337535858154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5674457550049</t>
+    <t xml:space="preserve">12.5674467086792</t>
   </si>
   <si>
     <t xml:space="preserve">12.6193771362305</t>
@@ -4499,28 +4499,28 @@
     <t xml:space="preserve">13.3810396194458</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6060781478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5368347167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.640697479248</t>
+    <t xml:space="preserve">13.6060771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5368356704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6406984329224</t>
   </si>
   <si>
     <t xml:space="preserve">13.7705268859863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7618722915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9955644607544</t>
+    <t xml:space="preserve">13.7618713378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9955635070801</t>
   </si>
   <si>
     <t xml:space="preserve">14.1167373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0907716751099</t>
+    <t xml:space="preserve">14.0907726287842</t>
   </si>
   <si>
     <t xml:space="preserve">13.7878379821777</t>
@@ -4529,19 +4529,19 @@
     <t xml:space="preserve">13.6233882904053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1946353912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0042200088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7532167434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4675941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3117990493774</t>
+    <t xml:space="preserve">14.194634437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0042190551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7532176971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4675931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3117980957031</t>
   </si>
   <si>
     <t xml:space="preserve">13.493558883667</t>
@@ -4550,10 +4550,10 @@
     <t xml:space="preserve">13.4502820968628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5281801223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5541458129883</t>
+    <t xml:space="preserve">13.5281791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.554144859314</t>
   </si>
   <si>
     <t xml:space="preserve">13.1040716171265</t>
@@ -4568,34 +4568,34 @@
     <t xml:space="preserve">12.2212343215942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.23854637146</t>
+    <t xml:space="preserve">12.2385454177856</t>
   </si>
   <si>
     <t xml:space="preserve">12.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1260271072388</t>
+    <t xml:space="preserve">12.1260261535645</t>
   </si>
   <si>
     <t xml:space="preserve">11.8836793899536</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9269552230835</t>
+    <t xml:space="preserve">11.9269561767578</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798156738281</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9442663192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0914058685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0827512741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9961967468262</t>
+    <t xml:space="preserve">11.9442672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.091404914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0827503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9961977005005</t>
   </si>
   <si>
     <t xml:space="preserve">12.1606483459473</t>
@@ -4604,34 +4604,34 @@
     <t xml:space="preserve">12.2904767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7405500411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6713094711304</t>
+    <t xml:space="preserve">12.740550994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6713075637817</t>
   </si>
   <si>
     <t xml:space="preserve">12.9482765197754</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0607957839966</t>
+    <t xml:space="preserve">13.0607948303223</t>
   </si>
   <si>
     <t xml:space="preserve">12.9915533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1906232833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3377637863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1560029983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0867605209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1733140945435</t>
+    <t xml:space="preserve">13.1906251907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3377628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1560039520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0867614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1733150482178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7232398986816</t>
@@ -4640,10 +4640,10 @@
     <t xml:space="preserve">12.7578601837158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9828987121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1213827133179</t>
+    <t xml:space="preserve">12.9828977584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1213817596436</t>
   </si>
   <si>
     <t xml:space="preserve">12.454927444458</t>
@@ -4652,13 +4652,13 @@
     <t xml:space="preserve">12.4895486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4635810852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0999450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287504196167</t>
+    <t xml:space="preserve">12.4635820388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0999460220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287494659424</t>
   </si>
   <si>
     <t xml:space="preserve">12.8240633010864</t>
@@ -4679,22 +4679,22 @@
     <t xml:space="preserve">12.4591875076294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6549739837646</t>
+    <t xml:space="preserve">12.654974937439</t>
   </si>
   <si>
     <t xml:space="preserve">12.7973651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816720962524</t>
+    <t xml:space="preserve">12.6816730499268</t>
   </si>
   <si>
     <t xml:space="preserve">12.7528676986694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7439680099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6905727386475</t>
+    <t xml:space="preserve">12.743968963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6905717849731</t>
   </si>
   <si>
     <t xml:space="preserve">12.583779335022</t>
@@ -4712,13 +4712,13 @@
     <t xml:space="preserve">12.5570802688599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5125846862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5036840438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7261695861816</t>
+    <t xml:space="preserve">12.512583732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5036849975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.726170539856</t>
   </si>
   <si>
     <t xml:space="preserve">12.5303821563721</t>
@@ -4748,13 +4748,13 @@
     <t xml:space="preserve">13.0020513534546</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1355438232422</t>
+    <t xml:space="preserve">13.1355428695679</t>
   </si>
   <si>
     <t xml:space="preserve">12.9931526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266431808472</t>
+    <t xml:space="preserve">13.1266441345215</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957315444946</t>
@@ -4763,10 +4763,10 @@
     <t xml:space="preserve">13.384726524353</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4737215042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.660608291626</t>
+    <t xml:space="preserve">13.4737205505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6606092453003</t>
   </si>
   <si>
     <t xml:space="preserve">13.6161117553711</t>
@@ -4784,7 +4784,7 @@
     <t xml:space="preserve">13.6517095565796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8652944564819</t>
+    <t xml:space="preserve">13.8652954101562</t>
   </si>
   <si>
     <t xml:space="preserve">14.1767749786377</t>
@@ -4808,7 +4808,7 @@
     <t xml:space="preserve">14.4348573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1233777999878</t>
+    <t xml:space="preserve">14.1233787536621</t>
   </si>
   <si>
     <t xml:space="preserve">14.2479705810547</t>
@@ -4823,10 +4823,10 @@
     <t xml:space="preserve">14.3992605209351</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5149517059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945743560791</t>
+    <t xml:space="preserve">14.5149526596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945734024048</t>
   </si>
   <si>
     <t xml:space="preserve">14.1322774887085</t>
@@ -4841,10 +4841,10 @@
     <t xml:space="preserve">14.3458652496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.381462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882545471191</t>
+    <t xml:space="preserve">14.3814611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882555007935</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793558120728</t>
@@ -4856,7 +4856,7 @@
     <t xml:space="preserve">14.2212715148926</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9453897476196</t>
+    <t xml:space="preserve">13.9453907012939</t>
   </si>
   <si>
     <t xml:space="preserve">13.8207979202271</t>
@@ -4877,10 +4877,10 @@
     <t xml:space="preserve">13.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9364910125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0699825286865</t>
+    <t xml:space="preserve">13.9364900588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0699815750122</t>
   </si>
   <si>
     <t xml:space="preserve">14.1589756011963</t>
@@ -4901,19 +4901,19 @@
     <t xml:space="preserve">14.4615564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6662435531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421253204346</t>
+    <t xml:space="preserve">14.6662425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421262741089</t>
   </si>
   <si>
     <t xml:space="preserve">14.8353319168091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.612847328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6484432220459</t>
+    <t xml:space="preserve">14.6128463745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6484441757202</t>
   </si>
   <si>
     <t xml:space="preserve">14.6306457519531</t>
@@ -4931,25 +4931,25 @@
     <t xml:space="preserve">13.6962070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1856737136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3547630310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5327520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887271881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7552375793457</t>
+    <t xml:space="preserve">14.1856746673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3547620773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.532751083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887281417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7552366256714</t>
   </si>
   <si>
     <t xml:space="preserve">14.7997331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9510231018066</t>
+    <t xml:space="preserve">14.951024055481</t>
   </si>
   <si>
     <t xml:space="preserve">15.4137935638428</t>
@@ -4961,13 +4961,13 @@
     <t xml:space="preserve">15.3336992263794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1913089752197</t>
+    <t xml:space="preserve">15.1913080215454</t>
   </si>
   <si>
     <t xml:space="preserve">15.1290130615234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3514995574951</t>
+    <t xml:space="preserve">15.3514976501465</t>
   </si>
   <si>
     <t xml:space="preserve">15.2654151916504</t>
@@ -5319,6 +5319,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.3799991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3799991607666</t>
   </si>
 </sst>
 </file>
@@ -61716,7 +61719,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6493865741</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>161565</v>
@@ -61737,6 +61740,32 @@
         <v>1768</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6494907407</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>269259</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>20.4200000762939</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>19.3199996948242</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>19.6399993896484</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>20.3799991607666</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1771">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">17.306079864502</t>
+    <t xml:space="preserve">17.3060817718506</t>
   </si>
   <si>
     <t xml:space="preserve">IF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.924783706665</t>
+    <t xml:space="preserve">16.9247817993164</t>
   </si>
   <si>
     <t xml:space="preserve">16.850980758667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9961338043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931842803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116340637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8669843673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5902338027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3466854095459</t>
+    <t xml:space="preserve">15.9961357116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931852340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116302490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8669853210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.590235710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3466815948486</t>
   </si>
   <si>
     <t xml:space="preserve">15.2335338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9407844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1006832122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8731317520142</t>
+    <t xml:space="preserve">15.9407825469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1006813049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8731336593628</t>
   </si>
   <si>
     <t xml:space="preserve">16.9063320159912</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9309329986572</t>
+    <t xml:space="preserve">16.9309349060059</t>
   </si>
   <si>
     <t xml:space="preserve">17.5274791717529</t>
@@ -92,85 +92,85 @@
     <t xml:space="preserve">17.5336303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1154289245605</t>
+    <t xml:space="preserve">17.1154327392578</t>
   </si>
   <si>
     <t xml:space="preserve">17.7119827270508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6504802703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3429851531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6849308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4512348175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9899826049805</t>
+    <t xml:space="preserve">17.6504859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.342981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6849327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4512329101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9899816513062</t>
   </si>
   <si>
     <t xml:space="preserve">14.3602361679077</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4032850265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1105365753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1412830352783</t>
+    <t xml:space="preserve">14.4032821655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1105356216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1412858963013</t>
   </si>
   <si>
     <t xml:space="preserve">15.202784538269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9838314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8792848587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7808790206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6947822570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.762433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9739799499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696846008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2113838195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7218322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6049823760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5434837341309</t>
+    <t xml:space="preserve">15.9838333129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.879282951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7808856964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6947841644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7624311447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9739837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4696826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2113819122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7218341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.60498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5434818267822</t>
   </si>
   <si>
     <t xml:space="preserve">17.041633605957</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8079357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4819831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8854322433472</t>
+    <t xml:space="preserve">16.807933807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4819812774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8854351043701</t>
   </si>
   <si>
     <t xml:space="preserve">16.0084342956543</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">15.5779342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9284830093384</t>
+    <t xml:space="preserve">15.9284839630127</t>
   </si>
   <si>
     <t xml:space="preserve">16.1867828369141</t>
@@ -191,40 +191,40 @@
     <t xml:space="preserve">16.912483215332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5951309204102</t>
+    <t xml:space="preserve">17.5951328277588</t>
   </si>
   <si>
     <t xml:space="preserve">17.8534336090088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6996822357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5582313537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7242813110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.749547958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1285400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3875217437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0527439117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0148448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1557903289795</t>
+    <t xml:space="preserve">17.6996803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5582294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7242851257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7495498657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1285457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3875198364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0527458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4274044036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0148429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1557884216309</t>
   </si>
   <si>
     <t xml:space="preserve">17.2442226409912</t>
@@ -233,22 +233,22 @@
     <t xml:space="preserve">17.3579196929932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4716186523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1936912536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8020648956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9662952423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.757848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6504669189453</t>
+    <t xml:space="preserve">17.4716205596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1936893463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8020629882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9662933349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7578468322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6504650115967</t>
   </si>
   <si>
     <t xml:space="preserve">16.9157619476318</t>
@@ -257,46 +257,46 @@
     <t xml:space="preserve">16.448335647583</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3283195495605</t>
+    <t xml:space="preserve">16.3283214569092</t>
   </si>
   <si>
     <t xml:space="preserve">16.044075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.081974029541</t>
+    <t xml:space="preserve">16.0819702148438</t>
   </si>
   <si>
     <t xml:space="preserve">16.1704063415527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0061740875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7787799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5261163711548</t>
+    <t xml:space="preserve">16.006175994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7787780761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5261173248291</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229204177856</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5766468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334243774414</t>
+    <t xml:space="preserve">15.5766487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334253311157</t>
   </si>
   <si>
     <t xml:space="preserve">15.001841545105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6544322967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4144010543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1175222396851</t>
+    <t xml:space="preserve">14.6544332504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4144020080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1175241470337</t>
   </si>
   <si>
     <t xml:space="preserve">14.2754364013672</t>
@@ -305,160 +305,160 @@
     <t xml:space="preserve">14.0354061126709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7258958816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8964433670044</t>
+    <t xml:space="preserve">13.7258977890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8964443206787</t>
   </si>
   <si>
     <t xml:space="preserve">13.9532918930054</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5806140899658</t>
+    <t xml:space="preserve">13.5806159973145</t>
   </si>
   <si>
     <t xml:space="preserve">13.8332767486572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2249069213867</t>
+    <t xml:space="preserve">14.2249040603638</t>
   </si>
   <si>
     <t xml:space="preserve">15.9619607925415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3492517471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1597566604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9134120941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0271091461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796960830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5912656784058</t>
+    <t xml:space="preserve">15.3492527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1597576141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9134111404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0271081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796979904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5912666320801</t>
   </si>
   <si>
     <t xml:space="preserve">14.6923313140869</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4649343490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2564859390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0543575286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8016948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4226999282837</t>
+    <t xml:space="preserve">14.4649324417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2564897537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0543565750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8016929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.422700881958</t>
   </si>
   <si>
     <t xml:space="preserve">13.258469581604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068716049194</t>
+    <t xml:space="preserve">13.1068725585938</t>
   </si>
   <si>
     <t xml:space="preserve">12.7657785415649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4479684829712</t>
+    <t xml:space="preserve">13.4479694366455</t>
   </si>
   <si>
     <t xml:space="preserve">13.9153928756714</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8522262573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2817544937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.327953338623</t>
+    <t xml:space="preserve">13.8522253036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2817516326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3279523849487</t>
   </si>
   <si>
     <t xml:space="preserve">11.1929521560669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2877035140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3508672714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645643234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4771995544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.496148109436</t>
+    <t xml:space="preserve">11.2877025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.350866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4772005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4961471557617</t>
   </si>
   <si>
     <t xml:space="preserve">10.9276571273804</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5360307693481</t>
+    <t xml:space="preserve">10.5360298156738</t>
   </si>
   <si>
     <t xml:space="preserve">10.5233964920044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7002611160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7381601333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9067249298096</t>
+    <t xml:space="preserve">10.7002620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7381610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9067258834839</t>
   </si>
   <si>
     <t xml:space="preserve">12.4057340621948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.633131980896</t>
+    <t xml:space="preserve">12.6331310272217</t>
   </si>
   <si>
     <t xml:space="preserve">12.4562654495239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6647129058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3804683685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6457614898682</t>
+    <t xml:space="preserve">12.6647119522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3804693222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6457643508911</t>
   </si>
   <si>
     <t xml:space="preserve">12.3488836288452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1467542648315</t>
+    <t xml:space="preserve">12.1467533111572</t>
   </si>
   <si>
     <t xml:space="preserve">11.9446249008179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6603775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0962200164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857936859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5573310852051</t>
+    <t xml:space="preserve">11.66037940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0962219238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857908248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5573291778564</t>
   </si>
   <si>
     <t xml:space="preserve">12.7341938018799</t>
@@ -467,52 +467,52 @@
     <t xml:space="preserve">12.2225532531738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541360855103</t>
+    <t xml:space="preserve">12.2541370391846</t>
   </si>
   <si>
     <t xml:space="preserve">12.7594623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9110593795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5383825302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8163118362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.708930015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5952310562134</t>
+    <t xml:space="preserve">12.911060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5383815765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.816312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7089281082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5952301025391</t>
   </si>
   <si>
     <t xml:space="preserve">12.5194320678711</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4120512008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0835905075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0709552764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1404361724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278047561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2036037445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.064640045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0583238601685</t>
+    <t xml:space="preserve">12.4120492935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.083589553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0709571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1404390335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278057098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2036027908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0646390914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0583229064941</t>
   </si>
   <si>
     <t xml:space="preserve">12.2288684844971</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">12.323618888855</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3046674728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5699634552002</t>
+    <t xml:space="preserve">12.3046684265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5699644088745</t>
   </si>
   <si>
     <t xml:space="preserve">13.0121240615845</t>
@@ -536,37 +536,37 @@
     <t xml:space="preserve">13.6311483383179</t>
   </si>
   <si>
-    <t xml:space="preserve">13.151086807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8605279922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489583969116</t>
+    <t xml:space="preserve">13.1510858535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8605270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489593505859</t>
   </si>
   <si>
     <t xml:space="preserve">12.8352603912354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.854208946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.727876663208</t>
+    <t xml:space="preserve">12.8542108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7278776168823</t>
   </si>
   <si>
     <t xml:space="preserve">12.9426422119141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2647876739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2205715179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8226270675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6583948135376</t>
+    <t xml:space="preserve">13.2647857666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.22057056427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8226261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6583967208862</t>
   </si>
   <si>
     <t xml:space="preserve">12.6394472122192</t>
@@ -575,40 +575,40 @@
     <t xml:space="preserve">12.6773452758789</t>
   </si>
   <si>
-    <t xml:space="preserve">12.873158454895</t>
+    <t xml:space="preserve">12.8731603622437</t>
   </si>
   <si>
     <t xml:space="preserve">12.9300079345703</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2268886566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6437816619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7744445800781</t>
+    <t xml:space="preserve">13.2268877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.643780708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7744436264038</t>
   </si>
   <si>
     <t xml:space="preserve">15.0650081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0965881347656</t>
+    <t xml:space="preserve">15.0965900421143</t>
   </si>
   <si>
     <t xml:space="preserve">15.2481870651245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3429365158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5892820358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.804048538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9051122665405</t>
+    <t xml:space="preserve">15.3429384231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.589280128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8040466308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9051103591919</t>
   </si>
   <si>
     <t xml:space="preserve">16.3662185668945</t>
@@ -617,25 +617,25 @@
     <t xml:space="preserve">16.4546508789062</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6125659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7452144622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6441478729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4357013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1830406188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2019882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9556427001953</t>
+    <t xml:space="preserve">16.6125621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7452125549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6441459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4357032775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1830425262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2019901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.955641746521</t>
   </si>
   <si>
     <t xml:space="preserve">16.0503902435303</t>
@@ -647,94 +647,94 @@
     <t xml:space="preserve">15.8166799545288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4629507064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0081586837769</t>
+    <t xml:space="preserve">15.4755830764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4629516601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0081596374512</t>
   </si>
   <si>
     <t xml:space="preserve">15.0523748397827</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9449939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512353897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4965171813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0227746963501</t>
+    <t xml:space="preserve">14.944993019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.888144493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270353317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4965181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0227766036987</t>
   </si>
   <si>
     <t xml:space="preserve">14.5280990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7807636260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618131637573</t>
+    <t xml:space="preserve">14.7807607650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618141174316</t>
   </si>
   <si>
     <t xml:space="preserve">14.6102142333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5513858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.696662902832</t>
+    <t xml:space="preserve">15.551383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6966648101807</t>
   </si>
   <si>
     <t xml:space="preserve">15.6082324981689</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7914123535156</t>
+    <t xml:space="preserve">15.7914113998413</t>
   </si>
   <si>
     <t xml:space="preserve">16.4293880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1514568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.822998046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.917742729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588367462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4230690002441</t>
+    <t xml:space="preserve">16.1514587402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8229951858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.91774559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588386535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4230670928955</t>
   </si>
   <si>
     <t xml:space="preserve">16.7388973236084</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1368427276611</t>
+    <t xml:space="preserve">17.1368408203125</t>
   </si>
   <si>
     <t xml:space="preserve">17.0420932769775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9915580749512</t>
+    <t xml:space="preserve">16.9915599822998</t>
   </si>
   <si>
     <t xml:space="preserve">16.8652286529541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3156871795654</t>
+    <t xml:space="preserve">16.3156890869141</t>
   </si>
   <si>
     <t xml:space="preserve">16.486234664917</t>
@@ -743,43 +743,43 @@
     <t xml:space="preserve">16.8210124969482</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6757316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5367698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5936183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5746669769287</t>
+    <t xml:space="preserve">16.6757335662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5367660522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5936145782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5746688842773</t>
   </si>
   <si>
     <t xml:space="preserve">16.3093719482422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1072406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9809083938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524486541748</t>
+    <t xml:space="preserve">16.1072425842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524515151978</t>
   </si>
   <si>
     <t xml:space="preserve">15.9745941162109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8545789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8293104171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5494041442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2335739135742</t>
+    <t xml:space="preserve">15.8545799255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.829309463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5494022369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.233570098877</t>
   </si>
   <si>
     <t xml:space="preserve">16.1198749542236</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">16.3599033355713</t>
   </si>
   <si>
-    <t xml:space="preserve">16.928394317627</t>
+    <t xml:space="preserve">16.9283924102783</t>
   </si>
   <si>
     <t xml:space="preserve">17.4337196350098</t>
@@ -797,73 +797,73 @@
     <t xml:space="preserve">17.421085357666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6358489990234</t>
+    <t xml:space="preserve">17.6358509063721</t>
   </si>
   <si>
     <t xml:space="preserve">18.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6465015411377</t>
+    <t xml:space="preserve">18.6464996337891</t>
   </si>
   <si>
     <t xml:space="preserve">18.7917804718018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2927703857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2675075531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6863803863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5706996917725</t>
+    <t xml:space="preserve">18.2927722930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.267505645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6863822937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707015991211</t>
   </si>
   <si>
     <t xml:space="preserve">18.6338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0760288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2276229858398</t>
+    <t xml:space="preserve">19.0760269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2276248931885</t>
   </si>
   <si>
     <t xml:space="preserve">19.3476371765137</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7601985931396</t>
+    <t xml:space="preserve">18.7602005004883</t>
   </si>
   <si>
     <t xml:space="preserve">18.8802127838135</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4550189971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7013664245605</t>
+    <t xml:space="preserve">19.455020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7013683319092</t>
   </si>
   <si>
     <t xml:space="preserve">20.6046352386475</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5015869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7921485900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.987964630127</t>
+    <t xml:space="preserve">21.5015850067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7921504974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9879665374756</t>
   </si>
   <si>
     <t xml:space="preserve">23.0301952362061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5690841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9291286468506</t>
+    <t xml:space="preserve">22.5690860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9291305541992</t>
   </si>
   <si>
     <t xml:space="preserve">22.8028011322021</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">22.7396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7080497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3480072021484</t>
+    <t xml:space="preserve">22.7080516815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3480091094971</t>
   </si>
   <si>
     <t xml:space="preserve">22.6133041381836</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">22.6954174041748</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9164981842041</t>
+    <t xml:space="preserve">22.9164962768555</t>
   </si>
   <si>
     <t xml:space="preserve">22.8975486755371</t>
@@ -896,31 +896,31 @@
     <t xml:space="preserve">23.2133769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5481548309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3586578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2891750335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1186275482178</t>
+    <t xml:space="preserve">23.548152923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3586559295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.289176940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1186256408691</t>
   </si>
   <si>
     <t xml:space="preserve">23.049144744873</t>
   </si>
   <si>
-    <t xml:space="preserve">23.434455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7376556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4407711029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4893207550049</t>
+    <t xml:space="preserve">23.4344577789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7376537322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4407730102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4893226623535</t>
   </si>
   <si>
     <t xml:space="preserve">24.3440437316895</t>
@@ -932,28 +932,28 @@
     <t xml:space="preserve">24.4451065063477</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0135955810547</t>
+    <t xml:space="preserve">25.0135974884033</t>
   </si>
   <si>
     <t xml:space="preserve">25.2199993133545</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8329963684082</t>
+    <t xml:space="preserve">24.8329944610596</t>
   </si>
   <si>
     <t xml:space="preserve">24.6265907287598</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6074695587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4980449676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2075634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8915061950684</t>
+    <t xml:space="preserve">23.6074676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2075614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8915042877197</t>
   </si>
   <si>
     <t xml:space="preserve">22.6915512084961</t>
@@ -962,46 +962,46 @@
     <t xml:space="preserve">22.7560520172119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6399517059326</t>
+    <t xml:space="preserve">22.6399478912354</t>
   </si>
   <si>
     <t xml:space="preserve">21.2209224700928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4404563903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.491828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9562377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5238494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5109481811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5754508972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4464473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2916431427002</t>
+    <t xml:space="preserve">20.4404582977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4918270111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9562358856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5238456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.510950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5754470825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4464454650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2916450500488</t>
   </si>
   <si>
     <t xml:space="preserve">22.33034324646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7691841125488</t>
+    <t xml:space="preserve">21.7691822052002</t>
   </si>
   <si>
     <t xml:space="preserve">21.5627784729004</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8659381866455</t>
+    <t xml:space="preserve">21.8659362792969</t>
   </si>
   <si>
     <t xml:space="preserve">22.2658424377441</t>
@@ -1010,34 +1010,34 @@
     <t xml:space="preserve">22.0594387054443</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1884422302246</t>
+    <t xml:space="preserve">22.188440322876</t>
   </si>
   <si>
     <t xml:space="preserve">22.8205547332764</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7625026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3819446563721</t>
+    <t xml:space="preserve">22.7625045776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3819465637207</t>
   </si>
   <si>
     <t xml:space="preserve">22.6012516021729</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5496463775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7689533233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4786949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1561889648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0465412139893</t>
+    <t xml:space="preserve">22.5496501922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7689552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4786987304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1561908721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0465393066406</t>
   </si>
   <si>
     <t xml:space="preserve">21.9949378967285</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">22.7302532196045</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7044525146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9431056976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1043567657471</t>
+    <t xml:space="preserve">22.7044506072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9431037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0205059051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1043586730957</t>
   </si>
   <si>
     <t xml:space="preserve">23.0140571594238</t>
@@ -1073,73 +1073,73 @@
     <t xml:space="preserve">23.4139652252197</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7042198181152</t>
+    <t xml:space="preserve">23.7042236328125</t>
   </si>
   <si>
     <t xml:space="preserve">23.9170761108398</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7880725860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622718811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8009757995605</t>
+    <t xml:space="preserve">23.7880744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622737884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8009738922119</t>
   </si>
   <si>
     <t xml:space="preserve">24.0138263702393</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2847328186035</t>
+    <t xml:space="preserve">24.2847347259521</t>
   </si>
   <si>
     <t xml:space="preserve">23.9299755096436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7039890289307</t>
+    <t xml:space="preserve">24.7039909362793</t>
   </si>
   <si>
     <t xml:space="preserve">25.1877479553223</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8974990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2587013244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.026496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.607006072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8327617645264</t>
+    <t xml:space="preserve">24.8974952697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2587032318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0264987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6070098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8327655792236</t>
   </si>
   <si>
     <t xml:space="preserve">26.142370223999</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4003734588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6906337738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2520198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5035781860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4455242156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.916618347168</t>
+    <t xml:space="preserve">26.4003753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6906318664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2520236968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5035762786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4455280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.890811920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9166164398193</t>
   </si>
   <si>
     <t xml:space="preserve">26.5680770874023</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">26.7809314727783</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7293281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2326698303223</t>
+    <t xml:space="preserve">26.7293319702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2326717376709</t>
   </si>
   <si>
     <t xml:space="preserve">26.4326248168945</t>
   </si>
   <si>
-    <t xml:space="preserve">26.213321685791</t>
+    <t xml:space="preserve">26.2133235931396</t>
   </si>
   <si>
     <t xml:space="preserve">26.1939716339111</t>
@@ -1166,268 +1166,268 @@
     <t xml:space="preserve">26.3616752624512</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1617221832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9940185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4199562072754</t>
+    <t xml:space="preserve">26.1617202758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9940147399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4199542999268</t>
   </si>
   <si>
     <t xml:space="preserve">26.0714206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">26.284273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5745277404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9808883666992</t>
+    <t xml:space="preserve">26.2842750549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9808921813965</t>
   </si>
   <si>
     <t xml:space="preserve">26.7680320739746</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4842300415039</t>
+    <t xml:space="preserve">26.4842281341553</t>
   </si>
   <si>
     <t xml:space="preserve">27.2066421508789</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1743907928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9357357025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1614875793457</t>
+    <t xml:space="preserve">27.1743927001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.935733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1614894866943</t>
   </si>
   <si>
     <t xml:space="preserve">27.5678520202637</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2709178924561</t>
+    <t xml:space="preserve">28.2709140777588</t>
   </si>
   <si>
     <t xml:space="preserve">28.2773628234863</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7675743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352272033691</t>
+    <t xml:space="preserve">28.7675724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352310180664</t>
   </si>
   <si>
     <t xml:space="preserve">29.0126762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2384300231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7353191375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2513294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4964351654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8382949829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.522008895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8638591766357</t>
+    <t xml:space="preserve">29.2384281158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7353172302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4964370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8382930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5220069885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.863862991333</t>
   </si>
   <si>
     <t xml:space="preserve">31.018669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">29.580286026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5155601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3411750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7733306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5153274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8509654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6125373840332</t>
+    <t xml:space="preserve">29.5802898406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5155582427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3411712646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023830413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7733345031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.515323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8509674072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6125392913818</t>
   </si>
   <si>
     <t xml:space="preserve">29.1739273071289</t>
   </si>
   <si>
-    <t xml:space="preserve">29.928596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2964820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2833499908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865585327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4252548217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6187591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1476707458496</t>
+    <t xml:space="preserve">29.9285984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2964839935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.283353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865566253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.425256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6187610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.147668838501</t>
   </si>
   <si>
     <t xml:space="preserve">30.3156051635742</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3543071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1930503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2446517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.780237197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4899826049805</t>
+    <t xml:space="preserve">30.354305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1930484771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2446537017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7802410125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4899883270264</t>
   </si>
   <si>
     <t xml:space="preserve">28.928825378418</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5224647521973</t>
+    <t xml:space="preserve">28.5224685668945</t>
   </si>
   <si>
     <t xml:space="preserve">27.0518379211426</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2778244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2393550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1038951873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9553165435791</t>
+    <t xml:space="preserve">26.2778224945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.239351272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1039009094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9553146362305</t>
   </si>
   <si>
     <t xml:space="preserve">24.9813461303711</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9942474365234</t>
+    <t xml:space="preserve">24.9942455291748</t>
   </si>
   <si>
     <t xml:space="preserve">24.5427360534668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1750831604004</t>
+    <t xml:space="preserve">24.1750812530518</t>
   </si>
   <si>
     <t xml:space="preserve">24.9361934661865</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6394920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8652477264404</t>
+    <t xml:space="preserve">24.6394901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8652458190918</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651988983154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4524383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6977729797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6655178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8977241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0009250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5881195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9882583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5365200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589809417725</t>
+    <t xml:space="preserve">24.4524345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6977710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6655197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8977279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0009231567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5881214141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9882564544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5365180969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589771270752</t>
   </si>
   <si>
     <t xml:space="preserve">24.7104454040527</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3043155670166</t>
+    <t xml:space="preserve">23.304313659668</t>
   </si>
   <si>
     <t xml:space="preserve">23.2140121459961</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1559619903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8783760070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9684467315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2971706390381</t>
+    <t xml:space="preserve">23.1559581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8783779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9684448242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2971725463867</t>
   </si>
   <si>
     <t xml:space="preserve">25.3425540924072</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6715106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1230182647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1359214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7876110076904</t>
+    <t xml:space="preserve">25.6715126037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1230201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1359233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7876148223877</t>
   </si>
   <si>
     <t xml:space="preserve">25.86501121521</t>
   </si>
   <si>
-    <t xml:space="preserve">24.574987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3232021331787</t>
+    <t xml:space="preserve">24.5749893188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.323205947876</t>
   </si>
   <si>
     <t xml:space="preserve">25.4651069641113</t>
@@ -1439,64 +1439,64 @@
     <t xml:space="preserve">25.3490047454834</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2458000183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0522956848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7684898376465</t>
+    <t xml:space="preserve">25.2458057403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0522975921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7684955596924</t>
   </si>
   <si>
     <t xml:space="preserve">24.7426929473877</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4975891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2329025268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6910877227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2782821655273</t>
+    <t xml:space="preserve">24.4975872039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2329044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6910934448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2782859802246</t>
   </si>
   <si>
     <t xml:space="preserve">23.3365650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8076553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3881664276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6079292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3628273010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8463516235352</t>
+    <t xml:space="preserve">22.807653427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3881645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.607931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3628234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8463554382324</t>
   </si>
   <si>
     <t xml:space="preserve">23.272066116333</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0011558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.504264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4913673400879</t>
+    <t xml:space="preserve">23.0011577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5042667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4913654327393</t>
   </si>
   <si>
     <t xml:space="preserve">23.4526672363281</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4010639190674</t>
+    <t xml:space="preserve">23.401065826416</t>
   </si>
   <si>
     <t xml:space="preserve">23.5300674438477</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">20.9113159179688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.28542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0016212463379</t>
+    <t xml:space="preserve">21.2854232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0016174316406</t>
   </si>
   <si>
     <t xml:space="preserve">20.9887180328369</t>
   </si>
   <si>
-    <t xml:space="preserve">22.072338104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9820404052734</t>
+    <t xml:space="preserve">22.0723400115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9820384979248</t>
   </si>
   <si>
     <t xml:space="preserve">20.7178115844727</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">20.1760005950928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3695068359375</t>
+    <t xml:space="preserve">20.3695049285889</t>
   </si>
   <si>
     <t xml:space="preserve">21.3757247924805</t>
@@ -1550,10 +1550,10 @@
     <t xml:space="preserve">21.182222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8855171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1502017974854</t>
+    <t xml:space="preserve">20.8855152130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1501998901367</t>
   </si>
   <si>
     <t xml:space="preserve">19.0923805236816</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">19.7502937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.588809967041</t>
+    <t xml:space="preserve">20.5888080596924</t>
   </si>
   <si>
     <t xml:space="preserve">21.027416229248</t>
@@ -1580,70 +1580,70 @@
     <t xml:space="preserve">22.1626415252686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6982326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5305309295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7885360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6595325469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2749538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2882556915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0487632751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9955425262451</t>
+    <t xml:space="preserve">21.6982288360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5305290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7885341644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6595306396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2749519348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.288257598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0487651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9955444335938</t>
   </si>
   <si>
     <t xml:space="preserve">21.0753746032715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7539367675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.966817855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2861423492432</t>
+    <t xml:space="preserve">21.7539386749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668216705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2861442565918</t>
   </si>
   <si>
     <t xml:space="preserve">22.4724159240723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7252159118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4058895111084</t>
+    <t xml:space="preserve">22.725212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4058933258057</t>
   </si>
   <si>
     <t xml:space="preserve">22.020040512085</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4878330230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6075801849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6874122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8491859436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1573162078857</t>
+    <t xml:space="preserve">21.4878349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3813953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6075820922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6874103546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8491878509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1573181152344</t>
   </si>
   <si>
     <t xml:space="preserve">19.146125793457</t>
@@ -1652,73 +1652,73 @@
     <t xml:space="preserve">18.78688621521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9465465545654</t>
+    <t xml:space="preserve">18.9465484619141</t>
   </si>
   <si>
     <t xml:space="preserve">18.5606994628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1615428924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1636562347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5803442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1699953079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.52712059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6468687057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9640789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0306053161621</t>
+    <t xml:space="preserve">18.1615447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1636581420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5803422927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1699962615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5271234512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6468696594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9640808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0306072235107</t>
   </si>
   <si>
     <t xml:space="preserve">16.5117034912109</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6580638885498</t>
+    <t xml:space="preserve">16.6580619812012</t>
   </si>
   <si>
     <t xml:space="preserve">16.3121280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1657676696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8177223205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7623901367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2546787261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2280712127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.682559967041</t>
+    <t xml:space="preserve">16.1657695770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.817720413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7623882293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2546806335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2280693054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6825580596924</t>
   </si>
   <si>
     <t xml:space="preserve">18.4675617218018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9598541259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4010372161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.587308883667</t>
+    <t xml:space="preserve">18.9598522186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4010391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5873107910156</t>
   </si>
   <si>
     <t xml:space="preserve">18.2812900543213</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">17.5628128051758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0039939880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1237392425537</t>
+    <t xml:space="preserve">17.0039958953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1237411499023</t>
   </si>
   <si>
     <t xml:space="preserve">17.1503524780273</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">17.6426429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0417976379395</t>
+    <t xml:space="preserve">18.0417995452881</t>
   </si>
   <si>
     <t xml:space="preserve">18.2413749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8954391479492</t>
+    <t xml:space="preserve">17.8954410552979</t>
   </si>
   <si>
     <t xml:space="preserve">17.4962844848633</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">17.5894222259521</t>
   </si>
   <si>
-    <t xml:space="preserve">17.403148651123</t>
+    <t xml:space="preserve">17.4031505584717</t>
   </si>
   <si>
     <t xml:space="preserve">18.3345108032227</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">17.9087467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6559467315674</t>
+    <t xml:space="preserve">17.655948638916</t>
   </si>
   <si>
     <t xml:space="preserve">17.9220523834229</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">17.9885768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.828914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8975563049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.097131729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0992469787598</t>
+    <t xml:space="preserve">17.8289127349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.897554397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0971298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0992450714111</t>
   </si>
   <si>
     <t xml:space="preserve">14.7022018432617</t>
@@ -1802,52 +1802,52 @@
     <t xml:space="preserve">15.0481376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0082216262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949150085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6090660095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3429641723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7575359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6111783981323</t>
+    <t xml:space="preserve">15.0082235336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949188232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6090669631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3429622650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7575378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.611177444458</t>
   </si>
   <si>
     <t xml:space="preserve">13.7309255599976</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6910104751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5824565887451</t>
+    <t xml:space="preserve">13.6910085678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5824556350708</t>
   </si>
   <si>
     <t xml:space="preserve">14.0635538101196</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2631320953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2099132537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3961820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5712652206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5180425643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4781284332275</t>
+    <t xml:space="preserve">14.2631311416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2099113464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.396183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5712623596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5180444717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4781293869019</t>
   </si>
   <si>
     <t xml:space="preserve">14.0369453430176</t>
@@ -1856,31 +1856,31 @@
     <t xml:space="preserve">14.5159311294556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0215272903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8751697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6888971328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2743244171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9283905029297</t>
+    <t xml:space="preserve">15.0215291976929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8751707077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6888980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2743225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.928391456604</t>
   </si>
   <si>
     <t xml:space="preserve">15.0348320007324</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6489839553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6755933761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8485593795776</t>
+    <t xml:space="preserve">14.648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6755924224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8485584259033</t>
   </si>
   <si>
     <t xml:space="preserve">15.4605979919434</t>
@@ -1889,40 +1889,40 @@
     <t xml:space="preserve">15.859751701355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8331432342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867837905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730573654175</t>
+    <t xml:space="preserve">15.83314037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.686785697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730592727661</t>
   </si>
   <si>
     <t xml:space="preserve">14.7288131713867</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9060049057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9480333328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4270181655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7663040161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1721076965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9791860580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3426485061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6420164108276</t>
+    <t xml:space="preserve">12.9060068130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9480323791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4270210266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663021087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721086502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9791851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3426494598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6420154571533</t>
   </si>
   <si>
     <t xml:space="preserve">11.2561664581299</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">10.8503580093384</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559551239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3293447494507</t>
+    <t xml:space="preserve">11.3559541702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3293437957764</t>
   </si>
   <si>
     <t xml:space="preserve">11.5422267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9102306365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.883620262146</t>
+    <t xml:space="preserve">10.910231590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8836221694946</t>
   </si>
   <si>
     <t xml:space="preserve">10.4844665527344</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">9.60632610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21382236480713</t>
+    <t xml:space="preserve">9.21382427215576</t>
   </si>
   <si>
     <t xml:space="preserve">9.04085731506348</t>
@@ -1964,85 +1964,85 @@
     <t xml:space="preserve">9.34687614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86577606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96556568145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3381099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6441278457642</t>
+    <t xml:space="preserve">9.86577701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9655647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3381090164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6441287994385</t>
   </si>
   <si>
     <t xml:space="preserve">11.2362079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8703174591064</t>
+    <t xml:space="preserve">10.8703165054321</t>
   </si>
   <si>
     <t xml:space="preserve">10.0320911407471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1385316848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69946193695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0387439727783</t>
+    <t xml:space="preserve">10.1385326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.699462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.038743019104</t>
   </si>
   <si>
     <t xml:space="preserve">10.1717948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2981948852539</t>
+    <t xml:space="preserve">10.2981939315796</t>
   </si>
   <si>
     <t xml:space="preserve">10.544340133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.431245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979825973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6773910522461</t>
+    <t xml:space="preserve">10.4312467575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979835510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6773900985718</t>
   </si>
   <si>
     <t xml:space="preserve">10.5709505081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243816375732</t>
+    <t xml:space="preserve">10.5243825912476</t>
   </si>
   <si>
     <t xml:space="preserve">11.9214239120483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2474002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9946041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7529964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4336719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076965332031</t>
+    <t xml:space="preserve">12.2474012374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9946031570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7529983520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4336748123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076955795288</t>
   </si>
   <si>
     <t xml:space="preserve">12.0611276626587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5621843338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9081201553345</t>
+    <t xml:space="preserve">11.562183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9081182479858</t>
   </si>
   <si>
     <t xml:space="preserve">11.3692598342896</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">11.8083295822144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3093872070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7018880844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2074851989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1010437011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9413824081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4091749191284</t>
+    <t xml:space="preserve">11.3093862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7018899917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2074861526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1010446548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9413814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4091758728027</t>
   </si>
   <si>
     <t xml:space="preserve">10.7904844284058</t>
@@ -2075,46 +2075,46 @@
     <t xml:space="preserve">10.657434463501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3048467636108</t>
+    <t xml:space="preserve">10.3048477172852</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9389533996582</t>
+    <t xml:space="preserve">9.93895435333252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2715835571289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2782363891602</t>
+    <t xml:space="preserve">10.2782373428345</t>
   </si>
   <si>
     <t xml:space="preserve">10.9368419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">11.442437171936</t>
+    <t xml:space="preserve">11.4424381256104</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6087522506714</t>
+    <t xml:space="preserve">11.6087532043457</t>
   </si>
   <si>
     <t xml:space="preserve">11.6819305419922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6353635787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6021003723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.023325920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5842552185059</t>
+    <t xml:space="preserve">11.6353626251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6020994186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0233249664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5842542648315</t>
   </si>
   <si>
     <t xml:space="preserve">11.1098098754883</t>
@@ -2123,28 +2123,28 @@
     <t xml:space="preserve">11.2495136260986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5089635848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4025230407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9834089279175</t>
+    <t xml:space="preserve">11.5089645385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4025211334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9834108352661</t>
   </si>
   <si>
     <t xml:space="preserve">10.9634523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3027334213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.475700378418</t>
+    <t xml:space="preserve">11.302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4757013320923</t>
   </si>
   <si>
     <t xml:space="preserve">11.582142829895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.163031578064</t>
+    <t xml:space="preserve">11.1630306243896</t>
   </si>
   <si>
     <t xml:space="preserve">11.0299777984619</t>
@@ -2156,43 +2156,43 @@
     <t xml:space="preserve">11.3759126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0698919296265</t>
+    <t xml:space="preserve">11.0698938369751</t>
   </si>
   <si>
     <t xml:space="preserve">10.6108655929565</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2008333206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9038915634155</t>
+    <t xml:space="preserve">12.2008323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9038925170898</t>
   </si>
   <si>
     <t xml:space="preserve">13.2319812774658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5068502426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9613399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7684164047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.668625831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6220579147339</t>
+    <t xml:space="preserve">12.5068511962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9613389968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7684144973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6686277389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6220569610596</t>
   </si>
   <si>
     <t xml:space="preserve">11.1164608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3825645446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0278654098511</t>
+    <t xml:space="preserve">11.3825654983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0278644561768</t>
   </si>
   <si>
     <t xml:space="preserve">12.1343059539795</t>
@@ -2204,25 +2204,25 @@
     <t xml:space="preserve">12.62659740448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0677795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4977712631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.291543006897</t>
+    <t xml:space="preserve">12.0677804946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4977722167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2915420532227</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451864242554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187854766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99217510223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0453977584839</t>
+    <t xml:space="preserve">10.0187864303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9921760559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0453968048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.81920909881592</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">9.87242889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8458194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72607326507568</t>
+    <t xml:space="preserve">9.84581851959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72607231140137</t>
   </si>
   <si>
     <t xml:space="preserve">9.78594589233398</t>
@@ -2252,16 +2252,16 @@
     <t xml:space="preserve">10.4445514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4245929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4046354293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3248052597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975608825684</t>
+    <t xml:space="preserve">10.4245939254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4046363830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3248043060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.597559928894</t>
   </si>
   <si>
     <t xml:space="preserve">10.6507816314697</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">10.8104429244995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2869558334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9313497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6184158325195</t>
+    <t xml:space="preserve">11.2869548797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9313488006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6184148788452</t>
   </si>
   <si>
     <t xml:space="preserve">10.6966485977173</t>
@@ -2294,40 +2294,40 @@
     <t xml:space="preserve">9.60849285125732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37379264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10353183746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64835453033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15331649780273</t>
+    <t xml:space="preserve">9.37379169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10352993011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64835357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15331554412842</t>
   </si>
   <si>
     <t xml:space="preserve">9.21021270751953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14620399475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87594318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66257953643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69814014434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60568237304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32119560241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49188709259033</t>
+    <t xml:space="preserve">9.14620304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87594223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66257762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69813919067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60568046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32119655609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49188804626465</t>
   </si>
   <si>
     <t xml:space="preserve">8.34964466094971</t>
@@ -2339,97 +2339,97 @@
     <t xml:space="preserve">8.25007438659668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10783100128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04382419586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42787837982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05804824829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558952331543</t>
+    <t xml:space="preserve">8.10783195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04382228851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42787933349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0580472946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558904647827</t>
   </si>
   <si>
     <t xml:space="preserve">8.01537418365479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27141189575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98692512512207</t>
+    <t xml:space="preserve">8.27141094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98692655563354</t>
   </si>
   <si>
     <t xml:space="preserve">8.02248668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97981357574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15761661529541</t>
+    <t xml:space="preserve">7.97981405258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15761756896973</t>
   </si>
   <si>
     <t xml:space="preserve">8.47766304016113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83327102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6270170211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47055149078369</t>
+    <t xml:space="preserve">8.83327007293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62701797485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47055053710938</t>
   </si>
   <si>
     <t xml:space="preserve">8.30697154998779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54167175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57723236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44210243225098</t>
+    <t xml:space="preserve">8.541672706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57723331451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44210338592529</t>
   </si>
   <si>
     <t xml:space="preserve">8.7905969619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99684810638428</t>
+    <t xml:space="preserve">8.99684906005859</t>
   </si>
   <si>
     <t xml:space="preserve">9.57293128967285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51603507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56581974029541</t>
+    <t xml:space="preserve">9.51603412628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56581878662109</t>
   </si>
   <si>
     <t xml:space="preserve">9.67250156402588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43780040740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43068981170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33823108673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40935230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85030555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83608150482178</t>
+    <t xml:space="preserve">9.43780136108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43068885803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33823299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40935134887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85030460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83608055114746</t>
   </si>
   <si>
     <t xml:space="preserve">9.8289680480957</t>
@@ -2438,22 +2438,22 @@
     <t xml:space="preserve">9.62271595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48758697509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70806121826172</t>
+    <t xml:space="preserve">9.48758602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70806217193604</t>
   </si>
   <si>
     <t xml:space="preserve">9.71517372131348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58004474639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46625137329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53025913238525</t>
+    <t xml:space="preserve">9.58004379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46624946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53025722503662</t>
   </si>
   <si>
     <t xml:space="preserve">9.22443771362305</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">9.12486743927002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39512920379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92854022979736</t>
+    <t xml:space="preserve">9.39512825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92853832244873</t>
   </si>
   <si>
     <t xml:space="preserve">9.80763244628906</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">9.77207088470459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0352191925049</t>
+    <t xml:space="preserve">10.0352201461792</t>
   </si>
   <si>
     <t xml:space="preserve">9.33111953735352</t>
@@ -2486,31 +2486,31 @@
     <t xml:space="preserve">8.65546607971191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08930587768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16754055023193</t>
+    <t xml:space="preserve">9.08930683135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16753959655762</t>
   </si>
   <si>
     <t xml:space="preserve">9.2742223739624</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20310115814209</t>
+    <t xml:space="preserve">9.20310020446777</t>
   </si>
   <si>
     <t xml:space="preserve">9.11064338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06085872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41646385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64405250549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92142677307129</t>
+    <t xml:space="preserve">9.06085681915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41646480560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6440544128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92142581939697</t>
   </si>
   <si>
     <t xml:space="preserve">10.042332649231</t>
@@ -2519,10 +2519,10 @@
     <t xml:space="preserve">10.141902923584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3979377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3837156295776</t>
+    <t xml:space="preserve">10.3979387283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3837146759033</t>
   </si>
   <si>
     <t xml:space="preserve">10.4548358917236</t>
@@ -2531,19 +2531,19 @@
     <t xml:space="preserve">10.5117330551147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5401811599731</t>
+    <t xml:space="preserve">10.5401821136475</t>
   </si>
   <si>
     <t xml:space="preserve">10.6610889434814</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9028997421265</t>
+    <t xml:space="preserve">10.9029016494751</t>
   </si>
   <si>
     <t xml:space="preserve">10.9100131988525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.703761100769</t>
+    <t xml:space="preserve">10.7037620544434</t>
   </si>
   <si>
     <t xml:space="preserve">10.8815641403198</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">10.6397523880005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5330696105957</t>
+    <t xml:space="preserve">10.53307056427</t>
   </si>
   <si>
     <t xml:space="preserve">10.6326389312744</t>
@@ -2576,34 +2576,34 @@
     <t xml:space="preserve">10.2628087997437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3766031265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0067710876465</t>
+    <t xml:space="preserve">10.3766021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0067720413208</t>
   </si>
   <si>
     <t xml:space="preserve">10.3054809570312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4761724472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7108726501465</t>
+    <t xml:space="preserve">10.4761734008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677707672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7108736038208</t>
   </si>
   <si>
     <t xml:space="preserve">10.7393217086792</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8602266311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9455738067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9953575134277</t>
+    <t xml:space="preserve">10.8602285385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.945574760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9953584671021</t>
   </si>
   <si>
     <t xml:space="preserve">10.9384613037109</t>
@@ -2615,31 +2615,31 @@
     <t xml:space="preserve">10.8673400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9811344146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2442827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3908271789551</t>
+    <t xml:space="preserve">10.9811334609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2442836761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3908262252808</t>
   </si>
   <si>
     <t xml:space="preserve">10.8531160354614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2087230682373</t>
+    <t xml:space="preserve">11.208722114563</t>
   </si>
   <si>
     <t xml:space="preserve">11.2585077285767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5828542709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3552656173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2770338058472</t>
+    <t xml:space="preserve">10.5828552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3552665710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2770318984985</t>
   </si>
   <si>
     <t xml:space="preserve">10.1632385253906</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">10.1063432693481</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96409893035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98543453216553</t>
+    <t xml:space="preserve">9.96409797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98543548583984</t>
   </si>
   <si>
     <t xml:space="preserve">9.87164115905762</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">9.47336196899414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42357730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54448413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75073528289795</t>
+    <t xml:space="preserve">9.42357635498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54448318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75073623657227</t>
   </si>
   <si>
     <t xml:space="preserve">9.75784683227539</t>
@@ -2696,10 +2696,10 @@
     <t xml:space="preserve">10.1703510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95698738098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565567016602</t>
+    <t xml:space="preserve">9.95698642730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565576553345</t>
   </si>
   <si>
     <t xml:space="preserve">10.1561269760132</t>
@@ -2708,13 +2708,13 @@
     <t xml:space="preserve">10.0707807540894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0494451522827</t>
+    <t xml:space="preserve">10.049446105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.191686630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99965953826904</t>
+    <t xml:space="preserve">9.99966049194336</t>
   </si>
   <si>
     <t xml:space="preserve">9.82185649871826</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">10.1205654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5472946166992</t>
+    <t xml:space="preserve">10.5472936630249</t>
   </si>
   <si>
     <t xml:space="preserve">10.5259580612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4619474411011</t>
+    <t xml:space="preserve">10.4619483947754</t>
   </si>
   <si>
     <t xml:space="preserve">10.483283996582</t>
@@ -2741,25 +2741,25 @@
     <t xml:space="preserve">10.2272481918335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7179841995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4192743301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1988010406494</t>
+    <t xml:space="preserve">10.7179851531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4192752838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1987991333008</t>
   </si>
   <si>
     <t xml:space="preserve">10.5899667739868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6681995391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7819929122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1447134017944</t>
+    <t xml:space="preserve">10.6681985855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7819938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1447124481201</t>
   </si>
   <si>
     <t xml:space="preserve">11.1376008987427</t>
@@ -2771,13 +2771,13 @@
     <t xml:space="preserve">11.1518249511719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0024719238281</t>
+    <t xml:space="preserve">11.0024709701538</t>
   </si>
   <si>
     <t xml:space="preserve">11.1589374542236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2841444015503</t>
+    <t xml:space="preserve">10.2841453552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.5046224594116</t>
@@ -2786,28 +2786,28 @@
     <t xml:space="preserve">9.77918338775635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24577331542969</t>
+    <t xml:space="preserve">9.245774269104</t>
   </si>
   <si>
     <t xml:space="preserve">8.69102764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56731033325195</t>
+    <t xml:space="preserve">7.56730985641479</t>
   </si>
   <si>
     <t xml:space="preserve">7.27571201324463</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25437641143799</t>
+    <t xml:space="preserve">7.25437545776367</t>
   </si>
   <si>
     <t xml:space="preserve">6.23734140396118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52893877029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17333173751831</t>
+    <t xml:space="preserve">6.52893829345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17333221435547</t>
   </si>
   <si>
     <t xml:space="preserve">5.98841667175293</t>
@@ -2816,40 +2816,40 @@
     <t xml:space="preserve">6.00264024734497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98130416870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32979917526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12710285186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42225694656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45426034927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5787239074707</t>
+    <t xml:space="preserve">5.98130464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32979822158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12710332870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42225646972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.454261302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57872343063354</t>
   </si>
   <si>
     <t xml:space="preserve">6.49693393707275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22667264938354</t>
+    <t xml:space="preserve">6.2266731262207</t>
   </si>
   <si>
     <t xml:space="preserve">6.36535882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33335447311401</t>
+    <t xml:space="preserve">6.33335494995117</t>
   </si>
   <si>
     <t xml:space="preserve">6.2693452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35824728012085</t>
+    <t xml:space="preserve">6.35824680328369</t>
   </si>
   <si>
     <t xml:space="preserve">6.41870021820068</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">6.53960657119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57161092758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514492034912</t>
+    <t xml:space="preserve">6.57161140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514444351196</t>
   </si>
   <si>
     <t xml:space="preserve">6.28357028961182</t>
@@ -2873,31 +2873,31 @@
     <t xml:space="preserve">6.34402322769165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35113573074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04531335830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92085075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06664943695068</t>
+    <t xml:space="preserve">6.35113477706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04531383514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92085123062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06664991378784</t>
   </si>
   <si>
     <t xml:space="preserve">6.39380788803101</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52182674407959</t>
+    <t xml:space="preserve">6.52182722091675</t>
   </si>
   <si>
     <t xml:space="preserve">6.34757900238037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11643505096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18044376373291</t>
+    <t xml:space="preserve">6.1164345741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18044328689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.14132738113403</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">6.01686477661133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11287832260132</t>
+    <t xml:space="preserve">6.11287927627563</t>
   </si>
   <si>
     <t xml:space="preserve">6.02753353118896</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">5.85684204101562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74660348892212</t>
+    <t xml:space="preserve">5.74660396575928</t>
   </si>
   <si>
     <t xml:space="preserve">5.71104288101196</t>
@@ -2930,58 +2930,58 @@
     <t xml:space="preserve">5.44078207015991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29142713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1776328086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19185781478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47634267807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86751079559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97063636779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89951467514038</t>
+    <t xml:space="preserve">5.29142761230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17763328552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19185733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47634315490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69681882858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8675103187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97063541412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89951515197754</t>
   </si>
   <si>
     <t xml:space="preserve">5.93863153457642</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2977933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53605079650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87743282318115</t>
+    <t xml:space="preserve">6.29779386520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53604936599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87743377685547</t>
   </si>
   <si>
     <t xml:space="preserve">7.36817026138306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91299390792847</t>
+    <t xml:space="preserve">6.91299438476562</t>
   </si>
   <si>
     <t xml:space="preserve">6.69962930679321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24089765548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19466876983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36180353164673</t>
+    <t xml:space="preserve">6.24089670181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19466829299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36180305480957</t>
   </si>
   <si>
     <t xml:space="preserve">6.46492958068848</t>
@@ -2993,19 +2993,19 @@
     <t xml:space="preserve">6.30490636825562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14488363265991</t>
+    <t xml:space="preserve">6.14488315582275</t>
   </si>
   <si>
     <t xml:space="preserve">6.0879864692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93507528305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84617376327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9101824760437</t>
+    <t xml:space="preserve">5.9350757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8461742401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91018295288086</t>
   </si>
   <si>
     <t xml:space="preserve">6.04175758361816</t>
@@ -3014,70 +3014,70 @@
     <t xml:space="preserve">6.0808744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06309413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20889186859131</t>
+    <t xml:space="preserve">6.06309366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20889234542847</t>
   </si>
   <si>
     <t xml:space="preserve">6.32624292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45070457458496</t>
+    <t xml:space="preserve">6.45070505142212</t>
   </si>
   <si>
     <t xml:space="preserve">6.37958383560181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48270893096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46137285232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8489842414856</t>
+    <t xml:space="preserve">6.48270988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46137428283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84898519515991</t>
   </si>
   <si>
     <t xml:space="preserve">6.9805588722229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03745651245117</t>
+    <t xml:space="preserve">7.03745603561401</t>
   </si>
   <si>
     <t xml:space="preserve">6.8134241104126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66406869888306</t>
+    <t xml:space="preserve">6.66407012939453</t>
   </si>
   <si>
     <t xml:space="preserve">6.50760126113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35469150543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16622018814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16266298294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38669538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39736461639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25156497955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52538251876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50049018859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53249502182007</t>
+    <t xml:space="preserve">6.35469198226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16621971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16266393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38669490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39736413955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25156545639038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52538299560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50049066543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53249406814575</t>
   </si>
   <si>
     <t xml:space="preserve">6.40447616577148</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">6.30846261978149</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32268714904785</t>
+    <t xml:space="preserve">6.32268619537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.37602806091309</t>
@@ -3104,13 +3104,13 @@
     <t xml:space="preserve">6.14843988418579</t>
   </si>
   <si>
-    <t xml:space="preserve">6.137770652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27290105819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27645683288574</t>
+    <t xml:space="preserve">6.13777112960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27290201187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27645826339722</t>
   </si>
   <si>
     <t xml:space="preserve">6.23022937774658</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">6.26223373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4684853553772</t>
+    <t xml:space="preserve">6.46848487854004</t>
   </si>
   <si>
     <t xml:space="preserve">6.38314008712769</t>
@@ -3131,19 +3131,19 @@
     <t xml:space="preserve">6.05598211288452</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92796325683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87106657028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97419214248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83194923400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84973049163818</t>
+    <t xml:space="preserve">5.9279637336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87106609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97419166564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83194971084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84973001480103</t>
   </si>
   <si>
     <t xml:space="preserve">5.73237991333008</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">5.73593521118164</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75015926361084</t>
+    <t xml:space="preserve">5.750159740448</t>
   </si>
   <si>
     <t xml:space="preserve">5.87462282180786</t>
@@ -3161,10 +3161,10 @@
     <t xml:space="preserve">5.79283285140991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85328578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82839345932007</t>
+    <t xml:space="preserve">5.85328531265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82839393615723</t>
   </si>
   <si>
     <t xml:space="preserve">5.73949146270752</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">5.57946872711182</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63280963897705</t>
+    <t xml:space="preserve">5.63281011581421</t>
   </si>
   <si>
     <t xml:space="preserve">5.58302450180054</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">5.72171115875244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5439076423645</t>
+    <t xml:space="preserve">5.54390811920166</t>
   </si>
   <si>
     <t xml:space="preserve">5.49412298202515</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">5.30565214157104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95715713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79713439941406</t>
+    <t xml:space="preserve">4.95715665817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7971339225769</t>
   </si>
   <si>
     <t xml:space="preserve">4.89670419692993</t>
@@ -3215,19 +3215,19 @@
     <t xml:space="preserve">5.046058177948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25942325592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38744115829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30920791625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27009057998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65059041976929</t>
+    <t xml:space="preserve">5.25942277908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38744068145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30920743942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27009105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65059089660645</t>
   </si>
   <si>
     <t xml:space="preserve">5.66125869750977</t>
@@ -3236,28 +3236,28 @@
     <t xml:space="preserve">5.78216457366943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75727224349976</t>
+    <t xml:space="preserve">5.7572717666626</t>
   </si>
   <si>
     <t xml:space="preserve">6.22311687469482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42581272125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44359302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68184947967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6071720123291</t>
+    <t xml:space="preserve">6.42581224441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44359350204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68184900283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60717248916626</t>
   </si>
   <si>
     <t xml:space="preserve">6.57516717910767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5858359336853</t>
+    <t xml:space="preserve">6.58583498001099</t>
   </si>
   <si>
     <t xml:space="preserve">6.49337768554688</t>
@@ -3269,28 +3269,28 @@
     <t xml:space="preserve">6.92721796035767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94855546951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97700309753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83831596374512</t>
+    <t xml:space="preserve">6.94855451583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9770040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83831548690796</t>
   </si>
   <si>
     <t xml:space="preserve">6.80986785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74230241775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66051244735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71385383605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71029758453369</t>
+    <t xml:space="preserve">6.74230194091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66051292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71385431289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71029853820801</t>
   </si>
   <si>
     <t xml:space="preserve">6.64273262023926</t>
@@ -3299,28 +3299,28 @@
     <t xml:space="preserve">6.63917684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67118120193481</t>
+    <t xml:space="preserve">6.67118215560913</t>
   </si>
   <si>
     <t xml:space="preserve">6.4755973815918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54671812057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58939170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58228015899658</t>
+    <t xml:space="preserve">6.54671859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58939123153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58227920532227</t>
   </si>
   <si>
     <t xml:space="preserve">6.62495231628418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61072826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56805515289307</t>
+    <t xml:space="preserve">6.61072778701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56805562973022</t>
   </si>
   <si>
     <t xml:space="preserve">6.30134963989258</t>
@@ -3332,106 +3332,106 @@
     <t xml:space="preserve">6.21244812011719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10932302474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90307092666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01330900192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95641183853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29423856735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67829370498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88454532623291</t>
+    <t xml:space="preserve">6.10932350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9030704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01330852508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95641136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29423809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67829418182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88454484939575</t>
   </si>
   <si>
     <t xml:space="preserve">7.03390026092529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43217945098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3397216796875</t>
+    <t xml:space="preserve">7.43217992782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33972072601318</t>
   </si>
   <si>
     <t xml:space="preserve">7.42506742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33261060714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549715042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24015235900879</t>
+    <t xml:space="preserve">7.33261013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32549858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24015188217163</t>
   </si>
   <si>
     <t xml:space="preserve">7.3041615486145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36105966567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58864736557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48196411132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66687917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51752424240112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53886222839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46062707901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93002843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90869235992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847702026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16472911834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22873783111572</t>
+    <t xml:space="preserve">7.3610577583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58864545822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4819655418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66688060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51752519607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5388617515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46062803268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93002939224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90869283676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847749710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16472816467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22873878479004</t>
   </si>
   <si>
     <t xml:space="preserve">8.12916851043701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15050506591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88024377822876</t>
+    <t xml:space="preserve">8.15050411224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88024473190308</t>
   </si>
   <si>
     <t xml:space="preserve">7.91580438613892</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97270154953003</t>
+    <t xml:space="preserve">7.97270250320435</t>
   </si>
   <si>
     <t xml:space="preserve">8.08649635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10072135925293</t>
+    <t xml:space="preserve">8.1007194519043</t>
   </si>
   <si>
     <t xml:space="preserve">8.00115013122559</t>
@@ -3440,43 +3440,43 @@
     <t xml:space="preserve">8.05093479156494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07938289642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8660192489624</t>
+    <t xml:space="preserve">8.07938480377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86602020263672</t>
   </si>
   <si>
     <t xml:space="preserve">8.24296188354492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17895412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13628196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09360790252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78778553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99403810501099</t>
+    <t xml:space="preserve">8.17895317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13628101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09360885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78778648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99403715133667</t>
   </si>
   <si>
     <t xml:space="preserve">8.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26429843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21451377868652</t>
+    <t xml:space="preserve">8.2642993927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21451473236084</t>
   </si>
   <si>
     <t xml:space="preserve">8.18606567382812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22162628173828</t>
+    <t xml:space="preserve">8.2216272354126</t>
   </si>
   <si>
     <t xml:space="preserve">8.27852439880371</t>
@@ -3491,13 +3491,13 @@
     <t xml:space="preserve">8.92572784423828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28133392333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30978202819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23866271972656</t>
+    <t xml:space="preserve">9.28133487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30978298187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23866081237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.08219432830811</t>
@@ -3530,19 +3530,19 @@
     <t xml:space="preserve">8.96128845214844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91431427001953</t>
+    <t xml:space="preserve">9.91431331634521</t>
   </si>
   <si>
     <t xml:space="preserve">9.79340839385986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50892353057861</t>
+    <t xml:space="preserve">9.50892162322998</t>
   </si>
   <si>
     <t xml:space="preserve">9.45202541351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3595666885376</t>
+    <t xml:space="preserve">9.35956764221191</t>
   </si>
   <si>
     <t xml:space="preserve">9.11775398254395</t>
@@ -3551,16 +3551,16 @@
     <t xml:space="preserve">9.66538906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05374526977539</t>
+    <t xml:space="preserve">9.05374431610107</t>
   </si>
   <si>
     <t xml:space="preserve">9.18887710571289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85741710662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87875461578369</t>
+    <t xml:space="preserve">9.8574161529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87875366210938</t>
   </si>
   <si>
     <t xml:space="preserve">9.88586521148682</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">9.89297771453857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97121238708496</t>
+    <t xml:space="preserve">9.97121047973633</t>
   </si>
   <si>
     <t xml:space="preserve">10.1134538650513</t>
@@ -3584,22 +3584,22 @@
     <t xml:space="preserve">10.412163734436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3623781204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3125944137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3268184661865</t>
+    <t xml:space="preserve">10.362377166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.312593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3268175125122</t>
   </si>
   <si>
     <t xml:space="preserve">10.4050512313843</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1276769638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2983703613281</t>
+    <t xml:space="preserve">10.1276788711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2983684539795</t>
   </si>
   <si>
     <t xml:space="preserve">10.4406118392944</t>
@@ -3608,19 +3608,19 @@
     <t xml:space="preserve">10.4263877868652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5188465118408</t>
+    <t xml:space="preserve">10.5188455581665</t>
   </si>
   <si>
     <t xml:space="preserve">10.7891063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0451431274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0949287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3580770492554</t>
+    <t xml:space="preserve">11.0451421737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0949277877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3580780029297</t>
   </si>
   <si>
     <t xml:space="preserve">11.4434223175049</t>
@@ -3629,31 +3629,31 @@
     <t xml:space="preserve">11.4860954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2656192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8345899581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9057102203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257566452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6141138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0621776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496734619141</t>
+    <t xml:space="preserve">11.2656202316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8345890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9057111740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2257585525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6141147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0621786117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496744155884</t>
   </si>
   <si>
     <t xml:space="preserve">11.8914861679077</t>
   </si>
   <si>
-    <t xml:space="preserve">11.742133140564</t>
+    <t xml:space="preserve">11.7421321868896</t>
   </si>
   <si>
     <t xml:space="preserve">11.720796585083</t>
@@ -3665,13 +3665,13 @@
     <t xml:space="preserve">11.7492456436157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1048526763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0977392196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3790826797485</t>
+    <t xml:space="preserve">12.104850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0977401733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3790807723999</t>
   </si>
   <si>
     <t xml:space="preserve">12.3486661911011</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">11.9988880157471</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1053438186646</t>
+    <t xml:space="preserve">12.1053428649902</t>
   </si>
   <si>
     <t xml:space="preserve">12.2117958068848</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">12.1433620452881</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1585702896118</t>
+    <t xml:space="preserve">12.1585693359375</t>
   </si>
   <si>
     <t xml:space="preserve">12.3106470108032</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">12.4323091506958</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6528196334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288579940796</t>
+    <t xml:space="preserve">12.6528186798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288589477539</t>
   </si>
   <si>
     <t xml:space="preserve">12.7516708374023</t>
@@ -3716,25 +3716,25 @@
     <t xml:space="preserve">12.8125009536743</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6224050521851</t>
+    <t xml:space="preserve">12.6224040985107</t>
   </si>
   <si>
     <t xml:space="preserve">12.8809366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8581247329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7896900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6908397674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3866853713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2498159408569</t>
+    <t xml:space="preserve">12.8581237792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7896909713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6908407211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3866863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2498168945312</t>
   </si>
   <si>
     <t xml:space="preserve">11.907642364502</t>
@@ -3746,10 +3746,10 @@
     <t xml:space="preserve">11.6034879684448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578651428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5426568984985</t>
+    <t xml:space="preserve">11.5578660964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5426578521729</t>
   </si>
   <si>
     <t xml:space="preserve">10.9647636413574</t>
@@ -3758,13 +3758,13 @@
     <t xml:space="preserve">11.1092367172241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.223295211792</t>
+    <t xml:space="preserve">11.2232961654663</t>
   </si>
   <si>
     <t xml:space="preserve">11.7479610443115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5958833694458</t>
+    <t xml:space="preserve">11.5958843231201</t>
   </si>
   <si>
     <t xml:space="preserve">11.5046377182007</t>
@@ -3776,13 +3776,13 @@
     <t xml:space="preserve">12.0901346206665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9608697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597200393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0064926147461</t>
+    <t xml:space="preserve">11.9608688354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0064916610718</t>
   </si>
   <si>
     <t xml:space="preserve">11.9000377655029</t>
@@ -3791,13 +3791,13 @@
     <t xml:space="preserve">11.6186962127686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8087921142578</t>
+    <t xml:space="preserve">11.8087911605835</t>
   </si>
   <si>
     <t xml:space="preserve">12.1509656906128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1357583999634</t>
+    <t xml:space="preserve">12.1357574462891</t>
   </si>
   <si>
     <t xml:space="preserve">12.9265594482422</t>
@@ -3806,40 +3806,40 @@
     <t xml:space="preserve">12.9797859191895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2991485595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4512243270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3599796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1318645477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3295640945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2839393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4816417694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6565294265747</t>
+    <t xml:space="preserve">13.299147605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.451226234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3599786758423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1318635940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3295650482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2839403152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4816408157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6565284729004</t>
   </si>
   <si>
     <t xml:space="preserve">13.7173614501953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8618326187134</t>
+    <t xml:space="preserve">13.8618335723877</t>
   </si>
   <si>
     <t xml:space="preserve">14.0291204452515</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5576782226562</t>
+    <t xml:space="preserve">13.5576791763306</t>
   </si>
   <si>
     <t xml:space="preserve">13.5120573043823</t>
@@ -3854,10 +3854,10 @@
     <t xml:space="preserve">13.0330123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4664316177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.588095664978</t>
+    <t xml:space="preserve">13.4664325714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5880966186523</t>
   </si>
   <si>
     <t xml:space="preserve">13.6109056472778</t>
@@ -3866,10 +3866,10 @@
     <t xml:space="preserve">13.4892454147339</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4208087921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8998537063599</t>
+    <t xml:space="preserve">13.4208106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8998546600342</t>
   </si>
   <si>
     <t xml:space="preserve">13.7249631881714</t>
@@ -3878,34 +3878,34 @@
     <t xml:space="preserve">13.6261148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0063076019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5994081497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6031179428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7399892807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4243335723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4851665496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.226634979248</t>
+    <t xml:space="preserve">14.0063066482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5994091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6031169891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7399864196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4243354797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.485164642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2266330718994</t>
   </si>
   <si>
     <t xml:space="preserve">16.2722568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3597936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9795999526978</t>
+    <t xml:space="preserve">15.3597946166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9796018600464</t>
   </si>
   <si>
     <t xml:space="preserve">13.9454774856567</t>
@@ -3914,28 +3914,28 @@
     <t xml:space="preserve">14.6678428649902</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4017086029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5652847290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8314189910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5804920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3714771270752</t>
+    <t xml:space="preserve">14.4017066955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5652837753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8314170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.580491065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3714780807495</t>
   </si>
   <si>
     <t xml:space="preserve">11.8316040039062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341630935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1281538009644</t>
+    <t xml:space="preserve">12.9341640472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1281547546387</t>
   </si>
   <si>
     <t xml:space="preserve">12.5007438659668</t>
@@ -3947,31 +3947,31 @@
     <t xml:space="preserve">13.3827905654907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0823459625244</t>
+    <t xml:space="preserve">14.0823450088501</t>
   </si>
   <si>
     <t xml:space="preserve">13.983494758606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0139112472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3636894226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2952527999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1735916137695</t>
+    <t xml:space="preserve">14.0139102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3636884689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2952537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1735935211182</t>
   </si>
   <si>
     <t xml:space="preserve">14.3332738876343</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3712930679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964044570923</t>
+    <t xml:space="preserve">14.3712911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.196403503418</t>
   </si>
   <si>
     <t xml:space="preserve">14.3180646896362</t>
@@ -3980,28 +3980,28 @@
     <t xml:space="preserve">13.4968481063843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9074573516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7401723861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7933979034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4740362167358</t>
+    <t xml:space="preserve">13.9074592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7401704788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7933988571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4740352630615</t>
   </si>
   <si>
     <t xml:space="preserve">13.8086071014404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1470718383789</t>
+    <t xml:space="preserve">13.1470727920532</t>
   </si>
   <si>
     <t xml:space="preserve">13.2915449142456</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1090507507324</t>
+    <t xml:space="preserve">13.1090517044067</t>
   </si>
   <si>
     <t xml:space="preserve">12.4779319763184</t>
@@ -4016,10 +4016,10 @@
     <t xml:space="preserve">13.5272645950317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2383184432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8334798812866</t>
+    <t xml:space="preserve">13.238317489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.833477973938</t>
   </si>
   <si>
     <t xml:space="preserve">13.8495626449585</t>
@@ -4031,10 +4031,10 @@
     <t xml:space="preserve">14.0425882339478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9380331039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.018461227417</t>
+    <t xml:space="preserve">13.9380340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0184602737427</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565370559692</t>
@@ -4043,34 +4043,34 @@
     <t xml:space="preserve">13.6324119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6082830429077</t>
+    <t xml:space="preserve">13.6082820892334</t>
   </si>
   <si>
     <t xml:space="preserve">13.5761108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5841522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3509149551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1739740371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166078567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1445074081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5252180099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6458587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.056037902832</t>
+    <t xml:space="preserve">13.5841541290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3509159088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1739749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9166088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1445083618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5252170562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6458578109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0560369491577</t>
   </si>
   <si>
     <t xml:space="preserve">11.5010900497437</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">11.7423715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5573883056641</t>
+    <t xml:space="preserve">11.5573892593384</t>
   </si>
   <si>
     <t xml:space="preserve">11.5493459701538</t>
@@ -4100,10 +4100,10 @@
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8657159805298</t>
+    <t xml:space="preserve">11.2276372909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8657150268555</t>
   </si>
   <si>
     <t xml:space="preserve">10.7289886474609</t>
@@ -4112,46 +4112,46 @@
     <t xml:space="preserve">10.6726903915405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2383823394775</t>
+    <t xml:space="preserve">10.2383813858032</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579561233521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3751087188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6646461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.350980758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4072790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96492958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48236656188965</t>
+    <t xml:space="preserve">10.3751096725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.664647102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3509817123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4072799682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96493053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48236751556396</t>
   </si>
   <si>
     <t xml:space="preserve">9.70756340026855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86841869354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1257848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.165997505188</t>
+    <t xml:space="preserve">9.86841773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1257839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1659984588623</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016569137573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1820821762085</t>
+    <t xml:space="preserve">10.1820831298828</t>
   </si>
   <si>
     <t xml:space="preserve">10.4877071380615</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">10.3348951339722</t>
   </si>
   <si>
-    <t xml:space="preserve">10.535964012146</t>
+    <t xml:space="preserve">10.5359649658203</t>
   </si>
   <si>
     <t xml:space="preserve">10.6485614776611</t>
@@ -4184,7 +4184,7 @@
     <t xml:space="preserve">10.9783124923706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968173980713</t>
+    <t xml:space="preserve">10.6968183517456</t>
   </si>
   <si>
     <t xml:space="preserve">10.415322303772</t>
@@ -4196,40 +4196,40 @@
     <t xml:space="preserve">10.7852869033813</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9702711105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4394502639771</t>
+    <t xml:space="preserve">10.9702701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4394493103027</t>
   </si>
   <si>
     <t xml:space="preserve">10.0131864547729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1418704986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177415847778</t>
+    <t xml:space="preserve">10.1418695449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177425384521</t>
   </si>
   <si>
     <t xml:space="preserve">9.97297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69952011108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62713623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69147872924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61105060577393</t>
+    <t xml:space="preserve">9.6995210647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62713718414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69147777557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61104965209961</t>
   </si>
   <si>
     <t xml:space="preserve">9.36172676086426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5547513961792</t>
+    <t xml:space="preserve">9.55475234985352</t>
   </si>
   <si>
     <t xml:space="preserve">9.28934192657471</t>
@@ -4247,7 +4247,7 @@
     <t xml:space="preserve">9.39389705657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91667366027832</t>
+    <t xml:space="preserve">9.91667461395264</t>
   </si>
   <si>
     <t xml:space="preserve">9.92471694946289</t>
@@ -4256,16 +4256,16 @@
     <t xml:space="preserve">10.0614433288574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83624744415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77994823455811</t>
+    <t xml:space="preserve">9.83624649047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77994728088379</t>
   </si>
   <si>
     <t xml:space="preserve">9.45019626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49845218658447</t>
+    <t xml:space="preserve">9.49845314025879</t>
   </si>
   <si>
     <t xml:space="preserve">9.17674350738525</t>
@@ -4289,37 +4289,37 @@
     <t xml:space="preserve">9.25717067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16065883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06414604187012</t>
+    <t xml:space="preserve">9.16065788269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06414699554443</t>
   </si>
   <si>
     <t xml:space="preserve">8.95959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8791618347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97567653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84699153900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85503578186035</t>
+    <t xml:space="preserve">8.87916374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97567558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84699249267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85503482818604</t>
   </si>
   <si>
     <t xml:space="preserve">9.11240196228027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0882740020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12848854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22500038146973</t>
+    <t xml:space="preserve">9.08827495574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1284875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22500133514404</t>
   </si>
   <si>
     <t xml:space="preserve">9.32955551147461</t>
@@ -4334,40 +4334,40 @@
     <t xml:space="preserve">9.77190399169922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81211853027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5198783874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.479663848877</t>
+    <t xml:space="preserve">9.81211948394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5198774337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4796648025513</t>
   </si>
   <si>
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506963729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1954650878906</t>
+    <t xml:space="preserve">11.0506973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1954660415649</t>
   </si>
   <si>
     <t xml:space="preserve">11.1632947921753</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1230812072754</t>
+    <t xml:space="preserve">11.1230821609497</t>
   </si>
   <si>
     <t xml:space="preserve">11.00244140625</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3643646240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3037776947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3383979797363</t>
+    <t xml:space="preserve">11.3643636703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3037767410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3383989334106</t>
   </si>
   <si>
     <t xml:space="preserve">11.3557081222534</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">11.3903293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3816747665405</t>
+    <t xml:space="preserve">11.3816738128662</t>
   </si>
   <si>
     <t xml:space="preserve">11.4249496459961</t>
@@ -4400,7 +4400,7 @@
     <t xml:space="preserve">10.8710136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.052773475647</t>
+    <t xml:space="preserve">11.0527744293213</t>
   </si>
   <si>
     <t xml:space="preserve">10.9575653076172</t>
@@ -4421,19 +4421,19 @@
     <t xml:space="preserve">11.5720891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3730192184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941921234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4162940979004</t>
+    <t xml:space="preserve">11.3730182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4162950515747</t>
   </si>
   <si>
     <t xml:space="preserve">11.5115032196045</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5201587677002</t>
+    <t xml:space="preserve">11.5201578140259</t>
   </si>
   <si>
     <t xml:space="preserve">11.6326761245728</t>
@@ -4454,16 +4454,16 @@
     <t xml:space="preserve">12.316442489624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3424081802368</t>
+    <t xml:space="preserve">12.3424091339111</t>
   </si>
   <si>
     <t xml:space="preserve">12.4116506576538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4982023239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808931350708</t>
+    <t xml:space="preserve">12.4982032775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808921813965</t>
   </si>
   <si>
     <t xml:space="preserve">12.4722375869751</t>
@@ -4472,19 +4472,19 @@
     <t xml:space="preserve">12.4376163482666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077878952026</t>
+    <t xml:space="preserve">12.3077869415283</t>
   </si>
   <si>
     <t xml:space="preserve">12.5501356124878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5328245162964</t>
+    <t xml:space="preserve">12.5328235626221</t>
   </si>
   <si>
     <t xml:space="preserve">12.3337535858154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5674467086792</t>
+    <t xml:space="preserve">12.5674457550049</t>
   </si>
   <si>
     <t xml:space="preserve">12.6193771362305</t>
@@ -4496,16 +4496,16 @@
     <t xml:space="preserve">13.2858324050903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3810396194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6060771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5368356704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6406984329224</t>
+    <t xml:space="preserve">13.3810405731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060781478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5368347167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.640697479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.7705268859863</t>
@@ -4514,13 +4514,13 @@
     <t xml:space="preserve">13.7618713378906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9955635070801</t>
+    <t xml:space="preserve">13.9955644607544</t>
   </si>
   <si>
     <t xml:space="preserve">14.1167373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0907726287842</t>
+    <t xml:space="preserve">14.0907716751099</t>
   </si>
   <si>
     <t xml:space="preserve">13.7878379821777</t>
@@ -4532,10 +4532,10 @@
     <t xml:space="preserve">14.194634437561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0042190551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7532176971436</t>
+    <t xml:space="preserve">14.0042200088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7532167434692</t>
   </si>
   <si>
     <t xml:space="preserve">13.4675931930542</t>
@@ -4547,16 +4547,16 @@
     <t xml:space="preserve">13.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4502820968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5281791687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.554144859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1040716171265</t>
+    <t xml:space="preserve">13.4502830505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5281801223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1040725708008</t>
   </si>
   <si>
     <t xml:space="preserve">12.5934114456177</t>
@@ -4565,7 +4565,7 @@
     <t xml:space="preserve">12.8184480667114</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212343215942</t>
+    <t xml:space="preserve">12.2212352752686</t>
   </si>
   <si>
     <t xml:space="preserve">12.2385454177856</t>
@@ -4580,7 +4580,7 @@
     <t xml:space="preserve">11.8836793899536</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9269561767578</t>
+    <t xml:space="preserve">11.9269552230835</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798156738281</t>
@@ -4589,7 +4589,7 @@
     <t xml:space="preserve">11.9442672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.091404914856</t>
+    <t xml:space="preserve">12.0914058685303</t>
   </si>
   <si>
     <t xml:space="preserve">12.0827503204346</t>
@@ -4601,37 +4601,37 @@
     <t xml:space="preserve">12.1606483459473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2904767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.740550994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6713075637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9482765197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0607948303223</t>
+    <t xml:space="preserve">12.2904758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7405500411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6713094711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9482774734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0607957839966</t>
   </si>
   <si>
     <t xml:space="preserve">12.9915533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1906251907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3377628326416</t>
+    <t xml:space="preserve">13.1906232833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3377637863159</t>
   </si>
   <si>
     <t xml:space="preserve">13.1560039520264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0867614746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1733150482178</t>
+    <t xml:space="preserve">13.0867605209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1733140945435</t>
   </si>
   <si>
     <t xml:space="preserve">12.7232398986816</t>
@@ -4643,7 +4643,7 @@
     <t xml:space="preserve">12.9828977584839</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1213817596436</t>
+    <t xml:space="preserve">13.1213827133179</t>
   </si>
   <si>
     <t xml:space="preserve">12.454927444458</t>
@@ -4652,13 +4652,13 @@
     <t xml:space="preserve">12.4895486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4635820388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0999460220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287494659424</t>
+    <t xml:space="preserve">12.4635810852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0999450683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287504196167</t>
   </si>
   <si>
     <t xml:space="preserve">12.8240633010864</t>
@@ -4679,22 +4679,22 @@
     <t xml:space="preserve">12.4591875076294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.654974937439</t>
+    <t xml:space="preserve">12.6549739837646</t>
   </si>
   <si>
     <t xml:space="preserve">12.7973651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816730499268</t>
+    <t xml:space="preserve">12.6816720962524</t>
   </si>
   <si>
     <t xml:space="preserve">12.7528676986694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.743968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6905717849731</t>
+    <t xml:space="preserve">12.7439680099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6905727386475</t>
   </si>
   <si>
     <t xml:space="preserve">12.583779335022</t>
@@ -4712,13 +4712,13 @@
     <t xml:space="preserve">12.5570802688599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512583732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5036849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.726170539856</t>
+    <t xml:space="preserve">12.5125846862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5036840438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7261695861816</t>
   </si>
   <si>
     <t xml:space="preserve">12.5303821563721</t>
@@ -4748,13 +4748,13 @@
     <t xml:space="preserve">13.0020513534546</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1355428695679</t>
+    <t xml:space="preserve">13.1355438232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.9931526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266441345215</t>
+    <t xml:space="preserve">13.1266431808472</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957315444946</t>
@@ -4763,10 +4763,10 @@
     <t xml:space="preserve">13.384726524353</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4737205505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6606092453003</t>
+    <t xml:space="preserve">13.4737215042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.660608291626</t>
   </si>
   <si>
     <t xml:space="preserve">13.6161117553711</t>
@@ -4784,7 +4784,7 @@
     <t xml:space="preserve">13.6517095565796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8652954101562</t>
+    <t xml:space="preserve">13.8652944564819</t>
   </si>
   <si>
     <t xml:space="preserve">14.1767749786377</t>
@@ -4808,7 +4808,7 @@
     <t xml:space="preserve">14.4348573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1233787536621</t>
+    <t xml:space="preserve">14.1233777999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2479705810547</t>
@@ -4823,10 +4823,10 @@
     <t xml:space="preserve">14.3992605209351</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5149526596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945734024048</t>
+    <t xml:space="preserve">14.5149517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945743560791</t>
   </si>
   <si>
     <t xml:space="preserve">14.1322774887085</t>
@@ -4841,10 +4841,10 @@
     <t xml:space="preserve">14.3458652496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3814611434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882555007935</t>
+    <t xml:space="preserve">14.381462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882545471191</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793558120728</t>
@@ -4856,7 +4856,7 @@
     <t xml:space="preserve">14.2212715148926</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9453907012939</t>
+    <t xml:space="preserve">13.9453897476196</t>
   </si>
   <si>
     <t xml:space="preserve">13.8207979202271</t>
@@ -4877,10 +4877,10 @@
     <t xml:space="preserve">13.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9364900588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0699815750122</t>
+    <t xml:space="preserve">13.9364910125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0699825286865</t>
   </si>
   <si>
     <t xml:space="preserve">14.1589756011963</t>
@@ -4901,19 +4901,19 @@
     <t xml:space="preserve">14.4615564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6662425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421262741089</t>
+    <t xml:space="preserve">14.6662435531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421253204346</t>
   </si>
   <si>
     <t xml:space="preserve">14.8353319168091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6128463745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6484441757202</t>
+    <t xml:space="preserve">14.612847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6484432220459</t>
   </si>
   <si>
     <t xml:space="preserve">14.6306457519531</t>
@@ -4931,25 +4931,25 @@
     <t xml:space="preserve">13.6962070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1856746673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3547620773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887281417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7552366256714</t>
+    <t xml:space="preserve">14.1856737136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3547630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5327520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7552375793457</t>
   </si>
   <si>
     <t xml:space="preserve">14.7997331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.951024055481</t>
+    <t xml:space="preserve">14.9510231018066</t>
   </si>
   <si>
     <t xml:space="preserve">15.4137935638428</t>
@@ -4961,13 +4961,13 @@
     <t xml:space="preserve">15.3336992263794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1913080215454</t>
+    <t xml:space="preserve">15.1913089752197</t>
   </si>
   <si>
     <t xml:space="preserve">15.1290130615234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3514976501465</t>
+    <t xml:space="preserve">15.3514995574951</t>
   </si>
   <si>
     <t xml:space="preserve">15.2654151916504</t>
@@ -5322,6 +5322,9 @@
   </si>
   <si>
     <t xml:space="preserve">20.3799991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8700008392334</t>
   </si>
 </sst>
 </file>
@@ -61745,7 +61748,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494907407</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>269259</v>
@@ -61757,7 +61760,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="E2158" t="n">
-        <v>19.6399993896484</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F2158" t="n">
         <v>20.3799991607666</v>
@@ -61766,6 +61769,32 @@
         <v>1769</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6494444444</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>126052</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>20.3799991607666</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>19.7900009155273</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>20.3799991607666</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>19.8700008392334</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1773">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">16.9247817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8509845733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9961347579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931814193726</t>
+    <t xml:space="preserve">16.8509826660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9961318969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931823730469</t>
   </si>
   <si>
     <t xml:space="preserve">15.8116340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8669834136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5902318954468</t>
+    <t xml:space="preserve">15.8669843673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5902338027954</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2335338592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407825469971</t>
+    <t xml:space="preserve">15.2335367202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407844543457</t>
   </si>
   <si>
     <t xml:space="preserve">16.1006832122803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8731346130371</t>
+    <t xml:space="preserve">15.8731336593628</t>
   </si>
   <si>
     <t xml:space="preserve">16.9063320159912</t>
@@ -92,67 +92,67 @@
     <t xml:space="preserve">17.5336322784424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1154327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7119808197021</t>
+    <t xml:space="preserve">17.1154308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7119827270508</t>
   </si>
   <si>
     <t xml:space="preserve">17.6504802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3429794311523</t>
+    <t xml:space="preserve">17.342981338501</t>
   </si>
   <si>
     <t xml:space="preserve">16.6849327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.451229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9899835586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3602342605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4032850265503</t>
+    <t xml:space="preserve">16.4512348175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9899806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.403284072876</t>
   </si>
   <si>
     <t xml:space="preserve">15.1105346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1412858963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2027854919434</t>
+    <t xml:space="preserve">15.1412887573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2027835845947</t>
   </si>
   <si>
     <t xml:space="preserve">15.9838314056396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8792819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7808809280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6947822570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624320983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9739837646484</t>
+    <t xml:space="preserve">15.879282951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7808847427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6947841644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.762433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9739818572998</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696826934814</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2113819122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7218341827393</t>
+    <t xml:space="preserve">16.2113857269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7218322753906</t>
   </si>
   <si>
     <t xml:space="preserve">16.6049823760986</t>
@@ -161,58 +161,58 @@
     <t xml:space="preserve">16.5434818267822</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0416316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8079319000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4819812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8854341506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0084323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.577935218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9284811019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1867809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6972351074219</t>
+    <t xml:space="preserve">17.041633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8079299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4819831848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8854322433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0084342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5779342651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9284830093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1867847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6972312927246</t>
   </si>
   <si>
     <t xml:space="preserve">16.912483215332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5951328277588</t>
+    <t xml:space="preserve">17.5951290130615</t>
   </si>
   <si>
     <t xml:space="preserve">17.8534317016602</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6996803283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5582313537598</t>
+    <t xml:space="preserve">17.6996841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5582332611084</t>
   </si>
   <si>
     <t xml:space="preserve">17.7242813110352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7495498657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1285400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3875198364258</t>
+    <t xml:space="preserve">17.749547958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1285419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.387523651123</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527439117432</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">17.4274005889893</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148429870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1557903289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2442207336426</t>
+    <t xml:space="preserve">18.0148410797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1557884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2442226409912</t>
   </si>
   <si>
     <t xml:space="preserve">17.3579216003418</t>
@@ -239,19 +239,19 @@
     <t xml:space="preserve">17.1936912536621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8020648956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9662952423096</t>
+    <t xml:space="preserve">16.8020668029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9662933349609</t>
   </si>
   <si>
     <t xml:space="preserve">16.7578468322754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6504650115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9157638549805</t>
+    <t xml:space="preserve">16.6504669189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9157600402832</t>
   </si>
   <si>
     <t xml:space="preserve">16.4483337402344</t>
@@ -269,157 +269,157 @@
     <t xml:space="preserve">16.1704063415527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0061740875244</t>
+    <t xml:space="preserve">16.006175994873</t>
   </si>
   <si>
     <t xml:space="preserve">15.7787780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5261163711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.22292137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766506195068</t>
+    <t xml:space="preserve">15.5261173248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766487121582</t>
   </si>
   <si>
     <t xml:space="preserve">15.0334234237671</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0018424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544303894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.414402961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1175222396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2754373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0354080200195</t>
+    <t xml:space="preserve">15.001841545105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544322967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.414400100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1175231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2754364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0354061126709</t>
   </si>
   <si>
     <t xml:space="preserve">13.7258958816528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8964424133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.953293800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5806159973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8332777023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249040603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9619607925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3492517471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1597566604614</t>
+    <t xml:space="preserve">13.8964433670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9532918930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5806150436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8332786560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249050140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9619569778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3492527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1597557067871</t>
   </si>
   <si>
     <t xml:space="preserve">14.9134101867676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0271081924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796970367432</t>
+    <t xml:space="preserve">15.0271072387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796979904175</t>
   </si>
   <si>
     <t xml:space="preserve">14.5912666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6923322677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649362564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2564859390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0543575286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8016929626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.422700881958</t>
+    <t xml:space="preserve">14.6923332214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649324417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2564878463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0543584823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8016967773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4227018356323</t>
   </si>
   <si>
     <t xml:space="preserve">13.258469581604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068735122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7657766342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4479694366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9153938293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8522281646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2817535400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3279523849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1929521560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877016067505</t>
+    <t xml:space="preserve">13.1068725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.765775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4479675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9153919219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8522272109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2817554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.327953338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1929540634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877006530762</t>
   </si>
   <si>
     <t xml:space="preserve">11.350866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4645643234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.477198600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4961490631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9276561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5360317230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5233974456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7002611160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7381610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9067249298096</t>
+    <t xml:space="preserve">11.4645662307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4771966934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4961500167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9276571273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5360307693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5233964920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7002620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7381601333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9067239761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.4057340621948</t>
@@ -428,61 +428,61 @@
     <t xml:space="preserve">12.6331300735474</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4562664031982</t>
+    <t xml:space="preserve">12.4562654495239</t>
   </si>
   <si>
     <t xml:space="preserve">12.6647129058838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3804693222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6457633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3488845825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467542648315</t>
+    <t xml:space="preserve">12.3804683685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6457643508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3488826751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467533111572</t>
   </si>
   <si>
     <t xml:space="preserve">11.9446239471436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6603775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0962228775024</t>
+    <t xml:space="preserve">11.6603803634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0962219238281</t>
   </si>
   <si>
     <t xml:space="preserve">12.8857917785645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5573301315308</t>
+    <t xml:space="preserve">12.5573291778564</t>
   </si>
   <si>
     <t xml:space="preserve">12.7341957092285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2225542068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541379928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7594614028931</t>
+    <t xml:space="preserve">12.2225532531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541370391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7594623565674</t>
   </si>
   <si>
     <t xml:space="preserve">12.9110593795776</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5383806228638</t>
+    <t xml:space="preserve">12.5383815765381</t>
   </si>
   <si>
     <t xml:space="preserve">12.816309928894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7089290618896</t>
+    <t xml:space="preserve">12.708930015564</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952310562134</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">12.0709562301636</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1404390335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278057098389</t>
+    <t xml:space="preserve">12.1404361724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278047561646</t>
   </si>
   <si>
     <t xml:space="preserve">12.2036037445068</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0646381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0583248138428</t>
+    <t xml:space="preserve">12.064640045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0583229064941</t>
   </si>
   <si>
     <t xml:space="preserve">12.22887134552</t>
@@ -527,40 +527,40 @@
     <t xml:space="preserve">12.5699644088745</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0121240615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5427169799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6311473846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.151086807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8605279922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.948956489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8352603912354</t>
+    <t xml:space="preserve">13.0121221542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5427141189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6311492919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1510887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8605270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489574432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8352613449097</t>
   </si>
   <si>
     <t xml:space="preserve">12.854208946228</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7278785705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9426422119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2647857666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.22057056427</t>
+    <t xml:space="preserve">12.7278776168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9426441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2647876739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2205686569214</t>
   </si>
   <si>
     <t xml:space="preserve">12.8226261138916</t>
@@ -572,46 +572,46 @@
     <t xml:space="preserve">12.6394462585449</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6773443222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.873158454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9300098419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2268867492676</t>
+    <t xml:space="preserve">12.6773433685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8731575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9300079345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2268877029419</t>
   </si>
   <si>
     <t xml:space="preserve">13.6437797546387</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7744445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0650072097778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0965909957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2481899261475</t>
+    <t xml:space="preserve">14.7744455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0650043487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0965900421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2481889724731</t>
   </si>
   <si>
     <t xml:space="preserve">15.3429374694824</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5892810821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8040466308594</t>
+    <t xml:space="preserve">15.5892820358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8040447235107</t>
   </si>
   <si>
     <t xml:space="preserve">15.9051103591919</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3662204742432</t>
+    <t xml:space="preserve">16.3662185668945</t>
   </si>
   <si>
     <t xml:space="preserve">16.4546508789062</t>
@@ -620,10 +620,10 @@
     <t xml:space="preserve">16.6125659942627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7452144622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6441497802734</t>
+    <t xml:space="preserve">16.7452163696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6441478729248</t>
   </si>
   <si>
     <t xml:space="preserve">16.4357013702393</t>
@@ -632,28 +632,28 @@
     <t xml:space="preserve">16.1830406188965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2019863128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9556436538696</t>
+    <t xml:space="preserve">16.2019901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9556446075439</t>
   </si>
   <si>
     <t xml:space="preserve">16.0503921508789</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9935436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8166790008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4755830764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4629535675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0081586837769</t>
+    <t xml:space="preserve">15.993540763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8166799545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4629507064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0081577301025</t>
   </si>
   <si>
     <t xml:space="preserve">15.0523748397827</t>
@@ -662,37 +662,37 @@
     <t xml:space="preserve">14.944993019104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.888144493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512353897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270324707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4965152740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0227746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5280981063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807607650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.761812210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102161407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5513830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6966638565063</t>
+    <t xml:space="preserve">14.8881435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512334823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4965162277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0227756500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5281000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807626724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618131637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102132797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5513868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.696662902832</t>
   </si>
   <si>
     <t xml:space="preserve">15.6082324981689</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">15.7914123535156</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293842315674</t>
+    <t xml:space="preserve">16.429386138916</t>
   </si>
   <si>
     <t xml:space="preserve">16.1514549255371</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">15.8229961395264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9177446365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588386535645</t>
+    <t xml:space="preserve">15.9177484512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588367462158</t>
   </si>
   <si>
     <t xml:space="preserve">16.4230670928955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7388973236084</t>
+    <t xml:space="preserve">16.7388954162598</t>
   </si>
   <si>
     <t xml:space="preserve">17.1368408203125</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">16.9915599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8652305603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3156890869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4862365722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8210144042969</t>
+    <t xml:space="preserve">16.8652286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3156871795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.486234664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8210105895996</t>
   </si>
   <si>
     <t xml:space="preserve">16.6757297515869</t>
@@ -758,58 +758,58 @@
     <t xml:space="preserve">16.3093719482422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1072406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9809074401855</t>
+    <t xml:space="preserve">16.1072425842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9809122085571</t>
   </si>
   <si>
     <t xml:space="preserve">15.6524486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8545789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8293113708496</t>
+    <t xml:space="preserve">15.9745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8545780181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8293123245239</t>
   </si>
   <si>
     <t xml:space="preserve">16.5494003295898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2335720062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1198749542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3599052429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9283905029297</t>
+    <t xml:space="preserve">16.2335739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1198768615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3599033355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.928394317627</t>
   </si>
   <si>
     <t xml:space="preserve">17.4337196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.421085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6358489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1538066864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6464977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7917804718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2927742004395</t>
+    <t xml:space="preserve">17.4210872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6358509063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.15380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6465015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7917785644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2927722930908</t>
   </si>
   <si>
     <t xml:space="preserve">18.2675075531006</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">18.5707015991211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6338691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0760269165039</t>
+    <t xml:space="preserve">18.6338653564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0760250091553</t>
   </si>
   <si>
     <t xml:space="preserve">19.2276229858398</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3476371765137</t>
+    <t xml:space="preserve">19.3476390838623</t>
   </si>
   <si>
     <t xml:space="preserve">18.7601985931396</t>
@@ -839,55 +839,55 @@
     <t xml:space="preserve">18.8802127838135</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4550189971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7013664245605</t>
+    <t xml:space="preserve">19.455020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7013683319092</t>
   </si>
   <si>
     <t xml:space="preserve">20.6046333312988</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5015907287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7921485900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.987964630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0301971435547</t>
+    <t xml:space="preserve">21.5015869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7921466827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9879627227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0301952362061</t>
   </si>
   <si>
     <t xml:space="preserve">22.5690879821777</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9291286468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8028011322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7396354675293</t>
+    <t xml:space="preserve">22.9291324615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8027992248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7396335601807</t>
   </si>
   <si>
     <t xml:space="preserve">22.7080516815186</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3480052947998</t>
+    <t xml:space="preserve">22.3480072021484</t>
   </si>
   <si>
     <t xml:space="preserve">22.613302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6954193115234</t>
+    <t xml:space="preserve">22.6954212188721</t>
   </si>
   <si>
     <t xml:space="preserve">22.9164962768555</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8975486755371</t>
+    <t xml:space="preserve">22.8975467681885</t>
   </si>
   <si>
     <t xml:space="preserve">22.6638355255127</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">23.3586578369141</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2891731262207</t>
+    <t xml:space="preserve">23.2891750335693</t>
   </si>
   <si>
     <t xml:space="preserve">23.1186275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0491466522217</t>
+    <t xml:space="preserve">23.0491485595703</t>
   </si>
   <si>
     <t xml:space="preserve">23.4344539642334</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">23.7376537322998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4407730102539</t>
+    <t xml:space="preserve">23.4407749176025</t>
   </si>
   <si>
     <t xml:space="preserve">24.4893226623535</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3440399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1734962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4451084136963</t>
+    <t xml:space="preserve">24.3440437316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1734924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4451065063477</t>
   </si>
   <si>
     <t xml:space="preserve">25.013599395752</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">25.2200012207031</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8329887390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.626594543457</t>
+    <t xml:space="preserve">24.8329944610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6265888214111</t>
   </si>
   <si>
     <t xml:space="preserve">23.6074695587158</t>
@@ -950,16 +950,16 @@
     <t xml:space="preserve">22.4980487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2075614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8915100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6915531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7560539245605</t>
+    <t xml:space="preserve">23.2075634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.891508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6915512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7560520172119</t>
   </si>
   <si>
     <t xml:space="preserve">22.639949798584</t>
@@ -971,22 +971,22 @@
     <t xml:space="preserve">20.4404582977295</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4918270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9562397003174</t>
+    <t xml:space="preserve">21.491828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9562377929688</t>
   </si>
   <si>
     <t xml:space="preserve">22.5238475799561</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5109481811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5754508972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4464454650879</t>
+    <t xml:space="preserve">22.5109462738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5754470825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4464492797852</t>
   </si>
   <si>
     <t xml:space="preserve">22.2916450500488</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">22.33034324646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7691822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5627784729004</t>
+    <t xml:space="preserve">21.7691841125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5627765655518</t>
   </si>
   <si>
     <t xml:space="preserve">21.8659362792969</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">22.0594387054443</t>
   </si>
   <si>
-    <t xml:space="preserve">22.188440322876</t>
+    <t xml:space="preserve">22.1884422302246</t>
   </si>
   <si>
     <t xml:space="preserve">22.8205528259277</t>
@@ -1025,85 +1025,85 @@
     <t xml:space="preserve">22.6012496948242</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5496482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7689533233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4786968231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1561908721924</t>
+    <t xml:space="preserve">22.5496463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7689514160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4786949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1561889648438</t>
   </si>
   <si>
     <t xml:space="preserve">22.0465393066406</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9949359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5302982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7302551269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7044525146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9431076049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0205059051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1043567657471</t>
+    <t xml:space="preserve">21.9949340820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5303001403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7302532196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7044544219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9431056976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1043586730957</t>
   </si>
   <si>
     <t xml:space="preserve">23.0140590667725</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2204627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3752670288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4139633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7042236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9170761108398</t>
+    <t xml:space="preserve">23.2204608917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.37526512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4139652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7042198181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9170742034912</t>
   </si>
   <si>
     <t xml:space="preserve">23.7880725860596</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7622756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8009738922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0138301849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2847366333008</t>
+    <t xml:space="preserve">23.7622737884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8009777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0138282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2847347259521</t>
   </si>
   <si>
     <t xml:space="preserve">23.9299736022949</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7039928436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1877498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.897497177124</t>
+    <t xml:space="preserve">24.7039909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1877517700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8974933624268</t>
   </si>
   <si>
     <t xml:space="preserve">25.2587032318115</t>
@@ -1115,82 +1115,82 @@
     <t xml:space="preserve">25.6070079803467</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8327617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1423645019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4003715515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6906356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2520198822021</t>
+    <t xml:space="preserve">25.832763671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.142370223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4003772735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6906318664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2520217895508</t>
   </si>
   <si>
     <t xml:space="preserve">26.5035762786865</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4455223083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.890811920166</t>
+    <t xml:space="preserve">26.4455261230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8908157348633</t>
   </si>
   <si>
     <t xml:space="preserve">25.9166145324707</t>
   </si>
   <si>
-    <t xml:space="preserve">26.568078994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.780933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7293281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2326717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4326267242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.213321685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1939716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3616733551025</t>
+    <t xml:space="preserve">26.5680770874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7809295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7293338775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2326736450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4326286315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2133197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1939735412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3616714477539</t>
   </si>
   <si>
     <t xml:space="preserve">26.1617202758789</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9940166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.419958114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0714168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2842750549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5745296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9808883666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7680339813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4842300415039</t>
+    <t xml:space="preserve">25.9940185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4199562072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0714206695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.284273147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5745277404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9808864593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7680320739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4842281341553</t>
   </si>
   <si>
     <t xml:space="preserve">27.2066402435303</t>
@@ -1199,34 +1199,34 @@
     <t xml:space="preserve">27.1743907928467</t>
   </si>
   <si>
-    <t xml:space="preserve">26.935733795166</t>
+    <t xml:space="preserve">26.9357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">27.1614894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5678520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2709102630615</t>
+    <t xml:space="preserve">27.5678482055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2709121704102</t>
   </si>
   <si>
     <t xml:space="preserve">28.277364730835</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7675743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0126724243164</t>
+    <t xml:space="preserve">28.7675685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.012674331665</t>
   </si>
   <si>
     <t xml:space="preserve">29.2384338378906</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7353210449219</t>
+    <t xml:space="preserve">28.7353248596191</t>
   </si>
   <si>
     <t xml:space="preserve">29.2513332366943</t>
@@ -1235,88 +1235,88 @@
     <t xml:space="preserve">29.4964351654053</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8382968902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5220069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8638610839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0186653137207</t>
+    <t xml:space="preserve">29.8382911682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5220108032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.863862991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0186672210693</t>
   </si>
   <si>
     <t xml:space="preserve">29.580286026001</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5155582427979</t>
+    <t xml:space="preserve">30.5155620574951</t>
   </si>
   <si>
     <t xml:space="preserve">31.3411712646484</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7023830413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7733268737793</t>
+    <t xml:space="preserve">31.7023849487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7733306884766</t>
   </si>
   <si>
     <t xml:space="preserve">31.5153274536133</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8509654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6125411987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1739292144775</t>
+    <t xml:space="preserve">30.8509635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6125373840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1739311218262</t>
   </si>
   <si>
     <t xml:space="preserve">29.9285945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2964820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.283353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865585327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.425256729126</t>
+    <t xml:space="preserve">29.296480178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2833499908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865566253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4252510070801</t>
   </si>
   <si>
     <t xml:space="preserve">30.6187610626221</t>
   </si>
   <si>
-    <t xml:space="preserve">31.147668838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.315601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.354305267334</t>
+    <t xml:space="preserve">31.1476707458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3156051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3543033599854</t>
   </si>
   <si>
     <t xml:space="preserve">30.1930522918701</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2446537017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7802448272705</t>
+    <t xml:space="preserve">30.2446575164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7802429199219</t>
   </si>
   <si>
     <t xml:space="preserve">29.489990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9288215637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224666595459</t>
+    <t xml:space="preserve">28.928825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224704742432</t>
   </si>
   <si>
     <t xml:space="preserve">27.0518360137939</t>
@@ -1325,49 +1325,49 @@
     <t xml:space="preserve">26.2778224945068</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2393550872803</t>
+    <t xml:space="preserve">25.239351272583</t>
   </si>
   <si>
     <t xml:space="preserve">25.1038990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9553165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9813461303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9942455291748</t>
+    <t xml:space="preserve">25.9553146362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9813480377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9942474365234</t>
   </si>
   <si>
     <t xml:space="preserve">24.5427379608154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1750812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9361934661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6394882202148</t>
+    <t xml:space="preserve">24.175085067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9361972808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6394920349121</t>
   </si>
   <si>
     <t xml:space="preserve">24.8652458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0651988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4524364471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6977710723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6655197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8977222442627</t>
+    <t xml:space="preserve">25.0651969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4524383544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6977729797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6655216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.89772605896</t>
   </si>
   <si>
     <t xml:space="preserve">24.0009269714355</t>
@@ -1376,49 +1376,49 @@
     <t xml:space="preserve">23.5881195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">22.988260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5365180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589809417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7104415893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3043117523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2140121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1559600830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8783779144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.968448638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2971706390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3425559997559</t>
+    <t xml:space="preserve">22.9882583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5365200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104454040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3043155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2140102386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1559619903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8783760070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9684467315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2971725463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425540924072</t>
   </si>
   <si>
     <t xml:space="preserve">25.6715106964111</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1230220794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1359233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7876129150391</t>
+    <t xml:space="preserve">26.1230182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1359195709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7876148223877</t>
   </si>
   <si>
     <t xml:space="preserve">25.8650150299072</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">24.574987411499</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3231983184814</t>
+    <t xml:space="preserve">25.3232040405273</t>
   </si>
   <si>
     <t xml:space="preserve">25.4651069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">25.142599105835</t>
+    <t xml:space="preserve">25.1426010131836</t>
   </si>
   <si>
     <t xml:space="preserve">25.3490028381348</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2458038330078</t>
+    <t xml:space="preserve">25.2458019256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.0522975921631</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">24.7684936523438</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7426929473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4975852966309</t>
+    <t xml:space="preserve">24.7426910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4975872039795</t>
   </si>
   <si>
     <t xml:space="preserve">25.2329025268555</t>
@@ -1460,76 +1460,76 @@
     <t xml:space="preserve">24.691089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2782802581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3365650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.807653427124</t>
+    <t xml:space="preserve">24.278284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3365631103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8076553344727</t>
   </si>
   <si>
     <t xml:space="preserve">23.388162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">21.607931137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3628253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8463516235352</t>
+    <t xml:space="preserve">21.6079292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3628273010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8463535308838</t>
   </si>
   <si>
     <t xml:space="preserve">23.272066116333</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0011577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.504264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4913654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4526672363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4010639190674</t>
+    <t xml:space="preserve">23.0011558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5042667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4913673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4526691436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.401065826416</t>
   </si>
   <si>
     <t xml:space="preserve">23.5300674438477</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1430606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8721523284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7431526184082</t>
+    <t xml:space="preserve">23.1430625915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8721542358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7431507110596</t>
   </si>
   <si>
     <t xml:space="preserve">22.0078372955322</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2596225738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9113140106201</t>
+    <t xml:space="preserve">21.2596206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9113121032715</t>
   </si>
   <si>
     <t xml:space="preserve">21.2854232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0016174316406</t>
+    <t xml:space="preserve">21.0016193389893</t>
   </si>
   <si>
     <t xml:space="preserve">20.9887180328369</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0723438262939</t>
+    <t xml:space="preserve">22.0723419189453</t>
   </si>
   <si>
     <t xml:space="preserve">21.9820384979248</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">20.1760005950928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3695068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3757247924805</t>
+    <t xml:space="preserve">20.3695030212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3757266998291</t>
   </si>
   <si>
     <t xml:space="preserve">21.182222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8855152130127</t>
+    <t xml:space="preserve">20.8855171203613</t>
   </si>
   <si>
     <t xml:space="preserve">20.1502017974854</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">19.0923805236816</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5630111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7502918243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5888118743896</t>
+    <t xml:space="preserve">20.5630073547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7502937316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5888080596924</t>
   </si>
   <si>
     <t xml:space="preserve">21.027416229248</t>
@@ -1574,43 +1574,43 @@
     <t xml:space="preserve">21.1951217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3499240875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1626396179199</t>
+    <t xml:space="preserve">21.3499221801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1626434326172</t>
   </si>
   <si>
     <t xml:space="preserve">21.6982326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5305309295654</t>
+    <t xml:space="preserve">21.5305290222168</t>
   </si>
   <si>
     <t xml:space="preserve">21.7885341644287</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6595325469971</t>
+    <t xml:space="preserve">21.6595306396484</t>
   </si>
   <si>
     <t xml:space="preserve">21.2749500274658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.288257598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0487632751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9955444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0753746032715</t>
+    <t xml:space="preserve">21.2882556915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0487613677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9955425262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0753765106201</t>
   </si>
   <si>
     <t xml:space="preserve">21.7539386749268</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9668216705322</t>
+    <t xml:space="preserve">21.9668197631836</t>
   </si>
   <si>
     <t xml:space="preserve">22.2861442565918</t>
@@ -1619,28 +1619,28 @@
     <t xml:space="preserve">22.4724159240723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.725212097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.405891418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.020040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4878330230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3813915252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6075801849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6874103546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8491897583008</t>
+    <t xml:space="preserve">22.7252140045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4058895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0200424194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4878349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3813934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6075820922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6874084472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8491859436035</t>
   </si>
   <si>
     <t xml:space="preserve">20.1573181152344</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">19.146125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7868881225586</t>
+    <t xml:space="preserve">18.78688621521</t>
   </si>
   <si>
     <t xml:space="preserve">18.9465484619141</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">18.1615428924561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1636543273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5803442001343</t>
+    <t xml:space="preserve">17.1636562347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5803422927856</t>
   </si>
   <si>
     <t xml:space="preserve">14.1699962615967</t>
@@ -1673,25 +1673,25 @@
     <t xml:space="preserve">15.5271234512329</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6468677520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9640789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0306072235107</t>
+    <t xml:space="preserve">15.6468687057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9640808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0306053161621</t>
   </si>
   <si>
     <t xml:space="preserve">16.5117053985596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6580619812012</t>
+    <t xml:space="preserve">16.6580638885498</t>
   </si>
   <si>
     <t xml:space="preserve">16.3121280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1657676696777</t>
+    <t xml:space="preserve">16.1657695770264</t>
   </si>
   <si>
     <t xml:space="preserve">16.8177242279053</t>
@@ -1700,16 +1700,16 @@
     <t xml:space="preserve">17.7623901367188</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2546825408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2280693054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6825580596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4675617218018</t>
+    <t xml:space="preserve">18.2546806335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2280673980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.682559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4675636291504</t>
   </si>
   <si>
     <t xml:space="preserve">18.9598541259766</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">18.4010391235352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5873107910156</t>
+    <t xml:space="preserve">18.5873126983643</t>
   </si>
   <si>
     <t xml:space="preserve">18.2812900543213</t>
@@ -1730,31 +1730,31 @@
     <t xml:space="preserve">17.0039920806885</t>
   </si>
   <si>
-    <t xml:space="preserve">17.123743057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1503524780273</t>
+    <t xml:space="preserve">17.1237411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503505706787</t>
   </si>
   <si>
     <t xml:space="preserve">17.2035732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1769638061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3632373809814</t>
+    <t xml:space="preserve">17.1769618988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3632335662842</t>
   </si>
   <si>
     <t xml:space="preserve">17.6426429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0417976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2413730621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8954410552979</t>
+    <t xml:space="preserve">18.0417995452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2413749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8954391479492</t>
   </si>
   <si>
     <t xml:space="preserve">17.4962844848633</t>
@@ -1772,49 +1772,49 @@
     <t xml:space="preserve">18.6272258758545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9087429046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6559505462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9220542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8289127349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.897554397583</t>
+    <t xml:space="preserve">17.908748626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6559467315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9220504760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885787963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.828914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8975563049316</t>
   </si>
   <si>
     <t xml:space="preserve">17.097131729126</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0992469787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.702202796936</t>
+    <t xml:space="preserve">16.0992450714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7022037506104</t>
   </si>
   <si>
     <t xml:space="preserve">15.0481376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0082206726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949188232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6090650558472</t>
+    <t xml:space="preserve">15.0082216262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949178695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6090669631958</t>
   </si>
   <si>
     <t xml:space="preserve">14.3429641723633</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7575359344482</t>
+    <t xml:space="preserve">13.7575368881226</t>
   </si>
   <si>
     <t xml:space="preserve">13.6111783981323</t>
@@ -1823,46 +1823,46 @@
     <t xml:space="preserve">13.7309255599976</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6910095214844</t>
+    <t xml:space="preserve">13.6910104751587</t>
   </si>
   <si>
     <t xml:space="preserve">14.5824565887451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0635557174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2631340026855</t>
+    <t xml:space="preserve">14.0635547637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2631330490112</t>
   </si>
   <si>
     <t xml:space="preserve">14.2099132537842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3961839675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5712633132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5180435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4781293869019</t>
+    <t xml:space="preserve">14.396183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5712642669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5180425643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4781284332275</t>
   </si>
   <si>
     <t xml:space="preserve">14.0369453430176</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5159282684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215272903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8751707077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6888971328735</t>
+    <t xml:space="preserve">14.5159292221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215253829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8751678466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6888961791992</t>
   </si>
   <si>
     <t xml:space="preserve">15.2743225097656</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">14.928391456604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348320007324</t>
+    <t xml:space="preserve">15.0348310470581</t>
   </si>
   <si>
     <t xml:space="preserve">14.648983001709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6755924224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.848560333252</t>
+    <t xml:space="preserve">14.675591468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8485612869263</t>
   </si>
   <si>
     <t xml:space="preserve">15.4605960845947</t>
@@ -1889,16 +1889,16 @@
     <t xml:space="preserve">15.859751701355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.83314037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867837905884</t>
+    <t xml:space="preserve">15.8331413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.686785697937</t>
   </si>
   <si>
     <t xml:space="preserve">15.8730573654175</t>
   </si>
   <si>
-    <t xml:space="preserve">14.728814125061</t>
+    <t xml:space="preserve">14.7288112640381</t>
   </si>
   <si>
     <t xml:space="preserve">12.9060068130493</t>
@@ -1907,22 +1907,22 @@
     <t xml:space="preserve">11.9480333328247</t>
   </si>
   <si>
-    <t xml:space="preserve">12.427020072937</t>
+    <t xml:space="preserve">12.4270210266113</t>
   </si>
   <si>
     <t xml:space="preserve">12.7663011550903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1721096038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9791851043701</t>
+    <t xml:space="preserve">13.1721076965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9791841506958</t>
   </si>
   <si>
     <t xml:space="preserve">11.3426485061646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420164108276</t>
+    <t xml:space="preserve">11.6420154571533</t>
   </si>
   <si>
     <t xml:space="preserve">11.2561664581299</t>
@@ -1937,25 +1937,25 @@
     <t xml:space="preserve">11.3293447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5422267913818</t>
+    <t xml:space="preserve">11.5422277450562</t>
   </si>
   <si>
     <t xml:space="preserve">10.910231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8836221694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4844665527344</t>
+    <t xml:space="preserve">10.8836212158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4844655990601</t>
   </si>
   <si>
     <t xml:space="preserve">9.60632610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21382427215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04085731506348</t>
+    <t xml:space="preserve">9.21382331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04085636138916</t>
   </si>
   <si>
     <t xml:space="preserve">9.31361293792725</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">9.86577701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96556377410889</t>
+    <t xml:space="preserve">9.9655647277832</t>
   </si>
   <si>
     <t xml:space="preserve">10.3381099700928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6441287994385</t>
+    <t xml:space="preserve">10.6441278457642</t>
   </si>
   <si>
     <t xml:space="preserve">11.2362079620361</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">10.1717958450317</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2981939315796</t>
+    <t xml:space="preserve">10.2981948852539</t>
   </si>
   <si>
     <t xml:space="preserve">10.544340133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4312467575073</t>
+    <t xml:space="preserve">10.431245803833</t>
   </si>
   <si>
     <t xml:space="preserve">10.3979835510254</t>
@@ -2012,25 +2012,25 @@
     <t xml:space="preserve">10.6773910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.570951461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5243816375732</t>
+    <t xml:space="preserve">10.5709505081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5243806838989</t>
   </si>
   <si>
     <t xml:space="preserve">11.9214239120483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2474012374878</t>
+    <t xml:space="preserve">12.2474002838135</t>
   </si>
   <si>
     <t xml:space="preserve">11.9946031570435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7529964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4336738586426</t>
+    <t xml:space="preserve">12.7529973983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4336729049683</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076965332031</t>
@@ -2039,22 +2039,22 @@
     <t xml:space="preserve">12.0611276626587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5621843338013</t>
+    <t xml:space="preserve">11.562183380127</t>
   </si>
   <si>
     <t xml:space="preserve">11.9081182479858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3692607879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8083305358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3093862533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7018899917603</t>
+    <t xml:space="preserve">11.3692598342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8083295822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3093881607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7018890380859</t>
   </si>
   <si>
     <t xml:space="preserve">12.2074842453003</t>
@@ -2063,49 +2063,49 @@
     <t xml:space="preserve">12.1010437011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9413824081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4091758728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904853820801</t>
+    <t xml:space="preserve">11.9413814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4091749191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904834747314</t>
   </si>
   <si>
     <t xml:space="preserve">10.657434463501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3048458099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0853118896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93895435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2715835571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2782363891602</t>
+    <t xml:space="preserve">10.3048477172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0853128433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93895530700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2715845108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2782354354858</t>
   </si>
   <si>
     <t xml:space="preserve">10.9368419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4424381256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8815088272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6087532043457</t>
+    <t xml:space="preserve">11.4424390792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8815078735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.60875415802</t>
   </si>
   <si>
     <t xml:space="preserve">11.6819314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6353626251221</t>
+    <t xml:space="preserve">11.6353616714478</t>
   </si>
   <si>
     <t xml:space="preserve">11.6021003723145</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">11.0233249664307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5842542648315</t>
+    <t xml:space="preserve">10.5842552185059</t>
   </si>
   <si>
     <t xml:space="preserve">11.1098098754883</t>
@@ -2123,34 +2123,34 @@
     <t xml:space="preserve">11.2495136260986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5089626312256</t>
+    <t xml:space="preserve">11.5089635848999</t>
   </si>
   <si>
     <t xml:space="preserve">11.4025220870972</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9834108352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9634523391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.302734375</t>
+    <t xml:space="preserve">10.9834098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.963451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3027334213257</t>
   </si>
   <si>
     <t xml:space="preserve">11.475700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.582142829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1630306243896</t>
+    <t xml:space="preserve">11.5821437835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1630296707153</t>
   </si>
   <si>
     <t xml:space="preserve">11.0299777984619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1364183425903</t>
+    <t xml:space="preserve">11.1364192962646</t>
   </si>
   <si>
     <t xml:space="preserve">11.3759126663208</t>
@@ -2159,25 +2159,25 @@
     <t xml:space="preserve">11.0698938369751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6108646392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2008323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9038925170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2319822311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5068511962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9613399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7684144973755</t>
+    <t xml:space="preserve">10.6108655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.200831413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9038934707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2319812774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5068492889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9613389968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7684135437012</t>
   </si>
   <si>
     <t xml:space="preserve">11.6686267852783</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">12.0278663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1343059539795</t>
+    <t xml:space="preserve">12.1343069076538</t>
   </si>
   <si>
     <t xml:space="preserve">12.2207908630371</t>
@@ -2207,22 +2207,22 @@
     <t xml:space="preserve">12.0677795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4977722167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2915420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451864242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187864303589</t>
+    <t xml:space="preserve">10.4977712631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.291543006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451854705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187854766846</t>
   </si>
   <si>
     <t xml:space="preserve">9.99217510223389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0453958511353</t>
+    <t xml:space="preserve">10.0453968048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.8192081451416</t>
@@ -2231,40 +2231,40 @@
     <t xml:space="preserve">9.87242889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84581851959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72607231140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78594589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97887134552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89903831481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1651420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445514678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4245948791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4046363830566</t>
+    <t xml:space="preserve">9.8458194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72607326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7859468460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9788703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904022216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1651430130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445524215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4245929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4046354293823</t>
   </si>
   <si>
     <t xml:space="preserve">10.3248043060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975608825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6507806777954</t>
+    <t xml:space="preserve">10.597559928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6507816314697</t>
   </si>
   <si>
     <t xml:space="preserve">10.6840438842773</t>
@@ -2279,25 +2279,25 @@
     <t xml:space="preserve">10.9313497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6184167861938</t>
+    <t xml:space="preserve">10.6184158325195</t>
   </si>
   <si>
     <t xml:space="preserve">10.6966495513916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1347904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94987392425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60849285125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37379264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10352993011475</t>
+    <t xml:space="preserve">10.1347894668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94987487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60849189758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37379169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10353183746338</t>
   </si>
   <si>
     <t xml:space="preserve">8.64835357666016</t>
@@ -2306,19 +2306,19 @@
     <t xml:space="preserve">9.15331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21021366119385</t>
+    <t xml:space="preserve">9.21021270751953</t>
   </si>
   <si>
     <t xml:space="preserve">9.14620304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87594318389893</t>
+    <t xml:space="preserve">8.87594223022461</t>
   </si>
   <si>
     <t xml:space="preserve">8.66257953643799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69813823699951</t>
+    <t xml:space="preserve">8.69813919067383</t>
   </si>
   <si>
     <t xml:space="preserve">8.60568237304688</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">8.32119560241699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49188709259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34964466094971</t>
+    <t xml:space="preserve">8.49188804626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34964561462402</t>
   </si>
   <si>
     <t xml:space="preserve">8.29274749755859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25007438659668</t>
+    <t xml:space="preserve">8.250075340271</t>
   </si>
   <si>
     <t xml:space="preserve">8.10783195495605</t>
@@ -2351,28 +2351,28 @@
     <t xml:space="preserve">8.0580472946167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96558904647827</t>
+    <t xml:space="preserve">7.96558952331543</t>
   </si>
   <si>
     <t xml:space="preserve">8.0153751373291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27141094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98692560195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02248668670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97981405258179</t>
+    <t xml:space="preserve">8.27141189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98692607879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02248573303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97981357574463</t>
   </si>
   <si>
     <t xml:space="preserve">8.15761756896973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47766399383545</t>
+    <t xml:space="preserve">8.47766208648682</t>
   </si>
   <si>
     <t xml:space="preserve">8.83327007293701</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">8.47055053710938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30697059631348</t>
+    <t xml:space="preserve">8.30697154998779</t>
   </si>
   <si>
     <t xml:space="preserve">8.54167175292969</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">8.57723331451416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44210338592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79059791564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99684906005859</t>
+    <t xml:space="preserve">8.44210243225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7905969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99684810638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.57293128967285</t>
@@ -2411,37 +2411,37 @@
     <t xml:space="preserve">9.56581878662109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67250156402588</t>
+    <t xml:space="preserve">9.6725025177002</t>
   </si>
   <si>
     <t xml:space="preserve">9.43780136108398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43068885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33823204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40935134887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85030555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83608055114746</t>
+    <t xml:space="preserve">9.43068981170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33823108673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40935230255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85030460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83608150482178</t>
   </si>
   <si>
     <t xml:space="preserve">9.8289680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62271690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48758506774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70806217193604</t>
+    <t xml:space="preserve">9.62271785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48758602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70806121826172</t>
   </si>
   <si>
     <t xml:space="preserve">9.71517372131348</t>
@@ -2450,49 +2450,49 @@
     <t xml:space="preserve">9.58004379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46624946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53025817871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22443771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1248664855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39512825012207</t>
+    <t xml:space="preserve">9.4662504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53025913238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22443675994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12486839294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39512920379639</t>
   </si>
   <si>
     <t xml:space="preserve">9.92853832244873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80763244628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77207183837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0352201461792</t>
+    <t xml:space="preserve">9.80763149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77207088470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0352191925049</t>
   </si>
   <si>
     <t xml:space="preserve">9.3311185836792</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91861629486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65546607971191</t>
+    <t xml:space="preserve">8.91861534118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65546703338623</t>
   </si>
   <si>
     <t xml:space="preserve">9.08930492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16753959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27422142028809</t>
+    <t xml:space="preserve">9.1675386428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2742223739624</t>
   </si>
   <si>
     <t xml:space="preserve">9.20310115814209</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">9.92142486572266</t>
   </si>
   <si>
-    <t xml:space="preserve">10.042332649231</t>
+    <t xml:space="preserve">10.0423316955566</t>
   </si>
   <si>
     <t xml:space="preserve">10.141902923584</t>
@@ -2522,16 +2522,16 @@
     <t xml:space="preserve">10.3979387283325</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3837146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4548368453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5117340087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5401821136475</t>
+    <t xml:space="preserve">10.3837156295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4548358917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5117330551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5401811599731</t>
   </si>
   <si>
     <t xml:space="preserve">10.6610879898071</t>
@@ -2543,40 +2543,40 @@
     <t xml:space="preserve">10.9100141525269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7037601470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8815650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.895788192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6397514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.53307056427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6326389312744</t>
+    <t xml:space="preserve">10.703761100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8815641403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8957872390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6397523880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6326398849487</t>
   </si>
   <si>
     <t xml:space="preserve">10.8886756896973</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6753120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4690608978271</t>
+    <t xml:space="preserve">10.6753129959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4690599441528</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343597412109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628087997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3766021728516</t>
+    <t xml:space="preserve">10.2628078460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3766031265259</t>
   </si>
   <si>
     <t xml:space="preserve">10.0067720413208</t>
@@ -2591,22 +2591,22 @@
     <t xml:space="preserve">10.7677707672119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7108736038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7393207550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8602285385132</t>
+    <t xml:space="preserve">10.7108745574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7393217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8602275848389</t>
   </si>
   <si>
     <t xml:space="preserve">10.9455738067627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9953575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9384613037109</t>
+    <t xml:space="preserve">10.9953584671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9384603500366</t>
   </si>
   <si>
     <t xml:space="preserve">10.7464332580566</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">10.8673400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9811334609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2442836761475</t>
+    <t xml:space="preserve">10.9811344146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2442827224731</t>
   </si>
   <si>
     <t xml:space="preserve">10.3908262252808</t>
@@ -2633,13 +2633,13 @@
     <t xml:space="preserve">11.208722114563</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2585077285767</t>
+    <t xml:space="preserve">11.258508682251</t>
   </si>
   <si>
     <t xml:space="preserve">10.5828542709351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3552665710449</t>
+    <t xml:space="preserve">10.3552675247192</t>
   </si>
   <si>
     <t xml:space="preserve">10.2770328521729</t>
@@ -2651,37 +2651,37 @@
     <t xml:space="preserve">10.1063413619995</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96409797668457</t>
+    <t xml:space="preserve">9.96409893035889</t>
   </si>
   <si>
     <t xml:space="preserve">9.98543548583984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8716402053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94276142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8147439956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63694095611572</t>
+    <t xml:space="preserve">9.87164115905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94276237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81474494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63694000244141</t>
   </si>
   <si>
     <t xml:space="preserve">9.72939872741699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.658278465271</t>
+    <t xml:space="preserve">9.65827751159668</t>
   </si>
   <si>
     <t xml:space="preserve">9.47336101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42357730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54448318481445</t>
+    <t xml:space="preserve">9.42357635498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54448413848877</t>
   </si>
   <si>
     <t xml:space="preserve">9.75073528289795</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">9.75784778594971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69383907318115</t>
+    <t xml:space="preserve">9.69383811950684</t>
   </si>
   <si>
     <t xml:space="preserve">9.74362277984619</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">9.95698642730713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0565576553345</t>
+    <t xml:space="preserve">10.0565567016602</t>
   </si>
   <si>
     <t xml:space="preserve">10.1561260223389</t>
@@ -2711,10 +2711,10 @@
     <t xml:space="preserve">10.0707807540894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0494451522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1916875839233</t>
+    <t xml:space="preserve">10.049446105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.191686630249</t>
   </si>
   <si>
     <t xml:space="preserve">9.99965953826904</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">10.5472936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5259571075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.461950302124</t>
+    <t xml:space="preserve">10.5259580612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4619483947754</t>
   </si>
   <si>
     <t xml:space="preserve">10.4832849502563</t>
@@ -2747,25 +2747,25 @@
     <t xml:space="preserve">10.7179861068726</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4192752838135</t>
+    <t xml:space="preserve">10.4192743301392</t>
   </si>
   <si>
     <t xml:space="preserve">10.1987991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5899677276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6682004928589</t>
+    <t xml:space="preserve">10.5899667739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6681995391846</t>
   </si>
   <si>
     <t xml:space="preserve">10.7819938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1447134017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1375999450684</t>
+    <t xml:space="preserve">11.1447143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.137601852417</t>
   </si>
   <si>
     <t xml:space="preserve">11.0735912322998</t>
@@ -2777,40 +2777,40 @@
     <t xml:space="preserve">11.0024709701538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1589365005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2841444015503</t>
+    <t xml:space="preserve">11.1589374542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2841463088989</t>
   </si>
   <si>
     <t xml:space="preserve">10.5046215057373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77918338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.245774269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69102668762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56731081008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27571296691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25437641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734140396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52893829345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17333173751831</t>
+    <t xml:space="preserve">9.77918434143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24577331542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69102764129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56731128692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27571201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25437688827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734092712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52893877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17333221435547</t>
   </si>
   <si>
     <t xml:space="preserve">5.98841619491577</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">6.00264024734497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98130416870117</t>
+    <t xml:space="preserve">5.98130464553833</t>
   </si>
   <si>
     <t xml:space="preserve">6.32979869842529</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">6.5787239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49693489074707</t>
+    <t xml:space="preserve">6.49693441390991</t>
   </si>
   <si>
     <t xml:space="preserve">6.22667264938354</t>
@@ -2852,16 +2852,16 @@
     <t xml:space="preserve">6.26934576034546</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35824584960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41870069503784</t>
+    <t xml:space="preserve">6.35824680328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41870021820068</t>
   </si>
   <si>
     <t xml:space="preserve">6.56449890136719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53960609436035</t>
+    <t xml:space="preserve">6.53960657119751</t>
   </si>
   <si>
     <t xml:space="preserve">6.57161140441895</t>
@@ -2873,19 +2873,19 @@
     <t xml:space="preserve">6.28356981277466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34402322769165</t>
+    <t xml:space="preserve">6.34402275085449</t>
   </si>
   <si>
     <t xml:space="preserve">6.35113525390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04531383514404</t>
+    <t xml:space="preserve">6.04531335830688</t>
   </si>
   <si>
     <t xml:space="preserve">5.92085075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06664991378784</t>
+    <t xml:space="preserve">6.06664943695068</t>
   </si>
   <si>
     <t xml:space="preserve">6.39380788803101</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">6.52182626724243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34757995605469</t>
+    <t xml:space="preserve">6.34757947921753</t>
   </si>
   <si>
     <t xml:space="preserve">6.11643505096436</t>
@@ -2903,22 +2903,22 @@
     <t xml:space="preserve">6.18044376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14132738113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01686477661133</t>
+    <t xml:space="preserve">6.14132690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01686525344849</t>
   </si>
   <si>
     <t xml:space="preserve">6.11287927627563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02753353118896</t>
+    <t xml:space="preserve">6.02753305435181</t>
   </si>
   <si>
     <t xml:space="preserve">5.94574356079102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85684204101562</t>
+    <t xml:space="preserve">5.85684156417847</t>
   </si>
   <si>
     <t xml:space="preserve">5.74660396575928</t>
@@ -2927,25 +2927,25 @@
     <t xml:space="preserve">5.71104288101196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68970727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44078254699707</t>
+    <t xml:space="preserve">5.68970680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44078207015991</t>
   </si>
   <si>
     <t xml:space="preserve">5.29142713546753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17763328552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19185733795166</t>
+    <t xml:space="preserve">5.17763376235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19185781478882</t>
   </si>
   <si>
     <t xml:space="preserve">5.47634315490723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69681882858276</t>
+    <t xml:space="preserve">5.69681930541992</t>
   </si>
   <si>
     <t xml:space="preserve">5.8675103187561</t>
@@ -2954,19 +2954,19 @@
     <t xml:space="preserve">5.97063636779785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89951467514038</t>
+    <t xml:space="preserve">5.89951515197754</t>
   </si>
   <si>
     <t xml:space="preserve">5.93863201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29779386520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53605031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87743282318115</t>
+    <t xml:space="preserve">6.2977933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53604984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87743330001831</t>
   </si>
   <si>
     <t xml:space="preserve">7.3681697845459</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">6.91299390792847</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69963026046753</t>
+    <t xml:space="preserve">6.69962978363037</t>
   </si>
   <si>
     <t xml:space="preserve">6.24089670181274</t>
@@ -2984,22 +2984,22 @@
     <t xml:space="preserve">6.19466876983643</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36180257797241</t>
+    <t xml:space="preserve">6.36180305480957</t>
   </si>
   <si>
     <t xml:space="preserve">6.46492958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40092039108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3049054145813</t>
+    <t xml:space="preserve">6.40091991424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30490589141846</t>
   </si>
   <si>
     <t xml:space="preserve">6.14488363265991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08798694610596</t>
+    <t xml:space="preserve">6.0879864692688</t>
   </si>
   <si>
     <t xml:space="preserve">5.9350757598877</t>
@@ -3008,25 +3008,25 @@
     <t xml:space="preserve">5.84617376327515</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91018342971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04175758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08087396621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06309366226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20889234542847</t>
+    <t xml:space="preserve">5.91018295288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04175806045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0808744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0630931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20889186859131</t>
   </si>
   <si>
     <t xml:space="preserve">6.32624340057373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45070457458496</t>
+    <t xml:space="preserve">6.4507040977478</t>
   </si>
   <si>
     <t xml:space="preserve">6.37958383560181</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">6.98055791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03745698928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8134241104126</t>
+    <t xml:space="preserve">7.03745651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81342458724976</t>
   </si>
   <si>
     <t xml:space="preserve">6.66406917572021</t>
@@ -3059,28 +3059,28 @@
     <t xml:space="preserve">6.35469150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16622018814087</t>
+    <t xml:space="preserve">6.16621971130371</t>
   </si>
   <si>
     <t xml:space="preserve">6.16266345977783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38669490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39736366271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25156497955322</t>
+    <t xml:space="preserve">6.38669586181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39736413955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25156545639038</t>
   </si>
   <si>
     <t xml:space="preserve">6.52538251876831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50049066543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53249454498291</t>
+    <t xml:space="preserve">6.50049018859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53249502182007</t>
   </si>
   <si>
     <t xml:space="preserve">6.40447616577148</t>
@@ -3104,13 +3104,13 @@
     <t xml:space="preserve">6.20177984237671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14843940734863</t>
+    <t xml:space="preserve">6.14843988418579</t>
   </si>
   <si>
     <t xml:space="preserve">6.13777112960815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2729024887085</t>
+    <t xml:space="preserve">6.27290201187134</t>
   </si>
   <si>
     <t xml:space="preserve">6.2764573097229</t>
@@ -3119,16 +3119,16 @@
     <t xml:space="preserve">6.23022937774658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26223468780518</t>
+    <t xml:space="preserve">6.26223421096802</t>
   </si>
   <si>
     <t xml:space="preserve">6.46848583221436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38313961029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28001308441162</t>
+    <t xml:space="preserve">6.38313913345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28001356124878</t>
   </si>
   <si>
     <t xml:space="preserve">6.05598211288452</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">5.92796325683594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106609344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97419166564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83194923400879</t>
+    <t xml:space="preserve">5.87106657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97419214248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83194971084595</t>
   </si>
   <si>
     <t xml:space="preserve">5.84973001480103</t>
@@ -3152,34 +3152,34 @@
     <t xml:space="preserve">5.73237991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73593521118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75015926361084</t>
+    <t xml:space="preserve">5.7359356880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.750159740448</t>
   </si>
   <si>
     <t xml:space="preserve">5.8746223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79283285140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85328578948975</t>
+    <t xml:space="preserve">5.79283332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85328531265259</t>
   </si>
   <si>
     <t xml:space="preserve">5.82839298248291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73949193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57946825027466</t>
+    <t xml:space="preserve">5.73949146270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57946872711182</t>
   </si>
   <si>
     <t xml:space="preserve">5.63280963897705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5830249786377</t>
+    <t xml:space="preserve">5.58302450180054</t>
   </si>
   <si>
     <t xml:space="preserve">5.57591247558594</t>
@@ -3191,22 +3191,22 @@
     <t xml:space="preserve">5.72171115875244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54390811920166</t>
+    <t xml:space="preserve">5.54390859603882</t>
   </si>
   <si>
     <t xml:space="preserve">5.4941234588623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41233396530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29498386383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30565166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95715665817261</t>
+    <t xml:space="preserve">5.4123330116272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29498338699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30565118789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95715713500977</t>
   </si>
   <si>
     <t xml:space="preserve">4.7971339225769</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">4.89670372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04605913162231</t>
+    <t xml:space="preserve">5.04605865478516</t>
   </si>
   <si>
     <t xml:space="preserve">5.25942277908325</t>
@@ -3224,28 +3224,28 @@
     <t xml:space="preserve">5.38744115829468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30920839309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27009105682373</t>
+    <t xml:space="preserve">5.30920791625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27009057998657</t>
   </si>
   <si>
     <t xml:space="preserve">5.65059041976929</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66125869750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78216457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75727224349976</t>
+    <t xml:space="preserve">5.66125822067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78216505050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7572717666626</t>
   </si>
   <si>
     <t xml:space="preserve">6.22311687469482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42581272125244</t>
+    <t xml:space="preserve">6.4258131980896</t>
   </si>
   <si>
     <t xml:space="preserve">6.44359350204468</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">6.57516765594482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58583450317383</t>
+    <t xml:space="preserve">6.58583498001099</t>
   </si>
   <si>
     <t xml:space="preserve">6.49337863922119</t>
@@ -3269,22 +3269,22 @@
     <t xml:space="preserve">6.79208755493164</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92721700668335</t>
+    <t xml:space="preserve">6.92721796035767</t>
   </si>
   <si>
     <t xml:space="preserve">6.94855451583862</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97700214385986</t>
+    <t xml:space="preserve">6.97700309753418</t>
   </si>
   <si>
     <t xml:space="preserve">6.83831644058228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80986785888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74230194091797</t>
+    <t xml:space="preserve">6.80986833572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74230241775513</t>
   </si>
   <si>
     <t xml:space="preserve">6.66051340103149</t>
@@ -3293,46 +3293,46 @@
     <t xml:space="preserve">6.71385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029901504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64273309707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63917636871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67118120193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4755973815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54671907424927</t>
+    <t xml:space="preserve">6.71029853820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64273262023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63917684555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67118072509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47559690475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54671859741211</t>
   </si>
   <si>
     <t xml:space="preserve">6.58939123153687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58227920532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62495231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61072731018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56805467605591</t>
+    <t xml:space="preserve">6.58227968215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62495183944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61072778701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56805515289307</t>
   </si>
   <si>
     <t xml:space="preserve">6.30135011672974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31201887130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21244812011719</t>
+    <t xml:space="preserve">6.31201839447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21244859695435</t>
   </si>
   <si>
     <t xml:space="preserve">6.10932302474976</t>
@@ -3341,37 +3341,37 @@
     <t xml:space="preserve">5.90307092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01330852508545</t>
+    <t xml:space="preserve">6.01330900192261</t>
   </si>
   <si>
     <t xml:space="preserve">5.95641183853149</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29423809051514</t>
+    <t xml:space="preserve">6.29423856735229</t>
   </si>
   <si>
     <t xml:space="preserve">6.67829370498657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88454532623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03389978408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43217897415161</t>
+    <t xml:space="preserve">6.88454580307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03390026092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43217945098877</t>
   </si>
   <si>
     <t xml:space="preserve">7.33972120285034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42506694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33261013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549810409546</t>
+    <t xml:space="preserve">7.42506742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33261060714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32549715042114</t>
   </si>
   <si>
     <t xml:space="preserve">7.24015140533447</t>
@@ -3380,43 +3380,43 @@
     <t xml:space="preserve">7.3041615486145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36105966567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58864641189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48196458816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66688060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51752614974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5388617515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46062803268433</t>
+    <t xml:space="preserve">7.36105918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58864688873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48196411132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66688013076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51752519607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53886222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46062755584717</t>
   </si>
   <si>
     <t xml:space="preserve">7.93002843856812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90869283676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847749710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16472816467285</t>
+    <t xml:space="preserve">7.90869235992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16472911834717</t>
   </si>
   <si>
     <t xml:space="preserve">8.22873783111572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12916946411133</t>
+    <t xml:space="preserve">8.12916851043701</t>
   </si>
   <si>
     <t xml:space="preserve">8.15050411224365</t>
@@ -3428,25 +3428,25 @@
     <t xml:space="preserve">7.91580438613892</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97270250320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0864953994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10072040557861</t>
+    <t xml:space="preserve">7.97270154953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08649635314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1007194519043</t>
   </si>
   <si>
     <t xml:space="preserve">8.00115013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05093479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07938385009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86602020263672</t>
+    <t xml:space="preserve">8.05093383789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07938289642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8660192489624</t>
   </si>
   <si>
     <t xml:space="preserve">8.24296188354492</t>
@@ -3464,25 +3464,25 @@
     <t xml:space="preserve">7.78778553009033</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99403715133667</t>
+    <t xml:space="preserve">7.99403810501099</t>
   </si>
   <si>
     <t xml:space="preserve">8.20740222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2642993927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21451377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18606662750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22162628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27852344512939</t>
+    <t xml:space="preserve">8.26429843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21451473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18606567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2216272354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27852439880371</t>
   </si>
   <si>
     <t xml:space="preserve">8.74792385101318</t>
@@ -3494,13 +3494,13 @@
     <t xml:space="preserve">8.92572784423828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28133487701416</t>
+    <t xml:space="preserve">9.28133392333984</t>
   </si>
   <si>
     <t xml:space="preserve">9.30978298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23866176605225</t>
+    <t xml:space="preserve">9.23866081237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.08219528198242</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">9.00396060943604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85460472106934</t>
+    <t xml:space="preserve">8.85460567474365</t>
   </si>
   <si>
     <t xml:space="preserve">9.04663467407227</t>
@@ -3527,67 +3527,67 @@
     <t xml:space="preserve">9.21732521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35245609283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96128749847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91431331634521</t>
+    <t xml:space="preserve">9.35245513916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96128845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91431427001953</t>
   </si>
   <si>
     <t xml:space="preserve">9.79340744018555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50892162322998</t>
+    <t xml:space="preserve">9.5089225769043</t>
   </si>
   <si>
     <t xml:space="preserve">9.45202541351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3595666885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11775398254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66539001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05374526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887710571289</t>
+    <t xml:space="preserve">9.35956764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11775493621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66538906097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05374622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887615203857</t>
   </si>
   <si>
     <t xml:space="preserve">9.85741710662842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87875366210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8858642578125</t>
+    <t xml:space="preserve">9.87875270843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88586521148682</t>
   </si>
   <si>
     <t xml:space="preserve">9.97832298278809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90009021759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89297771453857</t>
+    <t xml:space="preserve">9.90008926391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89297866821289</t>
   </si>
   <si>
     <t xml:space="preserve">9.97121143341064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1134548187256</t>
+    <t xml:space="preserve">10.113452911377</t>
   </si>
   <si>
     <t xml:space="preserve">10.412163734436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3623781204224</t>
+    <t xml:space="preserve">10.3623790740967</t>
   </si>
   <si>
     <t xml:space="preserve">10.312593460083</t>
@@ -3614,13 +3614,13 @@
     <t xml:space="preserve">10.5188455581665</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7891063690186</t>
+    <t xml:space="preserve">10.7891073226929</t>
   </si>
   <si>
     <t xml:space="preserve">11.0451431274414</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0949287414551</t>
+    <t xml:space="preserve">11.0949277877808</t>
   </si>
   <si>
     <t xml:space="preserve">11.3580770492554</t>
@@ -3644,19 +3644,19 @@
     <t xml:space="preserve">12.2257585525513</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6141138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0621776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496744155884</t>
+    <t xml:space="preserve">11.6141147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0621767044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496734619141</t>
   </si>
   <si>
     <t xml:space="preserve">11.891487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7421321868896</t>
+    <t xml:space="preserve">11.742133140564</t>
   </si>
   <si>
     <t xml:space="preserve">11.7207956314087</t>
@@ -3668,16 +3668,16 @@
     <t xml:space="preserve">11.7492446899414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1048517227173</t>
+    <t xml:space="preserve">12.1048526763916</t>
   </si>
   <si>
     <t xml:space="preserve">12.0977392196655</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3790817260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3486652374268</t>
+    <t xml:space="preserve">12.3790826797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3486661911011</t>
   </si>
   <si>
     <t xml:space="preserve">12.1965894699097</t>
@@ -3686,19 +3686,19 @@
     <t xml:space="preserve">11.9988880157471</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1053428649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2117967605591</t>
+    <t xml:space="preserve">12.1053438186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2117958068848</t>
   </si>
   <si>
     <t xml:space="preserve">12.1433620452881</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1585693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3106479644775</t>
+    <t xml:space="preserve">12.1585702896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3106470108032</t>
   </si>
   <si>
     <t xml:space="preserve">12.4323091506958</t>
@@ -3707,19 +3707,19 @@
     <t xml:space="preserve">12.6528196334839</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7288589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7516717910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8505201339722</t>
+    <t xml:space="preserve">12.7288579940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7516708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8505210876465</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125009536743</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6224040985107</t>
+    <t xml:space="preserve">12.6224050521851</t>
   </si>
   <si>
     <t xml:space="preserve">12.8809366226196</t>
@@ -3734,10 +3734,10 @@
     <t xml:space="preserve">12.6908397674561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3866863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2498168945312</t>
+    <t xml:space="preserve">12.3866853713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2498159408569</t>
   </si>
   <si>
     <t xml:space="preserve">11.907642364502</t>
@@ -3749,7 +3749,7 @@
     <t xml:space="preserve">11.6034879684448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578660964966</t>
+    <t xml:space="preserve">11.5578651428223</t>
   </si>
   <si>
     <t xml:space="preserve">11.5426568984985</t>
@@ -3779,49 +3779,49 @@
     <t xml:space="preserve">12.0901346206665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9608678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597190856934</t>
+    <t xml:space="preserve">11.9608697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597200393677</t>
   </si>
   <si>
     <t xml:space="preserve">12.0064926147461</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9000387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6186952590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8087911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1509647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1357574462891</t>
+    <t xml:space="preserve">11.9000377655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6186962127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8087921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1509656906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1357583999634</t>
   </si>
   <si>
     <t xml:space="preserve">12.9265594482422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9797849655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2991495132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.451226234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3599786758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1318635940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3295650482178</t>
+    <t xml:space="preserve">12.9797859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2991485595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4512243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3599796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1318645477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3295640945435</t>
   </si>
   <si>
     <t xml:space="preserve">13.2839393615723</t>
@@ -3830,10 +3830,10 @@
     <t xml:space="preserve">13.4816417694092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6565284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7173624038696</t>
+    <t xml:space="preserve">13.6565294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7173614501953</t>
   </si>
   <si>
     <t xml:space="preserve">13.8618326187134</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">14.0291204452515</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5576791763306</t>
+    <t xml:space="preserve">13.5576782226562</t>
   </si>
   <si>
     <t xml:space="preserve">13.5120573043823</t>
@@ -3851,19 +3851,19 @@
     <t xml:space="preserve">13.9530811309814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8238134384155</t>
+    <t xml:space="preserve">13.8238143920898</t>
   </si>
   <si>
     <t xml:space="preserve">13.0330123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4664325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5880947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6109066009521</t>
+    <t xml:space="preserve">13.4664316177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.588095664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6109056472778</t>
   </si>
   <si>
     <t xml:space="preserve">13.4892454147339</t>
@@ -3881,19 +3881,19 @@
     <t xml:space="preserve">13.6261148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0063066482544</t>
+    <t xml:space="preserve">14.0063076019287</t>
   </si>
   <si>
     <t xml:space="preserve">14.5994081497192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6031169891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7399883270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4243354797363</t>
+    <t xml:space="preserve">15.6031179428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7399892807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4243335723877</t>
   </si>
   <si>
     <t xml:space="preserve">16.4851665496826</t>
@@ -3902,7 +3902,7 @@
     <t xml:space="preserve">16.226634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2722587585449</t>
+    <t xml:space="preserve">16.2722568511963</t>
   </si>
   <si>
     <t xml:space="preserve">15.3597936630249</t>
@@ -3911,10 +3911,10 @@
     <t xml:space="preserve">14.9795999526978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9454784393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6678438186646</t>
+    <t xml:space="preserve">13.9454774856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6678428649902</t>
   </si>
   <si>
     <t xml:space="preserve">14.4017086029053</t>
@@ -3923,25 +3923,25 @@
     <t xml:space="preserve">13.5652847290039</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8314180374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.580491065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3714790344238</t>
+    <t xml:space="preserve">13.8314189910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5804920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3714771270752</t>
   </si>
   <si>
     <t xml:space="preserve">11.8316040039062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341640472412</t>
+    <t xml:space="preserve">12.9341630935669</t>
   </si>
   <si>
     <t xml:space="preserve">12.1281538009644</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5007429122925</t>
+    <t xml:space="preserve">12.5007438659668</t>
   </si>
   <si>
     <t xml:space="preserve">13.0482206344604</t>
@@ -3950,61 +3950,61 @@
     <t xml:space="preserve">13.3827905654907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0823450088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9834957122803</t>
+    <t xml:space="preserve">14.0823459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.983494758606</t>
   </si>
   <si>
     <t xml:space="preserve">14.0139112472534</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3636884689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2952537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1735925674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.33327293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3712921142578</t>
+    <t xml:space="preserve">14.3636894226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2952527999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1735916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3332738876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3712930679321</t>
   </si>
   <si>
     <t xml:space="preserve">14.1964044570923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3180656433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.49684715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9074583053589</t>
+    <t xml:space="preserve">14.3180646896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4968481063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9074573516846</t>
   </si>
   <si>
     <t xml:space="preserve">13.7401723861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.793399810791</t>
+    <t xml:space="preserve">13.7933979034424</t>
   </si>
   <si>
     <t xml:space="preserve">13.4740362167358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8086080551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1470708847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915458679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090517044067</t>
+    <t xml:space="preserve">13.8086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1470718383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915449142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090507507324</t>
   </si>
   <si>
     <t xml:space="preserve">12.4779319763184</t>
@@ -4028,34 +4028,34 @@
     <t xml:space="preserve">13.8495626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7691373825073</t>
+    <t xml:space="preserve">13.7691383361816</t>
   </si>
   <si>
     <t xml:space="preserve">14.0425882339478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9380340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0184621810913</t>
+    <t xml:space="preserve">13.9380331039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.018461227417</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565370559692</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6324110031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6082820892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5761098861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.584153175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3509159088135</t>
+    <t xml:space="preserve">13.6324119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6082830429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5761108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5841522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3509149551392</t>
   </si>
   <si>
     <t xml:space="preserve">13.1739740371704</t>
@@ -4064,7 +4064,7 @@
     <t xml:space="preserve">12.9166078567505</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1445083618164</t>
+    <t xml:space="preserve">12.1445074081421</t>
   </si>
   <si>
     <t xml:space="preserve">11.5252180099487</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">11.6458587646484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0560369491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.501091003418</t>
+    <t xml:space="preserve">12.056037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5010900497437</t>
   </si>
   <si>
     <t xml:space="preserve">11.4850034713745</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">11.7423715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5573892593384</t>
+    <t xml:space="preserve">11.5573883056641</t>
   </si>
   <si>
     <t xml:space="preserve">11.5493459701538</t>
@@ -4097,22 +4097,22 @@
     <t xml:space="preserve">11.5413036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.468918800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4367485046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2276372909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8657150268555</t>
+    <t xml:space="preserve">11.4689197540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4367475509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2276382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8657159805298</t>
   </si>
   <si>
     <t xml:space="preserve">10.7289886474609</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6726894378662</t>
+    <t xml:space="preserve">10.6726903915405</t>
   </si>
   <si>
     <t xml:space="preserve">10.2383823394775</t>
@@ -4124,16 +4124,16 @@
     <t xml:space="preserve">10.3751087188721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.664647102356</t>
+    <t xml:space="preserve">10.6646461486816</t>
   </si>
   <si>
     <t xml:space="preserve">10.350980758667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4072799682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96493053436279</t>
+    <t xml:space="preserve">10.4072790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96492958068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.48236656188965</t>
@@ -4148,19 +4148,19 @@
     <t xml:space="preserve">10.1257848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1659984588623</t>
+    <t xml:space="preserve">10.165997505188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016569137573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1820831298828</t>
+    <t xml:space="preserve">10.1820821762085</t>
   </si>
   <si>
     <t xml:space="preserve">10.4877071380615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1338272094727</t>
+    <t xml:space="preserve">10.133828163147</t>
   </si>
   <si>
     <t xml:space="preserve">10.3027248382568</t>
@@ -4181,13 +4181,13 @@
     <t xml:space="preserve">10.946141242981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0185270309448</t>
+    <t xml:space="preserve">11.0185260772705</t>
   </si>
   <si>
     <t xml:space="preserve">10.9783124923706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968183517456</t>
+    <t xml:space="preserve">10.6968173980713</t>
   </si>
   <si>
     <t xml:space="preserve">10.415322303772</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">10.7852869033813</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9702701568604</t>
+    <t xml:space="preserve">10.9702711105347</t>
   </si>
   <si>
     <t xml:space="preserve">10.4394502639771</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">10.0131864547729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1418695449829</t>
+    <t xml:space="preserve">10.1418704986572</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177415847778</t>
@@ -4217,22 +4217,22 @@
     <t xml:space="preserve">9.97297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6995210647583</t>
+    <t xml:space="preserve">9.69952011108398</t>
   </si>
   <si>
     <t xml:space="preserve">9.62713623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69147777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61104965209961</t>
+    <t xml:space="preserve">9.69147872924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61105060577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.36172676086426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55475044250488</t>
+    <t xml:space="preserve">9.5547513961792</t>
   </si>
   <si>
     <t xml:space="preserve">9.28934192657471</t>
@@ -4244,19 +4244,19 @@
     <t xml:space="preserve">9.1043586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18478679656982</t>
+    <t xml:space="preserve">9.18478584289551</t>
   </si>
   <si>
     <t xml:space="preserve">9.39389705657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91667461395264</t>
+    <t xml:space="preserve">9.91667366027832</t>
   </si>
   <si>
     <t xml:space="preserve">9.92471694946289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614423751831</t>
+    <t xml:space="preserve">10.0614433288574</t>
   </si>
   <si>
     <t xml:space="preserve">9.83624744415283</t>
@@ -4265,7 +4265,7 @@
     <t xml:space="preserve">9.77994823455811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4501953125</t>
+    <t xml:space="preserve">9.45019626617432</t>
   </si>
   <si>
     <t xml:space="preserve">9.49845218658447</t>
@@ -4277,7 +4277,7 @@
     <t xml:space="preserve">9.19282913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04001808166504</t>
+    <t xml:space="preserve">9.04001712799072</t>
   </si>
   <si>
     <t xml:space="preserve">8.94350433349609</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">8.65396690368652</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15261459350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25717163085938</t>
+    <t xml:space="preserve">9.15261554718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25717067718506</t>
   </si>
   <si>
     <t xml:space="preserve">9.16065883636475</t>
@@ -4301,16 +4301,16 @@
     <t xml:space="preserve">8.95959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87916278839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97567558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84699249267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85503482818604</t>
+    <t xml:space="preserve">8.8791618347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97567653656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84699153900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85503578186035</t>
   </si>
   <si>
     <t xml:space="preserve">9.11240196228027</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">9.0882740020752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1284875869751</t>
+    <t xml:space="preserve">9.12848854064941</t>
   </si>
   <si>
     <t xml:space="preserve">9.22500038146973</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">9.32955551147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41802597045898</t>
+    <t xml:space="preserve">9.41802501678467</t>
   </si>
   <si>
     <t xml:space="preserve">9.58692169189453</t>
@@ -4343,28 +4343,25 @@
     <t xml:space="preserve">10.5198783874512</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4796648025513</t>
+    <t xml:space="preserve">10.479663848877</t>
   </si>
   <si>
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506973266602</t>
+    <t xml:space="preserve">11.0506963729858</t>
   </si>
   <si>
     <t xml:space="preserve">11.1954650878906</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1632957458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1230821609497</t>
+    <t xml:space="preserve">11.1632947921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1230812072754</t>
   </si>
   <si>
     <t xml:space="preserve">11.00244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3643636703491</t>
   </si>
   <si>
     <t xml:space="preserve">11.3643646240234</t>
@@ -51271,7 +51268,7 @@
         <v>13.1300001144409</v>
       </c>
       <c r="G1754" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51297,7 +51294,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1755" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51323,7 +51320,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1756" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51349,7 +51346,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1757" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51375,7 +51372,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1758" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51401,7 +51398,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51427,7 +51424,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1760" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51453,7 +51450,7 @@
         <v>13.1300001144409</v>
       </c>
       <c r="G1761" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51479,7 +51476,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1762" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51505,7 +51502,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1763" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51531,7 +51528,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1764" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51557,7 +51554,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1765" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51583,7 +51580,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G1766" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51609,7 +51606,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1767" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51635,7 +51632,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G1768" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51661,7 +51658,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G1769" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51687,7 +51684,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G1770" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51713,7 +51710,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1771" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51739,7 +51736,7 @@
         <v>12.710000038147</v>
       </c>
       <c r="G1772" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51765,7 +51762,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1773" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51791,7 +51788,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G1774" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51817,7 +51814,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1775" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51843,7 +51840,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1776" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51869,7 +51866,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1777" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51895,7 +51892,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1778" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51921,7 +51918,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1779" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51947,7 +51944,7 @@
         <v>13.1899995803833</v>
       </c>
       <c r="G1780" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51973,7 +51970,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51999,7 +51996,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1782" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -52025,7 +52022,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1783" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -52051,7 +52048,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -52077,7 +52074,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1785" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52103,7 +52100,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1786" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52129,7 +52126,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1787" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52155,7 +52152,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1788" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52181,7 +52178,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52207,7 +52204,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1790" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52233,7 +52230,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1791" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52259,7 +52256,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52285,7 +52282,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1793" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52311,7 +52308,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1794" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52337,7 +52334,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1795" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52363,7 +52360,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52389,7 +52386,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1797" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52415,7 +52412,7 @@
         <v>14.5</v>
       </c>
       <c r="G1798" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52441,7 +52438,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1799" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52467,7 +52464,7 @@
         <v>14.25</v>
       </c>
       <c r="G1800" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52493,7 +52490,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52519,7 +52516,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1802" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52545,7 +52542,7 @@
         <v>15.0299997329712</v>
       </c>
       <c r="G1803" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52571,7 +52568,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1804" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52597,7 +52594,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1805" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52623,7 +52620,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52649,7 +52646,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1807" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52675,7 +52672,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1808" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52701,7 +52698,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1809" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52727,7 +52724,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1810" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52753,7 +52750,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1811" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52779,7 +52776,7 @@
         <v>16.1700000762939</v>
       </c>
       <c r="G1812" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52805,7 +52802,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G1813" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52831,7 +52828,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1814" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52857,7 +52854,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G1815" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52883,7 +52880,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1816" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52909,7 +52906,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1817" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52935,7 +52932,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52961,7 +52958,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G1819" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52987,7 +52984,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1820" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -53013,7 +53010,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G1821" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -53039,7 +53036,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G1822" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -53065,7 +53062,7 @@
         <v>15.5900001525879</v>
       </c>
       <c r="G1823" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53091,7 +53088,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1824" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53117,7 +53114,7 @@
         <v>15.6300001144409</v>
       </c>
       <c r="G1825" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53143,7 +53140,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53169,7 +53166,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1827" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53195,7 +53192,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53221,7 +53218,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1829" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53247,7 +53244,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1830" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53273,7 +53270,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1831" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53299,7 +53296,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1832" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53325,7 +53322,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53351,7 +53348,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1834" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53377,7 +53374,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1835" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53403,7 +53400,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53429,7 +53426,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53455,7 +53452,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1838" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53481,7 +53478,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1839" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53507,7 +53504,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53533,7 +53530,7 @@
         <v>14.0100002288818</v>
       </c>
       <c r="G1841" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53559,7 +53556,7 @@
         <v>13.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53585,7 +53582,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1843" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53611,7 +53608,7 @@
         <v>13.6099996566772</v>
       </c>
       <c r="G1844" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53637,7 +53634,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1845" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53663,7 +53660,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G1846" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53689,7 +53686,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1847" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53715,7 +53712,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G1848" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53741,7 +53738,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1849" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53767,7 +53764,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53793,7 +53790,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53819,7 +53816,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1852" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53845,7 +53842,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1853" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53871,7 +53868,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53897,7 +53894,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1855" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53923,7 +53920,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1856" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53949,7 +53946,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1857" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53975,7 +53972,7 @@
         <v>15.0900001525879</v>
       </c>
       <c r="G1858" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -54001,7 +53998,7 @@
         <v>15.0100002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -54027,7 +54024,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1860" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54053,7 +54050,7 @@
         <v>15.4099998474121</v>
       </c>
       <c r="G1861" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54079,7 +54076,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1862" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54105,7 +54102,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1863" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54131,7 +54128,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1864" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54157,7 +54154,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1865" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54183,7 +54180,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1866" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54209,7 +54206,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1867" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54235,7 +54232,7 @@
         <v>14.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54261,7 +54258,7 @@
         <v>15</v>
       </c>
       <c r="G1869" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54287,7 +54284,7 @@
         <v>15.0299997329712</v>
       </c>
       <c r="G1870" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54313,7 +54310,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1871" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54339,7 +54336,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1872" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54365,7 +54362,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1873" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54391,7 +54388,7 @@
         <v>14.3900003433228</v>
       </c>
       <c r="G1874" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54417,7 +54414,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1875" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54443,7 +54440,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1876" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54469,7 +54466,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G1877" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54495,7 +54492,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54521,7 +54518,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1879" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54547,7 +54544,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1880" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54573,7 +54570,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1881" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54599,7 +54596,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54625,7 +54622,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54651,7 +54648,7 @@
         <v>14.5900001525879</v>
       </c>
       <c r="G1884" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54677,7 +54674,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1885" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54703,7 +54700,7 @@
         <v>14.210000038147</v>
       </c>
       <c r="G1886" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54729,7 +54726,7 @@
         <v>14</v>
       </c>
       <c r="G1887" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54755,7 +54752,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1888" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54781,7 +54778,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1889" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54807,7 +54804,7 @@
         <v>14.25</v>
       </c>
       <c r="G1890" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54833,7 +54830,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54859,7 +54856,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1892" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54885,7 +54882,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1893" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54911,7 +54908,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1894" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54937,7 +54934,7 @@
         <v>14.0699996948242</v>
       </c>
       <c r="G1895" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54963,7 +54960,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54989,7 +54986,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1897" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -55015,7 +55012,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1898" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -55041,7 +55038,7 @@
         <v>14.1099996566772</v>
       </c>
       <c r="G1899" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55067,7 +55064,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1900" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55093,7 +55090,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1901" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55119,7 +55116,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55145,7 +55142,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1903" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55171,7 +55168,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1904" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55197,7 +55194,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55223,7 +55220,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1906" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55249,7 +55246,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55275,7 +55272,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1908" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55301,7 +55298,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1909" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55327,7 +55324,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1910" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55353,7 +55350,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1911" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55379,7 +55376,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55405,7 +55402,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1913" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55431,7 +55428,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1914" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55457,7 +55454,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55483,7 +55480,7 @@
         <v>14.75</v>
       </c>
       <c r="G1916" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55509,7 +55506,7 @@
         <v>14.75</v>
       </c>
       <c r="G1917" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55535,7 +55532,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1918" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55561,7 +55558,7 @@
         <v>15.039999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55587,7 +55584,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1920" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55613,7 +55610,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1921" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55639,7 +55636,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55665,7 +55662,7 @@
         <v>15.25</v>
       </c>
       <c r="G1923" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55691,7 +55688,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1924" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55717,7 +55714,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1925" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55743,7 +55740,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55769,7 +55766,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1927" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55795,7 +55792,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1928" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55821,7 +55818,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G1929" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55847,7 +55844,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1930" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55873,7 +55870,7 @@
         <v>15.75</v>
       </c>
       <c r="G1931" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55899,7 +55896,7 @@
         <v>15.4899997711182</v>
       </c>
       <c r="G1932" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55925,7 +55922,7 @@
         <v>15.5900001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55951,7 +55948,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1934" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55977,7 +55974,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1935" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56003,7 +56000,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56029,7 +56026,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1937" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56055,7 +56052,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1938" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56081,7 +56078,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56107,7 +56104,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1940" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56133,7 +56130,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G1941" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56159,7 +56156,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1942" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56185,7 +56182,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1943" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56211,7 +56208,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56237,7 +56234,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1945" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56263,7 +56260,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56289,7 +56286,7 @@
         <v>15.9700002670288</v>
       </c>
       <c r="G1947" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56315,7 +56312,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1948" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56341,7 +56338,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1949" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56367,7 +56364,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1950" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56393,7 +56390,7 @@
         <v>16.2700004577637</v>
       </c>
       <c r="G1951" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56419,7 +56416,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1952" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56445,7 +56442,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G1953" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56471,7 +56468,7 @@
         <v>16.0300006866455</v>
       </c>
       <c r="G1954" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56497,7 +56494,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1955" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56523,7 +56520,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G1956" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56549,7 +56546,7 @@
         <v>15.5299997329712</v>
       </c>
       <c r="G1957" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56575,7 +56572,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1958" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56601,7 +56598,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1959" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56627,7 +56624,7 @@
         <v>15.7299995422363</v>
       </c>
       <c r="G1960" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56653,7 +56650,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G1961" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56679,7 +56676,7 @@
         <v>15.7299995422363</v>
       </c>
       <c r="G1962" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56705,7 +56702,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56731,7 +56728,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1964" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56757,7 +56754,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1965" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56783,7 +56780,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G1966" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56809,7 +56806,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G1967" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56835,7 +56832,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G1968" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56861,7 +56858,7 @@
         <v>16.0900001525879</v>
       </c>
       <c r="G1969" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56887,7 +56884,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1970" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56913,7 +56910,7 @@
         <v>16.1100006103516</v>
       </c>
       <c r="G1971" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56939,7 +56936,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1972" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56965,7 +56962,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="G1973" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56991,7 +56988,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1974" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57017,7 +57014,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57043,7 +57040,7 @@
         <v>15.9899997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57069,7 +57066,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1977" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57095,7 +57092,7 @@
         <v>16.25</v>
       </c>
       <c r="G1978" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57121,7 +57118,7 @@
         <v>16.0900001525879</v>
       </c>
       <c r="G1979" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57147,7 +57144,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57173,7 +57170,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1981" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57199,7 +57196,7 @@
         <v>16.6700000762939</v>
       </c>
       <c r="G1982" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57225,7 +57222,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G1983" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57251,7 +57248,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57277,7 +57274,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1985" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57303,7 +57300,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1986" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57329,7 +57326,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1987" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57355,7 +57352,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57381,7 +57378,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1989" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57407,7 +57404,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1990" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57433,7 +57430,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57459,7 +57456,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1992" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57485,7 +57482,7 @@
         <v>15.3900003433228</v>
       </c>
       <c r="G1993" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57511,7 +57508,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G1994" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57537,7 +57534,7 @@
         <v>16.1299991607666</v>
       </c>
       <c r="G1995" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57563,7 +57560,7 @@
         <v>16.3299999237061</v>
       </c>
       <c r="G1996" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57589,7 +57586,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1997" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57615,7 +57612,7 @@
         <v>16.7299995422363</v>
       </c>
       <c r="G1998" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57641,7 +57638,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1999" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57667,7 +57664,7 @@
         <v>16.6299991607666</v>
       </c>
       <c r="G2000" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57693,7 +57690,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57719,7 +57716,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G2002" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57745,7 +57742,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2003" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57771,7 +57768,7 @@
         <v>17.2299995422363</v>
       </c>
       <c r="G2004" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57797,7 +57794,7 @@
         <v>17.0699996948242</v>
       </c>
       <c r="G2005" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57823,7 +57820,7 @@
         <v>17</v>
       </c>
       <c r="G2006" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57849,7 +57846,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G2007" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57875,7 +57872,7 @@
         <v>17.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57901,7 +57898,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G2009" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57927,7 +57924,7 @@
         <v>15.6099996566772</v>
       </c>
       <c r="G2010" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57953,7 +57950,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2011" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57979,7 +57976,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G2012" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58005,7 +58002,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58031,7 +58028,7 @@
         <v>15.5100002288818</v>
       </c>
       <c r="G2014" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58057,7 +58054,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58083,7 +58080,7 @@
         <v>15.75</v>
       </c>
       <c r="G2016" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58109,7 +58106,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58135,7 +58132,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G2018" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58161,7 +58158,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G2019" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58187,7 +58184,7 @@
         <v>15.75</v>
       </c>
       <c r="G2020" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58213,7 +58210,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G2021" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58239,7 +58236,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G2022" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58265,7 +58262,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2023" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58291,7 +58288,7 @@
         <v>16.25</v>
       </c>
       <c r="G2024" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58317,7 +58314,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2025" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58343,7 +58340,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G2026" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58369,7 +58366,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G2027" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58395,7 +58392,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G2028" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58421,7 +58418,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58447,7 +58444,7 @@
         <v>15.789999961853</v>
       </c>
       <c r="G2030" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58473,7 +58470,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G2031" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58499,7 +58496,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2032" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58525,7 +58522,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2033" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58551,7 +58548,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G2034" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58577,7 +58574,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2035" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58603,7 +58600,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58629,7 +58626,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G2037" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58655,7 +58652,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G2038" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58681,7 +58678,7 @@
         <v>15.8100004196167</v>
       </c>
       <c r="G2039" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58707,7 +58704,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G2040" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58733,7 +58730,7 @@
         <v>16.4899997711182</v>
       </c>
       <c r="G2041" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58759,7 +58756,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G2042" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58785,7 +58782,7 @@
         <v>16.1100006103516</v>
       </c>
       <c r="G2043" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58811,7 +58808,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G2044" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58837,7 +58834,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G2045" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58863,7 +58860,7 @@
         <v>15.6099996566772</v>
       </c>
       <c r="G2046" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58889,7 +58886,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G2047" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58915,7 +58912,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G2048" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58941,7 +58938,7 @@
         <v>15.6700000762939</v>
       </c>
       <c r="G2049" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58967,7 +58964,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G2050" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58993,7 +58990,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G2051" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59019,7 +59016,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G2052" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59045,7 +59042,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59071,7 +59068,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2054" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59097,7 +59094,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G2055" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59123,7 +59120,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G2056" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59149,7 +59146,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G2057" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59175,7 +59172,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G2058" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59201,7 +59198,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G2059" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59227,7 +59224,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G2060" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59253,7 +59250,7 @@
         <v>16.1499996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59279,7 +59276,7 @@
         <v>16.1700000762939</v>
       </c>
       <c r="G2062" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59305,7 +59302,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59331,7 +59328,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G2064" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59357,7 +59354,7 @@
         <v>16.2900009155273</v>
       </c>
       <c r="G2065" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59383,7 +59380,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G2066" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59409,7 +59406,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G2067" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59435,7 +59432,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G2068" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59461,7 +59458,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G2069" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59487,7 +59484,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2070" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59513,7 +59510,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G2071" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59539,7 +59536,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G2072" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59565,7 +59562,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G2073" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59591,7 +59588,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G2074" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59617,7 +59614,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G2075" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59643,7 +59640,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G2076" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59669,7 +59666,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G2077" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59695,7 +59692,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59721,7 +59718,7 @@
         <v>16.8099994659424</v>
       </c>
       <c r="G2079" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59747,7 +59744,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G2080" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59773,7 +59770,7 @@
         <v>16.9099998474121</v>
       </c>
       <c r="G2081" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59799,7 +59796,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G2082" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59825,7 +59822,7 @@
         <v>17.1299991607666</v>
       </c>
       <c r="G2083" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59851,7 +59848,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G2084" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59877,7 +59874,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G2085" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59903,7 +59900,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G2086" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59929,7 +59926,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G2087" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59955,7 +59952,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G2088" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59981,7 +59978,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60007,7 +60004,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G2090" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60033,7 +60030,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G2091" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60059,7 +60056,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G2092" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60085,7 +60082,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G2093" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60111,7 +60108,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2094" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60137,7 +60134,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2095" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60163,7 +60160,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60189,7 +60186,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G2097" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60215,7 +60212,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2098" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60241,7 +60238,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60267,7 +60264,7 @@
         <v>18.0900001525879</v>
       </c>
       <c r="G2100" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60293,7 +60290,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2101" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60319,7 +60316,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G2102" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60345,7 +60342,7 @@
         <v>18.3099994659424</v>
       </c>
       <c r="G2103" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60371,7 +60368,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60397,7 +60394,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60423,7 +60420,7 @@
         <v>19.8899993896484</v>
       </c>
       <c r="G2106" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60449,7 +60446,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60475,7 +60472,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G2108" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60501,7 +60498,7 @@
         <v>19.5200004577637</v>
       </c>
       <c r="G2109" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60527,7 +60524,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60553,7 +60550,7 @@
         <v>19.7700004577637</v>
       </c>
       <c r="G2111" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60579,7 +60576,7 @@
         <v>20.0200004577637</v>
       </c>
       <c r="G2112" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60605,7 +60602,7 @@
         <v>20.3600006103516</v>
       </c>
       <c r="G2113" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60631,7 +60628,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60657,7 +60654,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60683,7 +60680,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60709,7 +60706,7 @@
         <v>20.4799995422363</v>
       </c>
       <c r="G2117" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60735,7 +60732,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2118" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60761,7 +60758,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G2119" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60787,7 +60784,7 @@
         <v>20.9400005340576</v>
       </c>
       <c r="G2120" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60813,7 +60810,7 @@
         <v>21.1599998474121</v>
       </c>
       <c r="G2121" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60839,7 +60836,7 @@
         <v>21.0799999237061</v>
       </c>
       <c r="G2122" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60865,7 +60862,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G2123" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60891,7 +60888,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G2124" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60917,7 +60914,7 @@
         <v>21.5200004577637</v>
       </c>
       <c r="G2125" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60943,7 +60940,7 @@
         <v>20.6399993896484</v>
       </c>
       <c r="G2126" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60969,7 +60966,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G2127" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60995,7 +60992,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2128" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61021,7 +61018,7 @@
         <v>20.7800006866455</v>
       </c>
       <c r="G2129" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61047,7 +61044,7 @@
         <v>20.4200000762939</v>
       </c>
       <c r="G2130" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61073,7 +61070,7 @@
         <v>20.7800006866455</v>
       </c>
       <c r="G2131" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61099,7 +61096,7 @@
         <v>20.6800003051758</v>
       </c>
       <c r="G2132" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61125,7 +61122,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2133" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61151,7 +61148,7 @@
         <v>19.6299991607666</v>
       </c>
       <c r="G2134" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61177,7 +61174,7 @@
         <v>19.3299999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61203,7 +61200,7 @@
         <v>19.2700004577637</v>
       </c>
       <c r="G2136" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61229,7 +61226,7 @@
         <v>19.5</v>
       </c>
       <c r="G2137" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61255,7 +61252,7 @@
         <v>19.5200004577637</v>
       </c>
       <c r="G2138" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61281,7 +61278,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G2139" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61307,7 +61304,7 @@
         <v>19.1299991607666</v>
       </c>
       <c r="G2140" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61333,7 +61330,7 @@
         <v>19.9099998474121</v>
       </c>
       <c r="G2141" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61359,7 +61356,7 @@
         <v>20.1800003051758</v>
       </c>
       <c r="G2142" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61385,7 +61382,7 @@
         <v>20.0400009155273</v>
       </c>
       <c r="G2143" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61411,7 +61408,7 @@
         <v>19.7900009155273</v>
       </c>
       <c r="G2144" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61437,7 +61434,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2145" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61463,7 +61460,7 @@
         <v>20.0599994659424</v>
       </c>
       <c r="G2146" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61489,7 +61486,7 @@
         <v>20.1800003051758</v>
       </c>
       <c r="G2147" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61515,7 +61512,7 @@
         <v>20.0200004577637</v>
       </c>
       <c r="G2148" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61541,7 +61538,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2149" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61567,7 +61564,7 @@
         <v>19.75</v>
       </c>
       <c r="G2150" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61593,7 +61590,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G2151" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61619,7 +61616,7 @@
         <v>18.9300003051758</v>
       </c>
       <c r="G2152" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61645,7 +61642,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61671,7 +61668,7 @@
         <v>19.3899993896484</v>
       </c>
       <c r="G2154" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61697,7 +61694,7 @@
         <v>19.4099998474121</v>
       </c>
       <c r="G2155" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61723,7 +61720,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G2156" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61749,7 +61746,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="G2157" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61775,7 +61772,7 @@
         <v>20.3799991607666</v>
       </c>
       <c r="G2158" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61801,7 +61798,7 @@
         <v>19.8700008392334</v>
       </c>
       <c r="G2159" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61809,7 +61806,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6495138889</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>99724</v>
@@ -61827,9 +61824,35 @@
         <v>19.7399997711182</v>
       </c>
       <c r="G2160" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6493055556</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>68733</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>19.7999992370605</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>19.4799995422363</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>19.7299995422363</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1774">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3060817718506</t>
+    <t xml:space="preserve">17.3060836791992</t>
   </si>
   <si>
     <t xml:space="preserve">IF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9247817993164</t>
+    <t xml:space="preserve">16.924783706665</t>
   </si>
   <si>
     <t xml:space="preserve">16.8509826660156</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">15.9961318969727</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7931823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116340637207</t>
+    <t xml:space="preserve">15.7931842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116321563721</t>
   </si>
   <si>
     <t xml:space="preserve">15.8669843673706</t>
@@ -68,31 +68,31 @@
     <t xml:space="preserve">16.3466835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2335367202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407844543457</t>
+    <t xml:space="preserve">15.2335357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.94078540802</t>
   </si>
   <si>
     <t xml:space="preserve">16.1006832122803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8731336593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9063320159912</t>
+    <t xml:space="preserve">15.8731317520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9063339233398</t>
   </si>
   <si>
     <t xml:space="preserve">16.9309310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5274791717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5336322784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1154308319092</t>
+    <t xml:space="preserve">17.5274829864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5336303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1154327392578</t>
   </si>
   <si>
     <t xml:space="preserve">17.7119827270508</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">16.6849327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4512348175049</t>
+    <t xml:space="preserve">16.4512310028076</t>
   </si>
   <si>
     <t xml:space="preserve">15.9899806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3602352142334</t>
+    <t xml:space="preserve">14.3602342605591</t>
   </si>
   <si>
     <t xml:space="preserve">14.403284072876</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1105346679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1412887573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9838314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.879282951355</t>
+    <t xml:space="preserve">15.1105318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1412830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.202784538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9838352203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8792819976807</t>
   </si>
   <si>
     <t xml:space="preserve">15.7808847427368</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6947841644287</t>
+    <t xml:space="preserve">15.6947832107544</t>
   </si>
   <si>
     <t xml:space="preserve">15.762433052063</t>
@@ -146,16 +146,16 @@
     <t xml:space="preserve">16.9739818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4696826934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2113857269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7218322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6049823760986</t>
+    <t xml:space="preserve">16.4696846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2113819122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.721830368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.60498046875</t>
   </si>
   <si>
     <t xml:space="preserve">16.5434818267822</t>
@@ -164,97 +164,97 @@
     <t xml:space="preserve">17.041633605957</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8079299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4819831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8854322433472</t>
+    <t xml:space="preserve">16.807933807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4819850921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8854331970215</t>
   </si>
   <si>
     <t xml:space="preserve">16.0084342956543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5779342651367</t>
+    <t xml:space="preserve">15.577935218811</t>
   </si>
   <si>
     <t xml:space="preserve">15.9284830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1867847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6972312927246</t>
+    <t xml:space="preserve">16.1867809295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.697229385376</t>
   </si>
   <si>
     <t xml:space="preserve">16.912483215332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5951290130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8534317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6996841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5582332611084</t>
+    <t xml:space="preserve">17.5951309204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8534297943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5582313537598</t>
   </si>
   <si>
     <t xml:space="preserve">17.7242813110352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.749547958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1285419464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.387523651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0527439117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4274005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0148410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1557884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2442226409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3579216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4716205596924</t>
+    <t xml:space="preserve">17.7495460510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1285381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3875217437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0527420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4274024963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0148429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1557903289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2442245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3579196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4716186523438</t>
   </si>
   <si>
     <t xml:space="preserve">17.1936912536621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8020668029785</t>
+    <t xml:space="preserve">16.8020629882812</t>
   </si>
   <si>
     <t xml:space="preserve">16.9662933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7578468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6504669189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9157600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4483337402344</t>
+    <t xml:space="preserve">16.757848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6504650115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9157619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4483375549316</t>
   </si>
   <si>
     <t xml:space="preserve">16.3283214569092</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">16.044075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.081974029541</t>
+    <t xml:space="preserve">16.0819721221924</t>
   </si>
   <si>
     <t xml:space="preserve">16.1704063415527</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">15.7787780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5261173248291</t>
+    <t xml:space="preserve">15.5261154174805</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229232788086</t>
@@ -284,82 +284,82 @@
     <t xml:space="preserve">15.5766487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0334234237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.001841545105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544322967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.414400100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1175231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2754364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0354061126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7258958816528</t>
+    <t xml:space="preserve">15.03342628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0018424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544313430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4144020080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1175241470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2754373550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0354080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7258968353271</t>
   </si>
   <si>
     <t xml:space="preserve">13.8964433670044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9532918930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5806150436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8332786560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9619569778442</t>
+    <t xml:space="preserve">13.953293800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5806140899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8332767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9619617462158</t>
   </si>
   <si>
     <t xml:space="preserve">15.3492527008057</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1597557067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9134101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0271072387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796979904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5912666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6923332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649324417114</t>
+    <t xml:space="preserve">15.1597576141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9134130477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0271081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796960830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5912675857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6923313140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649353027344</t>
   </si>
   <si>
     <t xml:space="preserve">14.2564878463745</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0543584823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8016967773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4227018356323</t>
+    <t xml:space="preserve">14.0543556213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8016958236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.422700881958</t>
   </si>
   <si>
     <t xml:space="preserve">13.258469581604</t>
@@ -368,166 +368,166 @@
     <t xml:space="preserve">13.1068725585938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.765775680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4479675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9153919219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8522272109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2817554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.327953338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1929540634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877006530762</t>
+    <t xml:space="preserve">12.7657775878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4479665756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9153957366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8522291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2817535400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3279523849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1929531097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877035140991</t>
   </si>
   <si>
     <t xml:space="preserve">11.350866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4645662307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4771966934204</t>
+    <t xml:space="preserve">11.4645652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4771995544434</t>
   </si>
   <si>
     <t xml:space="preserve">11.4961500167847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9276571273804</t>
+    <t xml:space="preserve">10.9276580810547</t>
   </si>
   <si>
     <t xml:space="preserve">10.5360307693481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5233964920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7002620697021</t>
+    <t xml:space="preserve">10.5233974456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7002611160278</t>
   </si>
   <si>
     <t xml:space="preserve">10.7381601333618</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9067239761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4057340621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6331300735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562654495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6647129058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3804683685303</t>
+    <t xml:space="preserve">11.9067258834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4057331085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6331281661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562664031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6647138595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.380467414856</t>
   </si>
   <si>
     <t xml:space="preserve">12.6457643508911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3488826751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467533111572</t>
+    <t xml:space="preserve">12.3488836288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467542648315</t>
   </si>
   <si>
     <t xml:space="preserve">11.9446239471436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6603803634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0962219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5573291778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7341957092285</t>
+    <t xml:space="preserve">11.6603784561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0962228775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857936859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5573310852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7341938018799</t>
   </si>
   <si>
     <t xml:space="preserve">12.2225532531738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541370391846</t>
+    <t xml:space="preserve">12.2541351318359</t>
   </si>
   <si>
     <t xml:space="preserve">12.7594623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9110593795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5383815765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.816309928894</t>
+    <t xml:space="preserve">12.911060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5383806228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.816312789917</t>
   </si>
   <si>
     <t xml:space="preserve">12.708930015564</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5952310562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5194330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4120492935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.083589553833</t>
+    <t xml:space="preserve">12.5952272415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5194311141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4120512008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0835886001587</t>
   </si>
   <si>
     <t xml:space="preserve">12.0709562301636</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1404361724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278047561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2036037445068</t>
+    <t xml:space="preserve">12.1404371261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278066635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2036027908325</t>
   </si>
   <si>
     <t xml:space="preserve">12.064640045166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0583229064941</t>
+    <t xml:space="preserve">12.0583219528198</t>
   </si>
   <si>
     <t xml:space="preserve">12.22887134552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.323618888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3046684265137</t>
+    <t xml:space="preserve">12.3236169815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.304669380188</t>
   </si>
   <si>
     <t xml:space="preserve">12.5699644088745</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0121221542358</t>
+    <t xml:space="preserve">13.0121240615845</t>
   </si>
   <si>
     <t xml:space="preserve">13.5427141189575</t>
@@ -536,79 +536,79 @@
     <t xml:space="preserve">13.6311492919922</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1510887145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8605270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489574432373</t>
+    <t xml:space="preserve">13.151086807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8605251312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489593505859</t>
   </si>
   <si>
     <t xml:space="preserve">12.8352613449097</t>
   </si>
   <si>
-    <t xml:space="preserve">12.854208946228</t>
+    <t xml:space="preserve">12.8542108535767</t>
   </si>
   <si>
     <t xml:space="preserve">12.7278776168823</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9426441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2647876739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2205686569214</t>
+    <t xml:space="preserve">12.9426412582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2647867202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.22057056427</t>
   </si>
   <si>
     <t xml:space="preserve">12.8226261138916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6583976745605</t>
+    <t xml:space="preserve">12.6583967208862</t>
   </si>
   <si>
     <t xml:space="preserve">12.6394462585449</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6773433685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8731575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9300079345703</t>
+    <t xml:space="preserve">12.6773462295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8731603622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9300088882446</t>
   </si>
   <si>
     <t xml:space="preserve">13.2268877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6437797546387</t>
+    <t xml:space="preserve">13.643780708313</t>
   </si>
   <si>
     <t xml:space="preserve">14.7744455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0650043487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0965900421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2481889724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3429374694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5892820358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8040447235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9051103591919</t>
+    <t xml:space="preserve">15.0650081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0965881347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2481851577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3429346084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.589282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8040494918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9051122665405</t>
   </si>
   <si>
     <t xml:space="preserve">16.3662185668945</t>
@@ -617,22 +617,22 @@
     <t xml:space="preserve">16.4546508789062</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6125659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7452163696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6441478729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4357013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1830406188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2019901275635</t>
+    <t xml:space="preserve">16.6125640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7452125549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6441497802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4357032775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1830387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2019882202148</t>
   </si>
   <si>
     <t xml:space="preserve">15.9556446075439</t>
@@ -641,82 +641,82 @@
     <t xml:space="preserve">16.0503921508789</t>
   </si>
   <si>
-    <t xml:space="preserve">15.993540763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8166799545288</t>
+    <t xml:space="preserve">15.9935436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8166790008545</t>
   </si>
   <si>
     <t xml:space="preserve">15.4755859375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4629507064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0081577301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0523748397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.944993019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512334823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4965162277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0227756500244</t>
+    <t xml:space="preserve">15.4629516601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0081586837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.052375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9449949264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270353317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4965181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0227746963501</t>
   </si>
   <si>
     <t xml:space="preserve">14.5281000137329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7807626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618131637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102132797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5513868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.696662902832</t>
+    <t xml:space="preserve">14.7807607650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618141174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.551381111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.696665763855</t>
   </si>
   <si>
     <t xml:space="preserve">15.6082324981689</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7914123535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.429386138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1514549255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8229961395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9177484512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588367462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4230670928955</t>
+    <t xml:space="preserve">15.7914113998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4293880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1514568328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8229932785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.917742729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588386535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4230690002441</t>
   </si>
   <si>
     <t xml:space="preserve">16.7388954162598</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">16.9915599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8652286529541</t>
+    <t xml:space="preserve">16.8652305603027</t>
   </si>
   <si>
     <t xml:space="preserve">16.3156871795654</t>
@@ -740,61 +740,61 @@
     <t xml:space="preserve">16.486234664917</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8210105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6757297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5367698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5936183929443</t>
+    <t xml:space="preserve">16.8210124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6757316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5367660522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5936164855957</t>
   </si>
   <si>
     <t xml:space="preserve">16.5746650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3093719482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1072425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9809122085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524486541748</t>
+    <t xml:space="preserve">16.3093681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1072406768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9809083938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524467468262</t>
   </si>
   <si>
     <t xml:space="preserve">15.9745941162109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8545780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8293123245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5494003295898</t>
+    <t xml:space="preserve">15.8545789718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8293113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5494022369385</t>
   </si>
   <si>
     <t xml:space="preserve">16.2335739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1198768615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3599033355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.928394317627</t>
+    <t xml:space="preserve">16.119873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3599014282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9283962249756</t>
   </si>
   <si>
     <t xml:space="preserve">17.4337196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4210872650146</t>
+    <t xml:space="preserve">17.421085357666</t>
   </si>
   <si>
     <t xml:space="preserve">17.6358509063721</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">18.15380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6465015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7917785644531</t>
+    <t xml:space="preserve">18.6464996337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7917823791504</t>
   </si>
   <si>
     <t xml:space="preserve">18.2927722930908</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2675075531006</t>
+    <t xml:space="preserve">18.267505645752</t>
   </si>
   <si>
     <t xml:space="preserve">17.6863822937012</t>
@@ -821,49 +821,49 @@
     <t xml:space="preserve">18.5707015991211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6338653564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0760250091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2276229858398</t>
+    <t xml:space="preserve">18.6338691711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0760269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2276248931885</t>
   </si>
   <si>
     <t xml:space="preserve">19.3476390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7601985931396</t>
+    <t xml:space="preserve">18.7602005004883</t>
   </si>
   <si>
     <t xml:space="preserve">18.8802127838135</t>
   </si>
   <si>
-    <t xml:space="preserve">19.455020904541</t>
+    <t xml:space="preserve">19.4550189971924</t>
   </si>
   <si>
     <t xml:space="preserve">19.7013683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6046333312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5015869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7921466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9879627227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0301952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5690879821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9291324615479</t>
+    <t xml:space="preserve">20.6046352386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5015888214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7921504974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9879665374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0301933288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5690860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9291305541992</t>
   </si>
   <si>
     <t xml:space="preserve">22.8027992248535</t>
@@ -872,58 +872,58 @@
     <t xml:space="preserve">22.7396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7080516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3480072021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.613302230835</t>
+    <t xml:space="preserve">22.7080535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3480110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6133041381836</t>
   </si>
   <si>
     <t xml:space="preserve">22.6954212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9164962768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8975467681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6638355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.21337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5481548309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3586578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2891750335693</t>
+    <t xml:space="preserve">22.9165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8975486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.66383934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2133750915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.548152923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3586540222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.289176940918</t>
   </si>
   <si>
     <t xml:space="preserve">23.1186275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0491485595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4344539642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7376537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4407749176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4893226623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3440437316895</t>
+    <t xml:space="preserve">23.0491504669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.434455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7376575469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4407730102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4893207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3440418243408</t>
   </si>
   <si>
     <t xml:space="preserve">24.1734924316406</t>
@@ -932,28 +932,28 @@
     <t xml:space="preserve">24.4451065063477</t>
   </si>
   <si>
-    <t xml:space="preserve">25.013599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2200012207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8329944610596</t>
+    <t xml:space="preserve">25.0135974884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2199993133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8329963684082</t>
   </si>
   <si>
     <t xml:space="preserve">24.6265888214111</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6074695587158</t>
+    <t xml:space="preserve">23.6074657440186</t>
   </si>
   <si>
     <t xml:space="preserve">22.4980487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2075634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.891508102417</t>
+    <t xml:space="preserve">23.2075614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8915061950684</t>
   </si>
   <si>
     <t xml:space="preserve">22.6915512084961</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">22.7560520172119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.639949798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2209224700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4404582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.491828918457</t>
+    <t xml:space="preserve">22.6399459838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2209243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4404563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4918270111084</t>
   </si>
   <si>
     <t xml:space="preserve">21.9562377929688</t>
@@ -980,43 +980,43 @@
     <t xml:space="preserve">22.5238475799561</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5109462738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5754470825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4464492797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2916450500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.33034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7691841125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5627765655518</t>
+    <t xml:space="preserve">22.5109481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5754508972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4464454650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2916469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3303451538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7691802978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5627784729004</t>
   </si>
   <si>
     <t xml:space="preserve">21.8659362792969</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2658405303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0594387054443</t>
+    <t xml:space="preserve">22.2658443450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.059440612793</t>
   </si>
   <si>
     <t xml:space="preserve">22.1884422302246</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8205528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7625026702881</t>
+    <t xml:space="preserve">22.8205547332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7625007629395</t>
   </si>
   <si>
     <t xml:space="preserve">22.3819465637207</t>
@@ -1025,31 +1025,31 @@
     <t xml:space="preserve">22.6012496948242</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5496463775635</t>
+    <t xml:space="preserve">22.5496482849121</t>
   </si>
   <si>
     <t xml:space="preserve">22.7689514160156</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4786949157715</t>
+    <t xml:space="preserve">22.4786930084229</t>
   </si>
   <si>
     <t xml:space="preserve">22.1561889648438</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0465393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9949340820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5303001403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7302532196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7044544219971</t>
+    <t xml:space="preserve">22.046537399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9949359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5302963256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7302551269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7044525146484</t>
   </si>
   <si>
     <t xml:space="preserve">22.9431056976318</t>
@@ -1058,10 +1058,10 @@
     <t xml:space="preserve">23.0205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1043586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0140590667725</t>
+    <t xml:space="preserve">23.1043605804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0140571594238</t>
   </si>
   <si>
     <t xml:space="preserve">23.2204608917236</t>
@@ -1073,58 +1073,58 @@
     <t xml:space="preserve">23.4139652252197</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7042198181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9170742034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7880725860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622737884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8009777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0138282775879</t>
+    <t xml:space="preserve">23.7042217254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9170761108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7880764007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622699737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8009757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0138263702393</t>
   </si>
   <si>
     <t xml:space="preserve">24.2847347259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9299736022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7039909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1877517700195</t>
+    <t xml:space="preserve">23.9299755096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7039890289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1877498626709</t>
   </si>
   <si>
     <t xml:space="preserve">24.8974933624268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2587032318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0265007019043</t>
+    <t xml:space="preserve">25.2587013244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.026496887207</t>
   </si>
   <si>
     <t xml:space="preserve">25.6070079803467</t>
   </si>
   <si>
-    <t xml:space="preserve">25.832763671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.142370223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4003772735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6906318664551</t>
+    <t xml:space="preserve">25.8327655792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1423645019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4003715515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6906299591064</t>
   </si>
   <si>
     <t xml:space="preserve">26.2520217895508</t>
@@ -1133,205 +1133,205 @@
     <t xml:space="preserve">26.5035762786865</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4455261230469</t>
+    <t xml:space="preserve">26.4455299377441</t>
   </si>
   <si>
     <t xml:space="preserve">25.8908157348633</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9166145324707</t>
+    <t xml:space="preserve">25.9166164398193</t>
   </si>
   <si>
     <t xml:space="preserve">26.5680770874023</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7809295654297</t>
+    <t xml:space="preserve">26.7809314727783</t>
   </si>
   <si>
     <t xml:space="preserve">26.7293338775635</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2326736450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4326286315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2133197784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1939735412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3616714477539</t>
+    <t xml:space="preserve">26.2326698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4326248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.213321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1939716339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3616752624512</t>
   </si>
   <si>
     <t xml:space="preserve">26.1617202758789</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9940185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4199562072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0714206695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.284273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5745277404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9808864593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7680320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4842281341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2066402435303</t>
+    <t xml:space="preserve">25.9940166473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4199542999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0714168548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2842750549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.980884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7680339813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4842262268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2066440582275</t>
   </si>
   <si>
     <t xml:space="preserve">27.1743907928467</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9357376098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1614894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5678482055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2709121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.277364730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7675685882568</t>
+    <t xml:space="preserve">26.9357357025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.161491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.567850112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2709140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2773590087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7675743103027</t>
   </si>
   <si>
     <t xml:space="preserve">29.1352291107178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.012674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2384338378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7353248596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2513332366943</t>
+    <t xml:space="preserve">29.0126781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.238431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7353191375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513294219971</t>
   </si>
   <si>
     <t xml:space="preserve">29.4964351654053</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8382911682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5220108032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.863862991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0186672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.580286026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5155620574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3411712646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023849487305</t>
+    <t xml:space="preserve">29.8382930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5220031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8638648986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0186653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5802898406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5155582427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3411750793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023830413818</t>
   </si>
   <si>
     <t xml:space="preserve">31.7733306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5153274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8509635925293</t>
+    <t xml:space="preserve">31.5153331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8509654998779</t>
   </si>
   <si>
     <t xml:space="preserve">29.6125373840332</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1739311218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9285945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.296480178833</t>
+    <t xml:space="preserve">29.1739330291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.928596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2964878082275</t>
   </si>
   <si>
     <t xml:space="preserve">30.2833499908447</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3865566253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4252510070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6187610626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1476707458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3156051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3543033599854</t>
+    <t xml:space="preserve">30.3865509033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4252529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1476726531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3156070709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.354305267334</t>
   </si>
   <si>
     <t xml:space="preserve">30.1930522918701</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2446575164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7802429199219</t>
+    <t xml:space="preserve">30.2446517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7802448272705</t>
   </si>
   <si>
     <t xml:space="preserve">29.489990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">28.928825378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224704742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0518360137939</t>
+    <t xml:space="preserve">28.9288272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0518379211426</t>
   </si>
   <si>
     <t xml:space="preserve">26.2778224945068</t>
   </si>
   <si>
-    <t xml:space="preserve">25.239351272583</t>
+    <t xml:space="preserve">25.2393531799316</t>
   </si>
   <si>
     <t xml:space="preserve">25.1038990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9553146362305</t>
+    <t xml:space="preserve">25.9553184509277</t>
   </si>
   <si>
     <t xml:space="preserve">24.9813480377197</t>
@@ -1340,37 +1340,37 @@
     <t xml:space="preserve">24.9942474365234</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5427379608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.175085067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9361972808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6394920349121</t>
+    <t xml:space="preserve">24.5427360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1750774383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9361953735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6394901275635</t>
   </si>
   <si>
     <t xml:space="preserve">24.8652458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0651969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4524383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6977729797363</t>
+    <t xml:space="preserve">25.0651988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4524345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6977710723877</t>
   </si>
   <si>
     <t xml:space="preserve">23.6655216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.89772605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0009269714355</t>
+    <t xml:space="preserve">23.8977222442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0009250640869</t>
   </si>
   <si>
     <t xml:space="preserve">23.5881195068359</t>
@@ -1379,22 +1379,22 @@
     <t xml:space="preserve">22.9882583618164</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5365200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7104454040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3043155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2140102386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1559619903564</t>
+    <t xml:space="preserve">23.5365180969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589752197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104415893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.304313659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2140140533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1559638977051</t>
   </si>
   <si>
     <t xml:space="preserve">23.8783760070801</t>
@@ -1403,43 +1403,43 @@
     <t xml:space="preserve">24.9684467315674</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2971725463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3425540924072</t>
+    <t xml:space="preserve">26.2971744537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425559997559</t>
   </si>
   <si>
     <t xml:space="preserve">25.6715106964111</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1230182647705</t>
+    <t xml:space="preserve">26.1230201721191</t>
   </si>
   <si>
     <t xml:space="preserve">26.1359195709229</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7876148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8650150299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.574987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3232040405273</t>
+    <t xml:space="preserve">25.7876110076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8650131225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5749855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3232002258301</t>
   </si>
   <si>
     <t xml:space="preserve">25.4651069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1426010131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3490028381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2458019256592</t>
+    <t xml:space="preserve">25.142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3490047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2458057403564</t>
   </si>
   <si>
     <t xml:space="preserve">25.0522975921631</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">24.7684936523438</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7426910400391</t>
+    <t xml:space="preserve">24.7426948547363</t>
   </si>
   <si>
     <t xml:space="preserve">24.4975872039795</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">25.2329025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">24.691089630127</t>
+    <t xml:space="preserve">24.6910915374756</t>
   </si>
   <si>
     <t xml:space="preserve">24.278284072876</t>
@@ -1469,64 +1469,64 @@
     <t xml:space="preserve">22.8076553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.388162612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6079292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3628273010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8463535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.272066116333</t>
+    <t xml:space="preserve">23.3881664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6079273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3628234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8463554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2720642089844</t>
   </si>
   <si>
     <t xml:space="preserve">23.0011558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5042667388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4913673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4526691436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.401065826416</t>
+    <t xml:space="preserve">23.504264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4913654327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4526653289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4010639190674</t>
   </si>
   <si>
     <t xml:space="preserve">23.5300674438477</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1430625915527</t>
+    <t xml:space="preserve">23.1430606842041</t>
   </si>
   <si>
     <t xml:space="preserve">22.8721542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7431507110596</t>
+    <t xml:space="preserve">22.7431526184082</t>
   </si>
   <si>
     <t xml:space="preserve">22.0078372955322</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2596206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9113121032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2854232788086</t>
+    <t xml:space="preserve">21.2596244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9113159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.28542137146</t>
   </si>
   <si>
     <t xml:space="preserve">21.0016193389893</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9887180328369</t>
+    <t xml:space="preserve">20.9887161254883</t>
   </si>
   <si>
     <t xml:space="preserve">22.0723419189453</t>
@@ -1538,34 +1538,34 @@
     <t xml:space="preserve">20.7178115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1760005950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3695030212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3757266998291</t>
+    <t xml:space="preserve">20.1760025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3695049285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3757247924805</t>
   </si>
   <si>
     <t xml:space="preserve">21.182222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8855171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1502017974854</t>
+    <t xml:space="preserve">20.8855133056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1501979827881</t>
   </si>
   <si>
     <t xml:space="preserve">19.0923805236816</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5630073547363</t>
+    <t xml:space="preserve">20.563009262085</t>
   </si>
   <si>
     <t xml:space="preserve">19.7502937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5888080596924</t>
+    <t xml:space="preserve">20.5888118743896</t>
   </si>
   <si>
     <t xml:space="preserve">21.027416229248</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">21.1951217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3499221801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1626434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6982326507568</t>
+    <t xml:space="preserve">21.3499240875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1626396179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6982307434082</t>
   </si>
   <si>
     <t xml:space="preserve">21.5305290222168</t>
@@ -1589,22 +1589,22 @@
     <t xml:space="preserve">21.7885341644287</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6595306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2749500274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2882556915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0487613677979</t>
+    <t xml:space="preserve">21.6595325469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2749519348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.288257598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0487651824951</t>
   </si>
   <si>
     <t xml:space="preserve">20.9955425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0753765106201</t>
+    <t xml:space="preserve">21.0753746032715</t>
   </si>
   <si>
     <t xml:space="preserve">21.7539386749268</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">21.9668197631836</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2861442565918</t>
+    <t xml:space="preserve">22.2861423492432</t>
   </si>
   <si>
     <t xml:space="preserve">22.4724159240723</t>
@@ -1625,19 +1625,19 @@
     <t xml:space="preserve">22.4058895111084</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0200424194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4878349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3813934326172</t>
+    <t xml:space="preserve">22.0200386047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4878330230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3813896179199</t>
   </si>
   <si>
     <t xml:space="preserve">21.6075820922852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6874084472656</t>
+    <t xml:space="preserve">21.6874103546143</t>
   </si>
   <si>
     <t xml:space="preserve">20.8491859436035</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">20.1573181152344</t>
   </si>
   <si>
-    <t xml:space="preserve">19.146125793457</t>
+    <t xml:space="preserve">19.1461277008057</t>
   </si>
   <si>
     <t xml:space="preserve">18.78688621521</t>
@@ -1655,22 +1655,22 @@
     <t xml:space="preserve">18.9465484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">18.560697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1615428924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1636562347412</t>
+    <t xml:space="preserve">18.5606994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1615447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1636581420898</t>
   </si>
   <si>
     <t xml:space="preserve">15.5803422927856</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1699962615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5271234512329</t>
+    <t xml:space="preserve">14.1699953079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5271215438843</t>
   </si>
   <si>
     <t xml:space="preserve">15.6468687057495</t>
@@ -1682,97 +1682,97 @@
     <t xml:space="preserve">17.0306053161621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5117053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6580638885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3121280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1657695770264</t>
+    <t xml:space="preserve">16.5117034912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6580619812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.312126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.165771484375</t>
   </si>
   <si>
     <t xml:space="preserve">16.8177242279053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7623901367188</t>
+    <t xml:space="preserve">17.7623882293701</t>
   </si>
   <si>
     <t xml:space="preserve">18.2546806335449</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2280673980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.682559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4675636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9598541259766</t>
+    <t xml:space="preserve">18.2280693054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6825580596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4675617218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9598522186279</t>
   </si>
   <si>
     <t xml:space="preserve">18.4010391235352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5873126983643</t>
+    <t xml:space="preserve">18.5873107910156</t>
   </si>
   <si>
     <t xml:space="preserve">18.2812900543213</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5628128051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0039920806885</t>
+    <t xml:space="preserve">17.5628108978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0039958953857</t>
   </si>
   <si>
     <t xml:space="preserve">17.1237411499023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1503505706787</t>
+    <t xml:space="preserve">17.1503524780273</t>
   </si>
   <si>
     <t xml:space="preserve">17.2035732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1769618988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3632335662842</t>
+    <t xml:space="preserve">17.1769599914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3632373809814</t>
   </si>
   <si>
     <t xml:space="preserve">17.6426429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0417995452881</t>
+    <t xml:space="preserve">18.0417976379395</t>
   </si>
   <si>
     <t xml:space="preserve">18.2413749694824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8954391479492</t>
+    <t xml:space="preserve">17.8954410552979</t>
   </si>
   <si>
     <t xml:space="preserve">17.4962844848633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5894222259521</t>
+    <t xml:space="preserve">17.5894241333008</t>
   </si>
   <si>
     <t xml:space="preserve">17.4031505584717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3345108032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6272258758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.908748626709</t>
+    <t xml:space="preserve">18.334508895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6272239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9087467193604</t>
   </si>
   <si>
     <t xml:space="preserve">17.6559467315674</t>
@@ -1787,37 +1787,37 @@
     <t xml:space="preserve">17.828914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8975563049316</t>
+    <t xml:space="preserve">16.8975524902344</t>
   </si>
   <si>
     <t xml:space="preserve">17.097131729126</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0992450714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7022037506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0481376647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0082216262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949178695679</t>
+    <t xml:space="preserve">16.0992431640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7022018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0481367111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0082206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949159622192</t>
   </si>
   <si>
     <t xml:space="preserve">14.6090669631958</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429641723633</t>
+    <t xml:space="preserve">14.3429613113403</t>
   </si>
   <si>
     <t xml:space="preserve">13.7575368881226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6111783981323</t>
+    <t xml:space="preserve">13.6111793518066</t>
   </si>
   <si>
     <t xml:space="preserve">13.7309255599976</t>
@@ -1826,103 +1826,103 @@
     <t xml:space="preserve">13.6910104751587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5824565887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0635547637939</t>
+    <t xml:space="preserve">14.5824537277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0635538101196</t>
   </si>
   <si>
     <t xml:space="preserve">14.2631330490112</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2099132537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.396183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5712642669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5180425643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4781284332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0369453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159292221069</t>
+    <t xml:space="preserve">14.2099142074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3961839675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5712623596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5180435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4781274795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0369434356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159301757812</t>
   </si>
   <si>
     <t xml:space="preserve">15.0215253829956</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8751678466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6888961791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2743225097656</t>
+    <t xml:space="preserve">14.875171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6888980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2743244171143</t>
   </si>
   <si>
     <t xml:space="preserve">14.928391456604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348310470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.648983001709</t>
+    <t xml:space="preserve">15.0348339080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6489839553833</t>
   </si>
   <si>
     <t xml:space="preserve">14.675591468811</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8485612869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4605960845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.859751701355</t>
+    <t xml:space="preserve">14.8485565185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.460597038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8597507476807</t>
   </si>
   <si>
     <t xml:space="preserve">15.8331413269043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.686785697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730573654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7288112640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9060068130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9480333328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4270210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7663011550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1721076965332</t>
+    <t xml:space="preserve">15.6867866516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730564117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.728814125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.906005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.948034286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.427020072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663021087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721096038818</t>
   </si>
   <si>
     <t xml:space="preserve">12.9791841506958</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3426485061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6420154571533</t>
+    <t xml:space="preserve">11.3426475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6420164108276</t>
   </si>
   <si>
     <t xml:space="preserve">11.2561664581299</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">11.5422277450562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.910231590271</t>
+    <t xml:space="preserve">10.9102306365967</t>
   </si>
   <si>
     <t xml:space="preserve">10.8836212158203</t>
@@ -1949,16 +1949,16 @@
     <t xml:space="preserve">10.4844655990601</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60632610321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21382331848145</t>
+    <t xml:space="preserve">9.60632514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21382427215576</t>
   </si>
   <si>
     <t xml:space="preserve">9.04085636138916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31361293792725</t>
+    <t xml:space="preserve">9.31361198425293</t>
   </si>
   <si>
     <t xml:space="preserve">9.34687614440918</t>
@@ -1970,40 +1970,40 @@
     <t xml:space="preserve">9.9655647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3381099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6441278457642</t>
+    <t xml:space="preserve">10.3381090164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6441287994385</t>
   </si>
   <si>
     <t xml:space="preserve">11.2362079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8703165054321</t>
+    <t xml:space="preserve">10.8703155517578</t>
   </si>
   <si>
     <t xml:space="preserve">10.0320911407471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1385316848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.699462890625</t>
+    <t xml:space="preserve">10.1385335922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69946193695068</t>
   </si>
   <si>
     <t xml:space="preserve">10.038743019104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1717958450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2981948852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.544340133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.431245803833</t>
+    <t xml:space="preserve">10.1717948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2981939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5443391799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4312467575073</t>
   </si>
   <si>
     <t xml:space="preserve">10.3979835510254</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">10.5709505081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243806838989</t>
+    <t xml:space="preserve">10.5243825912476</t>
   </si>
   <si>
     <t xml:space="preserve">11.9214239120483</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">12.2474002838135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9946031570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7529973983765</t>
+    <t xml:space="preserve">11.9946022033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7529964447021</t>
   </si>
   <si>
     <t xml:space="preserve">12.4336729049683</t>
@@ -2036,40 +2036,40 @@
     <t xml:space="preserve">12.1076965332031</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0611276626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.562183380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9081182479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3692598342896</t>
+    <t xml:space="preserve">12.061128616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5621843338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9081192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3692588806152</t>
   </si>
   <si>
     <t xml:space="preserve">11.8083295822144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3093881607056</t>
+    <t xml:space="preserve">11.3093872070312</t>
   </si>
   <si>
     <t xml:space="preserve">11.7018890380859</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2074842453003</t>
+    <t xml:space="preserve">12.2074861526489</t>
   </si>
   <si>
     <t xml:space="preserve">12.1010437011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9413814544678</t>
+    <t xml:space="preserve">11.9413833618164</t>
   </si>
   <si>
     <t xml:space="preserve">11.4091749191284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7904834747314</t>
+    <t xml:space="preserve">10.7904844284058</t>
   </si>
   <si>
     <t xml:space="preserve">10.657434463501</t>
@@ -2078,43 +2078,43 @@
     <t xml:space="preserve">10.3048477172852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853128433228</t>
+    <t xml:space="preserve">10.0853118896484</t>
   </si>
   <si>
     <t xml:space="preserve">9.93895530700684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2715845108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2782354354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9368419647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4424390792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8815078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.60875415802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6819314956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6353616714478</t>
+    <t xml:space="preserve">10.2715835571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2782363891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9368410110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4424381256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8815088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6087522506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6819295883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6353626251221</t>
   </si>
   <si>
     <t xml:space="preserve">11.6021003723145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0233249664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5842552185059</t>
+    <t xml:space="preserve">11.0233268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5842542648315</t>
   </si>
   <si>
     <t xml:space="preserve">11.1098098754883</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">11.2495136260986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5089635848999</t>
+    <t xml:space="preserve">11.5089645385742</t>
   </si>
   <si>
     <t xml:space="preserve">11.4025220870972</t>
@@ -2132,19 +2132,19 @@
     <t xml:space="preserve">10.9834098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.963451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3027334213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.475700378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5821437835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1630296707153</t>
+    <t xml:space="preserve">10.9634523391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4757013320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5821418762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1630306243896</t>
   </si>
   <si>
     <t xml:space="preserve">11.0299777984619</t>
@@ -2153,55 +2153,55 @@
     <t xml:space="preserve">11.1364192962646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3759126663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0698938369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108655929565</t>
+    <t xml:space="preserve">11.3759136199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0698928833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6108646392822</t>
   </si>
   <si>
     <t xml:space="preserve">12.200831413269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9038934707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2319812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5068492889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9613389968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7684135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6686267852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6220569610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1164617538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825664520264</t>
+    <t xml:space="preserve">13.9038915634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2319831848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5068502426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9613380432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7684144973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.668625831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6220579147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1164608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825654983521</t>
   </si>
   <si>
     <t xml:space="preserve">12.0278663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1343069076538</t>
+    <t xml:space="preserve">12.1343059539795</t>
   </si>
   <si>
     <t xml:space="preserve">12.2207908630371</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6265964508057</t>
+    <t xml:space="preserve">12.62659740448</t>
   </si>
   <si>
     <t xml:space="preserve">12.0677795410156</t>
@@ -2213,10 +2213,10 @@
     <t xml:space="preserve">10.291543006897</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451854705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187854766846</t>
+    <t xml:space="preserve">10.1451845169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187864303589</t>
   </si>
   <si>
     <t xml:space="preserve">9.99217510223389</t>
@@ -2231,25 +2231,25 @@
     <t xml:space="preserve">9.87242889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8458194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72607326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7859468460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9788703918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89904022216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1651430130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445524215698</t>
+    <t xml:space="preserve">9.84581756591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72607231140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78594589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97887134552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89903926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1651439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445505142212</t>
   </si>
   <si>
     <t xml:space="preserve">10.4245929718018</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">10.4046354293823</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3248043060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.597559928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6507816314697</t>
+    <t xml:space="preserve">10.3248052597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975608825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6507806777954</t>
   </si>
   <si>
     <t xml:space="preserve">10.6840438842773</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">10.8104429244995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2869548797607</t>
+    <t xml:space="preserve">11.2869558334351</t>
   </si>
   <si>
     <t xml:space="preserve">10.9313497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6184158325195</t>
+    <t xml:space="preserve">10.6184148788452</t>
   </si>
   <si>
     <t xml:space="preserve">10.6966495513916</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">10.1347894668579</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94987487792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60849189758301</t>
+    <t xml:space="preserve">9.94987392425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60849285125732</t>
   </si>
   <si>
     <t xml:space="preserve">9.37379169464111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10353183746338</t>
+    <t xml:space="preserve">9.10353088378906</t>
   </si>
   <si>
     <t xml:space="preserve">8.64835357666016</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">9.21021270751953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14620304107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87594223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66257953643799</t>
+    <t xml:space="preserve">9.14620399475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87594127655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66257858276367</t>
   </si>
   <si>
     <t xml:space="preserve">8.69813919067383</t>
@@ -2324,13 +2324,13 @@
     <t xml:space="preserve">8.60568237304688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32119560241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49188804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34964561462402</t>
+    <t xml:space="preserve">8.32119655609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49188709259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34964466094971</t>
   </si>
   <si>
     <t xml:space="preserve">8.29274749755859</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">8.250075340271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10783195495605</t>
+    <t xml:space="preserve">8.10783100128174</t>
   </si>
   <si>
     <t xml:space="preserve">8.0438232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42787933349609</t>
+    <t xml:space="preserve">8.42787742614746</t>
   </si>
   <si>
     <t xml:space="preserve">8.0580472946167</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">7.96558952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0153751373291</t>
+    <t xml:space="preserve">8.01537418365479</t>
   </si>
   <si>
     <t xml:space="preserve">8.27141189575195</t>
@@ -2366,52 +2366,52 @@
     <t xml:space="preserve">8.02248573303223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97981357574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15761756896973</t>
+    <t xml:space="preserve">7.97981405258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15761661529541</t>
   </si>
   <si>
     <t xml:space="preserve">8.47766208648682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83327007293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62701797485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47055053710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30697154998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54167175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57723331451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44210243225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7905969619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99684810638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57293128967285</t>
+    <t xml:space="preserve">8.8332691192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62701892852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47055149078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30697250366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.541672706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57723236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44210147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79059600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99684906005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57293224334717</t>
   </si>
   <si>
     <t xml:space="preserve">9.51603412628174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56581878662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6725025177002</t>
+    <t xml:space="preserve">9.56581974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67250156402588</t>
   </si>
   <si>
     <t xml:space="preserve">9.43780136108398</t>
@@ -2420,31 +2420,31 @@
     <t xml:space="preserve">9.43068981170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33823108673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40935230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85030460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83608150482178</t>
+    <t xml:space="preserve">9.33823013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40935134887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85030555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83608055114746</t>
   </si>
   <si>
     <t xml:space="preserve">9.8289680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62271785736084</t>
+    <t xml:space="preserve">9.62271690368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.48758602142334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70806121826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71517372131348</t>
+    <t xml:space="preserve">9.70806217193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71517467498779</t>
   </si>
   <si>
     <t xml:space="preserve">9.58004379272461</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">9.39512920379639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92853832244873</t>
+    <t xml:space="preserve">9.92853927612305</t>
   </si>
   <si>
     <t xml:space="preserve">9.80763149261475</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">9.77207088470459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0352191925049</t>
+    <t xml:space="preserve">10.0352201461792</t>
   </si>
   <si>
     <t xml:space="preserve">9.3311185836792</t>
@@ -2483,34 +2483,34 @@
     <t xml:space="preserve">8.91861534118652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65546703338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08930492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1675386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2742223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20310115814209</t>
+    <t xml:space="preserve">8.65546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08930683135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16754055023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27422142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20310020446777</t>
   </si>
   <si>
     <t xml:space="preserve">9.11064338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06085777282715</t>
+    <t xml:space="preserve">9.06085872650146</t>
   </si>
   <si>
     <t xml:space="preserve">9.41646385192871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64405345916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92142486572266</t>
+    <t xml:space="preserve">9.64405250549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92142677307129</t>
   </si>
   <si>
     <t xml:space="preserve">10.0423316955566</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">10.3837156295776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4548358917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5117330551147</t>
+    <t xml:space="preserve">10.4548349380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5117340087891</t>
   </si>
   <si>
     <t xml:space="preserve">10.5401811599731</t>
@@ -2537,37 +2537,37 @@
     <t xml:space="preserve">10.6610879898071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9029006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9100141525269</t>
+    <t xml:space="preserve">10.9028997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9100122451782</t>
   </si>
   <si>
     <t xml:space="preserve">10.703761100769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8815641403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8957872390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6397523880005</t>
+    <t xml:space="preserve">10.8815650939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.895788192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6397514343262</t>
   </si>
   <si>
     <t xml:space="preserve">10.5330696105957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6326398849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8886756896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753129959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4690599441528</t>
+    <t xml:space="preserve">10.6326389312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8886766433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.675311088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4690608978271</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343597412109</t>
@@ -2579,10 +2579,10 @@
     <t xml:space="preserve">10.3766031265259</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0067720413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3054809570312</t>
+    <t xml:space="preserve">10.0067729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3054819107056</t>
   </si>
   <si>
     <t xml:space="preserve">10.4761724472046</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">10.7677707672119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7108745574951</t>
+    <t xml:space="preserve">10.7108736038208</t>
   </si>
   <si>
     <t xml:space="preserve">10.7393217086792</t>
@@ -2606,46 +2606,46 @@
     <t xml:space="preserve">10.9953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9384603500366</t>
+    <t xml:space="preserve">10.9384613037109</t>
   </si>
   <si>
     <t xml:space="preserve">10.7464332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8673400878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9811344146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2442827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3908262252808</t>
+    <t xml:space="preserve">10.8673410415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9811334609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2442836761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3908271789551</t>
   </si>
   <si>
     <t xml:space="preserve">10.8104419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8531169891357</t>
+    <t xml:space="preserve">10.8531160354614</t>
   </si>
   <si>
     <t xml:space="preserve">11.208722114563</t>
   </si>
   <si>
-    <t xml:space="preserve">11.258508682251</t>
+    <t xml:space="preserve">11.2585077285767</t>
   </si>
   <si>
     <t xml:space="preserve">10.5828542709351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3552675247192</t>
+    <t xml:space="preserve">10.3552665710449</t>
   </si>
   <si>
     <t xml:space="preserve">10.2770328521729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1632394790649</t>
+    <t xml:space="preserve">10.1632385253906</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063413619995</t>
@@ -2654,46 +2654,46 @@
     <t xml:space="preserve">9.96409893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98543548583984</t>
+    <t xml:space="preserve">9.98543643951416</t>
   </si>
   <si>
     <t xml:space="preserve">9.87164115905762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94276237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81474494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63694000244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72939872741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65827751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47336101531982</t>
+    <t xml:space="preserve">9.94276332855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81474304199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63694095611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72939777374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65827655792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47336196899414</t>
   </si>
   <si>
     <t xml:space="preserve">9.42357635498047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54448413848877</t>
+    <t xml:space="preserve">9.54448318481445</t>
   </si>
   <si>
     <t xml:space="preserve">9.75073528289795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75784778594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69383811950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74362277984619</t>
+    <t xml:space="preserve">9.75784683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69383716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74362182617188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1703510284424</t>
@@ -2702,16 +2702,16 @@
     <t xml:space="preserve">9.95698642730713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0565567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1561260223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0707807540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.049446105957</t>
+    <t xml:space="preserve">10.0565576553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1561269760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0707817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0494441986084</t>
   </si>
   <si>
     <t xml:space="preserve">10.191686630249</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">9.99965953826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82185649871826</t>
+    <t xml:space="preserve">9.82185554504395</t>
   </si>
   <si>
     <t xml:space="preserve">10.1205654144287</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">10.5472936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5259580612183</t>
+    <t xml:space="preserve">10.5259571075439</t>
   </si>
   <si>
     <t xml:space="preserve">10.4619483947754</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">10.4832849502563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2556962966919</t>
+    <t xml:space="preserve">10.2556972503662</t>
   </si>
   <si>
     <t xml:space="preserve">10.2272481918335</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">10.4192743301392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1987991333008</t>
+    <t xml:space="preserve">10.1987981796265</t>
   </si>
   <si>
     <t xml:space="preserve">10.5899667739868</t>
@@ -2759,19 +2759,19 @@
     <t xml:space="preserve">10.6681995391846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7819938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1447143554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.137601852417</t>
+    <t xml:space="preserve">10.7819948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1447134017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1376008987427</t>
   </si>
   <si>
     <t xml:space="preserve">11.0735912322998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1518249511719</t>
+    <t xml:space="preserve">11.1518268585205</t>
   </si>
   <si>
     <t xml:space="preserve">11.0024709701538</t>
@@ -2780,67 +2780,67 @@
     <t xml:space="preserve">11.1589374542236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2841463088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5046215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77918434143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24577331542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69102764129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56731128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27571201324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25437688827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734092712402</t>
+    <t xml:space="preserve">10.2841453552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.504620552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77918338775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.245774269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6910285949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56730985641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27571153640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25437498092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734140396118</t>
   </si>
   <si>
     <t xml:space="preserve">6.52893877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17333221435547</t>
+    <t xml:space="preserve">6.17333126068115</t>
   </si>
   <si>
     <t xml:space="preserve">5.98841619491577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00264024734497</t>
+    <t xml:space="preserve">6.00264072418213</t>
   </si>
   <si>
     <t xml:space="preserve">5.98130464553833</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32979869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12710237503052</t>
+    <t xml:space="preserve">6.32979822158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12710285186768</t>
   </si>
   <si>
     <t xml:space="preserve">6.42225646972656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45426082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5787239074707</t>
+    <t xml:space="preserve">6.454261302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57872343063354</t>
   </si>
   <si>
     <t xml:space="preserve">6.49693441390991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22667264938354</t>
+    <t xml:space="preserve">6.22667360305786</t>
   </si>
   <si>
     <t xml:space="preserve">6.36535930633545</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">6.35824680328369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41870021820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56449890136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53960657119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57161140441895</t>
+    <t xml:space="preserve">6.41870069503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56449842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53960704803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57161092758179</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514492034912</t>
@@ -2873,28 +2873,28 @@
     <t xml:space="preserve">6.28356981277466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34402275085449</t>
+    <t xml:space="preserve">6.34402322769165</t>
   </si>
   <si>
     <t xml:space="preserve">6.35113525390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04531335830688</t>
+    <t xml:space="preserve">6.04531383514404</t>
   </si>
   <si>
     <t xml:space="preserve">5.92085075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06664943695068</t>
+    <t xml:space="preserve">6.06664991378784</t>
   </si>
   <si>
     <t xml:space="preserve">6.39380788803101</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52182626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34757947921753</t>
+    <t xml:space="preserve">6.52182674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34757900238037</t>
   </si>
   <si>
     <t xml:space="preserve">6.11643505096436</t>
@@ -2903,13 +2903,13 @@
     <t xml:space="preserve">6.18044376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14132690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01686525344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11287927627563</t>
+    <t xml:space="preserve">6.14132738113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01686573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11287879943848</t>
   </si>
   <si>
     <t xml:space="preserve">6.02753305435181</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">5.85684156417847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74660396575928</t>
+    <t xml:space="preserve">5.74660348892212</t>
   </si>
   <si>
     <t xml:space="preserve">5.71104288101196</t>
@@ -2930,13 +2930,13 @@
     <t xml:space="preserve">5.68970680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44078207015991</t>
+    <t xml:space="preserve">5.44078254699707</t>
   </si>
   <si>
     <t xml:space="preserve">5.29142713546753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17763376235962</t>
+    <t xml:space="preserve">5.17763328552246</t>
   </si>
   <si>
     <t xml:space="preserve">5.19185781478882</t>
@@ -2945,40 +2945,40 @@
     <t xml:space="preserve">5.47634315490723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8675103187561</t>
+    <t xml:space="preserve">5.69681882858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86750984191895</t>
   </si>
   <si>
     <t xml:space="preserve">5.97063636779785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89951515197754</t>
+    <t xml:space="preserve">5.89951467514038</t>
   </si>
   <si>
     <t xml:space="preserve">5.93863201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2977933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53604984283447</t>
+    <t xml:space="preserve">6.29779434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53605079650879</t>
   </si>
   <si>
     <t xml:space="preserve">6.87743330001831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3681697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91299390792847</t>
+    <t xml:space="preserve">7.36817121505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91299438476562</t>
   </si>
   <si>
     <t xml:space="preserve">6.69962978363037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24089670181274</t>
+    <t xml:space="preserve">6.24089622497559</t>
   </si>
   <si>
     <t xml:space="preserve">6.19466876983643</t>
@@ -2987,22 +2987,22 @@
     <t xml:space="preserve">6.36180305480957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46492958068848</t>
+    <t xml:space="preserve">6.46492910385132</t>
   </si>
   <si>
     <t xml:space="preserve">6.40091991424561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30490589141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14488363265991</t>
+    <t xml:space="preserve">6.30490636825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14488410949707</t>
   </si>
   <si>
     <t xml:space="preserve">6.0879864692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9350757598877</t>
+    <t xml:space="preserve">5.93507528305054</t>
   </si>
   <si>
     <t xml:space="preserve">5.84617376327515</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">5.91018295288086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04175806045532</t>
+    <t xml:space="preserve">6.04175758361816</t>
   </si>
   <si>
     <t xml:space="preserve">6.0808744430542</t>
@@ -3020,40 +3020,40 @@
     <t xml:space="preserve">6.0630931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20889186859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32624340057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4507040977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37958383560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48270988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4613733291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8489842414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98055791854858</t>
+    <t xml:space="preserve">6.20889234542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32624292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45070505142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37958431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4827094078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46137380599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84898519515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98055839538574</t>
   </si>
   <si>
     <t xml:space="preserve">7.03745651245117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81342458724976</t>
+    <t xml:space="preserve">6.8134241104126</t>
   </si>
   <si>
     <t xml:space="preserve">6.66406917572021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50760221481323</t>
+    <t xml:space="preserve">6.50760126113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.35469150543213</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">6.16621971130371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16266345977783</t>
+    <t xml:space="preserve">6.16266298294067</t>
   </si>
   <si>
     <t xml:space="preserve">6.38669586181641</t>
@@ -3071,37 +3071,37 @@
     <t xml:space="preserve">6.39736413955688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25156545639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52538251876831</t>
+    <t xml:space="preserve">6.25156497955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52538299560547</t>
   </si>
   <si>
     <t xml:space="preserve">6.50049018859863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53249502182007</t>
+    <t xml:space="preserve">6.53249454498291</t>
   </si>
   <si>
     <t xml:space="preserve">6.40447616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37247133255005</t>
+    <t xml:space="preserve">6.37247180938721</t>
   </si>
   <si>
     <t xml:space="preserve">6.48626565933228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30846214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32268714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37602758407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20177984237671</t>
+    <t xml:space="preserve">6.30846261978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32268667221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37602806091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20178079605103</t>
   </si>
   <si>
     <t xml:space="preserve">6.14843988418579</t>
@@ -3110,28 +3110,28 @@
     <t xml:space="preserve">6.13777112960815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27290201187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2764573097229</t>
+    <t xml:space="preserve">6.27290153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27645778656006</t>
   </si>
   <si>
     <t xml:space="preserve">6.23022937774658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26223421096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46848583221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38313913345337</t>
+    <t xml:space="preserve">6.26223373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46848487854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38314008712769</t>
   </si>
   <si>
     <t xml:space="preserve">6.28001356124878</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05598211288452</t>
+    <t xml:space="preserve">6.05598163604736</t>
   </si>
   <si>
     <t xml:space="preserve">5.92796325683594</t>
@@ -3143,16 +3143,16 @@
     <t xml:space="preserve">5.97419214248657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83194971084595</t>
+    <t xml:space="preserve">5.83194923400879</t>
   </si>
   <si>
     <t xml:space="preserve">5.84973001480103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73237991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7359356880188</t>
+    <t xml:space="preserve">5.73237943649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73593521118164</t>
   </si>
   <si>
     <t xml:space="preserve">5.750159740448</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">5.79283332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85328531265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82839298248291</t>
+    <t xml:space="preserve">5.85328578948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82839345932007</t>
   </si>
   <si>
     <t xml:space="preserve">5.73949146270752</t>
@@ -3176,40 +3176,40 @@
     <t xml:space="preserve">5.57946872711182</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63280963897705</t>
+    <t xml:space="preserve">5.63280916213989</t>
   </si>
   <si>
     <t xml:space="preserve">5.58302450180054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57591247558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61858558654785</t>
+    <t xml:space="preserve">5.57591342926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61858606338501</t>
   </si>
   <si>
     <t xml:space="preserve">5.72171115875244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54390859603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4941234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4123330116272</t>
+    <t xml:space="preserve">5.54390811920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49412250518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41233348846436</t>
   </si>
   <si>
     <t xml:space="preserve">5.29498338699341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30565118789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95715713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7971339225769</t>
+    <t xml:space="preserve">5.30565166473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95715665817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79713344573975</t>
   </si>
   <si>
     <t xml:space="preserve">4.89670372009277</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">5.38744115829468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30920791625977</t>
+    <t xml:space="preserve">5.30920743942261</t>
   </si>
   <si>
     <t xml:space="preserve">5.27009057998657</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">5.65059041976929</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66125822067261</t>
+    <t xml:space="preserve">5.66125869750977</t>
   </si>
   <si>
     <t xml:space="preserve">5.78216505050659</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">5.7572717666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22311687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4258131980896</t>
+    <t xml:space="preserve">6.22311735153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42581224441528</t>
   </si>
   <si>
     <t xml:space="preserve">6.44359350204468</t>
@@ -3257,52 +3257,52 @@
     <t xml:space="preserve">6.6071720123291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57516765594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58583498001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49337863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79208755493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92721796035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94855451583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97700309753418</t>
+    <t xml:space="preserve">6.57516670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5858359336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49337768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79208707809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92721748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94855403900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97700357437134</t>
   </si>
   <si>
     <t xml:space="preserve">6.83831644058228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80986833572388</t>
+    <t xml:space="preserve">6.80986785888672</t>
   </si>
   <si>
     <t xml:space="preserve">6.74230241775513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66051340103149</t>
+    <t xml:space="preserve">6.66051292419434</t>
   </si>
   <si>
     <t xml:space="preserve">6.71385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029853820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64273262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63917684555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67118072509766</t>
+    <t xml:space="preserve">6.71029806137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6427321434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63917636871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67118120193481</t>
   </si>
   <si>
     <t xml:space="preserve">6.47559690475464</t>
@@ -3311,31 +3311,31 @@
     <t xml:space="preserve">6.54671859741211</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58939123153687</t>
+    <t xml:space="preserve">6.58939218521118</t>
   </si>
   <si>
     <t xml:space="preserve">6.58227968215942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62495183944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61072778701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56805515289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30135011672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31201839447021</t>
+    <t xml:space="preserve">6.62495231628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61072826385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56805419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30135059356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31201791763306</t>
   </si>
   <si>
     <t xml:space="preserve">6.21244859695435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10932302474976</t>
+    <t xml:space="preserve">6.1093225479126</t>
   </si>
   <si>
     <t xml:space="preserve">5.90307092666626</t>
@@ -3344,115 +3344,115 @@
     <t xml:space="preserve">6.01330900192261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95641183853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29423856735229</t>
+    <t xml:space="preserve">5.95641136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29423904418945</t>
   </si>
   <si>
     <t xml:space="preserve">6.67829370498657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88454580307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03390026092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43217945098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33972120285034</t>
+    <t xml:space="preserve">6.88454532623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03389930725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43217897415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33972215652466</t>
   </si>
   <si>
     <t xml:space="preserve">7.42506742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33261060714722</t>
+    <t xml:space="preserve">7.33260917663574</t>
   </si>
   <si>
     <t xml:space="preserve">7.32549715042114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24015140533447</t>
+    <t xml:space="preserve">7.24015235900879</t>
   </si>
   <si>
     <t xml:space="preserve">7.3041615486145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36105918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58864688873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48196411132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66688013076782</t>
+    <t xml:space="preserve">7.36105823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58864641189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48196506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66687917709351</t>
   </si>
   <si>
     <t xml:space="preserve">7.51752519607544</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53886222839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46062755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93002843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90869235992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847702026367</t>
+    <t xml:space="preserve">7.5388617515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46062850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93002891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90869283676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847654342651</t>
   </si>
   <si>
     <t xml:space="preserve">8.16472911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22873783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12916851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15050411224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88024473190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91580438613892</t>
+    <t xml:space="preserve">8.22873878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12916946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15050506591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88024425506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91580486297607</t>
   </si>
   <si>
     <t xml:space="preserve">7.97270154953003</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08649635314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1007194519043</t>
+    <t xml:space="preserve">8.0864953994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10072040557861</t>
   </si>
   <si>
     <t xml:space="preserve">8.00115013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05093383789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07938289642334</t>
+    <t xml:space="preserve">8.05093574523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07938385009766</t>
   </si>
   <si>
     <t xml:space="preserve">7.8660192489624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24296188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17895317077637</t>
+    <t xml:space="preserve">8.24296283721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17895412445068</t>
   </si>
   <si>
     <t xml:space="preserve">8.13628101348877</t>
@@ -3461,25 +3461,25 @@
     <t xml:space="preserve">8.09360790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78778553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99403810501099</t>
+    <t xml:space="preserve">7.78778600692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99403715133667</t>
   </si>
   <si>
     <t xml:space="preserve">8.20740222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26429843902588</t>
+    <t xml:space="preserve">8.2642993927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.21451473236084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18606567382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2216272354126</t>
+    <t xml:space="preserve">8.18606662750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22162628173828</t>
   </si>
   <si>
     <t xml:space="preserve">8.27852439880371</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">8.92572784423828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28133392333984</t>
+    <t xml:space="preserve">9.28133487701416</t>
   </si>
   <si>
     <t xml:space="preserve">9.30978298187256</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">9.00396060943604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85460567474365</t>
+    <t xml:space="preserve">8.85460662841797</t>
   </si>
   <si>
     <t xml:space="preserve">9.04663467407227</t>
@@ -3518,22 +3518,22 @@
     <t xml:space="preserve">9.13909149169922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18176460266113</t>
+    <t xml:space="preserve">9.18176364898682</t>
   </si>
   <si>
     <t xml:space="preserve">9.2599983215332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21732521057129</t>
+    <t xml:space="preserve">9.21732616424561</t>
   </si>
   <si>
     <t xml:space="preserve">9.35245513916016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96128845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91431427001953</t>
+    <t xml:space="preserve">8.96128749847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91431331634521</t>
   </si>
   <si>
     <t xml:space="preserve">9.79340744018555</t>
@@ -3554,16 +3554,16 @@
     <t xml:space="preserve">9.66538906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05374622344971</t>
+    <t xml:space="preserve">9.05374526977539</t>
   </si>
   <si>
     <t xml:space="preserve">9.18887615203857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85741710662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87875270843506</t>
+    <t xml:space="preserve">9.85741806030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87875366210938</t>
   </si>
   <si>
     <t xml:space="preserve">9.88586521148682</t>
@@ -3572,16 +3572,16 @@
     <t xml:space="preserve">9.97832298278809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90008926391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89297866821289</t>
+    <t xml:space="preserve">9.90009021759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89297676086426</t>
   </si>
   <si>
     <t xml:space="preserve">9.97121143341064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.113452911377</t>
+    <t xml:space="preserve">10.1134538650513</t>
   </si>
   <si>
     <t xml:space="preserve">10.412163734436</t>
@@ -3590,10 +3590,10 @@
     <t xml:space="preserve">10.3623790740967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.312593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3268175125122</t>
+    <t xml:space="preserve">10.3125944137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3268184661865</t>
   </si>
   <si>
     <t xml:space="preserve">10.4050512313843</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">10.2983694076538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4406127929688</t>
+    <t xml:space="preserve">10.4406118392944</t>
   </si>
   <si>
     <t xml:space="preserve">10.4263877868652</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">10.7891073226929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0451431274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0949277877808</t>
+    <t xml:space="preserve">11.0451421737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0949287414551</t>
   </si>
   <si>
     <t xml:space="preserve">11.3580770492554</t>
@@ -3629,28 +3629,28 @@
     <t xml:space="preserve">11.4434223175049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4860954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2656192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8345899581909</t>
+    <t xml:space="preserve">11.4860944747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2656183242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8345890045166</t>
   </si>
   <si>
     <t xml:space="preserve">11.9057102203369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2257585525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6141147613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0621767044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496734619141</t>
+    <t xml:space="preserve">12.225757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6141138076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0621776580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496744155884</t>
   </si>
   <si>
     <t xml:space="preserve">11.891487121582</t>
@@ -3668,13 +3668,13 @@
     <t xml:space="preserve">11.7492446899414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1048526763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0977392196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3790826797485</t>
+    <t xml:space="preserve">12.1048517227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0977401733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3790817260742</t>
   </si>
   <si>
     <t xml:space="preserve">12.3486661911011</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">12.2117958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1433620452881</t>
+    <t xml:space="preserve">12.1433610916138</t>
   </si>
   <si>
     <t xml:space="preserve">12.1585702896118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3106470108032</t>
+    <t xml:space="preserve">12.3106460571289</t>
   </si>
   <si>
     <t xml:space="preserve">12.4323091506958</t>
@@ -3710,52 +3710,52 @@
     <t xml:space="preserve">12.7288579940796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7516708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8505210876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8125009536743</t>
+    <t xml:space="preserve">12.7516717910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8505201339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8125019073486</t>
   </si>
   <si>
     <t xml:space="preserve">12.6224050521851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8809366226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8581247329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7896900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6908397674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3866853713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2498159408569</t>
+    <t xml:space="preserve">12.8809356689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8581256866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7896890640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6908407211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3866863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2498168945312</t>
   </si>
   <si>
     <t xml:space="preserve">11.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0369081497192</t>
+    <t xml:space="preserve">12.0369091033936</t>
   </si>
   <si>
     <t xml:space="preserve">11.6034879684448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578651428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5426568984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9647636413574</t>
+    <t xml:space="preserve">11.5578641891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5426578521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9647645950317</t>
   </si>
   <si>
     <t xml:space="preserve">11.1092367172241</t>
@@ -3767,28 +3767,28 @@
     <t xml:space="preserve">11.7479610443115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5958833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5046377182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9228496551514</t>
+    <t xml:space="preserve">11.5958843231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.504638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9228515625</t>
   </si>
   <si>
     <t xml:space="preserve">12.0901346206665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9608697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0597200393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0064926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9000377655029</t>
+    <t xml:space="preserve">11.9608688354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.059718132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0064916610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9000387191772</t>
   </si>
   <si>
     <t xml:space="preserve">11.6186962127686</t>
@@ -3797,79 +3797,79 @@
     <t xml:space="preserve">11.8087921142578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1509656906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1357583999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9265594482422</t>
+    <t xml:space="preserve">12.1509666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1357574462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9265604019165</t>
   </si>
   <si>
     <t xml:space="preserve">12.9797859191895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2991485595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4512243270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3599796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1318645477295</t>
+    <t xml:space="preserve">13.299147605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4512271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.359977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1318635940552</t>
   </si>
   <si>
     <t xml:space="preserve">13.3295640945435</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2839393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4816417694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6565294265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7173614501953</t>
+    <t xml:space="preserve">13.2839412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4816408157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.656530380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.717360496521</t>
   </si>
   <si>
     <t xml:space="preserve">13.8618326187134</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0291204452515</t>
+    <t xml:space="preserve">14.0291194915771</t>
   </si>
   <si>
     <t xml:space="preserve">13.5576782226562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5120573043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9530811309814</t>
+    <t xml:space="preserve">13.512056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9530801773071</t>
   </si>
   <si>
     <t xml:space="preserve">13.8238143920898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0330123901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4664316177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.588095664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6109056472778</t>
+    <t xml:space="preserve">13.033013343811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4664335250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5880966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6109066009521</t>
   </si>
   <si>
     <t xml:space="preserve">13.4892454147339</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4208087921143</t>
+    <t xml:space="preserve">13.4208106994629</t>
   </si>
   <si>
     <t xml:space="preserve">13.8998537063599</t>
@@ -3881,22 +3881,22 @@
     <t xml:space="preserve">13.6261148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0063076019287</t>
+    <t xml:space="preserve">14.0063056945801</t>
   </si>
   <si>
     <t xml:space="preserve">14.5994081497192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6031179428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7399892807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4243335723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4851665496826</t>
+    <t xml:space="preserve">15.6031160354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7399873733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4243354797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.485164642334</t>
   </si>
   <si>
     <t xml:space="preserve">16.226634979248</t>
@@ -3908,22 +3908,22 @@
     <t xml:space="preserve">15.3597936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9795999526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9454774856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6678428649902</t>
+    <t xml:space="preserve">14.9796009063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9454765319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6678419113159</t>
   </si>
   <si>
     <t xml:space="preserve">14.4017086029053</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5652847290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8314189910889</t>
+    <t xml:space="preserve">13.5652837753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8314180374146</t>
   </si>
   <si>
     <t xml:space="preserve">13.5804920196533</t>
@@ -3950,16 +3950,16 @@
     <t xml:space="preserve">13.3827905654907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0823459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.983494758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0139112472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3636894226074</t>
+    <t xml:space="preserve">14.0823469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9834966659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0139102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3636875152588</t>
   </si>
   <si>
     <t xml:space="preserve">14.2952527999878</t>
@@ -3968,46 +3968,46 @@
     <t xml:space="preserve">14.1735916137695</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332738876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3712930679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964044570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3180646896362</t>
+    <t xml:space="preserve">14.33327293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3712911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964025497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3180656433105</t>
   </si>
   <si>
     <t xml:space="preserve">13.4968481063843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9074573516846</t>
+    <t xml:space="preserve">13.9074583053589</t>
   </si>
   <si>
     <t xml:space="preserve">13.7401723861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7933979034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4740362167358</t>
+    <t xml:space="preserve">13.7933988571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4740371704102</t>
   </si>
   <si>
     <t xml:space="preserve">13.8086071014404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1470718383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915449142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4779319763184</t>
+    <t xml:space="preserve">13.1470727920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4779300689697</t>
   </si>
   <si>
     <t xml:space="preserve">12.7364625930786</t>
@@ -4016,22 +4016,22 @@
     <t xml:space="preserve">13.2231092453003</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5272645950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2383184432983</t>
+    <t xml:space="preserve">13.5272636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.238317489624</t>
   </si>
   <si>
     <t xml:space="preserve">13.8334798812866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495626449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691383361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0425882339478</t>
+    <t xml:space="preserve">13.8495635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0425891876221</t>
   </si>
   <si>
     <t xml:space="preserve">13.9380331039429</t>
@@ -4040,76 +4040,76 @@
     <t xml:space="preserve">14.018461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6565370559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6324119567871</t>
+    <t xml:space="preserve">13.6565389633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6324110031128</t>
   </si>
   <si>
     <t xml:space="preserve">13.6082830429077</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5761108398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5841522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3509149551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1739740371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166078567505</t>
+    <t xml:space="preserve">13.5761117935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5841541290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3509159088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.173975944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9166069030762</t>
   </si>
   <si>
     <t xml:space="preserve">12.1445074081421</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252180099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6458587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.056037902832</t>
+    <t xml:space="preserve">11.5252170562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6458578109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0560369491577</t>
   </si>
   <si>
     <t xml:space="preserve">11.5010900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4850034713745</t>
+    <t xml:space="preserve">11.4850044250488</t>
   </si>
   <si>
     <t xml:space="preserve">11.7423715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5573883056641</t>
+    <t xml:space="preserve">11.5573892593384</t>
   </si>
   <si>
     <t xml:space="preserve">11.5493459701538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2598085403442</t>
+    <t xml:space="preserve">11.2598075866699</t>
   </si>
   <si>
     <t xml:space="preserve">11.5413036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4689197540283</t>
+    <t xml:space="preserve">11.468918800354</t>
   </si>
   <si>
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8657159805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7289886474609</t>
+    <t xml:space="preserve">11.2276372909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8657150268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7289876937866</t>
   </si>
   <si>
     <t xml:space="preserve">10.6726903915405</t>
@@ -4118,13 +4118,13 @@
     <t xml:space="preserve">10.2383823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1579561233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3751087188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6646461486816</t>
+    <t xml:space="preserve">10.1579551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3751096725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.664647102356</t>
   </si>
   <si>
     <t xml:space="preserve">10.350980758667</t>
@@ -4133,34 +4133,34 @@
     <t xml:space="preserve">10.4072790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96492958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48236656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70756340026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841869354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1257848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.165997505188</t>
+    <t xml:space="preserve">9.96493053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48236751556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70756244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1257839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1659994125366</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016569137573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1820821762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4877071380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.133828163147</t>
+    <t xml:space="preserve">10.1820840835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4877061843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1338272094727</t>
   </si>
   <si>
     <t xml:space="preserve">10.3027248382568</t>
@@ -4178,37 +4178,37 @@
     <t xml:space="preserve">10.5118350982666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.946141242981</t>
+    <t xml:space="preserve">10.9461421966553</t>
   </si>
   <si>
     <t xml:space="preserve">11.0185260772705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9783124923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6968173980713</t>
+    <t xml:space="preserve">10.9783134460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968183517456</t>
   </si>
   <si>
     <t xml:space="preserve">10.415322303772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5279207229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7852869033813</t>
+    <t xml:space="preserve">10.5279216766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7852878570557</t>
   </si>
   <si>
     <t xml:space="preserve">10.9702711105347</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4394502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0131864547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418704986572</t>
+    <t xml:space="preserve">10.4394512176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0131874084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418695449829</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177415847778</t>
@@ -4217,13 +4217,13 @@
     <t xml:space="preserve">9.97297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69952011108398</t>
+    <t xml:space="preserve">9.6995210647583</t>
   </si>
   <si>
     <t xml:space="preserve">9.62713623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69147872924805</t>
+    <t xml:space="preserve">9.69147777557373</t>
   </si>
   <si>
     <t xml:space="preserve">9.61105060577393</t>
@@ -4238,13 +4238,13 @@
     <t xml:space="preserve">9.28934192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24108505249023</t>
+    <t xml:space="preserve">9.24108409881592</t>
   </si>
   <si>
     <t xml:space="preserve">9.1043586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18478584289551</t>
+    <t xml:space="preserve">9.18478679656982</t>
   </si>
   <si>
     <t xml:space="preserve">9.39389705657959</t>
@@ -4262,16 +4262,16 @@
     <t xml:space="preserve">9.83624744415283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77994823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45019626617432</t>
+    <t xml:space="preserve">9.77994728088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4501953125</t>
   </si>
   <si>
     <t xml:space="preserve">9.49845218658447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17674350738525</t>
+    <t xml:space="preserve">9.17674446105957</t>
   </si>
   <si>
     <t xml:space="preserve">9.19282913208008</t>
@@ -4295,19 +4295,19 @@
     <t xml:space="preserve">9.16065883636475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06414604187012</t>
+    <t xml:space="preserve">9.0641450881958</t>
   </si>
   <si>
     <t xml:space="preserve">8.95959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8791618347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97567653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84699153900146</t>
+    <t xml:space="preserve">8.87916278839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97567558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84699249267578</t>
   </si>
   <si>
     <t xml:space="preserve">8.85503578186035</t>
@@ -4316,7 +4316,7 @@
     <t xml:space="preserve">9.11240196228027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0882740020752</t>
+    <t xml:space="preserve">9.08827304840088</t>
   </si>
   <si>
     <t xml:space="preserve">9.12848854064941</t>
@@ -4349,28 +4349,28 @@
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506963729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1954650878906</t>
+    <t xml:space="preserve">11.0506982803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1954660415649</t>
   </si>
   <si>
     <t xml:space="preserve">11.1632947921753</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1230812072754</t>
+    <t xml:space="preserve">11.1230821609497</t>
   </si>
   <si>
     <t xml:space="preserve">11.00244140625</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3643646240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3037776947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3383979797363</t>
+    <t xml:space="preserve">11.3643636703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3037767410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3383989334106</t>
   </si>
   <si>
     <t xml:space="preserve">11.3557081222534</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">11.3903293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3816747665405</t>
+    <t xml:space="preserve">11.3816738128662</t>
   </si>
   <si>
     <t xml:space="preserve">11.4249496459961</t>
@@ -4403,7 +4403,7 @@
     <t xml:space="preserve">10.8710136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.052773475647</t>
+    <t xml:space="preserve">11.0527744293213</t>
   </si>
   <si>
     <t xml:space="preserve">10.9575653076172</t>
@@ -4424,19 +4424,19 @@
     <t xml:space="preserve">11.5720891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3730192184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941921234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4162940979004</t>
+    <t xml:space="preserve">11.3730182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4162950515747</t>
   </si>
   <si>
     <t xml:space="preserve">11.5115032196045</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5201587677002</t>
+    <t xml:space="preserve">11.5201578140259</t>
   </si>
   <si>
     <t xml:space="preserve">11.6326761245728</t>
@@ -4457,16 +4457,16 @@
     <t xml:space="preserve">12.316442489624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3424081802368</t>
+    <t xml:space="preserve">12.3424091339111</t>
   </si>
   <si>
     <t xml:space="preserve">12.4116506576538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4982023239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808931350708</t>
+    <t xml:space="preserve">12.4982032775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808921813965</t>
   </si>
   <si>
     <t xml:space="preserve">12.4722375869751</t>
@@ -4475,19 +4475,19 @@
     <t xml:space="preserve">12.4376163482666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077878952026</t>
+    <t xml:space="preserve">12.3077869415283</t>
   </si>
   <si>
     <t xml:space="preserve">12.5501356124878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5328245162964</t>
+    <t xml:space="preserve">12.5328235626221</t>
   </si>
   <si>
     <t xml:space="preserve">12.3337535858154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5674467086792</t>
+    <t xml:space="preserve">12.5674457550049</t>
   </si>
   <si>
     <t xml:space="preserve">12.6193771362305</t>
@@ -4499,16 +4499,16 @@
     <t xml:space="preserve">13.2858324050903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3810396194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6060771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5368356704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6406984329224</t>
+    <t xml:space="preserve">13.3810405731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060781478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5368347167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.640697479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.7705268859863</t>
@@ -4517,13 +4517,13 @@
     <t xml:space="preserve">13.7618713378906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9955635070801</t>
+    <t xml:space="preserve">13.9955644607544</t>
   </si>
   <si>
     <t xml:space="preserve">14.1167373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0907726287842</t>
+    <t xml:space="preserve">14.0907716751099</t>
   </si>
   <si>
     <t xml:space="preserve">13.7878379821777</t>
@@ -4535,10 +4535,10 @@
     <t xml:space="preserve">14.194634437561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0042190551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7532176971436</t>
+    <t xml:space="preserve">14.0042200088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7532167434692</t>
   </si>
   <si>
     <t xml:space="preserve">13.4675931930542</t>
@@ -4550,16 +4550,16 @@
     <t xml:space="preserve">13.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4502820968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5281791687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.554144859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1040716171265</t>
+    <t xml:space="preserve">13.4502830505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5281801223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1040725708008</t>
   </si>
   <si>
     <t xml:space="preserve">12.5934114456177</t>
@@ -4568,7 +4568,7 @@
     <t xml:space="preserve">12.8184480667114</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212343215942</t>
+    <t xml:space="preserve">12.2212352752686</t>
   </si>
   <si>
     <t xml:space="preserve">12.2385454177856</t>
@@ -4583,7 +4583,7 @@
     <t xml:space="preserve">11.8836793899536</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9269561767578</t>
+    <t xml:space="preserve">11.9269552230835</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798156738281</t>
@@ -4592,7 +4592,7 @@
     <t xml:space="preserve">11.9442672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.091404914856</t>
+    <t xml:space="preserve">12.0914058685303</t>
   </si>
   <si>
     <t xml:space="preserve">12.0827503204346</t>
@@ -4604,37 +4604,37 @@
     <t xml:space="preserve">12.1606483459473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2904767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.740550994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6713075637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9482765197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0607948303223</t>
+    <t xml:space="preserve">12.2904758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7405500411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6713094711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9482774734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0607957839966</t>
   </si>
   <si>
     <t xml:space="preserve">12.9915533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1906251907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3377628326416</t>
+    <t xml:space="preserve">13.1906232833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3377637863159</t>
   </si>
   <si>
     <t xml:space="preserve">13.1560039520264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0867614746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1733150482178</t>
+    <t xml:space="preserve">13.0867605209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1733140945435</t>
   </si>
   <si>
     <t xml:space="preserve">12.7232398986816</t>
@@ -4646,7 +4646,7 @@
     <t xml:space="preserve">12.9828977584839</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1213817596436</t>
+    <t xml:space="preserve">13.1213827133179</t>
   </si>
   <si>
     <t xml:space="preserve">12.454927444458</t>
@@ -4655,13 +4655,13 @@
     <t xml:space="preserve">12.4895486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4635820388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0999460220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287494659424</t>
+    <t xml:space="preserve">12.4635810852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0999450683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287504196167</t>
   </si>
   <si>
     <t xml:space="preserve">12.8240633010864</t>
@@ -4682,22 +4682,22 @@
     <t xml:space="preserve">12.4591875076294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.654974937439</t>
+    <t xml:space="preserve">12.6549739837646</t>
   </si>
   <si>
     <t xml:space="preserve">12.7973651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816730499268</t>
+    <t xml:space="preserve">12.6816720962524</t>
   </si>
   <si>
     <t xml:space="preserve">12.7528676986694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.743968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6905717849731</t>
+    <t xml:space="preserve">12.7439680099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6905727386475</t>
   </si>
   <si>
     <t xml:space="preserve">12.583779335022</t>
@@ -4715,13 +4715,13 @@
     <t xml:space="preserve">12.5570802688599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512583732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5036849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.726170539856</t>
+    <t xml:space="preserve">12.5125846862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5036840438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7261695861816</t>
   </si>
   <si>
     <t xml:space="preserve">12.5303821563721</t>
@@ -4751,13 +4751,13 @@
     <t xml:space="preserve">13.0020513534546</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1355428695679</t>
+    <t xml:space="preserve">13.1355438232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.9931526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266441345215</t>
+    <t xml:space="preserve">13.1266431808472</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957315444946</t>
@@ -4766,10 +4766,10 @@
     <t xml:space="preserve">13.384726524353</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4737205505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6606092453003</t>
+    <t xml:space="preserve">13.4737215042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.660608291626</t>
   </si>
   <si>
     <t xml:space="preserve">13.6161117553711</t>
@@ -4787,7 +4787,7 @@
     <t xml:space="preserve">13.6517095565796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8652954101562</t>
+    <t xml:space="preserve">13.8652944564819</t>
   </si>
   <si>
     <t xml:space="preserve">14.1767749786377</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">14.4348573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1233787536621</t>
+    <t xml:space="preserve">14.1233777999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2479705810547</t>
@@ -4826,10 +4826,10 @@
     <t xml:space="preserve">14.3992605209351</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5149526596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945734024048</t>
+    <t xml:space="preserve">14.5149517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945743560791</t>
   </si>
   <si>
     <t xml:space="preserve">14.1322774887085</t>
@@ -4844,10 +4844,10 @@
     <t xml:space="preserve">14.3458652496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3814611434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882555007935</t>
+    <t xml:space="preserve">14.381462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882545471191</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793558120728</t>
@@ -4859,7 +4859,7 @@
     <t xml:space="preserve">14.2212715148926</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9453907012939</t>
+    <t xml:space="preserve">13.9453897476196</t>
   </si>
   <si>
     <t xml:space="preserve">13.8207979202271</t>
@@ -4880,10 +4880,10 @@
     <t xml:space="preserve">13.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9364900588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0699815750122</t>
+    <t xml:space="preserve">13.9364910125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0699825286865</t>
   </si>
   <si>
     <t xml:space="preserve">14.1589756011963</t>
@@ -4904,19 +4904,19 @@
     <t xml:space="preserve">14.4615564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6662425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421262741089</t>
+    <t xml:space="preserve">14.6662435531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421253204346</t>
   </si>
   <si>
     <t xml:space="preserve">14.8353319168091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6128463745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6484441757202</t>
+    <t xml:space="preserve">14.612847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6484432220459</t>
   </si>
   <si>
     <t xml:space="preserve">14.6306457519531</t>
@@ -4934,25 +4934,25 @@
     <t xml:space="preserve">13.6962070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1856746673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3547620773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887281417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7552366256714</t>
+    <t xml:space="preserve">14.1856737136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3547630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5327520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7552375793457</t>
   </si>
   <si>
     <t xml:space="preserve">14.7997331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.951024055481</t>
+    <t xml:space="preserve">14.9510231018066</t>
   </si>
   <si>
     <t xml:space="preserve">15.4137935638428</t>
@@ -4964,13 +4964,13 @@
     <t xml:space="preserve">15.3336992263794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1913080215454</t>
+    <t xml:space="preserve">15.1913089752197</t>
   </si>
   <si>
     <t xml:space="preserve">15.1290130615234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3514976501465</t>
+    <t xml:space="preserve">15.3514995574951</t>
   </si>
   <si>
     <t xml:space="preserve">15.2654151916504</t>
@@ -5331,6 +5331,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.7399997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4300003051758</t>
   </si>
 </sst>
 </file>
@@ -61832,7 +61835,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6493055556</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>68733</v>
@@ -61853,6 +61856,32 @@
         <v>1751</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6504513889</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>65304</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>19.7000007629395</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>19.3400001525879</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>19.6499996185303</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>19.4300003051758</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1775">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3060836791992</t>
+    <t xml:space="preserve">17.3060817718506</t>
   </si>
   <si>
     <t xml:space="preserve">IF.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">16.924783706665</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8509826660156</t>
+    <t xml:space="preserve">16.850980758667</t>
   </si>
   <si>
     <t xml:space="preserve">15.9961318969727</t>
@@ -56,19 +56,19 @@
     <t xml:space="preserve">15.7931842803955</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8116321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8669843673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5902338027954</t>
+    <t xml:space="preserve">15.8116340637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.866982460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.590235710144</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2335357666016</t>
+    <t xml:space="preserve">15.2335338592529</t>
   </si>
   <si>
     <t xml:space="preserve">15.94078540802</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">16.1006832122803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8731317520142</t>
+    <t xml:space="preserve">15.8731327056885</t>
   </si>
   <si>
     <t xml:space="preserve">16.9063339233398</t>
@@ -92,16 +92,16 @@
     <t xml:space="preserve">17.5336303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1154327392578</t>
+    <t xml:space="preserve">17.1154308319092</t>
   </si>
   <si>
     <t xml:space="preserve">17.7119827270508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6504802703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.342981338501</t>
+    <t xml:space="preserve">17.6504821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3429832458496</t>
   </si>
   <si>
     <t xml:space="preserve">16.6849327087402</t>
@@ -110,28 +110,28 @@
     <t xml:space="preserve">16.4512310028076</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9899806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3602342605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.403284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1105318069458</t>
+    <t xml:space="preserve">15.9899845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3602333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4032859802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1105337142944</t>
   </si>
   <si>
     <t xml:space="preserve">15.1412830352783</t>
   </si>
   <si>
-    <t xml:space="preserve">15.202784538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9838352203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8792819976807</t>
+    <t xml:space="preserve">15.2027826309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9838314056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8792839050293</t>
   </si>
   <si>
     <t xml:space="preserve">15.7808847427368</t>
@@ -140,79 +140,79 @@
     <t xml:space="preserve">15.6947832107544</t>
   </si>
   <si>
-    <t xml:space="preserve">15.762433052063</t>
+    <t xml:space="preserve">15.7624311447144</t>
   </si>
   <si>
     <t xml:space="preserve">16.9739818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4696846008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2113819122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.721830368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.60498046875</t>
+    <t xml:space="preserve">16.4696826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2113838195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7218322753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6049823760986</t>
   </si>
   <si>
     <t xml:space="preserve">16.5434818267822</t>
   </si>
   <si>
-    <t xml:space="preserve">17.041633605957</t>
+    <t xml:space="preserve">17.0416316986084</t>
   </si>
   <si>
     <t xml:space="preserve">16.807933807373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4819850921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8854331970215</t>
+    <t xml:space="preserve">16.4819831848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8854312896729</t>
   </si>
   <si>
     <t xml:space="preserve">16.0084342956543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.577935218811</t>
+    <t xml:space="preserve">15.5779323577881</t>
   </si>
   <si>
     <t xml:space="preserve">15.9284830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1867809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.697229385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.912483215332</t>
+    <t xml:space="preserve">16.1867828369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6972312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9124813079834</t>
   </si>
   <si>
     <t xml:space="preserve">17.5951309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8534297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6996822357178</t>
+    <t xml:space="preserve">17.8534317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996803283691</t>
   </si>
   <si>
     <t xml:space="preserve">17.5582313537598</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7242813110352</t>
+    <t xml:space="preserve">17.7242832183838</t>
   </si>
   <si>
     <t xml:space="preserve">17.7495460510254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1285381317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3875217437744</t>
+    <t xml:space="preserve">18.1285419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3875198364258</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527420043945</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">17.4274024963379</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148429870605</t>
+    <t xml:space="preserve">18.0148448944092</t>
   </si>
   <si>
     <t xml:space="preserve">17.1557903289795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2442245483398</t>
+    <t xml:space="preserve">17.2442207336426</t>
   </si>
   <si>
     <t xml:space="preserve">17.3579196929932</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">17.4716186523438</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1936912536621</t>
+    <t xml:space="preserve">17.1936893463135</t>
   </si>
   <si>
     <t xml:space="preserve">16.8020629882812</t>
@@ -245,13 +245,13 @@
     <t xml:space="preserve">16.9662933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.757848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6504650115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9157619476318</t>
+    <t xml:space="preserve">16.7578468322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.650463104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9157638549805</t>
   </si>
   <si>
     <t xml:space="preserve">16.4483375549316</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">16.044075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0819721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1704063415527</t>
+    <t xml:space="preserve">16.081974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1704044342041</t>
   </si>
   <si>
     <t xml:space="preserve">16.006175994873</t>
@@ -275,94 +275,94 @@
     <t xml:space="preserve">15.7787780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5261154174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229232788086</t>
+    <t xml:space="preserve">15.5261192321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.22292137146</t>
   </si>
   <si>
     <t xml:space="preserve">15.5766487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">15.03342628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0018424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6544313430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4144020080566</t>
+    <t xml:space="preserve">15.0334243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0018444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6544322967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4144010543823</t>
   </si>
   <si>
     <t xml:space="preserve">14.1175241470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2754373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0354080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7258968353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8964433670044</t>
+    <t xml:space="preserve">14.2754383087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0354061126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7258958816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8964424133301</t>
   </si>
   <si>
     <t xml:space="preserve">13.953293800354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5806140899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8332767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249059677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9619617462158</t>
+    <t xml:space="preserve">13.5806159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8332777023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249050140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9619588851929</t>
   </si>
   <si>
     <t xml:space="preserve">15.3492527008057</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1597576141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9134130477905</t>
+    <t xml:space="preserve">15.1597557067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9134092330933</t>
   </si>
   <si>
     <t xml:space="preserve">15.0271081924438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796960830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5912675857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6923313140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649353027344</t>
+    <t xml:space="preserve">14.6796979904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5912666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6923303604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649324417114</t>
   </si>
   <si>
     <t xml:space="preserve">14.2564878463745</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0543556213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8016958236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.422700881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.258469581604</t>
+    <t xml:space="preserve">14.0543584823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8016948699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4226999282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.258472442627</t>
   </si>
   <si>
     <t xml:space="preserve">13.1068725585938</t>
@@ -371,46 +371,46 @@
     <t xml:space="preserve">12.7657775878906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4479665756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9153957366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8522291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2817535400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3279523849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1929531097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877035140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.350866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4771995544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4961500167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9276580810547</t>
+    <t xml:space="preserve">13.4479684829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9153928756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8522272109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2817525863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.327953338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1929521560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877016067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3508672714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645662307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.477198600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.496148109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9276571273804</t>
   </si>
   <si>
     <t xml:space="preserve">10.5360307693481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5233974456787</t>
+    <t xml:space="preserve">10.5233964920044</t>
   </si>
   <si>
     <t xml:space="preserve">10.7002611160278</t>
@@ -419,19 +419,19 @@
     <t xml:space="preserve">10.7381601333618</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9067258834839</t>
+    <t xml:space="preserve">11.9067249298096</t>
   </si>
   <si>
     <t xml:space="preserve">12.4057331085205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6331281661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562664031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6647138595581</t>
+    <t xml:space="preserve">12.633131980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562654495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6647129058838</t>
   </si>
   <si>
     <t xml:space="preserve">12.380467414856</t>
@@ -440,37 +440,37 @@
     <t xml:space="preserve">12.6457643508911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3488836288452</t>
+    <t xml:space="preserve">12.3488845825195</t>
   </si>
   <si>
     <t xml:space="preserve">12.1467542648315</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9446239471436</t>
+    <t xml:space="preserve">11.9446249008179</t>
   </si>
   <si>
     <t xml:space="preserve">11.6603784561157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0962228775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8857936859131</t>
+    <t xml:space="preserve">12.0962219238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8857927322388</t>
   </si>
   <si>
     <t xml:space="preserve">12.5573310852051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7341938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2225532531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541351318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7594623565674</t>
+    <t xml:space="preserve">12.7341957092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2225542068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541370391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.759464263916</t>
   </si>
   <si>
     <t xml:space="preserve">12.911060333252</t>
@@ -479,73 +479,73 @@
     <t xml:space="preserve">12.5383806228638</t>
   </si>
   <si>
-    <t xml:space="preserve">12.816312789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.708930015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5952272415161</t>
+    <t xml:space="preserve">12.8163118362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7089290618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5952291488647</t>
   </si>
   <si>
     <t xml:space="preserve">12.5194311141968</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4120512008667</t>
+    <t xml:space="preserve">12.4120492935181</t>
   </si>
   <si>
     <t xml:space="preserve">12.0835886001587</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0709562301636</t>
+    <t xml:space="preserve">12.0709571838379</t>
   </si>
   <si>
     <t xml:space="preserve">12.1404371261597</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1278066635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2036027908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.064640045166</t>
+    <t xml:space="preserve">12.1278057098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2036018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0646390914917</t>
   </si>
   <si>
     <t xml:space="preserve">12.0583219528198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.22887134552</t>
+    <t xml:space="preserve">12.2288703918457</t>
   </si>
   <si>
     <t xml:space="preserve">12.3236169815063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.304669380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5699644088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0121240615845</t>
+    <t xml:space="preserve">12.3046674728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5699625015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0121250152588</t>
   </si>
   <si>
     <t xml:space="preserve">13.5427141189575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311492919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.151086807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8605251312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8352613449097</t>
+    <t xml:space="preserve">13.6311464309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1510887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8605270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489574432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.835259437561</t>
   </si>
   <si>
     <t xml:space="preserve">12.8542108535767</t>
@@ -557,25 +557,25 @@
     <t xml:space="preserve">12.9426412582397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2647867202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.22057056427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8226261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6583967208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6394462585449</t>
+    <t xml:space="preserve">13.2647857666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2205715179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8226280212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6583957672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6394472122192</t>
   </si>
   <si>
     <t xml:space="preserve">12.6773462295532</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8731603622437</t>
+    <t xml:space="preserve">12.873158454895</t>
   </si>
   <si>
     <t xml:space="preserve">12.9300088882446</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">13.2268877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.643780708313</t>
+    <t xml:space="preserve">13.6437797546387</t>
   </si>
   <si>
     <t xml:space="preserve">14.7744455337524</t>
@@ -596,31 +596,31 @@
     <t xml:space="preserve">15.0965881347656</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2481851577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3429346084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.589282989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8040494918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9051122665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3662185668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4546508789062</t>
+    <t xml:space="preserve">15.2481889724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3429384231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5892848968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8040437698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9051103591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3662204742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4546489715576</t>
   </si>
   <si>
     <t xml:space="preserve">16.6125640869141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7452125549316</t>
+    <t xml:space="preserve">16.7452163696289</t>
   </si>
   <si>
     <t xml:space="preserve">16.6441497802734</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">16.4357032775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1830387115479</t>
+    <t xml:space="preserve">16.1830406188965</t>
   </si>
   <si>
     <t xml:space="preserve">16.2019882202148</t>
@@ -644,94 +644,94 @@
     <t xml:space="preserve">15.9935436248779</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8166790008545</t>
+    <t xml:space="preserve">15.8166770935059</t>
   </si>
   <si>
     <t xml:space="preserve">15.4755859375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4629516601562</t>
+    <t xml:space="preserve">15.4629497528076</t>
   </si>
   <si>
     <t xml:space="preserve">15.0081586837769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.052375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9449949264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881454467773</t>
+    <t xml:space="preserve">15.0523729324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.944993019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881435394287</t>
   </si>
   <si>
     <t xml:space="preserve">14.3512363433838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4270353317261</t>
+    <t xml:space="preserve">14.4270334243774</t>
   </si>
   <si>
     <t xml:space="preserve">14.4965181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0227746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5281000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807607650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7618141174316</t>
+    <t xml:space="preserve">14.0227737426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5281009674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807645797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.761812210083</t>
   </si>
   <si>
     <t xml:space="preserve">14.6102151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.551381111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.696665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6082324981689</t>
+    <t xml:space="preserve">15.5513830184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6966638565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6082286834717</t>
   </si>
   <si>
     <t xml:space="preserve">15.7914113998413</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293880462646</t>
+    <t xml:space="preserve">16.4293842315674</t>
   </si>
   <si>
     <t xml:space="preserve">16.1514568328857</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8229932785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.917742729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588386535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4230690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7388954162598</t>
+    <t xml:space="preserve">15.8229951858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9177446365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588348388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4230709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.738899230957</t>
   </si>
   <si>
     <t xml:space="preserve">17.1368408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0420932769775</t>
+    <t xml:space="preserve">17.0420913696289</t>
   </si>
   <si>
     <t xml:space="preserve">16.9915599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8652305603027</t>
+    <t xml:space="preserve">16.8652286529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3156871795654</t>
@@ -752,37 +752,37 @@
     <t xml:space="preserve">16.5936164855957</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5746650695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3093681335449</t>
+    <t xml:space="preserve">16.574670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3093700408936</t>
   </si>
   <si>
     <t xml:space="preserve">16.1072406768799</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9809083938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9745941162109</t>
+    <t xml:space="preserve">15.9809103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9745922088623</t>
   </si>
   <si>
     <t xml:space="preserve">15.8545789718628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8293113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5494022369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2335739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.119873046875</t>
+    <t xml:space="preserve">15.8293132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5494041442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2335720062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1198749542236</t>
   </si>
   <si>
     <t xml:space="preserve">16.3599014282227</t>
@@ -791,22 +791,22 @@
     <t xml:space="preserve">16.9283962249756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4337196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.421085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6358509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.15380859375</t>
+    <t xml:space="preserve">17.4337215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4210872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6358470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1538066864014</t>
   </si>
   <si>
     <t xml:space="preserve">18.6464996337891</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7917823791504</t>
+    <t xml:space="preserve">18.7917804718018</t>
   </si>
   <si>
     <t xml:space="preserve">18.2927722930908</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">18.5707015991211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6338691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0760269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2276248931885</t>
+    <t xml:space="preserve">18.6338653564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0760288238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2276229858398</t>
   </si>
   <si>
     <t xml:space="preserve">19.3476390838623</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">18.7602005004883</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8802127838135</t>
+    <t xml:space="preserve">18.8802146911621</t>
   </si>
   <si>
     <t xml:space="preserve">19.4550189971924</t>
@@ -848,49 +848,49 @@
     <t xml:space="preserve">20.6046352386475</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5015888214111</t>
+    <t xml:space="preserve">21.5015907287598</t>
   </si>
   <si>
     <t xml:space="preserve">21.7921504974365</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9879665374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0301933288574</t>
+    <t xml:space="preserve">21.9879608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0301971435547</t>
   </si>
   <si>
     <t xml:space="preserve">22.5690860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9291305541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8027992248535</t>
+    <t xml:space="preserve">22.9291324615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8027973175049</t>
   </si>
   <si>
     <t xml:space="preserve">22.7396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7080535888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3480110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6133041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6954212188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9165000915527</t>
+    <t xml:space="preserve">22.7080516815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3480072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.613302230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6954193115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9164981842041</t>
   </si>
   <si>
     <t xml:space="preserve">22.8975486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">22.66383934021</t>
+    <t xml:space="preserve">22.6638374328613</t>
   </si>
   <si>
     <t xml:space="preserve">23.2133750915527</t>
@@ -899,28 +899,28 @@
     <t xml:space="preserve">23.548152923584</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3586540222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.289176940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1186275482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0491504669189</t>
+    <t xml:space="preserve">23.3586559295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2891750335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.118631362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0491485595703</t>
   </si>
   <si>
     <t xml:space="preserve">23.434455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7376575469971</t>
+    <t xml:space="preserve">23.7376537322998</t>
   </si>
   <si>
     <t xml:space="preserve">23.4407730102539</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4893207550049</t>
+    <t xml:space="preserve">24.4893226623535</t>
   </si>
   <si>
     <t xml:space="preserve">24.3440418243408</t>
@@ -929,40 +929,40 @@
     <t xml:space="preserve">24.1734924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4451065063477</t>
+    <t xml:space="preserve">24.4451084136963</t>
   </si>
   <si>
     <t xml:space="preserve">25.0135974884033</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2199993133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8329963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6265888214111</t>
+    <t xml:space="preserve">25.2200012207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8329925537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6265907287598</t>
   </si>
   <si>
     <t xml:space="preserve">23.6074657440186</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4980487823486</t>
+    <t xml:space="preserve">22.498046875</t>
   </si>
   <si>
     <t xml:space="preserve">23.2075614929199</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8915061950684</t>
+    <t xml:space="preserve">22.8915042877197</t>
   </si>
   <si>
     <t xml:space="preserve">22.6915512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7560520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6399459838867</t>
+    <t xml:space="preserve">22.7560539245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6399478912354</t>
   </si>
   <si>
     <t xml:space="preserve">21.2209243774414</t>
@@ -971,43 +971,43 @@
     <t xml:space="preserve">20.4404563903809</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4918270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9562377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5238475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5109481811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5754508972168</t>
+    <t xml:space="preserve">21.4918251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9562358856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5238456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.510950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5754470825195</t>
   </si>
   <si>
     <t xml:space="preserve">22.4464454650879</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3303451538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7691802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5627784729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8659362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2658443450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.059440612793</t>
+    <t xml:space="preserve">22.2916431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.33034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7691841125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5627765655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8659381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2658424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0594387054443</t>
   </si>
   <si>
     <t xml:space="preserve">22.1884422302246</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">22.8205547332764</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7625007629395</t>
+    <t xml:space="preserve">22.7625045776367</t>
   </si>
   <si>
     <t xml:space="preserve">22.3819465637207</t>
@@ -1025,49 +1025,49 @@
     <t xml:space="preserve">22.6012496948242</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5496482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7689514160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4786930084229</t>
+    <t xml:space="preserve">22.5496501922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7689533233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4786968231201</t>
   </si>
   <si>
     <t xml:space="preserve">22.1561889648438</t>
   </si>
   <si>
-    <t xml:space="preserve">22.046537399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9949359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5302963256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7302551269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7044525146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9431056976318</t>
+    <t xml:space="preserve">22.0465393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9949340820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5303001403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7302532196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7044506072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9431076049805</t>
   </si>
   <si>
     <t xml:space="preserve">23.0205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1043605804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0140571594238</t>
+    <t xml:space="preserve">23.1043586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0140590667725</t>
   </si>
   <si>
     <t xml:space="preserve">23.2204608917236</t>
   </si>
   <si>
-    <t xml:space="preserve">23.37526512146</t>
+    <t xml:space="preserve">23.3752670288086</t>
   </si>
   <si>
     <t xml:space="preserve">23.4139652252197</t>
@@ -1079,16 +1079,16 @@
     <t xml:space="preserve">23.9170761108398</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7880764007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622699737549</t>
+    <t xml:space="preserve">23.7880744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622718811035</t>
   </si>
   <si>
     <t xml:space="preserve">23.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0138263702393</t>
+    <t xml:space="preserve">24.0138282775879</t>
   </si>
   <si>
     <t xml:space="preserve">24.2847347259521</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">23.9299755096436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7039890289307</t>
+    <t xml:space="preserve">24.7039909362793</t>
   </si>
   <si>
     <t xml:space="preserve">25.1877498626709</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">24.8974933624268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2587013244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.026496887207</t>
+    <t xml:space="preserve">25.2586994171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0264987945557</t>
   </si>
   <si>
     <t xml:space="preserve">25.6070079803467</t>
@@ -1118,46 +1118,46 @@
     <t xml:space="preserve">25.8327655792236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1423645019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4003715515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6906299591064</t>
+    <t xml:space="preserve">26.142370223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4003734588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6906318664551</t>
   </si>
   <si>
     <t xml:space="preserve">26.2520217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5035762786865</t>
+    <t xml:space="preserve">26.5035800933838</t>
   </si>
   <si>
     <t xml:space="preserve">26.4455299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8908157348633</t>
+    <t xml:space="preserve">25.8908138275146</t>
   </si>
   <si>
     <t xml:space="preserve">25.9166164398193</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5680770874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7809314727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7293338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2326698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4326248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.213321685791</t>
+    <t xml:space="preserve">26.568078994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.780933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7293300628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2326717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4326286315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2133197784424</t>
   </si>
   <si>
     <t xml:space="preserve">26.1939716339111</t>
@@ -1169,37 +1169,37 @@
     <t xml:space="preserve">26.1617202758789</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9940166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4199542999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0714168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2842750549316</t>
+    <t xml:space="preserve">25.9940185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4199562072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0714149475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2842712402344</t>
   </si>
   <si>
     <t xml:space="preserve">26.5745296478271</t>
   </si>
   <si>
-    <t xml:space="preserve">26.980884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7680339813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4842262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2066440582275</t>
+    <t xml:space="preserve">26.9808902740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7680320739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4842281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2066421508789</t>
   </si>
   <si>
     <t xml:space="preserve">27.1743907928467</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9357357025146</t>
+    <t xml:space="preserve">26.9357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">27.161491394043</t>
@@ -1211,43 +1211,43 @@
     <t xml:space="preserve">28.2709140777588</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2773590087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7675743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0126781463623</t>
+    <t xml:space="preserve">28.2773609161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7675724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352310180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0126762390137</t>
   </si>
   <si>
     <t xml:space="preserve">29.238431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7353191375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2513294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4964351654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8382930755615</t>
+    <t xml:space="preserve">28.7353172302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513332366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4964389801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8382892608643</t>
   </si>
   <si>
     <t xml:space="preserve">30.5220031738281</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8638648986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0186653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5802898406982</t>
+    <t xml:space="preserve">30.8638610839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0186729431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5802917480469</t>
   </si>
   <si>
     <t xml:space="preserve">30.5155582427979</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">31.7733306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5153331756592</t>
+    <t xml:space="preserve">31.5153293609619</t>
   </si>
   <si>
     <t xml:space="preserve">30.8509654998779</t>
@@ -1271,31 +1271,31 @@
     <t xml:space="preserve">29.6125373840332</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1739330291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.928596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2964878082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2833499908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865509033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4252529144287</t>
+    <t xml:space="preserve">29.1739311218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9285926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2964820861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.283353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865547180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.425256729126</t>
   </si>
   <si>
     <t xml:space="preserve">30.6187591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1476726531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3156070709229</t>
+    <t xml:space="preserve">31.147668838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3155994415283</t>
   </si>
   <si>
     <t xml:space="preserve">30.354305267334</t>
@@ -1310,55 +1310,55 @@
     <t xml:space="preserve">29.7802448272705</t>
   </si>
   <si>
-    <t xml:space="preserve">29.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9288272857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0518379211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2778224945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2393531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1038990020752</t>
+    <t xml:space="preserve">29.4899883270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9288234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224685668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0518398284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2778244018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2393550872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1038970947266</t>
   </si>
   <si>
     <t xml:space="preserve">25.9553184509277</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9813480377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9942474365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5427360534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1750774383545</t>
+    <t xml:space="preserve">24.9813423156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9942493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5427379608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1750831604004</t>
   </si>
   <si>
     <t xml:space="preserve">24.9361953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6394901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8652458190918</t>
+    <t xml:space="preserve">24.6394958496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8652439117432</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651988983154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4524345397949</t>
+    <t xml:space="preserve">24.4524364471436</t>
   </si>
   <si>
     <t xml:space="preserve">23.6977710723877</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">23.6655216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8977222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0009250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5881195068359</t>
+    <t xml:space="preserve">23.8977279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0009269714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5881175994873</t>
   </si>
   <si>
     <t xml:space="preserve">22.9882583618164</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">24.0589752197266</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7104415893555</t>
+    <t xml:space="preserve">24.7104434967041</t>
   </si>
   <si>
     <t xml:space="preserve">23.304313659668</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">23.2140140533447</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1559638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8783760070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9684467315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2971744537354</t>
+    <t xml:space="preserve">23.1559619903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8783740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9684429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2971725463867</t>
   </si>
   <si>
     <t xml:space="preserve">25.3425559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6715106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1230201721191</t>
+    <t xml:space="preserve">25.6715087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1230182647705</t>
   </si>
   <si>
     <t xml:space="preserve">26.1359195709229</t>
@@ -1421,25 +1421,25 @@
     <t xml:space="preserve">25.7876110076904</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8650131225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5749855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3232002258301</t>
+    <t xml:space="preserve">25.86501121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5749893188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.323205947876</t>
   </si>
   <si>
     <t xml:space="preserve">25.4651069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">25.142599105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3490047454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2458057403564</t>
+    <t xml:space="preserve">25.1426010131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3490028381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2458019256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.0522975921631</t>
@@ -1448,58 +1448,58 @@
     <t xml:space="preserve">24.7684936523438</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7426948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4975872039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2329025268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6910915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.278284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3365631103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8076553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3881664276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6079273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3628234863281</t>
+    <t xml:space="preserve">24.7426929473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4975891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2329044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6910858154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2782821655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3365650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.807653427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3881645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6079292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3628253936768</t>
   </si>
   <si>
     <t xml:space="preserve">22.8463554382324</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2720642089844</t>
+    <t xml:space="preserve">23.272066116333</t>
   </si>
   <si>
     <t xml:space="preserve">23.0011558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">23.504264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4913654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4526653289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4010639190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5300674438477</t>
+    <t xml:space="preserve">23.5042686462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4913635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4526691436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.401065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5300693511963</t>
   </si>
   <si>
     <t xml:space="preserve">23.1430606842041</t>
@@ -1514,22 +1514,22 @@
     <t xml:space="preserve">22.0078372955322</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2596244812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9113159179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.28542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0016193389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9887161254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0723419189453</t>
+    <t xml:space="preserve">21.2596225738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9113140106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2854232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0016174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9887180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0723400115967</t>
   </si>
   <si>
     <t xml:space="preserve">21.9820384979248</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">20.7178115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3695049285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3757247924805</t>
+    <t xml:space="preserve">20.1759986877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3695030212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3757228851318</t>
   </si>
   <si>
     <t xml:space="preserve">21.182222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8855133056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1501979827881</t>
+    <t xml:space="preserve">20.8855152130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1502017974854</t>
   </si>
   <si>
     <t xml:space="preserve">19.0923805236816</t>
@@ -1565,28 +1565,28 @@
     <t xml:space="preserve">19.7502937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5888118743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.027416229248</t>
+    <t xml:space="preserve">20.5888080596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0274181365967</t>
   </si>
   <si>
     <t xml:space="preserve">21.1951217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3499240875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1626396179199</t>
+    <t xml:space="preserve">21.3499221801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1626415252686</t>
   </si>
   <si>
     <t xml:space="preserve">21.6982307434082</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5305290222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7885341644287</t>
+    <t xml:space="preserve">21.5305271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7885322570801</t>
   </si>
   <si>
     <t xml:space="preserve">21.6595325469971</t>
@@ -1598,46 +1598,46 @@
     <t xml:space="preserve">21.288257598877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0487651824951</t>
+    <t xml:space="preserve">21.0487613677979</t>
   </si>
   <si>
     <t xml:space="preserve">20.9955425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0753746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7539386749268</t>
+    <t xml:space="preserve">21.0753726959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7539405822754</t>
   </si>
   <si>
     <t xml:space="preserve">21.9668197631836</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2861423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4724159240723</t>
+    <t xml:space="preserve">22.2861442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4724140167236</t>
   </si>
   <si>
     <t xml:space="preserve">22.7252140045166</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4058895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0200386047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4878330230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3813896179199</t>
+    <t xml:space="preserve">22.4058933258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.020040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4878349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3813915252686</t>
   </si>
   <si>
     <t xml:space="preserve">21.6075820922852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6874103546143</t>
+    <t xml:space="preserve">21.6874141693115</t>
   </si>
   <si>
     <t xml:space="preserve">20.8491859436035</t>
@@ -1646,25 +1646,25 @@
     <t xml:space="preserve">20.1573181152344</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1461277008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.78688621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9465484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5606994628906</t>
+    <t xml:space="preserve">19.146125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7868900299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9465503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.560697555542</t>
   </si>
   <si>
     <t xml:space="preserve">18.1615447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1636581420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5803422927856</t>
+    <t xml:space="preserve">17.1636562347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5803442001343</t>
   </si>
   <si>
     <t xml:space="preserve">14.1699953079224</t>
@@ -1688,19 +1688,19 @@
     <t xml:space="preserve">16.6580619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.312126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.165771484375</t>
+    <t xml:space="preserve">16.3121280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1657676696777</t>
   </si>
   <si>
     <t xml:space="preserve">16.8177242279053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7623882293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2546806335449</t>
+    <t xml:space="preserve">17.7623901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2546825408936</t>
   </si>
   <si>
     <t xml:space="preserve">18.2280693054199</t>
@@ -1709,37 +1709,37 @@
     <t xml:space="preserve">17.6825580596924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4675617218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9598522186279</t>
+    <t xml:space="preserve">18.4675636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9598541259766</t>
   </si>
   <si>
     <t xml:space="preserve">18.4010391235352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5873107910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2812900543213</t>
+    <t xml:space="preserve">18.587308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2812919616699</t>
   </si>
   <si>
     <t xml:space="preserve">17.5628108978271</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0039958953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1237411499023</t>
+    <t xml:space="preserve">17.0039939880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.123743057251</t>
   </si>
   <si>
     <t xml:space="preserve">17.1503524780273</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2035732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1769599914551</t>
+    <t xml:space="preserve">17.2035713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1769618988037</t>
   </si>
   <si>
     <t xml:space="preserve">17.3632373809814</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">18.0417976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2413749694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8954410552979</t>
+    <t xml:space="preserve">18.2413768768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8954429626465</t>
   </si>
   <si>
     <t xml:space="preserve">17.4962844848633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5894241333008</t>
+    <t xml:space="preserve">17.5894222259521</t>
   </si>
   <si>
     <t xml:space="preserve">17.4031505584717</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">17.9087467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6559467315674</t>
+    <t xml:space="preserve">17.6559505462646</t>
   </si>
   <si>
     <t xml:space="preserve">17.9220504760742</t>
@@ -1784,19 +1784,19 @@
     <t xml:space="preserve">17.9885787963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.828914642334</t>
+    <t xml:space="preserve">17.8289127349854</t>
   </si>
   <si>
     <t xml:space="preserve">16.8975524902344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.097131729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0992431640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7022018432617</t>
+    <t xml:space="preserve">17.0971336364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0992450714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7022008895874</t>
   </si>
   <si>
     <t xml:space="preserve">15.0481367111206</t>
@@ -1817,52 +1817,52 @@
     <t xml:space="preserve">13.7575368881226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6111793518066</t>
+    <t xml:space="preserve">13.611177444458</t>
   </si>
   <si>
     <t xml:space="preserve">13.7309255599976</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6910104751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5824537277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0635538101196</t>
+    <t xml:space="preserve">13.6910095214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5824546813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0635547637939</t>
   </si>
   <si>
     <t xml:space="preserve">14.2631330490112</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2099142074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3961839675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5712623596191</t>
+    <t xml:space="preserve">14.2099113464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.396185874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5712614059448</t>
   </si>
   <si>
     <t xml:space="preserve">13.5180435180664</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4781274795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0369434356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215253829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.875171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6888980865479</t>
+    <t xml:space="preserve">13.4781293869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0369443893433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159311294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215291976929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8751697540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6888990402222</t>
   </si>
   <si>
     <t xml:space="preserve">15.2743244171143</t>
@@ -1871,22 +1871,22 @@
     <t xml:space="preserve">14.928391456604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348339080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6489839553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.675591468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8485565185547</t>
+    <t xml:space="preserve">15.0348320007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.648983001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6755933761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8485584259033</t>
   </si>
   <si>
     <t xml:space="preserve">15.460597038269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8597507476807</t>
+    <t xml:space="preserve">15.8597526550293</t>
   </si>
   <si>
     <t xml:space="preserve">15.8331413269043</t>
@@ -1898,49 +1898,49 @@
     <t xml:space="preserve">15.8730564117432</t>
   </si>
   <si>
-    <t xml:space="preserve">14.728814125061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.906005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.948034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.427020072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7663021087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1721096038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9791841506958</t>
+    <t xml:space="preserve">14.7288112640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9060068130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9480333328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4270191192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663011550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721086502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9791851043701</t>
   </si>
   <si>
     <t xml:space="preserve">11.3426475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420164108276</t>
+    <t xml:space="preserve">11.6420154571533</t>
   </si>
   <si>
     <t xml:space="preserve">11.2561664581299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8503580093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3559541702271</t>
+    <t xml:space="preserve">10.8503570556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3559551239014</t>
   </si>
   <si>
     <t xml:space="preserve">11.3293447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5422277450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9102306365967</t>
+    <t xml:space="preserve">11.5422286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.910231590271</t>
   </si>
   <si>
     <t xml:space="preserve">10.8836212158203</t>
@@ -1970,34 +1970,34 @@
     <t xml:space="preserve">9.9655647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3381090164185</t>
+    <t xml:space="preserve">10.3381099700928</t>
   </si>
   <si>
     <t xml:space="preserve">10.6441287994385</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2362079620361</t>
+    <t xml:space="preserve">11.2362070083618</t>
   </si>
   <si>
     <t xml:space="preserve">10.8703155517578</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0320911407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1385335922241</t>
+    <t xml:space="preserve">10.0320920944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1385326385498</t>
   </si>
   <si>
     <t xml:space="preserve">9.69946193695068</t>
   </si>
   <si>
-    <t xml:space="preserve">10.038743019104</t>
+    <t xml:space="preserve">10.0387439727783</t>
   </si>
   <si>
     <t xml:space="preserve">10.1717948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2981939315796</t>
+    <t xml:space="preserve">10.2981948852539</t>
   </si>
   <si>
     <t xml:space="preserve">10.5443391799927</t>
@@ -2009,40 +2009,40 @@
     <t xml:space="preserve">10.3979835510254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773910522461</t>
+    <t xml:space="preserve">10.6773900985718</t>
   </si>
   <si>
     <t xml:space="preserve">10.5709505081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243825912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9214239120483</t>
+    <t xml:space="preserve">10.5243806838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9214248657227</t>
   </si>
   <si>
     <t xml:space="preserve">12.2474002838135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9946022033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7529964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4336729049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.061128616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5621843338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9081192016602</t>
+    <t xml:space="preserve">11.9946031570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7529983520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4336738586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076974868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0611267089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.562183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9081182479858</t>
   </si>
   <si>
     <t xml:space="preserve">11.3692588806152</t>
@@ -2051,10 +2051,10 @@
     <t xml:space="preserve">11.8083295822144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3093872070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7018890380859</t>
+    <t xml:space="preserve">11.3093862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7018899917603</t>
   </si>
   <si>
     <t xml:space="preserve">12.2074861526489</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">12.1010437011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9413833618164</t>
+    <t xml:space="preserve">11.9413824081421</t>
   </si>
   <si>
     <t xml:space="preserve">11.4091749191284</t>
@@ -2072,16 +2072,16 @@
     <t xml:space="preserve">10.7904844284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.657434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3048477172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0853118896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93895530700684</t>
+    <t xml:space="preserve">10.6574335098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3048467636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0853109359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93895435333252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2715835571289</t>
@@ -2090,19 +2090,19 @@
     <t xml:space="preserve">10.2782363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9368410110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4424381256104</t>
+    <t xml:space="preserve">10.936842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.442437171936</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6087522506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6819295883179</t>
+    <t xml:space="preserve">11.6087532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6819305419922</t>
   </si>
   <si>
     <t xml:space="preserve">11.6353626251221</t>
@@ -2111,16 +2111,16 @@
     <t xml:space="preserve">11.6021003723145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0233268737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5842542648315</t>
+    <t xml:space="preserve">11.023325920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5842552185059</t>
   </si>
   <si>
     <t xml:space="preserve">11.1098098754883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2495136260986</t>
+    <t xml:space="preserve">11.2495126724243</t>
   </si>
   <si>
     <t xml:space="preserve">11.5089645385742</t>
@@ -2135,136 +2135,136 @@
     <t xml:space="preserve">10.9634523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.302734375</t>
+    <t xml:space="preserve">11.3027334213257</t>
   </si>
   <si>
     <t xml:space="preserve">11.4757013320923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5821418762207</t>
+    <t xml:space="preserve">11.582142829895</t>
   </si>
   <si>
     <t xml:space="preserve">11.1630306243896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0299777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1364192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759136199951</t>
+    <t xml:space="preserve">11.0299768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1364183425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759126663208</t>
   </si>
   <si>
     <t xml:space="preserve">11.0698928833008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6108646392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.200831413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9038915634155</t>
+    <t xml:space="preserve">10.6108655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2008323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9038925170898</t>
   </si>
   <si>
     <t xml:space="preserve">13.2319831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5068502426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9613380432129</t>
+    <t xml:space="preserve">12.5068511962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9613399505615</t>
   </si>
   <si>
     <t xml:space="preserve">11.7684144973755</t>
   </si>
   <si>
-    <t xml:space="preserve">11.668625831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6220579147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1164608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0278663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1343059539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2207908630371</t>
+    <t xml:space="preserve">11.6686267852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6220569610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1164617538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0278654098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1343069076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2207899093628</t>
   </si>
   <si>
     <t xml:space="preserve">12.62659740448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0677795410156</t>
+    <t xml:space="preserve">12.0677804946899</t>
   </si>
   <si>
     <t xml:space="preserve">10.4977712631226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.291543006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451845169067</t>
+    <t xml:space="preserve">10.2915420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451854705811</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187864303589</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99217510223389</t>
+    <t xml:space="preserve">9.9921760559082</t>
   </si>
   <si>
     <t xml:space="preserve">10.0453968048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8192081451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87242889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84581756591797</t>
+    <t xml:space="preserve">9.81920909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87242984771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84581851959229</t>
   </si>
   <si>
     <t xml:space="preserve">9.72607231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78594589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97887134552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89903926849365</t>
+    <t xml:space="preserve">9.78594493865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97886943817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89904022216797</t>
   </si>
   <si>
     <t xml:space="preserve">10.1651439666748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4445505142212</t>
+    <t xml:space="preserve">10.4445514678955</t>
   </si>
   <si>
     <t xml:space="preserve">10.4245929718018</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4046354293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3248052597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975608825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6507806777954</t>
+    <t xml:space="preserve">10.404634475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3248043060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.597559928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6507816314697</t>
   </si>
   <si>
     <t xml:space="preserve">10.6840438842773</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">10.9313497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6184148788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6966495513916</t>
+    <t xml:space="preserve">10.6184158325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6966485977173</t>
   </si>
   <si>
     <t xml:space="preserve">10.1347894668579</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">9.10353088378906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64835357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15331554412842</t>
+    <t xml:space="preserve">8.64835453033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15331649780273</t>
   </si>
   <si>
     <t xml:space="preserve">9.21021270751953</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">9.14620399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87594127655029</t>
+    <t xml:space="preserve">8.87594223022461</t>
   </si>
   <si>
     <t xml:space="preserve">8.66257858276367</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">8.69813919067383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60568237304688</t>
+    <t xml:space="preserve">8.60568141937256</t>
   </si>
   <si>
     <t xml:space="preserve">8.32119655609131</t>
@@ -2330,22 +2330,22 @@
     <t xml:space="preserve">8.49188709259033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34964466094971</t>
+    <t xml:space="preserve">8.34964370727539</t>
   </si>
   <si>
     <t xml:space="preserve">8.29274749755859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.250075340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10783100128174</t>
+    <t xml:space="preserve">8.25007629394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10783195495605</t>
   </si>
   <si>
     <t xml:space="preserve">8.0438232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42787742614746</t>
+    <t xml:space="preserve">8.42787837982178</t>
   </si>
   <si>
     <t xml:space="preserve">8.0580472946167</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">8.01537418365479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27141189575195</t>
+    <t xml:space="preserve">8.27141094207764</t>
   </si>
   <si>
     <t xml:space="preserve">7.98692607879639</t>
@@ -2372,19 +2372,19 @@
     <t xml:space="preserve">8.15761661529541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47766208648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8332691192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62701892852783</t>
+    <t xml:space="preserve">8.47766304016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83327007293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62701797485352</t>
   </si>
   <si>
     <t xml:space="preserve">8.47055149078369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30697250366211</t>
+    <t xml:space="preserve">8.30697154998779</t>
   </si>
   <si>
     <t xml:space="preserve">8.541672706604</t>
@@ -2393,49 +2393,49 @@
     <t xml:space="preserve">8.57723236083984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44210147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79059600830078</t>
+    <t xml:space="preserve">8.44210243225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7905969619751</t>
   </si>
   <si>
     <t xml:space="preserve">8.99684906005859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57293224334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51603412628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56581974029541</t>
+    <t xml:space="preserve">9.57293128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51603507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56582069396973</t>
   </si>
   <si>
     <t xml:space="preserve">9.67250156402588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43780136108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43068981170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33823013305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40935134887695</t>
+    <t xml:space="preserve">9.4378023147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43068885803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33823204040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40935230255127</t>
   </si>
   <si>
     <t xml:space="preserve">9.85030555725098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83608055114746</t>
+    <t xml:space="preserve">9.83608150482178</t>
   </si>
   <si>
     <t xml:space="preserve">9.8289680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62271690368652</t>
+    <t xml:space="preserve">9.62271595001221</t>
   </si>
   <si>
     <t xml:space="preserve">9.48758602142334</t>
@@ -2444,49 +2444,49 @@
     <t xml:space="preserve">9.70806217193604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71517467498779</t>
+    <t xml:space="preserve">9.71517372131348</t>
   </si>
   <si>
     <t xml:space="preserve">9.58004379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4662504196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53025913238525</t>
+    <t xml:space="preserve">9.46624946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53025817871094</t>
   </si>
   <si>
     <t xml:space="preserve">9.22443675994873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12486839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39512920379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92853927612305</t>
+    <t xml:space="preserve">9.12486743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39512825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92853832244873</t>
   </si>
   <si>
     <t xml:space="preserve">9.80763149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77207088470459</t>
+    <t xml:space="preserve">9.77207183837891</t>
   </si>
   <si>
     <t xml:space="preserve">10.0352201461792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3311185836792</t>
+    <t xml:space="preserve">9.33111953735352</t>
   </si>
   <si>
     <t xml:space="preserve">8.91861534118652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65546607971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08930683135986</t>
+    <t xml:space="preserve">8.65546703338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08930587768555</t>
   </si>
   <si>
     <t xml:space="preserve">9.16754055023193</t>
@@ -2501,46 +2501,46 @@
     <t xml:space="preserve">9.11064338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06085872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41646385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64405250549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92142677307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0423316955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.141902923584</t>
+    <t xml:space="preserve">9.06085777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41646575927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64405345916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92142581939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0423336029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1419019699097</t>
   </si>
   <si>
     <t xml:space="preserve">10.3979387283325</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3837156295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4548349380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5117340087891</t>
+    <t xml:space="preserve">10.3837146759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4548358917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5117330551147</t>
   </si>
   <si>
     <t xml:space="preserve">10.5401811599731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6610879898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9028997421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9100122451782</t>
+    <t xml:space="preserve">10.6610889434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9100131988525</t>
   </si>
   <si>
     <t xml:space="preserve">10.703761100769</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">10.6397514343262</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5330696105957</t>
+    <t xml:space="preserve">10.5330715179443</t>
   </si>
   <si>
     <t xml:space="preserve">10.6326389312744</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">10.8886766433716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.675311088562</t>
+    <t xml:space="preserve">10.6753120422363</t>
   </si>
   <si>
     <t xml:space="preserve">10.4690608978271</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">10.2343597412109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628078460693</t>
+    <t xml:space="preserve">10.262809753418</t>
   </si>
   <si>
     <t xml:space="preserve">10.3766031265259</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0067729949951</t>
+    <t xml:space="preserve">10.0067710876465</t>
   </si>
   <si>
     <t xml:space="preserve">10.3054819107056</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">10.4761724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7677707672119</t>
+    <t xml:space="preserve">10.7677717208862</t>
   </si>
   <si>
     <t xml:space="preserve">10.7108736038208</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">10.9953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9384613037109</t>
+    <t xml:space="preserve">10.9384603500366</t>
   </si>
   <si>
     <t xml:space="preserve">10.7464332580566</t>
@@ -2615,28 +2615,28 @@
     <t xml:space="preserve">10.8673410415649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9811334609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2442836761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3908271789551</t>
+    <t xml:space="preserve">10.9811344146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2442846298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3908281326294</t>
   </si>
   <si>
     <t xml:space="preserve">10.8104419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8531160354614</t>
+    <t xml:space="preserve">10.8531150817871</t>
   </si>
   <si>
     <t xml:space="preserve">11.208722114563</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2585077285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5828542709351</t>
+    <t xml:space="preserve">11.2585067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5828552246094</t>
   </si>
   <si>
     <t xml:space="preserve">10.3552665710449</t>
@@ -2648,31 +2648,31 @@
     <t xml:space="preserve">10.1632385253906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1063413619995</t>
+    <t xml:space="preserve">10.1063432693481</t>
   </si>
   <si>
     <t xml:space="preserve">9.96409893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98543643951416</t>
+    <t xml:space="preserve">9.98543548583984</t>
   </si>
   <si>
     <t xml:space="preserve">9.87164115905762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94276332855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81474304199219</t>
+    <t xml:space="preserve">9.94276237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81474494934082</t>
   </si>
   <si>
     <t xml:space="preserve">9.63694095611572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72939777374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65827655792236</t>
+    <t xml:space="preserve">9.72939872741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65827751159668</t>
   </si>
   <si>
     <t xml:space="preserve">9.47336196899414</t>
@@ -2684,10 +2684,10 @@
     <t xml:space="preserve">9.54448318481445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75073528289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75784683227539</t>
+    <t xml:space="preserve">9.75073623657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75784778594971</t>
   </si>
   <si>
     <t xml:space="preserve">9.69383716583252</t>
@@ -2705,10 +2705,10 @@
     <t xml:space="preserve">10.0565576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1561269760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0707817077637</t>
+    <t xml:space="preserve">10.1561260223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0707807540894</t>
   </si>
   <si>
     <t xml:space="preserve">10.0494441986084</t>
@@ -2720,58 +2720,58 @@
     <t xml:space="preserve">9.99965953826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82185554504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1205654144287</t>
+    <t xml:space="preserve">9.82185649871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.120566368103</t>
   </si>
   <si>
     <t xml:space="preserve">10.5472936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5259571075439</t>
+    <t xml:space="preserve">10.5259580612183</t>
   </si>
   <si>
     <t xml:space="preserve">10.4619483947754</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4832849502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2556972503662</t>
+    <t xml:space="preserve">10.483283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2556962966919</t>
   </si>
   <si>
     <t xml:space="preserve">10.2272481918335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7179861068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4192743301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1987981796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5899667739868</t>
+    <t xml:space="preserve">10.7179851531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4192752838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1988000869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5899658203125</t>
   </si>
   <si>
     <t xml:space="preserve">10.6681995391846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7819948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1447134017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1376008987427</t>
+    <t xml:space="preserve">10.7819938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1447124481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.137601852417</t>
   </si>
   <si>
     <t xml:space="preserve">11.0735912322998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1518268585205</t>
+    <t xml:space="preserve">11.1518259048462</t>
   </si>
   <si>
     <t xml:space="preserve">11.0024709701538</t>
@@ -2780,40 +2780,40 @@
     <t xml:space="preserve">11.1589374542236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2841453552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.504620552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77918338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.245774269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6910285949707</t>
+    <t xml:space="preserve">10.2841444015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5046215057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77918243408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24577331542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69102764129639</t>
   </si>
   <si>
     <t xml:space="preserve">7.56730985641479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27571153640747</t>
+    <t xml:space="preserve">7.27571105957031</t>
   </si>
   <si>
     <t xml:space="preserve">7.25437498092651</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23734140396118</t>
+    <t xml:space="preserve">6.23734188079834</t>
   </si>
   <si>
     <t xml:space="preserve">6.52893877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17333126068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98841619491577</t>
+    <t xml:space="preserve">6.17333173751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98841667175293</t>
   </si>
   <si>
     <t xml:space="preserve">6.00264072418213</t>
@@ -2825,40 +2825,40 @@
     <t xml:space="preserve">6.32979822158813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12710285186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42225646972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.454261302948</t>
+    <t xml:space="preserve">6.12710332870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42225694656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45426082611084</t>
   </si>
   <si>
     <t xml:space="preserve">6.57872343063354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49693441390991</t>
+    <t xml:space="preserve">6.49693393707275</t>
   </si>
   <si>
     <t xml:space="preserve">6.22667360305786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36535930633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33335447311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26934576034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35824680328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41870069503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56449842453003</t>
+    <t xml:space="preserve">6.36535882949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33335494995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2693452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35824728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41869974136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56449890136719</t>
   </si>
   <si>
     <t xml:space="preserve">6.53960704803467</t>
@@ -2879,16 +2879,16 @@
     <t xml:space="preserve">6.35113525390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04531383514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92085075378418</t>
+    <t xml:space="preserve">6.04531335830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92085123062134</t>
   </si>
   <si>
     <t xml:space="preserve">6.06664991378784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39380788803101</t>
+    <t xml:space="preserve">6.39380836486816</t>
   </si>
   <si>
     <t xml:space="preserve">6.52182674407959</t>
@@ -2897,22 +2897,22 @@
     <t xml:space="preserve">6.34757900238037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11643505096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18044376373291</t>
+    <t xml:space="preserve">6.1164345741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18044328689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.14132738113403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01686573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11287879943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02753305435181</t>
+    <t xml:space="preserve">6.01686477661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11287975311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02753353118896</t>
   </si>
   <si>
     <t xml:space="preserve">5.94574356079102</t>
@@ -2921,10 +2921,10 @@
     <t xml:space="preserve">5.85684156417847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74660348892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71104288101196</t>
+    <t xml:space="preserve">5.74660396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71104335784912</t>
   </si>
   <si>
     <t xml:space="preserve">5.68970680236816</t>
@@ -2933,13 +2933,13 @@
     <t xml:space="preserve">5.44078254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29142713546753</t>
+    <t xml:space="preserve">5.29142761230469</t>
   </si>
   <si>
     <t xml:space="preserve">5.17763328552246</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19185781478882</t>
+    <t xml:space="preserve">5.19185733795166</t>
   </si>
   <si>
     <t xml:space="preserve">5.47634315490723</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">5.69681882858276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86750984191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97063636779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89951467514038</t>
+    <t xml:space="preserve">5.8675103187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97063589096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89951515197754</t>
   </si>
   <si>
     <t xml:space="preserve">5.93863201141357</t>
@@ -2963,31 +2963,31 @@
     <t xml:space="preserve">6.29779434204102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53605079650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87743330001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36817121505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91299438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69962978363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24089622497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19466876983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36180305480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46492910385132</t>
+    <t xml:space="preserve">6.53605031967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87743282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3681697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91299343109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69962930679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24089670181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19466829299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36180353164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46492958068848</t>
   </si>
   <si>
     <t xml:space="preserve">6.40091991424561</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">6.30490636825562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14488410949707</t>
+    <t xml:space="preserve">6.14488363265991</t>
   </si>
   <si>
     <t xml:space="preserve">6.0879864692688</t>
@@ -3005,16 +3005,16 @@
     <t xml:space="preserve">5.93507528305054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84617376327515</t>
+    <t xml:space="preserve">5.8461742401123</t>
   </si>
   <si>
     <t xml:space="preserve">5.91018295288086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04175758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0808744430542</t>
+    <t xml:space="preserve">6.04175710678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08087396621704</t>
   </si>
   <si>
     <t xml:space="preserve">6.0630931854248</t>
@@ -3029,19 +3029,19 @@
     <t xml:space="preserve">6.45070505142212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37958431243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4827094078064</t>
+    <t xml:space="preserve">6.37958383560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48270988464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.46137380599976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84898519515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98055839538574</t>
+    <t xml:space="preserve">6.84898471832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9805588722229</t>
   </si>
   <si>
     <t xml:space="preserve">7.03745651245117</t>
@@ -3056,19 +3056,19 @@
     <t xml:space="preserve">6.50760126113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35469150543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16621971130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16266298294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38669586181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39736413955688</t>
+    <t xml:space="preserve">6.35469198226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16622018814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16266345977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38669538497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39736366271973</t>
   </si>
   <si>
     <t xml:space="preserve">6.25156497955322</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">6.52538299560547</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50049018859863</t>
+    <t xml:space="preserve">6.50049066543579</t>
   </si>
   <si>
     <t xml:space="preserve">6.53249454498291</t>
@@ -3086,16 +3086,16 @@
     <t xml:space="preserve">6.40447616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37247180938721</t>
+    <t xml:space="preserve">6.37247228622437</t>
   </si>
   <si>
     <t xml:space="preserve">6.48626565933228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30846261978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32268667221069</t>
+    <t xml:space="preserve">6.30846214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32268619537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.37602806091309</t>
@@ -3116,10 +3116,10 @@
     <t xml:space="preserve">6.27645778656006</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23022937774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26223373413086</t>
+    <t xml:space="preserve">6.23022890090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2622332572937</t>
   </si>
   <si>
     <t xml:space="preserve">6.46848487854004</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">5.92796325683594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106657028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97419214248657</t>
+    <t xml:space="preserve">5.87106609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97419166564941</t>
   </si>
   <si>
     <t xml:space="preserve">5.83194923400879</t>
@@ -3149,10 +3149,10 @@
     <t xml:space="preserve">5.84973001480103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73237943649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73593521118164</t>
+    <t xml:space="preserve">5.73237991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7359356880188</t>
   </si>
   <si>
     <t xml:space="preserve">5.750159740448</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">5.8746223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79283332824707</t>
+    <t xml:space="preserve">5.79283285140991</t>
   </si>
   <si>
     <t xml:space="preserve">5.85328578948975</t>
@@ -3182,37 +3182,37 @@
     <t xml:space="preserve">5.58302450180054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57591342926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61858606338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72171115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54390811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49412250518799</t>
+    <t xml:space="preserve">5.5759129524231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61858558654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7217116355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54390859603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49412298202515</t>
   </si>
   <si>
     <t xml:space="preserve">5.41233348846436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498338699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30565166473389</t>
+    <t xml:space="preserve">5.29498291015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30565214157104</t>
   </si>
   <si>
     <t xml:space="preserve">4.95715665817261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79713344573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89670372009277</t>
+    <t xml:space="preserve">4.7971339225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89670419692993</t>
   </si>
   <si>
     <t xml:space="preserve">5.04605865478516</t>
@@ -3221,28 +3221,28 @@
     <t xml:space="preserve">5.25942277908325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38744115829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30920743942261</t>
+    <t xml:space="preserve">5.38744068145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30920791625977</t>
   </si>
   <si>
     <t xml:space="preserve">5.27009057998657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65059041976929</t>
+    <t xml:space="preserve">5.65058994293213</t>
   </si>
   <si>
     <t xml:space="preserve">5.66125869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78216505050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7572717666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22311735153198</t>
+    <t xml:space="preserve">5.78216457366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75727224349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22311639785767</t>
   </si>
   <si>
     <t xml:space="preserve">6.42581224441528</t>
@@ -3251,46 +3251,46 @@
     <t xml:space="preserve">6.44359350204468</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68184995651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6071720123291</t>
+    <t xml:space="preserve">6.68184947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60717248916626</t>
   </si>
   <si>
     <t xml:space="preserve">6.57516670227051</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5858359336853</t>
+    <t xml:space="preserve">6.58583498001099</t>
   </si>
   <si>
     <t xml:space="preserve">6.49337768554688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79208707809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92721748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94855403900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97700357437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83831644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80986785888672</t>
+    <t xml:space="preserve">6.79208850860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92721796035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94855451583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9770040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83831548690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80986833572388</t>
   </si>
   <si>
     <t xml:space="preserve">6.74230241775513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66051292419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71385383605957</t>
+    <t xml:space="preserve">6.66051244735718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71385431289673</t>
   </si>
   <si>
     <t xml:space="preserve">6.71029806137085</t>
@@ -3299,94 +3299,94 @@
     <t xml:space="preserve">6.6427321434021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63917636871338</t>
+    <t xml:space="preserve">6.63917684555054</t>
   </si>
   <si>
     <t xml:space="preserve">6.67118120193481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47559690475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54671859741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58939218521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58227968215942</t>
+    <t xml:space="preserve">6.47559642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54671907424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58939170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58228015899658</t>
   </si>
   <si>
     <t xml:space="preserve">6.62495231628418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61072826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56805419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30135059356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31201791763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21244859695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1093225479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90307092666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01330900192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95641136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29423904418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67829370498657</t>
+    <t xml:space="preserve">6.61072731018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56805515289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30134963989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31201839447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21244812011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10932302474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9030704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01330852508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95641183853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29423856735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67829322814941</t>
   </si>
   <si>
     <t xml:space="preserve">6.88454532623291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03389930725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43217897415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33972215652466</t>
+    <t xml:space="preserve">7.03390026092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43217992782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3397216796875</t>
   </si>
   <si>
     <t xml:space="preserve">7.42506742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33260917663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32549715042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24015235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3041615486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36105823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58864641189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48196506500244</t>
+    <t xml:space="preserve">7.33261013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3254976272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24015283584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30416107177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36105871200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58864545822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48196411132812</t>
   </si>
   <si>
     <t xml:space="preserve">7.66687917709351</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">7.5388617515564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46062850952148</t>
+    <t xml:space="preserve">7.46062755584717</t>
   </si>
   <si>
     <t xml:space="preserve">7.93002891540527</t>
@@ -3407,19 +3407,19 @@
     <t xml:space="preserve">7.90869283676147</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95847654342651</t>
+    <t xml:space="preserve">7.95847749710083</t>
   </si>
   <si>
     <t xml:space="preserve">8.16472911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22873878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12916946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15050506591797</t>
+    <t xml:space="preserve">8.22873783111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12916851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15050411224365</t>
   </si>
   <si>
     <t xml:space="preserve">7.88024425506592</t>
@@ -3434,19 +3434,19 @@
     <t xml:space="preserve">8.0864953994751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10072040557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00115013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093574523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07938385009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8660192489624</t>
+    <t xml:space="preserve">8.1007194519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00114917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093479156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07938289642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86602020263672</t>
   </si>
   <si>
     <t xml:space="preserve">8.24296283721924</t>
@@ -3464,10 +3464,10 @@
     <t xml:space="preserve">7.78778600692749</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99403715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20740222930908</t>
+    <t xml:space="preserve">7.99403810501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20740127563477</t>
   </si>
   <si>
     <t xml:space="preserve">8.2642993927002</t>
@@ -3482,10 +3482,10 @@
     <t xml:space="preserve">8.22162628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27852439880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74792385101318</t>
+    <t xml:space="preserve">8.27852344512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74792289733887</t>
   </si>
   <si>
     <t xml:space="preserve">8.46343803405762</t>
@@ -3500,10 +3500,10 @@
     <t xml:space="preserve">9.30978298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23866081237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08219528198242</t>
+    <t xml:space="preserve">9.23865985870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08219432830811</t>
   </si>
   <si>
     <t xml:space="preserve">9.00396060943604</t>
@@ -3512,34 +3512,34 @@
     <t xml:space="preserve">8.85460662841797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04663467407227</t>
+    <t xml:space="preserve">9.04663372039795</t>
   </si>
   <si>
     <t xml:space="preserve">9.13909149169922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18176364898682</t>
+    <t xml:space="preserve">9.18176460266113</t>
   </si>
   <si>
     <t xml:space="preserve">9.2599983215332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21732616424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35245513916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96128749847412</t>
+    <t xml:space="preserve">9.21732425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35245418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96128940582275</t>
   </si>
   <si>
     <t xml:space="preserve">9.91431331634521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79340744018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5089225769043</t>
+    <t xml:space="preserve">9.79340839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50892066955566</t>
   </si>
   <si>
     <t xml:space="preserve">9.45202541351318</t>
@@ -3554,40 +3554,40 @@
     <t xml:space="preserve">9.66538906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05374526977539</t>
+    <t xml:space="preserve">9.05374431610107</t>
   </si>
   <si>
     <t xml:space="preserve">9.18887615203857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85741806030273</t>
+    <t xml:space="preserve">9.85741710662842</t>
   </si>
   <si>
     <t xml:space="preserve">9.87875366210938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88586521148682</t>
+    <t xml:space="preserve">9.88586616516113</t>
   </si>
   <si>
     <t xml:space="preserve">9.97832298278809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90009021759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89297676086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97121143341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1134538650513</t>
+    <t xml:space="preserve">9.90008926391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89297771453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97121238708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.113452911377</t>
   </si>
   <si>
     <t xml:space="preserve">10.412163734436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3623790740967</t>
+    <t xml:space="preserve">10.3623781204224</t>
   </si>
   <si>
     <t xml:space="preserve">10.3125944137573</t>
@@ -3596,13 +3596,13 @@
     <t xml:space="preserve">10.3268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4050512313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1276779174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2983694076538</t>
+    <t xml:space="preserve">10.40505027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1276788711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2983684539795</t>
   </si>
   <si>
     <t xml:space="preserve">10.4406118392944</t>
@@ -3614,22 +3614,22 @@
     <t xml:space="preserve">10.5188455581665</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7891073226929</t>
+    <t xml:space="preserve">10.7891063690186</t>
   </si>
   <si>
     <t xml:space="preserve">11.0451421737671</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0949287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3580770492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4434223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4860944747925</t>
+    <t xml:space="preserve">11.0949277877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3580780029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4434232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4860954284668</t>
   </si>
   <si>
     <t xml:space="preserve">11.2656183242798</t>
@@ -3641,22 +3641,22 @@
     <t xml:space="preserve">11.9057102203369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.225757598877</t>
+    <t xml:space="preserve">12.2257595062256</t>
   </si>
   <si>
     <t xml:space="preserve">11.6141138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0621776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6496744155884</t>
+    <t xml:space="preserve">12.0621786117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6496734619141</t>
   </si>
   <si>
     <t xml:space="preserve">11.891487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.742133140564</t>
+    <t xml:space="preserve">11.7421321868896</t>
   </si>
   <si>
     <t xml:space="preserve">11.7207956314087</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">11.7492446899414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1048517227173</t>
+    <t xml:space="preserve">12.104850769043</t>
   </si>
   <si>
     <t xml:space="preserve">12.0977401733398</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">12.3790817260742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3486661911011</t>
+    <t xml:space="preserve">12.3486652374268</t>
   </si>
   <si>
     <t xml:space="preserve">12.1965894699097</t>
@@ -3686,34 +3686,34 @@
     <t xml:space="preserve">11.9988880157471</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1053438186646</t>
+    <t xml:space="preserve">12.1053428649902</t>
   </si>
   <si>
     <t xml:space="preserve">12.2117958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1433610916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1585702896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3106460571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4323091506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6528196334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288579940796</t>
+    <t xml:space="preserve">12.1433620452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1585693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3106470108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4323081970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528186798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288589477539</t>
   </si>
   <si>
     <t xml:space="preserve">12.7516717910767</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8505201339722</t>
+    <t xml:space="preserve">12.8505210876465</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125019073486</t>
@@ -3722,13 +3722,13 @@
     <t xml:space="preserve">12.6224050521851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8809356689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8581256866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7896890640259</t>
+    <t xml:space="preserve">12.8809366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8581237792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7896900177002</t>
   </si>
   <si>
     <t xml:space="preserve">12.6908407211304</t>
@@ -3743,19 +3743,19 @@
     <t xml:space="preserve">11.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0369091033936</t>
+    <t xml:space="preserve">12.0369081497192</t>
   </si>
   <si>
     <t xml:space="preserve">11.6034879684448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578641891479</t>
+    <t xml:space="preserve">11.5578651428223</t>
   </si>
   <si>
     <t xml:space="preserve">11.5426578521729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9647645950317</t>
+    <t xml:space="preserve">10.9647636413574</t>
   </si>
   <si>
     <t xml:space="preserve">11.1092367172241</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">11.504638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9228515625</t>
+    <t xml:space="preserve">11.9228506088257</t>
   </si>
   <si>
     <t xml:space="preserve">12.0901346206665</t>
@@ -3788,31 +3788,31 @@
     <t xml:space="preserve">12.0064916610718</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9000387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6186962127686</t>
+    <t xml:space="preserve">11.9000377655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6186952590942</t>
   </si>
   <si>
     <t xml:space="preserve">11.8087921142578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1509666442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1357574462891</t>
+    <t xml:space="preserve">12.1509656906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1357583999634</t>
   </si>
   <si>
     <t xml:space="preserve">12.9265604019165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9797859191895</t>
+    <t xml:space="preserve">12.9797868728638</t>
   </si>
   <si>
     <t xml:space="preserve">13.299147605896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4512271881104</t>
+    <t xml:space="preserve">13.451226234436</t>
   </si>
   <si>
     <t xml:space="preserve">13.359977722168</t>
@@ -3821,7 +3821,7 @@
     <t xml:space="preserve">13.1318635940552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3295640945435</t>
+    <t xml:space="preserve">13.3295650482178</t>
   </si>
   <si>
     <t xml:space="preserve">13.2839412689209</t>
@@ -3830,31 +3830,31 @@
     <t xml:space="preserve">13.4816408157349</t>
   </si>
   <si>
-    <t xml:space="preserve">13.656530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.717360496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8618326187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0291194915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5576782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.512056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9530801773071</t>
+    <t xml:space="preserve">13.6565284729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7173614501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8618335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0291204452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5576791763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5120573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9530811309814</t>
   </si>
   <si>
     <t xml:space="preserve">13.8238143920898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.033013343811</t>
+    <t xml:space="preserve">13.0330123901367</t>
   </si>
   <si>
     <t xml:space="preserve">13.4664335250854</t>
@@ -3863,16 +3863,16 @@
     <t xml:space="preserve">13.5880966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6109066009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4892454147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4208106994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8998537063599</t>
+    <t xml:space="preserve">13.6109056472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4892444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4208097457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8998546600342</t>
   </si>
   <si>
     <t xml:space="preserve">13.7249631881714</t>
@@ -3881,13 +3881,13 @@
     <t xml:space="preserve">13.6261148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0063056945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5994081497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6031160354614</t>
+    <t xml:space="preserve">14.0063066482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5994091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6031179428101</t>
   </si>
   <si>
     <t xml:space="preserve">15.7399873733521</t>
@@ -3899,7 +3899,7 @@
     <t xml:space="preserve">16.485164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.226634979248</t>
+    <t xml:space="preserve">16.2266330718994</t>
   </si>
   <si>
     <t xml:space="preserve">16.2722568511963</t>
@@ -3911,28 +3911,28 @@
     <t xml:space="preserve">14.9796009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9454765319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6678419113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4017086029053</t>
+    <t xml:space="preserve">13.9454774856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6678438186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.401707649231</t>
   </si>
   <si>
     <t xml:space="preserve">13.5652837753296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8314180374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5804920196533</t>
+    <t xml:space="preserve">13.8314170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.580491065979</t>
   </si>
   <si>
     <t xml:space="preserve">12.3714771270752</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8316040039062</t>
+    <t xml:space="preserve">11.8316030502319</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341630935669</t>
@@ -3950,10 +3950,10 @@
     <t xml:space="preserve">13.3827905654907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0823469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9834966659546</t>
+    <t xml:space="preserve">14.0823450088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9834957122803</t>
   </si>
   <si>
     <t xml:space="preserve">14.0139102935791</t>
@@ -3965,10 +3965,10 @@
     <t xml:space="preserve">14.2952527999878</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1735916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.33327293396</t>
+    <t xml:space="preserve">14.1735925674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3332748413086</t>
   </si>
   <si>
     <t xml:space="preserve">14.3712911605835</t>
@@ -3977,22 +3977,22 @@
     <t xml:space="preserve">14.1964025497437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3180656433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4968481063843</t>
+    <t xml:space="preserve">14.3180646896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4968490600586</t>
   </si>
   <si>
     <t xml:space="preserve">13.9074583053589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7401723861694</t>
+    <t xml:space="preserve">13.7401714324951</t>
   </si>
   <si>
     <t xml:space="preserve">13.7933988571167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4740371704102</t>
+    <t xml:space="preserve">13.4740352630615</t>
   </si>
   <si>
     <t xml:space="preserve">13.8086071014404</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">13.1090526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4779300689697</t>
+    <t xml:space="preserve">12.477931022644</t>
   </si>
   <si>
     <t xml:space="preserve">12.7364625930786</t>
@@ -4016,55 +4016,55 @@
     <t xml:space="preserve">13.2231092453003</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5272636413574</t>
+    <t xml:space="preserve">13.5272645950317</t>
   </si>
   <si>
     <t xml:space="preserve">13.238317489624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8334798812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8495635986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691373825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0425891876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9380331039429</t>
+    <t xml:space="preserve">13.833477973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8495626449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691383361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0425882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9380340576172</t>
   </si>
   <si>
     <t xml:space="preserve">14.018461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6565389633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6324110031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6082830429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5761117935181</t>
+    <t xml:space="preserve">13.6565380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6324119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6082820892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5761108398438</t>
   </si>
   <si>
     <t xml:space="preserve">13.5841541290283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3509159088135</t>
+    <t xml:space="preserve">13.3509149551392</t>
   </si>
   <si>
     <t xml:space="preserve">13.173975944519</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9166069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1445074081421</t>
+    <t xml:space="preserve">12.9166088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1445083618164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5252170562744</t>
@@ -4079,25 +4079,25 @@
     <t xml:space="preserve">11.5010900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4850044250488</t>
+    <t xml:space="preserve">11.4850034713745</t>
   </si>
   <si>
     <t xml:space="preserve">11.7423715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5573892593384</t>
+    <t xml:space="preserve">11.5573883056641</t>
   </si>
   <si>
     <t xml:space="preserve">11.5493459701538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2598075866699</t>
+    <t xml:space="preserve">11.2598085403442</t>
   </si>
   <si>
     <t xml:space="preserve">11.5413036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.468918800354</t>
+    <t xml:space="preserve">11.4689197540283</t>
   </si>
   <si>
     <t xml:space="preserve">11.4367475509644</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">10.8657150268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7289876937866</t>
+    <t xml:space="preserve">10.7289886474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.6726903915405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2383823394775</t>
+    <t xml:space="preserve">10.2383813858032</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579551696777</t>
@@ -4130,7 +4130,7 @@
     <t xml:space="preserve">10.350980758667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4072790145874</t>
+    <t xml:space="preserve">10.4072799682617</t>
   </si>
   <si>
     <t xml:space="preserve">9.96493053436279</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">9.48236751556396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70756244659424</t>
+    <t xml:space="preserve">9.70756340026855</t>
   </si>
   <si>
     <t xml:space="preserve">9.86841773986816</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">10.1257839202881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1659994125366</t>
+    <t xml:space="preserve">10.1659984588623</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016569137573</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">10.1338272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3027248382568</t>
+    <t xml:space="preserve">10.3027257919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.3348951339722</t>
@@ -4187,7 +4187,7 @@
     <t xml:space="preserve">10.9783134460449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968183517456</t>
+    <t xml:space="preserve">10.6968173980713</t>
   </si>
   <si>
     <t xml:space="preserve">10.415322303772</t>
@@ -4199,19 +4199,19 @@
     <t xml:space="preserve">10.7852878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9702711105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4394512176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0131874084473</t>
+    <t xml:space="preserve">10.9702701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4394502639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0131864547729</t>
   </si>
   <si>
     <t xml:space="preserve">10.1418695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177415847778</t>
+    <t xml:space="preserve">10.1177425384521</t>
   </si>
   <si>
     <t xml:space="preserve">9.97297286987305</t>
@@ -4220,25 +4220,25 @@
     <t xml:space="preserve">9.6995210647583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62713623046875</t>
+    <t xml:space="preserve">9.62713718414307</t>
   </si>
   <si>
     <t xml:space="preserve">9.69147777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61105060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36172676086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5547513961792</t>
+    <t xml:space="preserve">9.61104965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36172580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55475234985352</t>
   </si>
   <si>
     <t xml:space="preserve">9.28934192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24108409881592</t>
+    <t xml:space="preserve">9.24108505249023</t>
   </si>
   <si>
     <t xml:space="preserve">9.1043586730957</t>
@@ -4259,16 +4259,16 @@
     <t xml:space="preserve">10.0614433288574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83624744415283</t>
+    <t xml:space="preserve">9.83624649047852</t>
   </si>
   <si>
     <t xml:space="preserve">9.77994728088379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49845218658447</t>
+    <t xml:space="preserve">9.45019626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49845314025879</t>
   </si>
   <si>
     <t xml:space="preserve">9.17674446105957</t>
@@ -4292,22 +4292,22 @@
     <t xml:space="preserve">9.25717067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16065883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0641450881958</t>
+    <t xml:space="preserve">9.16065788269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06414604187012</t>
   </si>
   <si>
     <t xml:space="preserve">8.95959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87916278839111</t>
+    <t xml:space="preserve">8.87916374206543</t>
   </si>
   <si>
     <t xml:space="preserve">8.97567558288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84699249267578</t>
+    <t xml:space="preserve">8.84699153900146</t>
   </si>
   <si>
     <t xml:space="preserve">8.85503578186035</t>
@@ -4316,7 +4316,7 @@
     <t xml:space="preserve">9.11240196228027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08827304840088</t>
+    <t xml:space="preserve">9.0882740020752</t>
   </si>
   <si>
     <t xml:space="preserve">9.12848854064941</t>
@@ -4340,10 +4340,10 @@
     <t xml:space="preserve">9.81211853027344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5198783874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.479663848877</t>
+    <t xml:space="preserve">10.5198774337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4796648025513</t>
   </si>
   <si>
     <t xml:space="preserve">10.8255014419556</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">11.1230821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">11.00244140625</t>
+    <t xml:space="preserve">11.0024423599243</t>
   </si>
   <si>
     <t xml:space="preserve">11.3643636703491</t>
@@ -5334,6 +5334,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.4300003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4799995422363</t>
   </si>
 </sst>
 </file>
@@ -61861,7 +61864,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6504513889</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>65304</v>
@@ -61882,6 +61885,32 @@
         <v>1773</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6494444444</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>312393</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>20.5799999237061</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>19.7900009155273</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>19.7900009155273</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>20.4799995422363</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1776">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">16.924783706665</t>
   </si>
   <si>
-    <t xml:space="preserve">16.850980758667</t>
+    <t xml:space="preserve">16.8509845733643</t>
   </si>
   <si>
     <t xml:space="preserve">15.9961318969727</t>
@@ -56,49 +56,49 @@
     <t xml:space="preserve">15.7931842803955</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8116340637207</t>
+    <t xml:space="preserve">15.8116302490234</t>
   </si>
   <si>
     <t xml:space="preserve">15.866982460022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.590235710144</t>
+    <t xml:space="preserve">15.5902338027954</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2335338592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.94078540802</t>
+    <t xml:space="preserve">15.2335329055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407825469971</t>
   </si>
   <si>
     <t xml:space="preserve">16.1006832122803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8731327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9063339233398</t>
+    <t xml:space="preserve">15.8731336593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9063320159912</t>
   </si>
   <si>
     <t xml:space="preserve">16.9309310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5274829864502</t>
+    <t xml:space="preserve">17.5274791717529</t>
   </si>
   <si>
     <t xml:space="preserve">17.5336303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1154308319092</t>
+    <t xml:space="preserve">17.1154289245605</t>
   </si>
   <si>
     <t xml:space="preserve">17.7119827270508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6504821777344</t>
+    <t xml:space="preserve">17.6504802703857</t>
   </si>
   <si>
     <t xml:space="preserve">17.3429832458496</t>
@@ -107,43 +107,43 @@
     <t xml:space="preserve">16.6849327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4512310028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9899845123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3602333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4032859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1105337142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1412830352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2027826309204</t>
+    <t xml:space="preserve">16.4512329101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9899826049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3602342605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4032869338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1105365753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1412868499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2027835845947</t>
   </si>
   <si>
     <t xml:space="preserve">15.9838314056396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8792839050293</t>
+    <t xml:space="preserve">15.8792848587036</t>
   </si>
   <si>
     <t xml:space="preserve">15.7808847427368</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6947832107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7624311447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9739818572998</t>
+    <t xml:space="preserve">15.6947822570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.762433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9739799499512</t>
   </si>
   <si>
     <t xml:space="preserve">16.4696826934814</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">16.7218322753906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6049823760986</t>
+    <t xml:space="preserve">16.6049842834473</t>
   </si>
   <si>
     <t xml:space="preserve">16.5434818267822</t>
@@ -167,79 +167,79 @@
     <t xml:space="preserve">16.807933807373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4819831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8854312896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0084342956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5779323577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9284830093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1867828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6972312927246</t>
+    <t xml:space="preserve">16.4819850921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8854322433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0084323883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5779361724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9284801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1867847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6972332000732</t>
   </si>
   <si>
     <t xml:space="preserve">16.9124813079834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5951309204102</t>
+    <t xml:space="preserve">17.5951328277588</t>
   </si>
   <si>
     <t xml:space="preserve">17.8534317016602</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6996803283691</t>
+    <t xml:space="preserve">17.6996822357178</t>
   </si>
   <si>
     <t xml:space="preserve">17.5582313537598</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7242832183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7495460510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1285419464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3875198364258</t>
+    <t xml:space="preserve">17.7242794036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7495498657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1285400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3875217437744</t>
   </si>
   <si>
     <t xml:space="preserve">18.0527420043945</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0148448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1557903289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2442207336426</t>
+    <t xml:space="preserve">17.4274005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0148429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1557884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2442226409912</t>
   </si>
   <si>
     <t xml:space="preserve">17.3579196929932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4716186523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1936893463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8020629882812</t>
+    <t xml:space="preserve">17.4716205596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1936912536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8020648956299</t>
   </si>
   <si>
     <t xml:space="preserve">16.9662933349609</t>
@@ -248,46 +248,46 @@
     <t xml:space="preserve">16.7578468322754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.650463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9157638549805</t>
+    <t xml:space="preserve">16.6504650115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9157600402832</t>
   </si>
   <si>
     <t xml:space="preserve">16.4483375549316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3283214569092</t>
+    <t xml:space="preserve">16.3283195495605</t>
   </si>
   <si>
     <t xml:space="preserve">16.044075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.081974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.006175994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7787780761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5261192321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.22292137146</t>
+    <t xml:space="preserve">16.0819759368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1704063415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0061779022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7787799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5261173248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229232788086</t>
   </si>
   <si>
     <t xml:space="preserve">15.5766487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0334243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0018444061279</t>
+    <t xml:space="preserve">15.0334234237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0018434524536</t>
   </si>
   <si>
     <t xml:space="preserve">14.6544322967529</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">14.4144010543823</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1175241470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2754383087158</t>
+    <t xml:space="preserve">14.117525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2754373550415</t>
   </si>
   <si>
     <t xml:space="preserve">14.0354061126709</t>
@@ -308,19 +308,19 @@
     <t xml:space="preserve">13.7258958816528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8964424133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.953293800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5806159973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8332777023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249050140381</t>
+    <t xml:space="preserve">13.8964414596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9532928466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5806169509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8332767486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249021530151</t>
   </si>
   <si>
     <t xml:space="preserve">15.9619588851929</t>
@@ -332,37 +332,37 @@
     <t xml:space="preserve">15.1597557067871</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9134092330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0271081924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796979904175</t>
+    <t xml:space="preserve">14.9134101867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0271110534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796970367432</t>
   </si>
   <si>
     <t xml:space="preserve">14.5912666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6923303604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649324417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2564878463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0543584823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8016948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4226999282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.258472442627</t>
+    <t xml:space="preserve">14.6923332214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649343490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2564868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0543565750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8016939163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.422700881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.258469581604</t>
   </si>
   <si>
     <t xml:space="preserve">13.1068725585938</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">12.7657775878906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4479684829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9153928756714</t>
+    <t xml:space="preserve">13.4479675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9153938293457</t>
   </si>
   <si>
     <t xml:space="preserve">13.8522272109985</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">14.2817525863647</t>
   </si>
   <si>
-    <t xml:space="preserve">13.327953338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1929521560669</t>
+    <t xml:space="preserve">13.3279542922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1929531097412</t>
   </si>
   <si>
     <t xml:space="preserve">11.2877016067505</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">11.3508672714233</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4645662307739</t>
+    <t xml:space="preserve">11.4645652770996</t>
   </si>
   <si>
     <t xml:space="preserve">11.477198600769</t>
@@ -413,37 +413,37 @@
     <t xml:space="preserve">10.5233964920044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7002611160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7381601333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9067249298096</t>
+    <t xml:space="preserve">10.7002620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7381610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9067268371582</t>
   </si>
   <si>
     <t xml:space="preserve">12.4057331085205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.633131980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562654495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6647129058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.380467414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6457643508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3488845825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467542648315</t>
+    <t xml:space="preserve">12.6331300735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562644958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6647138595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3804664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6457624435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3488836288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467523574829</t>
   </si>
   <si>
     <t xml:space="preserve">11.9446249008179</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">11.6603784561157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0962219238281</t>
+    <t xml:space="preserve">12.0962228775024</t>
   </si>
   <si>
     <t xml:space="preserve">12.8857927322388</t>
@@ -461,91 +461,91 @@
     <t xml:space="preserve">12.5573310852051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7341957092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2225542068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541370391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.759464263916</t>
+    <t xml:space="preserve">12.7341947555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2225532531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541360855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7594614028931</t>
   </si>
   <si>
     <t xml:space="preserve">12.911060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5383806228638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8163118362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7089290618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5952291488647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5194311141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4120492935181</t>
+    <t xml:space="preserve">12.5383825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8163108825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.708930015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5952310562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5194320678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4120502471924</t>
   </si>
   <si>
     <t xml:space="preserve">12.0835886001587</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0709571838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1404371261597</t>
+    <t xml:space="preserve">12.0709562301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1404390335083</t>
   </si>
   <si>
     <t xml:space="preserve">12.1278057098389</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2036018371582</t>
+    <t xml:space="preserve">12.2036037445068</t>
   </si>
   <si>
     <t xml:space="preserve">12.0646390914917</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0583219528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2288703918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3236169815063</t>
+    <t xml:space="preserve">12.0583238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2288694381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.323618888855</t>
   </si>
   <si>
     <t xml:space="preserve">12.3046674728394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5699625015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0121250152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5427141189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6311464309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1510887145996</t>
+    <t xml:space="preserve">12.5699634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0121240615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5427169799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6311445236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1510848999023</t>
   </si>
   <si>
     <t xml:space="preserve">12.8605270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9489574432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.835259437561</t>
+    <t xml:space="preserve">12.9489583969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8352603912354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8542108535767</t>
@@ -554,118 +554,118 @@
     <t xml:space="preserve">12.7278776168823</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9426412582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2647857666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2205715179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8226280212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6583957672119</t>
+    <t xml:space="preserve">12.9426431655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2647838592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2205696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8226270675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6583967208862</t>
   </si>
   <si>
     <t xml:space="preserve">12.6394472122192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6773462295532</t>
+    <t xml:space="preserve">12.6773471832275</t>
   </si>
   <si>
     <t xml:space="preserve">12.873158454895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9300088882446</t>
+    <t xml:space="preserve">12.9300079345703</t>
   </si>
   <si>
     <t xml:space="preserve">13.2268877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6437797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7744455337524</t>
+    <t xml:space="preserve">13.643780708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7744464874268</t>
   </si>
   <si>
     <t xml:space="preserve">15.0650081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0965881347656</t>
+    <t xml:space="preserve">15.0965900421143</t>
   </si>
   <si>
     <t xml:space="preserve">15.2481889724731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3429384231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5892848968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8040437698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9051103591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3662204742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4546489715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125640869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7452163696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6441497802734</t>
+    <t xml:space="preserve">15.3429355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5892820358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8040447235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9051122665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3662185668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4546508789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7452125549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6441459655762</t>
   </si>
   <si>
     <t xml:space="preserve">16.4357032775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1830406188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2019882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9556446075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0503921508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9935436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8166770935059</t>
+    <t xml:space="preserve">16.1830387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2019901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9556427001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0503902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.993540763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8166799545288</t>
   </si>
   <si>
     <t xml:space="preserve">15.4755859375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4629497528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0081586837769</t>
+    <t xml:space="preserve">15.4629507064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0081567764282</t>
   </si>
   <si>
     <t xml:space="preserve">15.0523729324341</t>
   </si>
   <si>
-    <t xml:space="preserve">14.944993019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512363433838</t>
+    <t xml:space="preserve">14.9449949264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512344360352</t>
   </si>
   <si>
     <t xml:space="preserve">14.4270334243774</t>
@@ -677,58 +677,58 @@
     <t xml:space="preserve">14.0227737426758</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5281009674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807645797729</t>
+    <t xml:space="preserve">14.5280990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807626724243</t>
   </si>
   <si>
     <t xml:space="preserve">14.761812210083</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6102151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5513830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6966638565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6082286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7914113998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4293842315674</t>
+    <t xml:space="preserve">14.6102132797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5513858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.696662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6082305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.791410446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.429386138916</t>
   </si>
   <si>
     <t xml:space="preserve">16.1514568328857</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8229951858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9177446365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2588348388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4230709075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.738899230957</t>
+    <t xml:space="preserve">15.8229942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.917742729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2588386535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4230690002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7388973236084</t>
   </si>
   <si>
     <t xml:space="preserve">17.1368408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0420913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9915599822998</t>
+    <t xml:space="preserve">17.0420932769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9915618896484</t>
   </si>
   <si>
     <t xml:space="preserve">16.8652286529541</t>
@@ -743,28 +743,28 @@
     <t xml:space="preserve">16.8210124969482</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6757316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5367660522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5936164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.574670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3093700408936</t>
+    <t xml:space="preserve">16.6757297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5367698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5936183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5746669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3093738555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.1072406768799</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9809103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524486541748</t>
+    <t xml:space="preserve">15.9809083938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524505615234</t>
   </si>
   <si>
     <t xml:space="preserve">15.9745922088623</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">15.8545789718628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8293132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5494041442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2335720062256</t>
+    <t xml:space="preserve">15.8293123245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5494003295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2335739135742</t>
   </si>
   <si>
     <t xml:space="preserve">16.1198749542236</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">16.9283962249756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4337215423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4210872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6358470916748</t>
+    <t xml:space="preserve">17.4337177276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4210891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6358489990234</t>
   </si>
   <si>
     <t xml:space="preserve">18.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6464996337891</t>
+    <t xml:space="preserve">18.6465015411377</t>
   </si>
   <si>
     <t xml:space="preserve">18.7917804718018</t>
@@ -812,49 +812,49 @@
     <t xml:space="preserve">18.2927722930908</t>
   </si>
   <si>
-    <t xml:space="preserve">18.267505645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6863822937012</t>
+    <t xml:space="preserve">18.2675075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6863803863525</t>
   </si>
   <si>
     <t xml:space="preserve">18.5707015991211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6338653564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0760288238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2276229858398</t>
+    <t xml:space="preserve">18.6338672637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0760269165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2276248931885</t>
   </si>
   <si>
     <t xml:space="preserve">19.3476390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7602005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8802146911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4550189971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7013683319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6046352386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5015907287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7921504974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9879608154297</t>
+    <t xml:space="preserve">18.760196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8802108764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.455020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7013664245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6046333312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5015888214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7921485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9879627227783</t>
   </si>
   <si>
     <t xml:space="preserve">23.0301971435547</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">22.5690860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9291324615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8027973175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7396335601807</t>
+    <t xml:space="preserve">22.9291305541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8027992248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">22.7080516815186</t>
@@ -881,31 +881,31 @@
     <t xml:space="preserve">22.613302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6954193115234</t>
+    <t xml:space="preserve">22.6954174041748</t>
   </si>
   <si>
     <t xml:space="preserve">22.9164981842041</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8975486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6638374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2133750915527</t>
+    <t xml:space="preserve">22.8975524902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6638336181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2133731842041</t>
   </si>
   <si>
     <t xml:space="preserve">23.548152923584</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3586559295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2891750335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.118631362915</t>
+    <t xml:space="preserve">23.3586597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2891731262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1186256408691</t>
   </si>
   <si>
     <t xml:space="preserve">23.0491485595703</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">23.7376537322998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4407730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4893226623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3440418243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1734924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4451084136963</t>
+    <t xml:space="preserve">23.4407711029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4893207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3440437316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1734943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4451065063477</t>
   </si>
   <si>
     <t xml:space="preserve">25.0135974884033</t>
@@ -938,82 +938,82 @@
     <t xml:space="preserve">25.2200012207031</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8329925537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6265907287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6074657440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2075614929199</t>
+    <t xml:space="preserve">24.8329944610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6265869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6074676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4980487823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2075634002686</t>
   </si>
   <si>
     <t xml:space="preserve">22.8915042877197</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6915512084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7560539245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6399478912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2209243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4404563903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4918251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9562358856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5238456726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.510950088501</t>
+    <t xml:space="preserve">22.6915531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7560501098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.639949798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2209224700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4404582977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.491828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9562397003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5238475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5109481811523</t>
   </si>
   <si>
     <t xml:space="preserve">22.5754470825195</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4464454650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2916431427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.33034324646</t>
+    <t xml:space="preserve">22.4464473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2916450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3303413391113</t>
   </si>
   <si>
     <t xml:space="preserve">21.7691841125488</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5627765655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8659381866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2658424377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0594387054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1884422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8205547332764</t>
+    <t xml:space="preserve">21.5627784729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8659362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2658405303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.059440612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1884441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8205528259277</t>
   </si>
   <si>
     <t xml:space="preserve">22.7625045776367</t>
@@ -1025,64 +1025,64 @@
     <t xml:space="preserve">22.6012496948242</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5496501922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7689533233643</t>
+    <t xml:space="preserve">22.5496482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7689514160156</t>
   </si>
   <si>
     <t xml:space="preserve">22.4786968231201</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1561889648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0465393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9949340820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5303001403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7302532196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7044506072998</t>
+    <t xml:space="preserve">22.1561908721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0465412139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9949378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5302982330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7302513122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7044525146484</t>
   </si>
   <si>
     <t xml:space="preserve">22.9431076049805</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1043586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0140590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2204608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3752670288086</t>
+    <t xml:space="preserve">23.0205039978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1043605804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0140609741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2204627990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.37526512146</t>
   </si>
   <si>
     <t xml:space="preserve">23.4139652252197</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7042217254639</t>
+    <t xml:space="preserve">23.7042198181152</t>
   </si>
   <si>
     <t xml:space="preserve">23.9170761108398</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7880744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622718811035</t>
+    <t xml:space="preserve">23.7880725860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622756958008</t>
   </si>
   <si>
     <t xml:space="preserve">23.8009757995605</t>
@@ -1091,46 +1091,46 @@
     <t xml:space="preserve">24.0138282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2847347259521</t>
+    <t xml:space="preserve">24.2847328186035</t>
   </si>
   <si>
     <t xml:space="preserve">23.9299755096436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7039909362793</t>
+    <t xml:space="preserve">24.7039890289307</t>
   </si>
   <si>
     <t xml:space="preserve">25.1877498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8974933624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2586994171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0264987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6070079803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8327655792236</t>
+    <t xml:space="preserve">24.8974952697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2587013244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0265007019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6070041656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8327617645264</t>
   </si>
   <si>
     <t xml:space="preserve">26.142370223999</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4003734588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6906318664551</t>
+    <t xml:space="preserve">26.4003753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6906337738037</t>
   </si>
   <si>
     <t xml:space="preserve">26.2520217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5035800933838</t>
+    <t xml:space="preserve">26.5035762786865</t>
   </si>
   <si>
     <t xml:space="preserve">26.4455299377441</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">25.8908138275146</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9166164398193</t>
+    <t xml:space="preserve">25.9166126251221</t>
   </si>
   <si>
     <t xml:space="preserve">26.568078994751</t>
@@ -1148,37 +1148,37 @@
     <t xml:space="preserve">26.780933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7293300628662</t>
+    <t xml:space="preserve">26.7293338775635</t>
   </si>
   <si>
     <t xml:space="preserve">26.2326717376709</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4326286315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2133197784424</t>
+    <t xml:space="preserve">26.4326267242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.213321685791</t>
   </si>
   <si>
     <t xml:space="preserve">26.1939716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3616752624512</t>
+    <t xml:space="preserve">26.3616733551025</t>
   </si>
   <si>
     <t xml:space="preserve">26.1617202758789</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9940185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4199562072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0714149475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2842712402344</t>
+    <t xml:space="preserve">25.9940204620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4199542999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0714168548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2842769622803</t>
   </si>
   <si>
     <t xml:space="preserve">26.5745296478271</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">26.9808902740479</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7680320739746</t>
+    <t xml:space="preserve">26.768030166626</t>
   </si>
   <si>
     <t xml:space="preserve">26.4842281341553</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2066421508789</t>
+    <t xml:space="preserve">27.2066440582275</t>
   </si>
   <si>
     <t xml:space="preserve">27.1743907928467</t>
@@ -1202,139 +1202,139 @@
     <t xml:space="preserve">26.9357376098633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.161491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.567850112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2709140777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2773609161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7675724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0126762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.238431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7353172302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2513332366943</t>
+    <t xml:space="preserve">27.1614894866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5678482055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2709102630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.277364730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7675762176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0126781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2384338378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7353191375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2513313293457</t>
   </si>
   <si>
     <t xml:space="preserve">29.4964389801025</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8382892608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5220031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8638610839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0186729431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5802917480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5155582427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3411750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023830413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7733306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5153293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8509654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6125373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1739311218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9285926818848</t>
+    <t xml:space="preserve">29.8382949829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5220069885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.863862991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0186672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5802879333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5155544281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3411712646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7733268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5153312683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8509674072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6125411987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1739330291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9285945892334</t>
   </si>
   <si>
     <t xml:space="preserve">29.2964820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.283353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865547180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.425256729126</t>
+    <t xml:space="preserve">30.2833518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4252548217773</t>
   </si>
   <si>
     <t xml:space="preserve">30.6187591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">31.147668838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3155994415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.354305267334</t>
+    <t xml:space="preserve">31.1476707458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3156051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3543071746826</t>
   </si>
   <si>
     <t xml:space="preserve">30.1930522918701</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2446517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7802448272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4899883270264</t>
+    <t xml:space="preserve">30.2446575164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7802391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4899845123291</t>
   </si>
   <si>
     <t xml:space="preserve">28.9288234710693</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5224685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0518398284912</t>
+    <t xml:space="preserve">28.5224666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0518379211426</t>
   </si>
   <si>
     <t xml:space="preserve">26.2778244018555</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2393550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1038970947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9553184509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9813423156738</t>
+    <t xml:space="preserve">25.2393531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1038990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9553146362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9813442230225</t>
   </si>
   <si>
     <t xml:space="preserve">24.9942493438721</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">24.5427379608154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1750831604004</t>
+    <t xml:space="preserve">24.1750812530518</t>
   </si>
   <si>
     <t xml:space="preserve">24.9361953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6394958496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8652439117432</t>
+    <t xml:space="preserve">24.6394901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8652458190918</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651988983154</t>
@@ -1361,61 +1361,61 @@
     <t xml:space="preserve">24.4524364471436</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6977710723877</t>
+    <t xml:space="preserve">23.697774887085</t>
   </si>
   <si>
     <t xml:space="preserve">23.6655216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8977279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0009269714355</t>
+    <t xml:space="preserve">23.8977241516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0009250640869</t>
   </si>
   <si>
     <t xml:space="preserve">23.5881175994873</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9882583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5365180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589752197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7104434967041</t>
+    <t xml:space="preserve">22.9882545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5365200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589790344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104415893555</t>
   </si>
   <si>
     <t xml:space="preserve">23.304313659668</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2140140533447</t>
+    <t xml:space="preserve">23.2140121459961</t>
   </si>
   <si>
     <t xml:space="preserve">23.1559619903564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8783740997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9684429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2971725463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3425559997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6715087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1230182647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1359195709229</t>
+    <t xml:space="preserve">23.8783760070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9684467315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.297176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6715106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1230201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1359214782715</t>
   </si>
   <si>
     <t xml:space="preserve">25.7876110076904</t>
@@ -1424,28 +1424,28 @@
     <t xml:space="preserve">25.86501121521</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5749893188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.323205947876</t>
+    <t xml:space="preserve">24.5749855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3232040405273</t>
   </si>
   <si>
     <t xml:space="preserve">25.4651069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1426010131836</t>
+    <t xml:space="preserve">25.1425971984863</t>
   </si>
   <si>
     <t xml:space="preserve">25.3490028381348</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2458019256592</t>
+    <t xml:space="preserve">25.2458038330078</t>
   </si>
   <si>
     <t xml:space="preserve">25.0522975921631</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7684936523438</t>
+    <t xml:space="preserve">24.7684917449951</t>
   </si>
   <si>
     <t xml:space="preserve">24.7426929473877</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">24.4975891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2329044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6910858154297</t>
+    <t xml:space="preserve">25.2329006195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.691089630127</t>
   </si>
   <si>
     <t xml:space="preserve">24.2782821655273</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3365650177002</t>
+    <t xml:space="preserve">23.3365631103516</t>
   </si>
   <si>
     <t xml:space="preserve">22.807653427124</t>
@@ -1472,28 +1472,28 @@
     <t xml:space="preserve">23.3881645202637</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6079292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3628253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8463554382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.272066116333</t>
+    <t xml:space="preserve">21.607931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3628234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8463535308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2720642089844</t>
   </si>
   <si>
     <t xml:space="preserve">23.0011558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5042686462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4913635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4526691436768</t>
+    <t xml:space="preserve">23.5042667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4913673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4526672363281</t>
   </si>
   <si>
     <t xml:space="preserve">23.401065826416</t>
@@ -1505,25 +1505,25 @@
     <t xml:space="preserve">23.1430606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8721542358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7431526184082</t>
+    <t xml:space="preserve">22.8721561431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7431507110596</t>
   </si>
   <si>
     <t xml:space="preserve">22.0078372955322</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2596225738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9113140106201</t>
+    <t xml:space="preserve">21.2596206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9113159179688</t>
   </si>
   <si>
     <t xml:space="preserve">21.2854232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0016174316406</t>
+    <t xml:space="preserve">21.0016212463379</t>
   </si>
   <si>
     <t xml:space="preserve">20.9887180328369</t>
@@ -1532,25 +1532,25 @@
     <t xml:space="preserve">22.0723400115967</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9820384979248</t>
+    <t xml:space="preserve">21.9820404052734</t>
   </si>
   <si>
     <t xml:space="preserve">20.7178115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1759986877441</t>
+    <t xml:space="preserve">20.1760005950928</t>
   </si>
   <si>
     <t xml:space="preserve">20.3695030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3757228851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.182222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8855152130127</t>
+    <t xml:space="preserve">21.3757266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1822204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.88551902771</t>
   </si>
   <si>
     <t xml:space="preserve">20.1502017974854</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">19.7502937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5888080596924</t>
+    <t xml:space="preserve">20.588809967041</t>
   </si>
   <si>
     <t xml:space="preserve">21.0274181365967</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">21.1951217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3499221801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1626415252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6982307434082</t>
+    <t xml:space="preserve">21.3499240875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1626453399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6982326507568</t>
   </si>
   <si>
     <t xml:space="preserve">21.5305271148682</t>
@@ -1592,22 +1592,22 @@
     <t xml:space="preserve">21.6595325469971</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2749519348145</t>
+    <t xml:space="preserve">21.2749500274658</t>
   </si>
   <si>
     <t xml:space="preserve">21.288257598877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0487613677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9955425262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0753726959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7539405822754</t>
+    <t xml:space="preserve">21.0487632751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9955444335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0753765106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7539367675781</t>
   </si>
   <si>
     <t xml:space="preserve">21.9668197631836</t>
@@ -1622,85 +1622,85 @@
     <t xml:space="preserve">22.7252140045166</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4058933258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.020040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4878349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3813915252686</t>
+    <t xml:space="preserve">22.4058895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0200424194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4878368377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3813934326172</t>
   </si>
   <si>
     <t xml:space="preserve">21.6075820922852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6874141693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8491859436035</t>
+    <t xml:space="preserve">21.6874103546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8491878509521</t>
   </si>
   <si>
     <t xml:space="preserve">20.1573181152344</t>
   </si>
   <si>
-    <t xml:space="preserve">19.146125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7868900299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9465503692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.560697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1615447998047</t>
+    <t xml:space="preserve">19.1461277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7868843078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9465465545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5606994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1615428924561</t>
   </si>
   <si>
     <t xml:space="preserve">17.1636562347412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5803442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1699953079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5271215438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6468687057495</t>
+    <t xml:space="preserve">15.5803422927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.169997215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5271234512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6468706130981</t>
   </si>
   <si>
     <t xml:space="preserve">16.9640808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0306053161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5117034912109</t>
+    <t xml:space="preserve">17.0306072235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5117053985596</t>
   </si>
   <si>
     <t xml:space="preserve">16.6580619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3121280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1657676696777</t>
+    <t xml:space="preserve">16.312126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1657695770264</t>
   </si>
   <si>
     <t xml:space="preserve">16.8177242279053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7623901367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2546825408936</t>
+    <t xml:space="preserve">17.7623920440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2546787261963</t>
   </si>
   <si>
     <t xml:space="preserve">18.2280693054199</t>
@@ -1715,34 +1715,34 @@
     <t xml:space="preserve">18.9598541259766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4010391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.587308883667</t>
+    <t xml:space="preserve">18.4010372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5873107910156</t>
   </si>
   <si>
     <t xml:space="preserve">18.2812919616699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5628108978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0039939880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.123743057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1503524780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2035713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1769618988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3632373809814</t>
+    <t xml:space="preserve">17.5628128051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0039958953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1237411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.150354385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2035732269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1769599914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3632335662842</t>
   </si>
   <si>
     <t xml:space="preserve">17.6426429748535</t>
@@ -1751,31 +1751,31 @@
     <t xml:space="preserve">18.0417976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2413768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8954429626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4962844848633</t>
+    <t xml:space="preserve">18.2413749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8954391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4962863922119</t>
   </si>
   <si>
     <t xml:space="preserve">17.5894222259521</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4031505584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.334508895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6272239685059</t>
+    <t xml:space="preserve">17.403148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3345108032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6272277832031</t>
   </si>
   <si>
     <t xml:space="preserve">17.9087467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6559505462646</t>
+    <t xml:space="preserve">17.6559467315674</t>
   </si>
   <si>
     <t xml:space="preserve">17.9220504760742</t>
@@ -1784,25 +1784,25 @@
     <t xml:space="preserve">17.9885787963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8289127349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8975524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0971336364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0992450714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7022008895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0481367111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0082206726074</t>
+    <t xml:space="preserve">17.828914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8975563049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.097131729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0992431640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.702202796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0481357574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0082216262817</t>
   </si>
   <si>
     <t xml:space="preserve">14.9949159622192</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">14.6090669631958</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429613113403</t>
+    <t xml:space="preserve">14.342963218689</t>
   </si>
   <si>
     <t xml:space="preserve">13.7575368881226</t>
@@ -1820,88 +1820,88 @@
     <t xml:space="preserve">13.611177444458</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7309255599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6910095214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5824546813965</t>
+    <t xml:space="preserve">13.7309246063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.691011428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5824575424194</t>
   </si>
   <si>
     <t xml:space="preserve">14.0635547637939</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2631330490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2099113464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.396185874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5712614059448</t>
+    <t xml:space="preserve">14.2631311416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2099103927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.396183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5712642669678</t>
   </si>
   <si>
     <t xml:space="preserve">13.5180435180664</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4781293869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0369443893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159311294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215291976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8751697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6888990402222</t>
+    <t xml:space="preserve">13.4781284332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0369462966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159282684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215253829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.875168800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6888961791992</t>
   </si>
   <si>
     <t xml:space="preserve">15.2743244171143</t>
   </si>
   <si>
-    <t xml:space="preserve">14.928391456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0348320007324</t>
+    <t xml:space="preserve">14.9283895492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0348310470581</t>
   </si>
   <si>
     <t xml:space="preserve">14.648983001709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6755933761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8485584259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.460597038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8597526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8331413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867866516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730564117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7288112640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9060068130493</t>
+    <t xml:space="preserve">14.675591468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8485593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4605960845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.859751701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8331394195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.686785697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730573654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7288122177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.906005859375</t>
   </si>
   <si>
     <t xml:space="preserve">11.9480333328247</t>
@@ -1910,43 +1910,43 @@
     <t xml:space="preserve">12.4270191192627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7663011550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1721086502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9791851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3426475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6420154571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2561664581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8503570556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3559551239014</t>
+    <t xml:space="preserve">12.766303062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721076965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9791841506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3426494598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.642014503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2561655044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8503580093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3559541702271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3293447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5422286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.910231590271</t>
+    <t xml:space="preserve">11.5422277450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9102306365967</t>
   </si>
   <si>
     <t xml:space="preserve">10.8836212158203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4844655990601</t>
+    <t xml:space="preserve">10.4844675064087</t>
   </si>
   <si>
     <t xml:space="preserve">9.60632514953613</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">9.21382427215576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04085636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31361198425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34687614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9655647277832</t>
+    <t xml:space="preserve">9.04085731506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31361389160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34687519073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86577606201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96556568145752</t>
   </si>
   <si>
     <t xml:space="preserve">10.3381099700928</t>
@@ -1979,46 +1979,46 @@
     <t xml:space="preserve">11.2362070083618</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8703155517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0320920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1385326385498</t>
+    <t xml:space="preserve">10.8703165054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0320911407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1385316848755</t>
   </si>
   <si>
     <t xml:space="preserve">9.69946193695068</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0387439727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1717948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2981948852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5443391799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4312467575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979835510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6773900985718</t>
+    <t xml:space="preserve">10.038743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1717958450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2981929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.544340133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.431245803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979825973511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6773910522461</t>
   </si>
   <si>
     <t xml:space="preserve">10.5709505081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243806838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9214248657227</t>
+    <t xml:space="preserve">10.5243816375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9214239120483</t>
   </si>
   <si>
     <t xml:space="preserve">12.2474002838135</t>
@@ -2027,31 +2027,31 @@
     <t xml:space="preserve">11.9946031570435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7529983520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4336738586426</t>
+    <t xml:space="preserve">12.7529973983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4336719512939</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076974868774</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0611267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.562183380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9081182479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3692588806152</t>
+    <t xml:space="preserve">12.0611276626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5621843338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9081172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3692598342896</t>
   </si>
   <si>
     <t xml:space="preserve">11.8083295822144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3093862533569</t>
+    <t xml:space="preserve">11.3093872070312</t>
   </si>
   <si>
     <t xml:space="preserve">11.7018899917603</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">12.2074861526489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1010437011719</t>
+    <t xml:space="preserve">12.1010446548462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9413824081421</t>
@@ -2072,40 +2072,40 @@
     <t xml:space="preserve">10.7904844284058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6574335098267</t>
+    <t xml:space="preserve">10.657434463501</t>
   </si>
   <si>
     <t xml:space="preserve">10.3048467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93895435333252</t>
+    <t xml:space="preserve">10.0853128433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93895530700684</t>
   </si>
   <si>
     <t xml:space="preserve">10.2715835571289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2782363891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.936842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.442437171936</t>
+    <t xml:space="preserve">10.2782354354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9368410110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.442440032959</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6087532043457</t>
+    <t xml:space="preserve">11.60875415802</t>
   </si>
   <si>
     <t xml:space="preserve">11.6819305419922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6353626251221</t>
+    <t xml:space="preserve">11.6353616714478</t>
   </si>
   <si>
     <t xml:space="preserve">11.6021003723145</t>
@@ -2114,70 +2114,70 @@
     <t xml:space="preserve">11.023325920105</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5842552185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1098098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2495126724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5089645385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4025220870972</t>
+    <t xml:space="preserve">10.5842542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.109808921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2495136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5089635848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4025230407715</t>
   </si>
   <si>
     <t xml:space="preserve">10.9834098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9634523391724</t>
+    <t xml:space="preserve">10.963451385498</t>
   </si>
   <si>
     <t xml:space="preserve">11.3027334213257</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4757013320923</t>
+    <t xml:space="preserve">11.475700378418</t>
   </si>
   <si>
     <t xml:space="preserve">11.582142829895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1630306243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0299768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1364183425903</t>
+    <t xml:space="preserve">11.1630296707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0299777984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.136420249939</t>
   </si>
   <si>
     <t xml:space="preserve">11.3759126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0698928833008</t>
+    <t xml:space="preserve">11.0698938369751</t>
   </si>
   <si>
     <t xml:space="preserve">10.6108655929565</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2008323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9038925170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2319831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5068511962891</t>
+    <t xml:space="preserve">12.2008333206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9038934707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2319822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5068502426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.9613399505615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7684144973755</t>
+    <t xml:space="preserve">11.7684135437012</t>
   </si>
   <si>
     <t xml:space="preserve">11.6686267852783</t>
@@ -2186,10 +2186,10 @@
     <t xml:space="preserve">11.6220569610596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1164617538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825645446777</t>
+    <t xml:space="preserve">11.1164608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825654983521</t>
   </si>
   <si>
     <t xml:space="preserve">12.0278654098511</t>
@@ -2198,28 +2198,28 @@
     <t xml:space="preserve">12.1343069076538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2207899093628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.62659740448</t>
+    <t xml:space="preserve">12.2207908630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6265964508057</t>
   </si>
   <si>
     <t xml:space="preserve">12.0677804946899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4977712631226</t>
+    <t xml:space="preserve">10.4977722167969</t>
   </si>
   <si>
     <t xml:space="preserve">10.2915420532227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451854705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187864303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9921760559082</t>
+    <t xml:space="preserve">10.1451845169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187854766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99217700958252</t>
   </si>
   <si>
     <t xml:space="preserve">10.0453968048096</t>
@@ -2228,427 +2228,427 @@
     <t xml:space="preserve">9.81920909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87242984771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84581851959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72607231140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78594493865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97886943817139</t>
+    <t xml:space="preserve">9.87242889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8458194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72607326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78594589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9788703918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.89904022216797</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1651439666748</t>
+    <t xml:space="preserve">10.1651411056519</t>
   </si>
   <si>
     <t xml:space="preserve">10.4445514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4245929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.404634475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3248043060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.597559928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6507816314697</t>
+    <t xml:space="preserve">10.4245939254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4046354293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3248052597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975608825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6507835388184</t>
   </si>
   <si>
     <t xml:space="preserve">10.6840438842773</t>
   </si>
   <si>
+    <t xml:space="preserve">10.8104438781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2869558334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9313497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6184148788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6966495513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1347904205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.949875831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60849189758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37379169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10353088378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64835453033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15331554412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21021366119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14620304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87594223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66257953643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69813919067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60568237304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32119560241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49188804626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34964466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29274845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25007438659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10783100128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0438232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42787837982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0580472946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0153751373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27141094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98692607879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02248668670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97981262207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15761756896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47766208648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83327007293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62701797485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47055149078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30697250366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54167175292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57723331451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44210243225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7905969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99684906005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57293128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51603412628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56581878662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6725025177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43780040740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43068981170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33823108673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40935230255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85030651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83608055114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8289680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62271595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48758602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70806121826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71517467498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58004379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4662504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53026008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22443675994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12486839294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39512920379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92853832244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80763244628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77207088470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0352201461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33111953735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91861534118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08930492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16753959655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2742223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20310020446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11064434051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06085777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41646480560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64405250549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92142581939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.042332649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.141902923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979387283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3837146759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4548368453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5117330551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5401811599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6610879898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9100131988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.703761100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8815641403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.895788192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6397523880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5330696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6326389312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8886766433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4690608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2343606948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2628078460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3766031265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0067729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3054809570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4761714935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7108736038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7393217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8602285385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9455738067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9953584671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9384613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7464332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8673391342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9811334609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2442827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3908271789551</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.8104429244995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2869558334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9313497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6184158325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6966485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1347894668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94987392425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60849285125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37379169464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10353088378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64835453033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15331649780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21021270751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14620399475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87594223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66257858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69813919067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60568141937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32119655609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49188709259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34964370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29274749755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25007629394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10783195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0438232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42787837982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0580472946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01537418365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27141094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98692607879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02248573303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97981405258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15761661529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47766304016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83327007293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62701797485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47055149078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30697154998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.541672706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57723236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44210243225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7905969619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99684906005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57293128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51603507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56582069396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67250156402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4378023147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43068885803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33823204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40935230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85030555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83608150482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8289680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62271595001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48758602142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70806217193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71517372131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58004379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46624946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53025817871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22443675994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12486743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39512825012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92853832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80763149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77207183837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0352201461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33111953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91861534118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65546703338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08930587768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16754055023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27422142028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20310020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11064338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06085777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41646575927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64405345916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92142581939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0423336029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1419019699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979387283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3837146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4548358917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5117330551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5401811599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6610889434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9100131988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.703761100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8815650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.895788192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6397514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5330715179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6326389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8886766433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4690608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2343597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.262809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3766031265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0067710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3054819107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4761724472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677717208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7108736038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7393217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8602275848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9455738067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9953584671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9384603500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7464332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8673410415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9811344146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2442846298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3908281326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8104419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8531150817871</t>
+    <t xml:space="preserve">10.8531160354614</t>
   </si>
   <si>
     <t xml:space="preserve">11.208722114563</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2585067749023</t>
+    <t xml:space="preserve">11.2585077285767</t>
   </si>
   <si>
     <t xml:space="preserve">10.5828552246094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3552665710449</t>
+    <t xml:space="preserve">10.3552684783936</t>
   </si>
   <si>
     <t xml:space="preserve">10.2770328521729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1632385253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1063432693481</t>
+    <t xml:space="preserve">10.1632394790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1063423156738</t>
   </si>
   <si>
     <t xml:space="preserve">9.96409893035889</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">9.98543548583984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87164115905762</t>
+    <t xml:space="preserve">9.87164211273193</t>
   </si>
   <si>
     <t xml:space="preserve">9.94276237487793</t>
@@ -2672,10 +2672,10 @@
     <t xml:space="preserve">9.72939872741699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65827751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47336196899414</t>
+    <t xml:space="preserve">9.658278465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47336101531982</t>
   </si>
   <si>
     <t xml:space="preserve">9.42357635498047</t>
@@ -2684,10 +2684,10 @@
     <t xml:space="preserve">9.54448318481445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75073623657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75784778594971</t>
+    <t xml:space="preserve">9.75073528289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75784683227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.69383716583252</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">9.95698642730713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0565576553345</t>
+    <t xml:space="preserve">10.0565567016602</t>
   </si>
   <si>
     <t xml:space="preserve">10.1561260223389</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">10.0707807540894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0494441986084</t>
+    <t xml:space="preserve">10.0494451522827</t>
   </si>
   <si>
     <t xml:space="preserve">10.191686630249</t>
@@ -2732,13 +2732,13 @@
     <t xml:space="preserve">10.5259580612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4619483947754</t>
+    <t xml:space="preserve">10.4619474411011</t>
   </si>
   <si>
     <t xml:space="preserve">10.483283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2556962966919</t>
+    <t xml:space="preserve">10.2556972503662</t>
   </si>
   <si>
     <t xml:space="preserve">10.2272481918335</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">10.4192752838135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1988000869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5899658203125</t>
+    <t xml:space="preserve">10.1987991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5899667739868</t>
   </si>
   <si>
     <t xml:space="preserve">10.6681995391846</t>
@@ -2762,31 +2762,31 @@
     <t xml:space="preserve">10.7819938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1447124481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.137601852417</t>
+    <t xml:space="preserve">11.1447143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1375999450684</t>
   </si>
   <si>
     <t xml:space="preserve">11.0735912322998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1518259048462</t>
+    <t xml:space="preserve">11.1518249511719</t>
   </si>
   <si>
     <t xml:space="preserve">11.0024709701538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1589374542236</t>
+    <t xml:space="preserve">11.1589365005493</t>
   </si>
   <si>
     <t xml:space="preserve">10.2841444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5046215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77918243408203</t>
+    <t xml:space="preserve">10.5046224594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77918338775635</t>
   </si>
   <si>
     <t xml:space="preserve">9.24577331542969</t>
@@ -2795,16 +2795,16 @@
     <t xml:space="preserve">8.69102764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56730985641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27571105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25437498092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734188079834</t>
+    <t xml:space="preserve">7.56731033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27571153640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25437593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734140396118</t>
   </si>
   <si>
     <t xml:space="preserve">6.52893877029419</t>
@@ -2813,16 +2813,16 @@
     <t xml:space="preserve">6.17333173751831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98841667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00264072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98130464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32979822158813</t>
+    <t xml:space="preserve">5.98841619491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00264024734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98130416870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32979917526245</t>
   </si>
   <si>
     <t xml:space="preserve">6.12710332870483</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">6.49693393707275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22667360305786</t>
+    <t xml:space="preserve">6.22667264938354</t>
   </si>
   <si>
     <t xml:space="preserve">6.36535882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33335494995117</t>
+    <t xml:space="preserve">6.33335447311401</t>
   </si>
   <si>
     <t xml:space="preserve">6.2693452835083</t>
@@ -2855,22 +2855,22 @@
     <t xml:space="preserve">6.35824728012085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41869974136353</t>
+    <t xml:space="preserve">6.41870021820068</t>
   </si>
   <si>
     <t xml:space="preserve">6.56449890136719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53960704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57161092758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514492034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28356981277466</t>
+    <t xml:space="preserve">6.53960657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57161140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514444351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28357028961182</t>
   </si>
   <si>
     <t xml:space="preserve">6.34402322769165</t>
@@ -2882,34 +2882,34 @@
     <t xml:space="preserve">6.04531335830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92085123062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06664991378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39380836486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52182674407959</t>
+    <t xml:space="preserve">5.92085075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06664896011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39380788803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52182626724243</t>
   </si>
   <si>
     <t xml:space="preserve">6.34757900238037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1164345741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18044328689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14132738113403</t>
+    <t xml:space="preserve">6.11643505096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18044376373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14132690429688</t>
   </si>
   <si>
     <t xml:space="preserve">6.01686477661133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11287975311279</t>
+    <t xml:space="preserve">6.11287879943848</t>
   </si>
   <si>
     <t xml:space="preserve">6.02753353118896</t>
@@ -2921,67 +2921,67 @@
     <t xml:space="preserve">5.85684156417847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74660396575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71104335784912</t>
+    <t xml:space="preserve">5.74660348892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71104288101196</t>
   </si>
   <si>
     <t xml:space="preserve">5.68970680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44078254699707</t>
+    <t xml:space="preserve">5.44078207015991</t>
   </si>
   <si>
     <t xml:space="preserve">5.29142761230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17763328552246</t>
+    <t xml:space="preserve">5.17763423919678</t>
   </si>
   <si>
     <t xml:space="preserve">5.19185733795166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47634315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69681882858276</t>
+    <t xml:space="preserve">5.47634267807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69681930541992</t>
   </si>
   <si>
     <t xml:space="preserve">5.8675103187561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97063589096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89951515197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93863201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29779434204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53605031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87743282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3681697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91299343109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69962930679321</t>
+    <t xml:space="preserve">5.97063636779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89951467514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93863153457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29779386520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53604984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87743330001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36817121505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91299390792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69962978363037</t>
   </si>
   <si>
     <t xml:space="preserve">6.24089670181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19466829299927</t>
+    <t xml:space="preserve">6.19466876983643</t>
   </si>
   <si>
     <t xml:space="preserve">6.36180353164673</t>
@@ -3002,91 +3002,91 @@
     <t xml:space="preserve">6.0879864692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93507528305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8461742401123</t>
+    <t xml:space="preserve">5.9350757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84617376327515</t>
   </si>
   <si>
     <t xml:space="preserve">5.91018295288086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04175710678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08087396621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0630931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20889234542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32624292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45070505142212</t>
+    <t xml:space="preserve">6.04175758361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0808744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06309366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20889186859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32624244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45070457458496</t>
   </si>
   <si>
     <t xml:space="preserve">6.37958383560181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48270988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46137380599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84898471832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9805588722229</t>
+    <t xml:space="preserve">6.48270893096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4613733291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8489842414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98055839538574</t>
   </si>
   <si>
     <t xml:space="preserve">7.03745651245117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8134241104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66406917572021</t>
+    <t xml:space="preserve">6.81342363357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66406965255737</t>
   </si>
   <si>
     <t xml:space="preserve">6.50760126113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35469198226929</t>
+    <t xml:space="preserve">6.35469150543213</t>
   </si>
   <si>
     <t xml:space="preserve">6.16622018814087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16266345977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38669538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39736366271973</t>
+    <t xml:space="preserve">6.16266298294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38669586181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39736461639404</t>
   </si>
   <si>
     <t xml:space="preserve">6.25156497955322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52538299560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50049066543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53249454498291</t>
+    <t xml:space="preserve">6.52538251876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50049018859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53249549865723</t>
   </si>
   <si>
     <t xml:space="preserve">6.40447616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37247228622437</t>
+    <t xml:space="preserve">6.37247180938721</t>
   </si>
   <si>
     <t xml:space="preserve">6.48626565933228</t>
@@ -3095,13 +3095,13 @@
     <t xml:space="preserve">6.30846214294434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32268619537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37602806091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20178079605103</t>
+    <t xml:space="preserve">6.32268762588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37602758407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20177984237671</t>
   </si>
   <si>
     <t xml:space="preserve">6.14843988418579</t>
@@ -3113,22 +3113,22 @@
     <t xml:space="preserve">6.27290153503418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27645778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23022890090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2622332572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46848487854004</t>
+    <t xml:space="preserve">6.27645683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23022937774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26223373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4684853553772</t>
   </si>
   <si>
     <t xml:space="preserve">6.38314008712769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28001356124878</t>
+    <t xml:space="preserve">6.28001403808594</t>
   </si>
   <si>
     <t xml:space="preserve">6.05598163604736</t>
@@ -3137,61 +3137,61 @@
     <t xml:space="preserve">5.92796325683594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106609344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97419166564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83194923400879</t>
+    <t xml:space="preserve">5.87106657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97419214248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83194971084595</t>
   </si>
   <si>
     <t xml:space="preserve">5.84973001480103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73237991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7359356880188</t>
+    <t xml:space="preserve">5.73238039016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73593521118164</t>
   </si>
   <si>
     <t xml:space="preserve">5.750159740448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8746223449707</t>
+    <t xml:space="preserve">5.87462282180786</t>
   </si>
   <si>
     <t xml:space="preserve">5.79283285140991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85328578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82839345932007</t>
+    <t xml:space="preserve">5.85328531265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82839298248291</t>
   </si>
   <si>
     <t xml:space="preserve">5.73949146270752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57946872711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63280916213989</t>
+    <t xml:space="preserve">5.57946825027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63281011581421</t>
   </si>
   <si>
     <t xml:space="preserve">5.58302450180054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5759129524231</t>
+    <t xml:space="preserve">5.57591247558594</t>
   </si>
   <si>
     <t xml:space="preserve">5.61858558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7217116355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54390859603882</t>
+    <t xml:space="preserve">5.72171115875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54390811920166</t>
   </si>
   <si>
     <t xml:space="preserve">5.49412298202515</t>
@@ -3200,10 +3200,10 @@
     <t xml:space="preserve">5.41233348846436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30565214157104</t>
+    <t xml:space="preserve">5.29498338699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30565166473389</t>
   </si>
   <si>
     <t xml:space="preserve">4.95715665817261</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">4.7971339225769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89670419692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04605865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25942277908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38744068145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30920791625977</t>
+    <t xml:space="preserve">4.89670372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.046058177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25942230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38744163513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30920743942261</t>
   </si>
   <si>
     <t xml:space="preserve">5.27009057998657</t>
@@ -3242,13 +3242,13 @@
     <t xml:space="preserve">5.75727224349976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22311639785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42581224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44359350204468</t>
+    <t xml:space="preserve">6.22311687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42581272125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44359254837036</t>
   </si>
   <si>
     <t xml:space="preserve">6.68184947967529</t>
@@ -3257,70 +3257,70 @@
     <t xml:space="preserve">6.60717248916626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57516670227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58583498001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49337768554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79208850860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92721796035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94855451583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9770040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83831548690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80986833572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74230241775513</t>
+    <t xml:space="preserve">6.57516717910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58583545684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49337816238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7920880317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92721748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94855499267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97700357437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83831644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80986785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74230289459229</t>
   </si>
   <si>
     <t xml:space="preserve">6.66051244735718</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71385431289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71029806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6427321434021</t>
+    <t xml:space="preserve">6.71385383605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71029758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64273309707642</t>
   </si>
   <si>
     <t xml:space="preserve">6.63917684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67118120193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47559642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54671907424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58939170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58228015899658</t>
+    <t xml:space="preserve">6.67118072509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47559785842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54671859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58939218521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58227968215942</t>
   </si>
   <si>
     <t xml:space="preserve">6.62495231628418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61072731018066</t>
+    <t xml:space="preserve">6.61072826385498</t>
   </si>
   <si>
     <t xml:space="preserve">6.56805515289307</t>
@@ -3338,10 +3338,10 @@
     <t xml:space="preserve">6.10932302474976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9030704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01330852508545</t>
+    <t xml:space="preserve">5.90307092666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01330947875977</t>
   </si>
   <si>
     <t xml:space="preserve">5.95641183853149</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">6.29423856735229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67829322814941</t>
+    <t xml:space="preserve">6.67829418182373</t>
   </si>
   <si>
     <t xml:space="preserve">6.88454532623291</t>
@@ -3359,55 +3359,55 @@
     <t xml:space="preserve">7.03390026092529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43217992782593</t>
+    <t xml:space="preserve">7.43217945098877</t>
   </si>
   <si>
     <t xml:space="preserve">7.3397216796875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42506742477417</t>
+    <t xml:space="preserve">7.42506790161133</t>
   </si>
   <si>
     <t xml:space="preserve">7.33261013031006</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3254976272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24015283584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30416107177734</t>
+    <t xml:space="preserve">7.32549810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24015188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3041615486145</t>
   </si>
   <si>
     <t xml:space="preserve">7.36105871200562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58864545822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48196411132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66687917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51752519607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5388617515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46062755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93002891540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90869283676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95847749710083</t>
+    <t xml:space="preserve">7.58864593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48196506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66688013076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51752424240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53886222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46062850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93002939224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90869235992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95847702026367</t>
   </si>
   <si>
     <t xml:space="preserve">8.16472911834717</t>
@@ -3416,31 +3416,31 @@
     <t xml:space="preserve">8.22873783111572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12916851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15050411224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88024425506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91580486297607</t>
+    <t xml:space="preserve">8.1291675567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15050506591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88024473190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91580438613892</t>
   </si>
   <si>
     <t xml:space="preserve">7.97270154953003</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0864953994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1007194519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00114917755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093479156494</t>
+    <t xml:space="preserve">8.08649730682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10072135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0011510848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093383789062</t>
   </si>
   <si>
     <t xml:space="preserve">8.07938289642334</t>
@@ -3449,19 +3449,19 @@
     <t xml:space="preserve">7.86602020263672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24296283721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17895412445068</t>
+    <t xml:space="preserve">8.24296188354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17895317077637</t>
   </si>
   <si>
     <t xml:space="preserve">8.13628101348877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09360790252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78778600692749</t>
+    <t xml:space="preserve">8.09360694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78778648376465</t>
   </si>
   <si>
     <t xml:space="preserve">7.99403810501099</t>
@@ -3470,19 +3470,19 @@
     <t xml:space="preserve">8.20740127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2642993927002</t>
+    <t xml:space="preserve">8.26429748535156</t>
   </si>
   <si>
     <t xml:space="preserve">8.21451473236084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18606662750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22162628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27852344512939</t>
+    <t xml:space="preserve">8.18606567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2216272354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27852439880371</t>
   </si>
   <si>
     <t xml:space="preserve">8.74792289733887</t>
@@ -3494,25 +3494,25 @@
     <t xml:space="preserve">8.92572784423828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28133487701416</t>
+    <t xml:space="preserve">9.28133392333984</t>
   </si>
   <si>
     <t xml:space="preserve">9.30978298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23865985870361</t>
+    <t xml:space="preserve">9.23866081237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.08219432830811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00396060943604</t>
+    <t xml:space="preserve">9.00395965576172</t>
   </si>
   <si>
     <t xml:space="preserve">8.85460662841797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04663372039795</t>
+    <t xml:space="preserve">9.04663467407227</t>
   </si>
   <si>
     <t xml:space="preserve">9.13909149169922</t>
@@ -3521,52 +3521,52 @@
     <t xml:space="preserve">9.18176460266113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2599983215332</t>
+    <t xml:space="preserve">9.25999927520752</t>
   </si>
   <si>
     <t xml:space="preserve">9.21732425689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35245418548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96128940582275</t>
+    <t xml:space="preserve">9.35245513916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96128749847412</t>
   </si>
   <si>
     <t xml:space="preserve">9.91431331634521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79340839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50892066955566</t>
+    <t xml:space="preserve">9.79340744018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50892162322998</t>
   </si>
   <si>
     <t xml:space="preserve">9.45202541351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35956764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11775493621826</t>
+    <t xml:space="preserve">9.3595666885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11775398254395</t>
   </si>
   <si>
     <t xml:space="preserve">9.66538906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05374431610107</t>
+    <t xml:space="preserve">9.05374526977539</t>
   </si>
   <si>
     <t xml:space="preserve">9.18887615203857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85741710662842</t>
+    <t xml:space="preserve">9.8574161529541</t>
   </si>
   <si>
     <t xml:space="preserve">9.87875366210938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88586616516113</t>
+    <t xml:space="preserve">9.88586521148682</t>
   </si>
   <si>
     <t xml:space="preserve">9.97832298278809</t>
@@ -3575,10 +3575,10 @@
     <t xml:space="preserve">9.90008926391602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89297771453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97121238708496</t>
+    <t xml:space="preserve">9.89297866821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97121143341064</t>
   </si>
   <si>
     <t xml:space="preserve">10.113452911377</t>
@@ -3596,58 +3596,58 @@
     <t xml:space="preserve">10.3268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.40505027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1276788711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2983684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406118392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4263877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5188455581665</t>
+    <t xml:space="preserve">10.4050512313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1276769638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2983703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4263887405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5188446044922</t>
   </si>
   <si>
     <t xml:space="preserve">10.7891063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0451421737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0949277877808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3580780029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4434232711792</t>
+    <t xml:space="preserve">11.0451440811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0949287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3580770492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4434223175049</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2656183242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8345890045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9057102203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2257595062256</t>
+    <t xml:space="preserve">11.2656202316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8345909118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9057111740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.225757598877</t>
   </si>
   <si>
     <t xml:space="preserve">11.6141138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0621786117554</t>
+    <t xml:space="preserve">12.0621767044067</t>
   </si>
   <si>
     <t xml:space="preserve">11.6496734619141</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">11.891487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7421321868896</t>
+    <t xml:space="preserve">11.742133140564</t>
   </si>
   <si>
     <t xml:space="preserve">11.7207956314087</t>
@@ -3665,16 +3665,16 @@
     <t xml:space="preserve">11.8985986709595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7492446899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.104850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0977401733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3790817260742</t>
+    <t xml:space="preserve">11.7492456436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1048526763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0977392196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3790826797485</t>
   </si>
   <si>
     <t xml:space="preserve">12.3486652374268</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">12.1965894699097</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9988880157471</t>
+    <t xml:space="preserve">11.9988889694214</t>
   </si>
   <si>
     <t xml:space="preserve">12.1053428649902</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">12.2117958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1433620452881</t>
+    <t xml:space="preserve">12.1433629989624</t>
   </si>
   <si>
     <t xml:space="preserve">12.1585693359375</t>
@@ -3704,13 +3704,13 @@
     <t xml:space="preserve">12.4323081970215</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6528186798096</t>
+    <t xml:space="preserve">12.6528196334839</t>
   </si>
   <si>
     <t xml:space="preserve">12.7288589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7516717910767</t>
+    <t xml:space="preserve">12.7516708374023</t>
   </si>
   <si>
     <t xml:space="preserve">12.8505210876465</t>
@@ -3722,25 +3722,25 @@
     <t xml:space="preserve">12.6224050521851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8809366226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8581237792969</t>
+    <t xml:space="preserve">12.8809375762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8581256866455</t>
   </si>
   <si>
     <t xml:space="preserve">12.7896900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6908407211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3866863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2498168945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.907642364502</t>
+    <t xml:space="preserve">12.6908397674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3866853713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2498159408569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9076414108276</t>
   </si>
   <si>
     <t xml:space="preserve">12.0369081497192</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">11.5578651428223</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5426578521729</t>
+    <t xml:space="preserve">11.5426568984985</t>
   </si>
   <si>
     <t xml:space="preserve">10.9647636413574</t>
@@ -3761,34 +3761,34 @@
     <t xml:space="preserve">11.1092367172241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.223295211792</t>
+    <t xml:space="preserve">11.2232942581177</t>
   </si>
   <si>
     <t xml:space="preserve">11.7479610443115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5958843231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.504638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9228506088257</t>
+    <t xml:space="preserve">11.5958833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5046377182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9228496551514</t>
   </si>
   <si>
     <t xml:space="preserve">12.0901346206665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9608688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.059718132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0064916610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9000377655029</t>
+    <t xml:space="preserve">11.9608697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0597190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0064926147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9000387191772</t>
   </si>
   <si>
     <t xml:space="preserve">11.6186952590942</t>
@@ -3797,52 +3797,52 @@
     <t xml:space="preserve">11.8087921142578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1509656906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1357583999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9265604019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9797868728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.299147605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.451226234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.359977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1318635940552</t>
+    <t xml:space="preserve">12.1509666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1357574462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9265594482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9797859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2991485595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4512243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3599786758423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1318645477295</t>
   </si>
   <si>
     <t xml:space="preserve">13.3295650482178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2839412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4816408157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6565284729004</t>
+    <t xml:space="preserve">13.2839393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4816417694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6565294265747</t>
   </si>
   <si>
     <t xml:space="preserve">13.7173614501953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8618335723877</t>
+    <t xml:space="preserve">13.8618326187134</t>
   </si>
   <si>
     <t xml:space="preserve">14.0291204452515</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5576791763306</t>
+    <t xml:space="preserve">13.5576782226562</t>
   </si>
   <si>
     <t xml:space="preserve">13.5120573043823</t>
@@ -3857,10 +3857,10 @@
     <t xml:space="preserve">13.0330123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4664335250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5880966186523</t>
+    <t xml:space="preserve">13.4664316177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5880947113037</t>
   </si>
   <si>
     <t xml:space="preserve">13.6109056472778</t>
@@ -3872,7 +3872,7 @@
     <t xml:space="preserve">13.4208097457886</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8998546600342</t>
+    <t xml:space="preserve">13.8998537063599</t>
   </si>
   <si>
     <t xml:space="preserve">13.7249631881714</t>
@@ -3881,10 +3881,10 @@
     <t xml:space="preserve">13.6261148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0063066482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5994091033936</t>
+    <t xml:space="preserve">14.0063076019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5994071960449</t>
   </si>
   <si>
     <t xml:space="preserve">15.6031179428101</t>
@@ -3893,10 +3893,10 @@
     <t xml:space="preserve">15.7399873733521</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4243354797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.485164642334</t>
+    <t xml:space="preserve">16.4243335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4851665496826</t>
   </si>
   <si>
     <t xml:space="preserve">16.2266330718994</t>
@@ -3908,31 +3908,31 @@
     <t xml:space="preserve">15.3597936630249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9796009063721</t>
+    <t xml:space="preserve">14.9795999526978</t>
   </si>
   <si>
     <t xml:space="preserve">13.9454774856567</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6678438186646</t>
+    <t xml:space="preserve">14.6678447723389</t>
   </si>
   <si>
     <t xml:space="preserve">14.401707649231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5652837753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8314170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.580491065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3714771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8316030502319</t>
+    <t xml:space="preserve">13.5652847290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8314189910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5804920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3714780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8316040039062</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341630935669</t>
@@ -3950,31 +3950,31 @@
     <t xml:space="preserve">13.3827905654907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0823450088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9834957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0139102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3636875152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2952527999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1735925674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3332748413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3712911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964025497437</t>
+    <t xml:space="preserve">14.0823459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.983494758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0139112472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3636884689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2952537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1735916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3332738876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3712930679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964044570923</t>
   </si>
   <si>
     <t xml:space="preserve">14.3180646896362</t>
@@ -3983,31 +3983,31 @@
     <t xml:space="preserve">13.4968490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9074583053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7401714324951</t>
+    <t xml:space="preserve">13.9074573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7401723861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.7933988571167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4740352630615</t>
+    <t xml:space="preserve">13.4740362167358</t>
   </si>
   <si>
     <t xml:space="preserve">13.8086071014404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1470727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1090526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.477931022644</t>
+    <t xml:space="preserve">13.1470718383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915449142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1090517044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4779319763184</t>
   </si>
   <si>
     <t xml:space="preserve">12.7364625930786</t>
@@ -4016,13 +4016,13 @@
     <t xml:space="preserve">13.2231092453003</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5272645950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.238317489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.833477973938</t>
+    <t xml:space="preserve">13.5272636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2383184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8334798812866</t>
   </si>
   <si>
     <t xml:space="preserve">13.8495626449585</t>
@@ -4034,46 +4034,46 @@
     <t xml:space="preserve">14.0425882339478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9380340576172</t>
+    <t xml:space="preserve">13.9380331039429</t>
   </si>
   <si>
     <t xml:space="preserve">14.018461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6565380096436</t>
+    <t xml:space="preserve">13.6565370559692</t>
   </si>
   <si>
     <t xml:space="preserve">13.6324119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6082820892334</t>
+    <t xml:space="preserve">13.6082830429077</t>
   </si>
   <si>
     <t xml:space="preserve">13.5761108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5841541290283</t>
+    <t xml:space="preserve">13.5841522216797</t>
   </si>
   <si>
     <t xml:space="preserve">13.3509149551392</t>
   </si>
   <si>
-    <t xml:space="preserve">13.173975944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1445083618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5252170562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6458578109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0560369491577</t>
+    <t xml:space="preserve">13.1739740371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9166078567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1445074081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5252180099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6458587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.056037902832</t>
   </si>
   <si>
     <t xml:space="preserve">11.5010900497437</t>
@@ -4103,10 +4103,10 @@
     <t xml:space="preserve">11.4367475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2276372909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8657150268555</t>
+    <t xml:space="preserve">11.2276382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8657159805298</t>
   </si>
   <si>
     <t xml:space="preserve">10.7289886474609</t>
@@ -4115,55 +4115,55 @@
     <t xml:space="preserve">10.6726903915405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2383813858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1579551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3751096725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.664647102356</t>
+    <t xml:space="preserve">10.2383823394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1579561233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3751087188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6646461486816</t>
   </si>
   <si>
     <t xml:space="preserve">10.350980758667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4072799682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96493053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48236751556396</t>
+    <t xml:space="preserve">10.4072790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96492958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48236656188965</t>
   </si>
   <si>
     <t xml:space="preserve">9.70756340026855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86841773986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1257839202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1659984588623</t>
+    <t xml:space="preserve">9.86841869354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1257848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.165997505188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016569137573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1820840835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4877061843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1338272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3027257919312</t>
+    <t xml:space="preserve">10.1820821762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4877071380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.133828163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3027248382568</t>
   </si>
   <si>
     <t xml:space="preserve">10.3348951339722</t>
@@ -4178,13 +4178,13 @@
     <t xml:space="preserve">10.5118350982666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9461421966553</t>
+    <t xml:space="preserve">10.946141242981</t>
   </si>
   <si>
     <t xml:space="preserve">11.0185260772705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9783134460449</t>
+    <t xml:space="preserve">10.9783124923706</t>
   </si>
   <si>
     <t xml:space="preserve">10.6968173980713</t>
@@ -4193,13 +4193,13 @@
     <t xml:space="preserve">10.415322303772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5279216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7852878570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9702701568604</t>
+    <t xml:space="preserve">10.5279207229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7852869033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9702711105347</t>
   </si>
   <si>
     <t xml:space="preserve">10.4394502639771</t>
@@ -4208,31 +4208,31 @@
     <t xml:space="preserve">10.0131864547729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1418695449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177425384521</t>
+    <t xml:space="preserve">10.1418704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177415847778</t>
   </si>
   <si>
     <t xml:space="preserve">9.97297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6995210647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62713718414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69147777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61104965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36172580718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55475234985352</t>
+    <t xml:space="preserve">9.69952011108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62713623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69147872924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61105060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36172676086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5547513961792</t>
   </si>
   <si>
     <t xml:space="preserve">9.28934192657471</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">9.1043586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18478679656982</t>
+    <t xml:space="preserve">9.18478584289551</t>
   </si>
   <si>
     <t xml:space="preserve">9.39389705657959</t>
@@ -4259,19 +4259,19 @@
     <t xml:space="preserve">10.0614433288574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83624649047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77994728088379</t>
+    <t xml:space="preserve">9.83624744415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77994823455811</t>
   </si>
   <si>
     <t xml:space="preserve">9.45019626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49845314025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17674446105957</t>
+    <t xml:space="preserve">9.49845218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17674350738525</t>
   </si>
   <si>
     <t xml:space="preserve">9.19282913208008</t>
@@ -4292,7 +4292,7 @@
     <t xml:space="preserve">9.25717067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16065788269043</t>
+    <t xml:space="preserve">9.16065883636475</t>
   </si>
   <si>
     <t xml:space="preserve">9.06414604187012</t>
@@ -4301,10 +4301,10 @@
     <t xml:space="preserve">8.95959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87916374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97567558288574</t>
+    <t xml:space="preserve">8.8791618347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97567653656006</t>
   </si>
   <si>
     <t xml:space="preserve">8.84699153900146</t>
@@ -4340,37 +4340,37 @@
     <t xml:space="preserve">9.81211853027344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5198774337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4796648025513</t>
+    <t xml:space="preserve">10.5198783874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479663848877</t>
   </si>
   <si>
     <t xml:space="preserve">10.8255014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0506982803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1954660415649</t>
+    <t xml:space="preserve">11.0506963729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1954650878906</t>
   </si>
   <si>
     <t xml:space="preserve">11.1632947921753</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1230821609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0024423599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3643636703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3037767410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3383989334106</t>
+    <t xml:space="preserve">11.1230812072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.00244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3643646240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3037776947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3383979797363</t>
   </si>
   <si>
     <t xml:space="preserve">11.3557081222534</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">11.3903293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3816738128662</t>
+    <t xml:space="preserve">11.3816747665405</t>
   </si>
   <si>
     <t xml:space="preserve">11.4249496459961</t>
@@ -4403,7 +4403,7 @@
     <t xml:space="preserve">10.8710136413574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0527744293213</t>
+    <t xml:space="preserve">11.052773475647</t>
   </si>
   <si>
     <t xml:space="preserve">10.9575653076172</t>
@@ -4424,19 +4424,19 @@
     <t xml:space="preserve">11.5720891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3730182647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4162950515747</t>
+    <t xml:space="preserve">11.3730192184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4162940979004</t>
   </si>
   <si>
     <t xml:space="preserve">11.5115032196045</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5201578140259</t>
+    <t xml:space="preserve">11.5201587677002</t>
   </si>
   <si>
     <t xml:space="preserve">11.6326761245728</t>
@@ -4457,16 +4457,16 @@
     <t xml:space="preserve">12.316442489624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3424091339111</t>
+    <t xml:space="preserve">12.3424081802368</t>
   </si>
   <si>
     <t xml:space="preserve">12.4116506576538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4982032775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808921813965</t>
+    <t xml:space="preserve">12.4982023239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808931350708</t>
   </si>
   <si>
     <t xml:space="preserve">12.4722375869751</t>
@@ -4475,19 +4475,19 @@
     <t xml:space="preserve">12.4376163482666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077869415283</t>
+    <t xml:space="preserve">12.3077878952026</t>
   </si>
   <si>
     <t xml:space="preserve">12.5501356124878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5328235626221</t>
+    <t xml:space="preserve">12.5328245162964</t>
   </si>
   <si>
     <t xml:space="preserve">12.3337535858154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5674457550049</t>
+    <t xml:space="preserve">12.5674467086792</t>
   </si>
   <si>
     <t xml:space="preserve">12.6193771362305</t>
@@ -4499,16 +4499,16 @@
     <t xml:space="preserve">13.2858324050903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3810405731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6060781478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5368347167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.640697479248</t>
+    <t xml:space="preserve">13.3810396194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5368356704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6406984329224</t>
   </si>
   <si>
     <t xml:space="preserve">13.7705268859863</t>
@@ -4517,13 +4517,13 @@
     <t xml:space="preserve">13.7618713378906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9955644607544</t>
+    <t xml:space="preserve">13.9955635070801</t>
   </si>
   <si>
     <t xml:space="preserve">14.1167373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0907716751099</t>
+    <t xml:space="preserve">14.0907726287842</t>
   </si>
   <si>
     <t xml:space="preserve">13.7878379821777</t>
@@ -4535,10 +4535,10 @@
     <t xml:space="preserve">14.194634437561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0042200088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7532167434692</t>
+    <t xml:space="preserve">14.0042190551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7532176971436</t>
   </si>
   <si>
     <t xml:space="preserve">13.4675931930542</t>
@@ -4550,16 +4550,16 @@
     <t xml:space="preserve">13.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4502830505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5281801223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5541458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1040725708008</t>
+    <t xml:space="preserve">13.4502820968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5281791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.554144859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1040716171265</t>
   </si>
   <si>
     <t xml:space="preserve">12.5934114456177</t>
@@ -4568,7 +4568,7 @@
     <t xml:space="preserve">12.8184480667114</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212352752686</t>
+    <t xml:space="preserve">12.2212343215942</t>
   </si>
   <si>
     <t xml:space="preserve">12.2385454177856</t>
@@ -4583,7 +4583,7 @@
     <t xml:space="preserve">11.8836793899536</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9269552230835</t>
+    <t xml:space="preserve">11.9269561767578</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798156738281</t>
@@ -4592,7 +4592,7 @@
     <t xml:space="preserve">11.9442672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0914058685303</t>
+    <t xml:space="preserve">12.091404914856</t>
   </si>
   <si>
     <t xml:space="preserve">12.0827503204346</t>
@@ -4604,37 +4604,37 @@
     <t xml:space="preserve">12.1606483459473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2904758453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7405500411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6713094711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9482774734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0607957839966</t>
+    <t xml:space="preserve">12.2904767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.740550994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6713075637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9482765197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0607948303223</t>
   </si>
   <si>
     <t xml:space="preserve">12.9915533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1906232833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3377637863159</t>
+    <t xml:space="preserve">13.1906251907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3377628326416</t>
   </si>
   <si>
     <t xml:space="preserve">13.1560039520264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0867605209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1733140945435</t>
+    <t xml:space="preserve">13.0867614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1733150482178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7232398986816</t>
@@ -4646,7 +4646,7 @@
     <t xml:space="preserve">12.9828977584839</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1213827133179</t>
+    <t xml:space="preserve">13.1213817596436</t>
   </si>
   <si>
     <t xml:space="preserve">12.454927444458</t>
@@ -4655,13 +4655,13 @@
     <t xml:space="preserve">12.4895486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4635810852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0999450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287504196167</t>
+    <t xml:space="preserve">12.4635820388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0999460220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287494659424</t>
   </si>
   <si>
     <t xml:space="preserve">12.8240633010864</t>
@@ -4682,22 +4682,22 @@
     <t xml:space="preserve">12.4591875076294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6549739837646</t>
+    <t xml:space="preserve">12.654974937439</t>
   </si>
   <si>
     <t xml:space="preserve">12.7973651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6816720962524</t>
+    <t xml:space="preserve">12.6816730499268</t>
   </si>
   <si>
     <t xml:space="preserve">12.7528676986694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7439680099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6905727386475</t>
+    <t xml:space="preserve">12.743968963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6905717849731</t>
   </si>
   <si>
     <t xml:space="preserve">12.583779335022</t>
@@ -4715,13 +4715,13 @@
     <t xml:space="preserve">12.5570802688599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5125846862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5036840438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7261695861816</t>
+    <t xml:space="preserve">12.512583732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5036849975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.726170539856</t>
   </si>
   <si>
     <t xml:space="preserve">12.5303821563721</t>
@@ -4751,13 +4751,13 @@
     <t xml:space="preserve">13.0020513534546</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1355438232422</t>
+    <t xml:space="preserve">13.1355428695679</t>
   </si>
   <si>
     <t xml:space="preserve">12.9931526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266431808472</t>
+    <t xml:space="preserve">13.1266441345215</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957315444946</t>
@@ -4766,10 +4766,10 @@
     <t xml:space="preserve">13.384726524353</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4737215042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.660608291626</t>
+    <t xml:space="preserve">13.4737205505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6606092453003</t>
   </si>
   <si>
     <t xml:space="preserve">13.6161117553711</t>
@@ -4787,7 +4787,7 @@
     <t xml:space="preserve">13.6517095565796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8652944564819</t>
+    <t xml:space="preserve">13.8652954101562</t>
   </si>
   <si>
     <t xml:space="preserve">14.1767749786377</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">14.4348573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1233777999878</t>
+    <t xml:space="preserve">14.1233787536621</t>
   </si>
   <si>
     <t xml:space="preserve">14.2479705810547</t>
@@ -4826,10 +4826,10 @@
     <t xml:space="preserve">14.3992605209351</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5149517059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945743560791</t>
+    <t xml:space="preserve">14.5149526596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945734024048</t>
   </si>
   <si>
     <t xml:space="preserve">14.1322774887085</t>
@@ -4844,10 +4844,10 @@
     <t xml:space="preserve">14.3458652496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.381462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882545471191</t>
+    <t xml:space="preserve">14.3814611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882555007935</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793558120728</t>
@@ -4859,7 +4859,7 @@
     <t xml:space="preserve">14.2212715148926</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9453897476196</t>
+    <t xml:space="preserve">13.9453907012939</t>
   </si>
   <si>
     <t xml:space="preserve">13.8207979202271</t>
@@ -4880,10 +4880,10 @@
     <t xml:space="preserve">13.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9364910125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0699825286865</t>
+    <t xml:space="preserve">13.9364900588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0699815750122</t>
   </si>
   <si>
     <t xml:space="preserve">14.1589756011963</t>
@@ -4904,19 +4904,19 @@
     <t xml:space="preserve">14.4615564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6662435531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421253204346</t>
+    <t xml:space="preserve">14.6662425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421262741089</t>
   </si>
   <si>
     <t xml:space="preserve">14.8353319168091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.612847328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6484432220459</t>
+    <t xml:space="preserve">14.6128463745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6484441757202</t>
   </si>
   <si>
     <t xml:space="preserve">14.6306457519531</t>
@@ -4934,25 +4934,25 @@
     <t xml:space="preserve">13.6962070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1856737136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3547630310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5327520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887271881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7552375793457</t>
+    <t xml:space="preserve">14.1856746673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3547620773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.532751083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887281417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7552366256714</t>
   </si>
   <si>
     <t xml:space="preserve">14.7997331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9510231018066</t>
+    <t xml:space="preserve">14.951024055481</t>
   </si>
   <si>
     <t xml:space="preserve">15.4137935638428</t>
@@ -4964,13 +4964,13 @@
     <t xml:space="preserve">15.3336992263794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1913089752197</t>
+    <t xml:space="preserve">15.1913080215454</t>
   </si>
   <si>
     <t xml:space="preserve">15.1290130615234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3514995574951</t>
+    <t xml:space="preserve">15.3514976501465</t>
   </si>
   <si>
     <t xml:space="preserve">15.2654151916504</t>
@@ -5337,6 +5337,9 @@
   </si>
   <si>
     <t xml:space="preserve">20.4799995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2399997711182</t>
   </si>
 </sst>
 </file>
@@ -61890,7 +61893,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6494444444</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>312393</v>
@@ -61911,6 +61914,32 @@
         <v>1774</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.649525463</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>53340</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>20.5799999237061</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>20.1000003814697</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>20.4799995422363</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>20.2399997711182</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IF.MI.xlsx
+++ b/data/IF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1778">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3060817718506</t>
+    <t xml:space="preserve">17.306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">IF.MI</t>
@@ -47,91 +47,91 @@
     <t xml:space="preserve">16.924783706665</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8509845733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9961318969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7931842803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116302490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.866982460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5902338027954</t>
+    <t xml:space="preserve">16.850980758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9961376190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7931804656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116359710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8669834136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5902347564697</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2335329055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407825469971</t>
+    <t xml:space="preserve">15.2335338592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407863616943</t>
   </si>
   <si>
     <t xml:space="preserve">16.1006832122803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8731336593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9063320159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9309310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5274791717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5336303710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1154289245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7119827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6504802703857</t>
+    <t xml:space="preserve">15.8731317520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9063358306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9309349060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5274810791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.533634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1154327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7119808197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.650484085083</t>
   </si>
   <si>
     <t xml:space="preserve">17.3429832458496</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6849327087402</t>
+    <t xml:space="preserve">16.6849346160889</t>
   </si>
   <si>
     <t xml:space="preserve">16.4512329101562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9899826049805</t>
+    <t xml:space="preserve">15.9899845123291</t>
   </si>
   <si>
     <t xml:space="preserve">14.3602342605591</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4032869338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1105365753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1412868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9838314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8792848587036</t>
+    <t xml:space="preserve">14.4032850265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1105327606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.141282081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.202784538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.983832359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8792819976807</t>
   </si>
   <si>
     <t xml:space="preserve">15.7808847427368</t>
@@ -140,46 +140,46 @@
     <t xml:space="preserve">15.6947822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.762433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9739799499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4696826934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2113838195801</t>
+    <t xml:space="preserve">15.7624349594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9739837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4696846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2113819122314</t>
   </si>
   <si>
     <t xml:space="preserve">16.7218322753906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6049842834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5434818267822</t>
+    <t xml:space="preserve">16.6049823760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5434799194336</t>
   </si>
   <si>
     <t xml:space="preserve">17.0416316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.807933807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4819850921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8854322433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0084323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5779361724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9284801483154</t>
+    <t xml:space="preserve">16.8079319000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4819831848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8854331970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0084342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5779333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9284811019897</t>
   </si>
   <si>
     <t xml:space="preserve">16.1867847442627</t>
@@ -188,46 +188,46 @@
     <t xml:space="preserve">16.6972332000732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9124813079834</t>
+    <t xml:space="preserve">16.912483215332</t>
   </si>
   <si>
     <t xml:space="preserve">17.5951328277588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8534317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6996822357178</t>
+    <t xml:space="preserve">17.8534297943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996841430664</t>
   </si>
   <si>
     <t xml:space="preserve">17.5582313537598</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7242794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7495498657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1285400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3875217437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0527420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4274005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0148429870605</t>
+    <t xml:space="preserve">17.7242832183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7495460510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1285438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3875198364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0527439117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4273986816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0148448944092</t>
   </si>
   <si>
     <t xml:space="preserve">17.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2442226409912</t>
+    <t xml:space="preserve">17.2442207336426</t>
   </si>
   <si>
     <t xml:space="preserve">17.3579196929932</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">17.4716205596924</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1936912536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8020648956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9662933349609</t>
+    <t xml:space="preserve">17.1936893463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8020629882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9662952423096</t>
   </si>
   <si>
     <t xml:space="preserve">16.7578468322754</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">16.6504650115967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9157600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4483375549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3283195495605</t>
+    <t xml:space="preserve">16.9157638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.448335647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3283233642578</t>
   </si>
   <si>
     <t xml:space="preserve">16.044075012207</t>
@@ -266,22 +266,22 @@
     <t xml:space="preserve">16.0819759368896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1704063415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0061779022217</t>
+    <t xml:space="preserve">16.1704025268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0061740875244</t>
   </si>
   <si>
     <t xml:space="preserve">15.7787799835205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5261173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766487121582</t>
+    <t xml:space="preserve">15.5261154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229204177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766477584839</t>
   </si>
   <si>
     <t xml:space="preserve">15.0334234237671</t>
@@ -290,118 +290,118 @@
     <t xml:space="preserve">15.0018434524536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6544322967529</t>
+    <t xml:space="preserve">14.6544313430786</t>
   </si>
   <si>
     <t xml:space="preserve">14.4144010543823</t>
   </si>
   <si>
-    <t xml:space="preserve">14.117525100708</t>
+    <t xml:space="preserve">14.1175231933594</t>
   </si>
   <si>
     <t xml:space="preserve">14.2754373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0354061126709</t>
+    <t xml:space="preserve">14.0354051589966</t>
   </si>
   <si>
     <t xml:space="preserve">13.7258958816528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8964414596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9532928466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5806169509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8332767486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2249021530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9619588851929</t>
+    <t xml:space="preserve">13.896445274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9532918930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5806150436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8332757949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2249059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9619607925415</t>
   </si>
   <si>
     <t xml:space="preserve">15.3492527008057</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1597557067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9134101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0271110534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6796970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5912666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6923332214355</t>
+    <t xml:space="preserve">15.1597576141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9134092330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0271081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6796951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5912647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6923303604126</t>
   </si>
   <si>
     <t xml:space="preserve">14.4649343490601</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2564868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0543565750122</t>
+    <t xml:space="preserve">14.2564859390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0543575286865</t>
   </si>
   <si>
     <t xml:space="preserve">13.8016939163208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.422700881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.258469581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1068725585938</t>
+    <t xml:space="preserve">13.4226999282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2584676742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1068716049194</t>
   </si>
   <si>
     <t xml:space="preserve">12.7657775878906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4479675292969</t>
+    <t xml:space="preserve">13.4479694366455</t>
   </si>
   <si>
     <t xml:space="preserve">13.9153938293457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8522272109985</t>
+    <t xml:space="preserve">13.8522291183472</t>
   </si>
   <si>
     <t xml:space="preserve">14.2817525863647</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3279542922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1929531097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877016067505</t>
+    <t xml:space="preserve">13.3279552459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1929521560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877025604248</t>
   </si>
   <si>
     <t xml:space="preserve">11.3508672714233</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4645652770996</t>
+    <t xml:space="preserve">11.464563369751</t>
   </si>
   <si>
     <t xml:space="preserve">11.477198600769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.496148109436</t>
+    <t xml:space="preserve">11.4961500167847</t>
   </si>
   <si>
     <t xml:space="preserve">10.9276571273804</t>
@@ -419,22 +419,22 @@
     <t xml:space="preserve">10.7381610870361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9067268371582</t>
+    <t xml:space="preserve">11.9067258834839</t>
   </si>
   <si>
     <t xml:space="preserve">12.4057331085205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6331300735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4562644958496</t>
+    <t xml:space="preserve">12.6331310272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4562664031982</t>
   </si>
   <si>
     <t xml:space="preserve">12.6647138595581</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3804664611816</t>
+    <t xml:space="preserve">12.380467414856</t>
   </si>
   <si>
     <t xml:space="preserve">12.6457624435425</t>
@@ -443,40 +443,40 @@
     <t xml:space="preserve">12.3488836288452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1467523574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446249008179</t>
+    <t xml:space="preserve">12.1467552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446239471436</t>
   </si>
   <si>
     <t xml:space="preserve">11.6603784561157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0962228775024</t>
+    <t xml:space="preserve">12.0962219238281</t>
   </si>
   <si>
     <t xml:space="preserve">12.8857927322388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5573310852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7341947555542</t>
+    <t xml:space="preserve">12.5573320388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7341938018799</t>
   </si>
   <si>
     <t xml:space="preserve">12.2225532531738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541360855103</t>
+    <t xml:space="preserve">12.2541351318359</t>
   </si>
   <si>
     <t xml:space="preserve">12.7594614028931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.911060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5383825302124</t>
+    <t xml:space="preserve">12.9110593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5383815765381</t>
   </si>
   <si>
     <t xml:space="preserve">12.8163108825684</t>
@@ -485,46 +485,46 @@
     <t xml:space="preserve">12.708930015564</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5952310562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5194320678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4120502471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0835886001587</t>
+    <t xml:space="preserve">12.595232963562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5194301605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4120512008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0835866928101</t>
   </si>
   <si>
     <t xml:space="preserve">12.0709562301636</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1404390335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278057098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2036037445068</t>
+    <t xml:space="preserve">12.140438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2036046981812</t>
   </si>
   <si>
     <t xml:space="preserve">12.0646390914917</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0583238601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2288694381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.323618888855</t>
+    <t xml:space="preserve">12.0583229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.22887134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3236198425293</t>
   </si>
   <si>
     <t xml:space="preserve">12.3046674728394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5699634552002</t>
+    <t xml:space="preserve">12.5699644088745</t>
   </si>
   <si>
     <t xml:space="preserve">13.0121240615845</t>
@@ -533,52 +533,52 @@
     <t xml:space="preserve">13.5427169799805</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311445236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1510848999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8605270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489583969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8352603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8542108535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7278776168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9426431655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2647838592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2205696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8226270675659</t>
+    <t xml:space="preserve">13.6311483383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.151086807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8605279922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8352613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.854208946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7278785705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9426403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2647886276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2205715179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8226261138916</t>
   </si>
   <si>
     <t xml:space="preserve">12.6583967208862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6394472122192</t>
+    <t xml:space="preserve">12.6394491195679</t>
   </si>
   <si>
     <t xml:space="preserve">12.6773471832275</t>
   </si>
   <si>
-    <t xml:space="preserve">12.873158454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9300079345703</t>
+    <t xml:space="preserve">12.8731603622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9300088882446</t>
   </si>
   <si>
     <t xml:space="preserve">13.2268877029419</t>
@@ -587,151 +587,151 @@
     <t xml:space="preserve">13.643780708313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7744464874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0650081634521</t>
+    <t xml:space="preserve">14.7744445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0650091171265</t>
   </si>
   <si>
     <t xml:space="preserve">15.0965900421143</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2481889724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3429355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5892820358276</t>
+    <t xml:space="preserve">15.2481870651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3429374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5892848968506</t>
   </si>
   <si>
     <t xml:space="preserve">15.8040447235107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9051122665405</t>
+    <t xml:space="preserve">15.9051084518433</t>
   </si>
   <si>
     <t xml:space="preserve">16.3662185668945</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546508789062</t>
+    <t xml:space="preserve">16.4546527862549</t>
   </si>
   <si>
     <t xml:space="preserve">16.6125659942627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7452125549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6441459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4357032775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1830387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2019901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9556427001953</t>
+    <t xml:space="preserve">16.7452144622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6441516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4357013702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1830406188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2019882202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.955641746521</t>
   </si>
   <si>
     <t xml:space="preserve">16.0503902435303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.993540763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8166799545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4755859375</t>
+    <t xml:space="preserve">15.9935436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8166780471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4755840301514</t>
   </si>
   <si>
     <t xml:space="preserve">15.4629507064819</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0081567764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0523729324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9449949264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512344360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4270334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4965181350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0227737426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5280990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.761812210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102132797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5513858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.696662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6082305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.791410446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.429386138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1514568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8229942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.917742729187</t>
+    <t xml:space="preserve">15.0081577301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0523767471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9449920654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512353897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4270353317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4965162277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0227756500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5281000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7618131637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102142333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.551381111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6966667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6082315444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7914133071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4293899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1514587402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8229932785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9177398681641</t>
   </si>
   <si>
     <t xml:space="preserve">16.2588386535645</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4230690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7388973236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1368408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0420932769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9915618896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8652286529541</t>
+    <t xml:space="preserve">16.4230709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.738899230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1368427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0420913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9915580749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8652305603027</t>
   </si>
   <si>
     <t xml:space="preserve">16.3156871795654</t>
@@ -743,37 +743,37 @@
     <t xml:space="preserve">16.8210124969482</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6757297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5367698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5936183929443</t>
+    <t xml:space="preserve">16.6757316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5367679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5936164855957</t>
   </si>
   <si>
     <t xml:space="preserve">16.5746669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3093738555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1072406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9809083938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524505615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8545789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8293123245239</t>
+    <t xml:space="preserve">16.3093700408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1072444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9809103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524496078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8545770645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8293142318726</t>
   </si>
   <si>
     <t xml:space="preserve">16.5494003295898</t>
@@ -782,100 +782,100 @@
     <t xml:space="preserve">16.2335739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1198749542236</t>
+    <t xml:space="preserve">16.119873046875</t>
   </si>
   <si>
     <t xml:space="preserve">16.3599014282227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9283962249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4337177276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4210891723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6358489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1538066864014</t>
+    <t xml:space="preserve">16.928394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4337215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4210872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6358509063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.15380859375</t>
   </si>
   <si>
     <t xml:space="preserve">18.6465015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7917804718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2927722930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2675075531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6863803863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6338672637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0760269165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2276248931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3476390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.760196685791</t>
+    <t xml:space="preserve">18.7917823791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2927703857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.267505645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6863842010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5706996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6338653564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0760288238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2276229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3476409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7601985931396</t>
   </si>
   <si>
     <t xml:space="preserve">18.8802108764648</t>
   </si>
   <si>
-    <t xml:space="preserve">19.455020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7013664245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6046333312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5015888214111</t>
+    <t xml:space="preserve">19.4550189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7013683319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6046352386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5015869140625</t>
   </si>
   <si>
     <t xml:space="preserve">21.7921485900879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9879627227783</t>
+    <t xml:space="preserve">21.987964630127</t>
   </si>
   <si>
     <t xml:space="preserve">23.0301971435547</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5690860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9291305541992</t>
+    <t xml:space="preserve">22.5690879821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.929126739502</t>
   </si>
   <si>
     <t xml:space="preserve">22.8027992248535</t>
   </si>
   <si>
-    <t xml:space="preserve">22.739631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7080516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3480072021484</t>
+    <t xml:space="preserve">22.7396335601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7080535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3480091094971</t>
   </si>
   <si>
     <t xml:space="preserve">22.613302230835</t>
@@ -884,43 +884,43 @@
     <t xml:space="preserve">22.6954174041748</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9164981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8975524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6638336181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2133731842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.548152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3586597442627</t>
+    <t xml:space="preserve">22.9164962768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8975486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6638355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2133750915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5481548309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3586578369141</t>
   </si>
   <si>
     <t xml:space="preserve">23.2891731262207</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1186256408691</t>
+    <t xml:space="preserve">23.1186237335205</t>
   </si>
   <si>
     <t xml:space="preserve">23.0491485595703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.434455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7376537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4407711029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4893207550049</t>
+    <t xml:space="preserve">23.4344539642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7376518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4407749176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4893245697021</t>
   </si>
   <si>
     <t xml:space="preserve">24.3440437316895</t>
@@ -935,34 +935,34 @@
     <t xml:space="preserve">25.0135974884033</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2200012207031</t>
+    <t xml:space="preserve">25.2199993133545</t>
   </si>
   <si>
     <t xml:space="preserve">24.8329944610596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6265869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6074676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4980487823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2075634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8915042877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6915531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7560501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.639949798584</t>
+    <t xml:space="preserve">24.6265907287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6074657440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2075595855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8915061950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6915512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7560520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6399478912354</t>
   </si>
   <si>
     <t xml:space="preserve">21.2209224700928</t>
@@ -974,58 +974,58 @@
     <t xml:space="preserve">21.491828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9562397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5238475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5109481811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5754470825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4464473724365</t>
+    <t xml:space="preserve">21.9562358856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5238456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5109462738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5754489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4464454650879</t>
   </si>
   <si>
     <t xml:space="preserve">22.2916450500488</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3303413391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7691841125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5627784729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8659362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2658405303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.059440612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1884441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8205528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7625045776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3819465637207</t>
+    <t xml:space="preserve">22.33034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7691822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.562780380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8659381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2658424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0594387054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.188440322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.820556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7625064849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3819446563721</t>
   </si>
   <si>
     <t xml:space="preserve">22.6012496948242</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5496482849121</t>
+    <t xml:space="preserve">22.5496463775635</t>
   </si>
   <si>
     <t xml:space="preserve">22.7689514160156</t>
@@ -1037,37 +1037,37 @@
     <t xml:space="preserve">22.1561908721924</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0465412139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9949378967285</t>
+    <t xml:space="preserve">22.0465393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9949359893799</t>
   </si>
   <si>
     <t xml:space="preserve">22.5302982330322</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7302513122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7044525146484</t>
+    <t xml:space="preserve">22.7302551269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7044544219971</t>
   </si>
   <si>
     <t xml:space="preserve">22.9431076049805</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0205039978027</t>
+    <t xml:space="preserve">23.0205078125</t>
   </si>
   <si>
     <t xml:space="preserve">23.1043605804443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0140609741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2204627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.37526512146</t>
+    <t xml:space="preserve">23.0140571594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2204647064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3752632141113</t>
   </si>
   <si>
     <t xml:space="preserve">23.4139652252197</t>
@@ -1076,85 +1076,85 @@
     <t xml:space="preserve">23.7042198181152</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9170761108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7880725860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7622756958008</t>
+    <t xml:space="preserve">23.9170780181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7880706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7622737884521</t>
   </si>
   <si>
     <t xml:space="preserve">23.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0138282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2847328186035</t>
+    <t xml:space="preserve">24.0138263702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2847366333008</t>
   </si>
   <si>
     <t xml:space="preserve">23.9299755096436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7039890289307</t>
+    <t xml:space="preserve">24.7039909362793</t>
   </si>
   <si>
     <t xml:space="preserve">25.1877498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8974952697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2587013244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0265007019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6070041656494</t>
+    <t xml:space="preserve">24.897497177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2586994171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0264987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6070079803467</t>
   </si>
   <si>
     <t xml:space="preserve">25.8327617645264</t>
   </si>
   <si>
-    <t xml:space="preserve">26.142370223999</t>
+    <t xml:space="preserve">26.1423683166504</t>
   </si>
   <si>
     <t xml:space="preserve">26.4003753662109</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6906337738037</t>
+    <t xml:space="preserve">26.6906318664551</t>
   </si>
   <si>
     <t xml:space="preserve">26.2520217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5035762786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4455299377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9166126251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.568078994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.780933380127</t>
+    <t xml:space="preserve">26.5035781860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4455280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8908157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9166164398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5680770874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7809314727783</t>
   </si>
   <si>
     <t xml:space="preserve">26.7293338775635</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2326717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4326267242432</t>
+    <t xml:space="preserve">26.2326698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4326248168945</t>
   </si>
   <si>
     <t xml:space="preserve">26.213321685791</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">26.1939716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3616733551025</t>
+    <t xml:space="preserve">26.3616771697998</t>
   </si>
   <si>
     <t xml:space="preserve">26.1617202758789</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">25.4199542999268</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0714168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2842769622803</t>
+    <t xml:space="preserve">26.071418762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2842750549316</t>
   </si>
   <si>
     <t xml:space="preserve">26.5745296478271</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9808902740479</t>
+    <t xml:space="preserve">26.980884552002</t>
   </si>
   <si>
     <t xml:space="preserve">26.768030166626</t>
@@ -1193,130 +1193,130 @@
     <t xml:space="preserve">26.4842281341553</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2066440582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1743907928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9357376098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1614894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5678482055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2709102630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.277364730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7675762176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1352272033691</t>
+    <t xml:space="preserve">27.2066402435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.174388885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9357357025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.161491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5678520202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2709140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2773628234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7675724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1352291107178</t>
   </si>
   <si>
     <t xml:space="preserve">29.0126781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2384338378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7353191375732</t>
+    <t xml:space="preserve">29.2384357452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7353210449219</t>
   </si>
   <si>
     <t xml:space="preserve">29.2513313293457</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4964389801025</t>
+    <t xml:space="preserve">29.4964370727539</t>
   </si>
   <si>
     <t xml:space="preserve">29.8382949829102</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5220069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.863862991333</t>
+    <t xml:space="preserve">30.5220050811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8638668060303</t>
   </si>
   <si>
     <t xml:space="preserve">31.0186672210693</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5802879333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5155544281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3411712646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7023811340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7733268737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5153312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8509674072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6125411987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1739330291748</t>
+    <t xml:space="preserve">29.5802936553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5155563354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3411731719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7023830413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7733287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5153255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8509654998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6125431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1739292144775</t>
   </si>
   <si>
     <t xml:space="preserve">29.9285945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2964820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2833518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3865528106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4252548217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6187591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1476707458496</t>
+    <t xml:space="preserve">29.2964839935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2833480834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3865547180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4252529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6187610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1476726531982</t>
   </si>
   <si>
     <t xml:space="preserve">30.3156051635742</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3543071746826</t>
+    <t xml:space="preserve">30.3542995452881</t>
   </si>
   <si>
     <t xml:space="preserve">30.1930522918701</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2446575164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7802391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4899845123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9288234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5224666595459</t>
+    <t xml:space="preserve">30.2446556091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7802410125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.489990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9288272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5224685668945</t>
   </si>
   <si>
     <t xml:space="preserve">27.0518379211426</t>
@@ -1331,19 +1331,19 @@
     <t xml:space="preserve">25.1038990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9553146362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9813442230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9942493438721</t>
+    <t xml:space="preserve">25.9553203582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9813461303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9942474365234</t>
   </si>
   <si>
     <t xml:space="preserve">24.5427379608154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1750812530518</t>
+    <t xml:space="preserve">24.1750831604004</t>
   </si>
   <si>
     <t xml:space="preserve">24.9361953735352</t>
@@ -1352,43 +1352,43 @@
     <t xml:space="preserve">24.6394901275635</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8652458190918</t>
+    <t xml:space="preserve">24.8652439117432</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651988983154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4524364471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.697774887085</t>
+    <t xml:space="preserve">24.4524345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6977729797363</t>
   </si>
   <si>
     <t xml:space="preserve">23.6655216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8977241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0009250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5881175994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9882545471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5365200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0589790344238</t>
+    <t xml:space="preserve">23.89772605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0009288787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5881195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9882583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5365219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0589771270752</t>
   </si>
   <si>
     <t xml:space="preserve">24.7104415893555</t>
   </si>
   <si>
-    <t xml:space="preserve">23.304313659668</t>
+    <t xml:space="preserve">23.3043155670166</t>
   </si>
   <si>
     <t xml:space="preserve">23.2140121459961</t>
@@ -1397,37 +1397,37 @@
     <t xml:space="preserve">23.1559619903564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8783760070801</t>
+    <t xml:space="preserve">23.8783740997314</t>
   </si>
   <si>
     <t xml:space="preserve">24.9684467315674</t>
   </si>
   <si>
-    <t xml:space="preserve">26.297176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3425521850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6715106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1230201721191</t>
+    <t xml:space="preserve">26.2971744537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6715087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1230182647705</t>
   </si>
   <si>
     <t xml:space="preserve">26.1359214782715</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7876110076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.86501121521</t>
+    <t xml:space="preserve">25.7876129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8650150299072</t>
   </si>
   <si>
     <t xml:space="preserve">24.5749855041504</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3232040405273</t>
+    <t xml:space="preserve">25.3232021331787</t>
   </si>
   <si>
     <t xml:space="preserve">25.4651069641113</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">25.1425971984863</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3490028381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2458038330078</t>
+    <t xml:space="preserve">25.349006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2458019256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.0522975921631</t>
@@ -1451,19 +1451,19 @@
     <t xml:space="preserve">24.7426929473877</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4975891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2329006195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.691089630127</t>
+    <t xml:space="preserve">24.4975872039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2329025268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6910915374756</t>
   </si>
   <si>
     <t xml:space="preserve">24.2782821655273</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3365631103516</t>
+    <t xml:space="preserve">23.3365650177002</t>
   </si>
   <si>
     <t xml:space="preserve">22.807653427124</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">21.3628234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8463535308838</t>
+    <t xml:space="preserve">22.8463573455811</t>
   </si>
   <si>
     <t xml:space="preserve">23.2720642089844</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">23.0011558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5042667388916</t>
+    <t xml:space="preserve">23.504264831543</t>
   </si>
   <si>
     <t xml:space="preserve">23.4913673400879</t>
@@ -1502,34 +1502,34 @@
     <t xml:space="preserve">23.5300693511963</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1430606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8721561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7431507110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0078372955322</t>
+    <t xml:space="preserve">23.1430587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8721523284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7431526184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0078392028809</t>
   </si>
   <si>
     <t xml:space="preserve">21.2596206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9113159179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2854232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0016212463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9887180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0723400115967</t>
+    <t xml:space="preserve">20.9113178253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.28542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0016174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9887142181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.072338104248</t>
   </si>
   <si>
     <t xml:space="preserve">21.9820404052734</t>
@@ -1538,64 +1538,64 @@
     <t xml:space="preserve">20.7178115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1760005950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3695030212402</t>
+    <t xml:space="preserve">20.1760025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3695049285889</t>
   </si>
   <si>
     <t xml:space="preserve">21.3757266998291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1822204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.88551902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1502017974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0923805236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.563009262085</t>
+    <t xml:space="preserve">21.182222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8855152130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1501998901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.092378616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5630054473877</t>
   </si>
   <si>
     <t xml:space="preserve">19.7502937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.588809967041</t>
+    <t xml:space="preserve">20.5888080596924</t>
   </si>
   <si>
     <t xml:space="preserve">21.0274181365967</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1951217651367</t>
+    <t xml:space="preserve">21.195125579834</t>
   </si>
   <si>
     <t xml:space="preserve">21.3499240875244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1626453399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6982326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5305271148682</t>
+    <t xml:space="preserve">22.1626415252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5305290222168</t>
   </si>
   <si>
     <t xml:space="preserve">21.7885322570801</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6595325469971</t>
+    <t xml:space="preserve">21.6595306396484</t>
   </si>
   <si>
     <t xml:space="preserve">21.2749500274658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.288257598877</t>
+    <t xml:space="preserve">21.2882595062256</t>
   </si>
   <si>
     <t xml:space="preserve">21.0487632751465</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">20.9955444335938</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0753765106201</t>
+    <t xml:space="preserve">21.0753746032715</t>
   </si>
   <si>
     <t xml:space="preserve">21.7539367675781</t>
@@ -1613,28 +1613,28 @@
     <t xml:space="preserve">21.9668197631836</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2861442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4724140167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7252140045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4058895111084</t>
+    <t xml:space="preserve">22.2861461639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4724159240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.725212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.405891418457</t>
   </si>
   <si>
     <t xml:space="preserve">22.0200424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4878368377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6075820922852</t>
+    <t xml:space="preserve">21.4878349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3813953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6075801849365</t>
   </si>
   <si>
     <t xml:space="preserve">21.6874103546143</t>
@@ -1643,52 +1643,52 @@
     <t xml:space="preserve">20.8491878509521</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1573181152344</t>
+    <t xml:space="preserve">20.157320022583</t>
   </si>
   <si>
     <t xml:space="preserve">19.1461277008057</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7868843078613</t>
+    <t xml:space="preserve">18.7868881225586</t>
   </si>
   <si>
     <t xml:space="preserve">18.9465465545654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5606994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1615428924561</t>
+    <t xml:space="preserve">18.560697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1615447998047</t>
   </si>
   <si>
     <t xml:space="preserve">17.1636562347412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5803422927856</t>
+    <t xml:space="preserve">15.5803442001343</t>
   </si>
   <si>
     <t xml:space="preserve">14.169997215271</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5271234512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6468706130981</t>
+    <t xml:space="preserve">15.5271215438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6468667984009</t>
   </si>
   <si>
     <t xml:space="preserve">16.9640808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0306072235107</t>
+    <t xml:space="preserve">17.0306053161621</t>
   </si>
   <si>
     <t xml:space="preserve">16.5117053985596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6580619812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.312126159668</t>
+    <t xml:space="preserve">16.6580638885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3121280670166</t>
   </si>
   <si>
     <t xml:space="preserve">16.1657695770264</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">16.8177242279053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7623920440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2546787261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2280693054199</t>
+    <t xml:space="preserve">17.7623901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2546825408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2280673980713</t>
   </si>
   <si>
     <t xml:space="preserve">17.6825580596924</t>
@@ -1712,19 +1712,19 @@
     <t xml:space="preserve">18.4675636291504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9598541259766</t>
+    <t xml:space="preserve">18.9598522186279</t>
   </si>
   <si>
     <t xml:space="preserve">18.4010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5873107910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2812919616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5628128051758</t>
+    <t xml:space="preserve">18.587308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2812881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5628108978271</t>
   </si>
   <si>
     <t xml:space="preserve">17.0039958953857</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">17.1237411499023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.150354385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2035732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1769599914551</t>
+    <t xml:space="preserve">17.1503524780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2035751342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1769638061523</t>
   </si>
   <si>
     <t xml:space="preserve">17.3632335662842</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">17.6426429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0417976379395</t>
+    <t xml:space="preserve">18.0417995452881</t>
   </si>
   <si>
     <t xml:space="preserve">18.2413749694824</t>
@@ -1757,67 +1757,67 @@
     <t xml:space="preserve">17.8954391479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4962863922119</t>
+    <t xml:space="preserve">17.4962882995605</t>
   </si>
   <si>
     <t xml:space="preserve">17.5894222259521</t>
   </si>
   <si>
-    <t xml:space="preserve">17.403148651123</t>
+    <t xml:space="preserve">17.4031505584717</t>
   </si>
   <si>
     <t xml:space="preserve">18.3345108032227</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6272277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9087467193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6559467315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9220504760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885787963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.828914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8975563049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.097131729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0992431640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.702202796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0481357574463</t>
+    <t xml:space="preserve">18.6272239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9087448120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.655948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9220523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8289165496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8975524902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0971336364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0992450714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7022018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0481376647949</t>
   </si>
   <si>
     <t xml:space="preserve">15.0082216262817</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9949159622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6090669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.342963218689</t>
+    <t xml:space="preserve">14.9949178695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6090660095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3429641723633</t>
   </si>
   <si>
     <t xml:space="preserve">13.7575368881226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.611177444458</t>
+    <t xml:space="preserve">13.6111783981323</t>
   </si>
   <si>
     <t xml:space="preserve">13.7309246063232</t>
@@ -1826,43 +1826,43 @@
     <t xml:space="preserve">13.691011428833</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5824575424194</t>
+    <t xml:space="preserve">14.5824556350708</t>
   </si>
   <si>
     <t xml:space="preserve">14.0635547637939</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2631311416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2099103927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.396183013916</t>
+    <t xml:space="preserve">14.2631340026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2099113464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3961839675903</t>
   </si>
   <si>
     <t xml:space="preserve">13.5712642669678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5180435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4781284332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0369462966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5159282684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215253829956</t>
+    <t xml:space="preserve">13.5180444717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4781274795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0369453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5159292221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215272903442</t>
   </si>
   <si>
     <t xml:space="preserve">14.875168800354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6888961791992</t>
+    <t xml:space="preserve">14.6888971328735</t>
   </si>
   <si>
     <t xml:space="preserve">15.2743244171143</t>
@@ -1883,46 +1883,46 @@
     <t xml:space="preserve">14.8485593795776</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4605960845947</t>
+    <t xml:space="preserve">15.4605951309204</t>
   </si>
   <si>
     <t xml:space="preserve">15.859751701355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8331394195557</t>
+    <t xml:space="preserve">15.8331413269043</t>
   </si>
   <si>
     <t xml:space="preserve">15.686785697937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8730573654175</t>
+    <t xml:space="preserve">15.8730592727661</t>
   </si>
   <si>
     <t xml:space="preserve">14.7288122177124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.906005859375</t>
+    <t xml:space="preserve">12.9060068130493</t>
   </si>
   <si>
     <t xml:space="preserve">11.9480333328247</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4270191192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.766303062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1721076965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9791841506958</t>
+    <t xml:space="preserve">12.427020072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663021087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1721096038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9791851043701</t>
   </si>
   <si>
     <t xml:space="preserve">11.3426494598389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.642014503479</t>
+    <t xml:space="preserve">11.6420154571533</t>
   </si>
   <si>
     <t xml:space="preserve">11.2561655044556</t>
@@ -1931,73 +1931,73 @@
     <t xml:space="preserve">10.8503580093384</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3559541702271</t>
+    <t xml:space="preserve">11.3559551239014</t>
   </si>
   <si>
     <t xml:space="preserve">11.3293447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5422277450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9102306365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8836212158203</t>
+    <t xml:space="preserve">11.5422267913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.910231590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8836221694946</t>
   </si>
   <si>
     <t xml:space="preserve">10.4844675064087</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60632514953613</t>
+    <t xml:space="preserve">9.60632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">9.21382427215576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04085731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31361389160156</t>
+    <t xml:space="preserve">9.04085636138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31361198425293</t>
   </si>
   <si>
     <t xml:space="preserve">9.34687519073486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86577606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96556568145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3381099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6441287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2362070083618</t>
+    <t xml:space="preserve">9.86577701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96556377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3381090164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6441297531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2362079620361</t>
   </si>
   <si>
     <t xml:space="preserve">10.8703165054321</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0320911407471</t>
+    <t xml:space="preserve">10.0320901870728</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385316848755</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69946193695068</t>
+    <t xml:space="preserve">9.699462890625</t>
   </si>
   <si>
     <t xml:space="preserve">10.038743019104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1717958450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2981929779053</t>
+    <t xml:space="preserve">10.1717967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2981939315796</t>
   </si>
   <si>
     <t xml:space="preserve">10.544340133667</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">10.431245803833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3979825973511</t>
+    <t xml:space="preserve">10.3979835510254</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5709505081177</t>
+    <t xml:space="preserve">10.5709495544434</t>
   </si>
   <si>
     <t xml:space="preserve">10.5243816375732</t>
@@ -2021,31 +2021,31 @@
     <t xml:space="preserve">11.9214239120483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2474002838135</t>
+    <t xml:space="preserve">12.2473983764648</t>
   </si>
   <si>
     <t xml:space="preserve">11.9946031570435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7529973983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4336719512939</t>
+    <t xml:space="preserve">12.7529954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4336729049683</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076974868774</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0611276626587</t>
+    <t xml:space="preserve">12.061128616333</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621843338013</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9081172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3692598342896</t>
+    <t xml:space="preserve">11.9081182479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3692588806152</t>
   </si>
   <si>
     <t xml:space="preserve">11.8083295822144</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">11.3093872070312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7018899917603</t>
+    <t xml:space="preserve">11.7018890380859</t>
   </si>
   <si>
     <t xml:space="preserve">12.2074861526489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1010446548462</t>
+    <t xml:space="preserve">12.1010437011719</t>
   </si>
   <si>
     <t xml:space="preserve">11.9413824081421</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">10.3048467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853128433228</t>
+    <t xml:space="preserve">10.0853109359741</t>
   </si>
   <si>
     <t xml:space="preserve">9.93895530700684</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">10.2715835571289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2782354354858</t>
+    <t xml:space="preserve">10.2782363891602</t>
   </si>
   <si>
     <t xml:space="preserve">10.9368410110474</t>
   </si>
   <si>
-    <t xml:space="preserve">11.442440032959</t>
+    <t xml:space="preserve">11.4424390792847</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815088272095</t>
@@ -2102,25 +2102,25 @@
     <t xml:space="preserve">11.60875415802</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6819305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6353616714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6021003723145</t>
+    <t xml:space="preserve">11.6819314956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6353626251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6020994186401</t>
   </si>
   <si>
     <t xml:space="preserve">11.023325920105</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5842542648315</t>
+    <t xml:space="preserve">10.5842561721802</t>
   </si>
   <si>
     <t xml:space="preserve">11.109808921814</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2495136260986</t>
+    <t xml:space="preserve">11.2495145797729</t>
   </si>
   <si>
     <t xml:space="preserve">11.5089635848999</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">10.9834098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.963451385498</t>
+    <t xml:space="preserve">10.9634532928467</t>
   </si>
   <si>
     <t xml:space="preserve">11.3027334213257</t>
@@ -2141,31 +2141,31 @@
     <t xml:space="preserve">11.475700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.582142829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1630296707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0299777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.136420249939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759126663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0698938369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108655929565</t>
+    <t xml:space="preserve">11.5821418762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1630306243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0299768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1364183425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759117126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0698947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6108646392822</t>
   </si>
   <si>
     <t xml:space="preserve">12.2008333206177</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9038934707642</t>
+    <t xml:space="preserve">13.9038915634155</t>
   </si>
   <si>
     <t xml:space="preserve">13.2319822311401</t>
@@ -2174,19 +2174,19 @@
     <t xml:space="preserve">12.5068502426147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9613399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7684135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6686267852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6220569610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1164608001709</t>
+    <t xml:space="preserve">11.9613389968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7684154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.668625831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6220560073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1164617538452</t>
   </si>
   <si>
     <t xml:space="preserve">11.3825654983521</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">12.0278654098511</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1343069076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2207908630371</t>
+    <t xml:space="preserve">12.1343059539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2207899093628</t>
   </si>
   <si>
     <t xml:space="preserve">12.6265964508057</t>
@@ -2213,10 +2213,10 @@
     <t xml:space="preserve">10.2915420532227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451845169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187854766846</t>
+    <t xml:space="preserve">10.1451854705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187864303589</t>
   </si>
   <si>
     <t xml:space="preserve">9.99217700958252</t>
@@ -2231,13 +2231,13 @@
     <t xml:space="preserve">9.87242889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8458194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72607326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78594589233398</t>
+    <t xml:space="preserve">9.84581851959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72607135772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78594493865967</t>
   </si>
   <si>
     <t xml:space="preserve">9.9788703918457</t>
@@ -2246,52 +2246,52 @@
     <t xml:space="preserve">9.89904022216797</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1651411056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445514678955</t>
+    <t xml:space="preserve">10.1651430130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445505142212</t>
   </si>
   <si>
     <t xml:space="preserve">10.4245939254761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4046354293823</t>
+    <t xml:space="preserve">10.4046363830566</t>
   </si>
   <si>
     <t xml:space="preserve">10.3248052597046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975608825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6507835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6840438842773</t>
+    <t xml:space="preserve">10.5975618362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6507816314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.684042930603</t>
   </si>
   <si>
     <t xml:space="preserve">10.8104438781738</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2869558334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9313497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6184148788452</t>
+    <t xml:space="preserve">11.2869548797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9313488006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6184167861938</t>
   </si>
   <si>
     <t xml:space="preserve">10.6966495513916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1347904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.949875831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60849189758301</t>
+    <t xml:space="preserve">10.1347894668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94987487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60849285125732</t>
   </si>
   <si>
     <t xml:space="preserve">9.37379169464111</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">9.15331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21021366119385</t>
+    <t xml:space="preserve">9.21021175384521</t>
   </si>
   <si>
     <t xml:space="preserve">9.14620304107666</t>
@@ -2321,25 +2321,25 @@
     <t xml:space="preserve">8.69813919067383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60568237304688</t>
+    <t xml:space="preserve">8.60568141937256</t>
   </si>
   <si>
     <t xml:space="preserve">8.32119560241699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49188804626465</t>
+    <t xml:space="preserve">8.49188709259033</t>
   </si>
   <si>
     <t xml:space="preserve">8.34964466094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29274845123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25007438659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10783100128174</t>
+    <t xml:space="preserve">8.29274749755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25007343292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10783195495605</t>
   </si>
   <si>
     <t xml:space="preserve">8.0438232421875</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">8.42787837982178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0580472946167</t>
+    <t xml:space="preserve">8.05804824829102</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558952331543</t>
@@ -2366,13 +2366,13 @@
     <t xml:space="preserve">8.02248668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97981262207031</t>
+    <t xml:space="preserve">7.97981357574463</t>
   </si>
   <si>
     <t xml:space="preserve">8.15761756896973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47766208648682</t>
+    <t xml:space="preserve">8.47766304016113</t>
   </si>
   <si>
     <t xml:space="preserve">8.83327007293701</t>
@@ -2405,19 +2405,19 @@
     <t xml:space="preserve">9.57293128967285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51603412628174</t>
+    <t xml:space="preserve">9.51603317260742</t>
   </si>
   <si>
     <t xml:space="preserve">9.56581878662109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6725025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43780040740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43068981170654</t>
+    <t xml:space="preserve">9.67250156402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43780136108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43068885803223</t>
   </si>
   <si>
     <t xml:space="preserve">9.33823108673096</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">9.40935230255127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85030651092529</t>
+    <t xml:space="preserve">9.85030555725098</t>
   </si>
   <si>
     <t xml:space="preserve">9.83608055114746</t>
@@ -2435,16 +2435,16 @@
     <t xml:space="preserve">9.8289680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62271595001221</t>
+    <t xml:space="preserve">9.62271690368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.48758602142334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70806121826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71517467498779</t>
+    <t xml:space="preserve">9.70806217193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71517372131348</t>
   </si>
   <si>
     <t xml:space="preserve">9.58004379272461</t>
@@ -2453,31 +2453,31 @@
     <t xml:space="preserve">9.4662504196167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53026008605957</t>
+    <t xml:space="preserve">9.53025913238525</t>
   </si>
   <si>
     <t xml:space="preserve">9.22443675994873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12486839294434</t>
+    <t xml:space="preserve">9.12486743927002</t>
   </si>
   <si>
     <t xml:space="preserve">9.39512920379639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92853832244873</t>
+    <t xml:space="preserve">9.92853927612305</t>
   </si>
   <si>
     <t xml:space="preserve">9.80763244628906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77207088470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0352201461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33111953735352</t>
+    <t xml:space="preserve">9.77206993103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0352191925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3311185836792</t>
   </si>
   <si>
     <t xml:space="preserve">8.91861534118652</t>
@@ -2486,31 +2486,31 @@
     <t xml:space="preserve">8.65546607971191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08930492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16753959655762</t>
+    <t xml:space="preserve">9.08930683135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16754055023193</t>
   </si>
   <si>
     <t xml:space="preserve">9.2742223739624</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20310020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11064434051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06085777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41646480560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64405250549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92142581939697</t>
+    <t xml:space="preserve">9.20310115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1106424331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06085681915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41646385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64405345916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92142486572266</t>
   </si>
   <si>
     <t xml:space="preserve">10.042332649231</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">10.141902923584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3979387283325</t>
+    <t xml:space="preserve">10.3979377746582</t>
   </si>
   <si>
     <t xml:space="preserve">10.3837146759033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4548368453979</t>
+    <t xml:space="preserve">10.4548358917236</t>
   </si>
   <si>
     <t xml:space="preserve">10.5117330551147</t>
@@ -2546,13 +2546,13 @@
     <t xml:space="preserve">10.703761100769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8815641403198</t>
+    <t xml:space="preserve">10.8815631866455</t>
   </si>
   <si>
     <t xml:space="preserve">10.895788192749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6397523880005</t>
+    <t xml:space="preserve">10.6397514343262</t>
   </si>
   <si>
     <t xml:space="preserve">10.5330696105957</t>
@@ -2561,34 +2561,34 @@
     <t xml:space="preserve">10.6326389312744</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8886766433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4690608978271</t>
+    <t xml:space="preserve">10.8886775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753129959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4690618515015</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343606948853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628078460693</t>
+    <t xml:space="preserve">10.2628087997437</t>
   </si>
   <si>
     <t xml:space="preserve">10.3766031265259</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0067729949951</t>
+    <t xml:space="preserve">10.0067720413208</t>
   </si>
   <si>
     <t xml:space="preserve">10.3054809570312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4761714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677698135376</t>
+    <t xml:space="preserve">10.476170539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677707672119</t>
   </si>
   <si>
     <t xml:space="preserve">10.7108736038208</t>
@@ -2603,16 +2603,16 @@
     <t xml:space="preserve">10.9455738067627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9953584671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9384613037109</t>
+    <t xml:space="preserve">10.9953575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9384622573853</t>
   </si>
   <si>
     <t xml:space="preserve">10.7464332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8673391342163</t>
+    <t xml:space="preserve">10.8673400878906</t>
   </si>
   <si>
     <t xml:space="preserve">10.9811334609985</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">10.8531160354614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.208722114563</t>
+    <t xml:space="preserve">11.2087230682373</t>
   </si>
   <si>
     <t xml:space="preserve">11.2585077285767</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">10.5828552246094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3552684783936</t>
+    <t xml:space="preserve">10.3552675247192</t>
   </si>
   <si>
     <t xml:space="preserve">10.2770328521729</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">9.98543548583984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87164211273193</t>
+    <t xml:space="preserve">9.87164115905762</t>
   </si>
   <si>
     <t xml:space="preserve">9.94276237487793</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">9.81474494934082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63694095611572</t>
+    <t xml:space="preserve">9.63694190979004</t>
   </si>
   <si>
     <t xml:space="preserve">9.72939872741699</t>
@@ -2681,55 +2681,55 @@
     <t xml:space="preserve">9.42357635498047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54448318481445</t>
+    <t xml:space="preserve">9.54448413848877</t>
   </si>
   <si>
     <t xml:space="preserve">9.75073528289795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75784683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69383716583252</t>
+    <t xml:space="preserve">9.75784778594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69383811950684</t>
   </si>
   <si>
     <t xml:space="preserve">9.74362182617188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1703510284424</t>
+    <t xml:space="preserve">10.1703500747681</t>
   </si>
   <si>
     <t xml:space="preserve">9.95698642730713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0565567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1561260223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0707807540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0494451522827</t>
+    <t xml:space="preserve">10.0565576553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1561269760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.070779800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.049446105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.191686630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99965953826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82185649871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.120566368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5472936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5259580612183</t>
+    <t xml:space="preserve">9.99966049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82185554504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1205654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5472946166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5259571075439</t>
   </si>
   <si>
     <t xml:space="preserve">10.4619474411011</t>
@@ -2747,25 +2747,25 @@
     <t xml:space="preserve">10.7179851531982</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4192752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1987991333008</t>
+    <t xml:space="preserve">10.4192762374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1988000869751</t>
   </si>
   <si>
     <t xml:space="preserve">10.5899667739868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6681995391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7819938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1447143554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1375999450684</t>
+    <t xml:space="preserve">10.6682004928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7819929122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1447134017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1376008987427</t>
   </si>
   <si>
     <t xml:space="preserve">11.0735912322998</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">11.0024709701538</t>
   </si>
   <si>
-    <t xml